--- a/DataBase/costs.xlsx
+++ b/DataBase/costs.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="45" windowWidth="18975" windowHeight="11760"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2088" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2104" uniqueCount="519">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1556,17 +1556,32 @@
   </si>
   <si>
     <t>μακαρόνια φούρνου με 4 τυριά</t>
+  </si>
+  <si>
+    <t>Omonoia</t>
+  </si>
+  <si>
+    <t>μπύρα στο transistor</t>
+  </si>
+  <si>
+    <t>κασερόπιτα και σφολιάτα στις 3 το πρωί</t>
+  </si>
+  <si>
+    <t>ταξι από Άγ.Αντώνιο με Νίκο</t>
+  </si>
+  <si>
+    <t>amaretti</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1607,7 +1622,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
     <dxf>
@@ -1705,7 +1720,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1747,7 +1762,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1779,10 +1794,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1814,7 +1828,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1990,14 +2003,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L528"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A490" workbookViewId="0">
-      <selection activeCell="A521" sqref="A521"/>
+    <sheetView tabSelected="1" topLeftCell="A505" workbookViewId="0">
+      <selection activeCell="D524" sqref="D524"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.28515625" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
@@ -2013,7 +2026,7 @@
     <col min="12" max="12" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" s="5" t="s">
         <v>234</v>
       </c>
@@ -2042,7 +2055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2" s="5" t="s">
         <v>488</v>
       </c>
@@ -2068,7 +2081,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3" s="4">
         <v>20</v>
       </c>
@@ -2092,7 +2105,7 @@
       </c>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4" s="4">
         <v>10</v>
       </c>
@@ -2115,7 +2128,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5" s="4">
         <v>100</v>
       </c>
@@ -2138,7 +2151,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="A6" s="4">
         <v>10</v>
       </c>
@@ -2161,7 +2174,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="A7" s="4">
         <v>50</v>
       </c>
@@ -2184,7 +2197,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="A8" s="4">
         <v>3.2</v>
       </c>
@@ -2207,7 +2220,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="A9" s="4">
         <v>1.3</v>
       </c>
@@ -2230,7 +2243,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="A10" s="4">
         <v>1.2</v>
       </c>
@@ -2253,7 +2266,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="A11" s="4">
         <v>5</v>
       </c>
@@ -2276,7 +2289,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12">
       <c r="A12" s="4">
         <v>4.5</v>
       </c>
@@ -2299,7 +2312,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12">
       <c r="A13" s="4">
         <v>4</v>
       </c>
@@ -2322,7 +2335,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12">
       <c r="A14" s="4">
         <v>10.6</v>
       </c>
@@ -2345,7 +2358,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12">
       <c r="A15" s="4">
         <v>1.8</v>
       </c>
@@ -2368,7 +2381,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12">
       <c r="A16" s="4">
         <v>5.15</v>
       </c>
@@ -2391,7 +2404,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" s="4">
         <v>18</v>
       </c>
@@ -2414,7 +2427,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" s="4">
         <v>1.5</v>
       </c>
@@ -2437,7 +2450,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" s="4">
         <v>7.8</v>
       </c>
@@ -2460,7 +2473,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" s="4">
         <v>4.4400000000000004</v>
       </c>
@@ -2483,7 +2496,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21" s="4">
         <v>1.5</v>
       </c>
@@ -2506,7 +2519,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22" s="4">
         <v>8.84</v>
       </c>
@@ -2529,7 +2542,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23" s="4">
         <v>4</v>
       </c>
@@ -2552,7 +2565,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="A24" s="4">
         <v>10</v>
       </c>
@@ -2575,7 +2588,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="A25" s="4">
         <v>1.8</v>
       </c>
@@ -2598,7 +2611,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="A26" s="4">
         <v>11.8</v>
       </c>
@@ -2621,7 +2634,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="A27" s="4">
         <v>40</v>
       </c>
@@ -2644,7 +2657,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="A28" s="4">
         <v>2.9</v>
       </c>
@@ -2667,7 +2680,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="A29" s="4">
         <v>4.3</v>
       </c>
@@ -2690,7 +2703,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="A30" s="4">
         <v>3.35</v>
       </c>
@@ -2713,7 +2726,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="A31" s="4">
         <v>5.2</v>
       </c>
@@ -2736,7 +2749,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="A32" s="4">
         <v>15</v>
       </c>
@@ -2759,7 +2772,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="A33" s="4">
         <v>3.9</v>
       </c>
@@ -2782,7 +2795,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="A34" s="4">
         <v>63.45</v>
       </c>
@@ -2805,7 +2818,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="A35" s="4">
         <v>49.9</v>
       </c>
@@ -2825,7 +2838,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="A36" s="4">
         <v>140</v>
       </c>
@@ -2848,7 +2861,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="A37" s="4">
         <v>1.8</v>
       </c>
@@ -2871,7 +2884,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="A38" s="4">
         <v>13.02</v>
       </c>
@@ -2894,7 +2907,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="A39" s="4">
         <v>4.7</v>
       </c>
@@ -2917,7 +2930,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="A40" s="4">
         <v>15.96</v>
       </c>
@@ -2940,7 +2953,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="A41" s="4">
         <v>9.8000000000000007</v>
       </c>
@@ -2963,7 +2976,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="A42" s="4">
         <v>79.8</v>
       </c>
@@ -2986,7 +2999,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="A43" s="4">
         <v>11.9</v>
       </c>
@@ -3009,7 +3022,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="A44" s="4">
         <v>38.880000000000003</v>
       </c>
@@ -3032,7 +3045,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8">
       <c r="A45" s="4">
         <v>7.75</v>
       </c>
@@ -3055,7 +3068,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="A46" s="4">
         <v>0.79</v>
       </c>
@@ -3078,7 +3091,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="A47" s="4">
         <v>10</v>
       </c>
@@ -3101,7 +3114,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8">
       <c r="A48" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -3124,7 +3137,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11">
       <c r="A49" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -3147,7 +3160,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11">
       <c r="A50" s="4">
         <v>1.8</v>
       </c>
@@ -3170,7 +3183,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11">
       <c r="A51" s="4">
         <v>24</v>
       </c>
@@ -3193,7 +3206,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11">
       <c r="A52" s="4">
         <v>24</v>
       </c>
@@ -3216,7 +3229,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11">
       <c r="A53" s="4">
         <v>1.8</v>
       </c>
@@ -3239,7 +3252,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11">
       <c r="A54" s="4">
         <v>3.5</v>
       </c>
@@ -3262,7 +3275,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11">
       <c r="A55" s="4">
         <v>5.6</v>
       </c>
@@ -3286,7 +3299,7 @@
       </c>
       <c r="K55" s="4"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11">
       <c r="A56" s="4">
         <v>1.5</v>
       </c>
@@ -3309,7 +3322,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11">
       <c r="A57" s="4">
         <v>3</v>
       </c>
@@ -3332,7 +3345,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11">
       <c r="A58" s="4">
         <v>5.4</v>
       </c>
@@ -3355,7 +3368,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11">
       <c r="A59" s="4">
         <v>8</v>
       </c>
@@ -3378,7 +3391,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11">
       <c r="A60" s="4">
         <v>5.4</v>
       </c>
@@ -3401,7 +3414,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11">
       <c r="A61" s="4">
         <v>0.6</v>
       </c>
@@ -3424,7 +3437,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11">
       <c r="A62" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -3447,7 +3460,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11">
       <c r="A63" s="4">
         <v>1.5</v>
       </c>
@@ -3470,7 +3483,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11">
       <c r="A64" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -3493,7 +3506,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11">
       <c r="A65" s="4">
         <v>1.2</v>
       </c>
@@ -3516,7 +3529,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11">
       <c r="A66" s="4">
         <v>5.0999999999999996</v>
       </c>
@@ -3539,7 +3552,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11">
       <c r="A67" s="4">
         <v>13.5</v>
       </c>
@@ -3562,7 +3575,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11">
       <c r="A68" s="4">
         <v>3.5</v>
       </c>
@@ -3586,7 +3599,7 @@
       </c>
       <c r="K68" s="4"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11">
       <c r="A69" s="4">
         <v>4.0999999999999996</v>
       </c>
@@ -3609,7 +3622,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11">
       <c r="A70" s="4">
         <v>90</v>
       </c>
@@ -3632,7 +3645,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11">
       <c r="A71" s="4">
         <v>65.5</v>
       </c>
@@ -3655,7 +3668,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11">
       <c r="A72" s="4">
         <v>4.5</v>
       </c>
@@ -3678,7 +3691,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11">
       <c r="A73" s="4">
         <v>10</v>
       </c>
@@ -3701,7 +3714,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11">
       <c r="A74" s="4">
         <v>18.8</v>
       </c>
@@ -3724,7 +3737,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11">
       <c r="A75" s="4">
         <v>1.8</v>
       </c>
@@ -3748,7 +3761,7 @@
       </c>
       <c r="K75" s="4"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11">
       <c r="A76" s="4">
         <v>5.5</v>
       </c>
@@ -3771,7 +3784,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11">
       <c r="A77" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -3794,7 +3807,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11">
       <c r="A78" s="4">
         <v>3</v>
       </c>
@@ -3817,7 +3830,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11">
       <c r="A79" s="4">
         <v>2</v>
       </c>
@@ -3840,7 +3853,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11">
       <c r="A80" s="4">
         <v>9.9</v>
       </c>
@@ -3863,7 +3876,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8">
       <c r="A81" s="4">
         <v>6.5</v>
       </c>
@@ -3886,7 +3899,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8">
       <c r="A82" s="4">
         <v>79.8</v>
       </c>
@@ -3909,7 +3922,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8">
       <c r="A83" s="4">
         <v>10</v>
       </c>
@@ -3932,7 +3945,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8">
       <c r="A84" s="4">
         <v>2.5</v>
       </c>
@@ -3955,7 +3968,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8">
       <c r="A85" s="4">
         <v>5</v>
       </c>
@@ -3978,7 +3991,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8">
       <c r="A86" s="4">
         <v>1.6</v>
       </c>
@@ -4001,7 +4014,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8">
       <c r="A87" s="4">
         <v>5.5</v>
       </c>
@@ -4024,7 +4037,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8">
       <c r="A88" s="4">
         <v>0.8</v>
       </c>
@@ -4047,7 +4060,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8">
       <c r="A89" s="4">
         <v>17</v>
       </c>
@@ -4070,7 +4083,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8">
       <c r="A90" s="4">
         <v>24.9</v>
       </c>
@@ -4093,7 +4106,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8">
       <c r="A91" s="4">
         <v>1.8</v>
       </c>
@@ -4116,7 +4129,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8">
       <c r="A92" s="4">
         <v>44.99</v>
       </c>
@@ -4139,7 +4152,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8">
       <c r="A93" s="4">
         <v>4</v>
       </c>
@@ -4162,7 +4175,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8">
       <c r="A94" s="4">
         <v>5</v>
       </c>
@@ -4185,7 +4198,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8">
       <c r="A95" s="4">
         <v>5</v>
       </c>
@@ -4208,7 +4221,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8">
       <c r="A96" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -4231,7 +4244,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8">
       <c r="A97" s="4">
         <v>3</v>
       </c>
@@ -4254,7 +4267,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8">
       <c r="A98" s="4">
         <v>6</v>
       </c>
@@ -4277,7 +4290,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8">
       <c r="A99" s="4">
         <v>3.5</v>
       </c>
@@ -4300,7 +4313,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8">
       <c r="A100" s="4">
         <v>34.9</v>
       </c>
@@ -4323,7 +4336,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8">
       <c r="A101" s="4">
         <v>12</v>
       </c>
@@ -4346,7 +4359,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8">
       <c r="A102" s="4">
         <v>5</v>
       </c>
@@ -4369,7 +4382,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8">
       <c r="A103" s="4">
         <v>6.9</v>
       </c>
@@ -4392,7 +4405,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8">
       <c r="A104" s="4">
         <v>6.04</v>
       </c>
@@ -4415,7 +4428,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8">
       <c r="A105" s="4">
         <v>4.8</v>
       </c>
@@ -4438,7 +4451,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8">
       <c r="A106" s="4">
         <v>9.6999999999999993</v>
       </c>
@@ -4461,7 +4474,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8">
       <c r="A107" s="4">
         <v>5.5</v>
       </c>
@@ -4484,7 +4497,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8">
       <c r="A108" s="4">
         <v>7</v>
       </c>
@@ -4507,7 +4520,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8">
       <c r="A109" s="4">
         <v>1</v>
       </c>
@@ -4530,7 +4543,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8">
       <c r="A110" s="4">
         <v>4</v>
       </c>
@@ -4553,7 +4566,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8">
       <c r="A111" s="4">
         <v>4.0999999999999996</v>
       </c>
@@ -4576,7 +4589,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8">
       <c r="A112" s="4">
         <v>2.3199999999999998</v>
       </c>
@@ -4599,7 +4612,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8">
       <c r="A113" s="4">
         <v>8</v>
       </c>
@@ -4622,7 +4635,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8">
       <c r="A114" s="4">
         <v>12.5</v>
       </c>
@@ -4645,7 +4658,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8">
       <c r="A115" s="4">
         <v>0.7</v>
       </c>
@@ -4668,7 +4681,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8">
       <c r="A116" s="4">
         <v>6.3</v>
       </c>
@@ -4691,7 +4704,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8">
       <c r="A117" s="4">
         <v>8</v>
       </c>
@@ -4714,7 +4727,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8">
       <c r="A118" s="4">
         <v>5.0999999999999996</v>
       </c>
@@ -4737,7 +4750,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8">
       <c r="A119" s="4">
         <v>8</v>
       </c>
@@ -4760,7 +4773,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8">
       <c r="A120" s="4">
         <v>4.5</v>
       </c>
@@ -4783,7 +4796,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8">
       <c r="A121" s="4">
         <v>2.5</v>
       </c>
@@ -4806,7 +4819,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8">
       <c r="A122" s="4">
         <v>24.3</v>
       </c>
@@ -4829,7 +4842,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8">
       <c r="A123" s="4">
         <v>2</v>
       </c>
@@ -4852,7 +4865,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8">
       <c r="A124" s="4">
         <v>16</v>
       </c>
@@ -4875,7 +4888,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8">
       <c r="A125" s="4">
         <v>6</v>
       </c>
@@ -4898,7 +4911,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8">
       <c r="A126" s="4">
         <v>5</v>
       </c>
@@ -4921,7 +4934,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8">
       <c r="A127" s="4">
         <v>6.52</v>
       </c>
@@ -4944,7 +4957,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8">
       <c r="A128" s="4">
         <v>1.8</v>
       </c>
@@ -4967,7 +4980,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8">
       <c r="A129" s="4">
         <v>1</v>
       </c>
@@ -4990,7 +5003,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8">
       <c r="A130" s="4">
         <v>5</v>
       </c>
@@ -5013,7 +5026,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8">
       <c r="A131" s="4">
         <v>43</v>
       </c>
@@ -5036,7 +5049,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8">
       <c r="A132" s="4">
         <v>10</v>
       </c>
@@ -5059,7 +5072,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8">
       <c r="A133" s="4">
         <v>2.97</v>
       </c>
@@ -5082,7 +5095,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8">
       <c r="A134" s="4">
         <v>10</v>
       </c>
@@ -5105,7 +5118,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8">
       <c r="A135" s="4">
         <v>1.6</v>
       </c>
@@ -5128,7 +5141,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8">
       <c r="A136" s="4">
         <v>1.5</v>
       </c>
@@ -5151,7 +5164,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8">
       <c r="A137" s="4">
         <v>1.8</v>
       </c>
@@ -5174,7 +5187,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8">
       <c r="A138" s="4">
         <v>7.3</v>
       </c>
@@ -5197,7 +5210,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8">
       <c r="A139" s="4">
         <v>4</v>
       </c>
@@ -5220,7 +5233,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8">
       <c r="A140" s="4">
         <v>2.1</v>
       </c>
@@ -5243,7 +5256,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8">
       <c r="A141" s="4">
         <v>4.2</v>
       </c>
@@ -5266,7 +5279,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8">
       <c r="A142" s="4">
         <v>9</v>
       </c>
@@ -5289,7 +5302,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8">
       <c r="A143" s="4">
         <v>1</v>
       </c>
@@ -5312,7 +5325,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8">
       <c r="A144" s="4">
         <v>3.5</v>
       </c>
@@ -5335,7 +5348,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8">
       <c r="A145" s="4">
         <v>5.0999999999999996</v>
       </c>
@@ -5358,7 +5371,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8">
       <c r="A146" s="4">
         <v>3</v>
       </c>
@@ -5381,7 +5394,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8">
       <c r="A147" s="4">
         <v>2</v>
       </c>
@@ -5404,7 +5417,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8">
       <c r="A148" s="4">
         <v>150</v>
       </c>
@@ -5427,7 +5440,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8">
       <c r="A149" s="4">
         <v>7</v>
       </c>
@@ -5450,7 +5463,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8">
       <c r="A150" s="4">
         <v>5</v>
       </c>
@@ -5473,7 +5486,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8">
       <c r="A151" s="4">
         <v>8</v>
       </c>
@@ -5496,7 +5509,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8">
       <c r="A152" s="4">
         <v>3.5</v>
       </c>
@@ -5519,7 +5532,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8">
       <c r="A153" s="4">
         <v>55</v>
       </c>
@@ -5542,7 +5555,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8">
       <c r="A154" s="4">
         <v>0.6</v>
       </c>
@@ -5565,7 +5578,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8">
       <c r="A155" s="4">
         <v>4</v>
       </c>
@@ -5588,7 +5601,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8">
       <c r="A156" s="4">
         <v>39.9</v>
       </c>
@@ -5611,7 +5624,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8">
       <c r="A157" s="4">
         <v>1.6</v>
       </c>
@@ -5634,7 +5647,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8">
       <c r="A158" s="4">
         <v>80</v>
       </c>
@@ -5657,7 +5670,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8">
       <c r="A159" s="4">
         <v>6.2</v>
       </c>
@@ -5680,7 +5693,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8">
       <c r="A160" s="4">
         <v>15</v>
       </c>
@@ -5703,7 +5716,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8">
       <c r="A161" s="4">
         <v>4.3</v>
       </c>
@@ -5726,7 +5739,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8">
       <c r="A162" s="4">
         <v>9.6999999999999993</v>
       </c>
@@ -5749,7 +5762,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8">
       <c r="A163" s="4">
         <v>2.4500000000000002</v>
       </c>
@@ -5772,7 +5785,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8">
       <c r="A164" s="4">
         <v>1.96</v>
       </c>
@@ -5795,7 +5808,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8">
       <c r="A165" s="4">
         <v>11.5</v>
       </c>
@@ -5818,7 +5831,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8">
       <c r="A166" s="4">
         <v>2.7</v>
       </c>
@@ -5841,7 +5854,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8">
       <c r="A167" s="4">
         <v>2.7</v>
       </c>
@@ -5864,7 +5877,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8">
       <c r="A168" s="4">
         <v>7</v>
       </c>
@@ -5887,7 +5900,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8">
       <c r="A169" s="4">
         <v>4.8</v>
       </c>
@@ -5910,7 +5923,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8">
       <c r="A170" s="4">
         <v>4.4000000000000004</v>
       </c>
@@ -5933,7 +5946,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8">
       <c r="A171" s="4">
         <v>3.8</v>
       </c>
@@ -5956,7 +5969,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8">
       <c r="A172" s="4">
         <v>1.5</v>
       </c>
@@ -5979,7 +5992,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8">
       <c r="A173" s="4">
         <v>11.5</v>
       </c>
@@ -6002,7 +6015,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8">
       <c r="A174" s="4">
         <v>4.4000000000000004</v>
       </c>
@@ -6025,7 +6038,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8">
       <c r="A175" s="4">
         <v>6.5</v>
       </c>
@@ -6048,7 +6061,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8">
       <c r="A176" s="4">
         <v>6.5</v>
       </c>
@@ -6071,7 +6084,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8">
       <c r="A177" s="4">
         <v>5</v>
       </c>
@@ -6094,7 +6107,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8">
       <c r="A178" s="4">
         <v>6</v>
       </c>
@@ -6117,7 +6130,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8">
       <c r="A179" s="4">
         <v>8</v>
       </c>
@@ -6140,7 +6153,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8">
       <c r="A180" s="4">
         <v>3.2</v>
       </c>
@@ -6163,7 +6176,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8">
       <c r="A181" s="4">
         <v>10</v>
       </c>
@@ -6186,7 +6199,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8">
       <c r="A182" s="4">
         <v>3</v>
       </c>
@@ -6209,7 +6222,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8">
       <c r="A183" s="4">
         <v>10</v>
       </c>
@@ -6232,7 +6245,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8">
       <c r="A184" s="4">
         <v>3.5</v>
       </c>
@@ -6255,7 +6268,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8">
       <c r="A185" s="4">
         <v>10</v>
       </c>
@@ -6278,7 +6291,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8">
       <c r="A186" s="4">
         <v>8</v>
       </c>
@@ -6301,7 +6314,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8">
       <c r="A187" s="4">
         <v>6.2</v>
       </c>
@@ -6324,7 +6337,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8">
       <c r="A188" s="4">
         <v>2</v>
       </c>
@@ -6347,7 +6360,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8">
       <c r="A189" s="4">
         <v>10</v>
       </c>
@@ -6370,7 +6383,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8">
       <c r="A190" s="4">
         <v>22</v>
       </c>
@@ -6393,7 +6406,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8">
       <c r="A191" s="4">
         <v>14</v>
       </c>
@@ -6416,7 +6429,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8">
       <c r="A192" s="4">
         <v>14</v>
       </c>
@@ -6439,7 +6452,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8">
       <c r="A193" s="4">
         <v>4.7</v>
       </c>
@@ -6462,7 +6475,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8">
       <c r="A194" s="4">
         <v>69.900000000000006</v>
       </c>
@@ -6485,7 +6498,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8">
       <c r="A195" s="4">
         <v>8.4</v>
       </c>
@@ -6508,7 +6521,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8">
       <c r="A196" s="4">
         <v>5</v>
       </c>
@@ -6531,7 +6544,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8">
       <c r="A197" s="4">
         <v>4.5</v>
       </c>
@@ -6554,7 +6567,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8">
       <c r="A198" s="4">
         <v>6</v>
       </c>
@@ -6577,7 +6590,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8">
       <c r="A199" s="4">
         <v>5.46</v>
       </c>
@@ -6600,7 +6613,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8">
       <c r="A200" s="4">
         <v>78.849999999999994</v>
       </c>
@@ -6623,7 +6636,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8">
       <c r="A201" s="4">
         <v>10</v>
       </c>
@@ -6646,7 +6659,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8">
       <c r="A202" s="4">
         <v>10</v>
       </c>
@@ -6669,7 +6682,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8">
       <c r="A203" s="4">
         <v>26</v>
       </c>
@@ -6692,7 +6705,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8">
       <c r="A204" s="4">
         <v>2</v>
       </c>
@@ -6715,7 +6728,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8">
       <c r="A205" s="4">
         <v>2.5</v>
       </c>
@@ -6738,7 +6751,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8">
       <c r="A206" s="4">
         <v>5.9</v>
       </c>
@@ -6761,7 +6774,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8">
       <c r="A207" s="4">
         <v>8.6</v>
       </c>
@@ -6784,7 +6797,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8">
       <c r="A208" s="4">
         <v>2.7</v>
       </c>
@@ -6807,7 +6820,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8">
       <c r="A209" s="4">
         <v>4.8</v>
       </c>
@@ -6830,7 +6843,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8">
       <c r="A210" s="4">
         <v>2.8</v>
       </c>
@@ -6853,7 +6866,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8">
       <c r="A211" s="4">
         <v>2</v>
       </c>
@@ -6876,7 +6889,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8">
       <c r="A212" s="4">
         <v>5</v>
       </c>
@@ -6899,7 +6912,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8">
       <c r="A213" s="4">
         <v>2.5</v>
       </c>
@@ -6922,7 +6935,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8">
       <c r="A214" s="4">
         <v>3.5</v>
       </c>
@@ -6945,7 +6958,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8">
       <c r="A215" s="4">
         <v>1.8</v>
       </c>
@@ -6968,7 +6981,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8">
       <c r="A216" s="4">
         <v>4</v>
       </c>
@@ -6991,7 +7004,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8">
       <c r="A217" s="4">
         <v>6</v>
       </c>
@@ -7014,7 +7027,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8">
       <c r="A218" s="4">
         <v>1.8</v>
       </c>
@@ -7037,7 +7050,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8">
       <c r="A219" s="4">
         <v>5</v>
       </c>
@@ -7060,7 +7073,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8">
       <c r="A220" s="4">
         <v>5</v>
       </c>
@@ -7083,7 +7096,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8">
       <c r="A221" s="4">
         <v>4.7</v>
       </c>
@@ -7106,7 +7119,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8">
       <c r="A222" s="4">
         <v>5</v>
       </c>
@@ -7129,7 +7142,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8">
       <c r="A223" s="4">
         <v>10</v>
       </c>
@@ -7152,7 +7165,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8">
       <c r="A224" s="4">
         <v>1.5</v>
       </c>
@@ -7175,7 +7188,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8">
       <c r="A225" s="4">
         <v>129</v>
       </c>
@@ -7198,7 +7211,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8">
       <c r="A226" s="4">
         <v>7</v>
       </c>
@@ -7221,7 +7234,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8">
       <c r="A227" s="4">
         <v>2.8</v>
       </c>
@@ -7244,7 +7257,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8">
       <c r="A228" s="4">
         <v>1</v>
       </c>
@@ -7267,7 +7280,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8">
       <c r="A229" s="4">
         <v>4</v>
       </c>
@@ -7290,7 +7303,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8">
       <c r="A230" s="4">
         <v>50</v>
       </c>
@@ -7313,7 +7326,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8">
       <c r="A231" s="4">
         <v>7.2</v>
       </c>
@@ -7336,7 +7349,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8">
       <c r="A232" s="4">
         <v>1</v>
       </c>
@@ -7359,7 +7372,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:8">
       <c r="A233" s="4">
         <v>7</v>
       </c>
@@ -7382,7 +7395,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8">
       <c r="A234" s="4">
         <v>1.1000000000000001</v>
       </c>
@@ -7405,7 +7418,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8">
       <c r="A235" s="4">
         <v>7</v>
       </c>
@@ -7428,7 +7441,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8">
       <c r="A236" s="4">
         <v>15</v>
       </c>
@@ -7451,7 +7464,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8">
       <c r="A237" s="4">
         <v>3</v>
       </c>
@@ -7474,7 +7487,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:8">
       <c r="A238" s="4">
         <v>11.2</v>
       </c>
@@ -7497,7 +7510,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8">
       <c r="A239" s="4">
         <v>2.1</v>
       </c>
@@ -7520,7 +7533,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8">
       <c r="A240" s="4">
         <v>150</v>
       </c>
@@ -7543,7 +7556,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8">
       <c r="A241" s="4">
         <v>12.7</v>
       </c>
@@ -7566,7 +7579,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8">
       <c r="A242" s="4">
         <v>89.9</v>
       </c>
@@ -7589,7 +7602,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8">
       <c r="A243" s="4">
         <v>4.4000000000000004</v>
       </c>
@@ -7612,7 +7625,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8">
       <c r="A244" s="4">
         <v>4.2</v>
       </c>
@@ -7635,7 +7648,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8">
       <c r="A245" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -7658,7 +7671,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8">
       <c r="A246" s="4">
         <v>5</v>
       </c>
@@ -7681,7 +7694,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8">
       <c r="A247" s="4">
         <v>5</v>
       </c>
@@ -7704,7 +7717,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8">
       <c r="A248" s="4">
         <v>3.9</v>
       </c>
@@ -7727,7 +7740,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8">
       <c r="A249" s="4">
         <v>0.5</v>
       </c>
@@ -7750,7 +7763,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8">
       <c r="A250" s="4">
         <v>2.4</v>
       </c>
@@ -7773,7 +7786,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8">
       <c r="A251" s="4">
         <v>2</v>
       </c>
@@ -7796,7 +7809,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8">
       <c r="A252" s="4">
         <v>4.7</v>
       </c>
@@ -7819,7 +7832,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8">
       <c r="A253" s="4">
         <v>5.3</v>
       </c>
@@ -7842,7 +7855,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8">
       <c r="A254" s="4">
         <v>4.2</v>
       </c>
@@ -7865,7 +7878,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8">
       <c r="A255" s="4">
         <v>5</v>
       </c>
@@ -7888,7 +7901,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8">
       <c r="A256" s="4">
         <v>2.5</v>
       </c>
@@ -7911,7 +7924,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8">
       <c r="A257" s="4">
         <v>3.3</v>
       </c>
@@ -7934,7 +7947,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8">
       <c r="A258" s="4">
         <v>5.6</v>
       </c>
@@ -7957,7 +7970,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8">
       <c r="A259" s="4">
         <v>4</v>
       </c>
@@ -7980,7 +7993,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8">
       <c r="A260" s="4">
         <v>10.199999999999999</v>
       </c>
@@ -8003,7 +8016,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8">
       <c r="A261" s="4">
         <v>8</v>
       </c>
@@ -8026,7 +8039,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8">
       <c r="A262" s="4">
         <v>2.1</v>
       </c>
@@ -8049,7 +8062,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8">
       <c r="A263" s="4">
         <v>3.7</v>
       </c>
@@ -8072,7 +8085,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8">
       <c r="A264" s="4">
         <v>7</v>
       </c>
@@ -8095,7 +8108,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8">
       <c r="A265" s="4">
         <v>13.5</v>
       </c>
@@ -8118,7 +8131,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8">
       <c r="A266" s="4">
         <v>5</v>
       </c>
@@ -8141,7 +8154,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8">
       <c r="A267" s="4">
         <v>20</v>
       </c>
@@ -8164,7 +8177,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8">
       <c r="A268" s="4">
         <v>6</v>
       </c>
@@ -8187,7 +8200,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:8">
       <c r="A269" s="4">
         <v>0.5</v>
       </c>
@@ -8210,7 +8223,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:8">
       <c r="A270" s="4">
         <v>5</v>
       </c>
@@ -8233,7 +8246,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8">
       <c r="A271" s="4">
         <v>11</v>
       </c>
@@ -8256,7 +8269,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:8">
       <c r="A272" s="4">
         <v>8.8000000000000007</v>
       </c>
@@ -8279,7 +8292,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8">
       <c r="A273" s="4">
         <v>0.5</v>
       </c>
@@ -8302,7 +8315,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8">
       <c r="A274" s="4">
         <v>5</v>
       </c>
@@ -8325,7 +8338,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8">
       <c r="A275" s="4">
         <v>10</v>
       </c>
@@ -8348,7 +8361,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8">
       <c r="A276" s="4">
         <v>15</v>
       </c>
@@ -8371,7 +8384,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:8">
       <c r="A277" s="4">
         <v>10</v>
       </c>
@@ -8394,7 +8407,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:8">
       <c r="A278" s="4">
         <v>11.9</v>
       </c>
@@ -8417,7 +8430,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:8">
       <c r="A279" s="4">
         <v>7</v>
       </c>
@@ -8440,7 +8453,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:8">
       <c r="A280" s="4">
         <v>5.0999999999999996</v>
       </c>
@@ -8463,7 +8476,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:8">
       <c r="A281">
         <v>1.9</v>
       </c>
@@ -8486,7 +8499,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8">
       <c r="A282">
         <v>119.9</v>
       </c>
@@ -8509,7 +8522,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:8">
       <c r="A283">
         <v>6.3</v>
       </c>
@@ -8532,7 +8545,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:8">
       <c r="A284">
         <v>3.5</v>
       </c>
@@ -8555,7 +8568,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:8">
       <c r="A285">
         <v>1.5</v>
       </c>
@@ -8578,7 +8591,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8">
       <c r="A286">
         <v>1.9</v>
       </c>
@@ -8601,7 +8614,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:8">
       <c r="A287">
         <v>4.5</v>
       </c>
@@ -8624,7 +8637,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:8">
       <c r="A288">
         <v>6.4</v>
       </c>
@@ -8647,7 +8660,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:8">
       <c r="A289">
         <v>1.9</v>
       </c>
@@ -8670,7 +8683,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:8">
       <c r="A290">
         <v>10.6</v>
       </c>
@@ -8693,7 +8706,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:8">
       <c r="A291">
         <v>4.5</v>
       </c>
@@ -8716,7 +8729,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:8">
       <c r="A292">
         <v>22.2</v>
       </c>
@@ -8739,7 +8752,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:8">
       <c r="A293" s="6">
         <v>25</v>
       </c>
@@ -8762,7 +8775,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:8">
       <c r="A294" s="6">
         <v>3.5</v>
       </c>
@@ -8785,7 +8798,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:8">
       <c r="A295">
         <v>4</v>
       </c>
@@ -8808,7 +8821,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:8">
       <c r="A296">
         <v>2.2000000000000002</v>
       </c>
@@ -8831,7 +8844,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:8">
       <c r="A297">
         <v>11.5</v>
       </c>
@@ -8854,7 +8867,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:8">
       <c r="A298">
         <v>6.3</v>
       </c>
@@ -8877,7 +8890,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:8">
       <c r="A299">
         <v>3.6</v>
       </c>
@@ -8900,7 +8913,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:8">
       <c r="A300">
         <v>15</v>
       </c>
@@ -8923,7 +8936,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:8">
       <c r="A301">
         <v>2</v>
       </c>
@@ -8946,7 +8959,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:8">
       <c r="A302">
         <v>4.5</v>
       </c>
@@ -8969,7 +8982,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:8">
       <c r="A303">
         <v>2.9</v>
       </c>
@@ -8992,7 +9005,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:8">
       <c r="A304">
         <v>3.9</v>
       </c>
@@ -9015,7 +9028,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:8">
       <c r="A305">
         <v>1.7</v>
       </c>
@@ -9038,7 +9051,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:8">
       <c r="A306">
         <v>10</v>
       </c>
@@ -9061,7 +9074,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:8">
       <c r="A307">
         <v>7.5</v>
       </c>
@@ -9084,7 +9097,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:8">
       <c r="A308">
         <v>10.050000000000001</v>
       </c>
@@ -9107,7 +9120,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:8">
       <c r="A309">
         <v>5</v>
       </c>
@@ -9130,7 +9143,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:8">
       <c r="A310">
         <v>3</v>
       </c>
@@ -9153,7 +9166,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:8">
       <c r="A311">
         <v>2</v>
       </c>
@@ -9176,7 +9189,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:8">
       <c r="A312">
         <v>10.6</v>
       </c>
@@ -9199,7 +9212,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:8">
       <c r="A313">
         <v>4</v>
       </c>
@@ -9222,7 +9235,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:8">
       <c r="A314">
         <v>2</v>
       </c>
@@ -9245,7 +9258,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:8">
       <c r="A315">
         <v>5.8</v>
       </c>
@@ -9268,7 +9281,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:8">
       <c r="A316">
         <v>5</v>
       </c>
@@ -9291,7 +9304,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:8">
       <c r="A317">
         <v>6.55</v>
       </c>
@@ -9314,7 +9327,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:8">
       <c r="A318">
         <v>2.8</v>
       </c>
@@ -9337,7 +9350,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:8">
       <c r="A319">
         <v>3.8</v>
       </c>
@@ -9360,7 +9373,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:8">
       <c r="A320">
         <v>9</v>
       </c>
@@ -9383,7 +9396,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:8">
       <c r="A321">
         <v>8</v>
       </c>
@@ -9406,7 +9419,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:8">
       <c r="A322">
         <v>1.5</v>
       </c>
@@ -9429,7 +9442,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:8">
       <c r="A323">
         <v>5</v>
       </c>
@@ -9452,7 +9465,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:8">
       <c r="A324">
         <v>4.5999999999999996</v>
       </c>
@@ -9475,7 +9488,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:8">
       <c r="A325">
         <v>0.5</v>
       </c>
@@ -9498,7 +9511,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:8">
       <c r="A326">
         <v>2.95</v>
       </c>
@@ -9521,7 +9534,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:8">
       <c r="A327">
         <v>3.8</v>
       </c>
@@ -9544,7 +9557,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:8">
       <c r="A328">
         <v>10</v>
       </c>
@@ -9567,7 +9580,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:8">
       <c r="A329">
         <v>3.85</v>
       </c>
@@ -9590,7 +9603,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:8">
       <c r="A330">
         <v>1.2</v>
       </c>
@@ -9613,7 +9626,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:8">
       <c r="A331">
         <v>2</v>
       </c>
@@ -9636,7 +9649,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:8">
       <c r="A332">
         <v>8.5</v>
       </c>
@@ -9659,7 +9672,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:8">
       <c r="A333">
         <v>4.9000000000000004</v>
       </c>
@@ -9682,7 +9695,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:8">
       <c r="A334">
         <v>10</v>
       </c>
@@ -9705,7 +9718,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:8">
       <c r="A335">
         <v>1.5</v>
       </c>
@@ -9725,7 +9738,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:8">
       <c r="A336">
         <v>350</v>
       </c>
@@ -9748,7 +9761,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:8">
       <c r="A337">
         <v>4.4000000000000004</v>
       </c>
@@ -9771,7 +9784,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:8">
       <c r="A338">
         <v>3.2</v>
       </c>
@@ -9794,7 +9807,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:8">
       <c r="A339">
         <v>3.8</v>
       </c>
@@ -9817,7 +9830,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:8">
       <c r="A340">
         <v>0.9</v>
       </c>
@@ -9840,7 +9853,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:8">
       <c r="A341">
         <v>6</v>
       </c>
@@ -9863,7 +9876,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:8">
       <c r="A342">
         <v>3.8</v>
       </c>
@@ -9886,7 +9899,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:8">
       <c r="A343">
         <v>2</v>
       </c>
@@ -9909,7 +9922,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:8">
       <c r="A344">
         <v>5.5</v>
       </c>
@@ -9932,7 +9945,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:8">
       <c r="A345">
         <v>43.22</v>
       </c>
@@ -9955,7 +9968,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:8">
       <c r="A346">
         <v>2</v>
       </c>
@@ -9978,7 +9991,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:8">
       <c r="A347">
         <v>7</v>
       </c>
@@ -10001,7 +10014,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:8">
       <c r="A348">
         <v>1.61</v>
       </c>
@@ -10024,7 +10037,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:8">
       <c r="A349">
         <v>20</v>
       </c>
@@ -10047,7 +10060,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:8">
       <c r="A350">
         <v>14.84</v>
       </c>
@@ -10070,7 +10083,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:8">
       <c r="A351">
         <v>5.6</v>
       </c>
@@ -10093,7 +10106,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:8">
       <c r="A352">
         <v>6.8</v>
       </c>
@@ -10116,7 +10129,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="353" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:12">
       <c r="A353">
         <v>7.7</v>
       </c>
@@ -10139,7 +10152,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:12">
       <c r="A354">
         <v>29.4</v>
       </c>
@@ -10162,7 +10175,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:12">
       <c r="A355">
         <v>0.5</v>
       </c>
@@ -10185,7 +10198,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:12">
       <c r="A356">
         <v>2.2000000000000002</v>
       </c>
@@ -10208,7 +10221,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="357" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:12">
       <c r="A357">
         <v>3.5</v>
       </c>
@@ -10231,7 +10244,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="358" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:12">
       <c r="A358">
         <v>4.4000000000000004</v>
       </c>
@@ -10254,7 +10267,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="359" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:12">
       <c r="A359">
         <v>5.7</v>
       </c>
@@ -10277,7 +10290,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="360" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:12">
       <c r="A360">
         <v>7.74</v>
       </c>
@@ -10300,7 +10313,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="361" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:12">
       <c r="A361">
         <v>7</v>
       </c>
@@ -10323,7 +10336,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="362" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:12">
       <c r="A362">
         <v>3.8</v>
       </c>
@@ -10346,7 +10359,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="363" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:12">
       <c r="A363">
         <v>100</v>
       </c>
@@ -10369,7 +10382,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="364" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:12">
       <c r="A364" s="1">
         <v>5</v>
       </c>
@@ -10393,7 +10406,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="365" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:12">
       <c r="A365" s="6">
         <v>2</v>
       </c>
@@ -10420,7 +10433,7 @@
       <c r="K365" s="1"/>
       <c r="L365" s="1"/>
     </row>
-    <row r="366" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:12">
       <c r="A366">
         <v>7</v>
       </c>
@@ -10443,7 +10456,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="367" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:12">
       <c r="A367">
         <v>50</v>
       </c>
@@ -10466,7 +10479,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="368" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:12">
       <c r="A368">
         <v>10</v>
       </c>
@@ -10489,7 +10502,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:8">
       <c r="A369">
         <v>10.8</v>
       </c>
@@ -10512,7 +10525,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:8">
       <c r="A370">
         <v>10.5</v>
       </c>
@@ -10535,7 +10548,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:8">
       <c r="A371">
         <v>5.5</v>
       </c>
@@ -10558,7 +10571,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:8">
       <c r="A372">
         <v>5</v>
       </c>
@@ -10581,7 +10594,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:8">
       <c r="A373">
         <v>0.5</v>
       </c>
@@ -10604,7 +10617,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:8">
       <c r="A374">
         <v>10.5</v>
       </c>
@@ -10627,7 +10640,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:8">
       <c r="A375">
         <v>14</v>
       </c>
@@ -10650,7 +10663,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:8">
       <c r="A376">
         <v>2</v>
       </c>
@@ -10673,7 +10686,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:8">
       <c r="A377">
         <v>3.5</v>
       </c>
@@ -10696,7 +10709,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:8">
       <c r="A378">
         <v>3.5</v>
       </c>
@@ -10719,7 +10732,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:8">
       <c r="A379">
         <v>3.5</v>
       </c>
@@ -10742,7 +10755,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:8">
       <c r="A380">
         <v>2</v>
       </c>
@@ -10765,7 +10778,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:8">
       <c r="A381">
         <v>2</v>
       </c>
@@ -10788,7 +10801,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:8">
       <c r="A382">
         <v>2.5</v>
       </c>
@@ -10811,7 +10824,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:8">
       <c r="A383">
         <v>6.5</v>
       </c>
@@ -10834,7 +10847,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:8">
       <c r="A384">
         <v>3.78</v>
       </c>
@@ -10857,7 +10870,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:8">
       <c r="A385">
         <v>7</v>
       </c>
@@ -10880,7 +10893,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:8">
       <c r="A386">
         <v>2.5</v>
       </c>
@@ -10903,7 +10916,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:8">
       <c r="A387">
         <v>2</v>
       </c>
@@ -10926,7 +10939,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:8">
       <c r="A388">
         <v>1</v>
       </c>
@@ -10949,7 +10962,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:8">
       <c r="A389">
         <v>10.5</v>
       </c>
@@ -10972,7 +10985,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:8">
       <c r="A390">
         <v>1.5</v>
       </c>
@@ -10995,7 +11008,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:8">
       <c r="A391">
         <v>2.7</v>
       </c>
@@ -11018,7 +11031,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:8">
       <c r="A392">
         <v>2</v>
       </c>
@@ -11041,7 +11054,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:8">
       <c r="A393">
         <v>17.5</v>
       </c>
@@ -11064,7 +11077,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:8">
       <c r="A394">
         <v>43</v>
       </c>
@@ -11087,7 +11100,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:8">
       <c r="A395">
         <v>69.900000000000006</v>
       </c>
@@ -11110,7 +11123,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:8">
       <c r="A396">
         <v>16</v>
       </c>
@@ -11133,7 +11146,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:8">
       <c r="A397">
         <v>2.2000000000000002</v>
       </c>
@@ -11156,7 +11169,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:8">
       <c r="A398">
         <v>1.72</v>
       </c>
@@ -11179,7 +11192,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:8">
       <c r="A399">
         <v>6</v>
       </c>
@@ -11202,7 +11215,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:8">
       <c r="A400">
         <v>1.8</v>
       </c>
@@ -11225,7 +11238,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:8">
       <c r="A401">
         <v>4.5999999999999996</v>
       </c>
@@ -11248,7 +11261,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:8">
       <c r="A402">
         <v>27</v>
       </c>
@@ -11271,7 +11284,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:8">
       <c r="A403">
         <v>14</v>
       </c>
@@ -11294,7 +11307,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:8">
       <c r="A404">
         <v>2.5</v>
       </c>
@@ -11317,7 +11330,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:8">
       <c r="A405">
         <v>10</v>
       </c>
@@ -11340,7 +11353,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:8">
       <c r="A406">
         <v>11</v>
       </c>
@@ -11363,7 +11376,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:8">
       <c r="A407">
         <v>5.55</v>
       </c>
@@ -11386,7 +11399,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:8">
       <c r="A408">
         <v>3</v>
       </c>
@@ -11409,7 +11422,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:8">
       <c r="A409">
         <v>3.5</v>
       </c>
@@ -11432,7 +11445,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:8">
       <c r="A410">
         <v>3.8</v>
       </c>
@@ -11455,7 +11468,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:8">
       <c r="A411">
         <v>4</v>
       </c>
@@ -11478,7 +11491,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:8">
       <c r="A412">
         <v>8</v>
       </c>
@@ -11501,7 +11514,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:8">
       <c r="A413">
         <v>11.6</v>
       </c>
@@ -11524,7 +11537,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:8">
       <c r="A414">
         <v>1.6</v>
       </c>
@@ -11547,7 +11560,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:8">
       <c r="A415">
         <v>44.41</v>
       </c>
@@ -11570,7 +11583,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:8">
       <c r="A416">
         <v>4.8</v>
       </c>
@@ -11593,7 +11606,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:8">
       <c r="A417">
         <v>1.7</v>
       </c>
@@ -11616,7 +11629,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:8">
       <c r="A418">
         <v>2.85</v>
       </c>
@@ -11639,7 +11652,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:8">
       <c r="A419">
         <v>6.4</v>
       </c>
@@ -11662,7 +11675,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:8">
       <c r="A420">
         <v>3.5</v>
       </c>
@@ -11685,7 +11698,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:8">
       <c r="A421">
         <v>6.5</v>
       </c>
@@ -11708,7 +11721,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:8">
       <c r="A422">
         <v>1.2</v>
       </c>
@@ -11731,7 +11744,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:8">
       <c r="A423">
         <v>4.5999999999999996</v>
       </c>
@@ -11754,7 +11767,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:8">
       <c r="A424">
         <v>8</v>
       </c>
@@ -11777,7 +11790,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:8">
       <c r="A425">
         <v>3.5</v>
       </c>
@@ -11800,7 +11813,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:8">
       <c r="A426" s="1">
         <v>50</v>
       </c>
@@ -11824,7 +11837,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:8">
       <c r="A427">
         <v>10</v>
       </c>
@@ -11847,7 +11860,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:8">
       <c r="A428">
         <v>2.9</v>
       </c>
@@ -11870,7 +11883,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:8">
       <c r="A429">
         <v>15</v>
       </c>
@@ -11893,7 +11906,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:8">
       <c r="A430">
         <v>3.5</v>
       </c>
@@ -11916,7 +11929,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:8">
       <c r="A431">
         <v>9.25</v>
       </c>
@@ -11939,7 +11952,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:8">
       <c r="A432">
         <v>8</v>
       </c>
@@ -11962,7 +11975,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:8">
       <c r="A433">
         <v>4.0999999999999996</v>
       </c>
@@ -11985,7 +11998,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:8">
       <c r="A434">
         <v>4.9000000000000004</v>
       </c>
@@ -12008,7 +12021,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:8">
       <c r="A435">
         <v>2.8</v>
       </c>
@@ -12031,7 +12044,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:8">
       <c r="A436">
         <v>18.7</v>
       </c>
@@ -12054,7 +12067,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:8">
       <c r="A437">
         <v>20</v>
       </c>
@@ -12077,7 +12090,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:8">
       <c r="A438" s="1">
         <v>150</v>
       </c>
@@ -12101,7 +12114,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:8">
       <c r="A439" s="1">
         <v>10</v>
       </c>
@@ -12125,7 +12138,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:8">
       <c r="A440">
         <v>2.1</v>
       </c>
@@ -12148,7 +12161,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:8">
       <c r="A441">
         <v>5</v>
       </c>
@@ -12171,7 +12184,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:8">
       <c r="A442">
         <v>10</v>
       </c>
@@ -12194,7 +12207,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:8">
       <c r="A443">
         <v>59</v>
       </c>
@@ -12217,7 +12230,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:8">
       <c r="A444">
         <v>4</v>
       </c>
@@ -12240,7 +12253,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="445" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:8">
       <c r="A445">
         <v>4.17</v>
       </c>
@@ -12263,7 +12276,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="446" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:8">
       <c r="A446">
         <v>4.2</v>
       </c>
@@ -12286,7 +12299,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:8">
       <c r="A447">
         <v>4.4000000000000004</v>
       </c>
@@ -12309,7 +12322,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="448" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:8">
       <c r="A448">
         <v>30</v>
       </c>
@@ -12332,7 +12345,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:8">
       <c r="A449">
         <v>5</v>
       </c>
@@ -12355,7 +12368,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:8">
       <c r="A450">
         <v>15.7</v>
       </c>
@@ -12378,7 +12391,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:8">
       <c r="A451">
         <v>4</v>
       </c>
@@ -12401,7 +12414,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:8">
       <c r="A452">
         <v>8</v>
       </c>
@@ -12424,7 +12437,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:8">
       <c r="A453">
         <v>3.5</v>
       </c>
@@ -12447,7 +12460,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:8">
       <c r="A454">
         <v>4.2</v>
       </c>
@@ -12470,7 +12483,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:8">
       <c r="A455">
         <v>180</v>
       </c>
@@ -12493,7 +12506,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="456" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:8">
       <c r="A456">
         <v>2.2999999999999998</v>
       </c>
@@ -12516,7 +12529,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="457" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:8">
       <c r="A457">
         <v>11</v>
       </c>
@@ -12539,7 +12552,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:8">
       <c r="A458">
         <v>2</v>
       </c>
@@ -12562,7 +12575,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:8">
       <c r="A459">
         <v>3</v>
       </c>
@@ -12585,7 +12598,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:8">
       <c r="A460">
         <v>6.4</v>
       </c>
@@ -12608,7 +12621,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:8">
       <c r="A461">
         <v>3.2</v>
       </c>
@@ -12631,7 +12644,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:8">
       <c r="A462">
         <v>1</v>
       </c>
@@ -12654,7 +12667,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:8">
       <c r="A463">
         <v>4.2</v>
       </c>
@@ -12677,7 +12690,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:8">
       <c r="A464">
         <v>14</v>
       </c>
@@ -12700,7 +12713,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:8">
       <c r="A465">
         <v>2.9</v>
       </c>
@@ -12723,7 +12736,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:8">
       <c r="A466">
         <v>4</v>
       </c>
@@ -12746,7 +12759,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:8">
       <c r="A467">
         <v>1.8</v>
       </c>
@@ -12769,7 +12782,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:8">
       <c r="A468">
         <v>18</v>
       </c>
@@ -12792,7 +12805,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:8">
       <c r="A469">
         <v>2</v>
       </c>
@@ -12815,7 +12828,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:8">
       <c r="A470">
         <v>3</v>
       </c>
@@ -12838,7 +12851,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:8">
       <c r="A471">
         <v>10</v>
       </c>
@@ -12861,7 +12874,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:8">
       <c r="A472">
         <v>8.3000000000000007</v>
       </c>
@@ -12884,7 +12897,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:8">
       <c r="A473">
         <v>362</v>
       </c>
@@ -12907,7 +12920,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:8">
       <c r="A474">
         <v>4.2</v>
       </c>
@@ -12930,7 +12943,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:8">
       <c r="A475">
         <v>0.5</v>
       </c>
@@ -12953,7 +12966,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="476" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:8">
       <c r="A476">
         <v>1.7</v>
       </c>
@@ -12976,7 +12989,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:8">
       <c r="A477">
         <v>4.5999999999999996</v>
       </c>
@@ -12999,7 +13012,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:8">
       <c r="A478">
         <v>4.7</v>
       </c>
@@ -13022,7 +13035,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:8">
       <c r="A479">
         <v>1</v>
       </c>
@@ -13045,7 +13058,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:8">
       <c r="A480">
         <v>5.6</v>
       </c>
@@ -13068,7 +13081,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="481" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:8">
       <c r="A481">
         <v>33.799999999999997</v>
       </c>
@@ -13091,7 +13104,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="482" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:8">
       <c r="A482">
         <v>8</v>
       </c>
@@ -13114,7 +13127,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="483" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:8">
       <c r="A483">
         <v>5.2</v>
       </c>
@@ -13137,7 +13150,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="484" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:8">
       <c r="A484">
         <v>5.4</v>
       </c>
@@ -13160,7 +13173,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="485" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:8">
       <c r="A485">
         <v>40</v>
       </c>
@@ -13183,7 +13196,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="486" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:8">
       <c r="A486">
         <v>10.8</v>
       </c>
@@ -13206,7 +13219,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="487" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:8">
       <c r="A487">
         <v>15</v>
       </c>
@@ -13229,7 +13242,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="488" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:8">
       <c r="A488">
         <v>20</v>
       </c>
@@ -13252,7 +13265,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="489" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:8">
       <c r="A489">
         <v>3</v>
       </c>
@@ -13275,7 +13288,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="490" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:8">
       <c r="A490">
         <v>3.5</v>
       </c>
@@ -13298,7 +13311,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="491" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:8">
       <c r="A491">
         <v>2.2000000000000002</v>
       </c>
@@ -13321,7 +13334,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="492" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:8">
       <c r="A492">
         <v>4.5</v>
       </c>
@@ -13344,7 +13357,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="493" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:8">
       <c r="A493">
         <v>4.2</v>
       </c>
@@ -13367,7 +13380,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="494" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:8">
       <c r="A494">
         <v>5</v>
       </c>
@@ -13390,7 +13403,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="495" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:8">
       <c r="A495" s="1">
         <v>27.69</v>
       </c>
@@ -13414,7 +13427,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="496" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:8">
       <c r="A496">
         <v>70</v>
       </c>
@@ -13437,7 +13450,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:8">
       <c r="A497" s="1">
         <v>2.2999999999999998</v>
       </c>
@@ -13461,7 +13474,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:8">
       <c r="A498">
         <v>3.2</v>
       </c>
@@ -13484,7 +13497,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="499" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:8">
       <c r="A499">
         <v>3.6</v>
       </c>
@@ -13507,7 +13520,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="500" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:8">
       <c r="A500">
         <v>0.5</v>
       </c>
@@ -13530,7 +13543,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="501" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:8">
       <c r="A501">
         <v>10</v>
       </c>
@@ -13553,7 +13566,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="502" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:8">
       <c r="A502">
         <v>2</v>
       </c>
@@ -13576,7 +13589,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="503" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:8">
       <c r="A503" s="1">
         <v>1.9</v>
       </c>
@@ -13600,7 +13613,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="504" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:8">
       <c r="A504">
         <v>6.6</v>
       </c>
@@ -13623,7 +13636,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="505" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:8">
       <c r="A505">
         <v>1.8</v>
       </c>
@@ -13646,7 +13659,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="506" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:8">
       <c r="A506" s="1">
         <v>0.8</v>
       </c>
@@ -13670,7 +13683,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="507" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:8">
       <c r="A507">
         <v>4.2</v>
       </c>
@@ -13693,7 +13706,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="508" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:8">
       <c r="A508">
         <v>4</v>
       </c>
@@ -13716,7 +13729,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="509" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:8">
       <c r="A509">
         <v>1.2</v>
       </c>
@@ -13739,7 +13752,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="510" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:8">
       <c r="A510">
         <v>5</v>
       </c>
@@ -13762,7 +13775,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="511" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:8">
       <c r="A511">
         <v>3.5</v>
       </c>
@@ -13785,7 +13798,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="512" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:8">
       <c r="A512" s="1">
         <v>1.75</v>
       </c>
@@ -13809,7 +13822,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="513" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:8">
       <c r="A513">
         <v>4.2</v>
       </c>
@@ -13832,7 +13845,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="514" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:8">
       <c r="A514">
         <v>5.6</v>
       </c>
@@ -13855,7 +13868,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="515" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:8">
       <c r="A515">
         <v>3.6</v>
       </c>
@@ -13878,7 +13891,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="516" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:8">
       <c r="A516">
         <v>15.93</v>
       </c>
@@ -13901,7 +13914,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="517" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:8">
       <c r="A517">
         <v>5.98</v>
       </c>
@@ -13924,7 +13937,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="518" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:8">
       <c r="A518">
         <v>5</v>
       </c>
@@ -13947,7 +13960,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="519" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:8">
       <c r="A519">
         <v>4.2</v>
       </c>
@@ -13970,7 +13983,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="520" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:8">
       <c r="A520">
         <v>4.2</v>
       </c>
@@ -13993,7 +14006,99 @@
         <v>250</v>
       </c>
     </row>
-    <row r="525" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:8">
+      <c r="A521">
+        <v>4</v>
+      </c>
+      <c r="B521" t="s">
+        <v>223</v>
+      </c>
+      <c r="C521" s="2">
+        <v>43394</v>
+      </c>
+      <c r="D521" t="s">
+        <v>515</v>
+      </c>
+      <c r="E521" t="s">
+        <v>238</v>
+      </c>
+      <c r="F521">
+        <v>5</v>
+      </c>
+      <c r="H521" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="522" spans="1:8">
+      <c r="A522">
+        <v>3</v>
+      </c>
+      <c r="B522" t="s">
+        <v>223</v>
+      </c>
+      <c r="C522" s="2">
+        <v>43394</v>
+      </c>
+      <c r="D522" t="s">
+        <v>516</v>
+      </c>
+      <c r="E522" t="s">
+        <v>238</v>
+      </c>
+      <c r="F522">
+        <v>5</v>
+      </c>
+      <c r="H522" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="523" spans="1:8">
+      <c r="A523">
+        <v>2</v>
+      </c>
+      <c r="B523" t="s">
+        <v>343</v>
+      </c>
+      <c r="C523" s="2">
+        <v>43394</v>
+      </c>
+      <c r="D523" t="s">
+        <v>517</v>
+      </c>
+      <c r="E523" t="s">
+        <v>238</v>
+      </c>
+      <c r="F523">
+        <v>5</v>
+      </c>
+      <c r="H523" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="524" spans="1:8">
+      <c r="A524">
+        <v>1</v>
+      </c>
+      <c r="B524" t="s">
+        <v>223</v>
+      </c>
+      <c r="C524" s="2">
+        <v>43394</v>
+      </c>
+      <c r="D524" t="s">
+        <v>518</v>
+      </c>
+      <c r="E524" t="s">
+        <v>238</v>
+      </c>
+      <c r="F524">
+        <v>5</v>
+      </c>
+      <c r="H524" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="525" spans="1:8">
       <c r="A525" s="1"/>
       <c r="B525" s="1"/>
       <c r="C525" s="1"/>
@@ -14003,7 +14108,7 @@
       <c r="G525" s="1"/>
       <c r="H525" s="1"/>
     </row>
-    <row r="528" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:8">
       <c r="C528" s="2"/>
     </row>
   </sheetData>

--- a/DataBase/costs.xlsx
+++ b/DataBase/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2104" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2108" uniqueCount="520">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1567,10 +1567,13 @@
     <t>κασερόπιτα και σφολιάτα στις 3 το πρωί</t>
   </si>
   <si>
-    <t>ταξι από Άγ.Αντώνιο με Νίκο</t>
-  </si>
-  <si>
     <t>amaretti</t>
+  </si>
+  <si>
+    <t>μπουγάτσα με κασερόπιτα</t>
+  </si>
+  <si>
+    <t>ταξί από Άγ.Αντώνιο με Νίκο</t>
   </si>
 </sst>
 </file>
@@ -2007,7 +2010,7 @@
   <dimension ref="A1:L528"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A505" workbookViewId="0">
-      <selection activeCell="D524" sqref="D524"/>
+      <selection activeCell="D526" sqref="D526"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14063,7 +14066,7 @@
         <v>43394</v>
       </c>
       <c r="D523" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="E523" t="s">
         <v>238</v>
@@ -14086,27 +14089,41 @@
         <v>43394</v>
       </c>
       <c r="D524" t="s">
+        <v>517</v>
+      </c>
+      <c r="E524" t="s">
+        <v>238</v>
+      </c>
+      <c r="F524">
+        <v>5</v>
+      </c>
+      <c r="H524" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="525" spans="1:8">
+      <c r="A525" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B525" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C525" s="7">
+        <v>43395</v>
+      </c>
+      <c r="D525" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="E524" t="s">
-        <v>238</v>
-      </c>
-      <c r="F524">
-        <v>5</v>
-      </c>
-      <c r="H524" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="525" spans="1:8">
-      <c r="A525" s="1"/>
-      <c r="B525" s="1"/>
-      <c r="C525" s="1"/>
-      <c r="D525" s="1"/>
-      <c r="E525" s="1"/>
-      <c r="F525" s="1"/>
+      <c r="E525" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F525" s="1">
+        <v>5</v>
+      </c>
       <c r="G525" s="1"/>
-      <c r="H525" s="1"/>
+      <c r="H525" s="1" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="528" spans="1:8">
       <c r="C528" s="2"/>

--- a/DataBase/costs.xlsx
+++ b/DataBase/costs.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="45" windowWidth="18975" windowHeight="11760"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2108" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2112" uniqueCount="521">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1574,17 +1574,20 @@
   </si>
   <si>
     <t>ταξί από Άγ.Αντώνιο με Νίκο</t>
+  </si>
+  <si>
+    <t>αεροπορικά για Ιρλανδία</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1625,9 +1628,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="9">
     <dxf>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -1692,6 +1695,9 @@
         <bottom/>
       </border>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1706,10 +1712,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A1:H530" totalsRowShown="0">
-  <autoFilter ref="A1:H530"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:H530" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="8">
-    <tableColumn id="1" name="amount" totalsRowDxfId="7"/>
+    <tableColumn id="1" name="amount" headerRowDxfId="8" totalsRowDxfId="7"/>
     <tableColumn id="11" name="type" totalsRowDxfId="6"/>
     <tableColumn id="2" name="date" totalsRowDxfId="5"/>
     <tableColumn id="4" name="description" totalsRowDxfId="4"/>
@@ -1718,12 +1723,12 @@
     <tableColumn id="7" name="weather" totalsRowDxfId="1"/>
     <tableColumn id="8" name="location" totalsRowDxfId="0"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1765,7 +1770,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1797,9 +1802,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1831,6 +1837,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2006,14 +2013,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L528"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A505" workbookViewId="0">
-      <selection activeCell="D526" sqref="D526"/>
+    <sheetView tabSelected="1" topLeftCell="A467" workbookViewId="0">
+      <selection activeCell="B482" sqref="B482"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.28515625" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
@@ -2029,8 +2036,8 @@
     <col min="12" max="12" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>234</v>
       </c>
       <c r="B1" t="s">
@@ -2058,7 +2065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>488</v>
       </c>
@@ -2084,7 +2091,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>20</v>
       </c>
@@ -2108,7 +2115,7 @@
       </c>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>10</v>
       </c>
@@ -2131,7 +2138,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>100</v>
       </c>
@@ -2154,7 +2161,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>10</v>
       </c>
@@ -2177,7 +2184,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>50</v>
       </c>
@@ -2200,7 +2207,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>3.2</v>
       </c>
@@ -2223,7 +2230,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>1.3</v>
       </c>
@@ -2246,7 +2253,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>1.2</v>
       </c>
@@ -2269,7 +2276,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>5</v>
       </c>
@@ -2292,7 +2299,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>4.5</v>
       </c>
@@ -2315,7 +2322,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>4</v>
       </c>
@@ -2338,7 +2345,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>10.6</v>
       </c>
@@ -2361,7 +2368,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>1.8</v>
       </c>
@@ -2384,7 +2391,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>5.15</v>
       </c>
@@ -2407,7 +2414,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>18</v>
       </c>
@@ -2430,7 +2437,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>1.5</v>
       </c>
@@ -2453,7 +2460,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>7.8</v>
       </c>
@@ -2476,7 +2483,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>4.4400000000000004</v>
       </c>
@@ -2499,7 +2506,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>1.5</v>
       </c>
@@ -2522,7 +2529,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>8.84</v>
       </c>
@@ -2545,7 +2552,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>4</v>
       </c>
@@ -2568,7 +2575,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>10</v>
       </c>
@@ -2591,7 +2598,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>1.8</v>
       </c>
@@ -2614,7 +2621,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>11.8</v>
       </c>
@@ -2637,7 +2644,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>40</v>
       </c>
@@ -2660,7 +2667,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>2.9</v>
       </c>
@@ -2683,7 +2690,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>4.3</v>
       </c>
@@ -2706,7 +2713,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>3.35</v>
       </c>
@@ -2729,7 +2736,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>5.2</v>
       </c>
@@ -2752,7 +2759,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>15</v>
       </c>
@@ -2775,7 +2782,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>3.9</v>
       </c>
@@ -2798,7 +2805,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>63.45</v>
       </c>
@@ -2821,7 +2828,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>49.9</v>
       </c>
@@ -2841,7 +2848,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>140</v>
       </c>
@@ -2864,7 +2871,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>1.8</v>
       </c>
@@ -2887,7 +2894,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>13.02</v>
       </c>
@@ -2910,7 +2917,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>4.7</v>
       </c>
@@ -2933,7 +2940,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>15.96</v>
       </c>
@@ -2956,7 +2963,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>9.8000000000000007</v>
       </c>
@@ -2979,7 +2986,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>79.8</v>
       </c>
@@ -3002,7 +3009,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>11.9</v>
       </c>
@@ -3025,7 +3032,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>38.880000000000003</v>
       </c>
@@ -3048,7 +3055,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>7.75</v>
       </c>
@@ -3071,7 +3078,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>0.79</v>
       </c>
@@ -3094,7 +3101,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>10</v>
       </c>
@@ -3117,7 +3124,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -3140,7 +3147,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -3163,7 +3170,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>1.8</v>
       </c>
@@ -3186,7 +3193,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>24</v>
       </c>
@@ -3209,7 +3216,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>24</v>
       </c>
@@ -3232,7 +3239,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>1.8</v>
       </c>
@@ -3255,7 +3262,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>3.5</v>
       </c>
@@ -3278,7 +3285,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>5.6</v>
       </c>
@@ -3302,7 +3309,7 @@
       </c>
       <c r="K55" s="4"/>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>1.5</v>
       </c>
@@ -3325,7 +3332,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>3</v>
       </c>
@@ -3348,7 +3355,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>5.4</v>
       </c>
@@ -3371,7 +3378,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>8</v>
       </c>
@@ -3394,7 +3401,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>5.4</v>
       </c>
@@ -3417,7 +3424,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>0.6</v>
       </c>
@@ -3440,7 +3447,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -3463,7 +3470,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>1.5</v>
       </c>
@@ -3486,7 +3493,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -3509,7 +3516,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>1.2</v>
       </c>
@@ -3532,7 +3539,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>5.0999999999999996</v>
       </c>
@@ -3555,7 +3562,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>13.5</v>
       </c>
@@ -3578,7 +3585,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>3.5</v>
       </c>
@@ -3602,7 +3609,7 @@
       </c>
       <c r="K68" s="4"/>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>4.0999999999999996</v>
       </c>
@@ -3625,7 +3632,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>90</v>
       </c>
@@ -3648,7 +3655,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>65.5</v>
       </c>
@@ -3671,7 +3678,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>4.5</v>
       </c>
@@ -3694,7 +3701,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>10</v>
       </c>
@@ -3717,7 +3724,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>18.8</v>
       </c>
@@ -3740,7 +3747,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>1.8</v>
       </c>
@@ -3764,7 +3771,7 @@
       </c>
       <c r="K75" s="4"/>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>5.5</v>
       </c>
@@ -3787,7 +3794,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -3810,7 +3817,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>3</v>
       </c>
@@ -3833,7 +3840,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>2</v>
       </c>
@@ -3856,7 +3863,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <v>9.9</v>
       </c>
@@ -3879,7 +3886,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <v>6.5</v>
       </c>
@@ -3902,7 +3909,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>79.8</v>
       </c>
@@ -3925,7 +3932,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>10</v>
       </c>
@@ -3948,7 +3955,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>2.5</v>
       </c>
@@ -3971,7 +3978,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <v>5</v>
       </c>
@@ -3994,7 +4001,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <v>1.6</v>
       </c>
@@ -4017,7 +4024,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <v>5.5</v>
       </c>
@@ -4040,7 +4047,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>0.8</v>
       </c>
@@ -4063,7 +4070,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <v>17</v>
       </c>
@@ -4086,7 +4093,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <v>24.9</v>
       </c>
@@ -4109,7 +4116,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <v>1.8</v>
       </c>
@@ -4132,7 +4139,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <v>44.99</v>
       </c>
@@ -4155,7 +4162,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <v>4</v>
       </c>
@@ -4178,7 +4185,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <v>5</v>
       </c>
@@ -4201,7 +4208,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
         <v>5</v>
       </c>
@@ -4224,7 +4231,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -4247,7 +4254,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
         <v>3</v>
       </c>
@@ -4270,7 +4277,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <v>6</v>
       </c>
@@ -4293,7 +4300,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
         <v>3.5</v>
       </c>
@@ -4316,7 +4323,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
         <v>34.9</v>
       </c>
@@ -4339,7 +4346,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
         <v>12</v>
       </c>
@@ -4362,7 +4369,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
         <v>5</v>
       </c>
@@ -4385,7 +4392,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
         <v>6.9</v>
       </c>
@@ -4408,7 +4415,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
         <v>6.04</v>
       </c>
@@ -4431,7 +4438,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
         <v>4.8</v>
       </c>
@@ -4454,7 +4461,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
         <v>9.6999999999999993</v>
       </c>
@@ -4477,7 +4484,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
         <v>5.5</v>
       </c>
@@ -4500,7 +4507,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
         <v>7</v>
       </c>
@@ -4523,7 +4530,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
         <v>1</v>
       </c>
@@ -4546,7 +4553,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
         <v>4</v>
       </c>
@@ -4569,7 +4576,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
         <v>4.0999999999999996</v>
       </c>
@@ -4592,7 +4599,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
         <v>2.3199999999999998</v>
       </c>
@@ -4615,7 +4622,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
         <v>8</v>
       </c>
@@ -4638,7 +4645,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
         <v>12.5</v>
       </c>
@@ -4661,7 +4668,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
         <v>0.7</v>
       </c>
@@ -4684,7 +4691,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
         <v>6.3</v>
       </c>
@@ -4707,7 +4714,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
         <v>8</v>
       </c>
@@ -4730,7 +4737,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
         <v>5.0999999999999996</v>
       </c>
@@ -4753,7 +4760,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
         <v>8</v>
       </c>
@@ -4776,7 +4783,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
         <v>4.5</v>
       </c>
@@ -4799,7 +4806,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="4">
         <v>2.5</v>
       </c>
@@ -4822,7 +4829,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="4">
         <v>24.3</v>
       </c>
@@ -4845,7 +4852,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="4">
         <v>2</v>
       </c>
@@ -4868,7 +4875,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="4">
         <v>16</v>
       </c>
@@ -4891,7 +4898,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
         <v>6</v>
       </c>
@@ -4914,7 +4921,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="4">
         <v>5</v>
       </c>
@@ -4937,7 +4944,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
         <v>6.52</v>
       </c>
@@ -4960,7 +4967,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="4">
         <v>1.8</v>
       </c>
@@ -4983,7 +4990,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="4">
         <v>1</v>
       </c>
@@ -5006,7 +5013,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="4">
         <v>5</v>
       </c>
@@ -5029,7 +5036,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="4">
         <v>43</v>
       </c>
@@ -5052,7 +5059,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="4">
         <v>10</v>
       </c>
@@ -5075,7 +5082,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="4">
         <v>2.97</v>
       </c>
@@ -5098,7 +5105,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="4">
         <v>10</v>
       </c>
@@ -5121,7 +5128,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
         <v>1.6</v>
       </c>
@@ -5144,7 +5151,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="4">
         <v>1.5</v>
       </c>
@@ -5167,7 +5174,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="4">
         <v>1.8</v>
       </c>
@@ -5190,7 +5197,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="4">
         <v>7.3</v>
       </c>
@@ -5213,7 +5220,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="139" spans="1:8">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="4">
         <v>4</v>
       </c>
@@ -5236,7 +5243,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="4">
         <v>2.1</v>
       </c>
@@ -5259,7 +5266,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
         <v>4.2</v>
       </c>
@@ -5282,7 +5289,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="4">
         <v>9</v>
       </c>
@@ -5305,7 +5312,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="4">
         <v>1</v>
       </c>
@@ -5328,7 +5335,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="144" spans="1:8">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="4">
         <v>3.5</v>
       </c>
@@ -5351,7 +5358,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="145" spans="1:8">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="4">
         <v>5.0999999999999996</v>
       </c>
@@ -5374,7 +5381,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="146" spans="1:8">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="4">
         <v>3</v>
       </c>
@@ -5397,7 +5404,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="4">
         <v>2</v>
       </c>
@@ -5420,7 +5427,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="4">
         <v>150</v>
       </c>
@@ -5443,7 +5450,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="4">
         <v>7</v>
       </c>
@@ -5466,7 +5473,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="150" spans="1:8">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="4">
         <v>5</v>
       </c>
@@ -5489,7 +5496,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="4">
         <v>8</v>
       </c>
@@ -5512,7 +5519,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="4">
         <v>3.5</v>
       </c>
@@ -5535,7 +5542,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="4">
         <v>55</v>
       </c>
@@ -5558,7 +5565,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="154" spans="1:8">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="4">
         <v>0.6</v>
       </c>
@@ -5581,7 +5588,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="155" spans="1:8">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="4">
         <v>4</v>
       </c>
@@ -5604,7 +5611,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="156" spans="1:8">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="4">
         <v>39.9</v>
       </c>
@@ -5627,7 +5634,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="157" spans="1:8">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="4">
         <v>1.6</v>
       </c>
@@ -5650,7 +5657,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="158" spans="1:8">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="4">
         <v>80</v>
       </c>
@@ -5673,7 +5680,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="159" spans="1:8">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="4">
         <v>6.2</v>
       </c>
@@ -5696,7 +5703,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="160" spans="1:8">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="4">
         <v>15</v>
       </c>
@@ -5719,7 +5726,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="161" spans="1:8">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="4">
         <v>4.3</v>
       </c>
@@ -5742,7 +5749,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="162" spans="1:8">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="4">
         <v>9.6999999999999993</v>
       </c>
@@ -5765,7 +5772,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="163" spans="1:8">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="4">
         <v>2.4500000000000002</v>
       </c>
@@ -5788,7 +5795,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="4">
         <v>1.96</v>
       </c>
@@ -5811,7 +5818,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="4">
         <v>11.5</v>
       </c>
@@ -5834,7 +5841,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="166" spans="1:8">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="4">
         <v>2.7</v>
       </c>
@@ -5857,7 +5864,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="167" spans="1:8">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="4">
         <v>2.7</v>
       </c>
@@ -5880,7 +5887,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="4">
         <v>7</v>
       </c>
@@ -5903,7 +5910,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="169" spans="1:8">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="4">
         <v>4.8</v>
       </c>
@@ -5926,7 +5933,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="170" spans="1:8">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="4">
         <v>4.4000000000000004</v>
       </c>
@@ -5949,7 +5956,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="171" spans="1:8">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="4">
         <v>3.8</v>
       </c>
@@ -5972,7 +5979,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="172" spans="1:8">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="4">
         <v>1.5</v>
       </c>
@@ -5995,7 +6002,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="173" spans="1:8">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="4">
         <v>11.5</v>
       </c>
@@ -6018,7 +6025,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="174" spans="1:8">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="4">
         <v>4.4000000000000004</v>
       </c>
@@ -6041,7 +6048,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="175" spans="1:8">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="4">
         <v>6.5</v>
       </c>
@@ -6064,7 +6071,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="4">
         <v>6.5</v>
       </c>
@@ -6087,7 +6094,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="177" spans="1:8">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="4">
         <v>5</v>
       </c>
@@ -6110,7 +6117,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="178" spans="1:8">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="4">
         <v>6</v>
       </c>
@@ -6133,7 +6140,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="179" spans="1:8">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="4">
         <v>8</v>
       </c>
@@ -6156,7 +6163,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="180" spans="1:8">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="4">
         <v>3.2</v>
       </c>
@@ -6179,7 +6186,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="181" spans="1:8">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="4">
         <v>10</v>
       </c>
@@ -6202,7 +6209,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="182" spans="1:8">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="4">
         <v>3</v>
       </c>
@@ -6225,7 +6232,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="183" spans="1:8">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="4">
         <v>10</v>
       </c>
@@ -6248,7 +6255,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="184" spans="1:8">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="4">
         <v>3.5</v>
       </c>
@@ -6271,7 +6278,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="185" spans="1:8">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="4">
         <v>10</v>
       </c>
@@ -6294,7 +6301,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="186" spans="1:8">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="4">
         <v>8</v>
       </c>
@@ -6317,7 +6324,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="187" spans="1:8">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="4">
         <v>6.2</v>
       </c>
@@ -6340,7 +6347,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="188" spans="1:8">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="4">
         <v>2</v>
       </c>
@@ -6363,7 +6370,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="189" spans="1:8">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="4">
         <v>10</v>
       </c>
@@ -6386,7 +6393,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="190" spans="1:8">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="4">
         <v>22</v>
       </c>
@@ -6409,7 +6416,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="191" spans="1:8">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="4">
         <v>14</v>
       </c>
@@ -6432,7 +6439,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="192" spans="1:8">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="4">
         <v>14</v>
       </c>
@@ -6455,7 +6462,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="193" spans="1:8">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="4">
         <v>4.7</v>
       </c>
@@ -6478,7 +6485,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="194" spans="1:8">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="4">
         <v>69.900000000000006</v>
       </c>
@@ -6501,7 +6508,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="195" spans="1:8">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="4">
         <v>8.4</v>
       </c>
@@ -6524,7 +6531,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="196" spans="1:8">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="4">
         <v>5</v>
       </c>
@@ -6547,7 +6554,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="197" spans="1:8">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="4">
         <v>4.5</v>
       </c>
@@ -6570,7 +6577,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="198" spans="1:8">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="4">
         <v>6</v>
       </c>
@@ -6593,7 +6600,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="199" spans="1:8">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="4">
         <v>5.46</v>
       </c>
@@ -6616,7 +6623,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="200" spans="1:8">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="4">
         <v>78.849999999999994</v>
       </c>
@@ -6639,7 +6646,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="201" spans="1:8">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="4">
         <v>10</v>
       </c>
@@ -6662,7 +6669,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="202" spans="1:8">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="4">
         <v>10</v>
       </c>
@@ -6685,7 +6692,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="203" spans="1:8">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="4">
         <v>26</v>
       </c>
@@ -6708,7 +6715,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="204" spans="1:8">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="4">
         <v>2</v>
       </c>
@@ -6731,7 +6738,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="205" spans="1:8">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="4">
         <v>2.5</v>
       </c>
@@ -6754,7 +6761,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="206" spans="1:8">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="4">
         <v>5.9</v>
       </c>
@@ -6777,7 +6784,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="207" spans="1:8">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" s="4">
         <v>8.6</v>
       </c>
@@ -6800,7 +6807,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="208" spans="1:8">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="4">
         <v>2.7</v>
       </c>
@@ -6823,7 +6830,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="209" spans="1:8">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="4">
         <v>4.8</v>
       </c>
@@ -6846,7 +6853,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="210" spans="1:8">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" s="4">
         <v>2.8</v>
       </c>
@@ -6869,7 +6876,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="211" spans="1:8">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="4">
         <v>2</v>
       </c>
@@ -6892,7 +6899,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="212" spans="1:8">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="4">
         <v>5</v>
       </c>
@@ -6915,7 +6922,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="213" spans="1:8">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="4">
         <v>2.5</v>
       </c>
@@ -6938,7 +6945,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="214" spans="1:8">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="4">
         <v>3.5</v>
       </c>
@@ -6961,7 +6968,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="215" spans="1:8">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="4">
         <v>1.8</v>
       </c>
@@ -6984,7 +6991,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="216" spans="1:8">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="4">
         <v>4</v>
       </c>
@@ -7007,7 +7014,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="217" spans="1:8">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="4">
         <v>6</v>
       </c>
@@ -7030,7 +7037,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="218" spans="1:8">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="4">
         <v>1.8</v>
       </c>
@@ -7053,7 +7060,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="219" spans="1:8">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="4">
         <v>5</v>
       </c>
@@ -7076,7 +7083,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="220" spans="1:8">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="4">
         <v>5</v>
       </c>
@@ -7099,7 +7106,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="221" spans="1:8">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="4">
         <v>4.7</v>
       </c>
@@ -7122,7 +7129,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="222" spans="1:8">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="4">
         <v>5</v>
       </c>
@@ -7145,7 +7152,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="223" spans="1:8">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="4">
         <v>10</v>
       </c>
@@ -7168,7 +7175,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="224" spans="1:8">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="4">
         <v>1.5</v>
       </c>
@@ -7191,7 +7198,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="225" spans="1:8">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="4">
         <v>129</v>
       </c>
@@ -7214,7 +7221,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="226" spans="1:8">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="4">
         <v>7</v>
       </c>
@@ -7237,7 +7244,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="227" spans="1:8">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" s="4">
         <v>2.8</v>
       </c>
@@ -7260,7 +7267,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="228" spans="1:8">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="4">
         <v>1</v>
       </c>
@@ -7283,7 +7290,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="229" spans="1:8">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="4">
         <v>4</v>
       </c>
@@ -7306,7 +7313,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="230" spans="1:8">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" s="4">
         <v>50</v>
       </c>
@@ -7329,7 +7336,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="231" spans="1:8">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" s="4">
         <v>7.2</v>
       </c>
@@ -7352,7 +7359,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="232" spans="1:8">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" s="4">
         <v>1</v>
       </c>
@@ -7375,7 +7382,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="233" spans="1:8">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" s="4">
         <v>7</v>
       </c>
@@ -7398,7 +7405,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="234" spans="1:8">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" s="4">
         <v>1.1000000000000001</v>
       </c>
@@ -7421,7 +7428,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="235" spans="1:8">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" s="4">
         <v>7</v>
       </c>
@@ -7444,7 +7451,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="236" spans="1:8">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" s="4">
         <v>15</v>
       </c>
@@ -7467,7 +7474,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="237" spans="1:8">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" s="4">
         <v>3</v>
       </c>
@@ -7490,7 +7497,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="238" spans="1:8">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" s="4">
         <v>11.2</v>
       </c>
@@ -7513,7 +7520,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="239" spans="1:8">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" s="4">
         <v>2.1</v>
       </c>
@@ -7536,7 +7543,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="240" spans="1:8">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" s="4">
         <v>150</v>
       </c>
@@ -7559,7 +7566,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="241" spans="1:8">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="4">
         <v>12.7</v>
       </c>
@@ -7582,7 +7589,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="242" spans="1:8">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" s="4">
         <v>89.9</v>
       </c>
@@ -7605,7 +7612,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="243" spans="1:8">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="4">
         <v>4.4000000000000004</v>
       </c>
@@ -7628,7 +7635,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="244" spans="1:8">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" s="4">
         <v>4.2</v>
       </c>
@@ -7651,7 +7658,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="245" spans="1:8">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -7674,7 +7681,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="246" spans="1:8">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="4">
         <v>5</v>
       </c>
@@ -7697,7 +7704,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="247" spans="1:8">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" s="4">
         <v>5</v>
       </c>
@@ -7720,7 +7727,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="248" spans="1:8">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="4">
         <v>3.9</v>
       </c>
@@ -7743,7 +7750,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="249" spans="1:8">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" s="4">
         <v>0.5</v>
       </c>
@@ -7766,7 +7773,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="250" spans="1:8">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" s="4">
         <v>2.4</v>
       </c>
@@ -7789,7 +7796,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="251" spans="1:8">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" s="4">
         <v>2</v>
       </c>
@@ -7812,7 +7819,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="252" spans="1:8">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" s="4">
         <v>4.7</v>
       </c>
@@ -7835,7 +7842,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="253" spans="1:8">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" s="4">
         <v>5.3</v>
       </c>
@@ -7858,7 +7865,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="254" spans="1:8">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" s="4">
         <v>4.2</v>
       </c>
@@ -7881,7 +7888,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="255" spans="1:8">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="4">
         <v>5</v>
       </c>
@@ -7904,7 +7911,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="256" spans="1:8">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" s="4">
         <v>2.5</v>
       </c>
@@ -7927,7 +7934,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="257" spans="1:8">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" s="4">
         <v>3.3</v>
       </c>
@@ -7950,7 +7957,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="258" spans="1:8">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" s="4">
         <v>5.6</v>
       </c>
@@ -7973,7 +7980,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="259" spans="1:8">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" s="4">
         <v>4</v>
       </c>
@@ -7996,7 +8003,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="260" spans="1:8">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" s="4">
         <v>10.199999999999999</v>
       </c>
@@ -8019,7 +8026,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="261" spans="1:8">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" s="4">
         <v>8</v>
       </c>
@@ -8042,7 +8049,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="262" spans="1:8">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" s="4">
         <v>2.1</v>
       </c>
@@ -8065,7 +8072,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="263" spans="1:8">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" s="4">
         <v>3.7</v>
       </c>
@@ -8088,7 +8095,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="264" spans="1:8">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" s="4">
         <v>7</v>
       </c>
@@ -8111,7 +8118,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="265" spans="1:8">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" s="4">
         <v>13.5</v>
       </c>
@@ -8134,7 +8141,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="266" spans="1:8">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" s="4">
         <v>5</v>
       </c>
@@ -8157,7 +8164,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="267" spans="1:8">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" s="4">
         <v>20</v>
       </c>
@@ -8180,7 +8187,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="268" spans="1:8">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" s="4">
         <v>6</v>
       </c>
@@ -8203,7 +8210,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="269" spans="1:8">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" s="4">
         <v>0.5</v>
       </c>
@@ -8226,7 +8233,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="270" spans="1:8">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" s="4">
         <v>5</v>
       </c>
@@ -8249,7 +8256,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="271" spans="1:8">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" s="4">
         <v>11</v>
       </c>
@@ -8272,7 +8279,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="272" spans="1:8">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" s="4">
         <v>8.8000000000000007</v>
       </c>
@@ -8295,7 +8302,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="273" spans="1:8">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" s="4">
         <v>0.5</v>
       </c>
@@ -8318,7 +8325,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="274" spans="1:8">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" s="4">
         <v>5</v>
       </c>
@@ -8341,7 +8348,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="275" spans="1:8">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" s="4">
         <v>10</v>
       </c>
@@ -8364,7 +8371,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="276" spans="1:8">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" s="4">
         <v>15</v>
       </c>
@@ -8387,7 +8394,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="277" spans="1:8">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" s="4">
         <v>10</v>
       </c>
@@ -8410,7 +8417,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="278" spans="1:8">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" s="4">
         <v>11.9</v>
       </c>
@@ -8433,7 +8440,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="279" spans="1:8">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" s="4">
         <v>7</v>
       </c>
@@ -8456,7 +8463,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="280" spans="1:8">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" s="4">
         <v>5.0999999999999996</v>
       </c>
@@ -8479,7 +8486,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="281" spans="1:8">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>1.9</v>
       </c>
@@ -8502,7 +8509,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="282" spans="1:8">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>119.9</v>
       </c>
@@ -8525,7 +8532,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="283" spans="1:8">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>6.3</v>
       </c>
@@ -8548,7 +8555,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="284" spans="1:8">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>3.5</v>
       </c>
@@ -8571,7 +8578,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="285" spans="1:8">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>1.5</v>
       </c>
@@ -8594,7 +8601,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="286" spans="1:8">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>1.9</v>
       </c>
@@ -8617,7 +8624,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="287" spans="1:8">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>4.5</v>
       </c>
@@ -8640,7 +8647,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="288" spans="1:8">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>6.4</v>
       </c>
@@ -8663,7 +8670,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="289" spans="1:8">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>1.9</v>
       </c>
@@ -8686,7 +8693,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="290" spans="1:8">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>10.6</v>
       </c>
@@ -8709,7 +8716,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="291" spans="1:8">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>4.5</v>
       </c>
@@ -8732,7 +8739,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="292" spans="1:8">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>22.2</v>
       </c>
@@ -8755,7 +8762,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="293" spans="1:8">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" s="6">
         <v>25</v>
       </c>
@@ -8778,7 +8785,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="294" spans="1:8">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294" s="6">
         <v>3.5</v>
       </c>
@@ -8801,7 +8808,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="295" spans="1:8">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>4</v>
       </c>
@@ -8824,7 +8831,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="296" spans="1:8">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>2.2000000000000002</v>
       </c>
@@ -8847,7 +8854,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="297" spans="1:8">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>11.5</v>
       </c>
@@ -8870,7 +8877,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="298" spans="1:8">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>6.3</v>
       </c>
@@ -8893,7 +8900,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="299" spans="1:8">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>3.6</v>
       </c>
@@ -8916,7 +8923,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="300" spans="1:8">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>15</v>
       </c>
@@ -8939,7 +8946,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="301" spans="1:8">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>2</v>
       </c>
@@ -8962,7 +8969,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="302" spans="1:8">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>4.5</v>
       </c>
@@ -8985,7 +8992,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="303" spans="1:8">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>2.9</v>
       </c>
@@ -9008,7 +9015,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="304" spans="1:8">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>3.9</v>
       </c>
@@ -9031,7 +9038,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="305" spans="1:8">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>1.7</v>
       </c>
@@ -9054,7 +9061,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="306" spans="1:8">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>10</v>
       </c>
@@ -9077,7 +9084,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="307" spans="1:8">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>7.5</v>
       </c>
@@ -9100,7 +9107,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="308" spans="1:8">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>10.050000000000001</v>
       </c>
@@ -9123,7 +9130,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="309" spans="1:8">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>5</v>
       </c>
@@ -9146,7 +9153,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="310" spans="1:8">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>3</v>
       </c>
@@ -9169,7 +9176,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="311" spans="1:8">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>2</v>
       </c>
@@ -9192,7 +9199,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="312" spans="1:8">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>10.6</v>
       </c>
@@ -9215,7 +9222,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="313" spans="1:8">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>4</v>
       </c>
@@ -9238,7 +9245,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="314" spans="1:8">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>2</v>
       </c>
@@ -9261,7 +9268,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="315" spans="1:8">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>5.8</v>
       </c>
@@ -9284,7 +9291,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="316" spans="1:8">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>5</v>
       </c>
@@ -9307,7 +9314,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="317" spans="1:8">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>6.55</v>
       </c>
@@ -9330,7 +9337,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="318" spans="1:8">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>2.8</v>
       </c>
@@ -9353,7 +9360,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="319" spans="1:8">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>3.8</v>
       </c>
@@ -9376,7 +9383,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="320" spans="1:8">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>9</v>
       </c>
@@ -9399,7 +9406,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="321" spans="1:8">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>8</v>
       </c>
@@ -9422,7 +9429,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="322" spans="1:8">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>1.5</v>
       </c>
@@ -9445,7 +9452,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="323" spans="1:8">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>5</v>
       </c>
@@ -9468,7 +9475,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="324" spans="1:8">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>4.5999999999999996</v>
       </c>
@@ -9491,7 +9498,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="325" spans="1:8">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>0.5</v>
       </c>
@@ -9514,7 +9521,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="326" spans="1:8">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>2.95</v>
       </c>
@@ -9537,7 +9544,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="327" spans="1:8">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>3.8</v>
       </c>
@@ -9560,7 +9567,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="328" spans="1:8">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>10</v>
       </c>
@@ -9583,7 +9590,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="329" spans="1:8">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>3.85</v>
       </c>
@@ -9606,7 +9613,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="330" spans="1:8">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>1.2</v>
       </c>
@@ -9629,7 +9636,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="331" spans="1:8">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>2</v>
       </c>
@@ -9652,7 +9659,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="332" spans="1:8">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>8.5</v>
       </c>
@@ -9675,7 +9682,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="333" spans="1:8">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>4.9000000000000004</v>
       </c>
@@ -9698,7 +9705,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="334" spans="1:8">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>10</v>
       </c>
@@ -9721,7 +9728,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="335" spans="1:8">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>1.5</v>
       </c>
@@ -9741,7 +9748,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="336" spans="1:8">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>350</v>
       </c>
@@ -9764,7 +9771,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="337" spans="1:8">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>4.4000000000000004</v>
       </c>
@@ -9787,7 +9794,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="338" spans="1:8">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>3.2</v>
       </c>
@@ -9810,7 +9817,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="339" spans="1:8">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>3.8</v>
       </c>
@@ -9833,7 +9840,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="340" spans="1:8">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>0.9</v>
       </c>
@@ -9856,7 +9863,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="341" spans="1:8">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>6</v>
       </c>
@@ -9879,7 +9886,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="342" spans="1:8">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>3.8</v>
       </c>
@@ -9902,7 +9909,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="343" spans="1:8">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>2</v>
       </c>
@@ -9925,7 +9932,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="344" spans="1:8">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>5.5</v>
       </c>
@@ -9948,7 +9955,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="345" spans="1:8">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>43.22</v>
       </c>
@@ -9971,7 +9978,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="346" spans="1:8">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>2</v>
       </c>
@@ -9994,7 +10001,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="347" spans="1:8">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>7</v>
       </c>
@@ -10017,7 +10024,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="348" spans="1:8">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>1.61</v>
       </c>
@@ -10040,7 +10047,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="349" spans="1:8">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>20</v>
       </c>
@@ -10063,7 +10070,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="350" spans="1:8">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>14.84</v>
       </c>
@@ -10086,7 +10093,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="351" spans="1:8">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>5.6</v>
       </c>
@@ -10109,7 +10116,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="352" spans="1:8">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>6.8</v>
       </c>
@@ -10132,7 +10139,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="353" spans="1:12">
+    <row r="353" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>7.7</v>
       </c>
@@ -10155,7 +10162,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="354" spans="1:12">
+    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>29.4</v>
       </c>
@@ -10178,7 +10185,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="355" spans="1:12">
+    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>0.5</v>
       </c>
@@ -10201,7 +10208,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="356" spans="1:12">
+    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>2.2000000000000002</v>
       </c>
@@ -10224,7 +10231,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="357" spans="1:12">
+    <row r="357" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>3.5</v>
       </c>
@@ -10247,7 +10254,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="358" spans="1:12">
+    <row r="358" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>4.4000000000000004</v>
       </c>
@@ -10270,7 +10277,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="359" spans="1:12">
+    <row r="359" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>5.7</v>
       </c>
@@ -10293,7 +10300,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="360" spans="1:12">
+    <row r="360" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>7.74</v>
       </c>
@@ -10316,7 +10323,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="361" spans="1:12">
+    <row r="361" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>7</v>
       </c>
@@ -10339,7 +10346,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="362" spans="1:12">
+    <row r="362" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>3.8</v>
       </c>
@@ -10362,7 +10369,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="363" spans="1:12">
+    <row r="363" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>100</v>
       </c>
@@ -10385,7 +10392,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="364" spans="1:12">
+    <row r="364" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>5</v>
       </c>
@@ -10409,7 +10416,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="365" spans="1:12">
+    <row r="365" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A365" s="6">
         <v>2</v>
       </c>
@@ -10436,7 +10443,7 @@
       <c r="K365" s="1"/>
       <c r="L365" s="1"/>
     </row>
-    <row r="366" spans="1:12">
+    <row r="366" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>7</v>
       </c>
@@ -10459,7 +10466,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="367" spans="1:12">
+    <row r="367" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>50</v>
       </c>
@@ -10482,7 +10489,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="368" spans="1:12">
+    <row r="368" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>10</v>
       </c>
@@ -10505,7 +10512,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="369" spans="1:8">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>10.8</v>
       </c>
@@ -10528,7 +10535,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="370" spans="1:8">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>10.5</v>
       </c>
@@ -10551,7 +10558,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="371" spans="1:8">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>5.5</v>
       </c>
@@ -10574,7 +10581,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="372" spans="1:8">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>5</v>
       </c>
@@ -10597,7 +10604,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="373" spans="1:8">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>0.5</v>
       </c>
@@ -10620,7 +10627,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="374" spans="1:8">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>10.5</v>
       </c>
@@ -10643,7 +10650,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="375" spans="1:8">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>14</v>
       </c>
@@ -10666,7 +10673,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="376" spans="1:8">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>2</v>
       </c>
@@ -10689,7 +10696,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="377" spans="1:8">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>3.5</v>
       </c>
@@ -10712,7 +10719,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="378" spans="1:8">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>3.5</v>
       </c>
@@ -10735,7 +10742,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="379" spans="1:8">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>3.5</v>
       </c>
@@ -10758,7 +10765,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="380" spans="1:8">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>2</v>
       </c>
@@ -10781,7 +10788,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="381" spans="1:8">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>2</v>
       </c>
@@ -10804,7 +10811,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="382" spans="1:8">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>2.5</v>
       </c>
@@ -10827,7 +10834,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="383" spans="1:8">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>6.5</v>
       </c>
@@ -10850,7 +10857,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="384" spans="1:8">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>3.78</v>
       </c>
@@ -10873,7 +10880,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="385" spans="1:8">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>7</v>
       </c>
@@ -10896,7 +10903,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="386" spans="1:8">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>2.5</v>
       </c>
@@ -10919,7 +10926,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="387" spans="1:8">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>2</v>
       </c>
@@ -10942,7 +10949,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="388" spans="1:8">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>1</v>
       </c>
@@ -10965,7 +10972,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="389" spans="1:8">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>10.5</v>
       </c>
@@ -10988,7 +10995,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="390" spans="1:8">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>1.5</v>
       </c>
@@ -11011,7 +11018,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="391" spans="1:8">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>2.7</v>
       </c>
@@ -11034,7 +11041,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="392" spans="1:8">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>2</v>
       </c>
@@ -11057,7 +11064,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="393" spans="1:8">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>17.5</v>
       </c>
@@ -11080,7 +11087,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="394" spans="1:8">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>43</v>
       </c>
@@ -11103,7 +11110,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="395" spans="1:8">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>69.900000000000006</v>
       </c>
@@ -11126,7 +11133,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="396" spans="1:8">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>16</v>
       </c>
@@ -11149,7 +11156,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="397" spans="1:8">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>2.2000000000000002</v>
       </c>
@@ -11172,7 +11179,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="398" spans="1:8">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>1.72</v>
       </c>
@@ -11195,7 +11202,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="399" spans="1:8">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>6</v>
       </c>
@@ -11218,7 +11225,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="400" spans="1:8">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>1.8</v>
       </c>
@@ -11241,7 +11248,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="401" spans="1:8">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>4.5999999999999996</v>
       </c>
@@ -11264,7 +11271,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="402" spans="1:8">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>27</v>
       </c>
@@ -11287,7 +11294,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="403" spans="1:8">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>14</v>
       </c>
@@ -11310,7 +11317,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="404" spans="1:8">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>2.5</v>
       </c>
@@ -11333,7 +11340,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="405" spans="1:8">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>10</v>
       </c>
@@ -11356,7 +11363,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="406" spans="1:8">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>11</v>
       </c>
@@ -11379,7 +11386,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="407" spans="1:8">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>5.55</v>
       </c>
@@ -11402,7 +11409,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="408" spans="1:8">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>3</v>
       </c>
@@ -11425,7 +11432,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="409" spans="1:8">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>3.5</v>
       </c>
@@ -11448,7 +11455,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="410" spans="1:8">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>3.8</v>
       </c>
@@ -11471,7 +11478,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="411" spans="1:8">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>4</v>
       </c>
@@ -11494,7 +11501,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="412" spans="1:8">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>8</v>
       </c>
@@ -11517,7 +11524,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="413" spans="1:8">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>11.6</v>
       </c>
@@ -11540,7 +11547,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="414" spans="1:8">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>1.6</v>
       </c>
@@ -11563,7 +11570,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="415" spans="1:8">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>44.41</v>
       </c>
@@ -11586,7 +11593,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="416" spans="1:8">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>4.8</v>
       </c>
@@ -11609,7 +11616,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="417" spans="1:8">
+    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>1.7</v>
       </c>
@@ -11632,7 +11639,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="418" spans="1:8">
+    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>2.85</v>
       </c>
@@ -11655,7 +11662,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="419" spans="1:8">
+    <row r="419" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>6.4</v>
       </c>
@@ -11678,7 +11685,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="420" spans="1:8">
+    <row r="420" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>3.5</v>
       </c>
@@ -11701,7 +11708,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="421" spans="1:8">
+    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>6.5</v>
       </c>
@@ -11724,7 +11731,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="422" spans="1:8">
+    <row r="422" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>1.2</v>
       </c>
@@ -11747,7 +11754,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="423" spans="1:8">
+    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>4.5999999999999996</v>
       </c>
@@ -11770,7 +11777,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="424" spans="1:8">
+    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>8</v>
       </c>
@@ -11793,7 +11800,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="425" spans="1:8">
+    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>3.5</v>
       </c>
@@ -11816,7 +11823,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="426" spans="1:8">
+    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
         <v>50</v>
       </c>
@@ -11840,7 +11847,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="427" spans="1:8">
+    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>10</v>
       </c>
@@ -11863,7 +11870,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="428" spans="1:8">
+    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>2.9</v>
       </c>
@@ -11886,7 +11893,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="429" spans="1:8">
+    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>15</v>
       </c>
@@ -11909,7 +11916,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="430" spans="1:8">
+    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>3.5</v>
       </c>
@@ -11932,7 +11939,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="431" spans="1:8">
+    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>9.25</v>
       </c>
@@ -11955,7 +11962,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="432" spans="1:8">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>8</v>
       </c>
@@ -11978,7 +11985,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="433" spans="1:8">
+    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>4.0999999999999996</v>
       </c>
@@ -12001,7 +12008,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="434" spans="1:8">
+    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>4.9000000000000004</v>
       </c>
@@ -12024,7 +12031,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="435" spans="1:8">
+    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>2.8</v>
       </c>
@@ -12047,7 +12054,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="436" spans="1:8">
+    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>18.7</v>
       </c>
@@ -12070,7 +12077,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="437" spans="1:8">
+    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>20</v>
       </c>
@@ -12093,7 +12100,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="438" spans="1:8">
+    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
         <v>150</v>
       </c>
@@ -12117,7 +12124,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="439" spans="1:8">
+    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
         <v>10</v>
       </c>
@@ -12141,7 +12148,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="440" spans="1:8">
+    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>2.1</v>
       </c>
@@ -12164,7 +12171,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="441" spans="1:8">
+    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>5</v>
       </c>
@@ -12187,7 +12194,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="442" spans="1:8">
+    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>10</v>
       </c>
@@ -12210,7 +12217,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="443" spans="1:8">
+    <row r="443" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>59</v>
       </c>
@@ -12233,7 +12240,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="444" spans="1:8">
+    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>4</v>
       </c>
@@ -12256,7 +12263,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="445" spans="1:8">
+    <row r="445" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>4.17</v>
       </c>
@@ -12279,7 +12286,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="446" spans="1:8">
+    <row r="446" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>4.2</v>
       </c>
@@ -12302,7 +12309,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="447" spans="1:8">
+    <row r="447" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>4.4000000000000004</v>
       </c>
@@ -12325,7 +12332,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="448" spans="1:8">
+    <row r="448" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>30</v>
       </c>
@@ -12348,7 +12355,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="449" spans="1:8">
+    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>5</v>
       </c>
@@ -12371,7 +12378,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="450" spans="1:8">
+    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>15.7</v>
       </c>
@@ -12394,7 +12401,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="451" spans="1:8">
+    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>4</v>
       </c>
@@ -12417,7 +12424,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="452" spans="1:8">
+    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>8</v>
       </c>
@@ -12440,7 +12447,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="453" spans="1:8">
+    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>3.5</v>
       </c>
@@ -12463,7 +12470,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="454" spans="1:8">
+    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>4.2</v>
       </c>
@@ -12486,7 +12493,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="455" spans="1:8">
+    <row r="455" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>180</v>
       </c>
@@ -12509,7 +12516,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="456" spans="1:8">
+    <row r="456" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>2.2999999999999998</v>
       </c>
@@ -12532,7 +12539,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="457" spans="1:8">
+    <row r="457" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>11</v>
       </c>
@@ -12555,7 +12562,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="458" spans="1:8">
+    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>2</v>
       </c>
@@ -12578,7 +12585,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="459" spans="1:8">
+    <row r="459" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>3</v>
       </c>
@@ -12601,7 +12608,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="460" spans="1:8">
+    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>6.4</v>
       </c>
@@ -12624,7 +12631,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="461" spans="1:8">
+    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>3.2</v>
       </c>
@@ -12647,7 +12654,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="462" spans="1:8">
+    <row r="462" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>1</v>
       </c>
@@ -12670,7 +12677,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="463" spans="1:8">
+    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>4.2</v>
       </c>
@@ -12693,7 +12700,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="464" spans="1:8">
+    <row r="464" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>14</v>
       </c>
@@ -12716,7 +12723,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="465" spans="1:8">
+    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>2.9</v>
       </c>
@@ -12739,7 +12746,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="466" spans="1:8">
+    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>4</v>
       </c>
@@ -12762,7 +12769,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="467" spans="1:8">
+    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>1.8</v>
       </c>
@@ -12785,7 +12792,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="468" spans="1:8">
+    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>18</v>
       </c>
@@ -12808,7 +12815,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="469" spans="1:8">
+    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>2</v>
       </c>
@@ -12831,7 +12838,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="470" spans="1:8">
+    <row r="470" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>3</v>
       </c>
@@ -12854,7 +12861,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="471" spans="1:8">
+    <row r="471" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>10</v>
       </c>
@@ -12877,7 +12884,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="472" spans="1:8">
+    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>8.3000000000000007</v>
       </c>
@@ -12900,12 +12907,12 @@
         <v>241</v>
       </c>
     </row>
-    <row r="473" spans="1:8">
+    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>362</v>
       </c>
       <c r="B473" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="C473" s="2">
         <v>43374</v>
@@ -12923,7 +12930,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="474" spans="1:8">
+    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>4.2</v>
       </c>
@@ -12946,7 +12953,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="475" spans="1:8">
+    <row r="475" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>0.5</v>
       </c>
@@ -12969,7 +12976,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="476" spans="1:8">
+    <row r="476" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>1.7</v>
       </c>
@@ -12992,7 +12999,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="477" spans="1:8">
+    <row r="477" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>4.5999999999999996</v>
       </c>
@@ -13015,7 +13022,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="478" spans="1:8">
+    <row r="478" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>4.7</v>
       </c>
@@ -13038,7 +13045,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="479" spans="1:8">
+    <row r="479" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>1</v>
       </c>
@@ -13061,7 +13068,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="480" spans="1:8">
+    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>5.6</v>
       </c>
@@ -13084,12 +13091,12 @@
         <v>250</v>
       </c>
     </row>
-    <row r="481" spans="1:8">
+    <row r="481" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>33.799999999999997</v>
       </c>
       <c r="B481" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="C481" s="2">
         <v>43377</v>
@@ -13107,7 +13114,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="482" spans="1:8">
+    <row r="482" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>8</v>
       </c>
@@ -13130,7 +13137,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="483" spans="1:8">
+    <row r="483" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>5.2</v>
       </c>
@@ -13153,7 +13160,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="484" spans="1:8">
+    <row r="484" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>5.4</v>
       </c>
@@ -13176,7 +13183,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="485" spans="1:8">
+    <row r="485" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>40</v>
       </c>
@@ -13199,7 +13206,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="486" spans="1:8">
+    <row r="486" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>10.8</v>
       </c>
@@ -13222,7 +13229,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="487" spans="1:8">
+    <row r="487" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>15</v>
       </c>
@@ -13245,7 +13252,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="488" spans="1:8">
+    <row r="488" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>20</v>
       </c>
@@ -13268,7 +13275,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="489" spans="1:8">
+    <row r="489" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>3</v>
       </c>
@@ -13291,7 +13298,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="490" spans="1:8">
+    <row r="490" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>3.5</v>
       </c>
@@ -13314,7 +13321,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="491" spans="1:8">
+    <row r="491" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>2.2000000000000002</v>
       </c>
@@ -13337,7 +13344,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="492" spans="1:8">
+    <row r="492" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A492">
         <v>4.5</v>
       </c>
@@ -13360,7 +13367,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="493" spans="1:8">
+    <row r="493" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A493">
         <v>4.2</v>
       </c>
@@ -13383,7 +13390,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="494" spans="1:8">
+    <row r="494" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A494">
         <v>5</v>
       </c>
@@ -13406,7 +13413,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="495" spans="1:8">
+    <row r="495" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A495" s="1">
         <v>27.69</v>
       </c>
@@ -13430,7 +13437,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="496" spans="1:8">
+    <row r="496" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A496">
         <v>70</v>
       </c>
@@ -13453,7 +13460,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="497" spans="1:8">
+    <row r="497" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A497" s="1">
         <v>2.2999999999999998</v>
       </c>
@@ -13477,7 +13484,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="498" spans="1:8">
+    <row r="498" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A498">
         <v>3.2</v>
       </c>
@@ -13500,7 +13507,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="499" spans="1:8">
+    <row r="499" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>3.6</v>
       </c>
@@ -13523,7 +13530,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="500" spans="1:8">
+    <row r="500" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>0.5</v>
       </c>
@@ -13546,7 +13553,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="501" spans="1:8">
+    <row r="501" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>10</v>
       </c>
@@ -13569,7 +13576,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="502" spans="1:8">
+    <row r="502" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A502">
         <v>2</v>
       </c>
@@ -13592,7 +13599,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="503" spans="1:8">
+    <row r="503" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A503" s="1">
         <v>1.9</v>
       </c>
@@ -13616,7 +13623,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="504" spans="1:8">
+    <row r="504" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A504">
         <v>6.6</v>
       </c>
@@ -13639,7 +13646,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="505" spans="1:8">
+    <row r="505" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A505">
         <v>1.8</v>
       </c>
@@ -13662,7 +13669,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="506" spans="1:8">
+    <row r="506" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A506" s="1">
         <v>0.8</v>
       </c>
@@ -13686,7 +13693,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="507" spans="1:8">
+    <row r="507" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A507">
         <v>4.2</v>
       </c>
@@ -13709,7 +13716,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="508" spans="1:8">
+    <row r="508" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A508">
         <v>4</v>
       </c>
@@ -13732,7 +13739,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="509" spans="1:8">
+    <row r="509" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A509">
         <v>1.2</v>
       </c>
@@ -13755,7 +13762,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="510" spans="1:8">
+    <row r="510" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A510">
         <v>5</v>
       </c>
@@ -13778,7 +13785,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="511" spans="1:8">
+    <row r="511" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A511">
         <v>3.5</v>
       </c>
@@ -13801,7 +13808,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="512" spans="1:8">
+    <row r="512" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A512" s="1">
         <v>1.75</v>
       </c>
@@ -13825,7 +13832,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="513" spans="1:8">
+    <row r="513" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A513">
         <v>4.2</v>
       </c>
@@ -13848,7 +13855,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="514" spans="1:8">
+    <row r="514" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A514">
         <v>5.6</v>
       </c>
@@ -13871,7 +13878,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="515" spans="1:8">
+    <row r="515" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A515">
         <v>3.6</v>
       </c>
@@ -13894,7 +13901,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="516" spans="1:8">
+    <row r="516" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A516">
         <v>15.93</v>
       </c>
@@ -13917,7 +13924,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="517" spans="1:8">
+    <row r="517" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A517">
         <v>5.98</v>
       </c>
@@ -13940,7 +13947,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="518" spans="1:8">
+    <row r="518" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A518">
         <v>5</v>
       </c>
@@ -13963,7 +13970,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="519" spans="1:8">
+    <row r="519" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A519">
         <v>4.2</v>
       </c>
@@ -13986,7 +13993,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="520" spans="1:8">
+    <row r="520" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A520">
         <v>4.2</v>
       </c>
@@ -14009,7 +14016,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="521" spans="1:8">
+    <row r="521" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A521">
         <v>4</v>
       </c>
@@ -14032,7 +14039,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="522" spans="1:8">
+    <row r="522" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A522">
         <v>3</v>
       </c>
@@ -14055,7 +14062,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="523" spans="1:8">
+    <row r="523" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A523">
         <v>2</v>
       </c>
@@ -14078,7 +14085,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="524" spans="1:8">
+    <row r="524" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A524">
         <v>1</v>
       </c>
@@ -14101,7 +14108,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="525" spans="1:8">
+    <row r="525" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A525" s="1">
         <v>4.0999999999999996</v>
       </c>
@@ -14125,7 +14132,30 @@
         <v>250</v>
       </c>
     </row>
-    <row r="528" spans="1:8">
+    <row r="526" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A526">
+        <v>78.180000000000007</v>
+      </c>
+      <c r="B526" t="s">
+        <v>351</v>
+      </c>
+      <c r="C526" s="2">
+        <v>43396</v>
+      </c>
+      <c r="D526" t="s">
+        <v>520</v>
+      </c>
+      <c r="E526" t="s">
+        <v>238</v>
+      </c>
+      <c r="F526">
+        <v>5</v>
+      </c>
+      <c r="H526" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="528" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C528" s="2"/>
     </row>
   </sheetData>

--- a/DataBase/costs.xlsx
+++ b/DataBase/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2112" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2124" uniqueCount="524">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1577,6 +1577,15 @@
   </si>
   <si>
     <t>αεροπορικά για Ιρλανδία</t>
+  </si>
+  <si>
+    <t>burger με φαλαφελ και πατάτες</t>
+  </si>
+  <si>
+    <t>πατατάκια με ρίγανη</t>
+  </si>
+  <si>
+    <t>σπανακόπιτα, κουρού και σφολιάτα</t>
   </si>
 </sst>
 </file>
@@ -2014,10 +2023,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L528"/>
+  <dimension ref="A1:L529"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A467" workbookViewId="0">
-      <selection activeCell="B482" sqref="B482"/>
+    <sheetView tabSelected="1" topLeftCell="A515" workbookViewId="0">
+      <selection activeCell="D530" sqref="D530"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14155,8 +14164,74 @@
         <v>241</v>
       </c>
     </row>
+    <row r="527" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A527">
+        <v>5.2</v>
+      </c>
+      <c r="B527" t="s">
+        <v>223</v>
+      </c>
+      <c r="C527" s="2">
+        <v>43397</v>
+      </c>
+      <c r="D527" t="s">
+        <v>521</v>
+      </c>
+      <c r="E527" t="s">
+        <v>238</v>
+      </c>
+      <c r="F527">
+        <v>5</v>
+      </c>
+      <c r="H527" t="s">
+        <v>250</v>
+      </c>
+    </row>
     <row r="528" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C528" s="2"/>
+      <c r="A528">
+        <v>1.2</v>
+      </c>
+      <c r="B528" t="s">
+        <v>223</v>
+      </c>
+      <c r="C528" s="2">
+        <v>43397</v>
+      </c>
+      <c r="D528" t="s">
+        <v>522</v>
+      </c>
+      <c r="E528" t="s">
+        <v>238</v>
+      </c>
+      <c r="F528">
+        <v>5</v>
+      </c>
+      <c r="H528" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="529" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A529">
+        <v>4.5</v>
+      </c>
+      <c r="B529" t="s">
+        <v>223</v>
+      </c>
+      <c r="C529" s="2">
+        <v>43398</v>
+      </c>
+      <c r="D529" t="s">
+        <v>523</v>
+      </c>
+      <c r="E529" t="s">
+        <v>238</v>
+      </c>
+      <c r="F529">
+        <v>5</v>
+      </c>
+      <c r="H529" t="s">
+        <v>250</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataBase/costs.xlsx
+++ b/DataBase/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2112" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2113" uniqueCount="521">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -2016,8 +2016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L528"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A467" workbookViewId="0">
-      <selection activeCell="B482" sqref="B482"/>
+    <sheetView tabSelected="1" topLeftCell="A317" workbookViewId="0">
+      <selection activeCell="B336" sqref="B336"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9732,6 +9732,9 @@
       <c r="A335">
         <v>1.5</v>
       </c>
+      <c r="B335" t="s">
+        <v>353</v>
+      </c>
       <c r="C335" s="2">
         <v>43307</v>
       </c>

--- a/DataBase/costs.xlsx
+++ b/DataBase/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2128" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2131" uniqueCount="525">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1586,6 +1586,9 @@
   </si>
   <si>
     <t>φαγητό με την Αγίλαρα</t>
+  </si>
+  <si>
+    <t>μπουκάλι με το barlis team στο dirty blonde</t>
   </si>
 </sst>
 </file>
@@ -1697,15 +1700,15 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
         <top/>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1721,9 +1724,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:H530" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:H531" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="8">
-    <tableColumn id="1" name="amount" headerRowDxfId="7" totalsRowDxfId="8"/>
+    <tableColumn id="1" name="amount" headerRowDxfId="8" totalsRowDxfId="7"/>
     <tableColumn id="11" name="type" totalsRowDxfId="6"/>
     <tableColumn id="2" name="date" totalsRowDxfId="5"/>
     <tableColumn id="4" name="description" totalsRowDxfId="4"/>
@@ -2023,10 +2026,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L530"/>
+  <dimension ref="A1:L531"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A159" workbookViewId="0">
-      <selection activeCell="D165" sqref="D165"/>
+    <sheetView tabSelected="1" topLeftCell="A514" workbookViewId="0">
+      <selection activeCell="H531" sqref="H531"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14259,6 +14262,26 @@
         <v>248</v>
       </c>
     </row>
+    <row r="531" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A531">
+        <v>16</v>
+      </c>
+      <c r="B531" t="s">
+        <v>222</v>
+      </c>
+      <c r="C531" s="2">
+        <v>43401</v>
+      </c>
+      <c r="D531" t="s">
+        <v>524</v>
+      </c>
+      <c r="E531" t="s">
+        <v>236</v>
+      </c>
+      <c r="F531">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataBase/costs.xlsx
+++ b/DataBase/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2131" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2136" uniqueCount="526">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1589,6 +1589,9 @@
   </si>
   <si>
     <t>μπουκάλι με το barlis team στο dirty blonde</t>
+  </si>
+  <si>
+    <t>καφές με Φακινό</t>
   </si>
 </sst>
 </file>
@@ -1724,7 +1727,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:H531" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:H532" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="8">
     <tableColumn id="1" name="amount" headerRowDxfId="8" totalsRowDxfId="7"/>
     <tableColumn id="11" name="type" totalsRowDxfId="6"/>
@@ -2026,10 +2029,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L531"/>
+  <dimension ref="A1:L532"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A514" workbookViewId="0">
-      <selection activeCell="H531" sqref="H531"/>
+      <selection activeCell="H533" sqref="H533"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14281,6 +14284,32 @@
       <c r="F531">
         <v>5</v>
       </c>
+      <c r="H531" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="532" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A532">
+        <v>2.5</v>
+      </c>
+      <c r="B532" t="s">
+        <v>222</v>
+      </c>
+      <c r="C532" s="2">
+        <v>43401</v>
+      </c>
+      <c r="D532" t="s">
+        <v>525</v>
+      </c>
+      <c r="E532" t="s">
+        <v>236</v>
+      </c>
+      <c r="F532">
+        <v>5</v>
+      </c>
+      <c r="H532" t="s">
+        <v>246</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataBase/costs.xlsx
+++ b/DataBase/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2136" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2140" uniqueCount="527">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1592,6 +1592,9 @@
   </si>
   <si>
     <t>καφές με Φακινό</t>
+  </si>
+  <si>
+    <t>κρουασάν με σοκολάτα</t>
   </si>
 </sst>
 </file>
@@ -1727,7 +1730,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:H532" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:H533" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="8">
     <tableColumn id="1" name="amount" headerRowDxfId="8" totalsRowDxfId="7"/>
     <tableColumn id="11" name="type" totalsRowDxfId="6"/>
@@ -2029,10 +2032,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L532"/>
+  <dimension ref="A1:L533"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A514" workbookViewId="0">
-      <selection activeCell="H533" sqref="H533"/>
+      <selection activeCell="A534" sqref="A534"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14311,6 +14314,29 @@
         <v>246</v>
       </c>
     </row>
+    <row r="533" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A533">
+        <v>0.8</v>
+      </c>
+      <c r="B533" t="s">
+        <v>222</v>
+      </c>
+      <c r="C533" s="2">
+        <v>43401</v>
+      </c>
+      <c r="D533" t="s">
+        <v>526</v>
+      </c>
+      <c r="E533" t="s">
+        <v>236</v>
+      </c>
+      <c r="F533">
+        <v>5</v>
+      </c>
+      <c r="H533" t="s">
+        <v>246</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataBase/costs.xlsx
+++ b/DataBase/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2140" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2144" uniqueCount="528">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1595,6 +1595,9 @@
   </si>
   <si>
     <t>κρουασάν με σοκολάτα</t>
+  </si>
+  <si>
+    <t>σπανακόπιτα</t>
   </si>
 </sst>
 </file>
@@ -1730,7 +1733,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:H533" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:H534" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="8">
     <tableColumn id="1" name="amount" headerRowDxfId="8" totalsRowDxfId="7"/>
     <tableColumn id="11" name="type" totalsRowDxfId="6"/>
@@ -2032,10 +2035,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L533"/>
+  <dimension ref="A1:L534"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A514" workbookViewId="0">
-      <selection activeCell="A534" sqref="A534"/>
+    <sheetView tabSelected="1" topLeftCell="A529" workbookViewId="0">
+      <selection activeCell="A535" sqref="A535"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14337,6 +14340,29 @@
         <v>246</v>
       </c>
     </row>
+    <row r="534" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A534">
+        <v>2.8</v>
+      </c>
+      <c r="B534" t="s">
+        <v>222</v>
+      </c>
+      <c r="C534" s="2">
+        <v>43402</v>
+      </c>
+      <c r="D534" t="s">
+        <v>527</v>
+      </c>
+      <c r="E534" t="s">
+        <v>236</v>
+      </c>
+      <c r="F534">
+        <v>5</v>
+      </c>
+      <c r="H534" t="s">
+        <v>248</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataBase/costs.xlsx
+++ b/DataBase/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2144" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2148" uniqueCount="529">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1598,6 +1598,9 @@
   </si>
   <si>
     <t>σπανακόπιτα</t>
+  </si>
+  <si>
+    <t>πολύσπορο κουλούρι, σπανακόπιτα και μπουγάτσα</t>
   </si>
 </sst>
 </file>
@@ -1733,7 +1736,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:H534" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:H535" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="8">
     <tableColumn id="1" name="amount" headerRowDxfId="8" totalsRowDxfId="7"/>
     <tableColumn id="11" name="type" totalsRowDxfId="6"/>
@@ -2035,10 +2038,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L534"/>
+  <dimension ref="A1:L535"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A529" workbookViewId="0">
-      <selection activeCell="A535" sqref="A535"/>
+      <selection activeCell="A536" sqref="A536"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14363,6 +14366,29 @@
         <v>248</v>
       </c>
     </row>
+    <row r="535" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A535">
+        <v>3.5</v>
+      </c>
+      <c r="B535" t="s">
+        <v>222</v>
+      </c>
+      <c r="C535" s="2">
+        <v>43403</v>
+      </c>
+      <c r="D535" t="s">
+        <v>528</v>
+      </c>
+      <c r="E535" t="s">
+        <v>236</v>
+      </c>
+      <c r="F535">
+        <v>5</v>
+      </c>
+      <c r="H535" t="s">
+        <v>248</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataBase/costs.xlsx
+++ b/DataBase/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2148" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2156" uniqueCount="530">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1601,6 +1601,9 @@
   </si>
   <si>
     <t>πολύσπορο κουλούρι, σπανακόπιτα και μπουγάτσα</t>
+  </si>
+  <si>
+    <t>κρουασάν σοκολάτας και φλογέρα με filladelphia</t>
   </si>
 </sst>
 </file>
@@ -1736,7 +1739,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:H535" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:H537" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="8">
     <tableColumn id="1" name="amount" headerRowDxfId="8" totalsRowDxfId="7"/>
     <tableColumn id="11" name="type" totalsRowDxfId="6"/>
@@ -2038,10 +2041,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L535"/>
+  <dimension ref="A1:L537"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A529" workbookViewId="0">
-      <selection activeCell="A536" sqref="A536"/>
+      <selection activeCell="E538" sqref="E538"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14389,6 +14392,52 @@
         <v>248</v>
       </c>
     </row>
+    <row r="536" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A536">
+        <v>3.6</v>
+      </c>
+      <c r="B536" t="s">
+        <v>222</v>
+      </c>
+      <c r="C536" s="2">
+        <v>43404</v>
+      </c>
+      <c r="D536" t="s">
+        <v>529</v>
+      </c>
+      <c r="E536" t="s">
+        <v>236</v>
+      </c>
+      <c r="F536">
+        <v>5</v>
+      </c>
+      <c r="H536" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="537" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A537">
+        <v>6.8</v>
+      </c>
+      <c r="B537" t="s">
+        <v>222</v>
+      </c>
+      <c r="C537" s="2">
+        <v>43404</v>
+      </c>
+      <c r="D537" t="s">
+        <v>335</v>
+      </c>
+      <c r="E537" t="s">
+        <v>236</v>
+      </c>
+      <c r="F537">
+        <v>5</v>
+      </c>
+      <c r="H537" t="s">
+        <v>248</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataBase/costs.xlsx
+++ b/DataBase/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2156" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2160" uniqueCount="531">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1604,6 +1604,9 @@
   </si>
   <si>
     <t>κρουασάν σοκολάτας και φλογέρα με filladelphia</t>
+  </si>
+  <si>
+    <t>fredduccino με Αντώνη</t>
   </si>
 </sst>
 </file>
@@ -1739,7 +1742,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:H537" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:H538" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="8">
     <tableColumn id="1" name="amount" headerRowDxfId="8" totalsRowDxfId="7"/>
     <tableColumn id="11" name="type" totalsRowDxfId="6"/>
@@ -2041,10 +2044,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L537"/>
+  <dimension ref="A1:L538"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A529" workbookViewId="0">
-      <selection activeCell="E538" sqref="E538"/>
+      <selection activeCell="C539" sqref="C539"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14438,6 +14441,29 @@
         <v>248</v>
       </c>
     </row>
+    <row r="538" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A538">
+        <v>5</v>
+      </c>
+      <c r="B538" t="s">
+        <v>222</v>
+      </c>
+      <c r="C538" s="2">
+        <v>43404</v>
+      </c>
+      <c r="D538" t="s">
+        <v>530</v>
+      </c>
+      <c r="E538" t="s">
+        <v>236</v>
+      </c>
+      <c r="F538">
+        <v>5</v>
+      </c>
+      <c r="H538" t="s">
+        <v>270</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataBase/costs.xlsx
+++ b/DataBase/costs.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="45" windowWidth="18975" windowHeight="11760"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2177" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2189" uniqueCount="535">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1610,17 +1610,26 @@
   </si>
   <si>
     <t>χυμός Λεμόνι (μλιάξ)</t>
+  </si>
+  <si>
+    <t>σπανακόπιτα με φέτα</t>
+  </si>
+  <si>
+    <t>παγωτό και πατατάκια</t>
+  </si>
+  <si>
+    <t>κρουασάν σοκολάτας, καφέ και νερό (Στάυρος Νιάρχος)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1661,7 +1670,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="9">
     <dxf>
@@ -1745,7 +1754,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:H542" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:H545" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="8">
     <tableColumn id="1" name="amount" headerRowDxfId="8" totalsRowDxfId="7"/>
     <tableColumn id="11" name="type" totalsRowDxfId="6"/>
@@ -1761,7 +1770,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1803,7 +1812,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1835,10 +1844,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1870,7 +1878,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2046,14 +2053,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L542"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L545"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A432" workbookViewId="0">
-      <selection activeCell="D460" sqref="D460"/>
+    <sheetView tabSelected="1" topLeftCell="A529" workbookViewId="0">
+      <selection activeCell="D545" sqref="D545"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.28515625" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
@@ -2069,7 +2076,7 @@
     <col min="12" max="12" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>227</v>
       </c>
@@ -2098,7 +2105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2" s="5" t="s">
         <v>477</v>
       </c>
@@ -2124,7 +2131,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3" s="4">
         <v>20</v>
       </c>
@@ -2148,7 +2155,7 @@
       </c>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4" s="4">
         <v>10</v>
       </c>
@@ -2171,7 +2178,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5" s="4">
         <v>100</v>
       </c>
@@ -2194,7 +2201,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="A6" s="4">
         <v>10</v>
       </c>
@@ -2217,7 +2224,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="A7" s="4">
         <v>50</v>
       </c>
@@ -2240,7 +2247,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="A8" s="4">
         <v>3.2</v>
       </c>
@@ -2263,7 +2270,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="A9" s="4">
         <v>1.3</v>
       </c>
@@ -2286,7 +2293,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="A10" s="4">
         <v>1.2</v>
       </c>
@@ -2309,7 +2316,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="A11" s="4">
         <v>5</v>
       </c>
@@ -2332,7 +2339,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12">
       <c r="A12" s="4">
         <v>4.5</v>
       </c>
@@ -2355,7 +2362,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12">
       <c r="A13" s="4">
         <v>4</v>
       </c>
@@ -2378,7 +2385,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12">
       <c r="A14" s="4">
         <v>10.6</v>
       </c>
@@ -2401,7 +2408,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12">
       <c r="A15" s="4">
         <v>1.8</v>
       </c>
@@ -2424,7 +2431,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12">
       <c r="A16" s="4">
         <v>5.15</v>
       </c>
@@ -2447,7 +2454,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" s="4">
         <v>18</v>
       </c>
@@ -2470,7 +2477,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" s="4">
         <v>1.5</v>
       </c>
@@ -2493,7 +2500,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" s="4">
         <v>7.8</v>
       </c>
@@ -2516,7 +2523,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" s="4">
         <v>4.4400000000000004</v>
       </c>
@@ -2539,7 +2546,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21" s="4">
         <v>1.5</v>
       </c>
@@ -2562,7 +2569,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22" s="4">
         <v>8.84</v>
       </c>
@@ -2585,7 +2592,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23" s="4">
         <v>4</v>
       </c>
@@ -2608,7 +2615,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="A24" s="4">
         <v>10</v>
       </c>
@@ -2631,7 +2638,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="A25" s="4">
         <v>1.8</v>
       </c>
@@ -2654,7 +2661,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="A26" s="4">
         <v>11.8</v>
       </c>
@@ -2677,7 +2684,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="A27" s="4">
         <v>40</v>
       </c>
@@ -2700,7 +2707,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="A28" s="4">
         <v>2.9</v>
       </c>
@@ -2723,7 +2730,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="A29" s="4">
         <v>4.3</v>
       </c>
@@ -2746,7 +2753,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="A30" s="4">
         <v>3.35</v>
       </c>
@@ -2769,7 +2776,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="A31" s="4">
         <v>5.2</v>
       </c>
@@ -2792,7 +2799,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="A32" s="4">
         <v>15</v>
       </c>
@@ -2815,7 +2822,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="A33" s="4">
         <v>3.9</v>
       </c>
@@ -2838,7 +2845,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="A34" s="4">
         <v>63.45</v>
       </c>
@@ -2861,7 +2868,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="A35" s="4">
         <v>49.9</v>
       </c>
@@ -2884,7 +2891,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="A36" s="4">
         <v>140</v>
       </c>
@@ -2907,7 +2914,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="A37" s="4">
         <v>1.8</v>
       </c>
@@ -2930,7 +2937,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="A38" s="4">
         <v>13.02</v>
       </c>
@@ -2953,7 +2960,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="A39" s="4">
         <v>4.7</v>
       </c>
@@ -2976,7 +2983,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="A40" s="4">
         <v>15.96</v>
       </c>
@@ -2999,7 +3006,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="A41" s="4">
         <v>9.8000000000000007</v>
       </c>
@@ -3022,7 +3029,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="A42" s="4">
         <v>79.8</v>
       </c>
@@ -3045,7 +3052,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="A43" s="4">
         <v>11.9</v>
       </c>
@@ -3068,7 +3075,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="A44" s="4">
         <v>38.880000000000003</v>
       </c>
@@ -3091,7 +3098,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8">
       <c r="A45" s="4">
         <v>7.75</v>
       </c>
@@ -3114,7 +3121,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="A46" s="4">
         <v>0.79</v>
       </c>
@@ -3137,7 +3144,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="A47" s="4">
         <v>10</v>
       </c>
@@ -3160,7 +3167,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8">
       <c r="A48" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -3183,7 +3190,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11">
       <c r="A49" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -3206,7 +3213,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11">
       <c r="A50" s="4">
         <v>1.8</v>
       </c>
@@ -3229,7 +3236,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11">
       <c r="A51" s="4">
         <v>24</v>
       </c>
@@ -3252,7 +3259,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11">
       <c r="A52" s="4">
         <v>24</v>
       </c>
@@ -3275,7 +3282,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11">
       <c r="A53" s="4">
         <v>1.8</v>
       </c>
@@ -3298,7 +3305,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11">
       <c r="A54" s="4">
         <v>3.5</v>
       </c>
@@ -3321,7 +3328,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11">
       <c r="A55" s="4">
         <v>5.6</v>
       </c>
@@ -3345,7 +3352,7 @@
       </c>
       <c r="K55" s="4"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11">
       <c r="A56" s="4">
         <v>1.5</v>
       </c>
@@ -3368,7 +3375,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11">
       <c r="A57" s="4">
         <v>3</v>
       </c>
@@ -3391,7 +3398,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11">
       <c r="A58" s="4">
         <v>5.4</v>
       </c>
@@ -3414,7 +3421,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11">
       <c r="A59" s="4">
         <v>8</v>
       </c>
@@ -3437,7 +3444,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11">
       <c r="A60" s="4">
         <v>5.4</v>
       </c>
@@ -3460,7 +3467,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11">
       <c r="A61" s="4">
         <v>0.6</v>
       </c>
@@ -3483,7 +3490,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11">
       <c r="A62" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -3506,7 +3513,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11">
       <c r="A63" s="4">
         <v>1.5</v>
       </c>
@@ -3529,7 +3536,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11">
       <c r="A64" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -3552,7 +3559,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11">
       <c r="A65" s="4">
         <v>1.2</v>
       </c>
@@ -3575,7 +3582,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11">
       <c r="A66" s="4">
         <v>5.0999999999999996</v>
       </c>
@@ -3598,7 +3605,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11">
       <c r="A67" s="4">
         <v>13.5</v>
       </c>
@@ -3621,7 +3628,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11">
       <c r="A68" s="4">
         <v>3.5</v>
       </c>
@@ -3645,7 +3652,7 @@
       </c>
       <c r="K68" s="4"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11">
       <c r="A69" s="4">
         <v>4.0999999999999996</v>
       </c>
@@ -3668,7 +3675,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11">
       <c r="A70" s="4">
         <v>90</v>
       </c>
@@ -3691,7 +3698,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11">
       <c r="A71" s="4">
         <v>65.5</v>
       </c>
@@ -3714,7 +3721,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11">
       <c r="A72" s="4">
         <v>4.5</v>
       </c>
@@ -3737,7 +3744,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11">
       <c r="A73" s="4">
         <v>10</v>
       </c>
@@ -3760,7 +3767,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11">
       <c r="A74" s="4">
         <v>18.8</v>
       </c>
@@ -3783,7 +3790,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11">
       <c r="A75" s="4">
         <v>1.8</v>
       </c>
@@ -3807,7 +3814,7 @@
       </c>
       <c r="K75" s="4"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11">
       <c r="A76" s="4">
         <v>5.5</v>
       </c>
@@ -3830,7 +3837,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11">
       <c r="A77" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -3853,7 +3860,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11">
       <c r="A78" s="4">
         <v>3</v>
       </c>
@@ -3876,7 +3883,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11">
       <c r="A79" s="4">
         <v>2</v>
       </c>
@@ -3899,7 +3906,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11">
       <c r="A80" s="4">
         <v>9.9</v>
       </c>
@@ -3922,7 +3929,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8">
       <c r="A81" s="4">
         <v>6.5</v>
       </c>
@@ -3945,7 +3952,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8">
       <c r="A82" s="4">
         <v>79.8</v>
       </c>
@@ -3968,7 +3975,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8">
       <c r="A83" s="4">
         <v>10</v>
       </c>
@@ -3991,7 +3998,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8">
       <c r="A84" s="4">
         <v>2.5</v>
       </c>
@@ -4014,7 +4021,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8">
       <c r="A85" s="4">
         <v>5</v>
       </c>
@@ -4037,7 +4044,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8">
       <c r="A86" s="4">
         <v>1.6</v>
       </c>
@@ -4060,7 +4067,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8">
       <c r="A87" s="4">
         <v>5.5</v>
       </c>
@@ -4083,7 +4090,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8">
       <c r="A88" s="4">
         <v>0.8</v>
       </c>
@@ -4106,7 +4113,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8">
       <c r="A89" s="4">
         <v>17</v>
       </c>
@@ -4129,7 +4136,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8">
       <c r="A90" s="4">
         <v>24.9</v>
       </c>
@@ -4152,7 +4159,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8">
       <c r="A91" s="4">
         <v>1.8</v>
       </c>
@@ -4175,7 +4182,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8">
       <c r="A92" s="4">
         <v>44.99</v>
       </c>
@@ -4198,7 +4205,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8">
       <c r="A93" s="4">
         <v>4</v>
       </c>
@@ -4221,7 +4228,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8">
       <c r="A94" s="4">
         <v>5</v>
       </c>
@@ -4244,7 +4251,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8">
       <c r="A95" s="4">
         <v>5</v>
       </c>
@@ -4267,7 +4274,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8">
       <c r="A96" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -4290,7 +4297,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8">
       <c r="A97" s="4">
         <v>3</v>
       </c>
@@ -4313,7 +4320,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8">
       <c r="A98" s="4">
         <v>6</v>
       </c>
@@ -4336,7 +4343,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8">
       <c r="A99" s="4">
         <v>3.5</v>
       </c>
@@ -4359,7 +4366,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8">
       <c r="A100" s="4">
         <v>34.9</v>
       </c>
@@ -4382,7 +4389,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8">
       <c r="A101" s="4">
         <v>12</v>
       </c>
@@ -4405,7 +4412,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8">
       <c r="A102" s="4">
         <v>5</v>
       </c>
@@ -4428,7 +4435,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8">
       <c r="A103" s="4">
         <v>6.9</v>
       </c>
@@ -4451,7 +4458,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8">
       <c r="A104" s="4">
         <v>6.04</v>
       </c>
@@ -4474,7 +4481,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8">
       <c r="A105" s="4">
         <v>4.8</v>
       </c>
@@ -4497,7 +4504,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8">
       <c r="A106" s="4">
         <v>9.6999999999999993</v>
       </c>
@@ -4520,7 +4527,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8">
       <c r="A107" s="4">
         <v>5.5</v>
       </c>
@@ -4543,7 +4550,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8">
       <c r="A108" s="4">
         <v>7</v>
       </c>
@@ -4566,7 +4573,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8">
       <c r="A109" s="4">
         <v>1</v>
       </c>
@@ -4589,7 +4596,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8">
       <c r="A110" s="4">
         <v>4</v>
       </c>
@@ -4612,7 +4619,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8">
       <c r="A111" s="4">
         <v>4.0999999999999996</v>
       </c>
@@ -4635,7 +4642,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8">
       <c r="A112" s="4">
         <v>2.3199999999999998</v>
       </c>
@@ -4658,7 +4665,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8">
       <c r="A113" s="4">
         <v>8</v>
       </c>
@@ -4681,7 +4688,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8">
       <c r="A114" s="4">
         <v>12.5</v>
       </c>
@@ -4704,7 +4711,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8">
       <c r="A115" s="4">
         <v>0.7</v>
       </c>
@@ -4727,7 +4734,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8">
       <c r="A116" s="4">
         <v>6.3</v>
       </c>
@@ -4750,7 +4757,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8">
       <c r="A117" s="4">
         <v>8</v>
       </c>
@@ -4773,7 +4780,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8">
       <c r="A118" s="4">
         <v>5.0999999999999996</v>
       </c>
@@ -4796,7 +4803,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8">
       <c r="A119" s="4">
         <v>8</v>
       </c>
@@ -4819,7 +4826,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8">
       <c r="A120" s="4">
         <v>4.5</v>
       </c>
@@ -4842,7 +4849,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8">
       <c r="A121" s="4">
         <v>2.5</v>
       </c>
@@ -4865,7 +4872,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8">
       <c r="A122" s="4">
         <v>24.3</v>
       </c>
@@ -4888,7 +4895,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8">
       <c r="A123" s="4">
         <v>2</v>
       </c>
@@ -4911,7 +4918,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8">
       <c r="A124" s="4">
         <v>16</v>
       </c>
@@ -4934,7 +4941,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8">
       <c r="A125" s="4">
         <v>6</v>
       </c>
@@ -4957,7 +4964,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8">
       <c r="A126" s="4">
         <v>5</v>
       </c>
@@ -4980,7 +4987,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8">
       <c r="A127" s="4">
         <v>6.52</v>
       </c>
@@ -5003,7 +5010,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8">
       <c r="A128" s="4">
         <v>1.8</v>
       </c>
@@ -5026,7 +5033,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8">
       <c r="A129" s="4">
         <v>1</v>
       </c>
@@ -5049,7 +5056,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8">
       <c r="A130" s="4">
         <v>5</v>
       </c>
@@ -5072,7 +5079,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8">
       <c r="A131" s="4">
         <v>43</v>
       </c>
@@ -5095,7 +5102,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8">
       <c r="A132" s="4">
         <v>10</v>
       </c>
@@ -5118,7 +5125,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8">
       <c r="A133" s="4">
         <v>2.97</v>
       </c>
@@ -5141,7 +5148,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8">
       <c r="A134" s="4">
         <v>10</v>
       </c>
@@ -5164,7 +5171,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8">
       <c r="A135" s="4">
         <v>1.6</v>
       </c>
@@ -5187,7 +5194,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8">
       <c r="A136" s="4">
         <v>1.5</v>
       </c>
@@ -5210,7 +5217,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8">
       <c r="A137" s="4">
         <v>1.8</v>
       </c>
@@ -5233,7 +5240,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8">
       <c r="A138" s="4">
         <v>7.3</v>
       </c>
@@ -5256,7 +5263,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8">
       <c r="A139" s="4">
         <v>4</v>
       </c>
@@ -5279,7 +5286,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8">
       <c r="A140" s="4">
         <v>2.1</v>
       </c>
@@ -5302,7 +5309,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8">
       <c r="A141" s="4">
         <v>4.2</v>
       </c>
@@ -5325,7 +5332,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8">
       <c r="A142" s="4">
         <v>9</v>
       </c>
@@ -5348,7 +5355,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8">
       <c r="A143" s="4">
         <v>1</v>
       </c>
@@ -5371,7 +5378,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8">
       <c r="A144" s="4">
         <v>3.5</v>
       </c>
@@ -5394,7 +5401,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8">
       <c r="A145" s="4">
         <v>5.0999999999999996</v>
       </c>
@@ -5417,7 +5424,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8">
       <c r="A146" s="4">
         <v>3</v>
       </c>
@@ -5440,7 +5447,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8">
       <c r="A147" s="4">
         <v>2</v>
       </c>
@@ -5463,7 +5470,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8">
       <c r="A148" s="4">
         <v>150</v>
       </c>
@@ -5486,7 +5493,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8">
       <c r="A149" s="4">
         <v>7</v>
       </c>
@@ -5509,7 +5516,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8">
       <c r="A150" s="4">
         <v>5</v>
       </c>
@@ -5532,7 +5539,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8">
       <c r="A151" s="4">
         <v>8</v>
       </c>
@@ -5555,7 +5562,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8">
       <c r="A152" s="4">
         <v>3.5</v>
       </c>
@@ -5578,7 +5585,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8">
       <c r="A153" s="4">
         <v>55</v>
       </c>
@@ -5601,7 +5608,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8">
       <c r="A154" s="4">
         <v>0.6</v>
       </c>
@@ -5624,7 +5631,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8">
       <c r="A155" s="4">
         <v>4</v>
       </c>
@@ -5647,7 +5654,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8">
       <c r="A156" s="4">
         <v>39.9</v>
       </c>
@@ -5670,7 +5677,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8">
       <c r="A157" s="4">
         <v>1.6</v>
       </c>
@@ -5693,7 +5700,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8">
       <c r="A158" s="4">
         <v>80</v>
       </c>
@@ -5716,7 +5723,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8">
       <c r="A159" s="4">
         <v>6.2</v>
       </c>
@@ -5739,7 +5746,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8">
       <c r="A160" s="4">
         <v>15</v>
       </c>
@@ -5762,7 +5769,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8">
       <c r="A161" s="4">
         <v>4.3</v>
       </c>
@@ -5785,7 +5792,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8">
       <c r="A162" s="4">
         <v>9.6999999999999993</v>
       </c>
@@ -5808,7 +5815,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8">
       <c r="A163" s="4">
         <v>2.4500000000000002</v>
       </c>
@@ -5831,7 +5838,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8">
       <c r="A164" s="4">
         <v>1.96</v>
       </c>
@@ -5854,7 +5861,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8">
       <c r="A165" s="4">
         <v>11.5</v>
       </c>
@@ -5877,7 +5884,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8">
       <c r="A166" s="4">
         <v>2.7</v>
       </c>
@@ -5900,7 +5907,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8">
       <c r="A167" s="4">
         <v>2.7</v>
       </c>
@@ -5923,7 +5930,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8">
       <c r="A168" s="4">
         <v>7</v>
       </c>
@@ -5946,7 +5953,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8">
       <c r="A169" s="4">
         <v>4.8</v>
       </c>
@@ -5969,7 +5976,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8">
       <c r="A170" s="4">
         <v>4.4000000000000004</v>
       </c>
@@ -5992,7 +5999,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8">
       <c r="A171" s="4">
         <v>3.8</v>
       </c>
@@ -6015,7 +6022,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8">
       <c r="A172" s="4">
         <v>1.5</v>
       </c>
@@ -6038,7 +6045,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8">
       <c r="A173" s="4">
         <v>11.5</v>
       </c>
@@ -6061,7 +6068,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8">
       <c r="A174" s="4">
         <v>4.4000000000000004</v>
       </c>
@@ -6084,7 +6091,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8">
       <c r="A175" s="4">
         <v>6.5</v>
       </c>
@@ -6107,7 +6114,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8">
       <c r="A176" s="4">
         <v>6.5</v>
       </c>
@@ -6130,7 +6137,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8">
       <c r="A177" s="4">
         <v>5</v>
       </c>
@@ -6153,7 +6160,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8">
       <c r="A178" s="4">
         <v>6</v>
       </c>
@@ -6176,7 +6183,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8">
       <c r="A179" s="4">
         <v>8</v>
       </c>
@@ -6199,7 +6206,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8">
       <c r="A180" s="4">
         <v>3.2</v>
       </c>
@@ -6222,7 +6229,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8">
       <c r="A181" s="4">
         <v>10</v>
       </c>
@@ -6245,7 +6252,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8">
       <c r="A182" s="4">
         <v>3</v>
       </c>
@@ -6268,7 +6275,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8">
       <c r="A183" s="4">
         <v>10</v>
       </c>
@@ -6291,7 +6298,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8">
       <c r="A184" s="4">
         <v>3.5</v>
       </c>
@@ -6314,7 +6321,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8">
       <c r="A185" s="4">
         <v>10</v>
       </c>
@@ -6337,7 +6344,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8">
       <c r="A186" s="4">
         <v>8</v>
       </c>
@@ -6360,7 +6367,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8">
       <c r="A187" s="4">
         <v>6.2</v>
       </c>
@@ -6383,7 +6390,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8">
       <c r="A188" s="4">
         <v>2</v>
       </c>
@@ -6406,7 +6413,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8">
       <c r="A189" s="4">
         <v>10</v>
       </c>
@@ -6429,7 +6436,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8">
       <c r="A190" s="4">
         <v>22</v>
       </c>
@@ -6452,7 +6459,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8">
       <c r="A191" s="4">
         <v>14</v>
       </c>
@@ -6475,7 +6482,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8">
       <c r="A192" s="4">
         <v>14</v>
       </c>
@@ -6498,7 +6505,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8">
       <c r="A193" s="4">
         <v>4.7</v>
       </c>
@@ -6521,7 +6528,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8">
       <c r="A194" s="4">
         <v>69.900000000000006</v>
       </c>
@@ -6544,7 +6551,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8">
       <c r="A195" s="4">
         <v>8.4</v>
       </c>
@@ -6567,7 +6574,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8">
       <c r="A196" s="4">
         <v>5</v>
       </c>
@@ -6590,7 +6597,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8">
       <c r="A197" s="4">
         <v>4.5</v>
       </c>
@@ -6613,7 +6620,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8">
       <c r="A198" s="4">
         <v>6</v>
       </c>
@@ -6636,7 +6643,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8">
       <c r="A199" s="4">
         <v>5.46</v>
       </c>
@@ -6659,7 +6666,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8">
       <c r="A200" s="4">
         <v>78.849999999999994</v>
       </c>
@@ -6682,7 +6689,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8">
       <c r="A201" s="4">
         <v>10</v>
       </c>
@@ -6705,7 +6712,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8">
       <c r="A202" s="4">
         <v>10</v>
       </c>
@@ -6728,7 +6735,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8">
       <c r="A203" s="4">
         <v>26</v>
       </c>
@@ -6751,7 +6758,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8">
       <c r="A204" s="4">
         <v>2</v>
       </c>
@@ -6774,7 +6781,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8">
       <c r="A205" s="4">
         <v>2.5</v>
       </c>
@@ -6797,7 +6804,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8">
       <c r="A206" s="4">
         <v>5.9</v>
       </c>
@@ -6820,7 +6827,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8">
       <c r="A207" s="4">
         <v>8.6</v>
       </c>
@@ -6843,7 +6850,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8">
       <c r="A208" s="4">
         <v>2.7</v>
       </c>
@@ -6866,7 +6873,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8">
       <c r="A209" s="4">
         <v>4.8</v>
       </c>
@@ -6889,7 +6896,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8">
       <c r="A210" s="4">
         <v>2.8</v>
       </c>
@@ -6912,7 +6919,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8">
       <c r="A211" s="4">
         <v>2</v>
       </c>
@@ -6935,7 +6942,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8">
       <c r="A212" s="4">
         <v>5</v>
       </c>
@@ -6958,7 +6965,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8">
       <c r="A213" s="4">
         <v>2.5</v>
       </c>
@@ -6981,7 +6988,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8">
       <c r="A214" s="4">
         <v>3.5</v>
       </c>
@@ -7004,7 +7011,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8">
       <c r="A215" s="4">
         <v>1.8</v>
       </c>
@@ -7027,7 +7034,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8">
       <c r="A216" s="4">
         <v>4</v>
       </c>
@@ -7050,7 +7057,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8">
       <c r="A217" s="4">
         <v>6</v>
       </c>
@@ -7073,7 +7080,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8">
       <c r="A218" s="4">
         <v>1.8</v>
       </c>
@@ -7096,7 +7103,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8">
       <c r="A219" s="4">
         <v>5</v>
       </c>
@@ -7119,7 +7126,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8">
       <c r="A220" s="4">
         <v>5</v>
       </c>
@@ -7142,7 +7149,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8">
       <c r="A221" s="4">
         <v>4.7</v>
       </c>
@@ -7165,7 +7172,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8">
       <c r="A222" s="4">
         <v>5</v>
       </c>
@@ -7188,7 +7195,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8">
       <c r="A223" s="4">
         <v>10</v>
       </c>
@@ -7211,7 +7218,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8">
       <c r="A224" s="4">
         <v>1.5</v>
       </c>
@@ -7234,7 +7241,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8">
       <c r="A225" s="4">
         <v>129</v>
       </c>
@@ -7257,7 +7264,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8">
       <c r="A226" s="4">
         <v>7</v>
       </c>
@@ -7280,7 +7287,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8">
       <c r="A227" s="4">
         <v>2.8</v>
       </c>
@@ -7303,7 +7310,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8">
       <c r="A228" s="4">
         <v>1</v>
       </c>
@@ -7326,7 +7333,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8">
       <c r="A229" s="4">
         <v>4</v>
       </c>
@@ -7349,7 +7356,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8">
       <c r="A230" s="4">
         <v>50</v>
       </c>
@@ -7372,7 +7379,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8">
       <c r="A231" s="4">
         <v>7.2</v>
       </c>
@@ -7395,7 +7402,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8">
       <c r="A232" s="4">
         <v>1</v>
       </c>
@@ -7418,7 +7425,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:8">
       <c r="A233" s="4">
         <v>7</v>
       </c>
@@ -7441,7 +7448,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8">
       <c r="A234" s="4">
         <v>1.1000000000000001</v>
       </c>
@@ -7464,7 +7471,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8">
       <c r="A235" s="4">
         <v>7</v>
       </c>
@@ -7487,7 +7494,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8">
       <c r="A236" s="4">
         <v>15</v>
       </c>
@@ -7510,7 +7517,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8">
       <c r="A237" s="4">
         <v>3</v>
       </c>
@@ -7533,7 +7540,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:8">
       <c r="A238" s="4">
         <v>11.2</v>
       </c>
@@ -7556,7 +7563,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8">
       <c r="A239" s="4">
         <v>2.1</v>
       </c>
@@ -7579,7 +7586,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8">
       <c r="A240" s="4">
         <v>150</v>
       </c>
@@ -7602,7 +7609,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8">
       <c r="A241" s="4">
         <v>12.7</v>
       </c>
@@ -7625,7 +7632,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8">
       <c r="A242" s="4">
         <v>89.9</v>
       </c>
@@ -7648,7 +7655,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8">
       <c r="A243" s="4">
         <v>4.4000000000000004</v>
       </c>
@@ -7671,7 +7678,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8">
       <c r="A244" s="4">
         <v>4.2</v>
       </c>
@@ -7694,7 +7701,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8">
       <c r="A245" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -7717,7 +7724,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8">
       <c r="A246" s="4">
         <v>5</v>
       </c>
@@ -7740,7 +7747,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8">
       <c r="A247" s="4">
         <v>5</v>
       </c>
@@ -7763,7 +7770,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8">
       <c r="A248" s="4">
         <v>3.9</v>
       </c>
@@ -7786,7 +7793,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8">
       <c r="A249" s="4">
         <v>0.5</v>
       </c>
@@ -7809,7 +7816,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8">
       <c r="A250" s="4">
         <v>2.4</v>
       </c>
@@ -7832,7 +7839,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8">
       <c r="A251" s="4">
         <v>2</v>
       </c>
@@ -7855,7 +7862,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8">
       <c r="A252" s="4">
         <v>4.7</v>
       </c>
@@ -7878,7 +7885,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8">
       <c r="A253" s="4">
         <v>5.3</v>
       </c>
@@ -7901,7 +7908,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8">
       <c r="A254" s="4">
         <v>4.2</v>
       </c>
@@ -7924,7 +7931,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8">
       <c r="A255" s="4">
         <v>5</v>
       </c>
@@ -7947,7 +7954,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8">
       <c r="A256" s="4">
         <v>2.5</v>
       </c>
@@ -7970,7 +7977,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8">
       <c r="A257" s="4">
         <v>3.3</v>
       </c>
@@ -7993,7 +8000,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8">
       <c r="A258" s="4">
         <v>5.6</v>
       </c>
@@ -8016,7 +8023,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8">
       <c r="A259" s="4">
         <v>4</v>
       </c>
@@ -8039,7 +8046,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8">
       <c r="A260" s="4">
         <v>10.199999999999999</v>
       </c>
@@ -8062,7 +8069,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8">
       <c r="A261" s="4">
         <v>8</v>
       </c>
@@ -8085,7 +8092,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8">
       <c r="A262" s="4">
         <v>2.1</v>
       </c>
@@ -8108,7 +8115,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8">
       <c r="A263" s="4">
         <v>3.7</v>
       </c>
@@ -8131,7 +8138,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8">
       <c r="A264" s="4">
         <v>7</v>
       </c>
@@ -8154,7 +8161,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8">
       <c r="A265" s="4">
         <v>13.5</v>
       </c>
@@ -8177,7 +8184,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8">
       <c r="A266" s="4">
         <v>5</v>
       </c>
@@ -8200,7 +8207,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8">
       <c r="A267" s="4">
         <v>20</v>
       </c>
@@ -8223,7 +8230,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8">
       <c r="A268" s="4">
         <v>6</v>
       </c>
@@ -8246,7 +8253,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:8">
       <c r="A269" s="4">
         <v>0.5</v>
       </c>
@@ -8269,7 +8276,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:8">
       <c r="A270" s="4">
         <v>5</v>
       </c>
@@ -8292,7 +8299,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8">
       <c r="A271" s="4">
         <v>11</v>
       </c>
@@ -8315,7 +8322,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:8">
       <c r="A272" s="4">
         <v>8.8000000000000007</v>
       </c>
@@ -8338,7 +8345,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8">
       <c r="A273" s="4">
         <v>0.5</v>
       </c>
@@ -8361,7 +8368,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8">
       <c r="A274" s="4">
         <v>5</v>
       </c>
@@ -8384,7 +8391,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8">
       <c r="A275" s="4">
         <v>10</v>
       </c>
@@ -8407,7 +8414,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8">
       <c r="A276" s="4">
         <v>15</v>
       </c>
@@ -8430,7 +8437,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:8">
       <c r="A277" s="4">
         <v>10</v>
       </c>
@@ -8453,7 +8460,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:8">
       <c r="A278" s="4">
         <v>11.9</v>
       </c>
@@ -8476,7 +8483,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:8">
       <c r="A279" s="4">
         <v>7</v>
       </c>
@@ -8499,7 +8506,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:8">
       <c r="A280" s="4">
         <v>5.0999999999999996</v>
       </c>
@@ -8522,7 +8529,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:8">
       <c r="A281">
         <v>1.9</v>
       </c>
@@ -8545,7 +8552,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8">
       <c r="A282">
         <v>119.9</v>
       </c>
@@ -8568,7 +8575,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:8">
       <c r="A283">
         <v>6.3</v>
       </c>
@@ -8591,7 +8598,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:8">
       <c r="A284">
         <v>3.5</v>
       </c>
@@ -8614,7 +8621,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:8">
       <c r="A285">
         <v>1.5</v>
       </c>
@@ -8637,7 +8644,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8">
       <c r="A286">
         <v>1.9</v>
       </c>
@@ -8660,7 +8667,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:8">
       <c r="A287">
         <v>4.5</v>
       </c>
@@ -8683,7 +8690,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:8">
       <c r="A288">
         <v>6.4</v>
       </c>
@@ -8706,7 +8713,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:8">
       <c r="A289">
         <v>1.9</v>
       </c>
@@ -8729,7 +8736,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:8">
       <c r="A290">
         <v>10.6</v>
       </c>
@@ -8752,7 +8759,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:8">
       <c r="A291">
         <v>4.5</v>
       </c>
@@ -8775,7 +8782,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:8">
       <c r="A292">
         <v>22.2</v>
       </c>
@@ -8798,7 +8805,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:8">
       <c r="A293" s="6">
         <v>25</v>
       </c>
@@ -8821,7 +8828,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:8">
       <c r="A294" s="6">
         <v>3.5</v>
       </c>
@@ -8844,7 +8851,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:8">
       <c r="A295">
         <v>4</v>
       </c>
@@ -8867,7 +8874,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:8">
       <c r="A296">
         <v>2.2000000000000002</v>
       </c>
@@ -8890,7 +8897,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:8">
       <c r="A297">
         <v>11.5</v>
       </c>
@@ -8913,7 +8920,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:8">
       <c r="A298">
         <v>6.3</v>
       </c>
@@ -8936,7 +8943,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:8">
       <c r="A299">
         <v>3.6</v>
       </c>
@@ -8959,7 +8966,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:8">
       <c r="A300">
         <v>15</v>
       </c>
@@ -8982,7 +8989,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:8">
       <c r="A301">
         <v>2</v>
       </c>
@@ -9005,7 +9012,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:8">
       <c r="A302">
         <v>4.5</v>
       </c>
@@ -9028,7 +9035,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:8">
       <c r="A303">
         <v>2.9</v>
       </c>
@@ -9051,7 +9058,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:8">
       <c r="A304">
         <v>3.9</v>
       </c>
@@ -9074,7 +9081,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:8">
       <c r="A305">
         <v>1.7</v>
       </c>
@@ -9097,7 +9104,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:8">
       <c r="A306">
         <v>10</v>
       </c>
@@ -9120,7 +9127,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:8">
       <c r="A307">
         <v>7.5</v>
       </c>
@@ -9143,7 +9150,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:8">
       <c r="A308">
         <v>10.050000000000001</v>
       </c>
@@ -9166,7 +9173,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:8">
       <c r="A309">
         <v>5</v>
       </c>
@@ -9189,7 +9196,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:8">
       <c r="A310">
         <v>3</v>
       </c>
@@ -9212,7 +9219,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:8">
       <c r="A311">
         <v>2</v>
       </c>
@@ -9235,7 +9242,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:8">
       <c r="A312">
         <v>10.6</v>
       </c>
@@ -9258,7 +9265,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:8">
       <c r="A313">
         <v>4</v>
       </c>
@@ -9281,7 +9288,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:8">
       <c r="A314">
         <v>2</v>
       </c>
@@ -9304,7 +9311,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:8">
       <c r="A315">
         <v>5.8</v>
       </c>
@@ -9327,7 +9334,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:8">
       <c r="A316">
         <v>5</v>
       </c>
@@ -9350,7 +9357,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:8">
       <c r="A317">
         <v>6.55</v>
       </c>
@@ -9373,7 +9380,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:8">
       <c r="A318">
         <v>2.8</v>
       </c>
@@ -9396,7 +9403,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:8">
       <c r="A319">
         <v>3.8</v>
       </c>
@@ -9419,7 +9426,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:8">
       <c r="A320">
         <v>9</v>
       </c>
@@ -9442,7 +9449,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:8">
       <c r="A321">
         <v>8</v>
       </c>
@@ -9465,7 +9472,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:8">
       <c r="A322">
         <v>1.5</v>
       </c>
@@ -9488,7 +9495,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:8">
       <c r="A323">
         <v>5</v>
       </c>
@@ -9511,7 +9518,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:8">
       <c r="A324">
         <v>4.5999999999999996</v>
       </c>
@@ -9534,7 +9541,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:8">
       <c r="A325">
         <v>0.5</v>
       </c>
@@ -9557,7 +9564,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:8">
       <c r="A326">
         <v>2.95</v>
       </c>
@@ -9580,7 +9587,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:8">
       <c r="A327">
         <v>3.8</v>
       </c>
@@ -9603,7 +9610,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:8">
       <c r="A328">
         <v>10</v>
       </c>
@@ -9626,7 +9633,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:8">
       <c r="A329">
         <v>3.85</v>
       </c>
@@ -9649,7 +9656,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:8">
       <c r="A330">
         <v>1.2</v>
       </c>
@@ -9672,7 +9679,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:8">
       <c r="A331">
         <v>2</v>
       </c>
@@ -9695,7 +9702,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:8">
       <c r="A332">
         <v>8.5</v>
       </c>
@@ -9718,7 +9725,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:8">
       <c r="A333">
         <v>4.9000000000000004</v>
       </c>
@@ -9741,7 +9748,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:8">
       <c r="A334">
         <v>10</v>
       </c>
@@ -9764,7 +9771,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:8">
       <c r="A335">
         <v>350</v>
       </c>
@@ -9787,7 +9794,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:8">
       <c r="A336">
         <v>4.4000000000000004</v>
       </c>
@@ -9810,7 +9817,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:8">
       <c r="A337">
         <v>3.2</v>
       </c>
@@ -9833,7 +9840,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:8">
       <c r="A338">
         <v>3.8</v>
       </c>
@@ -9856,7 +9863,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:8">
       <c r="A339">
         <v>0.9</v>
       </c>
@@ -9879,7 +9886,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:8">
       <c r="A340">
         <v>6</v>
       </c>
@@ -9902,7 +9909,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:8">
       <c r="A341">
         <v>3.8</v>
       </c>
@@ -9925,7 +9932,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:8">
       <c r="A342">
         <v>2</v>
       </c>
@@ -9948,7 +9955,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:8">
       <c r="A343">
         <v>5.5</v>
       </c>
@@ -9971,7 +9978,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:8">
       <c r="A344">
         <v>43.22</v>
       </c>
@@ -9994,7 +10001,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:8">
       <c r="A345">
         <v>2</v>
       </c>
@@ -10017,7 +10024,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:8">
       <c r="A346">
         <v>7</v>
       </c>
@@ -10040,7 +10047,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:8">
       <c r="A347">
         <v>1.61</v>
       </c>
@@ -10063,7 +10070,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:8">
       <c r="A348">
         <v>20</v>
       </c>
@@ -10086,7 +10093,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:8">
       <c r="A349">
         <v>14.84</v>
       </c>
@@ -10109,7 +10116,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:8">
       <c r="A350">
         <v>5.6</v>
       </c>
@@ -10132,7 +10139,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:8">
       <c r="A351">
         <v>6.8</v>
       </c>
@@ -10155,7 +10162,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:8">
       <c r="A352">
         <v>7.7</v>
       </c>
@@ -10178,7 +10185,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="353" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:12">
       <c r="A353">
         <v>29.4</v>
       </c>
@@ -10201,7 +10208,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:12">
       <c r="A354">
         <v>0.5</v>
       </c>
@@ -10224,7 +10231,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:12">
       <c r="A355">
         <v>2.2000000000000002</v>
       </c>
@@ -10247,7 +10254,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:12">
       <c r="A356">
         <v>3.5</v>
       </c>
@@ -10270,7 +10277,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="357" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:12">
       <c r="A357">
         <v>4.4000000000000004</v>
       </c>
@@ -10293,7 +10300,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="358" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:12">
       <c r="A358">
         <v>5.7</v>
       </c>
@@ -10316,7 +10323,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="359" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:12">
       <c r="A359">
         <v>7.74</v>
       </c>
@@ -10339,7 +10346,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="360" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:12">
       <c r="A360">
         <v>7</v>
       </c>
@@ -10362,7 +10369,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="361" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:12">
       <c r="A361">
         <v>3.8</v>
       </c>
@@ -10385,7 +10392,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="362" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:12">
       <c r="A362">
         <v>100</v>
       </c>
@@ -10408,7 +10415,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="363" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:12">
       <c r="A363" s="1">
         <v>5</v>
       </c>
@@ -10432,7 +10439,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="364" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:12">
       <c r="A364" s="6">
         <v>2</v>
       </c>
@@ -10459,7 +10466,7 @@
       <c r="K364" s="1"/>
       <c r="L364" s="1"/>
     </row>
-    <row r="365" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:12">
       <c r="A365">
         <v>7</v>
       </c>
@@ -10482,7 +10489,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="366" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:12">
       <c r="A366">
         <v>50</v>
       </c>
@@ -10505,7 +10512,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="367" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:12">
       <c r="A367">
         <v>10</v>
       </c>
@@ -10528,7 +10535,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="368" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:12">
       <c r="A368">
         <v>10.8</v>
       </c>
@@ -10551,7 +10558,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:8">
       <c r="A369">
         <v>10.5</v>
       </c>
@@ -10574,7 +10581,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:8">
       <c r="A370">
         <v>5.5</v>
       </c>
@@ -10597,7 +10604,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:8">
       <c r="A371">
         <v>5</v>
       </c>
@@ -10620,7 +10627,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:8">
       <c r="A372">
         <v>0.5</v>
       </c>
@@ -10643,7 +10650,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:8">
       <c r="A373">
         <v>10.5</v>
       </c>
@@ -10666,7 +10673,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:8">
       <c r="A374">
         <v>14</v>
       </c>
@@ -10689,7 +10696,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:8">
       <c r="A375">
         <v>2</v>
       </c>
@@ -10712,7 +10719,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:8">
       <c r="A376">
         <v>3.5</v>
       </c>
@@ -10735,7 +10742,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:8">
       <c r="A377">
         <v>3.5</v>
       </c>
@@ -10758,7 +10765,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:8">
       <c r="A378">
         <v>3.5</v>
       </c>
@@ -10781,7 +10788,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:8">
       <c r="A379">
         <v>2</v>
       </c>
@@ -10804,7 +10811,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:8">
       <c r="A380">
         <v>2</v>
       </c>
@@ -10827,7 +10834,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:8">
       <c r="A381">
         <v>2.5</v>
       </c>
@@ -10850,7 +10857,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:8">
       <c r="A382">
         <v>6.5</v>
       </c>
@@ -10873,7 +10880,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:8">
       <c r="A383">
         <v>3.78</v>
       </c>
@@ -10896,7 +10903,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:8">
       <c r="A384">
         <v>7</v>
       </c>
@@ -10919,7 +10926,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:8">
       <c r="A385">
         <v>2.5</v>
       </c>
@@ -10942,7 +10949,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:8">
       <c r="A386">
         <v>2</v>
       </c>
@@ -10965,7 +10972,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:8">
       <c r="A387">
         <v>1</v>
       </c>
@@ -10988,7 +10995,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:8">
       <c r="A388">
         <v>10.5</v>
       </c>
@@ -11011,7 +11018,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:8">
       <c r="A389">
         <v>1.5</v>
       </c>
@@ -11034,7 +11041,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:8">
       <c r="A390">
         <v>2.7</v>
       </c>
@@ -11057,7 +11064,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:8">
       <c r="A391">
         <v>2</v>
       </c>
@@ -11080,7 +11087,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:8">
       <c r="A392">
         <v>17.5</v>
       </c>
@@ -11103,7 +11110,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:8">
       <c r="A393">
         <v>43</v>
       </c>
@@ -11126,7 +11133,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:8">
       <c r="A394">
         <v>69.900000000000006</v>
       </c>
@@ -11149,7 +11156,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:8">
       <c r="A395">
         <v>16</v>
       </c>
@@ -11172,7 +11179,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:8">
       <c r="A396">
         <v>2.2000000000000002</v>
       </c>
@@ -11195,7 +11202,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:8">
       <c r="A397">
         <v>1.72</v>
       </c>
@@ -11218,7 +11225,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:8">
       <c r="A398">
         <v>6</v>
       </c>
@@ -11241,7 +11248,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:8">
       <c r="A399">
         <v>1.8</v>
       </c>
@@ -11264,7 +11271,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:8">
       <c r="A400">
         <v>4.5999999999999996</v>
       </c>
@@ -11287,7 +11294,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:8">
       <c r="A401">
         <v>27</v>
       </c>
@@ -11310,7 +11317,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:8">
       <c r="A402">
         <v>14</v>
       </c>
@@ -11333,7 +11340,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:8">
       <c r="A403">
         <v>2.5</v>
       </c>
@@ -11356,7 +11363,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:8">
       <c r="A404">
         <v>10</v>
       </c>
@@ -11379,7 +11386,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:8">
       <c r="A405">
         <v>11</v>
       </c>
@@ -11402,7 +11409,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:8">
       <c r="A406">
         <v>5.55</v>
       </c>
@@ -11425,7 +11432,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:8">
       <c r="A407">
         <v>3</v>
       </c>
@@ -11448,7 +11455,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:8">
       <c r="A408">
         <v>3.5</v>
       </c>
@@ -11471,7 +11478,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:8">
       <c r="A409">
         <v>3.8</v>
       </c>
@@ -11494,7 +11501,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:8">
       <c r="A410">
         <v>4</v>
       </c>
@@ -11517,7 +11524,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:8">
       <c r="A411">
         <v>8</v>
       </c>
@@ -11540,7 +11547,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:8">
       <c r="A412">
         <v>11.6</v>
       </c>
@@ -11563,7 +11570,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:8">
       <c r="A413">
         <v>1.6</v>
       </c>
@@ -11586,7 +11593,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:8">
       <c r="A414">
         <v>44.41</v>
       </c>
@@ -11609,7 +11616,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:8">
       <c r="A415">
         <v>4.8</v>
       </c>
@@ -11632,7 +11639,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:8">
       <c r="A416">
         <v>1.7</v>
       </c>
@@ -11655,7 +11662,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:8">
       <c r="A417">
         <v>2.85</v>
       </c>
@@ -11678,7 +11685,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:8">
       <c r="A418">
         <v>6.4</v>
       </c>
@@ -11701,7 +11708,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:8">
       <c r="A419">
         <v>3.5</v>
       </c>
@@ -11724,7 +11731,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:8">
       <c r="A420">
         <v>6.5</v>
       </c>
@@ -11747,7 +11754,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:8">
       <c r="A421">
         <v>1.2</v>
       </c>
@@ -11770,7 +11777,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:8">
       <c r="A422">
         <v>4.5999999999999996</v>
       </c>
@@ -11793,7 +11800,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:8">
       <c r="A423">
         <v>8</v>
       </c>
@@ -11816,7 +11823,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:8">
       <c r="A424">
         <v>3.5</v>
       </c>
@@ -11839,7 +11846,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:8">
       <c r="A425" s="1">
         <v>50</v>
       </c>
@@ -11863,7 +11870,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:8">
       <c r="A426">
         <v>10</v>
       </c>
@@ -11886,7 +11893,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:8">
       <c r="A427">
         <v>2.9</v>
       </c>
@@ -11909,7 +11916,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:8">
       <c r="A428">
         <v>15</v>
       </c>
@@ -11932,7 +11939,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:8">
       <c r="A429">
         <v>3.5</v>
       </c>
@@ -11955,7 +11962,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:8">
       <c r="A430">
         <v>9.25</v>
       </c>
@@ -11978,7 +11985,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:8">
       <c r="A431">
         <v>8</v>
       </c>
@@ -12001,7 +12008,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:8">
       <c r="A432">
         <v>4.0999999999999996</v>
       </c>
@@ -12024,7 +12031,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:8">
       <c r="A433">
         <v>4.9000000000000004</v>
       </c>
@@ -12047,7 +12054,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:8">
       <c r="A434">
         <v>2.8</v>
       </c>
@@ -12070,7 +12077,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:8">
       <c r="A435">
         <v>18.7</v>
       </c>
@@ -12093,7 +12100,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:8">
       <c r="A436">
         <v>20</v>
       </c>
@@ -12116,7 +12123,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:8">
       <c r="A437" s="1">
         <v>150</v>
       </c>
@@ -12140,7 +12147,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:8">
       <c r="A438" s="1">
         <v>10</v>
       </c>
@@ -12164,7 +12171,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:8">
       <c r="A439">
         <v>2.1</v>
       </c>
@@ -12187,7 +12194,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:8">
       <c r="A440">
         <v>5</v>
       </c>
@@ -12210,7 +12217,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:8">
       <c r="A441">
         <v>10</v>
       </c>
@@ -12233,7 +12240,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:8">
       <c r="A442">
         <v>59</v>
       </c>
@@ -12256,7 +12263,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:8">
       <c r="A443">
         <v>4</v>
       </c>
@@ -12279,7 +12286,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:8">
       <c r="A444">
         <v>4.17</v>
       </c>
@@ -12302,7 +12309,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="445" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:8">
       <c r="A445">
         <v>4.2</v>
       </c>
@@ -12325,7 +12332,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="446" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:8">
       <c r="A446">
         <v>4.4000000000000004</v>
       </c>
@@ -12348,7 +12355,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:8">
       <c r="A447">
         <v>30</v>
       </c>
@@ -12371,7 +12378,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="448" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:8">
       <c r="A448">
         <v>5</v>
       </c>
@@ -12394,7 +12401,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:8">
       <c r="A449">
         <v>15.7</v>
       </c>
@@ -12417,7 +12424,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:8">
       <c r="A450">
         <v>4</v>
       </c>
@@ -12440,7 +12447,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:8">
       <c r="A451">
         <v>8</v>
       </c>
@@ -12463,7 +12470,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:8">
       <c r="A452">
         <v>3.5</v>
       </c>
@@ -12486,7 +12493,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:8">
       <c r="A453">
         <v>4.2</v>
       </c>
@@ -12509,7 +12516,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:8">
       <c r="A454">
         <v>180</v>
       </c>
@@ -12532,7 +12539,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:8">
       <c r="A455">
         <v>2.2999999999999998</v>
       </c>
@@ -12555,7 +12562,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="456" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:8">
       <c r="A456">
         <v>11</v>
       </c>
@@ -12578,7 +12585,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="457" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:8">
       <c r="A457">
         <v>2</v>
       </c>
@@ -12601,7 +12608,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:8">
       <c r="A458">
         <v>3</v>
       </c>
@@ -12624,7 +12631,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:8">
       <c r="A459">
         <v>6.4</v>
       </c>
@@ -12647,7 +12654,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:8">
       <c r="A460">
         <v>3.2</v>
       </c>
@@ -12670,7 +12677,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:8">
       <c r="A461">
         <v>1</v>
       </c>
@@ -12693,7 +12700,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:8">
       <c r="A462">
         <v>4.2</v>
       </c>
@@ -12716,7 +12723,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:8">
       <c r="A463">
         <v>14</v>
       </c>
@@ -12739,7 +12746,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:8">
       <c r="A464">
         <v>2.9</v>
       </c>
@@ -12762,7 +12769,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:8">
       <c r="A465">
         <v>4</v>
       </c>
@@ -12785,7 +12792,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:8">
       <c r="A466">
         <v>1.8</v>
       </c>
@@ -12808,7 +12815,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:8">
       <c r="A467">
         <v>18</v>
       </c>
@@ -12831,7 +12838,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:8">
       <c r="A468">
         <v>2</v>
       </c>
@@ -12854,7 +12861,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:8">
       <c r="A469">
         <v>3</v>
       </c>
@@ -12877,7 +12884,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:8">
       <c r="A470">
         <v>10</v>
       </c>
@@ -12900,7 +12907,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:8">
       <c r="A471">
         <v>8.3000000000000007</v>
       </c>
@@ -12923,7 +12930,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:8">
       <c r="A472">
         <v>362</v>
       </c>
@@ -12946,7 +12953,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:8">
       <c r="A473">
         <v>4.2</v>
       </c>
@@ -12969,7 +12976,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:8">
       <c r="A474">
         <v>0.5</v>
       </c>
@@ -12992,7 +12999,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:8">
       <c r="A475">
         <v>1.7</v>
       </c>
@@ -13015,7 +13022,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="476" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:8">
       <c r="A476">
         <v>4.5999999999999996</v>
       </c>
@@ -13038,7 +13045,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:8">
       <c r="A477">
         <v>4.7</v>
       </c>
@@ -13061,7 +13068,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:8">
       <c r="A478">
         <v>1</v>
       </c>
@@ -13084,7 +13091,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:8">
       <c r="A479">
         <v>5.6</v>
       </c>
@@ -13107,7 +13114,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:8">
       <c r="A480">
         <v>33.799999999999997</v>
       </c>
@@ -13130,7 +13137,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="481" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:8">
       <c r="A481">
         <v>8</v>
       </c>
@@ -13153,7 +13160,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="482" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:8">
       <c r="A482">
         <v>5.2</v>
       </c>
@@ -13176,7 +13183,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="483" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:8">
       <c r="A483">
         <v>5.4</v>
       </c>
@@ -13199,7 +13206,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="484" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:8">
       <c r="A484">
         <v>40</v>
       </c>
@@ -13222,7 +13229,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="485" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:8">
       <c r="A485">
         <v>10.8</v>
       </c>
@@ -13245,7 +13252,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="486" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:8">
       <c r="A486">
         <v>15</v>
       </c>
@@ -13268,7 +13275,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="487" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:8">
       <c r="A487">
         <v>20</v>
       </c>
@@ -13291,7 +13298,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="488" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:8">
       <c r="A488">
         <v>3</v>
       </c>
@@ -13314,7 +13321,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="489" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:8">
       <c r="A489">
         <v>3.5</v>
       </c>
@@ -13337,7 +13344,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="490" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:8">
       <c r="A490">
         <v>2.2000000000000002</v>
       </c>
@@ -13360,7 +13367,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="491" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:8">
       <c r="A491">
         <v>4.5</v>
       </c>
@@ -13383,7 +13390,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="492" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:8">
       <c r="A492">
         <v>4.2</v>
       </c>
@@ -13406,7 +13413,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="493" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:8">
       <c r="A493">
         <v>5</v>
       </c>
@@ -13429,7 +13436,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="494" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:8">
       <c r="A494" s="1">
         <v>27.69</v>
       </c>
@@ -13453,7 +13460,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="495" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:8">
       <c r="A495">
         <v>70</v>
       </c>
@@ -13476,7 +13483,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="496" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:8">
       <c r="A496" s="1">
         <v>2.2999999999999998</v>
       </c>
@@ -13500,7 +13507,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:8">
       <c r="A497">
         <v>3.2</v>
       </c>
@@ -13523,7 +13530,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:8">
       <c r="A498">
         <v>3.6</v>
       </c>
@@ -13546,7 +13553,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="499" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:8">
       <c r="A499">
         <v>0.5</v>
       </c>
@@ -13569,7 +13576,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="500" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:8">
       <c r="A500">
         <v>10</v>
       </c>
@@ -13592,7 +13599,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="501" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:8">
       <c r="A501">
         <v>2</v>
       </c>
@@ -13615,7 +13622,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="502" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:8">
       <c r="A502" s="1">
         <v>1.9</v>
       </c>
@@ -13639,7 +13646,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="503" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:8">
       <c r="A503">
         <v>6.6</v>
       </c>
@@ -13662,7 +13669,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="504" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:8">
       <c r="A504">
         <v>1.8</v>
       </c>
@@ -13685,7 +13692,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="505" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:8">
       <c r="A505" s="1">
         <v>0.8</v>
       </c>
@@ -13709,7 +13716,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="506" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:8">
       <c r="A506">
         <v>4.2</v>
       </c>
@@ -13732,7 +13739,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="507" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:8">
       <c r="A507">
         <v>4</v>
       </c>
@@ -13755,7 +13762,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="508" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:8">
       <c r="A508">
         <v>1.2</v>
       </c>
@@ -13778,7 +13785,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="509" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:8">
       <c r="A509">
         <v>5</v>
       </c>
@@ -13801,7 +13808,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="510" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:8">
       <c r="A510">
         <v>3.5</v>
       </c>
@@ -13824,7 +13831,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="511" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:8">
       <c r="A511" s="1">
         <v>1.75</v>
       </c>
@@ -13848,7 +13855,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="512" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:8">
       <c r="A512">
         <v>4.2</v>
       </c>
@@ -13871,7 +13878,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="513" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:8">
       <c r="A513">
         <v>5.6</v>
       </c>
@@ -13894,7 +13901,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="514" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:8">
       <c r="A514">
         <v>3.6</v>
       </c>
@@ -13917,7 +13924,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="515" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:8">
       <c r="A515">
         <v>15.93</v>
       </c>
@@ -13940,7 +13947,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="516" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:8">
       <c r="A516">
         <v>5.98</v>
       </c>
@@ -13963,7 +13970,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="517" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:8">
       <c r="A517">
         <v>5</v>
       </c>
@@ -13986,7 +13993,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="518" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:8">
       <c r="A518">
         <v>4.2</v>
       </c>
@@ -14009,7 +14016,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="519" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:8">
       <c r="A519">
         <v>4.2</v>
       </c>
@@ -14032,7 +14039,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="520" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:8">
       <c r="A520">
         <v>4</v>
       </c>
@@ -14055,7 +14062,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="521" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:8">
       <c r="A521">
         <v>3</v>
       </c>
@@ -14078,7 +14085,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="522" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:8">
       <c r="A522">
         <v>2</v>
       </c>
@@ -14101,7 +14108,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="523" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:8">
       <c r="A523">
         <v>1</v>
       </c>
@@ -14124,7 +14131,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="524" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:8">
       <c r="A524" s="1">
         <v>4.0999999999999996</v>
       </c>
@@ -14148,7 +14155,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="525" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:8">
       <c r="A525">
         <v>78.180000000000007</v>
       </c>
@@ -14171,7 +14178,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="526" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:8">
       <c r="A526">
         <v>5.2</v>
       </c>
@@ -14194,7 +14201,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="527" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:8">
       <c r="A527">
         <v>1.2</v>
       </c>
@@ -14217,7 +14224,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="528" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:8">
       <c r="A528">
         <v>4.5</v>
       </c>
@@ -14240,7 +14247,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="529" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:8">
       <c r="A529">
         <v>3.4</v>
       </c>
@@ -14263,7 +14270,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="530" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:8">
       <c r="A530">
         <v>16</v>
       </c>
@@ -14286,7 +14293,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="531" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:8">
       <c r="A531">
         <v>2.5</v>
       </c>
@@ -14309,7 +14316,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="532" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:8">
       <c r="A532">
         <v>0.8</v>
       </c>
@@ -14332,7 +14339,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="533" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:8">
       <c r="A533">
         <v>2.8</v>
       </c>
@@ -14355,7 +14362,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="534" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:8">
       <c r="A534">
         <v>3.5</v>
       </c>
@@ -14378,7 +14385,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="535" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:8">
       <c r="A535">
         <v>3.6</v>
       </c>
@@ -14401,7 +14408,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="536" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:8">
       <c r="A536">
         <v>6.8</v>
       </c>
@@ -14424,7 +14431,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="537" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:8">
       <c r="A537">
         <v>5</v>
       </c>
@@ -14447,7 +14454,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="538" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:8">
       <c r="A538">
         <v>4.9000000000000004</v>
       </c>
@@ -14470,7 +14477,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="539" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:8">
       <c r="A539">
         <v>80</v>
       </c>
@@ -14493,7 +14500,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="540" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:8">
       <c r="A540">
         <v>55</v>
       </c>
@@ -14516,7 +14523,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="541" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:8">
       <c r="A541">
         <v>10</v>
       </c>
@@ -14539,7 +14546,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="542" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:8">
       <c r="A542">
         <v>1</v>
       </c>
@@ -14560,6 +14567,78 @@
       </c>
       <c r="H542" t="s">
         <v>243</v>
+      </c>
+    </row>
+    <row r="543" spans="1:8">
+      <c r="A543" s="1">
+        <v>1.65</v>
+      </c>
+      <c r="B543" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C543" s="7">
+        <v>43407</v>
+      </c>
+      <c r="D543" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="E543" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F543">
+        <v>5</v>
+      </c>
+      <c r="G543" s="1"/>
+      <c r="H543" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="544" spans="1:8">
+      <c r="A544" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="B544" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C544" s="7">
+        <v>43407</v>
+      </c>
+      <c r="D544" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="E544" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F544">
+        <v>5</v>
+      </c>
+      <c r="G544" s="1"/>
+      <c r="H544" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="545" spans="1:8">
+      <c r="A545">
+        <v>4.8</v>
+      </c>
+      <c r="B545" t="s">
+        <v>217</v>
+      </c>
+      <c r="C545" s="7">
+        <v>43408</v>
+      </c>
+      <c r="D545" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="E545" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F545">
+        <v>5</v>
+      </c>
+      <c r="G545" s="1"/>
+      <c r="H545" s="1" t="s">
+        <v>269</v>
       </c>
     </row>
   </sheetData>

--- a/DataBase/costs.xlsx
+++ b/DataBase/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2189" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2193" uniqueCount="536">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1619,6 +1619,9 @@
   </si>
   <si>
     <t>κρουασάν σοκολάτας, καφέ και νερό (Στάυρος Νιάρχος)</t>
+  </si>
+  <si>
+    <t>ταλιατελες με λαχανικά και σάλτσα (Σταύρος Νιάρχος)</t>
   </si>
 </sst>
 </file>
@@ -1754,7 +1757,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:H545" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:H546" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="8">
     <tableColumn id="1" name="amount" headerRowDxfId="8" totalsRowDxfId="7"/>
     <tableColumn id="11" name="type" totalsRowDxfId="6"/>
@@ -2054,10 +2057,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L545"/>
+  <dimension ref="A1:L546"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A529" workbookViewId="0">
-      <selection activeCell="D545" sqref="D545"/>
+      <selection activeCell="D547" sqref="D547"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14641,6 +14644,30 @@
         <v>269</v>
       </c>
     </row>
+    <row r="546" spans="1:8">
+      <c r="A546" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="B546" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C546" s="7">
+        <v>43408</v>
+      </c>
+      <c r="D546" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="E546" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F546" s="1">
+        <v>5</v>
+      </c>
+      <c r="G546" s="1"/>
+      <c r="H546" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataBase/costs.xlsx
+++ b/DataBase/costs.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="45" windowWidth="18975" windowHeight="11760"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2193" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2205" uniqueCount="538">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1622,17 +1622,23 @@
   </si>
   <si>
     <t>ταλιατελες με λαχανικά και σάλτσα (Σταύρος Νιάρχος)</t>
+  </si>
+  <si>
+    <t>monster, fruse tea και σοκολάτα ΙΟΝ</t>
+  </si>
+  <si>
+    <t>crepa σοκολάτα με μπανανα και μπικότο, μπάρα πρωτεΐνης</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1673,7 +1679,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="9">
     <dxf>
@@ -1757,7 +1763,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:H546" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:H549" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="8">
     <tableColumn id="1" name="amount" headerRowDxfId="8" totalsRowDxfId="7"/>
     <tableColumn id="11" name="type" totalsRowDxfId="6"/>
@@ -1773,7 +1779,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1815,7 +1821,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1847,9 +1853,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1881,6 +1888,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2056,19 +2064,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L546"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L549"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A529" workbookViewId="0">
-      <selection activeCell="D547" sqref="D547"/>
+    <sheetView tabSelected="1" topLeftCell="A528" workbookViewId="0">
+      <selection activeCell="H550" sqref="H550"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.28515625" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="50.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.42578125" customWidth="1"/>
     <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
@@ -2079,7 +2087,7 @@
     <col min="12" max="12" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>227</v>
       </c>
@@ -2108,7 +2116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>477</v>
       </c>
@@ -2134,7 +2142,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>20</v>
       </c>
@@ -2158,7 +2166,7 @@
       </c>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>10</v>
       </c>
@@ -2181,7 +2189,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>100</v>
       </c>
@@ -2204,7 +2212,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>10</v>
       </c>
@@ -2227,7 +2235,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>50</v>
       </c>
@@ -2250,7 +2258,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>3.2</v>
       </c>
@@ -2273,7 +2281,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>1.3</v>
       </c>
@@ -2296,7 +2304,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>1.2</v>
       </c>
@@ -2319,7 +2327,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>5</v>
       </c>
@@ -2342,7 +2350,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>4.5</v>
       </c>
@@ -2365,7 +2373,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>4</v>
       </c>
@@ -2388,7 +2396,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>10.6</v>
       </c>
@@ -2411,7 +2419,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>1.8</v>
       </c>
@@ -2434,7 +2442,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>5.15</v>
       </c>
@@ -2457,7 +2465,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>18</v>
       </c>
@@ -2480,7 +2488,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>1.5</v>
       </c>
@@ -2503,7 +2511,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>7.8</v>
       </c>
@@ -2526,7 +2534,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>4.4400000000000004</v>
       </c>
@@ -2549,7 +2557,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>1.5</v>
       </c>
@@ -2572,7 +2580,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>8.84</v>
       </c>
@@ -2595,7 +2603,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>4</v>
       </c>
@@ -2618,7 +2626,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>10</v>
       </c>
@@ -2641,7 +2649,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>1.8</v>
       </c>
@@ -2664,7 +2672,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>11.8</v>
       </c>
@@ -2687,7 +2695,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>40</v>
       </c>
@@ -2710,7 +2718,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>2.9</v>
       </c>
@@ -2733,7 +2741,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>4.3</v>
       </c>
@@ -2756,7 +2764,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>3.35</v>
       </c>
@@ -2779,7 +2787,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>5.2</v>
       </c>
@@ -2802,7 +2810,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>15</v>
       </c>
@@ -2825,7 +2833,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>3.9</v>
       </c>
@@ -2848,7 +2856,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>63.45</v>
       </c>
@@ -2871,7 +2879,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>49.9</v>
       </c>
@@ -2894,7 +2902,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>140</v>
       </c>
@@ -2917,7 +2925,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>1.8</v>
       </c>
@@ -2940,7 +2948,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>13.02</v>
       </c>
@@ -2963,7 +2971,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>4.7</v>
       </c>
@@ -2986,7 +2994,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>15.96</v>
       </c>
@@ -3009,7 +3017,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>9.8000000000000007</v>
       </c>
@@ -3032,7 +3040,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>79.8</v>
       </c>
@@ -3055,7 +3063,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>11.9</v>
       </c>
@@ -3078,7 +3086,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>38.880000000000003</v>
       </c>
@@ -3101,7 +3109,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>7.75</v>
       </c>
@@ -3124,7 +3132,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>0.79</v>
       </c>
@@ -3147,7 +3155,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>10</v>
       </c>
@@ -3170,7 +3178,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -3193,7 +3201,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -3216,7 +3224,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>1.8</v>
       </c>
@@ -3239,7 +3247,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>24</v>
       </c>
@@ -3262,7 +3270,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>24</v>
       </c>
@@ -3285,7 +3293,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>1.8</v>
       </c>
@@ -3308,7 +3316,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>3.5</v>
       </c>
@@ -3331,7 +3339,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>5.6</v>
       </c>
@@ -3355,7 +3363,7 @@
       </c>
       <c r="K55" s="4"/>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>1.5</v>
       </c>
@@ -3378,7 +3386,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>3</v>
       </c>
@@ -3401,7 +3409,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>5.4</v>
       </c>
@@ -3424,7 +3432,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>8</v>
       </c>
@@ -3447,7 +3455,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>5.4</v>
       </c>
@@ -3470,7 +3478,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>0.6</v>
       </c>
@@ -3493,7 +3501,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -3516,7 +3524,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>1.5</v>
       </c>
@@ -3539,7 +3547,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -3562,7 +3570,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>1.2</v>
       </c>
@@ -3585,7 +3593,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>5.0999999999999996</v>
       </c>
@@ -3608,7 +3616,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>13.5</v>
       </c>
@@ -3631,7 +3639,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>3.5</v>
       </c>
@@ -3655,7 +3663,7 @@
       </c>
       <c r="K68" s="4"/>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>4.0999999999999996</v>
       </c>
@@ -3678,7 +3686,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>90</v>
       </c>
@@ -3701,7 +3709,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>65.5</v>
       </c>
@@ -3724,7 +3732,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>4.5</v>
       </c>
@@ -3747,7 +3755,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>10</v>
       </c>
@@ -3770,7 +3778,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>18.8</v>
       </c>
@@ -3793,7 +3801,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>1.8</v>
       </c>
@@ -3817,7 +3825,7 @@
       </c>
       <c r="K75" s="4"/>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>5.5</v>
       </c>
@@ -3840,7 +3848,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -3863,7 +3871,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>3</v>
       </c>
@@ -3886,7 +3894,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>2</v>
       </c>
@@ -3909,7 +3917,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <v>9.9</v>
       </c>
@@ -3932,7 +3940,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <v>6.5</v>
       </c>
@@ -3955,7 +3963,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>79.8</v>
       </c>
@@ -3978,7 +3986,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>10</v>
       </c>
@@ -4001,7 +4009,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>2.5</v>
       </c>
@@ -4024,7 +4032,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <v>5</v>
       </c>
@@ -4047,7 +4055,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <v>1.6</v>
       </c>
@@ -4070,7 +4078,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <v>5.5</v>
       </c>
@@ -4093,7 +4101,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>0.8</v>
       </c>
@@ -4116,7 +4124,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <v>17</v>
       </c>
@@ -4139,7 +4147,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <v>24.9</v>
       </c>
@@ -4162,7 +4170,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <v>1.8</v>
       </c>
@@ -4185,7 +4193,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <v>44.99</v>
       </c>
@@ -4208,7 +4216,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <v>4</v>
       </c>
@@ -4231,7 +4239,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <v>5</v>
       </c>
@@ -4254,7 +4262,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
         <v>5</v>
       </c>
@@ -4277,7 +4285,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -4300,7 +4308,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
         <v>3</v>
       </c>
@@ -4323,7 +4331,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <v>6</v>
       </c>
@@ -4346,7 +4354,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
         <v>3.5</v>
       </c>
@@ -4369,7 +4377,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
         <v>34.9</v>
       </c>
@@ -4392,7 +4400,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
         <v>12</v>
       </c>
@@ -4415,7 +4423,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
         <v>5</v>
       </c>
@@ -4438,7 +4446,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
         <v>6.9</v>
       </c>
@@ -4461,7 +4469,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
         <v>6.04</v>
       </c>
@@ -4484,7 +4492,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
         <v>4.8</v>
       </c>
@@ -4507,7 +4515,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
         <v>9.6999999999999993</v>
       </c>
@@ -4530,7 +4538,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
         <v>5.5</v>
       </c>
@@ -4553,7 +4561,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
         <v>7</v>
       </c>
@@ -4576,7 +4584,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
         <v>1</v>
       </c>
@@ -4599,7 +4607,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
         <v>4</v>
       </c>
@@ -4622,7 +4630,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
         <v>4.0999999999999996</v>
       </c>
@@ -4645,7 +4653,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
         <v>2.3199999999999998</v>
       </c>
@@ -4668,7 +4676,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
         <v>8</v>
       </c>
@@ -4691,7 +4699,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
         <v>12.5</v>
       </c>
@@ -4714,7 +4722,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
         <v>0.7</v>
       </c>
@@ -4737,7 +4745,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
         <v>6.3</v>
       </c>
@@ -4760,7 +4768,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
         <v>8</v>
       </c>
@@ -4783,7 +4791,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
         <v>5.0999999999999996</v>
       </c>
@@ -4806,7 +4814,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
         <v>8</v>
       </c>
@@ -4829,7 +4837,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
         <v>4.5</v>
       </c>
@@ -4852,7 +4860,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="4">
         <v>2.5</v>
       </c>
@@ -4875,7 +4883,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="4">
         <v>24.3</v>
       </c>
@@ -4898,7 +4906,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="4">
         <v>2</v>
       </c>
@@ -4921,7 +4929,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="4">
         <v>16</v>
       </c>
@@ -4944,7 +4952,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
         <v>6</v>
       </c>
@@ -4967,7 +4975,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="4">
         <v>5</v>
       </c>
@@ -4990,7 +4998,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
         <v>6.52</v>
       </c>
@@ -5013,7 +5021,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="4">
         <v>1.8</v>
       </c>
@@ -5036,7 +5044,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="4">
         <v>1</v>
       </c>
@@ -5059,7 +5067,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="4">
         <v>5</v>
       </c>
@@ -5082,7 +5090,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="4">
         <v>43</v>
       </c>
@@ -5105,7 +5113,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="4">
         <v>10</v>
       </c>
@@ -5128,7 +5136,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="4">
         <v>2.97</v>
       </c>
@@ -5151,7 +5159,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="4">
         <v>10</v>
       </c>
@@ -5174,7 +5182,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
         <v>1.6</v>
       </c>
@@ -5197,7 +5205,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="4">
         <v>1.5</v>
       </c>
@@ -5220,7 +5228,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="4">
         <v>1.8</v>
       </c>
@@ -5243,7 +5251,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="4">
         <v>7.3</v>
       </c>
@@ -5266,7 +5274,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="139" spans="1:8">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="4">
         <v>4</v>
       </c>
@@ -5289,7 +5297,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="4">
         <v>2.1</v>
       </c>
@@ -5312,7 +5320,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
         <v>4.2</v>
       </c>
@@ -5335,7 +5343,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="4">
         <v>9</v>
       </c>
@@ -5358,7 +5366,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="4">
         <v>1</v>
       </c>
@@ -5381,7 +5389,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="144" spans="1:8">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="4">
         <v>3.5</v>
       </c>
@@ -5404,7 +5412,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="145" spans="1:8">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="4">
         <v>5.0999999999999996</v>
       </c>
@@ -5427,7 +5435,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="146" spans="1:8">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="4">
         <v>3</v>
       </c>
@@ -5450,7 +5458,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="4">
         <v>2</v>
       </c>
@@ -5473,7 +5481,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="4">
         <v>150</v>
       </c>
@@ -5496,7 +5504,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="4">
         <v>7</v>
       </c>
@@ -5519,7 +5527,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="150" spans="1:8">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="4">
         <v>5</v>
       </c>
@@ -5542,7 +5550,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="4">
         <v>8</v>
       </c>
@@ -5565,7 +5573,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="4">
         <v>3.5</v>
       </c>
@@ -5588,7 +5596,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="4">
         <v>55</v>
       </c>
@@ -5611,7 +5619,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="154" spans="1:8">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="4">
         <v>0.6</v>
       </c>
@@ -5634,7 +5642,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="155" spans="1:8">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="4">
         <v>4</v>
       </c>
@@ -5657,7 +5665,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="156" spans="1:8">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="4">
         <v>39.9</v>
       </c>
@@ -5680,7 +5688,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="157" spans="1:8">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="4">
         <v>1.6</v>
       </c>
@@ -5703,7 +5711,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="158" spans="1:8">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="4">
         <v>80</v>
       </c>
@@ -5726,7 +5734,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="159" spans="1:8">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="4">
         <v>6.2</v>
       </c>
@@ -5749,7 +5757,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="160" spans="1:8">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="4">
         <v>15</v>
       </c>
@@ -5772,7 +5780,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="161" spans="1:8">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="4">
         <v>4.3</v>
       </c>
@@ -5795,7 +5803,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="162" spans="1:8">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="4">
         <v>9.6999999999999993</v>
       </c>
@@ -5818,7 +5826,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="163" spans="1:8">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="4">
         <v>2.4500000000000002</v>
       </c>
@@ -5841,7 +5849,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="4">
         <v>1.96</v>
       </c>
@@ -5864,7 +5872,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="4">
         <v>11.5</v>
       </c>
@@ -5887,7 +5895,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="166" spans="1:8">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="4">
         <v>2.7</v>
       </c>
@@ -5910,7 +5918,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="167" spans="1:8">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="4">
         <v>2.7</v>
       </c>
@@ -5933,7 +5941,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="4">
         <v>7</v>
       </c>
@@ -5956,7 +5964,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="169" spans="1:8">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="4">
         <v>4.8</v>
       </c>
@@ -5979,7 +5987,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="170" spans="1:8">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="4">
         <v>4.4000000000000004</v>
       </c>
@@ -6002,7 +6010,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="171" spans="1:8">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="4">
         <v>3.8</v>
       </c>
@@ -6025,7 +6033,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="172" spans="1:8">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="4">
         <v>1.5</v>
       </c>
@@ -6048,7 +6056,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="173" spans="1:8">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="4">
         <v>11.5</v>
       </c>
@@ -6071,7 +6079,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="174" spans="1:8">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="4">
         <v>4.4000000000000004</v>
       </c>
@@ -6094,7 +6102,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="175" spans="1:8">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="4">
         <v>6.5</v>
       </c>
@@ -6117,7 +6125,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="4">
         <v>6.5</v>
       </c>
@@ -6140,7 +6148,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="177" spans="1:8">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="4">
         <v>5</v>
       </c>
@@ -6163,7 +6171,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="178" spans="1:8">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="4">
         <v>6</v>
       </c>
@@ -6186,7 +6194,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="179" spans="1:8">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="4">
         <v>8</v>
       </c>
@@ -6209,7 +6217,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="180" spans="1:8">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="4">
         <v>3.2</v>
       </c>
@@ -6232,7 +6240,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="181" spans="1:8">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="4">
         <v>10</v>
       </c>
@@ -6255,7 +6263,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="182" spans="1:8">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="4">
         <v>3</v>
       </c>
@@ -6278,7 +6286,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="183" spans="1:8">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="4">
         <v>10</v>
       </c>
@@ -6301,7 +6309,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="184" spans="1:8">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="4">
         <v>3.5</v>
       </c>
@@ -6324,7 +6332,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="185" spans="1:8">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="4">
         <v>10</v>
       </c>
@@ -6347,7 +6355,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="186" spans="1:8">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="4">
         <v>8</v>
       </c>
@@ -6370,7 +6378,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="187" spans="1:8">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="4">
         <v>6.2</v>
       </c>
@@ -6393,7 +6401,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="188" spans="1:8">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="4">
         <v>2</v>
       </c>
@@ -6416,7 +6424,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="189" spans="1:8">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="4">
         <v>10</v>
       </c>
@@ -6439,7 +6447,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="190" spans="1:8">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="4">
         <v>22</v>
       </c>
@@ -6462,7 +6470,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="191" spans="1:8">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="4">
         <v>14</v>
       </c>
@@ -6485,7 +6493,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="192" spans="1:8">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="4">
         <v>14</v>
       </c>
@@ -6508,7 +6516,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="193" spans="1:8">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="4">
         <v>4.7</v>
       </c>
@@ -6531,7 +6539,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="194" spans="1:8">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="4">
         <v>69.900000000000006</v>
       </c>
@@ -6554,7 +6562,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="195" spans="1:8">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="4">
         <v>8.4</v>
       </c>
@@ -6577,7 +6585,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="196" spans="1:8">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="4">
         <v>5</v>
       </c>
@@ -6600,7 +6608,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="197" spans="1:8">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="4">
         <v>4.5</v>
       </c>
@@ -6623,7 +6631,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="198" spans="1:8">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="4">
         <v>6</v>
       </c>
@@ -6646,7 +6654,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="199" spans="1:8">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="4">
         <v>5.46</v>
       </c>
@@ -6669,7 +6677,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="200" spans="1:8">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="4">
         <v>78.849999999999994</v>
       </c>
@@ -6692,7 +6700,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="201" spans="1:8">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="4">
         <v>10</v>
       </c>
@@ -6715,7 +6723,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="202" spans="1:8">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="4">
         <v>10</v>
       </c>
@@ -6738,7 +6746,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="203" spans="1:8">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="4">
         <v>26</v>
       </c>
@@ -6761,7 +6769,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="204" spans="1:8">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="4">
         <v>2</v>
       </c>
@@ -6784,7 +6792,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="205" spans="1:8">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="4">
         <v>2.5</v>
       </c>
@@ -6807,7 +6815,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="206" spans="1:8">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="4">
         <v>5.9</v>
       </c>
@@ -6830,7 +6838,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="207" spans="1:8">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" s="4">
         <v>8.6</v>
       </c>
@@ -6853,7 +6861,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="208" spans="1:8">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="4">
         <v>2.7</v>
       </c>
@@ -6876,7 +6884,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="209" spans="1:8">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="4">
         <v>4.8</v>
       </c>
@@ -6899,7 +6907,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="210" spans="1:8">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" s="4">
         <v>2.8</v>
       </c>
@@ -6922,7 +6930,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="211" spans="1:8">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="4">
         <v>2</v>
       </c>
@@ -6945,7 +6953,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="212" spans="1:8">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="4">
         <v>5</v>
       </c>
@@ -6968,7 +6976,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="213" spans="1:8">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="4">
         <v>2.5</v>
       </c>
@@ -6991,7 +6999,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="214" spans="1:8">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="4">
         <v>3.5</v>
       </c>
@@ -7014,7 +7022,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="215" spans="1:8">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="4">
         <v>1.8</v>
       </c>
@@ -7037,7 +7045,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="216" spans="1:8">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="4">
         <v>4</v>
       </c>
@@ -7060,7 +7068,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="217" spans="1:8">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="4">
         <v>6</v>
       </c>
@@ -7083,7 +7091,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="218" spans="1:8">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="4">
         <v>1.8</v>
       </c>
@@ -7106,7 +7114,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="219" spans="1:8">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="4">
         <v>5</v>
       </c>
@@ -7129,7 +7137,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="220" spans="1:8">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="4">
         <v>5</v>
       </c>
@@ -7152,7 +7160,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="221" spans="1:8">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="4">
         <v>4.7</v>
       </c>
@@ -7175,7 +7183,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="222" spans="1:8">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="4">
         <v>5</v>
       </c>
@@ -7198,7 +7206,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="223" spans="1:8">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="4">
         <v>10</v>
       </c>
@@ -7221,7 +7229,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="224" spans="1:8">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="4">
         <v>1.5</v>
       </c>
@@ -7244,7 +7252,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="225" spans="1:8">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="4">
         <v>129</v>
       </c>
@@ -7267,7 +7275,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="226" spans="1:8">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="4">
         <v>7</v>
       </c>
@@ -7290,7 +7298,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="227" spans="1:8">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" s="4">
         <v>2.8</v>
       </c>
@@ -7313,7 +7321,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="228" spans="1:8">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="4">
         <v>1</v>
       </c>
@@ -7336,7 +7344,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="229" spans="1:8">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="4">
         <v>4</v>
       </c>
@@ -7359,7 +7367,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="230" spans="1:8">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" s="4">
         <v>50</v>
       </c>
@@ -7382,7 +7390,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="231" spans="1:8">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" s="4">
         <v>7.2</v>
       </c>
@@ -7405,7 +7413,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="232" spans="1:8">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" s="4">
         <v>1</v>
       </c>
@@ -7428,7 +7436,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="233" spans="1:8">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" s="4">
         <v>7</v>
       </c>
@@ -7451,7 +7459,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="234" spans="1:8">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" s="4">
         <v>1.1000000000000001</v>
       </c>
@@ -7474,7 +7482,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="235" spans="1:8">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" s="4">
         <v>7</v>
       </c>
@@ -7497,7 +7505,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="236" spans="1:8">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" s="4">
         <v>15</v>
       </c>
@@ -7520,7 +7528,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="237" spans="1:8">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" s="4">
         <v>3</v>
       </c>
@@ -7543,7 +7551,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="238" spans="1:8">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" s="4">
         <v>11.2</v>
       </c>
@@ -7566,7 +7574,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="239" spans="1:8">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" s="4">
         <v>2.1</v>
       </c>
@@ -7589,7 +7597,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="240" spans="1:8">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" s="4">
         <v>150</v>
       </c>
@@ -7612,7 +7620,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="241" spans="1:8">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="4">
         <v>12.7</v>
       </c>
@@ -7635,7 +7643,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="242" spans="1:8">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" s="4">
         <v>89.9</v>
       </c>
@@ -7658,7 +7666,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="243" spans="1:8">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="4">
         <v>4.4000000000000004</v>
       </c>
@@ -7681,7 +7689,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="244" spans="1:8">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" s="4">
         <v>4.2</v>
       </c>
@@ -7704,7 +7712,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="245" spans="1:8">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -7727,7 +7735,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="246" spans="1:8">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="4">
         <v>5</v>
       </c>
@@ -7750,7 +7758,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="247" spans="1:8">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" s="4">
         <v>5</v>
       </c>
@@ -7773,7 +7781,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="248" spans="1:8">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="4">
         <v>3.9</v>
       </c>
@@ -7796,7 +7804,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="249" spans="1:8">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" s="4">
         <v>0.5</v>
       </c>
@@ -7819,7 +7827,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="250" spans="1:8">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" s="4">
         <v>2.4</v>
       </c>
@@ -7842,7 +7850,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="251" spans="1:8">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" s="4">
         <v>2</v>
       </c>
@@ -7865,7 +7873,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="252" spans="1:8">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" s="4">
         <v>4.7</v>
       </c>
@@ -7888,7 +7896,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="253" spans="1:8">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" s="4">
         <v>5.3</v>
       </c>
@@ -7911,7 +7919,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="254" spans="1:8">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" s="4">
         <v>4.2</v>
       </c>
@@ -7934,7 +7942,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="255" spans="1:8">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="4">
         <v>5</v>
       </c>
@@ -7957,7 +7965,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="256" spans="1:8">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" s="4">
         <v>2.5</v>
       </c>
@@ -7980,7 +7988,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="257" spans="1:8">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" s="4">
         <v>3.3</v>
       </c>
@@ -8003,7 +8011,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="258" spans="1:8">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" s="4">
         <v>5.6</v>
       </c>
@@ -8026,7 +8034,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="259" spans="1:8">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" s="4">
         <v>4</v>
       </c>
@@ -8049,7 +8057,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="260" spans="1:8">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" s="4">
         <v>10.199999999999999</v>
       </c>
@@ -8072,7 +8080,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="261" spans="1:8">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" s="4">
         <v>8</v>
       </c>
@@ -8095,7 +8103,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="262" spans="1:8">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" s="4">
         <v>2.1</v>
       </c>
@@ -8118,7 +8126,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="263" spans="1:8">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" s="4">
         <v>3.7</v>
       </c>
@@ -8141,7 +8149,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="264" spans="1:8">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" s="4">
         <v>7</v>
       </c>
@@ -8164,7 +8172,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="265" spans="1:8">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" s="4">
         <v>13.5</v>
       </c>
@@ -8187,7 +8195,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="266" spans="1:8">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" s="4">
         <v>5</v>
       </c>
@@ -8210,7 +8218,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="267" spans="1:8">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" s="4">
         <v>20</v>
       </c>
@@ -8233,7 +8241,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="268" spans="1:8">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" s="4">
         <v>6</v>
       </c>
@@ -8256,7 +8264,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="269" spans="1:8">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" s="4">
         <v>0.5</v>
       </c>
@@ -8279,7 +8287,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="270" spans="1:8">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" s="4">
         <v>5</v>
       </c>
@@ -8302,7 +8310,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="271" spans="1:8">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" s="4">
         <v>11</v>
       </c>
@@ -8325,7 +8333,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="272" spans="1:8">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" s="4">
         <v>8.8000000000000007</v>
       </c>
@@ -8348,7 +8356,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="273" spans="1:8">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" s="4">
         <v>0.5</v>
       </c>
@@ -8371,7 +8379,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="274" spans="1:8">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" s="4">
         <v>5</v>
       </c>
@@ -8394,7 +8402,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="275" spans="1:8">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" s="4">
         <v>10</v>
       </c>
@@ -8417,7 +8425,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="276" spans="1:8">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" s="4">
         <v>15</v>
       </c>
@@ -8440,7 +8448,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="277" spans="1:8">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" s="4">
         <v>10</v>
       </c>
@@ -8463,7 +8471,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="278" spans="1:8">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" s="4">
         <v>11.9</v>
       </c>
@@ -8486,7 +8494,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="279" spans="1:8">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" s="4">
         <v>7</v>
       </c>
@@ -8509,7 +8517,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="280" spans="1:8">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" s="4">
         <v>5.0999999999999996</v>
       </c>
@@ -8532,7 +8540,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="281" spans="1:8">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>1.9</v>
       </c>
@@ -8555,7 +8563,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="282" spans="1:8">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>119.9</v>
       </c>
@@ -8578,7 +8586,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="283" spans="1:8">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>6.3</v>
       </c>
@@ -8601,7 +8609,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="284" spans="1:8">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>3.5</v>
       </c>
@@ -8624,7 +8632,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="285" spans="1:8">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>1.5</v>
       </c>
@@ -8647,7 +8655,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="286" spans="1:8">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>1.9</v>
       </c>
@@ -8670,7 +8678,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="287" spans="1:8">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>4.5</v>
       </c>
@@ -8693,7 +8701,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="288" spans="1:8">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>6.4</v>
       </c>
@@ -8716,7 +8724,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="289" spans="1:8">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>1.9</v>
       </c>
@@ -8739,7 +8747,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="290" spans="1:8">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>10.6</v>
       </c>
@@ -8762,7 +8770,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="291" spans="1:8">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>4.5</v>
       </c>
@@ -8785,7 +8793,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="292" spans="1:8">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>22.2</v>
       </c>
@@ -8808,7 +8816,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="293" spans="1:8">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" s="6">
         <v>25</v>
       </c>
@@ -8831,7 +8839,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="294" spans="1:8">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294" s="6">
         <v>3.5</v>
       </c>
@@ -8854,7 +8862,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="295" spans="1:8">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>4</v>
       </c>
@@ -8877,7 +8885,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="296" spans="1:8">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>2.2000000000000002</v>
       </c>
@@ -8900,7 +8908,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="297" spans="1:8">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>11.5</v>
       </c>
@@ -8923,7 +8931,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="298" spans="1:8">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>6.3</v>
       </c>
@@ -8946,7 +8954,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="299" spans="1:8">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>3.6</v>
       </c>
@@ -8969,7 +8977,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="300" spans="1:8">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>15</v>
       </c>
@@ -8992,7 +9000,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="301" spans="1:8">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>2</v>
       </c>
@@ -9015,7 +9023,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="302" spans="1:8">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>4.5</v>
       </c>
@@ -9038,7 +9046,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="303" spans="1:8">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>2.9</v>
       </c>
@@ -9061,7 +9069,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="304" spans="1:8">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>3.9</v>
       </c>
@@ -9084,7 +9092,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="305" spans="1:8">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>1.7</v>
       </c>
@@ -9107,7 +9115,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="306" spans="1:8">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>10</v>
       </c>
@@ -9130,7 +9138,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="307" spans="1:8">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>7.5</v>
       </c>
@@ -9153,7 +9161,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="308" spans="1:8">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>10.050000000000001</v>
       </c>
@@ -9176,7 +9184,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="309" spans="1:8">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>5</v>
       </c>
@@ -9199,7 +9207,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="310" spans="1:8">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>3</v>
       </c>
@@ -9222,7 +9230,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="311" spans="1:8">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>2</v>
       </c>
@@ -9245,7 +9253,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="312" spans="1:8">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>10.6</v>
       </c>
@@ -9268,7 +9276,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="313" spans="1:8">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>4</v>
       </c>
@@ -9291,7 +9299,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="314" spans="1:8">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>2</v>
       </c>
@@ -9314,7 +9322,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="315" spans="1:8">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>5.8</v>
       </c>
@@ -9337,7 +9345,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="316" spans="1:8">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>5</v>
       </c>
@@ -9360,7 +9368,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="317" spans="1:8">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>6.55</v>
       </c>
@@ -9383,7 +9391,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="318" spans="1:8">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>2.8</v>
       </c>
@@ -9406,7 +9414,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="319" spans="1:8">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>3.8</v>
       </c>
@@ -9429,7 +9437,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="320" spans="1:8">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>9</v>
       </c>
@@ -9452,7 +9460,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="321" spans="1:8">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>8</v>
       </c>
@@ -9475,7 +9483,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="322" spans="1:8">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>1.5</v>
       </c>
@@ -9498,7 +9506,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="323" spans="1:8">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>5</v>
       </c>
@@ -9521,7 +9529,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="324" spans="1:8">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>4.5999999999999996</v>
       </c>
@@ -9544,7 +9552,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="325" spans="1:8">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>0.5</v>
       </c>
@@ -9567,7 +9575,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="326" spans="1:8">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>2.95</v>
       </c>
@@ -9590,7 +9598,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="327" spans="1:8">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>3.8</v>
       </c>
@@ -9613,7 +9621,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="328" spans="1:8">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>10</v>
       </c>
@@ -9636,7 +9644,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="329" spans="1:8">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>3.85</v>
       </c>
@@ -9659,7 +9667,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="330" spans="1:8">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>1.2</v>
       </c>
@@ -9682,7 +9690,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="331" spans="1:8">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>2</v>
       </c>
@@ -9705,7 +9713,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="332" spans="1:8">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>8.5</v>
       </c>
@@ -9728,7 +9736,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="333" spans="1:8">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>4.9000000000000004</v>
       </c>
@@ -9751,7 +9759,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="334" spans="1:8">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>10</v>
       </c>
@@ -9774,7 +9782,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="335" spans="1:8">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>350</v>
       </c>
@@ -9797,7 +9805,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="336" spans="1:8">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>4.4000000000000004</v>
       </c>
@@ -9820,7 +9828,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="337" spans="1:8">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>3.2</v>
       </c>
@@ -9843,7 +9851,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="338" spans="1:8">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>3.8</v>
       </c>
@@ -9866,7 +9874,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="339" spans="1:8">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>0.9</v>
       </c>
@@ -9889,7 +9897,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="340" spans="1:8">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>6</v>
       </c>
@@ -9912,7 +9920,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="341" spans="1:8">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>3.8</v>
       </c>
@@ -9935,7 +9943,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="342" spans="1:8">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>2</v>
       </c>
@@ -9958,7 +9966,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="343" spans="1:8">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>5.5</v>
       </c>
@@ -9981,7 +9989,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="344" spans="1:8">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>43.22</v>
       </c>
@@ -10004,7 +10012,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="345" spans="1:8">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>2</v>
       </c>
@@ -10027,7 +10035,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="346" spans="1:8">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>7</v>
       </c>
@@ -10050,7 +10058,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="347" spans="1:8">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>1.61</v>
       </c>
@@ -10073,7 +10081,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="348" spans="1:8">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>20</v>
       </c>
@@ -10096,7 +10104,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="349" spans="1:8">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>14.84</v>
       </c>
@@ -10119,7 +10127,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="350" spans="1:8">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>5.6</v>
       </c>
@@ -10142,7 +10150,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="351" spans="1:8">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>6.8</v>
       </c>
@@ -10165,7 +10173,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="352" spans="1:8">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>7.7</v>
       </c>
@@ -10188,7 +10196,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="353" spans="1:12">
+    <row r="353" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>29.4</v>
       </c>
@@ -10211,7 +10219,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="354" spans="1:12">
+    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>0.5</v>
       </c>
@@ -10234,7 +10242,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="355" spans="1:12">
+    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>2.2000000000000002</v>
       </c>
@@ -10257,7 +10265,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="356" spans="1:12">
+    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>3.5</v>
       </c>
@@ -10280,7 +10288,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="357" spans="1:12">
+    <row r="357" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>4.4000000000000004</v>
       </c>
@@ -10303,7 +10311,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="358" spans="1:12">
+    <row r="358" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>5.7</v>
       </c>
@@ -10326,7 +10334,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="359" spans="1:12">
+    <row r="359" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>7.74</v>
       </c>
@@ -10349,7 +10357,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="360" spans="1:12">
+    <row r="360" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>7</v>
       </c>
@@ -10372,7 +10380,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="361" spans="1:12">
+    <row r="361" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>3.8</v>
       </c>
@@ -10395,7 +10403,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="362" spans="1:12">
+    <row r="362" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>100</v>
       </c>
@@ -10418,7 +10426,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="363" spans="1:12">
+    <row r="363" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>5</v>
       </c>
@@ -10442,7 +10450,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="364" spans="1:12">
+    <row r="364" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A364" s="6">
         <v>2</v>
       </c>
@@ -10469,7 +10477,7 @@
       <c r="K364" s="1"/>
       <c r="L364" s="1"/>
     </row>
-    <row r="365" spans="1:12">
+    <row r="365" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>7</v>
       </c>
@@ -10492,7 +10500,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="366" spans="1:12">
+    <row r="366" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>50</v>
       </c>
@@ -10515,7 +10523,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="367" spans="1:12">
+    <row r="367" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>10</v>
       </c>
@@ -10538,7 +10546,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="368" spans="1:12">
+    <row r="368" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>10.8</v>
       </c>
@@ -10561,7 +10569,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="369" spans="1:8">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>10.5</v>
       </c>
@@ -10584,7 +10592,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="370" spans="1:8">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>5.5</v>
       </c>
@@ -10607,7 +10615,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="371" spans="1:8">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>5</v>
       </c>
@@ -10630,7 +10638,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="372" spans="1:8">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>0.5</v>
       </c>
@@ -10653,7 +10661,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="373" spans="1:8">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>10.5</v>
       </c>
@@ -10676,7 +10684,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="374" spans="1:8">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>14</v>
       </c>
@@ -10699,7 +10707,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="375" spans="1:8">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>2</v>
       </c>
@@ -10722,7 +10730,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="376" spans="1:8">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>3.5</v>
       </c>
@@ -10745,7 +10753,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="377" spans="1:8">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>3.5</v>
       </c>
@@ -10768,7 +10776,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="378" spans="1:8">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>3.5</v>
       </c>
@@ -10791,7 +10799,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="379" spans="1:8">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>2</v>
       </c>
@@ -10814,7 +10822,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="380" spans="1:8">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>2</v>
       </c>
@@ -10837,7 +10845,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="381" spans="1:8">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>2.5</v>
       </c>
@@ -10860,7 +10868,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="382" spans="1:8">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>6.5</v>
       </c>
@@ -10883,7 +10891,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="383" spans="1:8">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>3.78</v>
       </c>
@@ -10906,7 +10914,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="384" spans="1:8">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>7</v>
       </c>
@@ -10929,7 +10937,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="385" spans="1:8">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>2.5</v>
       </c>
@@ -10952,7 +10960,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="386" spans="1:8">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>2</v>
       </c>
@@ -10975,7 +10983,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="387" spans="1:8">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>1</v>
       </c>
@@ -10998,7 +11006,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="388" spans="1:8">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>10.5</v>
       </c>
@@ -11021,7 +11029,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="389" spans="1:8">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>1.5</v>
       </c>
@@ -11044,7 +11052,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="390" spans="1:8">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>2.7</v>
       </c>
@@ -11067,7 +11075,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="391" spans="1:8">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>2</v>
       </c>
@@ -11090,7 +11098,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="392" spans="1:8">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>17.5</v>
       </c>
@@ -11113,7 +11121,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="393" spans="1:8">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>43</v>
       </c>
@@ -11136,7 +11144,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="394" spans="1:8">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>69.900000000000006</v>
       </c>
@@ -11159,7 +11167,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="395" spans="1:8">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>16</v>
       </c>
@@ -11182,7 +11190,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="396" spans="1:8">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>2.2000000000000002</v>
       </c>
@@ -11205,7 +11213,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="397" spans="1:8">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>1.72</v>
       </c>
@@ -11228,7 +11236,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="398" spans="1:8">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>6</v>
       </c>
@@ -11251,7 +11259,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="399" spans="1:8">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>1.8</v>
       </c>
@@ -11274,7 +11282,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="400" spans="1:8">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>4.5999999999999996</v>
       </c>
@@ -11297,7 +11305,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="401" spans="1:8">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>27</v>
       </c>
@@ -11320,7 +11328,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="402" spans="1:8">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>14</v>
       </c>
@@ -11343,7 +11351,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="403" spans="1:8">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>2.5</v>
       </c>
@@ -11366,7 +11374,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="404" spans="1:8">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>10</v>
       </c>
@@ -11389,7 +11397,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="405" spans="1:8">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>11</v>
       </c>
@@ -11412,7 +11420,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="406" spans="1:8">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>5.55</v>
       </c>
@@ -11435,7 +11443,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="407" spans="1:8">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>3</v>
       </c>
@@ -11458,7 +11466,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="408" spans="1:8">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>3.5</v>
       </c>
@@ -11481,7 +11489,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="409" spans="1:8">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>3.8</v>
       </c>
@@ -11504,7 +11512,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="410" spans="1:8">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>4</v>
       </c>
@@ -11527,7 +11535,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="411" spans="1:8">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>8</v>
       </c>
@@ -11550,7 +11558,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="412" spans="1:8">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>11.6</v>
       </c>
@@ -11573,7 +11581,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="413" spans="1:8">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>1.6</v>
       </c>
@@ -11596,7 +11604,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="414" spans="1:8">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>44.41</v>
       </c>
@@ -11619,7 +11627,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="415" spans="1:8">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>4.8</v>
       </c>
@@ -11642,7 +11650,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="416" spans="1:8">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>1.7</v>
       </c>
@@ -11665,7 +11673,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="417" spans="1:8">
+    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>2.85</v>
       </c>
@@ -11688,7 +11696,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="418" spans="1:8">
+    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>6.4</v>
       </c>
@@ -11711,7 +11719,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="419" spans="1:8">
+    <row r="419" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>3.5</v>
       </c>
@@ -11734,7 +11742,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="420" spans="1:8">
+    <row r="420" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>6.5</v>
       </c>
@@ -11757,7 +11765,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="421" spans="1:8">
+    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>1.2</v>
       </c>
@@ -11780,7 +11788,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="422" spans="1:8">
+    <row r="422" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>4.5999999999999996</v>
       </c>
@@ -11803,7 +11811,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="423" spans="1:8">
+    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>8</v>
       </c>
@@ -11826,7 +11834,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="424" spans="1:8">
+    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>3.5</v>
       </c>
@@ -11849,7 +11857,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="425" spans="1:8">
+    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
         <v>50</v>
       </c>
@@ -11873,7 +11881,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="426" spans="1:8">
+    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>10</v>
       </c>
@@ -11896,7 +11904,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="427" spans="1:8">
+    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>2.9</v>
       </c>
@@ -11919,7 +11927,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="428" spans="1:8">
+    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>15</v>
       </c>
@@ -11942,7 +11950,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="429" spans="1:8">
+    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>3.5</v>
       </c>
@@ -11965,7 +11973,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="430" spans="1:8">
+    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>9.25</v>
       </c>
@@ -11988,7 +11996,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="431" spans="1:8">
+    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>8</v>
       </c>
@@ -12011,7 +12019,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="432" spans="1:8">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>4.0999999999999996</v>
       </c>
@@ -12034,7 +12042,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="433" spans="1:8">
+    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>4.9000000000000004</v>
       </c>
@@ -12057,7 +12065,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="434" spans="1:8">
+    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>2.8</v>
       </c>
@@ -12080,7 +12088,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="435" spans="1:8">
+    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>18.7</v>
       </c>
@@ -12103,7 +12111,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="436" spans="1:8">
+    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>20</v>
       </c>
@@ -12126,7 +12134,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="437" spans="1:8">
+    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
         <v>150</v>
       </c>
@@ -12150,7 +12158,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="438" spans="1:8">
+    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
         <v>10</v>
       </c>
@@ -12174,7 +12182,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="439" spans="1:8">
+    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>2.1</v>
       </c>
@@ -12197,7 +12205,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="440" spans="1:8">
+    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>5</v>
       </c>
@@ -12220,7 +12228,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="441" spans="1:8">
+    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>10</v>
       </c>
@@ -12243,7 +12251,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="442" spans="1:8">
+    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>59</v>
       </c>
@@ -12266,7 +12274,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="443" spans="1:8">
+    <row r="443" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>4</v>
       </c>
@@ -12289,7 +12297,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="444" spans="1:8">
+    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>4.17</v>
       </c>
@@ -12312,7 +12320,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="445" spans="1:8">
+    <row r="445" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>4.2</v>
       </c>
@@ -12335,7 +12343,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="446" spans="1:8">
+    <row r="446" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>4.4000000000000004</v>
       </c>
@@ -12358,7 +12366,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="447" spans="1:8">
+    <row r="447" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>30</v>
       </c>
@@ -12381,7 +12389,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="448" spans="1:8">
+    <row r="448" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>5</v>
       </c>
@@ -12404,7 +12412,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="449" spans="1:8">
+    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>15.7</v>
       </c>
@@ -12427,7 +12435,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="450" spans="1:8">
+    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>4</v>
       </c>
@@ -12450,7 +12458,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="451" spans="1:8">
+    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>8</v>
       </c>
@@ -12473,7 +12481,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="452" spans="1:8">
+    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>3.5</v>
       </c>
@@ -12496,7 +12504,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="453" spans="1:8">
+    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>4.2</v>
       </c>
@@ -12519,7 +12527,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="454" spans="1:8">
+    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>180</v>
       </c>
@@ -12542,7 +12550,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="455" spans="1:8">
+    <row r="455" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>2.2999999999999998</v>
       </c>
@@ -12565,7 +12573,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="456" spans="1:8">
+    <row r="456" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>11</v>
       </c>
@@ -12588,7 +12596,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="457" spans="1:8">
+    <row r="457" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>2</v>
       </c>
@@ -12611,7 +12619,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="458" spans="1:8">
+    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>3</v>
       </c>
@@ -12634,7 +12642,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="459" spans="1:8">
+    <row r="459" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>6.4</v>
       </c>
@@ -12657,7 +12665,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="460" spans="1:8">
+    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>3.2</v>
       </c>
@@ -12680,7 +12688,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="461" spans="1:8">
+    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>1</v>
       </c>
@@ -12703,7 +12711,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="462" spans="1:8">
+    <row r="462" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>4.2</v>
       </c>
@@ -12726,7 +12734,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="463" spans="1:8">
+    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>14</v>
       </c>
@@ -12749,7 +12757,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="464" spans="1:8">
+    <row r="464" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>2.9</v>
       </c>
@@ -12772,7 +12780,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="465" spans="1:8">
+    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>4</v>
       </c>
@@ -12795,7 +12803,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="466" spans="1:8">
+    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>1.8</v>
       </c>
@@ -12818,7 +12826,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="467" spans="1:8">
+    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>18</v>
       </c>
@@ -12841,7 +12849,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="468" spans="1:8">
+    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>2</v>
       </c>
@@ -12864,7 +12872,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="469" spans="1:8">
+    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>3</v>
       </c>
@@ -12887,7 +12895,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="470" spans="1:8">
+    <row r="470" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>10</v>
       </c>
@@ -12910,7 +12918,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="471" spans="1:8">
+    <row r="471" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>8.3000000000000007</v>
       </c>
@@ -12933,7 +12941,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="472" spans="1:8">
+    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>362</v>
       </c>
@@ -12956,7 +12964,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="473" spans="1:8">
+    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>4.2</v>
       </c>
@@ -12979,7 +12987,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="474" spans="1:8">
+    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>0.5</v>
       </c>
@@ -13002,7 +13010,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="475" spans="1:8">
+    <row r="475" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>1.7</v>
       </c>
@@ -13025,7 +13033,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="476" spans="1:8">
+    <row r="476" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>4.5999999999999996</v>
       </c>
@@ -13048,7 +13056,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="477" spans="1:8">
+    <row r="477" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>4.7</v>
       </c>
@@ -13071,7 +13079,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="478" spans="1:8">
+    <row r="478" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>1</v>
       </c>
@@ -13094,7 +13102,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="479" spans="1:8">
+    <row r="479" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>5.6</v>
       </c>
@@ -13117,7 +13125,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="480" spans="1:8">
+    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>33.799999999999997</v>
       </c>
@@ -13140,7 +13148,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="481" spans="1:8">
+    <row r="481" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>8</v>
       </c>
@@ -13163,7 +13171,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="482" spans="1:8">
+    <row r="482" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>5.2</v>
       </c>
@@ -13186,7 +13194,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="483" spans="1:8">
+    <row r="483" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>5.4</v>
       </c>
@@ -13209,7 +13217,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="484" spans="1:8">
+    <row r="484" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>40</v>
       </c>
@@ -13232,7 +13240,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="485" spans="1:8">
+    <row r="485" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>10.8</v>
       </c>
@@ -13255,7 +13263,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="486" spans="1:8">
+    <row r="486" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>15</v>
       </c>
@@ -13278,7 +13286,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="487" spans="1:8">
+    <row r="487" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>20</v>
       </c>
@@ -13301,7 +13309,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="488" spans="1:8">
+    <row r="488" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>3</v>
       </c>
@@ -13324,7 +13332,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="489" spans="1:8">
+    <row r="489" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>3.5</v>
       </c>
@@ -13347,7 +13355,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="490" spans="1:8">
+    <row r="490" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>2.2000000000000002</v>
       </c>
@@ -13370,7 +13378,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="491" spans="1:8">
+    <row r="491" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>4.5</v>
       </c>
@@ -13393,7 +13401,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="492" spans="1:8">
+    <row r="492" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A492">
         <v>4.2</v>
       </c>
@@ -13416,7 +13424,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="493" spans="1:8">
+    <row r="493" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A493">
         <v>5</v>
       </c>
@@ -13439,7 +13447,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="494" spans="1:8">
+    <row r="494" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A494" s="1">
         <v>27.69</v>
       </c>
@@ -13463,7 +13471,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="495" spans="1:8">
+    <row r="495" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A495">
         <v>70</v>
       </c>
@@ -13486,7 +13494,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="496" spans="1:8">
+    <row r="496" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A496" s="1">
         <v>2.2999999999999998</v>
       </c>
@@ -13510,7 +13518,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="497" spans="1:8">
+    <row r="497" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A497">
         <v>3.2</v>
       </c>
@@ -13533,7 +13541,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="498" spans="1:8">
+    <row r="498" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A498">
         <v>3.6</v>
       </c>
@@ -13556,7 +13564,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="499" spans="1:8">
+    <row r="499" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>0.5</v>
       </c>
@@ -13579,7 +13587,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="500" spans="1:8">
+    <row r="500" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>10</v>
       </c>
@@ -13602,7 +13610,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="501" spans="1:8">
+    <row r="501" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>2</v>
       </c>
@@ -13625,7 +13633,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="502" spans="1:8">
+    <row r="502" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A502" s="1">
         <v>1.9</v>
       </c>
@@ -13649,7 +13657,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="503" spans="1:8">
+    <row r="503" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A503">
         <v>6.6</v>
       </c>
@@ -13672,7 +13680,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="504" spans="1:8">
+    <row r="504" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A504">
         <v>1.8</v>
       </c>
@@ -13695,7 +13703,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="505" spans="1:8">
+    <row r="505" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A505" s="1">
         <v>0.8</v>
       </c>
@@ -13719,7 +13727,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="506" spans="1:8">
+    <row r="506" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A506">
         <v>4.2</v>
       </c>
@@ -13742,7 +13750,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="507" spans="1:8">
+    <row r="507" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A507">
         <v>4</v>
       </c>
@@ -13765,7 +13773,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="508" spans="1:8">
+    <row r="508" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A508">
         <v>1.2</v>
       </c>
@@ -13788,7 +13796,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="509" spans="1:8">
+    <row r="509" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A509">
         <v>5</v>
       </c>
@@ -13811,7 +13819,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="510" spans="1:8">
+    <row r="510" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A510">
         <v>3.5</v>
       </c>
@@ -13834,7 +13842,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="511" spans="1:8">
+    <row r="511" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A511" s="1">
         <v>1.75</v>
       </c>
@@ -13858,7 +13866,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="512" spans="1:8">
+    <row r="512" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A512">
         <v>4.2</v>
       </c>
@@ -13881,7 +13889,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="513" spans="1:8">
+    <row r="513" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A513">
         <v>5.6</v>
       </c>
@@ -13904,7 +13912,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="514" spans="1:8">
+    <row r="514" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A514">
         <v>3.6</v>
       </c>
@@ -13927,7 +13935,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="515" spans="1:8">
+    <row r="515" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A515">
         <v>15.93</v>
       </c>
@@ -13950,7 +13958,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="516" spans="1:8">
+    <row r="516" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A516">
         <v>5.98</v>
       </c>
@@ -13973,7 +13981,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="517" spans="1:8">
+    <row r="517" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A517">
         <v>5</v>
       </c>
@@ -13996,7 +14004,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="518" spans="1:8">
+    <row r="518" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A518">
         <v>4.2</v>
       </c>
@@ -14019,7 +14027,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="519" spans="1:8">
+    <row r="519" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A519">
         <v>4.2</v>
       </c>
@@ -14042,7 +14050,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="520" spans="1:8">
+    <row r="520" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A520">
         <v>4</v>
       </c>
@@ -14065,7 +14073,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="521" spans="1:8">
+    <row r="521" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A521">
         <v>3</v>
       </c>
@@ -14088,7 +14096,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="522" spans="1:8">
+    <row r="522" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A522">
         <v>2</v>
       </c>
@@ -14111,7 +14119,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="523" spans="1:8">
+    <row r="523" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A523">
         <v>1</v>
       </c>
@@ -14134,7 +14142,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="524" spans="1:8">
+    <row r="524" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A524" s="1">
         <v>4.0999999999999996</v>
       </c>
@@ -14158,7 +14166,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="525" spans="1:8">
+    <row r="525" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A525">
         <v>78.180000000000007</v>
       </c>
@@ -14181,7 +14189,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="526" spans="1:8">
+    <row r="526" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A526">
         <v>5.2</v>
       </c>
@@ -14204,7 +14212,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="527" spans="1:8">
+    <row r="527" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A527">
         <v>1.2</v>
       </c>
@@ -14227,7 +14235,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="528" spans="1:8">
+    <row r="528" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A528">
         <v>4.5</v>
       </c>
@@ -14250,7 +14258,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="529" spans="1:8">
+    <row r="529" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A529">
         <v>3.4</v>
       </c>
@@ -14273,7 +14281,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="530" spans="1:8">
+    <row r="530" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A530">
         <v>16</v>
       </c>
@@ -14296,7 +14304,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="531" spans="1:8">
+    <row r="531" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A531">
         <v>2.5</v>
       </c>
@@ -14319,7 +14327,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="532" spans="1:8">
+    <row r="532" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A532">
         <v>0.8</v>
       </c>
@@ -14342,7 +14350,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="533" spans="1:8">
+    <row r="533" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A533">
         <v>2.8</v>
       </c>
@@ -14365,7 +14373,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="534" spans="1:8">
+    <row r="534" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A534">
         <v>3.5</v>
       </c>
@@ -14388,7 +14396,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="535" spans="1:8">
+    <row r="535" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A535">
         <v>3.6</v>
       </c>
@@ -14411,7 +14419,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="536" spans="1:8">
+    <row r="536" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A536">
         <v>6.8</v>
       </c>
@@ -14434,7 +14442,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="537" spans="1:8">
+    <row r="537" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A537">
         <v>5</v>
       </c>
@@ -14457,7 +14465,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="538" spans="1:8">
+    <row r="538" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A538">
         <v>4.9000000000000004</v>
       </c>
@@ -14480,7 +14488,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="539" spans="1:8">
+    <row r="539" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A539">
         <v>80</v>
       </c>
@@ -14503,7 +14511,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="540" spans="1:8">
+    <row r="540" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A540">
         <v>55</v>
       </c>
@@ -14526,7 +14534,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="541" spans="1:8">
+    <row r="541" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A541">
         <v>10</v>
       </c>
@@ -14549,7 +14557,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="542" spans="1:8">
+    <row r="542" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A542">
         <v>1</v>
       </c>
@@ -14572,7 +14580,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="543" spans="1:8">
+    <row r="543" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A543" s="1">
         <v>1.65</v>
       </c>
@@ -14596,7 +14604,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="544" spans="1:8">
+    <row r="544" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A544" s="1">
         <v>4.5</v>
       </c>
@@ -14620,7 +14628,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="545" spans="1:8">
+    <row r="545" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A545">
         <v>4.8</v>
       </c>
@@ -14644,7 +14652,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="546" spans="1:8">
+    <row r="546" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A546" s="1">
         <v>9.5</v>
       </c>
@@ -14666,6 +14674,75 @@
       <c r="G546" s="1"/>
       <c r="H546" s="1" t="s">
         <v>269</v>
+      </c>
+    </row>
+    <row r="547" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A547">
+        <v>10</v>
+      </c>
+      <c r="B547" t="s">
+        <v>216</v>
+      </c>
+      <c r="C547" s="7">
+        <v>43408</v>
+      </c>
+      <c r="D547" t="s">
+        <v>2</v>
+      </c>
+      <c r="E547" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F547" s="1">
+        <v>5</v>
+      </c>
+      <c r="H547" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="548" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A548">
+        <v>4.8</v>
+      </c>
+      <c r="B548" t="s">
+        <v>217</v>
+      </c>
+      <c r="C548" s="7">
+        <v>43408</v>
+      </c>
+      <c r="D548" t="s">
+        <v>536</v>
+      </c>
+      <c r="E548" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F548" s="1">
+        <v>5</v>
+      </c>
+      <c r="H548" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="549" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A549">
+        <v>6.1</v>
+      </c>
+      <c r="B549" t="s">
+        <v>217</v>
+      </c>
+      <c r="C549" s="7">
+        <v>43409</v>
+      </c>
+      <c r="D549" t="s">
+        <v>537</v>
+      </c>
+      <c r="E549" t="s">
+        <v>231</v>
+      </c>
+      <c r="F549">
+        <v>5</v>
+      </c>
+      <c r="H549" t="s">
+        <v>243</v>
       </c>
     </row>
   </sheetData>

--- a/DataBase/costs.xlsx
+++ b/DataBase/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2205" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2221" uniqueCount="541">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1628,6 +1628,15 @@
   </si>
   <si>
     <t>crepa σοκολάτα με μπανανα και μπικότο, μπάρα πρωτεΐνης</t>
+  </si>
+  <si>
+    <t>πατατάκια, monster και σοκολάτα CRANCH</t>
+  </si>
+  <si>
+    <t>axe αποσμυτικό και τσίχλες</t>
+  </si>
+  <si>
+    <t>καλτσόνε και κουλούρι θεσσαλονίκης</t>
   </si>
 </sst>
 </file>
@@ -1763,7 +1772,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:H549" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:H553" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="8">
     <tableColumn id="1" name="amount" headerRowDxfId="8" totalsRowDxfId="7"/>
     <tableColumn id="11" name="type" totalsRowDxfId="6"/>
@@ -2065,10 +2074,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L549"/>
+  <dimension ref="A1:L553"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A528" workbookViewId="0">
-      <selection activeCell="H550" sqref="H550"/>
+      <selection activeCell="A554" sqref="A554"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14745,6 +14754,98 @@
         <v>243</v>
       </c>
     </row>
+    <row r="550" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A550">
+        <v>4.8</v>
+      </c>
+      <c r="B550" t="s">
+        <v>217</v>
+      </c>
+      <c r="C550" s="7">
+        <v>43410</v>
+      </c>
+      <c r="D550" t="s">
+        <v>538</v>
+      </c>
+      <c r="E550" t="s">
+        <v>231</v>
+      </c>
+      <c r="F550">
+        <v>5</v>
+      </c>
+      <c r="H550" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="551" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A551">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="B551" t="s">
+        <v>335</v>
+      </c>
+      <c r="C551" s="7">
+        <v>43410</v>
+      </c>
+      <c r="D551" t="s">
+        <v>539</v>
+      </c>
+      <c r="E551" t="s">
+        <v>231</v>
+      </c>
+      <c r="F551">
+        <v>5</v>
+      </c>
+      <c r="H551" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="552" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A552">
+        <v>2.6</v>
+      </c>
+      <c r="B552" t="s">
+        <v>217</v>
+      </c>
+      <c r="C552" s="7">
+        <v>43410</v>
+      </c>
+      <c r="D552" t="s">
+        <v>540</v>
+      </c>
+      <c r="E552" t="s">
+        <v>231</v>
+      </c>
+      <c r="F552">
+        <v>5</v>
+      </c>
+      <c r="H552" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="553" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A553">
+        <v>3.7</v>
+      </c>
+      <c r="B553" t="s">
+        <v>217</v>
+      </c>
+      <c r="C553" s="2">
+        <v>43410</v>
+      </c>
+      <c r="D553" t="s">
+        <v>117</v>
+      </c>
+      <c r="E553" t="s">
+        <v>231</v>
+      </c>
+      <c r="F553">
+        <v>3</v>
+      </c>
+      <c r="H553" t="s">
+        <v>243</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataBase/costs.xlsx
+++ b/DataBase/costs.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="costs" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2221" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2229" uniqueCount="543">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1637,6 +1637,12 @@
   </si>
   <si>
     <t>καλτσόνε και κουλούρι θεσσαλονίκης</t>
+  </si>
+  <si>
+    <t>3 παντελόνια</t>
+  </si>
+  <si>
+    <t>pancake και smooothie με banana, yogurt and chocolate</t>
   </si>
 </sst>
 </file>
@@ -1772,7 +1778,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:H553" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:H555" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="8">
     <tableColumn id="1" name="amount" headerRowDxfId="8" totalsRowDxfId="7"/>
     <tableColumn id="11" name="type" totalsRowDxfId="6"/>
@@ -2074,10 +2080,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L553"/>
+  <dimension ref="A1:L555"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A528" workbookViewId="0">
-      <selection activeCell="A554" sqref="A554"/>
+      <selection activeCell="B556" sqref="B556"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14846,6 +14852,52 @@
         <v>243</v>
       </c>
     </row>
+    <row r="554" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A554">
+        <v>120</v>
+      </c>
+      <c r="B554" t="s">
+        <v>217</v>
+      </c>
+      <c r="C554" s="2">
+        <v>43410</v>
+      </c>
+      <c r="D554" t="s">
+        <v>541</v>
+      </c>
+      <c r="E554" t="s">
+        <v>231</v>
+      </c>
+      <c r="F554">
+        <v>5</v>
+      </c>
+      <c r="H554" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="555" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A555">
+        <v>6.8</v>
+      </c>
+      <c r="B555" t="s">
+        <v>217</v>
+      </c>
+      <c r="C555" s="2">
+        <v>43411</v>
+      </c>
+      <c r="D555" t="s">
+        <v>542</v>
+      </c>
+      <c r="E555" t="s">
+        <v>231</v>
+      </c>
+      <c r="F555">
+        <v>5</v>
+      </c>
+      <c r="H555" t="s">
+        <v>243</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataBase/costs.xlsx
+++ b/DataBase/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2229" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2241" uniqueCount="547">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1643,6 +1643,18 @@
   </si>
   <si>
     <t>pancake και smooothie με banana, yogurt and chocolate</t>
+  </si>
+  <si>
+    <t>βιβλίο για τα μυστικά στο Βατικανό από το πανηγύρι</t>
+  </si>
+  <si>
+    <t>2 κουλούρια ολικής με τυρί</t>
+  </si>
+  <si>
+    <t>μακαρόνια χειροποίητα από green mani</t>
+  </si>
+  <si>
+    <t>ντάκος από green mani</t>
   </si>
 </sst>
 </file>
@@ -1778,7 +1790,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:H555" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:H558" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="8">
     <tableColumn id="1" name="amount" headerRowDxfId="8" totalsRowDxfId="7"/>
     <tableColumn id="11" name="type" totalsRowDxfId="6"/>
@@ -2080,10 +2092,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L555"/>
+  <dimension ref="A1:L558"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A528" workbookViewId="0">
-      <selection activeCell="B556" sqref="B556"/>
+    <sheetView tabSelected="1" topLeftCell="A534" workbookViewId="0">
+      <selection activeCell="D553" sqref="D553"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14840,7 +14852,7 @@
         <v>43410</v>
       </c>
       <c r="D553" t="s">
-        <v>117</v>
+        <v>546</v>
       </c>
       <c r="E553" t="s">
         <v>231</v>
@@ -14895,6 +14907,75 @@
         <v>5</v>
       </c>
       <c r="H555" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="556" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A556">
+        <v>5</v>
+      </c>
+      <c r="B556" t="s">
+        <v>338</v>
+      </c>
+      <c r="C556" s="2">
+        <v>43411</v>
+      </c>
+      <c r="D556" t="s">
+        <v>543</v>
+      </c>
+      <c r="E556" t="s">
+        <v>231</v>
+      </c>
+      <c r="F556">
+        <v>5</v>
+      </c>
+      <c r="H556" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="557" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A557">
+        <v>3.8</v>
+      </c>
+      <c r="B557" t="s">
+        <v>217</v>
+      </c>
+      <c r="C557" s="2">
+        <v>43412</v>
+      </c>
+      <c r="D557" t="s">
+        <v>544</v>
+      </c>
+      <c r="E557" t="s">
+        <v>231</v>
+      </c>
+      <c r="F557">
+        <v>5</v>
+      </c>
+      <c r="H557" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="558" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A558">
+        <v>3.9</v>
+      </c>
+      <c r="B558" t="s">
+        <v>217</v>
+      </c>
+      <c r="C558" s="2">
+        <v>43412</v>
+      </c>
+      <c r="D558" t="s">
+        <v>545</v>
+      </c>
+      <c r="E558" t="s">
+        <v>231</v>
+      </c>
+      <c r="F558">
+        <v>5</v>
+      </c>
+      <c r="H558" t="s">
         <v>243</v>
       </c>
     </row>

--- a/DataBase/costs.xlsx
+++ b/DataBase/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2241" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2245" uniqueCount="548">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1655,6 +1655,9 @@
   </si>
   <si>
     <t>ντάκος από green mani</t>
+  </si>
+  <si>
+    <t>φαλάφελ</t>
   </si>
 </sst>
 </file>
@@ -1790,7 +1793,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:H558" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:H559" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="8">
     <tableColumn id="1" name="amount" headerRowDxfId="8" totalsRowDxfId="7"/>
     <tableColumn id="11" name="type" totalsRowDxfId="6"/>
@@ -2092,10 +2095,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L558"/>
+  <dimension ref="A1:L559"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A534" workbookViewId="0">
-      <selection activeCell="D553" sqref="D553"/>
+      <selection activeCell="H560" sqref="H560"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14979,6 +14982,29 @@
         <v>243</v>
       </c>
     </row>
+    <row r="559" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A559">
+        <v>2.7</v>
+      </c>
+      <c r="B559" t="s">
+        <v>217</v>
+      </c>
+      <c r="C559" s="2">
+        <v>43413</v>
+      </c>
+      <c r="D559" t="s">
+        <v>547</v>
+      </c>
+      <c r="E559" t="s">
+        <v>231</v>
+      </c>
+      <c r="F559">
+        <v>4</v>
+      </c>
+      <c r="H559" t="s">
+        <v>243</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataBase/costs.xlsx
+++ b/DataBase/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2245" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2253" uniqueCount="550">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1658,6 +1658,12 @@
   </si>
   <si>
     <t>φαλάφελ</t>
+  </si>
+  <si>
+    <t>προμήθεια εμβάσματος από Κώστα στην N26</t>
+  </si>
+  <si>
+    <t>προμήθεια εμβάσματος για revolut</t>
   </si>
 </sst>
 </file>
@@ -1793,7 +1799,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:H559" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:H561" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="8">
     <tableColumn id="1" name="amount" headerRowDxfId="8" totalsRowDxfId="7"/>
     <tableColumn id="11" name="type" totalsRowDxfId="6"/>
@@ -2095,10 +2101,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L559"/>
+  <dimension ref="A1:L561"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A534" workbookViewId="0">
-      <selection activeCell="H560" sqref="H560"/>
+      <selection activeCell="D560" sqref="D560"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15005,6 +15011,52 @@
         <v>243</v>
       </c>
     </row>
+    <row r="560" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A560">
+        <v>1</v>
+      </c>
+      <c r="B560" t="s">
+        <v>344</v>
+      </c>
+      <c r="C560" s="2">
+        <v>43413</v>
+      </c>
+      <c r="D560" t="s">
+        <v>549</v>
+      </c>
+      <c r="E560" t="s">
+        <v>231</v>
+      </c>
+      <c r="F560">
+        <v>4</v>
+      </c>
+      <c r="H560" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="561" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A561">
+        <v>1</v>
+      </c>
+      <c r="B561" t="s">
+        <v>344</v>
+      </c>
+      <c r="C561" s="2">
+        <v>43416</v>
+      </c>
+      <c r="D561" t="s">
+        <v>548</v>
+      </c>
+      <c r="E561" t="s">
+        <v>231</v>
+      </c>
+      <c r="F561">
+        <v>4</v>
+      </c>
+      <c r="H561" t="s">
+        <v>243</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataBase/costs.xlsx
+++ b/DataBase/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2253" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2257" uniqueCount="551">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1664,6 +1664,9 @@
   </si>
   <si>
     <t>προμήθεια εμβάσματος για revolut</t>
+  </si>
+  <si>
+    <t>vegeterian σάντουιτς και café από τον Τόνι Σφίνο</t>
   </si>
 </sst>
 </file>
@@ -1799,7 +1802,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:H561" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:H563" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="8">
     <tableColumn id="1" name="amount" headerRowDxfId="8" totalsRowDxfId="7"/>
     <tableColumn id="11" name="type" totalsRowDxfId="6"/>
@@ -2101,10 +2104,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L561"/>
+  <dimension ref="A1:L562"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A534" workbookViewId="0">
-      <selection activeCell="D560" sqref="D560"/>
+    <sheetView tabSelected="1" topLeftCell="A555" workbookViewId="0">
+      <selection activeCell="H563" sqref="H563"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15057,6 +15060,29 @@
         <v>243</v>
       </c>
     </row>
+    <row r="562" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A562">
+        <v>3.5</v>
+      </c>
+      <c r="B562" t="s">
+        <v>217</v>
+      </c>
+      <c r="C562" s="2">
+        <v>43417</v>
+      </c>
+      <c r="D562" t="s">
+        <v>550</v>
+      </c>
+      <c r="E562" t="s">
+        <v>231</v>
+      </c>
+      <c r="F562">
+        <v>5</v>
+      </c>
+      <c r="H562" t="s">
+        <v>243</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataBase/costs.xlsx
+++ b/DataBase/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2257" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2265" uniqueCount="553">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1667,6 +1667,12 @@
   </si>
   <si>
     <t>vegeterian σάντουιτς και café από τον Τόνι Σφίνο</t>
+  </si>
+  <si>
+    <t>moccachino, μπουγάτσα με τυρί και με κρέμα από Σεραϊκόν</t>
+  </si>
+  <si>
+    <t>2 μπαταρίες για την GoPro από τον Κωτσόβολο</t>
   </si>
 </sst>
 </file>
@@ -1720,7 +1726,15 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="10">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -1802,16 +1816,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:H563" headerRowCount="0" totalsRowShown="0">
-  <tableColumns count="8">
-    <tableColumn id="1" name="amount" headerRowDxfId="8" totalsRowDxfId="7"/>
-    <tableColumn id="11" name="type" totalsRowDxfId="6"/>
-    <tableColumn id="2" name="date" totalsRowDxfId="5"/>
-    <tableColumn id="4" name="description" totalsRowDxfId="4"/>
-    <tableColumn id="5" name="userStatus" totalsRowDxfId="3"/>
-    <tableColumn id="6" name="moodLevel" totalsRowDxfId="2"/>
-    <tableColumn id="7" name="weather" totalsRowDxfId="1"/>
-    <tableColumn id="8" name="location" totalsRowDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:I564" headerRowCount="0" totalsRowShown="0">
+  <tableColumns count="9">
+    <tableColumn id="1" name="amount" headerRowDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="11" name="type" totalsRowDxfId="7"/>
+    <tableColumn id="2" name="date" totalsRowDxfId="6"/>
+    <tableColumn id="4" name="description" totalsRowDxfId="5"/>
+    <tableColumn id="5" name="userStatus" totalsRowDxfId="4"/>
+    <tableColumn id="6" name="moodLevel" totalsRowDxfId="3"/>
+    <tableColumn id="7" name="weather" totalsRowDxfId="2"/>
+    <tableColumn id="8" name="location" totalsRowDxfId="1"/>
+    <tableColumn id="3" name="Column1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -2104,10 +2119,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L562"/>
+  <dimension ref="A1:L564"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A555" workbookViewId="0">
-      <selection activeCell="H563" sqref="H563"/>
+    <sheetView tabSelected="1" topLeftCell="A541" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15083,6 +15098,52 @@
         <v>243</v>
       </c>
     </row>
+    <row r="563" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A563">
+        <v>7.1</v>
+      </c>
+      <c r="B563" t="s">
+        <v>217</v>
+      </c>
+      <c r="C563" s="2">
+        <v>43418</v>
+      </c>
+      <c r="D563" t="s">
+        <v>551</v>
+      </c>
+      <c r="E563" t="s">
+        <v>231</v>
+      </c>
+      <c r="F563">
+        <v>5</v>
+      </c>
+      <c r="H563" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="564" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A564">
+        <v>49.98</v>
+      </c>
+      <c r="B564" t="s">
+        <v>343</v>
+      </c>
+      <c r="C564" s="2">
+        <v>43418</v>
+      </c>
+      <c r="D564" t="s">
+        <v>552</v>
+      </c>
+      <c r="E564" t="s">
+        <v>231</v>
+      </c>
+      <c r="F564">
+        <v>5</v>
+      </c>
+      <c r="H564" t="s">
+        <v>234</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataBase/costs.xlsx
+++ b/DataBase/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2265" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2273" uniqueCount="555">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1673,6 +1673,12 @@
   </si>
   <si>
     <t>2 μπαταρίες για την GoPro από τον Κωτσόβολο</t>
+  </si>
+  <si>
+    <t>2 κουτιά κάσιους και πατατάκια</t>
+  </si>
+  <si>
+    <t>2 μπάρες δημιτριακών και καφέ από kudu café</t>
   </si>
 </sst>
 </file>
@@ -1816,7 +1822,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:I564" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:I566" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="9">
     <tableColumn id="1" name="amount" headerRowDxfId="9" totalsRowDxfId="8"/>
     <tableColumn id="11" name="type" totalsRowDxfId="7"/>
@@ -2119,10 +2125,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L564"/>
+  <dimension ref="A1:L566"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A541" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="H567" sqref="H567"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15144,6 +15150,52 @@
         <v>234</v>
       </c>
     </row>
+    <row r="565" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A565">
+        <v>4.74</v>
+      </c>
+      <c r="B565" t="s">
+        <v>217</v>
+      </c>
+      <c r="C565" s="2">
+        <v>43418</v>
+      </c>
+      <c r="D565" t="s">
+        <v>553</v>
+      </c>
+      <c r="E565" t="s">
+        <v>231</v>
+      </c>
+      <c r="F565">
+        <v>5</v>
+      </c>
+      <c r="H565" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="566" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A566">
+        <v>6.2</v>
+      </c>
+      <c r="B566" t="s">
+        <v>217</v>
+      </c>
+      <c r="C566" s="2">
+        <v>43419</v>
+      </c>
+      <c r="D566" t="s">
+        <v>554</v>
+      </c>
+      <c r="E566" t="s">
+        <v>231</v>
+      </c>
+      <c r="F566">
+        <v>5</v>
+      </c>
+      <c r="H566" t="s">
+        <v>243</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataBase/costs.xlsx
+++ b/DataBase/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2273" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2277" uniqueCount="556">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1679,6 +1679,9 @@
   </si>
   <si>
     <t>2 μπάρες δημιτριακών και καφέ από kudu café</t>
+  </si>
+  <si>
+    <t>σπανακόπιτα και κουλούρι από το Απολώνιο</t>
   </si>
 </sst>
 </file>
@@ -1822,7 +1825,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:I566" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:I567" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="9">
     <tableColumn id="1" name="amount" headerRowDxfId="9" totalsRowDxfId="8"/>
     <tableColumn id="11" name="type" totalsRowDxfId="7"/>
@@ -2125,10 +2128,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L566"/>
+  <dimension ref="A1:L567"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A541" workbookViewId="0">
-      <selection activeCell="H567" sqref="H567"/>
+      <selection activeCell="A568" sqref="A568"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15196,6 +15199,29 @@
         <v>243</v>
       </c>
     </row>
+    <row r="567" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A567">
+        <v>3.17</v>
+      </c>
+      <c r="B567" t="s">
+        <v>217</v>
+      </c>
+      <c r="C567" s="2">
+        <v>43419</v>
+      </c>
+      <c r="D567" t="s">
+        <v>555</v>
+      </c>
+      <c r="E567" t="s">
+        <v>231</v>
+      </c>
+      <c r="F567">
+        <v>5</v>
+      </c>
+      <c r="H567" t="s">
+        <v>243</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataBase/costs.xlsx
+++ b/DataBase/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2277" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2281" uniqueCount="557">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1681,7 +1681,10 @@
     <t>2 μπάρες δημιτριακών και καφέ από kudu café</t>
   </si>
   <si>
-    <t>σπανακόπιτα και κουλούρι από το Απολώνιο</t>
+    <t>κολοκυθόπιτα και τυρόπιτα κουρού από το Απολλώνιο</t>
+  </si>
+  <si>
+    <t>σπανακόπιτα και κουλούρι από το Απολλώνιο</t>
   </si>
 </sst>
 </file>
@@ -1825,7 +1828,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:I567" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:I568" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="9">
     <tableColumn id="1" name="amount" headerRowDxfId="9" totalsRowDxfId="8"/>
     <tableColumn id="11" name="type" totalsRowDxfId="7"/>
@@ -2128,10 +2131,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L567"/>
+  <dimension ref="A1:L568"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A541" workbookViewId="0">
-      <selection activeCell="A568" sqref="A568"/>
+      <selection activeCell="E569" sqref="E569"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15210,15 +15213,38 @@
         <v>43419</v>
       </c>
       <c r="D567" t="s">
+        <v>556</v>
+      </c>
+      <c r="E567" t="s">
+        <v>231</v>
+      </c>
+      <c r="F567">
+        <v>5</v>
+      </c>
+      <c r="H567" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="568" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A568">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="B568" t="s">
+        <v>217</v>
+      </c>
+      <c r="C568" s="2">
+        <v>43420</v>
+      </c>
+      <c r="D568" t="s">
         <v>555</v>
       </c>
-      <c r="E567" t="s">
-        <v>231</v>
-      </c>
-      <c r="F567">
-        <v>5</v>
-      </c>
-      <c r="H567" t="s">
+      <c r="E568" t="s">
+        <v>231</v>
+      </c>
+      <c r="F568">
+        <v>5</v>
+      </c>
+      <c r="H568" t="s">
         <v>243</v>
       </c>
     </row>

--- a/DataBase/costs.xlsx
+++ b/DataBase/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2281" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2285" uniqueCount="557">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1828,7 +1828,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:I568" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:I569" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="9">
     <tableColumn id="1" name="amount" headerRowDxfId="9" totalsRowDxfId="8"/>
     <tableColumn id="11" name="type" totalsRowDxfId="7"/>
@@ -2131,10 +2131,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L568"/>
+  <dimension ref="A1:L569"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A541" workbookViewId="0">
-      <selection activeCell="E569" sqref="E569"/>
+      <selection activeCell="A570" sqref="A570"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15248,6 +15248,29 @@
         <v>243</v>
       </c>
     </row>
+    <row r="569" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A569">
+        <v>1.8</v>
+      </c>
+      <c r="B569" t="s">
+        <v>217</v>
+      </c>
+      <c r="C569" s="2">
+        <v>43420</v>
+      </c>
+      <c r="D569" t="s">
+        <v>194</v>
+      </c>
+      <c r="E569" t="s">
+        <v>231</v>
+      </c>
+      <c r="F569">
+        <v>5</v>
+      </c>
+      <c r="H569" t="s">
+        <v>249</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataBase/costs.xlsx
+++ b/DataBase/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2285" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2293" uniqueCount="559">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1685,6 +1685,12 @@
   </si>
   <si>
     <t>σπανακόπιτα και κουλούρι από το Απολλώνιο</t>
+  </si>
+  <si>
+    <t>vegeterian σουβλάκι στο Πίτα Ζυμαράκι (+ Γιάννη)</t>
+  </si>
+  <si>
+    <t>μπύρες στο swini dot (+ Γιάννη)</t>
   </si>
 </sst>
 </file>
@@ -1828,7 +1834,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:I569" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:I571" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="9">
     <tableColumn id="1" name="amount" headerRowDxfId="9" totalsRowDxfId="8"/>
     <tableColumn id="11" name="type" totalsRowDxfId="7"/>
@@ -2131,10 +2137,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L569"/>
+  <dimension ref="A1:L571"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A541" workbookViewId="0">
-      <selection activeCell="A570" sqref="A570"/>
+      <selection activeCell="A572" sqref="A572"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15271,6 +15277,52 @@
         <v>249</v>
       </c>
     </row>
+    <row r="570" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A570">
+        <v>7</v>
+      </c>
+      <c r="B570" t="s">
+        <v>217</v>
+      </c>
+      <c r="C570" s="2">
+        <v>43421</v>
+      </c>
+      <c r="D570" t="s">
+        <v>558</v>
+      </c>
+      <c r="E570" t="s">
+        <v>231</v>
+      </c>
+      <c r="F570">
+        <v>5</v>
+      </c>
+      <c r="H570" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="571" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A571">
+        <v>8</v>
+      </c>
+      <c r="B571" t="s">
+        <v>217</v>
+      </c>
+      <c r="C571" s="2">
+        <v>43421</v>
+      </c>
+      <c r="D571" t="s">
+        <v>557</v>
+      </c>
+      <c r="E571" t="s">
+        <v>231</v>
+      </c>
+      <c r="F571">
+        <v>5</v>
+      </c>
+      <c r="H571" t="s">
+        <v>234</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataBase/costs.xlsx
+++ b/DataBase/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2293" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2305" uniqueCount="562">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1691,6 +1691,15 @@
   </si>
   <si>
     <t>μπύρες στο swini dot (+ Γιάννη)</t>
+  </si>
+  <si>
+    <t>τυρόπιτα από το νοσοκομείο Ευαγγελισμός (+ νερό Ιάσονα)</t>
+  </si>
+  <si>
+    <t>Evaggelismos</t>
+  </si>
+  <si>
+    <t>Εισητήριο 2 διαδρομών</t>
   </si>
 </sst>
 </file>
@@ -1834,7 +1843,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:I571" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:I575" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="9">
     <tableColumn id="1" name="amount" headerRowDxfId="9" totalsRowDxfId="8"/>
     <tableColumn id="11" name="type" totalsRowDxfId="7"/>
@@ -2137,10 +2146,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L571"/>
+  <dimension ref="A1:L574"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A541" workbookViewId="0">
-      <selection activeCell="A572" sqref="A572"/>
+      <selection activeCell="A575" sqref="A575"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15323,6 +15332,75 @@
         <v>234</v>
       </c>
     </row>
+    <row r="572" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A572">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B572" t="s">
+        <v>217</v>
+      </c>
+      <c r="C572" s="2">
+        <v>43423</v>
+      </c>
+      <c r="D572" t="s">
+        <v>559</v>
+      </c>
+      <c r="E572" t="s">
+        <v>231</v>
+      </c>
+      <c r="F572">
+        <v>4</v>
+      </c>
+      <c r="H572" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="573" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A573">
+        <v>1.2</v>
+      </c>
+      <c r="B573" t="s">
+        <v>334</v>
+      </c>
+      <c r="C573" s="2">
+        <v>43423</v>
+      </c>
+      <c r="D573" t="s">
+        <v>561</v>
+      </c>
+      <c r="E573" t="s">
+        <v>231</v>
+      </c>
+      <c r="F573">
+        <v>4</v>
+      </c>
+      <c r="H573" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="574" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A574">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B574" t="s">
+        <v>217</v>
+      </c>
+      <c r="C574" s="2">
+        <v>43423</v>
+      </c>
+      <c r="D574" t="s">
+        <v>464</v>
+      </c>
+      <c r="E574" t="s">
+        <v>231</v>
+      </c>
+      <c r="F574">
+        <v>4</v>
+      </c>
+      <c r="H574" t="s">
+        <v>560</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataBase/costs.xlsx
+++ b/DataBase/costs.xlsx
@@ -2148,8 +2148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L574"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A541" workbookViewId="0">
-      <selection activeCell="A575" sqref="A575"/>
+    <sheetView tabSelected="1" topLeftCell="A560" workbookViewId="0">
+      <selection activeCell="D574" sqref="D574"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/DataBase/costs.xlsx
+++ b/DataBase/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2305" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2317" uniqueCount="565">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1700,6 +1700,15 @@
   </si>
   <si>
     <t>Εισητήριο 2 διαδρομών</t>
+  </si>
+  <si>
+    <t>καφές και κρουασάν από το mikel</t>
+  </si>
+  <si>
+    <t>καλτσόνε από το Zio pepe</t>
+  </si>
+  <si>
+    <t>φαλάφελ combo menu από Ολλανδό</t>
   </si>
 </sst>
 </file>
@@ -1843,7 +1852,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:I575" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:I577" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="9">
     <tableColumn id="1" name="amount" headerRowDxfId="9" totalsRowDxfId="8"/>
     <tableColumn id="11" name="type" totalsRowDxfId="7"/>
@@ -2146,10 +2155,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L574"/>
+  <dimension ref="A1:L577"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A560" workbookViewId="0">
-      <selection activeCell="D574" sqref="D574"/>
+    <sheetView tabSelected="1" topLeftCell="A574" workbookViewId="0">
+      <selection activeCell="F577" sqref="F577"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15349,7 +15358,7 @@
         <v>231</v>
       </c>
       <c r="F572">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H572" t="s">
         <v>560</v>
@@ -15372,7 +15381,7 @@
         <v>231</v>
       </c>
       <c r="F573">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H573" t="s">
         <v>560</v>
@@ -15395,10 +15404,79 @@
         <v>231</v>
       </c>
       <c r="F574">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H574" t="s">
         <v>560</v>
+      </c>
+    </row>
+    <row r="575" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A575">
+        <v>4</v>
+      </c>
+      <c r="B575" t="s">
+        <v>217</v>
+      </c>
+      <c r="C575" s="2">
+        <v>43424</v>
+      </c>
+      <c r="D575" t="s">
+        <v>562</v>
+      </c>
+      <c r="E575" t="s">
+        <v>231</v>
+      </c>
+      <c r="F575">
+        <v>3</v>
+      </c>
+      <c r="H575" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="576" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A576">
+        <v>4</v>
+      </c>
+      <c r="B576" t="s">
+        <v>217</v>
+      </c>
+      <c r="C576" s="2">
+        <v>43424</v>
+      </c>
+      <c r="D576" t="s">
+        <v>563</v>
+      </c>
+      <c r="E576" t="s">
+        <v>231</v>
+      </c>
+      <c r="F576">
+        <v>3</v>
+      </c>
+      <c r="H576" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="577" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A577">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="B577" t="s">
+        <v>217</v>
+      </c>
+      <c r="C577" s="2">
+        <v>43424</v>
+      </c>
+      <c r="D577" t="s">
+        <v>564</v>
+      </c>
+      <c r="E577" t="s">
+        <v>231</v>
+      </c>
+      <c r="F577">
+        <v>3</v>
+      </c>
+      <c r="H577" t="s">
+        <v>243</v>
       </c>
     </row>
   </sheetData>

--- a/DataBase/costs.xlsx
+++ b/DataBase/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2317" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2321" uniqueCount="566">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1709,6 +1709,9 @@
   </si>
   <si>
     <t>φαλάφελ combo menu από Ολλανδό</t>
+  </si>
+  <si>
+    <t>μπουγάτσα με μερέντα και με τυρί από το Σεραϊκό</t>
   </si>
 </sst>
 </file>
@@ -1852,7 +1855,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:I577" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:I578" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="9">
     <tableColumn id="1" name="amount" headerRowDxfId="9" totalsRowDxfId="8"/>
     <tableColumn id="11" name="type" totalsRowDxfId="7"/>
@@ -2155,10 +2158,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L577"/>
+  <dimension ref="A1:L578"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A574" workbookViewId="0">
-      <selection activeCell="F577" sqref="F577"/>
+    <sheetView tabSelected="1" topLeftCell="A568" workbookViewId="0">
+      <selection activeCell="A579" sqref="A579"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15441,7 +15444,7 @@
         <v>217</v>
       </c>
       <c r="C576" s="2">
-        <v>43424</v>
+        <v>43425</v>
       </c>
       <c r="D576" t="s">
         <v>563</v>
@@ -15464,7 +15467,7 @@
         <v>217</v>
       </c>
       <c r="C577" s="2">
-        <v>43424</v>
+        <v>43425</v>
       </c>
       <c r="D577" t="s">
         <v>564</v>
@@ -15476,6 +15479,29 @@
         <v>3</v>
       </c>
       <c r="H577" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="578" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A578">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="B578" t="s">
+        <v>217</v>
+      </c>
+      <c r="C578" s="2">
+        <v>43426</v>
+      </c>
+      <c r="D578" t="s">
+        <v>565</v>
+      </c>
+      <c r="E578" t="s">
+        <v>231</v>
+      </c>
+      <c r="F578">
+        <v>3</v>
+      </c>
+      <c r="H578" t="s">
         <v>243</v>
       </c>
     </row>

--- a/DataBase/costs.xlsx
+++ b/DataBase/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2321" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2325" uniqueCount="567">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1712,6 +1712,9 @@
   </si>
   <si>
     <t>μπουγάτσα με μερέντα και με τυρί από το Σεραϊκό</t>
+  </si>
+  <si>
+    <t>μπουγάτσα με μερέντα και φλογέρα από το Σεραϊκό</t>
   </si>
 </sst>
 </file>
@@ -1855,7 +1858,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:I578" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:I579" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="9">
     <tableColumn id="1" name="amount" headerRowDxfId="9" totalsRowDxfId="8"/>
     <tableColumn id="11" name="type" totalsRowDxfId="7"/>
@@ -2158,10 +2161,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L578"/>
+  <dimension ref="A1:L579"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A568" workbookViewId="0">
-      <selection activeCell="A579" sqref="A579"/>
+      <selection activeCell="D580" sqref="D580"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15505,6 +15508,29 @@
         <v>243</v>
       </c>
     </row>
+    <row r="579" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A579">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="B579" t="s">
+        <v>217</v>
+      </c>
+      <c r="C579" s="2">
+        <v>43427</v>
+      </c>
+      <c r="D579" t="s">
+        <v>566</v>
+      </c>
+      <c r="E579" t="s">
+        <v>231</v>
+      </c>
+      <c r="F579">
+        <v>3</v>
+      </c>
+      <c r="H579" t="s">
+        <v>243</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataBase/costs.xlsx
+++ b/DataBase/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2325" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2453" uniqueCount="599">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1715,6 +1715,102 @@
   </si>
   <si>
     <t>μπουγάτσα με μερέντα και φλογέρα από το Σεραϊκό</t>
+  </si>
+  <si>
+    <t>κρασιά δώρο για την Δώρα</t>
+  </si>
+  <si>
+    <t>γεμιστά στο αεροδρόμιο</t>
+  </si>
+  <si>
+    <t>(+ νερό κούρου)</t>
+  </si>
+  <si>
+    <t>charity</t>
+  </si>
+  <si>
+    <t>ξυστό στο αεροπλάνο</t>
+  </si>
+  <si>
+    <t>λεωφορείο για UCD</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>μπουγατσάκια και muffins</t>
+  </si>
+  <si>
+    <t>λεωφορείο για Κέντρο</t>
+  </si>
+  <si>
+    <t>tram για σπίτι Κωνσταντίνας</t>
+  </si>
+  <si>
+    <t>sports centre UCD</t>
+  </si>
+  <si>
+    <t>servises</t>
+  </si>
+  <si>
+    <t>σκουφάκι πισίνας UCD</t>
+  </si>
+  <si>
+    <t>φαγητό στο Club House</t>
+  </si>
+  <si>
+    <t>λεωφορείο για Don Laoghaire</t>
+  </si>
+  <si>
+    <t>σφολιατοειδή από το Centra με την Κωνσταντίνα</t>
+  </si>
+  <si>
+    <t>λεωφορείο για σπίτι Κωνσταντίνας</t>
+  </si>
+  <si>
+    <t>λεωφορείο για σπίτι Μίνας</t>
+  </si>
+  <si>
+    <t>λεωφορείο για σπίτι Μίνας (λάθος)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">λεωφορείο από σπίτι Μίνας  για κέντρο </t>
+  </si>
+  <si>
+    <t>2 κρουασάν με σοκολάτα</t>
+  </si>
+  <si>
+    <t>(+ εισητήρια Φιλίππου και Κούρου)</t>
+  </si>
+  <si>
+    <t>λεωφορείο για κέντρο</t>
+  </si>
+  <si>
+    <t>souvenirs από Δουβλίνο (σκουφάκι, προφυλακτικά, βραχιόλι)</t>
+  </si>
+  <si>
+    <t>vegeterian burger στο Eddie Rockets</t>
+  </si>
+  <si>
+    <t>vegeterian sandwich και ζελεδάκια απο το Centra</t>
+  </si>
+  <si>
+    <t>μηλίτης στο Club house</t>
+  </si>
+  <si>
+    <t>λεωφορείο για αεροδρόμιο</t>
+  </si>
+  <si>
+    <t>κούπα για Τσιτσάκο, γούρι για Εύη και Δήμητρα</t>
+  </si>
+  <si>
+    <t>κρουασάν σοκολάτας και fruse tea</t>
+  </si>
+  <si>
+    <t>τσίχλα και λεμονίτα fanta</t>
+  </si>
+  <si>
+    <t>φαλάφελ project ultra menu</t>
   </si>
 </sst>
 </file>
@@ -1858,7 +1954,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:I579" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:I611" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="9">
     <tableColumn id="1" name="amount" headerRowDxfId="9" totalsRowDxfId="8"/>
     <tableColumn id="11" name="type" totalsRowDxfId="7"/>
@@ -2161,10 +2257,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L579"/>
+  <dimension ref="A1:L611"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A568" workbookViewId="0">
-      <selection activeCell="D580" sqref="D580"/>
+    <sheetView tabSelected="1" topLeftCell="A600" workbookViewId="0">
+      <selection activeCell="A612" sqref="A612"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14938,7 +15034,7 @@
         <v>120</v>
       </c>
       <c r="B554" t="s">
-        <v>217</v>
+        <v>335</v>
       </c>
       <c r="C554" s="2">
         <v>43410</v>
@@ -15528,6 +15624,742 @@
         <v>3</v>
       </c>
       <c r="H579" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="580" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A580">
+        <v>2.9</v>
+      </c>
+      <c r="B580" t="s">
+        <v>340</v>
+      </c>
+      <c r="C580" s="2">
+        <v>43427</v>
+      </c>
+      <c r="D580" t="s">
+        <v>567</v>
+      </c>
+      <c r="E580" t="s">
+        <v>231</v>
+      </c>
+      <c r="F580">
+        <v>4</v>
+      </c>
+      <c r="H580" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="581" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A581">
+        <v>11.6</v>
+      </c>
+      <c r="B581" t="s">
+        <v>217</v>
+      </c>
+      <c r="C581" s="2">
+        <v>43429</v>
+      </c>
+      <c r="D581" t="s">
+        <v>568</v>
+      </c>
+      <c r="E581" t="s">
+        <v>231</v>
+      </c>
+      <c r="F581">
+        <v>4</v>
+      </c>
+      <c r="H581" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="582" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A582">
+        <v>0.75</v>
+      </c>
+      <c r="B582" t="s">
+        <v>217</v>
+      </c>
+      <c r="C582" s="2">
+        <v>43429</v>
+      </c>
+      <c r="D582" t="s">
+        <v>569</v>
+      </c>
+      <c r="E582" t="s">
+        <v>231</v>
+      </c>
+      <c r="F582">
+        <v>4</v>
+      </c>
+      <c r="H582" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="583" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A583">
+        <v>2</v>
+      </c>
+      <c r="B583" t="s">
+        <v>570</v>
+      </c>
+      <c r="C583" s="2">
+        <v>43429</v>
+      </c>
+      <c r="D583" t="s">
+        <v>571</v>
+      </c>
+      <c r="E583" t="s">
+        <v>231</v>
+      </c>
+      <c r="F583">
+        <v>4</v>
+      </c>
+      <c r="H583" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="584" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A584">
+        <v>10</v>
+      </c>
+      <c r="B584" t="s">
+        <v>334</v>
+      </c>
+      <c r="C584" s="2">
+        <v>43429</v>
+      </c>
+      <c r="D584" t="s">
+        <v>572</v>
+      </c>
+      <c r="E584" t="s">
+        <v>231</v>
+      </c>
+      <c r="F584">
+        <v>5</v>
+      </c>
+      <c r="H584" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="585" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A585">
+        <v>3.3</v>
+      </c>
+      <c r="B585" t="s">
+        <v>217</v>
+      </c>
+      <c r="C585" s="2">
+        <v>43429</v>
+      </c>
+      <c r="D585" t="s">
+        <v>574</v>
+      </c>
+      <c r="E585" t="s">
+        <v>231</v>
+      </c>
+      <c r="F585">
+        <v>5</v>
+      </c>
+      <c r="H585" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="586" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A586">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B586" t="s">
+        <v>340</v>
+      </c>
+      <c r="C586" s="2">
+        <v>43429</v>
+      </c>
+      <c r="D586" t="s">
+        <v>588</v>
+      </c>
+      <c r="E586" t="s">
+        <v>231</v>
+      </c>
+      <c r="F586">
+        <v>5</v>
+      </c>
+      <c r="H586" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="587" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A587">
+        <v>3</v>
+      </c>
+      <c r="B587" t="s">
+        <v>334</v>
+      </c>
+      <c r="C587" s="2">
+        <v>43429</v>
+      </c>
+      <c r="D587" t="s">
+        <v>575</v>
+      </c>
+      <c r="E587" t="s">
+        <v>231</v>
+      </c>
+      <c r="F587">
+        <v>5</v>
+      </c>
+      <c r="H587" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="588" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A588">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="B588" t="s">
+        <v>217</v>
+      </c>
+      <c r="C588" s="2">
+        <v>43429</v>
+      </c>
+      <c r="D588" t="s">
+        <v>591</v>
+      </c>
+      <c r="E588" t="s">
+        <v>231</v>
+      </c>
+      <c r="F588">
+        <v>5</v>
+      </c>
+      <c r="H588" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="589" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A589">
+        <v>3</v>
+      </c>
+      <c r="B589" t="s">
+        <v>334</v>
+      </c>
+      <c r="C589" s="2">
+        <v>43429</v>
+      </c>
+      <c r="D589" t="s">
+        <v>576</v>
+      </c>
+      <c r="E589" t="s">
+        <v>231</v>
+      </c>
+      <c r="F589">
+        <v>5</v>
+      </c>
+      <c r="H589" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="590" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A590">
+        <v>15</v>
+      </c>
+      <c r="B590" t="s">
+        <v>578</v>
+      </c>
+      <c r="C590" s="2">
+        <v>43430</v>
+      </c>
+      <c r="D590" t="s">
+        <v>577</v>
+      </c>
+      <c r="E590" t="s">
+        <v>231</v>
+      </c>
+      <c r="F590">
+        <v>5</v>
+      </c>
+      <c r="H590" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="591" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A591">
+        <v>5</v>
+      </c>
+      <c r="B591" t="s">
+        <v>335</v>
+      </c>
+      <c r="C591" s="2">
+        <v>43430</v>
+      </c>
+      <c r="D591" t="s">
+        <v>579</v>
+      </c>
+      <c r="E591" t="s">
+        <v>231</v>
+      </c>
+      <c r="F591">
+        <v>5</v>
+      </c>
+      <c r="H591" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="592" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A592">
+        <v>3.9</v>
+      </c>
+      <c r="B592" t="s">
+        <v>217</v>
+      </c>
+      <c r="C592" s="2">
+        <v>43430</v>
+      </c>
+      <c r="D592" t="s">
+        <v>580</v>
+      </c>
+      <c r="E592" t="s">
+        <v>231</v>
+      </c>
+      <c r="F592">
+        <v>5</v>
+      </c>
+      <c r="H592" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="593" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A593">
+        <v>2.85</v>
+      </c>
+      <c r="B593" t="s">
+        <v>334</v>
+      </c>
+      <c r="C593" s="2">
+        <v>43430</v>
+      </c>
+      <c r="D593" t="s">
+        <v>581</v>
+      </c>
+      <c r="E593" t="s">
+        <v>231</v>
+      </c>
+      <c r="F593">
+        <v>5</v>
+      </c>
+      <c r="H593" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="594" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A594">
+        <v>3</v>
+      </c>
+      <c r="B594" t="s">
+        <v>334</v>
+      </c>
+      <c r="C594" s="2">
+        <v>43430</v>
+      </c>
+      <c r="D594" t="s">
+        <v>572</v>
+      </c>
+      <c r="E594" t="s">
+        <v>231</v>
+      </c>
+      <c r="F594">
+        <v>4</v>
+      </c>
+      <c r="H594" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="595" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A595">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B595" t="s">
+        <v>217</v>
+      </c>
+      <c r="C595" s="2">
+        <v>43430</v>
+      </c>
+      <c r="D595" t="s">
+        <v>582</v>
+      </c>
+      <c r="E595" t="s">
+        <v>231</v>
+      </c>
+      <c r="F595">
+        <v>5</v>
+      </c>
+      <c r="H595" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="596" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A596">
+        <v>3</v>
+      </c>
+      <c r="B596" t="s">
+        <v>334</v>
+      </c>
+      <c r="C596" s="2">
+        <v>43430</v>
+      </c>
+      <c r="D596" t="s">
+        <v>583</v>
+      </c>
+      <c r="E596" t="s">
+        <v>231</v>
+      </c>
+      <c r="F596">
+        <v>4</v>
+      </c>
+      <c r="H596" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="597" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A597">
+        <v>3</v>
+      </c>
+      <c r="B597" t="s">
+        <v>334</v>
+      </c>
+      <c r="C597" s="2">
+        <v>43430</v>
+      </c>
+      <c r="D597" t="s">
+        <v>585</v>
+      </c>
+      <c r="E597" t="s">
+        <v>231</v>
+      </c>
+      <c r="F597">
+        <v>4</v>
+      </c>
+      <c r="H597" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="598" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A598">
+        <v>3</v>
+      </c>
+      <c r="B598" t="s">
+        <v>334</v>
+      </c>
+      <c r="C598" s="2">
+        <v>43430</v>
+      </c>
+      <c r="D598" t="s">
+        <v>584</v>
+      </c>
+      <c r="E598" t="s">
+        <v>231</v>
+      </c>
+      <c r="F598">
+        <v>3</v>
+      </c>
+      <c r="H598" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="599" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A599">
+        <v>4</v>
+      </c>
+      <c r="B599" t="s">
+        <v>334</v>
+      </c>
+      <c r="C599" s="2">
+        <v>43431</v>
+      </c>
+      <c r="D599" t="s">
+        <v>586</v>
+      </c>
+      <c r="E599" t="s">
+        <v>232</v>
+      </c>
+      <c r="F599">
+        <v>4</v>
+      </c>
+      <c r="H599" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="600" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A600">
+        <v>5</v>
+      </c>
+      <c r="B600" t="s">
+        <v>217</v>
+      </c>
+      <c r="C600" s="2">
+        <v>43431</v>
+      </c>
+      <c r="D600" t="s">
+        <v>587</v>
+      </c>
+      <c r="E600" t="s">
+        <v>232</v>
+      </c>
+      <c r="F600">
+        <v>4</v>
+      </c>
+      <c r="H600" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="601" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A601">
+        <v>4</v>
+      </c>
+      <c r="B601" t="s">
+        <v>334</v>
+      </c>
+      <c r="C601" s="2">
+        <v>43431</v>
+      </c>
+      <c r="D601" t="s">
+        <v>572</v>
+      </c>
+      <c r="E601" t="s">
+        <v>232</v>
+      </c>
+      <c r="F601">
+        <v>3</v>
+      </c>
+      <c r="H601" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="602" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A602">
+        <v>3</v>
+      </c>
+      <c r="B602" t="s">
+        <v>334</v>
+      </c>
+      <c r="C602" s="2">
+        <v>43431</v>
+      </c>
+      <c r="D602" t="s">
+        <v>589</v>
+      </c>
+      <c r="E602" t="s">
+        <v>232</v>
+      </c>
+      <c r="F602">
+        <v>5</v>
+      </c>
+      <c r="H602" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="603" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A603">
+        <v>12</v>
+      </c>
+      <c r="B603" t="s">
+        <v>335</v>
+      </c>
+      <c r="C603" s="2">
+        <v>43431</v>
+      </c>
+      <c r="D603" t="s">
+        <v>590</v>
+      </c>
+      <c r="E603" t="s">
+        <v>232</v>
+      </c>
+      <c r="F603">
+        <v>5</v>
+      </c>
+      <c r="H603" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="604" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A604">
+        <v>3</v>
+      </c>
+      <c r="B604" t="s">
+        <v>334</v>
+      </c>
+      <c r="C604" s="2">
+        <v>43431</v>
+      </c>
+      <c r="D604" t="s">
+        <v>572</v>
+      </c>
+      <c r="E604" t="s">
+        <v>232</v>
+      </c>
+      <c r="F604">
+        <v>5</v>
+      </c>
+      <c r="H604" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="605" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A605">
+        <v>6</v>
+      </c>
+      <c r="B605" t="s">
+        <v>217</v>
+      </c>
+      <c r="C605" s="2">
+        <v>43431</v>
+      </c>
+      <c r="D605" t="s">
+        <v>592</v>
+      </c>
+      <c r="E605" t="s">
+        <v>232</v>
+      </c>
+      <c r="F605">
+        <v>5</v>
+      </c>
+      <c r="H605" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="606" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A606">
+        <v>5</v>
+      </c>
+      <c r="B606" t="s">
+        <v>217</v>
+      </c>
+      <c r="C606" s="2">
+        <v>43431</v>
+      </c>
+      <c r="D606" t="s">
+        <v>593</v>
+      </c>
+      <c r="E606" t="s">
+        <v>232</v>
+      </c>
+      <c r="F606">
+        <v>5</v>
+      </c>
+      <c r="H606" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="607" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A607">
+        <v>10</v>
+      </c>
+      <c r="B607" t="s">
+        <v>334</v>
+      </c>
+      <c r="C607" s="2">
+        <v>43432</v>
+      </c>
+      <c r="D607" t="s">
+        <v>594</v>
+      </c>
+      <c r="E607" t="s">
+        <v>232</v>
+      </c>
+      <c r="F607">
+        <v>5</v>
+      </c>
+      <c r="H607" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="608" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A608">
+        <v>19</v>
+      </c>
+      <c r="B608" t="s">
+        <v>340</v>
+      </c>
+      <c r="C608" s="2">
+        <v>43432</v>
+      </c>
+      <c r="D608" t="s">
+        <v>595</v>
+      </c>
+      <c r="E608" t="s">
+        <v>231</v>
+      </c>
+      <c r="F608">
+        <v>5</v>
+      </c>
+      <c r="H608" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="609" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A609">
+        <v>5.55</v>
+      </c>
+      <c r="B609" t="s">
+        <v>217</v>
+      </c>
+      <c r="C609" s="2">
+        <v>43432</v>
+      </c>
+      <c r="D609" t="s">
+        <v>596</v>
+      </c>
+      <c r="E609" t="s">
+        <v>231</v>
+      </c>
+      <c r="F609">
+        <v>4</v>
+      </c>
+      <c r="H609" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="610" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A610">
+        <v>0.9</v>
+      </c>
+      <c r="B610" t="s">
+        <v>217</v>
+      </c>
+      <c r="C610" s="2">
+        <v>43432</v>
+      </c>
+      <c r="D610" t="s">
+        <v>597</v>
+      </c>
+      <c r="E610" t="s">
+        <v>231</v>
+      </c>
+      <c r="F610">
+        <v>4</v>
+      </c>
+      <c r="H610" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="611" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A611">
+        <v>10.7</v>
+      </c>
+      <c r="B611" t="s">
+        <v>217</v>
+      </c>
+      <c r="C611" s="2">
+        <v>43432</v>
+      </c>
+      <c r="D611" t="s">
+        <v>598</v>
+      </c>
+      <c r="E611" t="s">
+        <v>231</v>
+      </c>
+      <c r="F611">
+        <v>5</v>
+      </c>
+      <c r="H611" t="s">
         <v>243</v>
       </c>
     </row>

--- a/DataBase/costs.xlsx
+++ b/DataBase/costs.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="45" windowWidth="18975" windowHeight="11760"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="costs" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2453" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2481" uniqueCount="603">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1811,17 +1811,29 @@
   </si>
   <si>
     <t>φαλάφελ project ultra menu</t>
+  </si>
+  <si>
+    <t>πίτσα μαργαρίτα στης Γεωργίας</t>
+  </si>
+  <si>
+    <t>vegeterian burger και moccarella sticks burger house</t>
+  </si>
+  <si>
+    <t>παγωτό με Πέτρο και Μιχάλη</t>
+  </si>
+  <si>
+    <t>Amaretti</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1862,7 +1874,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
     <dxf>
@@ -1954,7 +1966,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:I611" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:I619" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="9">
     <tableColumn id="1" name="amount" headerRowDxfId="9" totalsRowDxfId="8"/>
     <tableColumn id="11" name="type" totalsRowDxfId="7"/>
@@ -1971,7 +1983,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2013,7 +2025,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2045,10 +2057,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2080,7 +2091,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2256,14 +2266,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L611"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L618"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A600" workbookViewId="0">
-      <selection activeCell="A612" sqref="A612"/>
+    <sheetView tabSelected="1" topLeftCell="A606" workbookViewId="0">
+      <selection activeCell="D618" sqref="D618"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.28515625" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
@@ -2279,7 +2289,7 @@
     <col min="12" max="12" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>227</v>
       </c>
@@ -2308,7 +2318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2" s="5" t="s">
         <v>477</v>
       </c>
@@ -2334,7 +2344,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3" s="4">
         <v>20</v>
       </c>
@@ -2358,7 +2368,7 @@
       </c>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4" s="4">
         <v>10</v>
       </c>
@@ -2381,7 +2391,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5" s="4">
         <v>100</v>
       </c>
@@ -2404,7 +2414,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="A6" s="4">
         <v>10</v>
       </c>
@@ -2427,7 +2437,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="A7" s="4">
         <v>50</v>
       </c>
@@ -2450,7 +2460,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="A8" s="4">
         <v>3.2</v>
       </c>
@@ -2473,7 +2483,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="A9" s="4">
         <v>1.3</v>
       </c>
@@ -2496,7 +2506,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="A10" s="4">
         <v>1.2</v>
       </c>
@@ -2519,7 +2529,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="A11" s="4">
         <v>5</v>
       </c>
@@ -2542,7 +2552,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12">
       <c r="A12" s="4">
         <v>4.5</v>
       </c>
@@ -2565,7 +2575,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12">
       <c r="A13" s="4">
         <v>4</v>
       </c>
@@ -2588,7 +2598,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12">
       <c r="A14" s="4">
         <v>10.6</v>
       </c>
@@ -2611,7 +2621,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12">
       <c r="A15" s="4">
         <v>1.8</v>
       </c>
@@ -2634,7 +2644,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12">
       <c r="A16" s="4">
         <v>5.15</v>
       </c>
@@ -2657,7 +2667,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" s="4">
         <v>18</v>
       </c>
@@ -2680,7 +2690,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" s="4">
         <v>1.5</v>
       </c>
@@ -2703,7 +2713,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" s="4">
         <v>7.8</v>
       </c>
@@ -2726,7 +2736,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" s="4">
         <v>4.4400000000000004</v>
       </c>
@@ -2749,7 +2759,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21" s="4">
         <v>1.5</v>
       </c>
@@ -2772,7 +2782,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22" s="4">
         <v>8.84</v>
       </c>
@@ -2795,7 +2805,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23" s="4">
         <v>4</v>
       </c>
@@ -2818,7 +2828,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="A24" s="4">
         <v>10</v>
       </c>
@@ -2841,7 +2851,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="A25" s="4">
         <v>1.8</v>
       </c>
@@ -2864,7 +2874,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="A26" s="4">
         <v>11.8</v>
       </c>
@@ -2887,7 +2897,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="A27" s="4">
         <v>40</v>
       </c>
@@ -2910,7 +2920,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="A28" s="4">
         <v>2.9</v>
       </c>
@@ -2933,7 +2943,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="A29" s="4">
         <v>4.3</v>
       </c>
@@ -2956,7 +2966,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="A30" s="4">
         <v>3.35</v>
       </c>
@@ -2979,7 +2989,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="A31" s="4">
         <v>5.2</v>
       </c>
@@ -3002,7 +3012,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="A32" s="4">
         <v>15</v>
       </c>
@@ -3025,7 +3035,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="A33" s="4">
         <v>3.9</v>
       </c>
@@ -3048,7 +3058,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="A34" s="4">
         <v>63.45</v>
       </c>
@@ -3071,7 +3081,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="A35" s="4">
         <v>49.9</v>
       </c>
@@ -3094,7 +3104,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="A36" s="4">
         <v>140</v>
       </c>
@@ -3117,7 +3127,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="A37" s="4">
         <v>1.8</v>
       </c>
@@ -3140,7 +3150,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="A38" s="4">
         <v>13.02</v>
       </c>
@@ -3163,7 +3173,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="A39" s="4">
         <v>4.7</v>
       </c>
@@ -3186,7 +3196,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="A40" s="4">
         <v>15.96</v>
       </c>
@@ -3209,7 +3219,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="A41" s="4">
         <v>9.8000000000000007</v>
       </c>
@@ -3232,7 +3242,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="A42" s="4">
         <v>79.8</v>
       </c>
@@ -3255,7 +3265,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="A43" s="4">
         <v>11.9</v>
       </c>
@@ -3278,7 +3288,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="A44" s="4">
         <v>38.880000000000003</v>
       </c>
@@ -3301,7 +3311,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8">
       <c r="A45" s="4">
         <v>7.75</v>
       </c>
@@ -3324,7 +3334,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="A46" s="4">
         <v>0.79</v>
       </c>
@@ -3347,7 +3357,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="A47" s="4">
         <v>10</v>
       </c>
@@ -3370,7 +3380,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8">
       <c r="A48" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -3393,7 +3403,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11">
       <c r="A49" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -3416,7 +3426,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11">
       <c r="A50" s="4">
         <v>1.8</v>
       </c>
@@ -3439,7 +3449,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11">
       <c r="A51" s="4">
         <v>24</v>
       </c>
@@ -3462,7 +3472,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11">
       <c r="A52" s="4">
         <v>24</v>
       </c>
@@ -3485,7 +3495,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11">
       <c r="A53" s="4">
         <v>1.8</v>
       </c>
@@ -3508,7 +3518,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11">
       <c r="A54" s="4">
         <v>3.5</v>
       </c>
@@ -3531,7 +3541,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11">
       <c r="A55" s="4">
         <v>5.6</v>
       </c>
@@ -3555,7 +3565,7 @@
       </c>
       <c r="K55" s="4"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11">
       <c r="A56" s="4">
         <v>1.5</v>
       </c>
@@ -3578,7 +3588,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11">
       <c r="A57" s="4">
         <v>3</v>
       </c>
@@ -3601,7 +3611,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11">
       <c r="A58" s="4">
         <v>5.4</v>
       </c>
@@ -3624,7 +3634,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11">
       <c r="A59" s="4">
         <v>8</v>
       </c>
@@ -3647,7 +3657,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11">
       <c r="A60" s="4">
         <v>5.4</v>
       </c>
@@ -3670,7 +3680,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11">
       <c r="A61" s="4">
         <v>0.6</v>
       </c>
@@ -3693,7 +3703,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11">
       <c r="A62" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -3716,7 +3726,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11">
       <c r="A63" s="4">
         <v>1.5</v>
       </c>
@@ -3739,7 +3749,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11">
       <c r="A64" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -3762,7 +3772,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11">
       <c r="A65" s="4">
         <v>1.2</v>
       </c>
@@ -3785,7 +3795,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11">
       <c r="A66" s="4">
         <v>5.0999999999999996</v>
       </c>
@@ -3808,7 +3818,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11">
       <c r="A67" s="4">
         <v>13.5</v>
       </c>
@@ -3831,7 +3841,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11">
       <c r="A68" s="4">
         <v>3.5</v>
       </c>
@@ -3855,7 +3865,7 @@
       </c>
       <c r="K68" s="4"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11">
       <c r="A69" s="4">
         <v>4.0999999999999996</v>
       </c>
@@ -3878,7 +3888,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11">
       <c r="A70" s="4">
         <v>90</v>
       </c>
@@ -3901,7 +3911,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11">
       <c r="A71" s="4">
         <v>65.5</v>
       </c>
@@ -3924,7 +3934,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11">
       <c r="A72" s="4">
         <v>4.5</v>
       </c>
@@ -3947,7 +3957,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11">
       <c r="A73" s="4">
         <v>10</v>
       </c>
@@ -3970,7 +3980,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11">
       <c r="A74" s="4">
         <v>18.8</v>
       </c>
@@ -3993,7 +4003,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11">
       <c r="A75" s="4">
         <v>1.8</v>
       </c>
@@ -4017,7 +4027,7 @@
       </c>
       <c r="K75" s="4"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11">
       <c r="A76" s="4">
         <v>5.5</v>
       </c>
@@ -4040,7 +4050,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11">
       <c r="A77" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -4063,7 +4073,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11">
       <c r="A78" s="4">
         <v>3</v>
       </c>
@@ -4086,7 +4096,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11">
       <c r="A79" s="4">
         <v>2</v>
       </c>
@@ -4109,7 +4119,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11">
       <c r="A80" s="4">
         <v>9.9</v>
       </c>
@@ -4132,7 +4142,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8">
       <c r="A81" s="4">
         <v>6.5</v>
       </c>
@@ -4155,7 +4165,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8">
       <c r="A82" s="4">
         <v>79.8</v>
       </c>
@@ -4178,7 +4188,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8">
       <c r="A83" s="4">
         <v>10</v>
       </c>
@@ -4201,7 +4211,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8">
       <c r="A84" s="4">
         <v>2.5</v>
       </c>
@@ -4224,7 +4234,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8">
       <c r="A85" s="4">
         <v>5</v>
       </c>
@@ -4247,7 +4257,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8">
       <c r="A86" s="4">
         <v>1.6</v>
       </c>
@@ -4270,7 +4280,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8">
       <c r="A87" s="4">
         <v>5.5</v>
       </c>
@@ -4293,7 +4303,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8">
       <c r="A88" s="4">
         <v>0.8</v>
       </c>
@@ -4316,7 +4326,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8">
       <c r="A89" s="4">
         <v>17</v>
       </c>
@@ -4339,7 +4349,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8">
       <c r="A90" s="4">
         <v>24.9</v>
       </c>
@@ -4362,7 +4372,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8">
       <c r="A91" s="4">
         <v>1.8</v>
       </c>
@@ -4385,7 +4395,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8">
       <c r="A92" s="4">
         <v>44.99</v>
       </c>
@@ -4408,7 +4418,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8">
       <c r="A93" s="4">
         <v>4</v>
       </c>
@@ -4431,7 +4441,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8">
       <c r="A94" s="4">
         <v>5</v>
       </c>
@@ -4454,7 +4464,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8">
       <c r="A95" s="4">
         <v>5</v>
       </c>
@@ -4477,7 +4487,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8">
       <c r="A96" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -4500,7 +4510,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8">
       <c r="A97" s="4">
         <v>3</v>
       </c>
@@ -4523,7 +4533,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8">
       <c r="A98" s="4">
         <v>6</v>
       </c>
@@ -4546,7 +4556,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8">
       <c r="A99" s="4">
         <v>3.5</v>
       </c>
@@ -4569,7 +4579,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8">
       <c r="A100" s="4">
         <v>34.9</v>
       </c>
@@ -4592,7 +4602,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8">
       <c r="A101" s="4">
         <v>12</v>
       </c>
@@ -4615,7 +4625,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8">
       <c r="A102" s="4">
         <v>5</v>
       </c>
@@ -4638,7 +4648,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8">
       <c r="A103" s="4">
         <v>6.9</v>
       </c>
@@ -4661,7 +4671,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8">
       <c r="A104" s="4">
         <v>6.04</v>
       </c>
@@ -4684,7 +4694,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8">
       <c r="A105" s="4">
         <v>4.8</v>
       </c>
@@ -4707,7 +4717,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8">
       <c r="A106" s="4">
         <v>9.6999999999999993</v>
       </c>
@@ -4730,7 +4740,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8">
       <c r="A107" s="4">
         <v>5.5</v>
       </c>
@@ -4753,7 +4763,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8">
       <c r="A108" s="4">
         <v>7</v>
       </c>
@@ -4776,7 +4786,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8">
       <c r="A109" s="4">
         <v>1</v>
       </c>
@@ -4799,7 +4809,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8">
       <c r="A110" s="4">
         <v>4</v>
       </c>
@@ -4822,7 +4832,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8">
       <c r="A111" s="4">
         <v>4.0999999999999996</v>
       </c>
@@ -4845,7 +4855,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8">
       <c r="A112" s="4">
         <v>2.3199999999999998</v>
       </c>
@@ -4868,7 +4878,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8">
       <c r="A113" s="4">
         <v>8</v>
       </c>
@@ -4891,7 +4901,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8">
       <c r="A114" s="4">
         <v>12.5</v>
       </c>
@@ -4914,7 +4924,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8">
       <c r="A115" s="4">
         <v>0.7</v>
       </c>
@@ -4937,7 +4947,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8">
       <c r="A116" s="4">
         <v>6.3</v>
       </c>
@@ -4960,7 +4970,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8">
       <c r="A117" s="4">
         <v>8</v>
       </c>
@@ -4983,7 +4993,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8">
       <c r="A118" s="4">
         <v>5.0999999999999996</v>
       </c>
@@ -5006,7 +5016,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8">
       <c r="A119" s="4">
         <v>8</v>
       </c>
@@ -5029,7 +5039,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8">
       <c r="A120" s="4">
         <v>4.5</v>
       </c>
@@ -5052,7 +5062,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8">
       <c r="A121" s="4">
         <v>2.5</v>
       </c>
@@ -5075,7 +5085,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8">
       <c r="A122" s="4">
         <v>24.3</v>
       </c>
@@ -5098,7 +5108,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8">
       <c r="A123" s="4">
         <v>2</v>
       </c>
@@ -5121,7 +5131,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8">
       <c r="A124" s="4">
         <v>16</v>
       </c>
@@ -5144,7 +5154,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8">
       <c r="A125" s="4">
         <v>6</v>
       </c>
@@ -5167,7 +5177,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8">
       <c r="A126" s="4">
         <v>5</v>
       </c>
@@ -5190,7 +5200,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8">
       <c r="A127" s="4">
         <v>6.52</v>
       </c>
@@ -5213,7 +5223,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8">
       <c r="A128" s="4">
         <v>1.8</v>
       </c>
@@ -5236,7 +5246,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8">
       <c r="A129" s="4">
         <v>1</v>
       </c>
@@ -5259,7 +5269,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8">
       <c r="A130" s="4">
         <v>5</v>
       </c>
@@ -5282,7 +5292,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8">
       <c r="A131" s="4">
         <v>43</v>
       </c>
@@ -5305,7 +5315,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8">
       <c r="A132" s="4">
         <v>10</v>
       </c>
@@ -5328,7 +5338,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8">
       <c r="A133" s="4">
         <v>2.97</v>
       </c>
@@ -5351,7 +5361,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8">
       <c r="A134" s="4">
         <v>10</v>
       </c>
@@ -5374,7 +5384,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8">
       <c r="A135" s="4">
         <v>1.6</v>
       </c>
@@ -5397,7 +5407,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8">
       <c r="A136" s="4">
         <v>1.5</v>
       </c>
@@ -5420,7 +5430,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8">
       <c r="A137" s="4">
         <v>1.8</v>
       </c>
@@ -5443,7 +5453,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8">
       <c r="A138" s="4">
         <v>7.3</v>
       </c>
@@ -5466,7 +5476,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8">
       <c r="A139" s="4">
         <v>4</v>
       </c>
@@ -5489,7 +5499,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8">
       <c r="A140" s="4">
         <v>2.1</v>
       </c>
@@ -5512,7 +5522,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8">
       <c r="A141" s="4">
         <v>4.2</v>
       </c>
@@ -5535,7 +5545,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8">
       <c r="A142" s="4">
         <v>9</v>
       </c>
@@ -5558,7 +5568,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8">
       <c r="A143" s="4">
         <v>1</v>
       </c>
@@ -5581,7 +5591,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8">
       <c r="A144" s="4">
         <v>3.5</v>
       </c>
@@ -5604,7 +5614,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8">
       <c r="A145" s="4">
         <v>5.0999999999999996</v>
       </c>
@@ -5627,7 +5637,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8">
       <c r="A146" s="4">
         <v>3</v>
       </c>
@@ -5650,7 +5660,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8">
       <c r="A147" s="4">
         <v>2</v>
       </c>
@@ -5673,7 +5683,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8">
       <c r="A148" s="4">
         <v>150</v>
       </c>
@@ -5696,7 +5706,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8">
       <c r="A149" s="4">
         <v>7</v>
       </c>
@@ -5719,7 +5729,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8">
       <c r="A150" s="4">
         <v>5</v>
       </c>
@@ -5742,7 +5752,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8">
       <c r="A151" s="4">
         <v>8</v>
       </c>
@@ -5765,7 +5775,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8">
       <c r="A152" s="4">
         <v>3.5</v>
       </c>
@@ -5788,7 +5798,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8">
       <c r="A153" s="4">
         <v>55</v>
       </c>
@@ -5811,7 +5821,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8">
       <c r="A154" s="4">
         <v>0.6</v>
       </c>
@@ -5834,7 +5844,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8">
       <c r="A155" s="4">
         <v>4</v>
       </c>
@@ -5857,7 +5867,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8">
       <c r="A156" s="4">
         <v>39.9</v>
       </c>
@@ -5880,7 +5890,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8">
       <c r="A157" s="4">
         <v>1.6</v>
       </c>
@@ -5903,7 +5913,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8">
       <c r="A158" s="4">
         <v>80</v>
       </c>
@@ -5926,7 +5936,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8">
       <c r="A159" s="4">
         <v>6.2</v>
       </c>
@@ -5949,7 +5959,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8">
       <c r="A160" s="4">
         <v>15</v>
       </c>
@@ -5972,7 +5982,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8">
       <c r="A161" s="4">
         <v>4.3</v>
       </c>
@@ -5995,7 +6005,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8">
       <c r="A162" s="4">
         <v>9.6999999999999993</v>
       </c>
@@ -6018,7 +6028,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8">
       <c r="A163" s="4">
         <v>2.4500000000000002</v>
       </c>
@@ -6041,7 +6051,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8">
       <c r="A164" s="4">
         <v>1.96</v>
       </c>
@@ -6064,7 +6074,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8">
       <c r="A165" s="4">
         <v>11.5</v>
       </c>
@@ -6087,7 +6097,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8">
       <c r="A166" s="4">
         <v>2.7</v>
       </c>
@@ -6110,7 +6120,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8">
       <c r="A167" s="4">
         <v>2.7</v>
       </c>
@@ -6133,7 +6143,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8">
       <c r="A168" s="4">
         <v>7</v>
       </c>
@@ -6156,7 +6166,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8">
       <c r="A169" s="4">
         <v>4.8</v>
       </c>
@@ -6179,7 +6189,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8">
       <c r="A170" s="4">
         <v>4.4000000000000004</v>
       </c>
@@ -6202,7 +6212,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8">
       <c r="A171" s="4">
         <v>3.8</v>
       </c>
@@ -6225,7 +6235,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8">
       <c r="A172" s="4">
         <v>1.5</v>
       </c>
@@ -6248,7 +6258,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8">
       <c r="A173" s="4">
         <v>11.5</v>
       </c>
@@ -6271,7 +6281,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8">
       <c r="A174" s="4">
         <v>4.4000000000000004</v>
       </c>
@@ -6294,7 +6304,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8">
       <c r="A175" s="4">
         <v>6.5</v>
       </c>
@@ -6317,7 +6327,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8">
       <c r="A176" s="4">
         <v>6.5</v>
       </c>
@@ -6340,7 +6350,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8">
       <c r="A177" s="4">
         <v>5</v>
       </c>
@@ -6363,7 +6373,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8">
       <c r="A178" s="4">
         <v>6</v>
       </c>
@@ -6386,7 +6396,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8">
       <c r="A179" s="4">
         <v>8</v>
       </c>
@@ -6409,7 +6419,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8">
       <c r="A180" s="4">
         <v>3.2</v>
       </c>
@@ -6432,7 +6442,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8">
       <c r="A181" s="4">
         <v>10</v>
       </c>
@@ -6455,7 +6465,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8">
       <c r="A182" s="4">
         <v>3</v>
       </c>
@@ -6478,7 +6488,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8">
       <c r="A183" s="4">
         <v>10</v>
       </c>
@@ -6501,7 +6511,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8">
       <c r="A184" s="4">
         <v>3.5</v>
       </c>
@@ -6524,7 +6534,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8">
       <c r="A185" s="4">
         <v>10</v>
       </c>
@@ -6547,7 +6557,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8">
       <c r="A186" s="4">
         <v>8</v>
       </c>
@@ -6570,7 +6580,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8">
       <c r="A187" s="4">
         <v>6.2</v>
       </c>
@@ -6593,7 +6603,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8">
       <c r="A188" s="4">
         <v>2</v>
       </c>
@@ -6616,7 +6626,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8">
       <c r="A189" s="4">
         <v>10</v>
       </c>
@@ -6639,7 +6649,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8">
       <c r="A190" s="4">
         <v>22</v>
       </c>
@@ -6662,7 +6672,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8">
       <c r="A191" s="4">
         <v>14</v>
       </c>
@@ -6685,7 +6695,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8">
       <c r="A192" s="4">
         <v>14</v>
       </c>
@@ -6708,7 +6718,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8">
       <c r="A193" s="4">
         <v>4.7</v>
       </c>
@@ -6731,7 +6741,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8">
       <c r="A194" s="4">
         <v>69.900000000000006</v>
       </c>
@@ -6754,7 +6764,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8">
       <c r="A195" s="4">
         <v>8.4</v>
       </c>
@@ -6777,7 +6787,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8">
       <c r="A196" s="4">
         <v>5</v>
       </c>
@@ -6800,7 +6810,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8">
       <c r="A197" s="4">
         <v>4.5</v>
       </c>
@@ -6823,7 +6833,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8">
       <c r="A198" s="4">
         <v>6</v>
       </c>
@@ -6846,7 +6856,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8">
       <c r="A199" s="4">
         <v>5.46</v>
       </c>
@@ -6869,7 +6879,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8">
       <c r="A200" s="4">
         <v>78.849999999999994</v>
       </c>
@@ -6892,7 +6902,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8">
       <c r="A201" s="4">
         <v>10</v>
       </c>
@@ -6915,7 +6925,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8">
       <c r="A202" s="4">
         <v>10</v>
       </c>
@@ -6938,7 +6948,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8">
       <c r="A203" s="4">
         <v>26</v>
       </c>
@@ -6961,7 +6971,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8">
       <c r="A204" s="4">
         <v>2</v>
       </c>
@@ -6984,7 +6994,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8">
       <c r="A205" s="4">
         <v>2.5</v>
       </c>
@@ -7007,7 +7017,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8">
       <c r="A206" s="4">
         <v>5.9</v>
       </c>
@@ -7030,7 +7040,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8">
       <c r="A207" s="4">
         <v>8.6</v>
       </c>
@@ -7053,7 +7063,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8">
       <c r="A208" s="4">
         <v>2.7</v>
       </c>
@@ -7076,7 +7086,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8">
       <c r="A209" s="4">
         <v>4.8</v>
       </c>
@@ -7099,7 +7109,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8">
       <c r="A210" s="4">
         <v>2.8</v>
       </c>
@@ -7122,7 +7132,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8">
       <c r="A211" s="4">
         <v>2</v>
       </c>
@@ -7145,7 +7155,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8">
       <c r="A212" s="4">
         <v>5</v>
       </c>
@@ -7168,7 +7178,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8">
       <c r="A213" s="4">
         <v>2.5</v>
       </c>
@@ -7191,7 +7201,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8">
       <c r="A214" s="4">
         <v>3.5</v>
       </c>
@@ -7214,7 +7224,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8">
       <c r="A215" s="4">
         <v>1.8</v>
       </c>
@@ -7237,7 +7247,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8">
       <c r="A216" s="4">
         <v>4</v>
       </c>
@@ -7260,7 +7270,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8">
       <c r="A217" s="4">
         <v>6</v>
       </c>
@@ -7283,7 +7293,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8">
       <c r="A218" s="4">
         <v>1.8</v>
       </c>
@@ -7306,7 +7316,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8">
       <c r="A219" s="4">
         <v>5</v>
       </c>
@@ -7329,7 +7339,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8">
       <c r="A220" s="4">
         <v>5</v>
       </c>
@@ -7352,7 +7362,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8">
       <c r="A221" s="4">
         <v>4.7</v>
       </c>
@@ -7375,7 +7385,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8">
       <c r="A222" s="4">
         <v>5</v>
       </c>
@@ -7398,7 +7408,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8">
       <c r="A223" s="4">
         <v>10</v>
       </c>
@@ -7421,7 +7431,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8">
       <c r="A224" s="4">
         <v>1.5</v>
       </c>
@@ -7444,7 +7454,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8">
       <c r="A225" s="4">
         <v>129</v>
       </c>
@@ -7467,7 +7477,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8">
       <c r="A226" s="4">
         <v>7</v>
       </c>
@@ -7490,7 +7500,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8">
       <c r="A227" s="4">
         <v>2.8</v>
       </c>
@@ -7513,7 +7523,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8">
       <c r="A228" s="4">
         <v>1</v>
       </c>
@@ -7536,7 +7546,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8">
       <c r="A229" s="4">
         <v>4</v>
       </c>
@@ -7559,7 +7569,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8">
       <c r="A230" s="4">
         <v>50</v>
       </c>
@@ -7582,7 +7592,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8">
       <c r="A231" s="4">
         <v>7.2</v>
       </c>
@@ -7605,7 +7615,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8">
       <c r="A232" s="4">
         <v>1</v>
       </c>
@@ -7628,7 +7638,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:8">
       <c r="A233" s="4">
         <v>7</v>
       </c>
@@ -7651,7 +7661,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8">
       <c r="A234" s="4">
         <v>1.1000000000000001</v>
       </c>
@@ -7674,7 +7684,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8">
       <c r="A235" s="4">
         <v>7</v>
       </c>
@@ -7697,7 +7707,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8">
       <c r="A236" s="4">
         <v>15</v>
       </c>
@@ -7720,7 +7730,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8">
       <c r="A237" s="4">
         <v>3</v>
       </c>
@@ -7743,7 +7753,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:8">
       <c r="A238" s="4">
         <v>11.2</v>
       </c>
@@ -7766,7 +7776,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8">
       <c r="A239" s="4">
         <v>2.1</v>
       </c>
@@ -7789,7 +7799,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8">
       <c r="A240" s="4">
         <v>150</v>
       </c>
@@ -7812,7 +7822,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8">
       <c r="A241" s="4">
         <v>12.7</v>
       </c>
@@ -7835,7 +7845,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8">
       <c r="A242" s="4">
         <v>89.9</v>
       </c>
@@ -7858,7 +7868,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8">
       <c r="A243" s="4">
         <v>4.4000000000000004</v>
       </c>
@@ -7881,7 +7891,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8">
       <c r="A244" s="4">
         <v>4.2</v>
       </c>
@@ -7904,7 +7914,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8">
       <c r="A245" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -7927,7 +7937,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8">
       <c r="A246" s="4">
         <v>5</v>
       </c>
@@ -7950,7 +7960,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8">
       <c r="A247" s="4">
         <v>5</v>
       </c>
@@ -7973,7 +7983,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8">
       <c r="A248" s="4">
         <v>3.9</v>
       </c>
@@ -7996,7 +8006,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8">
       <c r="A249" s="4">
         <v>0.5</v>
       </c>
@@ -8019,7 +8029,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8">
       <c r="A250" s="4">
         <v>2.4</v>
       </c>
@@ -8042,7 +8052,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8">
       <c r="A251" s="4">
         <v>2</v>
       </c>
@@ -8065,7 +8075,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8">
       <c r="A252" s="4">
         <v>4.7</v>
       </c>
@@ -8088,7 +8098,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8">
       <c r="A253" s="4">
         <v>5.3</v>
       </c>
@@ -8111,7 +8121,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8">
       <c r="A254" s="4">
         <v>4.2</v>
       </c>
@@ -8134,7 +8144,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8">
       <c r="A255" s="4">
         <v>5</v>
       </c>
@@ -8157,7 +8167,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8">
       <c r="A256" s="4">
         <v>2.5</v>
       </c>
@@ -8180,7 +8190,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8">
       <c r="A257" s="4">
         <v>3.3</v>
       </c>
@@ -8203,7 +8213,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8">
       <c r="A258" s="4">
         <v>5.6</v>
       </c>
@@ -8226,7 +8236,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8">
       <c r="A259" s="4">
         <v>4</v>
       </c>
@@ -8249,7 +8259,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8">
       <c r="A260" s="4">
         <v>10.199999999999999</v>
       </c>
@@ -8272,7 +8282,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8">
       <c r="A261" s="4">
         <v>8</v>
       </c>
@@ -8295,7 +8305,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8">
       <c r="A262" s="4">
         <v>2.1</v>
       </c>
@@ -8318,7 +8328,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8">
       <c r="A263" s="4">
         <v>3.7</v>
       </c>
@@ -8341,7 +8351,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8">
       <c r="A264" s="4">
         <v>7</v>
       </c>
@@ -8364,7 +8374,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8">
       <c r="A265" s="4">
         <v>13.5</v>
       </c>
@@ -8387,7 +8397,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8">
       <c r="A266" s="4">
         <v>5</v>
       </c>
@@ -8410,7 +8420,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8">
       <c r="A267" s="4">
         <v>20</v>
       </c>
@@ -8433,7 +8443,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8">
       <c r="A268" s="4">
         <v>6</v>
       </c>
@@ -8456,7 +8466,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:8">
       <c r="A269" s="4">
         <v>0.5</v>
       </c>
@@ -8479,7 +8489,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:8">
       <c r="A270" s="4">
         <v>5</v>
       </c>
@@ -8502,7 +8512,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8">
       <c r="A271" s="4">
         <v>11</v>
       </c>
@@ -8525,7 +8535,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:8">
       <c r="A272" s="4">
         <v>8.8000000000000007</v>
       </c>
@@ -8548,7 +8558,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8">
       <c r="A273" s="4">
         <v>0.5</v>
       </c>
@@ -8571,7 +8581,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8">
       <c r="A274" s="4">
         <v>5</v>
       </c>
@@ -8594,7 +8604,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8">
       <c r="A275" s="4">
         <v>10</v>
       </c>
@@ -8617,7 +8627,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8">
       <c r="A276" s="4">
         <v>15</v>
       </c>
@@ -8640,7 +8650,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:8">
       <c r="A277" s="4">
         <v>10</v>
       </c>
@@ -8663,7 +8673,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:8">
       <c r="A278" s="4">
         <v>11.9</v>
       </c>
@@ -8686,7 +8696,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:8">
       <c r="A279" s="4">
         <v>7</v>
       </c>
@@ -8709,7 +8719,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:8">
       <c r="A280" s="4">
         <v>5.0999999999999996</v>
       </c>
@@ -8732,7 +8742,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:8">
       <c r="A281">
         <v>1.9</v>
       </c>
@@ -8755,7 +8765,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8">
       <c r="A282">
         <v>119.9</v>
       </c>
@@ -8778,7 +8788,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:8">
       <c r="A283">
         <v>6.3</v>
       </c>
@@ -8801,7 +8811,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:8">
       <c r="A284">
         <v>3.5</v>
       </c>
@@ -8824,7 +8834,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:8">
       <c r="A285">
         <v>1.5</v>
       </c>
@@ -8847,7 +8857,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8">
       <c r="A286">
         <v>1.9</v>
       </c>
@@ -8870,7 +8880,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:8">
       <c r="A287">
         <v>4.5</v>
       </c>
@@ -8893,7 +8903,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:8">
       <c r="A288">
         <v>6.4</v>
       </c>
@@ -8916,7 +8926,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:8">
       <c r="A289">
         <v>1.9</v>
       </c>
@@ -8939,7 +8949,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:8">
       <c r="A290">
         <v>10.6</v>
       </c>
@@ -8962,7 +8972,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:8">
       <c r="A291">
         <v>4.5</v>
       </c>
@@ -8985,7 +8995,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:8">
       <c r="A292">
         <v>22.2</v>
       </c>
@@ -9008,7 +9018,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:8">
       <c r="A293" s="6">
         <v>25</v>
       </c>
@@ -9031,7 +9041,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:8">
       <c r="A294" s="6">
         <v>3.5</v>
       </c>
@@ -9054,7 +9064,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:8">
       <c r="A295">
         <v>4</v>
       </c>
@@ -9077,7 +9087,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:8">
       <c r="A296">
         <v>2.2000000000000002</v>
       </c>
@@ -9100,7 +9110,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:8">
       <c r="A297">
         <v>11.5</v>
       </c>
@@ -9123,7 +9133,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:8">
       <c r="A298">
         <v>6.3</v>
       </c>
@@ -9146,7 +9156,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:8">
       <c r="A299">
         <v>3.6</v>
       </c>
@@ -9169,7 +9179,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:8">
       <c r="A300">
         <v>15</v>
       </c>
@@ -9192,7 +9202,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:8">
       <c r="A301">
         <v>2</v>
       </c>
@@ -9215,7 +9225,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:8">
       <c r="A302">
         <v>4.5</v>
       </c>
@@ -9238,7 +9248,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:8">
       <c r="A303">
         <v>2.9</v>
       </c>
@@ -9261,7 +9271,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:8">
       <c r="A304">
         <v>3.9</v>
       </c>
@@ -9284,7 +9294,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:8">
       <c r="A305">
         <v>1.7</v>
       </c>
@@ -9307,7 +9317,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:8">
       <c r="A306">
         <v>10</v>
       </c>
@@ -9330,7 +9340,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:8">
       <c r="A307">
         <v>7.5</v>
       </c>
@@ -9353,7 +9363,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:8">
       <c r="A308">
         <v>10.050000000000001</v>
       </c>
@@ -9376,7 +9386,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:8">
       <c r="A309">
         <v>5</v>
       </c>
@@ -9399,7 +9409,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:8">
       <c r="A310">
         <v>3</v>
       </c>
@@ -9422,7 +9432,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:8">
       <c r="A311">
         <v>2</v>
       </c>
@@ -9445,7 +9455,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:8">
       <c r="A312">
         <v>10.6</v>
       </c>
@@ -9468,7 +9478,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:8">
       <c r="A313">
         <v>4</v>
       </c>
@@ -9491,7 +9501,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:8">
       <c r="A314">
         <v>2</v>
       </c>
@@ -9514,7 +9524,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:8">
       <c r="A315">
         <v>5.8</v>
       </c>
@@ -9537,7 +9547,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:8">
       <c r="A316">
         <v>5</v>
       </c>
@@ -9560,7 +9570,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:8">
       <c r="A317">
         <v>6.55</v>
       </c>
@@ -9583,7 +9593,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:8">
       <c r="A318">
         <v>2.8</v>
       </c>
@@ -9606,7 +9616,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:8">
       <c r="A319">
         <v>3.8</v>
       </c>
@@ -9629,7 +9639,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:8">
       <c r="A320">
         <v>9</v>
       </c>
@@ -9652,7 +9662,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:8">
       <c r="A321">
         <v>8</v>
       </c>
@@ -9675,7 +9685,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:8">
       <c r="A322">
         <v>1.5</v>
       </c>
@@ -9698,7 +9708,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:8">
       <c r="A323">
         <v>5</v>
       </c>
@@ -9721,7 +9731,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:8">
       <c r="A324">
         <v>4.5999999999999996</v>
       </c>
@@ -9744,7 +9754,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:8">
       <c r="A325">
         <v>0.5</v>
       </c>
@@ -9767,7 +9777,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:8">
       <c r="A326">
         <v>2.95</v>
       </c>
@@ -9790,7 +9800,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:8">
       <c r="A327">
         <v>3.8</v>
       </c>
@@ -9813,7 +9823,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:8">
       <c r="A328">
         <v>10</v>
       </c>
@@ -9836,7 +9846,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:8">
       <c r="A329">
         <v>3.85</v>
       </c>
@@ -9859,7 +9869,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:8">
       <c r="A330">
         <v>1.2</v>
       </c>
@@ -9882,7 +9892,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:8">
       <c r="A331">
         <v>2</v>
       </c>
@@ -9905,7 +9915,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:8">
       <c r="A332">
         <v>8.5</v>
       </c>
@@ -9928,7 +9938,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:8">
       <c r="A333">
         <v>4.9000000000000004</v>
       </c>
@@ -9951,7 +9961,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:8">
       <c r="A334">
         <v>10</v>
       </c>
@@ -9974,7 +9984,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:8">
       <c r="A335">
         <v>350</v>
       </c>
@@ -9997,7 +10007,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:8">
       <c r="A336">
         <v>4.4000000000000004</v>
       </c>
@@ -10020,7 +10030,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:8">
       <c r="A337">
         <v>3.2</v>
       </c>
@@ -10043,7 +10053,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:8">
       <c r="A338">
         <v>3.8</v>
       </c>
@@ -10066,7 +10076,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:8">
       <c r="A339">
         <v>0.9</v>
       </c>
@@ -10089,7 +10099,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:8">
       <c r="A340">
         <v>6</v>
       </c>
@@ -10112,7 +10122,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:8">
       <c r="A341">
         <v>3.8</v>
       </c>
@@ -10135,7 +10145,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:8">
       <c r="A342">
         <v>2</v>
       </c>
@@ -10158,7 +10168,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:8">
       <c r="A343">
         <v>5.5</v>
       </c>
@@ -10181,7 +10191,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:8">
       <c r="A344">
         <v>43.22</v>
       </c>
@@ -10204,7 +10214,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:8">
       <c r="A345">
         <v>2</v>
       </c>
@@ -10227,7 +10237,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:8">
       <c r="A346">
         <v>7</v>
       </c>
@@ -10250,7 +10260,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:8">
       <c r="A347">
         <v>1.61</v>
       </c>
@@ -10273,7 +10283,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:8">
       <c r="A348">
         <v>20</v>
       </c>
@@ -10296,7 +10306,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:8">
       <c r="A349">
         <v>14.84</v>
       </c>
@@ -10319,7 +10329,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:8">
       <c r="A350">
         <v>5.6</v>
       </c>
@@ -10342,7 +10352,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:8">
       <c r="A351">
         <v>6.8</v>
       </c>
@@ -10365,7 +10375,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:8">
       <c r="A352">
         <v>7.7</v>
       </c>
@@ -10388,7 +10398,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="353" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:12">
       <c r="A353">
         <v>29.4</v>
       </c>
@@ -10411,7 +10421,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:12">
       <c r="A354">
         <v>0.5</v>
       </c>
@@ -10434,7 +10444,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:12">
       <c r="A355">
         <v>2.2000000000000002</v>
       </c>
@@ -10457,7 +10467,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:12">
       <c r="A356">
         <v>3.5</v>
       </c>
@@ -10480,7 +10490,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="357" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:12">
       <c r="A357">
         <v>4.4000000000000004</v>
       </c>
@@ -10503,7 +10513,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="358" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:12">
       <c r="A358">
         <v>5.7</v>
       </c>
@@ -10526,7 +10536,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="359" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:12">
       <c r="A359">
         <v>7.74</v>
       </c>
@@ -10549,7 +10559,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="360" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:12">
       <c r="A360">
         <v>7</v>
       </c>
@@ -10572,7 +10582,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="361" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:12">
       <c r="A361">
         <v>3.8</v>
       </c>
@@ -10595,7 +10605,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="362" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:12">
       <c r="A362">
         <v>100</v>
       </c>
@@ -10618,7 +10628,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="363" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:12">
       <c r="A363" s="1">
         <v>5</v>
       </c>
@@ -10642,7 +10652,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="364" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:12">
       <c r="A364" s="6">
         <v>2</v>
       </c>
@@ -10669,7 +10679,7 @@
       <c r="K364" s="1"/>
       <c r="L364" s="1"/>
     </row>
-    <row r="365" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:12">
       <c r="A365">
         <v>7</v>
       </c>
@@ -10692,7 +10702,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="366" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:12">
       <c r="A366">
         <v>50</v>
       </c>
@@ -10715,7 +10725,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="367" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:12">
       <c r="A367">
         <v>10</v>
       </c>
@@ -10738,7 +10748,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="368" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:12">
       <c r="A368">
         <v>10.8</v>
       </c>
@@ -10761,7 +10771,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:8">
       <c r="A369">
         <v>10.5</v>
       </c>
@@ -10784,7 +10794,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:8">
       <c r="A370">
         <v>5.5</v>
       </c>
@@ -10807,7 +10817,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:8">
       <c r="A371">
         <v>5</v>
       </c>
@@ -10830,7 +10840,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:8">
       <c r="A372">
         <v>0.5</v>
       </c>
@@ -10853,7 +10863,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:8">
       <c r="A373">
         <v>10.5</v>
       </c>
@@ -10876,7 +10886,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:8">
       <c r="A374">
         <v>14</v>
       </c>
@@ -10899,7 +10909,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:8">
       <c r="A375">
         <v>2</v>
       </c>
@@ -10922,7 +10932,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:8">
       <c r="A376">
         <v>3.5</v>
       </c>
@@ -10945,7 +10955,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:8">
       <c r="A377">
         <v>3.5</v>
       </c>
@@ -10968,7 +10978,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:8">
       <c r="A378">
         <v>3.5</v>
       </c>
@@ -10991,7 +11001,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:8">
       <c r="A379">
         <v>2</v>
       </c>
@@ -11014,7 +11024,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:8">
       <c r="A380">
         <v>2</v>
       </c>
@@ -11037,7 +11047,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:8">
       <c r="A381">
         <v>2.5</v>
       </c>
@@ -11060,7 +11070,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:8">
       <c r="A382">
         <v>6.5</v>
       </c>
@@ -11083,7 +11093,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:8">
       <c r="A383">
         <v>3.78</v>
       </c>
@@ -11106,7 +11116,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:8">
       <c r="A384">
         <v>7</v>
       </c>
@@ -11129,7 +11139,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:8">
       <c r="A385">
         <v>2.5</v>
       </c>
@@ -11152,7 +11162,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:8">
       <c r="A386">
         <v>2</v>
       </c>
@@ -11175,7 +11185,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:8">
       <c r="A387">
         <v>1</v>
       </c>
@@ -11198,7 +11208,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:8">
       <c r="A388">
         <v>10.5</v>
       </c>
@@ -11221,7 +11231,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:8">
       <c r="A389">
         <v>1.5</v>
       </c>
@@ -11244,7 +11254,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:8">
       <c r="A390">
         <v>2.7</v>
       </c>
@@ -11267,7 +11277,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:8">
       <c r="A391">
         <v>2</v>
       </c>
@@ -11290,7 +11300,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:8">
       <c r="A392">
         <v>17.5</v>
       </c>
@@ -11313,7 +11323,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:8">
       <c r="A393">
         <v>43</v>
       </c>
@@ -11336,7 +11346,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:8">
       <c r="A394">
         <v>69.900000000000006</v>
       </c>
@@ -11359,7 +11369,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:8">
       <c r="A395">
         <v>16</v>
       </c>
@@ -11382,7 +11392,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:8">
       <c r="A396">
         <v>2.2000000000000002</v>
       </c>
@@ -11405,7 +11415,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:8">
       <c r="A397">
         <v>1.72</v>
       </c>
@@ -11428,7 +11438,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:8">
       <c r="A398">
         <v>6</v>
       </c>
@@ -11451,7 +11461,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:8">
       <c r="A399">
         <v>1.8</v>
       </c>
@@ -11474,7 +11484,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:8">
       <c r="A400">
         <v>4.5999999999999996</v>
       </c>
@@ -11497,7 +11507,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:8">
       <c r="A401">
         <v>27</v>
       </c>
@@ -11520,7 +11530,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:8">
       <c r="A402">
         <v>14</v>
       </c>
@@ -11543,7 +11553,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:8">
       <c r="A403">
         <v>2.5</v>
       </c>
@@ -11566,7 +11576,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:8">
       <c r="A404">
         <v>10</v>
       </c>
@@ -11589,7 +11599,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:8">
       <c r="A405">
         <v>11</v>
       </c>
@@ -11612,7 +11622,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:8">
       <c r="A406">
         <v>5.55</v>
       </c>
@@ -11635,7 +11645,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:8">
       <c r="A407">
         <v>3</v>
       </c>
@@ -11658,7 +11668,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:8">
       <c r="A408">
         <v>3.5</v>
       </c>
@@ -11681,7 +11691,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:8">
       <c r="A409">
         <v>3.8</v>
       </c>
@@ -11704,7 +11714,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:8">
       <c r="A410">
         <v>4</v>
       </c>
@@ -11727,7 +11737,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:8">
       <c r="A411">
         <v>8</v>
       </c>
@@ -11750,7 +11760,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:8">
       <c r="A412">
         <v>11.6</v>
       </c>
@@ -11773,7 +11783,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:8">
       <c r="A413">
         <v>1.6</v>
       </c>
@@ -11796,7 +11806,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:8">
       <c r="A414">
         <v>44.41</v>
       </c>
@@ -11819,7 +11829,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:8">
       <c r="A415">
         <v>4.8</v>
       </c>
@@ -11842,7 +11852,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:8">
       <c r="A416">
         <v>1.7</v>
       </c>
@@ -11865,7 +11875,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:8">
       <c r="A417">
         <v>2.85</v>
       </c>
@@ -11888,7 +11898,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:8">
       <c r="A418">
         <v>6.4</v>
       </c>
@@ -11911,7 +11921,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:8">
       <c r="A419">
         <v>3.5</v>
       </c>
@@ -11934,7 +11944,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:8">
       <c r="A420">
         <v>6.5</v>
       </c>
@@ -11957,7 +11967,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:8">
       <c r="A421">
         <v>1.2</v>
       </c>
@@ -11980,7 +11990,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:8">
       <c r="A422">
         <v>4.5999999999999996</v>
       </c>
@@ -12003,7 +12013,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:8">
       <c r="A423">
         <v>8</v>
       </c>
@@ -12026,7 +12036,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:8">
       <c r="A424">
         <v>3.5</v>
       </c>
@@ -12049,7 +12059,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:8">
       <c r="A425" s="1">
         <v>50</v>
       </c>
@@ -12073,7 +12083,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:8">
       <c r="A426">
         <v>10</v>
       </c>
@@ -12096,7 +12106,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:8">
       <c r="A427">
         <v>2.9</v>
       </c>
@@ -12119,7 +12129,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:8">
       <c r="A428">
         <v>15</v>
       </c>
@@ -12142,7 +12152,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:8">
       <c r="A429">
         <v>3.5</v>
       </c>
@@ -12165,7 +12175,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:8">
       <c r="A430">
         <v>9.25</v>
       </c>
@@ -12188,7 +12198,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:8">
       <c r="A431">
         <v>8</v>
       </c>
@@ -12211,7 +12221,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:8">
       <c r="A432">
         <v>4.0999999999999996</v>
       </c>
@@ -12234,7 +12244,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:8">
       <c r="A433">
         <v>4.9000000000000004</v>
       </c>
@@ -12257,7 +12267,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:8">
       <c r="A434">
         <v>2.8</v>
       </c>
@@ -12280,7 +12290,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:8">
       <c r="A435">
         <v>18.7</v>
       </c>
@@ -12303,7 +12313,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:8">
       <c r="A436">
         <v>20</v>
       </c>
@@ -12326,7 +12336,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:8">
       <c r="A437" s="1">
         <v>150</v>
       </c>
@@ -12350,7 +12360,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:8">
       <c r="A438" s="1">
         <v>10</v>
       </c>
@@ -12374,7 +12384,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:8">
       <c r="A439">
         <v>2.1</v>
       </c>
@@ -12397,7 +12407,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:8">
       <c r="A440">
         <v>5</v>
       </c>
@@ -12420,7 +12430,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:8">
       <c r="A441">
         <v>10</v>
       </c>
@@ -12443,7 +12453,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:8">
       <c r="A442">
         <v>59</v>
       </c>
@@ -12466,7 +12476,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:8">
       <c r="A443">
         <v>4</v>
       </c>
@@ -12489,7 +12499,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:8">
       <c r="A444">
         <v>4.17</v>
       </c>
@@ -12512,7 +12522,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="445" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:8">
       <c r="A445">
         <v>4.2</v>
       </c>
@@ -12535,7 +12545,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="446" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:8">
       <c r="A446">
         <v>4.4000000000000004</v>
       </c>
@@ -12558,7 +12568,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:8">
       <c r="A447">
         <v>30</v>
       </c>
@@ -12581,7 +12591,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="448" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:8">
       <c r="A448">
         <v>5</v>
       </c>
@@ -12604,7 +12614,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:8">
       <c r="A449">
         <v>15.7</v>
       </c>
@@ -12627,7 +12637,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:8">
       <c r="A450">
         <v>4</v>
       </c>
@@ -12650,7 +12660,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:8">
       <c r="A451">
         <v>8</v>
       </c>
@@ -12673,7 +12683,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:8">
       <c r="A452">
         <v>3.5</v>
       </c>
@@ -12696,7 +12706,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:8">
       <c r="A453">
         <v>4.2</v>
       </c>
@@ -12719,7 +12729,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:8">
       <c r="A454">
         <v>180</v>
       </c>
@@ -12742,7 +12752,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:8">
       <c r="A455">
         <v>2.2999999999999998</v>
       </c>
@@ -12765,7 +12775,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="456" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:8">
       <c r="A456">
         <v>11</v>
       </c>
@@ -12788,7 +12798,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="457" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:8">
       <c r="A457">
         <v>2</v>
       </c>
@@ -12811,7 +12821,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:8">
       <c r="A458">
         <v>3</v>
       </c>
@@ -12834,7 +12844,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:8">
       <c r="A459">
         <v>6.4</v>
       </c>
@@ -12857,7 +12867,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:8">
       <c r="A460">
         <v>3.2</v>
       </c>
@@ -12880,7 +12890,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:8">
       <c r="A461">
         <v>1</v>
       </c>
@@ -12903,7 +12913,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:8">
       <c r="A462">
         <v>4.2</v>
       </c>
@@ -12926,7 +12936,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:8">
       <c r="A463">
         <v>14</v>
       </c>
@@ -12949,7 +12959,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:8">
       <c r="A464">
         <v>2.9</v>
       </c>
@@ -12972,7 +12982,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:8">
       <c r="A465">
         <v>4</v>
       </c>
@@ -12995,7 +13005,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:8">
       <c r="A466">
         <v>1.8</v>
       </c>
@@ -13018,7 +13028,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:8">
       <c r="A467">
         <v>18</v>
       </c>
@@ -13041,7 +13051,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:8">
       <c r="A468">
         <v>2</v>
       </c>
@@ -13064,7 +13074,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:8">
       <c r="A469">
         <v>3</v>
       </c>
@@ -13087,7 +13097,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:8">
       <c r="A470">
         <v>10</v>
       </c>
@@ -13110,7 +13120,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:8">
       <c r="A471">
         <v>8.3000000000000007</v>
       </c>
@@ -13133,7 +13143,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:8">
       <c r="A472">
         <v>362</v>
       </c>
@@ -13156,7 +13166,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:8">
       <c r="A473">
         <v>4.2</v>
       </c>
@@ -13179,7 +13189,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:8">
       <c r="A474">
         <v>0.5</v>
       </c>
@@ -13202,7 +13212,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:8">
       <c r="A475">
         <v>1.7</v>
       </c>
@@ -13225,7 +13235,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="476" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:8">
       <c r="A476">
         <v>4.5999999999999996</v>
       </c>
@@ -13248,7 +13258,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:8">
       <c r="A477">
         <v>4.7</v>
       </c>
@@ -13271,7 +13281,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:8">
       <c r="A478">
         <v>1</v>
       </c>
@@ -13294,7 +13304,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:8">
       <c r="A479">
         <v>5.6</v>
       </c>
@@ -13317,7 +13327,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:8">
       <c r="A480">
         <v>33.799999999999997</v>
       </c>
@@ -13340,7 +13350,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="481" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:8">
       <c r="A481">
         <v>8</v>
       </c>
@@ -13363,7 +13373,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="482" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:8">
       <c r="A482">
         <v>5.2</v>
       </c>
@@ -13386,7 +13396,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="483" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:8">
       <c r="A483">
         <v>5.4</v>
       </c>
@@ -13409,7 +13419,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="484" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:8">
       <c r="A484">
         <v>40</v>
       </c>
@@ -13432,7 +13442,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="485" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:8">
       <c r="A485">
         <v>10.8</v>
       </c>
@@ -13455,7 +13465,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="486" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:8">
       <c r="A486">
         <v>15</v>
       </c>
@@ -13478,7 +13488,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="487" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:8">
       <c r="A487">
         <v>20</v>
       </c>
@@ -13501,7 +13511,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="488" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:8">
       <c r="A488">
         <v>3</v>
       </c>
@@ -13524,7 +13534,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="489" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:8">
       <c r="A489">
         <v>3.5</v>
       </c>
@@ -13547,7 +13557,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="490" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:8">
       <c r="A490">
         <v>2.2000000000000002</v>
       </c>
@@ -13570,7 +13580,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="491" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:8">
       <c r="A491">
         <v>4.5</v>
       </c>
@@ -13593,7 +13603,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="492" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:8">
       <c r="A492">
         <v>4.2</v>
       </c>
@@ -13616,7 +13626,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="493" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:8">
       <c r="A493">
         <v>5</v>
       </c>
@@ -13639,7 +13649,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="494" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:8">
       <c r="A494" s="1">
         <v>27.69</v>
       </c>
@@ -13663,7 +13673,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="495" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:8">
       <c r="A495">
         <v>70</v>
       </c>
@@ -13686,7 +13696,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="496" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:8">
       <c r="A496" s="1">
         <v>2.2999999999999998</v>
       </c>
@@ -13710,7 +13720,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:8">
       <c r="A497">
         <v>3.2</v>
       </c>
@@ -13733,7 +13743,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:8">
       <c r="A498">
         <v>3.6</v>
       </c>
@@ -13756,7 +13766,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="499" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:8">
       <c r="A499">
         <v>0.5</v>
       </c>
@@ -13779,7 +13789,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="500" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:8">
       <c r="A500">
         <v>10</v>
       </c>
@@ -13802,7 +13812,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="501" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:8">
       <c r="A501">
         <v>2</v>
       </c>
@@ -13825,7 +13835,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="502" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:8">
       <c r="A502" s="1">
         <v>1.9</v>
       </c>
@@ -13849,7 +13859,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="503" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:8">
       <c r="A503">
         <v>6.6</v>
       </c>
@@ -13872,7 +13882,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="504" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:8">
       <c r="A504">
         <v>1.8</v>
       </c>
@@ -13895,7 +13905,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="505" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:8">
       <c r="A505" s="1">
         <v>0.8</v>
       </c>
@@ -13919,7 +13929,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="506" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:8">
       <c r="A506">
         <v>4.2</v>
       </c>
@@ -13942,7 +13952,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="507" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:8">
       <c r="A507">
         <v>4</v>
       </c>
@@ -13965,7 +13975,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="508" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:8">
       <c r="A508">
         <v>1.2</v>
       </c>
@@ -13988,7 +13998,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="509" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:8">
       <c r="A509">
         <v>5</v>
       </c>
@@ -14011,7 +14021,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="510" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:8">
       <c r="A510">
         <v>3.5</v>
       </c>
@@ -14034,7 +14044,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="511" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:8">
       <c r="A511" s="1">
         <v>1.75</v>
       </c>
@@ -14058,7 +14068,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="512" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:8">
       <c r="A512">
         <v>4.2</v>
       </c>
@@ -14081,7 +14091,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="513" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:8">
       <c r="A513">
         <v>5.6</v>
       </c>
@@ -14104,7 +14114,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="514" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:8">
       <c r="A514">
         <v>3.6</v>
       </c>
@@ -14127,7 +14137,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="515" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:8">
       <c r="A515">
         <v>15.93</v>
       </c>
@@ -14150,7 +14160,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="516" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:8">
       <c r="A516">
         <v>5.98</v>
       </c>
@@ -14173,7 +14183,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="517" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:8">
       <c r="A517">
         <v>5</v>
       </c>
@@ -14196,7 +14206,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="518" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:8">
       <c r="A518">
         <v>4.2</v>
       </c>
@@ -14219,7 +14229,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="519" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:8">
       <c r="A519">
         <v>4.2</v>
       </c>
@@ -14242,7 +14252,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="520" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:8">
       <c r="A520">
         <v>4</v>
       </c>
@@ -14265,7 +14275,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="521" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:8">
       <c r="A521">
         <v>3</v>
       </c>
@@ -14288,7 +14298,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="522" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:8">
       <c r="A522">
         <v>2</v>
       </c>
@@ -14311,7 +14321,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="523" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:8">
       <c r="A523">
         <v>1</v>
       </c>
@@ -14334,7 +14344,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="524" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:8">
       <c r="A524" s="1">
         <v>4.0999999999999996</v>
       </c>
@@ -14358,7 +14368,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="525" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:8">
       <c r="A525">
         <v>78.180000000000007</v>
       </c>
@@ -14381,7 +14391,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="526" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:8">
       <c r="A526">
         <v>5.2</v>
       </c>
@@ -14404,7 +14414,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="527" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:8">
       <c r="A527">
         <v>1.2</v>
       </c>
@@ -14427,7 +14437,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="528" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:8">
       <c r="A528">
         <v>4.5</v>
       </c>
@@ -14450,7 +14460,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="529" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:8">
       <c r="A529">
         <v>3.4</v>
       </c>
@@ -14473,7 +14483,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="530" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:8">
       <c r="A530">
         <v>16</v>
       </c>
@@ -14496,7 +14506,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="531" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:8">
       <c r="A531">
         <v>2.5</v>
       </c>
@@ -14519,7 +14529,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="532" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:8">
       <c r="A532">
         <v>0.8</v>
       </c>
@@ -14542,7 +14552,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="533" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:8">
       <c r="A533">
         <v>2.8</v>
       </c>
@@ -14565,7 +14575,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="534" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:8">
       <c r="A534">
         <v>3.5</v>
       </c>
@@ -14588,7 +14598,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="535" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:8">
       <c r="A535">
         <v>3.6</v>
       </c>
@@ -14611,7 +14621,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="536" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:8">
       <c r="A536">
         <v>6.8</v>
       </c>
@@ -14634,7 +14644,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="537" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:8">
       <c r="A537">
         <v>5</v>
       </c>
@@ -14657,7 +14667,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="538" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:8">
       <c r="A538">
         <v>4.9000000000000004</v>
       </c>
@@ -14680,7 +14690,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="539" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:8">
       <c r="A539">
         <v>80</v>
       </c>
@@ -14703,7 +14713,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="540" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:8">
       <c r="A540">
         <v>55</v>
       </c>
@@ -14726,7 +14736,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="541" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:8">
       <c r="A541">
         <v>10</v>
       </c>
@@ -14749,7 +14759,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="542" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:8">
       <c r="A542">
         <v>1</v>
       </c>
@@ -14772,7 +14782,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="543" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:8">
       <c r="A543" s="1">
         <v>1.65</v>
       </c>
@@ -14796,7 +14806,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="544" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:8">
       <c r="A544" s="1">
         <v>4.5</v>
       </c>
@@ -14820,7 +14830,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="545" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:8">
       <c r="A545">
         <v>4.8</v>
       </c>
@@ -14844,7 +14854,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="546" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:8">
       <c r="A546" s="1">
         <v>9.5</v>
       </c>
@@ -14868,7 +14878,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="547" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:8">
       <c r="A547">
         <v>10</v>
       </c>
@@ -14891,7 +14901,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="548" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:8">
       <c r="A548">
         <v>4.8</v>
       </c>
@@ -14914,7 +14924,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="549" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:8">
       <c r="A549">
         <v>6.1</v>
       </c>
@@ -14937,7 +14947,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="550" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:8">
       <c r="A550">
         <v>4.8</v>
       </c>
@@ -14960,7 +14970,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="551" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:8">
       <c r="A551">
         <v>4.7300000000000004</v>
       </c>
@@ -14983,7 +14993,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="552" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:8">
       <c r="A552">
         <v>2.6</v>
       </c>
@@ -15006,7 +15016,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="553" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:8">
       <c r="A553">
         <v>3.7</v>
       </c>
@@ -15029,7 +15039,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="554" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:8">
       <c r="A554">
         <v>120</v>
       </c>
@@ -15052,7 +15062,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="555" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:8">
       <c r="A555">
         <v>6.8</v>
       </c>
@@ -15075,7 +15085,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="556" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:8">
       <c r="A556">
         <v>5</v>
       </c>
@@ -15098,7 +15108,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="557" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:8">
       <c r="A557">
         <v>3.8</v>
       </c>
@@ -15121,7 +15131,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="558" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:8">
       <c r="A558">
         <v>3.9</v>
       </c>
@@ -15144,7 +15154,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="559" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:8">
       <c r="A559">
         <v>2.7</v>
       </c>
@@ -15167,7 +15177,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="560" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:8">
       <c r="A560">
         <v>1</v>
       </c>
@@ -15190,7 +15200,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="561" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:8">
       <c r="A561">
         <v>1</v>
       </c>
@@ -15213,7 +15223,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="562" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:8">
       <c r="A562">
         <v>3.5</v>
       </c>
@@ -15236,7 +15246,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="563" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:8">
       <c r="A563">
         <v>7.1</v>
       </c>
@@ -15259,7 +15269,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="564" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:8">
       <c r="A564">
         <v>49.98</v>
       </c>
@@ -15282,7 +15292,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="565" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:8">
       <c r="A565">
         <v>4.74</v>
       </c>
@@ -15305,7 +15315,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="566" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:8">
       <c r="A566">
         <v>6.2</v>
       </c>
@@ -15328,7 +15338,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="567" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:8">
       <c r="A567">
         <v>3.17</v>
       </c>
@@ -15351,7 +15361,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="568" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:8">
       <c r="A568">
         <v>4.1500000000000004</v>
       </c>
@@ -15374,7 +15384,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="569" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:8">
       <c r="A569">
         <v>1.8</v>
       </c>
@@ -15397,7 +15407,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="570" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:8">
       <c r="A570">
         <v>7</v>
       </c>
@@ -15420,7 +15430,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="571" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:8">
       <c r="A571">
         <v>8</v>
       </c>
@@ -15443,7 +15453,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="572" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:8">
       <c r="A572">
         <v>2.2999999999999998</v>
       </c>
@@ -15466,7 +15476,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="573" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:8">
       <c r="A573">
         <v>1.2</v>
       </c>
@@ -15489,7 +15499,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="574" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:8">
       <c r="A574">
         <v>5.0999999999999996</v>
       </c>
@@ -15512,7 +15522,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="575" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:8">
       <c r="A575">
         <v>4</v>
       </c>
@@ -15535,7 +15545,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="576" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:8">
       <c r="A576">
         <v>4</v>
       </c>
@@ -15558,7 +15568,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="577" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:8">
       <c r="A577">
         <v>4.5999999999999996</v>
       </c>
@@ -15581,7 +15591,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="578" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:8">
       <c r="A578">
         <v>4.5999999999999996</v>
       </c>
@@ -15604,7 +15614,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="579" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:8">
       <c r="A579">
         <v>4.5999999999999996</v>
       </c>
@@ -15627,7 +15637,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="580" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:8">
       <c r="A580">
         <v>2.9</v>
       </c>
@@ -15650,7 +15660,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="581" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:8">
       <c r="A581">
         <v>11.6</v>
       </c>
@@ -15673,7 +15683,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="582" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:8">
       <c r="A582">
         <v>0.75</v>
       </c>
@@ -15696,7 +15706,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="583" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:8">
       <c r="A583">
         <v>2</v>
       </c>
@@ -15719,7 +15729,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="584" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:8">
       <c r="A584">
         <v>10</v>
       </c>
@@ -15742,7 +15752,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="585" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:8">
       <c r="A585">
         <v>3.3</v>
       </c>
@@ -15765,7 +15775,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="586" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:8">
       <c r="A586">
         <v>4.4000000000000004</v>
       </c>
@@ -15788,7 +15798,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="587" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:8">
       <c r="A587">
         <v>3</v>
       </c>
@@ -15811,7 +15821,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="588" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:8">
       <c r="A588">
         <v>8.6999999999999993</v>
       </c>
@@ -15834,7 +15844,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="589" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:8">
       <c r="A589">
         <v>3</v>
       </c>
@@ -15857,7 +15867,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="590" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:8">
       <c r="A590">
         <v>15</v>
       </c>
@@ -15880,7 +15890,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="591" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:8">
       <c r="A591">
         <v>5</v>
       </c>
@@ -15903,7 +15913,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="592" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:8">
       <c r="A592">
         <v>3.9</v>
       </c>
@@ -15926,7 +15936,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="593" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:8">
       <c r="A593">
         <v>2.85</v>
       </c>
@@ -15949,7 +15959,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="594" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:8">
       <c r="A594">
         <v>3</v>
       </c>
@@ -15972,7 +15982,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="595" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:8">
       <c r="A595">
         <v>4.4000000000000004</v>
       </c>
@@ -15995,7 +16005,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="596" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:8">
       <c r="A596">
         <v>3</v>
       </c>
@@ -16018,7 +16028,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="597" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:8">
       <c r="A597">
         <v>3</v>
       </c>
@@ -16041,7 +16051,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="598" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:8">
       <c r="A598">
         <v>3</v>
       </c>
@@ -16064,7 +16074,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="599" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:8">
       <c r="A599">
         <v>4</v>
       </c>
@@ -16087,7 +16097,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="600" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:8">
       <c r="A600">
         <v>5</v>
       </c>
@@ -16110,7 +16120,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="601" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:8">
       <c r="A601">
         <v>4</v>
       </c>
@@ -16133,7 +16143,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="602" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:8">
       <c r="A602">
         <v>3</v>
       </c>
@@ -16156,7 +16166,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="603" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:8">
       <c r="A603">
         <v>12</v>
       </c>
@@ -16179,7 +16189,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="604" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:8">
       <c r="A604">
         <v>3</v>
       </c>
@@ -16202,7 +16212,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="605" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:8">
       <c r="A605">
         <v>6</v>
       </c>
@@ -16225,7 +16235,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="606" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:8">
       <c r="A606">
         <v>5</v>
       </c>
@@ -16248,7 +16258,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="607" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:8">
       <c r="A607">
         <v>10</v>
       </c>
@@ -16271,7 +16281,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="608" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:8">
       <c r="A608">
         <v>19</v>
       </c>
@@ -16294,7 +16304,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="609" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:9">
       <c r="A609">
         <v>5.55</v>
       </c>
@@ -16317,7 +16327,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="610" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:9">
       <c r="A610">
         <v>0.9</v>
       </c>
@@ -16340,7 +16350,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="611" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:9">
       <c r="A611">
         <v>10.7</v>
       </c>
@@ -16361,6 +16371,169 @@
       </c>
       <c r="H611" t="s">
         <v>243</v>
+      </c>
+    </row>
+    <row r="612" spans="1:9">
+      <c r="A612" s="1">
+        <v>9</v>
+      </c>
+      <c r="B612" t="s">
+        <v>217</v>
+      </c>
+      <c r="C612" s="2">
+        <v>43433</v>
+      </c>
+      <c r="D612" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="E612" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F612" s="1">
+        <v>5</v>
+      </c>
+      <c r="G612" s="1"/>
+      <c r="H612" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="I612" s="1"/>
+    </row>
+    <row r="613" spans="1:9">
+      <c r="A613">
+        <v>1.2</v>
+      </c>
+      <c r="B613" t="s">
+        <v>217</v>
+      </c>
+      <c r="C613" s="2">
+        <v>43433</v>
+      </c>
+      <c r="D613" t="s">
+        <v>561</v>
+      </c>
+      <c r="E613" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F613" s="1">
+        <v>5</v>
+      </c>
+      <c r="H613" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="614" spans="1:9">
+      <c r="A614">
+        <v>5.3</v>
+      </c>
+      <c r="B614" t="s">
+        <v>217</v>
+      </c>
+      <c r="C614" s="2">
+        <v>43433</v>
+      </c>
+      <c r="D614" t="s">
+        <v>453</v>
+      </c>
+      <c r="E614" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F614" s="1">
+        <v>5</v>
+      </c>
+      <c r="H614" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="615" spans="1:9">
+      <c r="A615">
+        <v>11.5</v>
+      </c>
+      <c r="B615" t="s">
+        <v>217</v>
+      </c>
+      <c r="C615" s="2">
+        <v>43435</v>
+      </c>
+      <c r="D615" t="s">
+        <v>600</v>
+      </c>
+      <c r="E615" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F615" s="1">
+        <v>5</v>
+      </c>
+      <c r="H615" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="616" spans="1:9">
+      <c r="A616">
+        <v>4</v>
+      </c>
+      <c r="B616" t="s">
+        <v>217</v>
+      </c>
+      <c r="C616" s="2">
+        <v>43435</v>
+      </c>
+      <c r="D616" t="s">
+        <v>601</v>
+      </c>
+      <c r="E616" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F616" s="1">
+        <v>5</v>
+      </c>
+      <c r="H616" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="617" spans="1:9">
+      <c r="A617">
+        <v>1</v>
+      </c>
+      <c r="B617" t="s">
+        <v>344</v>
+      </c>
+      <c r="C617" s="2">
+        <v>43436</v>
+      </c>
+      <c r="D617" t="s">
+        <v>463</v>
+      </c>
+      <c r="E617" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F617" s="1">
+        <v>5</v>
+      </c>
+      <c r="H617" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="618" spans="1:9">
+      <c r="A618">
+        <v>1.2</v>
+      </c>
+      <c r="B618" t="s">
+        <v>217</v>
+      </c>
+      <c r="C618" s="2">
+        <v>43436</v>
+      </c>
+      <c r="D618" t="s">
+        <v>602</v>
+      </c>
+      <c r="E618" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F618" s="1">
+        <v>5</v>
+      </c>
+      <c r="H618" t="s">
+        <v>234</v>
       </c>
     </row>
   </sheetData>

--- a/DataBase/costs.xlsx
+++ b/DataBase/costs.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="45" windowWidth="18975" windowHeight="11760"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2481" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2489" uniqueCount="605">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1823,17 +1823,23 @@
   </si>
   <si>
     <t>Amaretti</t>
+  </si>
+  <si>
+    <t>κάρτα ΜΜΜ για 30 ημέρες</t>
+  </si>
+  <si>
+    <t>Cloud service 1.000GB in Mega.tz for bckup</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1874,7 +1880,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
     <dxf>
@@ -1966,7 +1972,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:I619" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:I620" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="9">
     <tableColumn id="1" name="amount" headerRowDxfId="9" totalsRowDxfId="8"/>
     <tableColumn id="11" name="type" totalsRowDxfId="7"/>
@@ -1983,7 +1989,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2025,7 +2031,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2057,9 +2063,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2091,6 +2098,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2266,14 +2274,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L618"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L620"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A606" workbookViewId="0">
-      <selection activeCell="D618" sqref="D618"/>
+    <sheetView tabSelected="1" topLeftCell="A609" workbookViewId="0">
+      <selection activeCell="A621" sqref="A621"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.28515625" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
@@ -2289,7 +2297,7 @@
     <col min="12" max="12" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>227</v>
       </c>
@@ -2318,7 +2326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>477</v>
       </c>
@@ -2344,7 +2352,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>20</v>
       </c>
@@ -2368,7 +2376,7 @@
       </c>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>10</v>
       </c>
@@ -2391,7 +2399,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>100</v>
       </c>
@@ -2414,7 +2422,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>10</v>
       </c>
@@ -2437,7 +2445,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>50</v>
       </c>
@@ -2460,7 +2468,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>3.2</v>
       </c>
@@ -2483,7 +2491,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>1.3</v>
       </c>
@@ -2506,7 +2514,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>1.2</v>
       </c>
@@ -2529,7 +2537,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>5</v>
       </c>
@@ -2552,7 +2560,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>4.5</v>
       </c>
@@ -2575,7 +2583,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>4</v>
       </c>
@@ -2598,7 +2606,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>10.6</v>
       </c>
@@ -2621,7 +2629,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>1.8</v>
       </c>
@@ -2644,7 +2652,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>5.15</v>
       </c>
@@ -2667,7 +2675,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>18</v>
       </c>
@@ -2690,7 +2698,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>1.5</v>
       </c>
@@ -2713,7 +2721,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>7.8</v>
       </c>
@@ -2736,7 +2744,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>4.4400000000000004</v>
       </c>
@@ -2759,7 +2767,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>1.5</v>
       </c>
@@ -2782,7 +2790,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>8.84</v>
       </c>
@@ -2805,7 +2813,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>4</v>
       </c>
@@ -2828,7 +2836,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>10</v>
       </c>
@@ -2851,7 +2859,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>1.8</v>
       </c>
@@ -2874,7 +2882,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>11.8</v>
       </c>
@@ -2897,7 +2905,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>40</v>
       </c>
@@ -2920,7 +2928,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>2.9</v>
       </c>
@@ -2943,7 +2951,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>4.3</v>
       </c>
@@ -2966,7 +2974,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>3.35</v>
       </c>
@@ -2989,7 +2997,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>5.2</v>
       </c>
@@ -3012,7 +3020,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>15</v>
       </c>
@@ -3035,7 +3043,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>3.9</v>
       </c>
@@ -3058,7 +3066,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>63.45</v>
       </c>
@@ -3081,7 +3089,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>49.9</v>
       </c>
@@ -3104,7 +3112,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>140</v>
       </c>
@@ -3127,7 +3135,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>1.8</v>
       </c>
@@ -3150,7 +3158,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>13.02</v>
       </c>
@@ -3173,7 +3181,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>4.7</v>
       </c>
@@ -3196,7 +3204,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>15.96</v>
       </c>
@@ -3219,7 +3227,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>9.8000000000000007</v>
       </c>
@@ -3242,7 +3250,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>79.8</v>
       </c>
@@ -3265,7 +3273,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>11.9</v>
       </c>
@@ -3288,7 +3296,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>38.880000000000003</v>
       </c>
@@ -3311,7 +3319,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>7.75</v>
       </c>
@@ -3334,7 +3342,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>0.79</v>
       </c>
@@ -3357,7 +3365,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>10</v>
       </c>
@@ -3380,7 +3388,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -3403,7 +3411,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -3426,7 +3434,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>1.8</v>
       </c>
@@ -3449,7 +3457,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>24</v>
       </c>
@@ -3472,7 +3480,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>24</v>
       </c>
@@ -3495,7 +3503,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>1.8</v>
       </c>
@@ -3518,7 +3526,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>3.5</v>
       </c>
@@ -3541,7 +3549,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>5.6</v>
       </c>
@@ -3565,7 +3573,7 @@
       </c>
       <c r="K55" s="4"/>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>1.5</v>
       </c>
@@ -3588,7 +3596,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>3</v>
       </c>
@@ -3611,7 +3619,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>5.4</v>
       </c>
@@ -3634,7 +3642,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>8</v>
       </c>
@@ -3657,7 +3665,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>5.4</v>
       </c>
@@ -3680,7 +3688,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>0.6</v>
       </c>
@@ -3703,7 +3711,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -3726,7 +3734,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>1.5</v>
       </c>
@@ -3749,7 +3757,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -3772,7 +3780,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>1.2</v>
       </c>
@@ -3795,7 +3803,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>5.0999999999999996</v>
       </c>
@@ -3818,7 +3826,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>13.5</v>
       </c>
@@ -3841,7 +3849,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>3.5</v>
       </c>
@@ -3865,7 +3873,7 @@
       </c>
       <c r="K68" s="4"/>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>4.0999999999999996</v>
       </c>
@@ -3888,7 +3896,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>90</v>
       </c>
@@ -3911,7 +3919,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>65.5</v>
       </c>
@@ -3934,7 +3942,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>4.5</v>
       </c>
@@ -3957,7 +3965,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>10</v>
       </c>
@@ -3980,7 +3988,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>18.8</v>
       </c>
@@ -4003,7 +4011,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>1.8</v>
       </c>
@@ -4027,7 +4035,7 @@
       </c>
       <c r="K75" s="4"/>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>5.5</v>
       </c>
@@ -4050,7 +4058,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -4073,7 +4081,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>3</v>
       </c>
@@ -4096,7 +4104,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>2</v>
       </c>
@@ -4119,7 +4127,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <v>9.9</v>
       </c>
@@ -4142,7 +4150,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <v>6.5</v>
       </c>
@@ -4165,7 +4173,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>79.8</v>
       </c>
@@ -4188,7 +4196,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>10</v>
       </c>
@@ -4211,7 +4219,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>2.5</v>
       </c>
@@ -4234,7 +4242,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <v>5</v>
       </c>
@@ -4257,7 +4265,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <v>1.6</v>
       </c>
@@ -4280,7 +4288,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <v>5.5</v>
       </c>
@@ -4303,7 +4311,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>0.8</v>
       </c>
@@ -4326,7 +4334,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <v>17</v>
       </c>
@@ -4349,7 +4357,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <v>24.9</v>
       </c>
@@ -4372,7 +4380,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <v>1.8</v>
       </c>
@@ -4395,7 +4403,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <v>44.99</v>
       </c>
@@ -4418,7 +4426,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <v>4</v>
       </c>
@@ -4441,7 +4449,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <v>5</v>
       </c>
@@ -4464,7 +4472,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
         <v>5</v>
       </c>
@@ -4487,7 +4495,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -4510,7 +4518,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
         <v>3</v>
       </c>
@@ -4533,7 +4541,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <v>6</v>
       </c>
@@ -4556,7 +4564,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
         <v>3.5</v>
       </c>
@@ -4579,7 +4587,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
         <v>34.9</v>
       </c>
@@ -4602,7 +4610,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
         <v>12</v>
       </c>
@@ -4625,7 +4633,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
         <v>5</v>
       </c>
@@ -4648,7 +4656,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
         <v>6.9</v>
       </c>
@@ -4671,7 +4679,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
         <v>6.04</v>
       </c>
@@ -4694,7 +4702,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
         <v>4.8</v>
       </c>
@@ -4717,7 +4725,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
         <v>9.6999999999999993</v>
       </c>
@@ -4740,7 +4748,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
         <v>5.5</v>
       </c>
@@ -4763,7 +4771,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
         <v>7</v>
       </c>
@@ -4786,7 +4794,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
         <v>1</v>
       </c>
@@ -4809,7 +4817,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
         <v>4</v>
       </c>
@@ -4832,7 +4840,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
         <v>4.0999999999999996</v>
       </c>
@@ -4855,7 +4863,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
         <v>2.3199999999999998</v>
       </c>
@@ -4878,7 +4886,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
         <v>8</v>
       </c>
@@ -4901,7 +4909,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
         <v>12.5</v>
       </c>
@@ -4924,7 +4932,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
         <v>0.7</v>
       </c>
@@ -4947,7 +4955,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
         <v>6.3</v>
       </c>
@@ -4970,7 +4978,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
         <v>8</v>
       </c>
@@ -4993,7 +5001,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
         <v>5.0999999999999996</v>
       </c>
@@ -5016,7 +5024,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
         <v>8</v>
       </c>
@@ -5039,7 +5047,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
         <v>4.5</v>
       </c>
@@ -5062,7 +5070,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="4">
         <v>2.5</v>
       </c>
@@ -5085,7 +5093,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="4">
         <v>24.3</v>
       </c>
@@ -5108,7 +5116,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="4">
         <v>2</v>
       </c>
@@ -5131,7 +5139,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="4">
         <v>16</v>
       </c>
@@ -5154,7 +5162,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
         <v>6</v>
       </c>
@@ -5177,7 +5185,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="4">
         <v>5</v>
       </c>
@@ -5200,7 +5208,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
         <v>6.52</v>
       </c>
@@ -5223,7 +5231,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="4">
         <v>1.8</v>
       </c>
@@ -5246,7 +5254,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="4">
         <v>1</v>
       </c>
@@ -5269,7 +5277,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="4">
         <v>5</v>
       </c>
@@ -5292,7 +5300,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="4">
         <v>43</v>
       </c>
@@ -5315,7 +5323,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="4">
         <v>10</v>
       </c>
@@ -5338,7 +5346,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="4">
         <v>2.97</v>
       </c>
@@ -5361,7 +5369,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="4">
         <v>10</v>
       </c>
@@ -5384,7 +5392,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
         <v>1.6</v>
       </c>
@@ -5407,7 +5415,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="4">
         <v>1.5</v>
       </c>
@@ -5430,7 +5438,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="4">
         <v>1.8</v>
       </c>
@@ -5453,7 +5461,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="4">
         <v>7.3</v>
       </c>
@@ -5476,7 +5484,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="139" spans="1:8">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="4">
         <v>4</v>
       </c>
@@ -5499,7 +5507,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="4">
         <v>2.1</v>
       </c>
@@ -5522,7 +5530,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
         <v>4.2</v>
       </c>
@@ -5545,7 +5553,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="4">
         <v>9</v>
       </c>
@@ -5568,7 +5576,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="4">
         <v>1</v>
       </c>
@@ -5591,7 +5599,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="144" spans="1:8">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="4">
         <v>3.5</v>
       </c>
@@ -5614,7 +5622,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="145" spans="1:8">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="4">
         <v>5.0999999999999996</v>
       </c>
@@ -5637,7 +5645,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="146" spans="1:8">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="4">
         <v>3</v>
       </c>
@@ -5660,7 +5668,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="4">
         <v>2</v>
       </c>
@@ -5683,7 +5691,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="4">
         <v>150</v>
       </c>
@@ -5706,7 +5714,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="4">
         <v>7</v>
       </c>
@@ -5729,7 +5737,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="150" spans="1:8">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="4">
         <v>5</v>
       </c>
@@ -5752,7 +5760,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="4">
         <v>8</v>
       </c>
@@ -5775,7 +5783,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="4">
         <v>3.5</v>
       </c>
@@ -5798,7 +5806,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="4">
         <v>55</v>
       </c>
@@ -5821,7 +5829,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="154" spans="1:8">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="4">
         <v>0.6</v>
       </c>
@@ -5844,7 +5852,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="155" spans="1:8">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="4">
         <v>4</v>
       </c>
@@ -5867,7 +5875,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="156" spans="1:8">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="4">
         <v>39.9</v>
       </c>
@@ -5890,7 +5898,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="157" spans="1:8">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="4">
         <v>1.6</v>
       </c>
@@ -5913,7 +5921,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="158" spans="1:8">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="4">
         <v>80</v>
       </c>
@@ -5936,7 +5944,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="159" spans="1:8">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="4">
         <v>6.2</v>
       </c>
@@ -5959,7 +5967,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="160" spans="1:8">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="4">
         <v>15</v>
       </c>
@@ -5982,7 +5990,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="161" spans="1:8">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="4">
         <v>4.3</v>
       </c>
@@ -6005,7 +6013,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="162" spans="1:8">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="4">
         <v>9.6999999999999993</v>
       </c>
@@ -6028,7 +6036,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="163" spans="1:8">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="4">
         <v>2.4500000000000002</v>
       </c>
@@ -6051,7 +6059,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="4">
         <v>1.96</v>
       </c>
@@ -6074,7 +6082,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="4">
         <v>11.5</v>
       </c>
@@ -6097,7 +6105,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="166" spans="1:8">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="4">
         <v>2.7</v>
       </c>
@@ -6120,7 +6128,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="167" spans="1:8">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="4">
         <v>2.7</v>
       </c>
@@ -6143,7 +6151,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="4">
         <v>7</v>
       </c>
@@ -6166,7 +6174,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="169" spans="1:8">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="4">
         <v>4.8</v>
       </c>
@@ -6189,7 +6197,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="170" spans="1:8">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="4">
         <v>4.4000000000000004</v>
       </c>
@@ -6212,7 +6220,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="171" spans="1:8">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="4">
         <v>3.8</v>
       </c>
@@ -6235,7 +6243,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="172" spans="1:8">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="4">
         <v>1.5</v>
       </c>
@@ -6258,7 +6266,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="173" spans="1:8">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="4">
         <v>11.5</v>
       </c>
@@ -6281,7 +6289,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="174" spans="1:8">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="4">
         <v>4.4000000000000004</v>
       </c>
@@ -6304,7 +6312,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="175" spans="1:8">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="4">
         <v>6.5</v>
       </c>
@@ -6327,7 +6335,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="4">
         <v>6.5</v>
       </c>
@@ -6350,7 +6358,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="177" spans="1:8">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="4">
         <v>5</v>
       </c>
@@ -6373,7 +6381,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="178" spans="1:8">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="4">
         <v>6</v>
       </c>
@@ -6396,7 +6404,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="179" spans="1:8">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="4">
         <v>8</v>
       </c>
@@ -6419,7 +6427,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="180" spans="1:8">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="4">
         <v>3.2</v>
       </c>
@@ -6442,7 +6450,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="181" spans="1:8">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="4">
         <v>10</v>
       </c>
@@ -6465,7 +6473,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="182" spans="1:8">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="4">
         <v>3</v>
       </c>
@@ -6488,7 +6496,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="183" spans="1:8">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="4">
         <v>10</v>
       </c>
@@ -6511,7 +6519,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="184" spans="1:8">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="4">
         <v>3.5</v>
       </c>
@@ -6534,7 +6542,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="185" spans="1:8">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="4">
         <v>10</v>
       </c>
@@ -6557,7 +6565,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="186" spans="1:8">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="4">
         <v>8</v>
       </c>
@@ -6580,7 +6588,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="187" spans="1:8">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="4">
         <v>6.2</v>
       </c>
@@ -6603,7 +6611,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="188" spans="1:8">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="4">
         <v>2</v>
       </c>
@@ -6626,7 +6634,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="189" spans="1:8">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="4">
         <v>10</v>
       </c>
@@ -6649,7 +6657,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="190" spans="1:8">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="4">
         <v>22</v>
       </c>
@@ -6672,7 +6680,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="191" spans="1:8">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="4">
         <v>14</v>
       </c>
@@ -6695,7 +6703,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="192" spans="1:8">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="4">
         <v>14</v>
       </c>
@@ -6718,7 +6726,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="193" spans="1:8">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="4">
         <v>4.7</v>
       </c>
@@ -6741,7 +6749,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="194" spans="1:8">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="4">
         <v>69.900000000000006</v>
       </c>
@@ -6764,7 +6772,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="195" spans="1:8">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="4">
         <v>8.4</v>
       </c>
@@ -6787,7 +6795,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="196" spans="1:8">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="4">
         <v>5</v>
       </c>
@@ -6810,7 +6818,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="197" spans="1:8">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="4">
         <v>4.5</v>
       </c>
@@ -6833,7 +6841,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="198" spans="1:8">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="4">
         <v>6</v>
       </c>
@@ -6856,7 +6864,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="199" spans="1:8">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="4">
         <v>5.46</v>
       </c>
@@ -6879,7 +6887,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="200" spans="1:8">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="4">
         <v>78.849999999999994</v>
       </c>
@@ -6902,7 +6910,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="201" spans="1:8">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="4">
         <v>10</v>
       </c>
@@ -6925,7 +6933,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="202" spans="1:8">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="4">
         <v>10</v>
       </c>
@@ -6948,7 +6956,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="203" spans="1:8">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="4">
         <v>26</v>
       </c>
@@ -6971,7 +6979,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="204" spans="1:8">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="4">
         <v>2</v>
       </c>
@@ -6994,7 +7002,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="205" spans="1:8">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="4">
         <v>2.5</v>
       </c>
@@ -7017,7 +7025,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="206" spans="1:8">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="4">
         <v>5.9</v>
       </c>
@@ -7040,7 +7048,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="207" spans="1:8">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" s="4">
         <v>8.6</v>
       </c>
@@ -7063,7 +7071,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="208" spans="1:8">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="4">
         <v>2.7</v>
       </c>
@@ -7086,7 +7094,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="209" spans="1:8">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="4">
         <v>4.8</v>
       </c>
@@ -7109,7 +7117,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="210" spans="1:8">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" s="4">
         <v>2.8</v>
       </c>
@@ -7132,7 +7140,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="211" spans="1:8">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="4">
         <v>2</v>
       </c>
@@ -7155,7 +7163,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="212" spans="1:8">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="4">
         <v>5</v>
       </c>
@@ -7178,7 +7186,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="213" spans="1:8">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="4">
         <v>2.5</v>
       </c>
@@ -7201,7 +7209,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="214" spans="1:8">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="4">
         <v>3.5</v>
       </c>
@@ -7224,7 +7232,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="215" spans="1:8">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="4">
         <v>1.8</v>
       </c>
@@ -7247,7 +7255,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="216" spans="1:8">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="4">
         <v>4</v>
       </c>
@@ -7270,7 +7278,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="217" spans="1:8">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="4">
         <v>6</v>
       </c>
@@ -7293,7 +7301,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="218" spans="1:8">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="4">
         <v>1.8</v>
       </c>
@@ -7316,7 +7324,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="219" spans="1:8">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="4">
         <v>5</v>
       </c>
@@ -7339,7 +7347,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="220" spans="1:8">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="4">
         <v>5</v>
       </c>
@@ -7362,7 +7370,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="221" spans="1:8">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="4">
         <v>4.7</v>
       </c>
@@ -7385,7 +7393,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="222" spans="1:8">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="4">
         <v>5</v>
       </c>
@@ -7408,7 +7416,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="223" spans="1:8">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="4">
         <v>10</v>
       </c>
@@ -7431,7 +7439,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="224" spans="1:8">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="4">
         <v>1.5</v>
       </c>
@@ -7454,7 +7462,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="225" spans="1:8">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="4">
         <v>129</v>
       </c>
@@ -7477,7 +7485,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="226" spans="1:8">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="4">
         <v>7</v>
       </c>
@@ -7500,7 +7508,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="227" spans="1:8">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" s="4">
         <v>2.8</v>
       </c>
@@ -7523,7 +7531,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="228" spans="1:8">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="4">
         <v>1</v>
       </c>
@@ -7546,7 +7554,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="229" spans="1:8">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="4">
         <v>4</v>
       </c>
@@ -7569,7 +7577,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="230" spans="1:8">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" s="4">
         <v>50</v>
       </c>
@@ -7592,7 +7600,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="231" spans="1:8">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" s="4">
         <v>7.2</v>
       </c>
@@ -7615,7 +7623,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="232" spans="1:8">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" s="4">
         <v>1</v>
       </c>
@@ -7638,7 +7646,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="233" spans="1:8">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" s="4">
         <v>7</v>
       </c>
@@ -7661,7 +7669,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="234" spans="1:8">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" s="4">
         <v>1.1000000000000001</v>
       </c>
@@ -7684,7 +7692,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="235" spans="1:8">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" s="4">
         <v>7</v>
       </c>
@@ -7707,7 +7715,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="236" spans="1:8">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" s="4">
         <v>15</v>
       </c>
@@ -7730,7 +7738,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="237" spans="1:8">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" s="4">
         <v>3</v>
       </c>
@@ -7753,7 +7761,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="238" spans="1:8">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" s="4">
         <v>11.2</v>
       </c>
@@ -7776,7 +7784,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="239" spans="1:8">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" s="4">
         <v>2.1</v>
       </c>
@@ -7799,7 +7807,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="240" spans="1:8">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" s="4">
         <v>150</v>
       </c>
@@ -7822,7 +7830,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="241" spans="1:8">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="4">
         <v>12.7</v>
       </c>
@@ -7845,7 +7853,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="242" spans="1:8">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" s="4">
         <v>89.9</v>
       </c>
@@ -7868,7 +7876,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="243" spans="1:8">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="4">
         <v>4.4000000000000004</v>
       </c>
@@ -7891,7 +7899,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="244" spans="1:8">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" s="4">
         <v>4.2</v>
       </c>
@@ -7914,7 +7922,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="245" spans="1:8">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -7937,7 +7945,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="246" spans="1:8">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="4">
         <v>5</v>
       </c>
@@ -7960,7 +7968,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="247" spans="1:8">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" s="4">
         <v>5</v>
       </c>
@@ -7983,7 +7991,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="248" spans="1:8">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="4">
         <v>3.9</v>
       </c>
@@ -8006,7 +8014,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="249" spans="1:8">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" s="4">
         <v>0.5</v>
       </c>
@@ -8029,7 +8037,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="250" spans="1:8">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" s="4">
         <v>2.4</v>
       </c>
@@ -8052,7 +8060,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="251" spans="1:8">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" s="4">
         <v>2</v>
       </c>
@@ -8075,7 +8083,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="252" spans="1:8">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" s="4">
         <v>4.7</v>
       </c>
@@ -8098,7 +8106,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="253" spans="1:8">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" s="4">
         <v>5.3</v>
       </c>
@@ -8121,7 +8129,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="254" spans="1:8">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" s="4">
         <v>4.2</v>
       </c>
@@ -8144,7 +8152,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="255" spans="1:8">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="4">
         <v>5</v>
       </c>
@@ -8167,7 +8175,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="256" spans="1:8">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" s="4">
         <v>2.5</v>
       </c>
@@ -8190,7 +8198,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="257" spans="1:8">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" s="4">
         <v>3.3</v>
       </c>
@@ -8213,7 +8221,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="258" spans="1:8">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" s="4">
         <v>5.6</v>
       </c>
@@ -8236,7 +8244,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="259" spans="1:8">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" s="4">
         <v>4</v>
       </c>
@@ -8259,7 +8267,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="260" spans="1:8">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" s="4">
         <v>10.199999999999999</v>
       </c>
@@ -8282,7 +8290,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="261" spans="1:8">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" s="4">
         <v>8</v>
       </c>
@@ -8305,7 +8313,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="262" spans="1:8">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" s="4">
         <v>2.1</v>
       </c>
@@ -8328,7 +8336,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="263" spans="1:8">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" s="4">
         <v>3.7</v>
       </c>
@@ -8351,7 +8359,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="264" spans="1:8">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" s="4">
         <v>7</v>
       </c>
@@ -8374,7 +8382,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="265" spans="1:8">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" s="4">
         <v>13.5</v>
       </c>
@@ -8397,7 +8405,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="266" spans="1:8">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" s="4">
         <v>5</v>
       </c>
@@ -8420,7 +8428,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="267" spans="1:8">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" s="4">
         <v>20</v>
       </c>
@@ -8443,7 +8451,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="268" spans="1:8">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" s="4">
         <v>6</v>
       </c>
@@ -8466,7 +8474,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="269" spans="1:8">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" s="4">
         <v>0.5</v>
       </c>
@@ -8489,7 +8497,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="270" spans="1:8">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" s="4">
         <v>5</v>
       </c>
@@ -8512,7 +8520,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="271" spans="1:8">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" s="4">
         <v>11</v>
       </c>
@@ -8535,7 +8543,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="272" spans="1:8">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" s="4">
         <v>8.8000000000000007</v>
       </c>
@@ -8558,7 +8566,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="273" spans="1:8">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" s="4">
         <v>0.5</v>
       </c>
@@ -8581,7 +8589,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="274" spans="1:8">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" s="4">
         <v>5</v>
       </c>
@@ -8604,7 +8612,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="275" spans="1:8">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" s="4">
         <v>10</v>
       </c>
@@ -8627,7 +8635,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="276" spans="1:8">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" s="4">
         <v>15</v>
       </c>
@@ -8650,7 +8658,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="277" spans="1:8">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" s="4">
         <v>10</v>
       </c>
@@ -8673,7 +8681,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="278" spans="1:8">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" s="4">
         <v>11.9</v>
       </c>
@@ -8696,7 +8704,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="279" spans="1:8">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" s="4">
         <v>7</v>
       </c>
@@ -8719,7 +8727,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="280" spans="1:8">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" s="4">
         <v>5.0999999999999996</v>
       </c>
@@ -8742,7 +8750,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="281" spans="1:8">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>1.9</v>
       </c>
@@ -8765,7 +8773,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="282" spans="1:8">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>119.9</v>
       </c>
@@ -8788,7 +8796,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="283" spans="1:8">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>6.3</v>
       </c>
@@ -8811,7 +8819,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="284" spans="1:8">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>3.5</v>
       </c>
@@ -8834,7 +8842,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="285" spans="1:8">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>1.5</v>
       </c>
@@ -8857,7 +8865,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="286" spans="1:8">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>1.9</v>
       </c>
@@ -8880,7 +8888,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="287" spans="1:8">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>4.5</v>
       </c>
@@ -8903,7 +8911,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="288" spans="1:8">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>6.4</v>
       </c>
@@ -8926,7 +8934,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="289" spans="1:8">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>1.9</v>
       </c>
@@ -8949,7 +8957,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="290" spans="1:8">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>10.6</v>
       </c>
@@ -8972,7 +8980,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="291" spans="1:8">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>4.5</v>
       </c>
@@ -8995,7 +9003,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="292" spans="1:8">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>22.2</v>
       </c>
@@ -9018,7 +9026,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="293" spans="1:8">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" s="6">
         <v>25</v>
       </c>
@@ -9041,7 +9049,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="294" spans="1:8">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294" s="6">
         <v>3.5</v>
       </c>
@@ -9064,7 +9072,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="295" spans="1:8">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>4</v>
       </c>
@@ -9087,7 +9095,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="296" spans="1:8">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>2.2000000000000002</v>
       </c>
@@ -9110,7 +9118,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="297" spans="1:8">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>11.5</v>
       </c>
@@ -9133,7 +9141,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="298" spans="1:8">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>6.3</v>
       </c>
@@ -9156,7 +9164,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="299" spans="1:8">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>3.6</v>
       </c>
@@ -9179,7 +9187,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="300" spans="1:8">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>15</v>
       </c>
@@ -9202,7 +9210,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="301" spans="1:8">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>2</v>
       </c>
@@ -9225,7 +9233,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="302" spans="1:8">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>4.5</v>
       </c>
@@ -9248,7 +9256,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="303" spans="1:8">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>2.9</v>
       </c>
@@ -9271,7 +9279,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="304" spans="1:8">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>3.9</v>
       </c>
@@ -9294,7 +9302,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="305" spans="1:8">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>1.7</v>
       </c>
@@ -9317,7 +9325,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="306" spans="1:8">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>10</v>
       </c>
@@ -9340,7 +9348,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="307" spans="1:8">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>7.5</v>
       </c>
@@ -9363,7 +9371,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="308" spans="1:8">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>10.050000000000001</v>
       </c>
@@ -9386,7 +9394,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="309" spans="1:8">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>5</v>
       </c>
@@ -9409,7 +9417,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="310" spans="1:8">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>3</v>
       </c>
@@ -9432,7 +9440,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="311" spans="1:8">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>2</v>
       </c>
@@ -9455,7 +9463,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="312" spans="1:8">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>10.6</v>
       </c>
@@ -9478,7 +9486,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="313" spans="1:8">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>4</v>
       </c>
@@ -9501,7 +9509,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="314" spans="1:8">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>2</v>
       </c>
@@ -9524,7 +9532,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="315" spans="1:8">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>5.8</v>
       </c>
@@ -9547,7 +9555,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="316" spans="1:8">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>5</v>
       </c>
@@ -9570,7 +9578,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="317" spans="1:8">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>6.55</v>
       </c>
@@ -9593,7 +9601,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="318" spans="1:8">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>2.8</v>
       </c>
@@ -9616,7 +9624,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="319" spans="1:8">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>3.8</v>
       </c>
@@ -9639,7 +9647,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="320" spans="1:8">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>9</v>
       </c>
@@ -9662,7 +9670,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="321" spans="1:8">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>8</v>
       </c>
@@ -9685,7 +9693,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="322" spans="1:8">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>1.5</v>
       </c>
@@ -9708,7 +9716,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="323" spans="1:8">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>5</v>
       </c>
@@ -9731,7 +9739,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="324" spans="1:8">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>4.5999999999999996</v>
       </c>
@@ -9754,7 +9762,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="325" spans="1:8">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>0.5</v>
       </c>
@@ -9777,7 +9785,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="326" spans="1:8">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>2.95</v>
       </c>
@@ -9800,7 +9808,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="327" spans="1:8">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>3.8</v>
       </c>
@@ -9823,7 +9831,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="328" spans="1:8">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>10</v>
       </c>
@@ -9846,7 +9854,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="329" spans="1:8">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>3.85</v>
       </c>
@@ -9869,7 +9877,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="330" spans="1:8">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>1.2</v>
       </c>
@@ -9892,7 +9900,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="331" spans="1:8">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>2</v>
       </c>
@@ -9915,7 +9923,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="332" spans="1:8">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>8.5</v>
       </c>
@@ -9938,7 +9946,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="333" spans="1:8">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>4.9000000000000004</v>
       </c>
@@ -9961,7 +9969,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="334" spans="1:8">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>10</v>
       </c>
@@ -9984,7 +9992,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="335" spans="1:8">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>350</v>
       </c>
@@ -10007,7 +10015,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="336" spans="1:8">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>4.4000000000000004</v>
       </c>
@@ -10030,7 +10038,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="337" spans="1:8">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>3.2</v>
       </c>
@@ -10053,7 +10061,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="338" spans="1:8">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>3.8</v>
       </c>
@@ -10076,7 +10084,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="339" spans="1:8">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>0.9</v>
       </c>
@@ -10099,7 +10107,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="340" spans="1:8">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>6</v>
       </c>
@@ -10122,7 +10130,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="341" spans="1:8">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>3.8</v>
       </c>
@@ -10145,7 +10153,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="342" spans="1:8">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>2</v>
       </c>
@@ -10168,7 +10176,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="343" spans="1:8">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>5.5</v>
       </c>
@@ -10191,7 +10199,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="344" spans="1:8">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>43.22</v>
       </c>
@@ -10214,7 +10222,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="345" spans="1:8">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>2</v>
       </c>
@@ -10237,7 +10245,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="346" spans="1:8">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>7</v>
       </c>
@@ -10260,7 +10268,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="347" spans="1:8">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>1.61</v>
       </c>
@@ -10283,7 +10291,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="348" spans="1:8">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>20</v>
       </c>
@@ -10306,7 +10314,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="349" spans="1:8">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>14.84</v>
       </c>
@@ -10329,7 +10337,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="350" spans="1:8">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>5.6</v>
       </c>
@@ -10352,7 +10360,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="351" spans="1:8">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>6.8</v>
       </c>
@@ -10375,7 +10383,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="352" spans="1:8">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>7.7</v>
       </c>
@@ -10398,7 +10406,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="353" spans="1:12">
+    <row r="353" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>29.4</v>
       </c>
@@ -10421,7 +10429,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="354" spans="1:12">
+    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>0.5</v>
       </c>
@@ -10444,7 +10452,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="355" spans="1:12">
+    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>2.2000000000000002</v>
       </c>
@@ -10467,7 +10475,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="356" spans="1:12">
+    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>3.5</v>
       </c>
@@ -10490,7 +10498,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="357" spans="1:12">
+    <row r="357" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>4.4000000000000004</v>
       </c>
@@ -10513,7 +10521,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="358" spans="1:12">
+    <row r="358" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>5.7</v>
       </c>
@@ -10536,7 +10544,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="359" spans="1:12">
+    <row r="359" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>7.74</v>
       </c>
@@ -10559,7 +10567,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="360" spans="1:12">
+    <row r="360" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>7</v>
       </c>
@@ -10582,7 +10590,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="361" spans="1:12">
+    <row r="361" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>3.8</v>
       </c>
@@ -10605,7 +10613,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="362" spans="1:12">
+    <row r="362" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>100</v>
       </c>
@@ -10628,7 +10636,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="363" spans="1:12">
+    <row r="363" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>5</v>
       </c>
@@ -10652,7 +10660,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="364" spans="1:12">
+    <row r="364" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A364" s="6">
         <v>2</v>
       </c>
@@ -10679,7 +10687,7 @@
       <c r="K364" s="1"/>
       <c r="L364" s="1"/>
     </row>
-    <row r="365" spans="1:12">
+    <row r="365" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>7</v>
       </c>
@@ -10702,7 +10710,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="366" spans="1:12">
+    <row r="366" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>50</v>
       </c>
@@ -10725,7 +10733,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="367" spans="1:12">
+    <row r="367" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>10</v>
       </c>
@@ -10748,7 +10756,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="368" spans="1:12">
+    <row r="368" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>10.8</v>
       </c>
@@ -10771,7 +10779,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="369" spans="1:8">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>10.5</v>
       </c>
@@ -10794,7 +10802,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="370" spans="1:8">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>5.5</v>
       </c>
@@ -10817,7 +10825,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="371" spans="1:8">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>5</v>
       </c>
@@ -10840,7 +10848,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="372" spans="1:8">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>0.5</v>
       </c>
@@ -10863,7 +10871,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="373" spans="1:8">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>10.5</v>
       </c>
@@ -10886,7 +10894,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="374" spans="1:8">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>14</v>
       </c>
@@ -10909,7 +10917,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="375" spans="1:8">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>2</v>
       </c>
@@ -10932,7 +10940,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="376" spans="1:8">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>3.5</v>
       </c>
@@ -10955,7 +10963,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="377" spans="1:8">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>3.5</v>
       </c>
@@ -10978,7 +10986,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="378" spans="1:8">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>3.5</v>
       </c>
@@ -11001,7 +11009,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="379" spans="1:8">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>2</v>
       </c>
@@ -11024,7 +11032,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="380" spans="1:8">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>2</v>
       </c>
@@ -11047,7 +11055,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="381" spans="1:8">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>2.5</v>
       </c>
@@ -11070,7 +11078,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="382" spans="1:8">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>6.5</v>
       </c>
@@ -11093,7 +11101,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="383" spans="1:8">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>3.78</v>
       </c>
@@ -11116,7 +11124,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="384" spans="1:8">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>7</v>
       </c>
@@ -11139,7 +11147,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="385" spans="1:8">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>2.5</v>
       </c>
@@ -11162,7 +11170,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="386" spans="1:8">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>2</v>
       </c>
@@ -11185,7 +11193,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="387" spans="1:8">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>1</v>
       </c>
@@ -11208,7 +11216,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="388" spans="1:8">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>10.5</v>
       </c>
@@ -11231,7 +11239,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="389" spans="1:8">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>1.5</v>
       </c>
@@ -11254,7 +11262,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="390" spans="1:8">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>2.7</v>
       </c>
@@ -11277,7 +11285,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="391" spans="1:8">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>2</v>
       </c>
@@ -11300,7 +11308,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="392" spans="1:8">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>17.5</v>
       </c>
@@ -11323,7 +11331,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="393" spans="1:8">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>43</v>
       </c>
@@ -11346,7 +11354,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="394" spans="1:8">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>69.900000000000006</v>
       </c>
@@ -11369,7 +11377,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="395" spans="1:8">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>16</v>
       </c>
@@ -11392,7 +11400,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="396" spans="1:8">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>2.2000000000000002</v>
       </c>
@@ -11415,7 +11423,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="397" spans="1:8">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>1.72</v>
       </c>
@@ -11438,7 +11446,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="398" spans="1:8">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>6</v>
       </c>
@@ -11461,7 +11469,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="399" spans="1:8">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>1.8</v>
       </c>
@@ -11484,7 +11492,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="400" spans="1:8">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>4.5999999999999996</v>
       </c>
@@ -11507,7 +11515,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="401" spans="1:8">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>27</v>
       </c>
@@ -11530,7 +11538,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="402" spans="1:8">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>14</v>
       </c>
@@ -11553,7 +11561,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="403" spans="1:8">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>2.5</v>
       </c>
@@ -11576,7 +11584,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="404" spans="1:8">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>10</v>
       </c>
@@ -11599,7 +11607,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="405" spans="1:8">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>11</v>
       </c>
@@ -11622,7 +11630,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="406" spans="1:8">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>5.55</v>
       </c>
@@ -11645,7 +11653,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="407" spans="1:8">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>3</v>
       </c>
@@ -11668,7 +11676,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="408" spans="1:8">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>3.5</v>
       </c>
@@ -11691,7 +11699,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="409" spans="1:8">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>3.8</v>
       </c>
@@ -11714,7 +11722,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="410" spans="1:8">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>4</v>
       </c>
@@ -11737,7 +11745,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="411" spans="1:8">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>8</v>
       </c>
@@ -11760,7 +11768,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="412" spans="1:8">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>11.6</v>
       </c>
@@ -11783,7 +11791,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="413" spans="1:8">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>1.6</v>
       </c>
@@ -11806,7 +11814,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="414" spans="1:8">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>44.41</v>
       </c>
@@ -11829,7 +11837,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="415" spans="1:8">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>4.8</v>
       </c>
@@ -11852,7 +11860,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="416" spans="1:8">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>1.7</v>
       </c>
@@ -11875,7 +11883,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="417" spans="1:8">
+    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>2.85</v>
       </c>
@@ -11898,7 +11906,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="418" spans="1:8">
+    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>6.4</v>
       </c>
@@ -11921,7 +11929,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="419" spans="1:8">
+    <row r="419" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>3.5</v>
       </c>
@@ -11944,7 +11952,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="420" spans="1:8">
+    <row r="420" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>6.5</v>
       </c>
@@ -11967,7 +11975,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="421" spans="1:8">
+    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>1.2</v>
       </c>
@@ -11990,7 +11998,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="422" spans="1:8">
+    <row r="422" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>4.5999999999999996</v>
       </c>
@@ -12013,7 +12021,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="423" spans="1:8">
+    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>8</v>
       </c>
@@ -12036,7 +12044,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="424" spans="1:8">
+    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>3.5</v>
       </c>
@@ -12059,7 +12067,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="425" spans="1:8">
+    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
         <v>50</v>
       </c>
@@ -12083,7 +12091,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="426" spans="1:8">
+    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>10</v>
       </c>
@@ -12106,7 +12114,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="427" spans="1:8">
+    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>2.9</v>
       </c>
@@ -12129,7 +12137,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="428" spans="1:8">
+    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>15</v>
       </c>
@@ -12152,7 +12160,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="429" spans="1:8">
+    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>3.5</v>
       </c>
@@ -12175,7 +12183,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="430" spans="1:8">
+    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>9.25</v>
       </c>
@@ -12198,7 +12206,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="431" spans="1:8">
+    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>8</v>
       </c>
@@ -12221,7 +12229,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="432" spans="1:8">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>4.0999999999999996</v>
       </c>
@@ -12244,7 +12252,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="433" spans="1:8">
+    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>4.9000000000000004</v>
       </c>
@@ -12267,7 +12275,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="434" spans="1:8">
+    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>2.8</v>
       </c>
@@ -12290,7 +12298,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="435" spans="1:8">
+    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>18.7</v>
       </c>
@@ -12313,7 +12321,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="436" spans="1:8">
+    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>20</v>
       </c>
@@ -12336,7 +12344,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="437" spans="1:8">
+    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
         <v>150</v>
       </c>
@@ -12360,7 +12368,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="438" spans="1:8">
+    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
         <v>10</v>
       </c>
@@ -12384,7 +12392,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="439" spans="1:8">
+    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>2.1</v>
       </c>
@@ -12407,7 +12415,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="440" spans="1:8">
+    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>5</v>
       </c>
@@ -12430,7 +12438,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="441" spans="1:8">
+    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>10</v>
       </c>
@@ -12453,7 +12461,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="442" spans="1:8">
+    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>59</v>
       </c>
@@ -12476,7 +12484,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="443" spans="1:8">
+    <row r="443" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>4</v>
       </c>
@@ -12499,7 +12507,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="444" spans="1:8">
+    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>4.17</v>
       </c>
@@ -12522,7 +12530,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="445" spans="1:8">
+    <row r="445" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>4.2</v>
       </c>
@@ -12545,7 +12553,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="446" spans="1:8">
+    <row r="446" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>4.4000000000000004</v>
       </c>
@@ -12568,7 +12576,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="447" spans="1:8">
+    <row r="447" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>30</v>
       </c>
@@ -12591,7 +12599,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="448" spans="1:8">
+    <row r="448" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>5</v>
       </c>
@@ -12614,7 +12622,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="449" spans="1:8">
+    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>15.7</v>
       </c>
@@ -12637,7 +12645,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="450" spans="1:8">
+    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>4</v>
       </c>
@@ -12660,7 +12668,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="451" spans="1:8">
+    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>8</v>
       </c>
@@ -12683,7 +12691,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="452" spans="1:8">
+    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>3.5</v>
       </c>
@@ -12706,7 +12714,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="453" spans="1:8">
+    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>4.2</v>
       </c>
@@ -12729,7 +12737,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="454" spans="1:8">
+    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>180</v>
       </c>
@@ -12752,7 +12760,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="455" spans="1:8">
+    <row r="455" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>2.2999999999999998</v>
       </c>
@@ -12775,7 +12783,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="456" spans="1:8">
+    <row r="456" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>11</v>
       </c>
@@ -12798,7 +12806,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="457" spans="1:8">
+    <row r="457" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>2</v>
       </c>
@@ -12821,7 +12829,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="458" spans="1:8">
+    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>3</v>
       </c>
@@ -12844,7 +12852,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="459" spans="1:8">
+    <row r="459" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>6.4</v>
       </c>
@@ -12867,7 +12875,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="460" spans="1:8">
+    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>3.2</v>
       </c>
@@ -12890,7 +12898,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="461" spans="1:8">
+    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>1</v>
       </c>
@@ -12913,7 +12921,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="462" spans="1:8">
+    <row r="462" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>4.2</v>
       </c>
@@ -12936,7 +12944,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="463" spans="1:8">
+    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>14</v>
       </c>
@@ -12959,7 +12967,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="464" spans="1:8">
+    <row r="464" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>2.9</v>
       </c>
@@ -12982,7 +12990,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="465" spans="1:8">
+    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>4</v>
       </c>
@@ -13005,7 +13013,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="466" spans="1:8">
+    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>1.8</v>
       </c>
@@ -13028,7 +13036,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="467" spans="1:8">
+    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>18</v>
       </c>
@@ -13051,7 +13059,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="468" spans="1:8">
+    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>2</v>
       </c>
@@ -13074,7 +13082,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="469" spans="1:8">
+    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>3</v>
       </c>
@@ -13097,7 +13105,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="470" spans="1:8">
+    <row r="470" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>10</v>
       </c>
@@ -13120,7 +13128,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="471" spans="1:8">
+    <row r="471" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>8.3000000000000007</v>
       </c>
@@ -13143,7 +13151,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="472" spans="1:8">
+    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>362</v>
       </c>
@@ -13166,7 +13174,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="473" spans="1:8">
+    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>4.2</v>
       </c>
@@ -13189,7 +13197,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="474" spans="1:8">
+    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>0.5</v>
       </c>
@@ -13212,7 +13220,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="475" spans="1:8">
+    <row r="475" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>1.7</v>
       </c>
@@ -13235,7 +13243,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="476" spans="1:8">
+    <row r="476" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>4.5999999999999996</v>
       </c>
@@ -13258,7 +13266,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="477" spans="1:8">
+    <row r="477" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>4.7</v>
       </c>
@@ -13281,7 +13289,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="478" spans="1:8">
+    <row r="478" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>1</v>
       </c>
@@ -13304,7 +13312,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="479" spans="1:8">
+    <row r="479" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>5.6</v>
       </c>
@@ -13327,7 +13335,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="480" spans="1:8">
+    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>33.799999999999997</v>
       </c>
@@ -13350,7 +13358,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="481" spans="1:8">
+    <row r="481" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>8</v>
       </c>
@@ -13373,7 +13381,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="482" spans="1:8">
+    <row r="482" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>5.2</v>
       </c>
@@ -13396,7 +13404,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="483" spans="1:8">
+    <row r="483" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>5.4</v>
       </c>
@@ -13419,7 +13427,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="484" spans="1:8">
+    <row r="484" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>40</v>
       </c>
@@ -13442,7 +13450,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="485" spans="1:8">
+    <row r="485" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>10.8</v>
       </c>
@@ -13465,7 +13473,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="486" spans="1:8">
+    <row r="486" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>15</v>
       </c>
@@ -13488,7 +13496,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="487" spans="1:8">
+    <row r="487" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>20</v>
       </c>
@@ -13511,7 +13519,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="488" spans="1:8">
+    <row r="488" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>3</v>
       </c>
@@ -13534,7 +13542,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="489" spans="1:8">
+    <row r="489" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>3.5</v>
       </c>
@@ -13557,7 +13565,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="490" spans="1:8">
+    <row r="490" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>2.2000000000000002</v>
       </c>
@@ -13580,7 +13588,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="491" spans="1:8">
+    <row r="491" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>4.5</v>
       </c>
@@ -13603,7 +13611,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="492" spans="1:8">
+    <row r="492" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A492">
         <v>4.2</v>
       </c>
@@ -13626,7 +13634,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="493" spans="1:8">
+    <row r="493" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A493">
         <v>5</v>
       </c>
@@ -13649,7 +13657,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="494" spans="1:8">
+    <row r="494" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A494" s="1">
         <v>27.69</v>
       </c>
@@ -13673,7 +13681,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="495" spans="1:8">
+    <row r="495" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A495">
         <v>70</v>
       </c>
@@ -13696,7 +13704,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="496" spans="1:8">
+    <row r="496" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A496" s="1">
         <v>2.2999999999999998</v>
       </c>
@@ -13720,7 +13728,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="497" spans="1:8">
+    <row r="497" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A497">
         <v>3.2</v>
       </c>
@@ -13743,7 +13751,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="498" spans="1:8">
+    <row r="498" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A498">
         <v>3.6</v>
       </c>
@@ -13766,7 +13774,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="499" spans="1:8">
+    <row r="499" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>0.5</v>
       </c>
@@ -13789,7 +13797,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="500" spans="1:8">
+    <row r="500" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>10</v>
       </c>
@@ -13812,7 +13820,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="501" spans="1:8">
+    <row r="501" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>2</v>
       </c>
@@ -13835,7 +13843,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="502" spans="1:8">
+    <row r="502" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A502" s="1">
         <v>1.9</v>
       </c>
@@ -13859,7 +13867,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="503" spans="1:8">
+    <row r="503" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A503">
         <v>6.6</v>
       </c>
@@ -13882,7 +13890,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="504" spans="1:8">
+    <row r="504" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A504">
         <v>1.8</v>
       </c>
@@ -13905,7 +13913,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="505" spans="1:8">
+    <row r="505" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A505" s="1">
         <v>0.8</v>
       </c>
@@ -13929,7 +13937,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="506" spans="1:8">
+    <row r="506" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A506">
         <v>4.2</v>
       </c>
@@ -13952,7 +13960,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="507" spans="1:8">
+    <row r="507" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A507">
         <v>4</v>
       </c>
@@ -13975,7 +13983,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="508" spans="1:8">
+    <row r="508" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A508">
         <v>1.2</v>
       </c>
@@ -13998,7 +14006,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="509" spans="1:8">
+    <row r="509" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A509">
         <v>5</v>
       </c>
@@ -14021,7 +14029,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="510" spans="1:8">
+    <row r="510" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A510">
         <v>3.5</v>
       </c>
@@ -14044,7 +14052,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="511" spans="1:8">
+    <row r="511" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A511" s="1">
         <v>1.75</v>
       </c>
@@ -14068,7 +14076,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="512" spans="1:8">
+    <row r="512" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A512">
         <v>4.2</v>
       </c>
@@ -14091,7 +14099,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="513" spans="1:8">
+    <row r="513" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A513">
         <v>5.6</v>
       </c>
@@ -14114,7 +14122,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="514" spans="1:8">
+    <row r="514" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A514">
         <v>3.6</v>
       </c>
@@ -14137,7 +14145,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="515" spans="1:8">
+    <row r="515" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A515">
         <v>15.93</v>
       </c>
@@ -14160,7 +14168,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="516" spans="1:8">
+    <row r="516" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A516">
         <v>5.98</v>
       </c>
@@ -14183,7 +14191,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="517" spans="1:8">
+    <row r="517" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A517">
         <v>5</v>
       </c>
@@ -14206,7 +14214,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="518" spans="1:8">
+    <row r="518" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A518">
         <v>4.2</v>
       </c>
@@ -14229,7 +14237,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="519" spans="1:8">
+    <row r="519" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A519">
         <v>4.2</v>
       </c>
@@ -14252,7 +14260,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="520" spans="1:8">
+    <row r="520" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A520">
         <v>4</v>
       </c>
@@ -14275,7 +14283,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="521" spans="1:8">
+    <row r="521" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A521">
         <v>3</v>
       </c>
@@ -14298,7 +14306,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="522" spans="1:8">
+    <row r="522" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A522">
         <v>2</v>
       </c>
@@ -14321,7 +14329,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="523" spans="1:8">
+    <row r="523" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A523">
         <v>1</v>
       </c>
@@ -14344,7 +14352,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="524" spans="1:8">
+    <row r="524" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A524" s="1">
         <v>4.0999999999999996</v>
       </c>
@@ -14368,7 +14376,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="525" spans="1:8">
+    <row r="525" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A525">
         <v>78.180000000000007</v>
       </c>
@@ -14391,7 +14399,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="526" spans="1:8">
+    <row r="526" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A526">
         <v>5.2</v>
       </c>
@@ -14414,7 +14422,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="527" spans="1:8">
+    <row r="527" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A527">
         <v>1.2</v>
       </c>
@@ -14437,7 +14445,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="528" spans="1:8">
+    <row r="528" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A528">
         <v>4.5</v>
       </c>
@@ -14460,7 +14468,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="529" spans="1:8">
+    <row r="529" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A529">
         <v>3.4</v>
       </c>
@@ -14483,7 +14491,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="530" spans="1:8">
+    <row r="530" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A530">
         <v>16</v>
       </c>
@@ -14506,7 +14514,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="531" spans="1:8">
+    <row r="531" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A531">
         <v>2.5</v>
       </c>
@@ -14529,7 +14537,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="532" spans="1:8">
+    <row r="532" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A532">
         <v>0.8</v>
       </c>
@@ -14552,7 +14560,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="533" spans="1:8">
+    <row r="533" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A533">
         <v>2.8</v>
       </c>
@@ -14575,7 +14583,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="534" spans="1:8">
+    <row r="534" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A534">
         <v>3.5</v>
       </c>
@@ -14598,7 +14606,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="535" spans="1:8">
+    <row r="535" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A535">
         <v>3.6</v>
       </c>
@@ -14621,7 +14629,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="536" spans="1:8">
+    <row r="536" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A536">
         <v>6.8</v>
       </c>
@@ -14644,7 +14652,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="537" spans="1:8">
+    <row r="537" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A537">
         <v>5</v>
       </c>
@@ -14667,7 +14675,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="538" spans="1:8">
+    <row r="538" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A538">
         <v>4.9000000000000004</v>
       </c>
@@ -14690,7 +14698,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="539" spans="1:8">
+    <row r="539" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A539">
         <v>80</v>
       </c>
@@ -14713,7 +14721,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="540" spans="1:8">
+    <row r="540" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A540">
         <v>55</v>
       </c>
@@ -14736,7 +14744,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="541" spans="1:8">
+    <row r="541" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A541">
         <v>10</v>
       </c>
@@ -14759,7 +14767,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="542" spans="1:8">
+    <row r="542" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A542">
         <v>1</v>
       </c>
@@ -14782,7 +14790,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="543" spans="1:8">
+    <row r="543" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A543" s="1">
         <v>1.65</v>
       </c>
@@ -14806,7 +14814,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="544" spans="1:8">
+    <row r="544" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A544" s="1">
         <v>4.5</v>
       </c>
@@ -14830,7 +14838,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="545" spans="1:8">
+    <row r="545" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A545">
         <v>4.8</v>
       </c>
@@ -14854,7 +14862,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="546" spans="1:8">
+    <row r="546" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A546" s="1">
         <v>9.5</v>
       </c>
@@ -14878,7 +14886,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="547" spans="1:8">
+    <row r="547" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A547">
         <v>10</v>
       </c>
@@ -14901,7 +14909,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="548" spans="1:8">
+    <row r="548" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A548">
         <v>4.8</v>
       </c>
@@ -14924,7 +14932,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="549" spans="1:8">
+    <row r="549" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A549">
         <v>6.1</v>
       </c>
@@ -14947,7 +14955,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="550" spans="1:8">
+    <row r="550" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A550">
         <v>4.8</v>
       </c>
@@ -14970,7 +14978,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="551" spans="1:8">
+    <row r="551" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A551">
         <v>4.7300000000000004</v>
       </c>
@@ -14993,7 +15001,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="552" spans="1:8">
+    <row r="552" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A552">
         <v>2.6</v>
       </c>
@@ -15016,7 +15024,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="553" spans="1:8">
+    <row r="553" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A553">
         <v>3.7</v>
       </c>
@@ -15039,7 +15047,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="554" spans="1:8">
+    <row r="554" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A554">
         <v>120</v>
       </c>
@@ -15062,7 +15070,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="555" spans="1:8">
+    <row r="555" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A555">
         <v>6.8</v>
       </c>
@@ -15085,7 +15093,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="556" spans="1:8">
+    <row r="556" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A556">
         <v>5</v>
       </c>
@@ -15108,7 +15116,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="557" spans="1:8">
+    <row r="557" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A557">
         <v>3.8</v>
       </c>
@@ -15131,7 +15139,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="558" spans="1:8">
+    <row r="558" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A558">
         <v>3.9</v>
       </c>
@@ -15154,7 +15162,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="559" spans="1:8">
+    <row r="559" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A559">
         <v>2.7</v>
       </c>
@@ -15177,7 +15185,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="560" spans="1:8">
+    <row r="560" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A560">
         <v>1</v>
       </c>
@@ -15200,7 +15208,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="561" spans="1:8">
+    <row r="561" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A561">
         <v>1</v>
       </c>
@@ -15223,7 +15231,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="562" spans="1:8">
+    <row r="562" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A562">
         <v>3.5</v>
       </c>
@@ -15246,7 +15254,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="563" spans="1:8">
+    <row r="563" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A563">
         <v>7.1</v>
       </c>
@@ -15269,7 +15277,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="564" spans="1:8">
+    <row r="564" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A564">
         <v>49.98</v>
       </c>
@@ -15292,7 +15300,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="565" spans="1:8">
+    <row r="565" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A565">
         <v>4.74</v>
       </c>
@@ -15315,7 +15323,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="566" spans="1:8">
+    <row r="566" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A566">
         <v>6.2</v>
       </c>
@@ -15338,7 +15346,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="567" spans="1:8">
+    <row r="567" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A567">
         <v>3.17</v>
       </c>
@@ -15361,7 +15369,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="568" spans="1:8">
+    <row r="568" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A568">
         <v>4.1500000000000004</v>
       </c>
@@ -15384,7 +15392,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="569" spans="1:8">
+    <row r="569" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A569">
         <v>1.8</v>
       </c>
@@ -15407,7 +15415,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="570" spans="1:8">
+    <row r="570" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A570">
         <v>7</v>
       </c>
@@ -15430,7 +15438,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="571" spans="1:8">
+    <row r="571" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A571">
         <v>8</v>
       </c>
@@ -15453,7 +15461,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="572" spans="1:8">
+    <row r="572" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A572">
         <v>2.2999999999999998</v>
       </c>
@@ -15476,7 +15484,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="573" spans="1:8">
+    <row r="573" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A573">
         <v>1.2</v>
       </c>
@@ -15499,7 +15507,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="574" spans="1:8">
+    <row r="574" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A574">
         <v>5.0999999999999996</v>
       </c>
@@ -15522,7 +15530,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="575" spans="1:8">
+    <row r="575" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A575">
         <v>4</v>
       </c>
@@ -15545,7 +15553,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="576" spans="1:8">
+    <row r="576" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A576">
         <v>4</v>
       </c>
@@ -15568,7 +15576,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="577" spans="1:8">
+    <row r="577" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A577">
         <v>4.5999999999999996</v>
       </c>
@@ -15591,7 +15599,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="578" spans="1:8">
+    <row r="578" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A578">
         <v>4.5999999999999996</v>
       </c>
@@ -15614,7 +15622,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="579" spans="1:8">
+    <row r="579" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A579">
         <v>4.5999999999999996</v>
       </c>
@@ -15637,7 +15645,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="580" spans="1:8">
+    <row r="580" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A580">
         <v>2.9</v>
       </c>
@@ -15660,7 +15668,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="581" spans="1:8">
+    <row r="581" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A581">
         <v>11.6</v>
       </c>
@@ -15683,7 +15691,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="582" spans="1:8">
+    <row r="582" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A582">
         <v>0.75</v>
       </c>
@@ -15706,7 +15714,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="583" spans="1:8">
+    <row r="583" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A583">
         <v>2</v>
       </c>
@@ -15729,7 +15737,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="584" spans="1:8">
+    <row r="584" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A584">
         <v>10</v>
       </c>
@@ -15752,7 +15760,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="585" spans="1:8">
+    <row r="585" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A585">
         <v>3.3</v>
       </c>
@@ -15775,7 +15783,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="586" spans="1:8">
+    <row r="586" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A586">
         <v>4.4000000000000004</v>
       </c>
@@ -15798,7 +15806,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="587" spans="1:8">
+    <row r="587" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A587">
         <v>3</v>
       </c>
@@ -15821,7 +15829,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="588" spans="1:8">
+    <row r="588" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A588">
         <v>8.6999999999999993</v>
       </c>
@@ -15844,7 +15852,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="589" spans="1:8">
+    <row r="589" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A589">
         <v>3</v>
       </c>
@@ -15867,7 +15875,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="590" spans="1:8">
+    <row r="590" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A590">
         <v>15</v>
       </c>
@@ -15890,7 +15898,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="591" spans="1:8">
+    <row r="591" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A591">
         <v>5</v>
       </c>
@@ -15913,7 +15921,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="592" spans="1:8">
+    <row r="592" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A592">
         <v>3.9</v>
       </c>
@@ -15936,7 +15944,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="593" spans="1:8">
+    <row r="593" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A593">
         <v>2.85</v>
       </c>
@@ -15959,7 +15967,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="594" spans="1:8">
+    <row r="594" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A594">
         <v>3</v>
       </c>
@@ -15982,7 +15990,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="595" spans="1:8">
+    <row r="595" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A595">
         <v>4.4000000000000004</v>
       </c>
@@ -16005,7 +16013,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="596" spans="1:8">
+    <row r="596" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A596">
         <v>3</v>
       </c>
@@ -16028,7 +16036,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="597" spans="1:8">
+    <row r="597" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A597">
         <v>3</v>
       </c>
@@ -16051,7 +16059,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="598" spans="1:8">
+    <row r="598" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A598">
         <v>3</v>
       </c>
@@ -16074,7 +16082,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="599" spans="1:8">
+    <row r="599" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A599">
         <v>4</v>
       </c>
@@ -16097,7 +16105,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="600" spans="1:8">
+    <row r="600" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A600">
         <v>5</v>
       </c>
@@ -16120,7 +16128,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="601" spans="1:8">
+    <row r="601" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A601">
         <v>4</v>
       </c>
@@ -16143,7 +16151,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="602" spans="1:8">
+    <row r="602" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A602">
         <v>3</v>
       </c>
@@ -16166,7 +16174,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="603" spans="1:8">
+    <row r="603" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A603">
         <v>12</v>
       </c>
@@ -16189,7 +16197,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="604" spans="1:8">
+    <row r="604" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A604">
         <v>3</v>
       </c>
@@ -16212,7 +16220,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="605" spans="1:8">
+    <row r="605" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A605">
         <v>6</v>
       </c>
@@ -16235,7 +16243,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="606" spans="1:8">
+    <row r="606" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A606">
         <v>5</v>
       </c>
@@ -16258,7 +16266,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="607" spans="1:8">
+    <row r="607" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A607">
         <v>10</v>
       </c>
@@ -16281,7 +16289,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="608" spans="1:8">
+    <row r="608" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A608">
         <v>19</v>
       </c>
@@ -16304,7 +16312,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="609" spans="1:9">
+    <row r="609" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A609">
         <v>5.55</v>
       </c>
@@ -16327,7 +16335,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="610" spans="1:9">
+    <row r="610" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A610">
         <v>0.9</v>
       </c>
@@ -16350,7 +16358,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="611" spans="1:9">
+    <row r="611" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A611">
         <v>10.7</v>
       </c>
@@ -16373,7 +16381,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="612" spans="1:9">
+    <row r="612" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A612" s="1">
         <v>9</v>
       </c>
@@ -16398,7 +16406,7 @@
       </c>
       <c r="I612" s="1"/>
     </row>
-    <row r="613" spans="1:9">
+    <row r="613" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A613">
         <v>1.2</v>
       </c>
@@ -16421,7 +16429,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="614" spans="1:9">
+    <row r="614" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A614">
         <v>5.3</v>
       </c>
@@ -16444,7 +16452,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="615" spans="1:9">
+    <row r="615" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A615">
         <v>11.5</v>
       </c>
@@ -16467,7 +16475,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="616" spans="1:9">
+    <row r="616" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A616">
         <v>4</v>
       </c>
@@ -16490,7 +16498,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="617" spans="1:9">
+    <row r="617" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A617">
         <v>1</v>
       </c>
@@ -16513,7 +16521,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="618" spans="1:9">
+    <row r="618" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A618">
         <v>1.2</v>
       </c>
@@ -16534,6 +16542,52 @@
       </c>
       <c r="H618" t="s">
         <v>234</v>
+      </c>
+    </row>
+    <row r="619" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A619">
+        <v>15</v>
+      </c>
+      <c r="B619" t="s">
+        <v>334</v>
+      </c>
+      <c r="C619" s="2">
+        <v>43437</v>
+      </c>
+      <c r="D619" t="s">
+        <v>603</v>
+      </c>
+      <c r="E619" t="s">
+        <v>231</v>
+      </c>
+      <c r="F619">
+        <v>5</v>
+      </c>
+      <c r="H619" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="620" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A620">
+        <v>100</v>
+      </c>
+      <c r="B620" t="s">
+        <v>578</v>
+      </c>
+      <c r="C620" s="2">
+        <v>43437</v>
+      </c>
+      <c r="D620" t="s">
+        <v>604</v>
+      </c>
+      <c r="E620" t="s">
+        <v>231</v>
+      </c>
+      <c r="F620">
+        <v>5</v>
+      </c>
+      <c r="H620" t="s">
+        <v>243</v>
       </c>
     </row>
   </sheetData>

--- a/DataBase/costs.xlsx
+++ b/DataBase/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2489" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2493" uniqueCount="606">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1829,6 +1829,9 @@
   </si>
   <si>
     <t>Cloud service 1.000GB in Mega.tz for bckup</t>
+  </si>
+  <si>
+    <t>φαγητό με Σταβρινό στο Gaspar πίτσα και σαλάτα</t>
   </si>
 </sst>
 </file>
@@ -1972,7 +1975,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:I620" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:I621" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="9">
     <tableColumn id="1" name="amount" headerRowDxfId="9" totalsRowDxfId="8"/>
     <tableColumn id="11" name="type" totalsRowDxfId="7"/>
@@ -2275,10 +2278,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L620"/>
+  <dimension ref="A1:L621"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A609" workbookViewId="0">
-      <selection activeCell="A621" sqref="A621"/>
+    <sheetView tabSelected="1" topLeftCell="A612" workbookViewId="0">
+      <selection activeCell="A622" sqref="A622"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16590,6 +16593,29 @@
         <v>243</v>
       </c>
     </row>
+    <row r="621" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A621">
+        <v>52</v>
+      </c>
+      <c r="B621" t="s">
+        <v>217</v>
+      </c>
+      <c r="C621" s="2">
+        <v>43438</v>
+      </c>
+      <c r="D621" t="s">
+        <v>605</v>
+      </c>
+      <c r="E621" t="s">
+        <v>231</v>
+      </c>
+      <c r="F621">
+        <v>5</v>
+      </c>
+      <c r="H621" t="s">
+        <v>388</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataBase/costs.xlsx
+++ b/DataBase/costs.xlsx
@@ -2281,7 +2281,7 @@
   <dimension ref="A1:L621"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A612" workbookViewId="0">
-      <selection activeCell="A622" sqref="A622"/>
+      <selection activeCell="B623" sqref="B623"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/DataBase/costs.xlsx
+++ b/DataBase/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2493" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2497" uniqueCount="606">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1975,7 +1975,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:I621" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:I622" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="9">
     <tableColumn id="1" name="amount" headerRowDxfId="9" totalsRowDxfId="8"/>
     <tableColumn id="11" name="type" totalsRowDxfId="7"/>
@@ -2278,10 +2278,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L621"/>
+  <dimension ref="A1:L622"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A612" workbookViewId="0">
-      <selection activeCell="B623" sqref="B623"/>
+    <sheetView tabSelected="1" topLeftCell="A606" workbookViewId="0">
+      <selection activeCell="E623" sqref="E623"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16616,6 +16616,29 @@
         <v>388</v>
       </c>
     </row>
+    <row r="622" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A622">
+        <v>80</v>
+      </c>
+      <c r="B622" t="s">
+        <v>341</v>
+      </c>
+      <c r="C622" s="2">
+        <v>43438</v>
+      </c>
+      <c r="D622" t="s">
+        <v>479</v>
+      </c>
+      <c r="E622" t="s">
+        <v>231</v>
+      </c>
+      <c r="F622">
+        <v>5</v>
+      </c>
+      <c r="H622" t="s">
+        <v>234</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataBase/costs.xlsx
+++ b/DataBase/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2497" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2505" uniqueCount="608">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1832,6 +1832,12 @@
   </si>
   <si>
     <t>φαγητό με Σταβρινό στο Gaspar πίτσα και σαλάτα</t>
+  </si>
+  <si>
+    <t>ζαχαρωτά στη Χριστουγεννιάτικη αγορά</t>
+  </si>
+  <si>
+    <t>(+ σουβλάκια μανούλας, + σουβλάκια πατέρα)</t>
   </si>
 </sst>
 </file>
@@ -1975,7 +1981,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:I622" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:I624" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="9">
     <tableColumn id="1" name="amount" headerRowDxfId="9" totalsRowDxfId="8"/>
     <tableColumn id="11" name="type" totalsRowDxfId="7"/>
@@ -2278,10 +2284,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L622"/>
+  <dimension ref="A1:L624"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A606" workbookViewId="0">
-      <selection activeCell="E623" sqref="E623"/>
+      <selection activeCell="A625" sqref="A625"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16624,7 +16630,7 @@
         <v>341</v>
       </c>
       <c r="C622" s="2">
-        <v>43438</v>
+        <v>43439</v>
       </c>
       <c r="D622" t="s">
         <v>479</v>
@@ -16637,6 +16643,52 @@
       </c>
       <c r="H622" t="s">
         <v>234</v>
+      </c>
+    </row>
+    <row r="623" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A623">
+        <v>9</v>
+      </c>
+      <c r="B623" t="s">
+        <v>217</v>
+      </c>
+      <c r="C623" s="2">
+        <v>43440</v>
+      </c>
+      <c r="D623" t="s">
+        <v>606</v>
+      </c>
+      <c r="E623" t="s">
+        <v>231</v>
+      </c>
+      <c r="F623">
+        <v>5</v>
+      </c>
+      <c r="H623" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="624" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A624">
+        <v>8</v>
+      </c>
+      <c r="B624" t="s">
+        <v>217</v>
+      </c>
+      <c r="C624" s="2">
+        <v>43440</v>
+      </c>
+      <c r="D624" t="s">
+        <v>607</v>
+      </c>
+      <c r="E624" t="s">
+        <v>231</v>
+      </c>
+      <c r="F624">
+        <v>5</v>
+      </c>
+      <c r="H624" t="s">
+        <v>263</v>
       </c>
     </row>
   </sheetData>

--- a/DataBase/costs.xlsx
+++ b/DataBase/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2505" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2513" uniqueCount="609">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1838,6 +1838,9 @@
   </si>
   <si>
     <t>(+ σουβλάκια μανούλας, + σουβλάκια πατέρα)</t>
+  </si>
+  <si>
+    <t>μπουγάτσα με σοκολάτα και μπουγάτσα με τυρί</t>
   </si>
 </sst>
 </file>
@@ -1981,7 +1984,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:I624" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:I626" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="9">
     <tableColumn id="1" name="amount" headerRowDxfId="9" totalsRowDxfId="8"/>
     <tableColumn id="11" name="type" totalsRowDxfId="7"/>
@@ -2284,10 +2287,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L624"/>
+  <dimension ref="A1:L626"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A606" workbookViewId="0">
-      <selection activeCell="A625" sqref="A625"/>
+    <sheetView tabSelected="1" topLeftCell="A618" workbookViewId="0">
+      <selection activeCell="F630" sqref="F630"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16691,6 +16694,52 @@
         <v>263</v>
       </c>
     </row>
+    <row r="625" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A625">
+        <v>10</v>
+      </c>
+      <c r="B625" t="s">
+        <v>344</v>
+      </c>
+      <c r="C625" s="2">
+        <v>43441</v>
+      </c>
+      <c r="D625" t="s">
+        <v>60</v>
+      </c>
+      <c r="E625" t="s">
+        <v>231</v>
+      </c>
+      <c r="F625">
+        <v>5</v>
+      </c>
+      <c r="H625" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="626" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A626">
+        <v>3.5</v>
+      </c>
+      <c r="B626" t="s">
+        <v>217</v>
+      </c>
+      <c r="C626" s="2">
+        <v>43441</v>
+      </c>
+      <c r="D626" t="s">
+        <v>608</v>
+      </c>
+      <c r="E626" t="s">
+        <v>231</v>
+      </c>
+      <c r="F626">
+        <v>5</v>
+      </c>
+      <c r="H626" t="s">
+        <v>243</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataBase/costs.xlsx
+++ b/DataBase/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2513" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2517" uniqueCount="610">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1841,6 +1841,9 @@
   </si>
   <si>
     <t>μπουγάτσα με σοκολάτα και μπουγάτσα με τυρί</t>
+  </si>
+  <si>
+    <t>πέννες φούρνου και 10 σκορδόψωμα</t>
   </si>
 </sst>
 </file>
@@ -1984,7 +1987,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:I626" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:I627" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="9">
     <tableColumn id="1" name="amount" headerRowDxfId="9" totalsRowDxfId="8"/>
     <tableColumn id="11" name="type" totalsRowDxfId="7"/>
@@ -2287,10 +2290,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L626"/>
+  <dimension ref="A1:L627"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A618" workbookViewId="0">
-      <selection activeCell="F630" sqref="F630"/>
+      <selection activeCell="A628" sqref="A628"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16740,6 +16743,29 @@
         <v>243</v>
       </c>
     </row>
+    <row r="627" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A627">
+        <v>9</v>
+      </c>
+      <c r="B627" t="s">
+        <v>217</v>
+      </c>
+      <c r="C627" s="2">
+        <v>43441</v>
+      </c>
+      <c r="D627" t="s">
+        <v>609</v>
+      </c>
+      <c r="E627" t="s">
+        <v>231</v>
+      </c>
+      <c r="F627">
+        <v>5</v>
+      </c>
+      <c r="H627" t="s">
+        <v>243</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataBase/costs.xlsx
+++ b/DataBase/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2513" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2529" uniqueCount="610">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1841,6 +1841,9 @@
   </si>
   <si>
     <t>μπουγάτσα με σοκολάτα και μπουγάτσα με τυρί</t>
+  </si>
+  <si>
+    <t>2 κομμάτια πίτσα χωριάτικη πριν δώσω Proficency</t>
   </si>
 </sst>
 </file>
@@ -1984,7 +1987,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:I626" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:I630" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="9">
     <tableColumn id="1" name="amount" headerRowDxfId="9" totalsRowDxfId="8"/>
     <tableColumn id="11" name="type" totalsRowDxfId="7"/>
@@ -2287,10 +2290,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L626"/>
+  <dimension ref="A1:L630"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A618" workbookViewId="0">
-      <selection activeCell="F630" sqref="F630"/>
+      <selection activeCell="C631" sqref="C631"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16740,6 +16743,98 @@
         <v>243</v>
       </c>
     </row>
+    <row r="627" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A627">
+        <v>60</v>
+      </c>
+      <c r="B627" t="s">
+        <v>337</v>
+      </c>
+      <c r="C627" s="2">
+        <v>43441</v>
+      </c>
+      <c r="D627" t="s">
+        <v>523</v>
+      </c>
+      <c r="E627" t="s">
+        <v>231</v>
+      </c>
+      <c r="F627">
+        <v>5</v>
+      </c>
+      <c r="H627" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="628" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A628">
+        <v>10</v>
+      </c>
+      <c r="B628" t="s">
+        <v>216</v>
+      </c>
+      <c r="C628" s="2">
+        <v>43442</v>
+      </c>
+      <c r="D628" t="s">
+        <v>2</v>
+      </c>
+      <c r="E628" t="s">
+        <v>231</v>
+      </c>
+      <c r="F628">
+        <v>5</v>
+      </c>
+      <c r="H628" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="629" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A629">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B629" t="s">
+        <v>217</v>
+      </c>
+      <c r="C629" s="2">
+        <v>43443</v>
+      </c>
+      <c r="D629" t="s">
+        <v>609</v>
+      </c>
+      <c r="E629" t="s">
+        <v>231</v>
+      </c>
+      <c r="F629">
+        <v>5</v>
+      </c>
+      <c r="H629" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="630" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A630">
+        <v>5</v>
+      </c>
+      <c r="B630" t="s">
+        <v>217</v>
+      </c>
+      <c r="C630" s="2">
+        <v>43444</v>
+      </c>
+      <c r="D630" t="s">
+        <v>464</v>
+      </c>
+      <c r="E630" t="s">
+        <v>231</v>
+      </c>
+      <c r="F630">
+        <v>5</v>
+      </c>
+      <c r="H630" t="s">
+        <v>243</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataBase/costs.xlsx
+++ b/DataBase/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2529" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2537" uniqueCount="611">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1844,6 +1844,9 @@
   </si>
   <si>
     <t>2 κομμάτια πίτσα χωριάτικη πριν δώσω Proficency</t>
+  </si>
+  <si>
+    <t>μπουγάτσα με σοκολάτα και μπουγάτσα με σπανάκι και τυρί</t>
   </si>
 </sst>
 </file>
@@ -1987,7 +1990,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:I630" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:I632" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="9">
     <tableColumn id="1" name="amount" headerRowDxfId="9" totalsRowDxfId="8"/>
     <tableColumn id="11" name="type" totalsRowDxfId="7"/>
@@ -2290,10 +2293,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L630"/>
+  <dimension ref="A1:L632"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A618" workbookViewId="0">
-      <selection activeCell="C631" sqref="C631"/>
+      <selection activeCell="D632" sqref="D632"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16835,6 +16838,52 @@
         <v>243</v>
       </c>
     </row>
+    <row r="631" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A631">
+        <v>3.6</v>
+      </c>
+      <c r="B631" t="s">
+        <v>217</v>
+      </c>
+      <c r="C631" s="2">
+        <v>43445</v>
+      </c>
+      <c r="D631" t="s">
+        <v>610</v>
+      </c>
+      <c r="E631" t="s">
+        <v>231</v>
+      </c>
+      <c r="F631">
+        <v>5</v>
+      </c>
+      <c r="H631" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="632" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A632">
+        <v>4.7</v>
+      </c>
+      <c r="B632" t="s">
+        <v>217</v>
+      </c>
+      <c r="C632" s="2">
+        <v>43445</v>
+      </c>
+      <c r="D632" t="s">
+        <v>117</v>
+      </c>
+      <c r="E632" t="s">
+        <v>231</v>
+      </c>
+      <c r="F632">
+        <v>5</v>
+      </c>
+      <c r="H632" t="s">
+        <v>243</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataBase/costs.xlsx
+++ b/DataBase/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2517" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2545" uniqueCount="612">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1843,7 +1843,13 @@
     <t>μπουγάτσα με σοκολάτα και μπουγάτσα με τυρί</t>
   </si>
   <si>
-    <t>πέννες φούρνου και 10 σκορδόψωμα</t>
+    <t>2 κομμάτια πίτσα χωριάτικη πριν δώσω Proficency</t>
+  </si>
+  <si>
+    <t>μπουγάτσα με σοκολάτα και μπουγάτσα με σπανάκι και τυρί</t>
+  </si>
+  <si>
+    <t>κρέπα σοκολάτα με μπανάνα</t>
   </si>
 </sst>
 </file>
@@ -1987,7 +1993,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:I627" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:I634" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="9">
     <tableColumn id="1" name="amount" headerRowDxfId="9" totalsRowDxfId="8"/>
     <tableColumn id="11" name="type" totalsRowDxfId="7"/>
@@ -2290,10 +2296,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L627"/>
+  <dimension ref="A1:L634"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A618" workbookViewId="0">
-      <selection activeCell="A628" sqref="A628"/>
+      <selection activeCell="D641" sqref="D641"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16745,24 +16751,185 @@
     </row>
     <row r="627" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A627">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="B627" t="s">
-        <v>217</v>
+        <v>337</v>
       </c>
       <c r="C627" s="2">
         <v>43441</v>
       </c>
       <c r="D627" t="s">
+        <v>523</v>
+      </c>
+      <c r="E627" t="s">
+        <v>231</v>
+      </c>
+      <c r="F627">
+        <v>5</v>
+      </c>
+      <c r="H627" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="628" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A628">
+        <v>10</v>
+      </c>
+      <c r="B628" t="s">
+        <v>216</v>
+      </c>
+      <c r="C628" s="2">
+        <v>43442</v>
+      </c>
+      <c r="D628" t="s">
+        <v>2</v>
+      </c>
+      <c r="E628" t="s">
+        <v>231</v>
+      </c>
+      <c r="F628">
+        <v>5</v>
+      </c>
+      <c r="H628" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="629" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A629">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B629" t="s">
+        <v>217</v>
+      </c>
+      <c r="C629" s="2">
+        <v>43443</v>
+      </c>
+      <c r="D629" t="s">
         <v>609</v>
       </c>
-      <c r="E627" t="s">
-        <v>231</v>
-      </c>
-      <c r="F627">
-        <v>5</v>
-      </c>
-      <c r="H627" t="s">
+      <c r="E629" t="s">
+        <v>231</v>
+      </c>
+      <c r="F629">
+        <v>5</v>
+      </c>
+      <c r="H629" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="630" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A630">
+        <v>5</v>
+      </c>
+      <c r="B630" t="s">
+        <v>217</v>
+      </c>
+      <c r="C630" s="2">
+        <v>43444</v>
+      </c>
+      <c r="D630" t="s">
+        <v>464</v>
+      </c>
+      <c r="E630" t="s">
+        <v>231</v>
+      </c>
+      <c r="F630">
+        <v>5</v>
+      </c>
+      <c r="H630" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="631" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A631">
+        <v>3.6</v>
+      </c>
+      <c r="B631" t="s">
+        <v>217</v>
+      </c>
+      <c r="C631" s="2">
+        <v>43445</v>
+      </c>
+      <c r="D631" t="s">
+        <v>610</v>
+      </c>
+      <c r="E631" t="s">
+        <v>231</v>
+      </c>
+      <c r="F631">
+        <v>5</v>
+      </c>
+      <c r="H631" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="632" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A632">
+        <v>4.7</v>
+      </c>
+      <c r="B632" t="s">
+        <v>217</v>
+      </c>
+      <c r="C632" s="2">
+        <v>43445</v>
+      </c>
+      <c r="D632" t="s">
+        <v>117</v>
+      </c>
+      <c r="E632" t="s">
+        <v>231</v>
+      </c>
+      <c r="F632">
+        <v>5</v>
+      </c>
+      <c r="H632" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="633" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A633">
+        <v>4.7</v>
+      </c>
+      <c r="B633" t="s">
+        <v>217</v>
+      </c>
+      <c r="C633" s="2">
+        <v>43446</v>
+      </c>
+      <c r="D633" t="s">
+        <v>435</v>
+      </c>
+      <c r="E633" t="s">
+        <v>231</v>
+      </c>
+      <c r="F633">
+        <v>5</v>
+      </c>
+      <c r="H633" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="634" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A634">
+        <v>3.7</v>
+      </c>
+      <c r="B634" t="s">
+        <v>217</v>
+      </c>
+      <c r="C634" s="2">
+        <v>43446</v>
+      </c>
+      <c r="D634" t="s">
+        <v>611</v>
+      </c>
+      <c r="E634" t="s">
+        <v>231</v>
+      </c>
+      <c r="F634">
+        <v>5</v>
+      </c>
+      <c r="H634" t="s">
         <v>243</v>
       </c>
     </row>

--- a/DataBase/costs.xlsx
+++ b/DataBase/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2545" uniqueCount="612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2553" uniqueCount="613">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1850,6 +1850,9 @@
   </si>
   <si>
     <t>κρέπα σοκολάτα με μπανάνα</t>
+  </si>
+  <si>
+    <t>τυρόπιτα κουρού, 2 σπανακόπιτες, κουλούρι, πεινιρλί</t>
   </si>
 </sst>
 </file>
@@ -1993,7 +1996,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:I634" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:I636" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="9">
     <tableColumn id="1" name="amount" headerRowDxfId="9" totalsRowDxfId="8"/>
     <tableColumn id="11" name="type" totalsRowDxfId="7"/>
@@ -2296,10 +2299,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L634"/>
+  <dimension ref="A1:L636"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A618" workbookViewId="0">
-      <selection activeCell="D641" sqref="D641"/>
+    <sheetView tabSelected="1" topLeftCell="A603" workbookViewId="0">
+      <selection activeCell="H637" sqref="H637"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16933,6 +16936,52 @@
         <v>243</v>
       </c>
     </row>
+    <row r="635" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A635">
+        <v>10</v>
+      </c>
+      <c r="B635" t="s">
+        <v>217</v>
+      </c>
+      <c r="C635" s="2">
+        <v>43446</v>
+      </c>
+      <c r="D635" t="s">
+        <v>606</v>
+      </c>
+      <c r="E635" t="s">
+        <v>231</v>
+      </c>
+      <c r="F635">
+        <v>5</v>
+      </c>
+      <c r="H635" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="636" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A636">
+        <v>8.43</v>
+      </c>
+      <c r="B636" t="s">
+        <v>217</v>
+      </c>
+      <c r="C636" s="2">
+        <v>43447</v>
+      </c>
+      <c r="D636" t="s">
+        <v>612</v>
+      </c>
+      <c r="E636" t="s">
+        <v>231</v>
+      </c>
+      <c r="F636">
+        <v>5</v>
+      </c>
+      <c r="H636" t="s">
+        <v>243</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataBase/costs.xlsx
+++ b/DataBase/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2553" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2565" uniqueCount="616">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1853,6 +1853,15 @@
   </si>
   <si>
     <t>τυρόπιτα κουρού, 2 σπανακόπιτες, κουλούρι, πεινιρλί</t>
+  </si>
+  <si>
+    <t>σοκολάτα ρόφημα (+ γεωργίας)</t>
+  </si>
+  <si>
+    <t>παιχνίδι μνήμης και ταχύτητας</t>
+  </si>
+  <si>
+    <t>πίτσα χωριάτικη Zio pepe</t>
   </si>
 </sst>
 </file>
@@ -1996,7 +2005,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:I636" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:I639" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="9">
     <tableColumn id="1" name="amount" headerRowDxfId="9" totalsRowDxfId="8"/>
     <tableColumn id="11" name="type" totalsRowDxfId="7"/>
@@ -2299,10 +2308,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L636"/>
+  <dimension ref="A1:L639"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A603" workbookViewId="0">
-      <selection activeCell="H637" sqref="H637"/>
+    <sheetView tabSelected="1" topLeftCell="A606" workbookViewId="0">
+      <selection activeCell="H640" sqref="H640"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16982,6 +16991,75 @@
         <v>243</v>
       </c>
     </row>
+    <row r="637" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A637">
+        <v>7.6</v>
+      </c>
+      <c r="B637" t="s">
+        <v>217</v>
+      </c>
+      <c r="C637" s="2">
+        <v>43447</v>
+      </c>
+      <c r="D637" t="s">
+        <v>613</v>
+      </c>
+      <c r="E637" t="s">
+        <v>231</v>
+      </c>
+      <c r="F637">
+        <v>5</v>
+      </c>
+      <c r="H637" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="638" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A638">
+        <v>2</v>
+      </c>
+      <c r="B638" t="s">
+        <v>338</v>
+      </c>
+      <c r="C638" s="2">
+        <v>43447</v>
+      </c>
+      <c r="D638" t="s">
+        <v>614</v>
+      </c>
+      <c r="E638" t="s">
+        <v>231</v>
+      </c>
+      <c r="F638">
+        <v>3</v>
+      </c>
+      <c r="H638" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="639" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A639">
+        <v>4</v>
+      </c>
+      <c r="B639" t="s">
+        <v>217</v>
+      </c>
+      <c r="C639" s="2">
+        <v>43448</v>
+      </c>
+      <c r="D639" t="s">
+        <v>615</v>
+      </c>
+      <c r="E639" t="s">
+        <v>231</v>
+      </c>
+      <c r="F639">
+        <v>5</v>
+      </c>
+      <c r="H639" t="s">
+        <v>243</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataBase/costs.xlsx
+++ b/DataBase/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2565" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2601" uniqueCount="624">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -778,9 +778,6 @@
     <t>Larisa</t>
   </si>
   <si>
-    <t>New Smyrni</t>
-  </si>
-  <si>
     <t>Nafplio</t>
   </si>
   <si>
@@ -1862,6 +1859,33 @@
   </si>
   <si>
     <t>πίτσα χωριάτικη Zio pepe</t>
+  </si>
+  <si>
+    <t>μπιφτέκι από φακές κινόα και ρύζι</t>
+  </si>
+  <si>
+    <t>πατατάκια με κέτσαπ</t>
+  </si>
+  <si>
+    <t>τσίχλες με κανέλα</t>
+  </si>
+  <si>
+    <t>εισητήριο για την παράσταση "Οι έξαλλοι"</t>
+  </si>
+  <si>
+    <t>ντάκος και κρύα σοκολάτα με Κα Βίκυ και Αντωνόπουλο</t>
+  </si>
+  <si>
+    <t>τσάντα Xiaomi από τα puplic στο Σύνταγμα</t>
+  </si>
+  <si>
+    <t>προφυλακτικά invisible by Durex</t>
+  </si>
+  <si>
+    <t>πρωινό (+ Λαμπρινής + Κατερίνας</t>
+  </si>
+  <si>
+    <t>Nea Smyrni</t>
   </si>
 </sst>
 </file>
@@ -2005,7 +2029,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:I639" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:I648" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="9">
     <tableColumn id="1" name="amount" headerRowDxfId="9" totalsRowDxfId="8"/>
     <tableColumn id="11" name="type" totalsRowDxfId="7"/>
@@ -2308,10 +2332,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L639"/>
+  <dimension ref="A1:L648"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A606" workbookViewId="0">
-      <selection activeCell="H640" sqref="H640"/>
+    <sheetView tabSelected="1" topLeftCell="A619" workbookViewId="0">
+      <selection activeCell="H647" sqref="H647"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2361,28 +2385,28 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="G2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -2390,7 +2414,7 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C3" s="2">
         <v>43120</v>
@@ -2437,7 +2461,7 @@
         <v>100</v>
       </c>
       <c r="B5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C5" s="2">
         <v>43120</v>
@@ -2483,7 +2507,7 @@
         <v>50</v>
       </c>
       <c r="B7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C7" s="2">
         <v>43121</v>
@@ -2650,7 +2674,7 @@
         <v>43126</v>
       </c>
       <c r="D14" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E14" t="s">
         <v>231</v>
@@ -2690,7 +2714,7 @@
         <v>5.15</v>
       </c>
       <c r="B16" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C16" s="2">
         <v>43129</v>
@@ -2713,7 +2737,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C17" s="2">
         <v>43129</v>
@@ -2943,7 +2967,7 @@
         <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C27" s="2">
         <v>43139</v>
@@ -3004,7 +3028,7 @@
         <v>3</v>
       </c>
       <c r="H29" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -3064,7 +3088,7 @@
         <v>43141</v>
       </c>
       <c r="D32" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E32" t="s">
         <v>232</v>
@@ -3127,7 +3151,7 @@
         <v>49.9</v>
       </c>
       <c r="B35" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C35" s="2">
         <v>43143</v>
@@ -3150,7 +3174,7 @@
         <v>140</v>
       </c>
       <c r="B36" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C36" s="2">
         <v>43143</v>
@@ -3225,7 +3249,7 @@
         <v>43148</v>
       </c>
       <c r="D39" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E39" t="s">
         <v>232</v>
@@ -3242,7 +3266,7 @@
         <v>15.96</v>
       </c>
       <c r="B40" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C40" s="2">
         <v>43148</v>
@@ -3288,7 +3312,7 @@
         <v>79.8</v>
       </c>
       <c r="B42" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C42" s="2">
         <v>43148</v>
@@ -3334,7 +3358,7 @@
         <v>38.880000000000003</v>
       </c>
       <c r="B44" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C44" s="2">
         <v>43151</v>
@@ -3380,7 +3404,7 @@
         <v>0.79</v>
       </c>
       <c r="B46" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C46" s="2">
         <v>43152</v>
@@ -3403,7 +3427,7 @@
         <v>10</v>
       </c>
       <c r="B47" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C47" s="2">
         <v>43153</v>
@@ -3495,7 +3519,7 @@
         <v>24</v>
       </c>
       <c r="B51" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C51" s="2">
         <v>43155</v>
@@ -3510,7 +3534,7 @@
         <v>5</v>
       </c>
       <c r="H51" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -3524,7 +3548,7 @@
         <v>43155</v>
       </c>
       <c r="D52" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E52" t="s">
         <v>232</v>
@@ -3541,7 +3565,7 @@
         <v>1.8</v>
       </c>
       <c r="B53" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C53" s="2">
         <v>43155</v>
@@ -3657,7 +3681,7 @@
         <v>5.4</v>
       </c>
       <c r="B58" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C58" s="2">
         <v>43156</v>
@@ -3695,7 +3719,7 @@
         <v>5</v>
       </c>
       <c r="H59" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -3703,7 +3727,7 @@
         <v>5.4</v>
       </c>
       <c r="B60" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C60" s="2">
         <v>43156</v>
@@ -3726,7 +3750,7 @@
         <v>0.6</v>
       </c>
       <c r="B61" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C61" s="2">
         <v>43157</v>
@@ -3818,7 +3842,7 @@
         <v>1.2</v>
       </c>
       <c r="B65" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C65" s="2">
         <v>43158</v>
@@ -3841,7 +3865,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="B66" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C66" s="2">
         <v>43158</v>
@@ -3864,7 +3888,7 @@
         <v>13.5</v>
       </c>
       <c r="B67" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C67" s="2">
         <v>43160</v>
@@ -3879,7 +3903,7 @@
         <v>5</v>
       </c>
       <c r="H67" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -3902,7 +3926,7 @@
         <v>5</v>
       </c>
       <c r="H68" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K68" s="4"/>
     </row>
@@ -3934,7 +3958,7 @@
         <v>90</v>
       </c>
       <c r="B70" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C70" s="2">
         <v>43161</v>
@@ -3957,7 +3981,7 @@
         <v>65.5</v>
       </c>
       <c r="B71" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C71" s="2">
         <v>43161</v>
@@ -3980,7 +4004,7 @@
         <v>4.5</v>
       </c>
       <c r="B72" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C72" s="2">
         <v>43162</v>
@@ -4003,7 +4027,7 @@
         <v>10</v>
       </c>
       <c r="B73" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C73" s="2">
         <v>43162</v>
@@ -4032,7 +4056,7 @@
         <v>43164</v>
       </c>
       <c r="D74" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E74" t="s">
         <v>232</v>
@@ -4079,7 +4103,7 @@
         <v>43166</v>
       </c>
       <c r="D76" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E76" t="s">
         <v>232</v>
@@ -4165,7 +4189,7 @@
         <v>9.9</v>
       </c>
       <c r="B80" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C80" s="2">
         <v>43169</v>
@@ -4180,7 +4204,7 @@
         <v>5</v>
       </c>
       <c r="H80" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -4203,7 +4227,7 @@
         <v>5</v>
       </c>
       <c r="H81" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -4211,7 +4235,7 @@
         <v>79.8</v>
       </c>
       <c r="B82" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C82" s="2">
         <v>43169</v>
@@ -4226,7 +4250,7 @@
         <v>5</v>
       </c>
       <c r="H82" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -4234,7 +4258,7 @@
         <v>10</v>
       </c>
       <c r="B83" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C83" s="2">
         <v>43170</v>
@@ -4263,7 +4287,7 @@
         <v>43170</v>
       </c>
       <c r="D84" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E84" t="s">
         <v>232</v>
@@ -4286,7 +4310,7 @@
         <v>43170</v>
       </c>
       <c r="D85" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E85" t="s">
         <v>232</v>
@@ -4341,7 +4365,7 @@
         <v>4</v>
       </c>
       <c r="H87" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -4372,7 +4396,7 @@
         <v>17</v>
       </c>
       <c r="B89" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C89" s="2">
         <v>43171</v>
@@ -4395,7 +4419,7 @@
         <v>24.9</v>
       </c>
       <c r="B90" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C90" s="2">
         <v>43171</v>
@@ -4441,7 +4465,7 @@
         <v>44.99</v>
       </c>
       <c r="B92" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C92" s="2">
         <v>43174</v>
@@ -4464,13 +4488,13 @@
         <v>4</v>
       </c>
       <c r="B93" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C93" s="2">
         <v>43175</v>
       </c>
       <c r="D93" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E93" t="s">
         <v>232</v>
@@ -4479,7 +4503,7 @@
         <v>4</v>
       </c>
       <c r="H93" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -4502,7 +4526,7 @@
         <v>5</v>
       </c>
       <c r="H94" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
@@ -4525,7 +4549,7 @@
         <v>5</v>
       </c>
       <c r="H95" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
@@ -4625,7 +4649,7 @@
         <v>34.9</v>
       </c>
       <c r="B100" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C100" s="2">
         <v>43183</v>
@@ -4640,7 +4664,7 @@
         <v>5</v>
       </c>
       <c r="H100" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
@@ -4654,7 +4678,7 @@
         <v>43184</v>
       </c>
       <c r="D101" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E101" t="s">
         <v>232</v>
@@ -4924,7 +4948,7 @@
         <v>8</v>
       </c>
       <c r="B113" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C113" s="2">
         <v>43194</v>
@@ -4993,7 +5017,7 @@
         <v>6.3</v>
       </c>
       <c r="B116" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C116" s="2">
         <v>43194</v>
@@ -5068,7 +5092,7 @@
         <v>43196</v>
       </c>
       <c r="D119" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E119" t="s">
         <v>232</v>
@@ -5123,7 +5147,7 @@
         <v>5</v>
       </c>
       <c r="H121" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
@@ -5131,7 +5155,7 @@
         <v>24.3</v>
       </c>
       <c r="B122" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C122" s="2">
         <v>43199</v>
@@ -5146,7 +5170,7 @@
         <v>4</v>
       </c>
       <c r="H122" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
@@ -5169,7 +5193,7 @@
         <v>4</v>
       </c>
       <c r="H123" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
@@ -5192,7 +5216,7 @@
         <v>4</v>
       </c>
       <c r="H124" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
@@ -5315,7 +5339,7 @@
         <v>5</v>
       </c>
       <c r="B130" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C130" s="2">
         <v>43202</v>
@@ -5338,7 +5362,7 @@
         <v>43</v>
       </c>
       <c r="B131" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C131" s="2">
         <v>43203</v>
@@ -5361,7 +5385,7 @@
         <v>10</v>
       </c>
       <c r="B132" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C132" s="2">
         <v>43203</v>
@@ -5422,7 +5446,7 @@
         <v>4</v>
       </c>
       <c r="H134" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
@@ -5522,7 +5546,7 @@
         <v>4</v>
       </c>
       <c r="B139" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C139" s="2">
         <v>43207</v>
@@ -5689,7 +5713,7 @@
         <v>43210</v>
       </c>
       <c r="D146" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E146" t="s">
         <v>233</v>
@@ -5729,7 +5753,7 @@
         <v>150</v>
       </c>
       <c r="B148" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C148" s="2">
         <v>43211</v>
@@ -5752,7 +5776,7 @@
         <v>7</v>
       </c>
       <c r="B149" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C149" s="2">
         <v>43211</v>
@@ -5790,7 +5814,7 @@
         <v>5</v>
       </c>
       <c r="H150" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
@@ -5813,7 +5837,7 @@
         <v>5</v>
       </c>
       <c r="H151" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
@@ -5821,7 +5845,7 @@
         <v>3.5</v>
       </c>
       <c r="B152" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C152" s="2">
         <v>43211</v>
@@ -5844,7 +5868,7 @@
         <v>55</v>
       </c>
       <c r="B153" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C153" s="2">
         <v>43213</v>
@@ -5913,7 +5937,7 @@
         <v>39.9</v>
       </c>
       <c r="B156" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C156" s="2">
         <v>43216</v>
@@ -5959,7 +5983,7 @@
         <v>80</v>
       </c>
       <c r="B158" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C158" s="2">
         <v>43217</v>
@@ -6126,7 +6150,7 @@
         <v>43221</v>
       </c>
       <c r="D165" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E165" t="s">
         <v>233</v>
@@ -6365,7 +6389,7 @@
         <v>5</v>
       </c>
       <c r="H175" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
@@ -6388,7 +6412,7 @@
         <v>5</v>
       </c>
       <c r="H176" t="s">
-        <v>254</v>
+        <v>623</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
@@ -6442,7 +6466,7 @@
         <v>8</v>
       </c>
       <c r="B179" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C179" s="2">
         <v>43236</v>
@@ -6488,7 +6512,7 @@
         <v>10</v>
       </c>
       <c r="B181" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C181" s="2">
         <v>43237</v>
@@ -6511,7 +6535,7 @@
         <v>3</v>
       </c>
       <c r="B182" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C182" s="2">
         <v>43237</v>
@@ -6534,7 +6558,7 @@
         <v>10</v>
       </c>
       <c r="B183" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C183" s="2">
         <v>43237</v>
@@ -6580,7 +6604,7 @@
         <v>10</v>
       </c>
       <c r="B185" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C185" s="2">
         <v>43237</v>
@@ -6626,7 +6650,7 @@
         <v>6.2</v>
       </c>
       <c r="B187" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C187" s="2">
         <v>43238</v>
@@ -6672,7 +6696,7 @@
         <v>10</v>
       </c>
       <c r="B189" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C189" s="2">
         <v>43239</v>
@@ -6724,7 +6748,7 @@
         <v>43240</v>
       </c>
       <c r="D191" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E191" t="s">
         <v>232</v>
@@ -6741,7 +6765,7 @@
         <v>14</v>
       </c>
       <c r="B192" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C192" s="2">
         <v>43241</v>
@@ -6787,7 +6811,7 @@
         <v>69.900000000000006</v>
       </c>
       <c r="B194" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C194" s="2">
         <v>43241</v>
@@ -6925,7 +6949,7 @@
         <v>78.849999999999994</v>
       </c>
       <c r="B200" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C200" s="2">
         <v>43245</v>
@@ -6963,7 +6987,7 @@
         <v>5</v>
       </c>
       <c r="H201" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
@@ -6971,7 +6995,7 @@
         <v>10</v>
       </c>
       <c r="B202" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C202" s="2">
         <v>43246</v>
@@ -7009,7 +7033,7 @@
         <v>5</v>
       </c>
       <c r="H203" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
@@ -7032,7 +7056,7 @@
         <v>5</v>
       </c>
       <c r="H204" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
@@ -7247,7 +7271,7 @@
         <v>3.5</v>
       </c>
       <c r="B214" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C214" s="2">
         <v>43251</v>
@@ -7362,7 +7386,7 @@
         <v>5</v>
       </c>
       <c r="B219" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C219" s="2">
         <v>43254</v>
@@ -7500,13 +7524,13 @@
         <v>129</v>
       </c>
       <c r="B225" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C225" s="2">
         <v>43257</v>
       </c>
       <c r="D225" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E225" t="s">
         <v>231</v>
@@ -7615,7 +7639,7 @@
         <v>50</v>
       </c>
       <c r="B230" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C230" s="2">
         <v>43261</v>
@@ -7730,7 +7754,7 @@
         <v>7</v>
       </c>
       <c r="B235" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C235" s="2">
         <v>43262</v>
@@ -7753,7 +7777,7 @@
         <v>15</v>
       </c>
       <c r="B236" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C236" s="2">
         <v>43262</v>
@@ -7776,7 +7800,7 @@
         <v>3</v>
       </c>
       <c r="B237" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C237" s="2">
         <v>43262</v>
@@ -7799,7 +7823,7 @@
         <v>11.2</v>
       </c>
       <c r="B238" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C238" s="2">
         <v>43263</v>
@@ -7845,7 +7869,7 @@
         <v>150</v>
       </c>
       <c r="B240" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C240" s="2">
         <v>43263</v>
@@ -7868,7 +7892,7 @@
         <v>12.7</v>
       </c>
       <c r="B241" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C241" s="2">
         <v>43264</v>
@@ -7891,7 +7915,7 @@
         <v>89.9</v>
       </c>
       <c r="B242" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C242" s="2">
         <v>43264</v>
@@ -8021,7 +8045,7 @@
         <v>5</v>
       </c>
       <c r="H247" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
@@ -8282,7 +8306,7 @@
         <v>4</v>
       </c>
       <c r="B259" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C259" s="2">
         <v>43274</v>
@@ -8380,16 +8404,16 @@
         <v>43275</v>
       </c>
       <c r="D263" t="s">
+        <v>263</v>
+      </c>
+      <c r="E263" t="s">
+        <v>231</v>
+      </c>
+      <c r="F263">
+        <v>5</v>
+      </c>
+      <c r="H263" t="s">
         <v>264</v>
-      </c>
-      <c r="E263" t="s">
-        <v>231</v>
-      </c>
-      <c r="F263">
-        <v>5</v>
-      </c>
-      <c r="H263" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.25">
@@ -8412,7 +8436,7 @@
         <v>5</v>
       </c>
       <c r="H264" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.25">
@@ -8420,13 +8444,13 @@
         <v>13.5</v>
       </c>
       <c r="B265" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C265" s="2">
         <v>43275</v>
       </c>
       <c r="D265" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E265" t="s">
         <v>232</v>
@@ -8466,7 +8490,7 @@
         <v>20</v>
       </c>
       <c r="B267" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C267" s="2">
         <v>43277</v>
@@ -8627,7 +8651,7 @@
         <v>5</v>
       </c>
       <c r="B274" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C274" s="2">
         <v>43280</v>
@@ -8650,7 +8674,7 @@
         <v>10</v>
       </c>
       <c r="B275" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C275" s="2">
         <v>43280</v>
@@ -8696,13 +8720,13 @@
         <v>10</v>
       </c>
       <c r="B277" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C277" s="2">
         <v>43281</v>
       </c>
       <c r="D277" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E277" t="s">
         <v>232</v>
@@ -8794,7 +8818,7 @@
         <v>43284</v>
       </c>
       <c r="D281" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E281" t="s">
         <v>232</v>
@@ -8811,13 +8835,13 @@
         <v>119.9</v>
       </c>
       <c r="B282" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C282" s="2">
         <v>43284</v>
       </c>
       <c r="D282" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E282" t="s">
         <v>232</v>
@@ -8826,7 +8850,7 @@
         <v>5</v>
       </c>
       <c r="H282" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.25">
@@ -8840,7 +8864,7 @@
         <v>43284</v>
       </c>
       <c r="D283" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E283" t="s">
         <v>232</v>
@@ -8849,7 +8873,7 @@
         <v>5</v>
       </c>
       <c r="H283" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.25">
@@ -8857,13 +8881,13 @@
         <v>3.5</v>
       </c>
       <c r="B284" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C284" s="2">
         <v>43284</v>
       </c>
       <c r="D284" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E284" t="s">
         <v>232</v>
@@ -8872,7 +8896,7 @@
         <v>5</v>
       </c>
       <c r="H284" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.25">
@@ -8886,7 +8910,7 @@
         <v>43284</v>
       </c>
       <c r="D285" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E285" t="s">
         <v>232</v>
@@ -8895,7 +8919,7 @@
         <v>5</v>
       </c>
       <c r="H285" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.25">
@@ -8909,7 +8933,7 @@
         <v>43285</v>
       </c>
       <c r="D286" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E286" t="s">
         <v>232</v>
@@ -8932,7 +8956,7 @@
         <v>43285</v>
       </c>
       <c r="D287" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E287" t="s">
         <v>232</v>
@@ -8955,7 +8979,7 @@
         <v>43286</v>
       </c>
       <c r="D288" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E288" t="s">
         <v>232</v>
@@ -8978,7 +9002,7 @@
         <v>43287</v>
       </c>
       <c r="D289" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E289" t="s">
         <v>232</v>
@@ -9001,7 +9025,7 @@
         <v>43288</v>
       </c>
       <c r="D290" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E290" t="s">
         <v>232</v>
@@ -9024,7 +9048,7 @@
         <v>43288</v>
       </c>
       <c r="D291" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E291" t="s">
         <v>232</v>
@@ -9047,7 +9071,7 @@
         <v>43288</v>
       </c>
       <c r="D292" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E292" t="s">
         <v>232</v>
@@ -9064,13 +9088,13 @@
         <v>25</v>
       </c>
       <c r="B293" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C293" s="2">
         <v>43289</v>
       </c>
       <c r="D293" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E293" t="s">
         <v>232</v>
@@ -9079,7 +9103,7 @@
         <v>5</v>
       </c>
       <c r="H293" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.25">
@@ -9087,13 +9111,13 @@
         <v>3.5</v>
       </c>
       <c r="B294" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C294" s="2">
         <v>43289</v>
       </c>
       <c r="D294" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E294" t="s">
         <v>232</v>
@@ -9102,7 +9126,7 @@
         <v>5</v>
       </c>
       <c r="H294" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.25">
@@ -9116,7 +9140,7 @@
         <v>43289</v>
       </c>
       <c r="D295" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E295" t="s">
         <v>232</v>
@@ -9162,7 +9186,7 @@
         <v>43291</v>
       </c>
       <c r="D297" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E297" t="s">
         <v>231</v>
@@ -9185,7 +9209,7 @@
         <v>43292</v>
       </c>
       <c r="D298" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E298" t="s">
         <v>231</v>
@@ -9208,7 +9232,7 @@
         <v>43292</v>
       </c>
       <c r="D299" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E299" t="s">
         <v>231</v>
@@ -9225,13 +9249,13 @@
         <v>15</v>
       </c>
       <c r="B300" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C300" s="2">
         <v>43293</v>
       </c>
       <c r="D300" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E300" t="s">
         <v>231</v>
@@ -9277,7 +9301,7 @@
         <v>43293</v>
       </c>
       <c r="D302" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E302" t="s">
         <v>231</v>
@@ -9300,7 +9324,7 @@
         <v>43294</v>
       </c>
       <c r="D303" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E303" t="s">
         <v>231</v>
@@ -9323,7 +9347,7 @@
         <v>43294</v>
       </c>
       <c r="D304" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E304" t="s">
         <v>231</v>
@@ -9346,7 +9370,7 @@
         <v>43294</v>
       </c>
       <c r="D305" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E305" t="s">
         <v>231</v>
@@ -9386,13 +9410,13 @@
         <v>7.5</v>
       </c>
       <c r="B307" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C307" s="2">
         <v>43295</v>
       </c>
       <c r="D307" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E307" t="s">
         <v>230</v>
@@ -9401,7 +9425,7 @@
         <v>5</v>
       </c>
       <c r="H307" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.25">
@@ -9415,7 +9439,7 @@
         <v>43295</v>
       </c>
       <c r="D308" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E308" t="s">
         <v>230</v>
@@ -9424,7 +9448,7 @@
         <v>5</v>
       </c>
       <c r="H308" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.25">
@@ -9432,13 +9456,13 @@
         <v>5</v>
       </c>
       <c r="B309" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C309" s="2">
         <v>43295</v>
       </c>
       <c r="D309" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E309" t="s">
         <v>230</v>
@@ -9447,7 +9471,7 @@
         <v>5</v>
       </c>
       <c r="H309" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.25">
@@ -9455,13 +9479,13 @@
         <v>3</v>
       </c>
       <c r="B310" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C310" s="2">
         <v>43296</v>
       </c>
       <c r="D310" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E310" t="s">
         <v>230</v>
@@ -9470,7 +9494,7 @@
         <v>5</v>
       </c>
       <c r="H310" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.25">
@@ -9484,7 +9508,7 @@
         <v>43297</v>
       </c>
       <c r="D311" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E311" t="s">
         <v>230</v>
@@ -9493,7 +9517,7 @@
         <v>5</v>
       </c>
       <c r="H311" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.25">
@@ -9507,7 +9531,7 @@
         <v>43297</v>
       </c>
       <c r="D312" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E312" t="s">
         <v>230</v>
@@ -9516,7 +9540,7 @@
         <v>5</v>
       </c>
       <c r="H312" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="313" spans="1:8" x14ac:dyDescent="0.25">
@@ -9530,7 +9554,7 @@
         <v>43298</v>
       </c>
       <c r="D313" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E313" t="s">
         <v>230</v>
@@ -9553,7 +9577,7 @@
         <v>43299</v>
       </c>
       <c r="D314" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E314" t="s">
         <v>230</v>
@@ -9576,7 +9600,7 @@
         <v>43299</v>
       </c>
       <c r="D315" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E315" t="s">
         <v>230</v>
@@ -9608,7 +9632,7 @@
         <v>5</v>
       </c>
       <c r="H316" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.25">
@@ -9622,7 +9646,7 @@
         <v>43300</v>
       </c>
       <c r="D317" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E317" t="s">
         <v>230</v>
@@ -9645,7 +9669,7 @@
         <v>43300</v>
       </c>
       <c r="D318" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E318" t="s">
         <v>230</v>
@@ -9691,7 +9715,7 @@
         <v>43302</v>
       </c>
       <c r="D320" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E320" t="s">
         <v>230</v>
@@ -9714,7 +9738,7 @@
         <v>43302</v>
       </c>
       <c r="D321" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E321" t="s">
         <v>230</v>
@@ -9737,7 +9761,7 @@
         <v>43302</v>
       </c>
       <c r="D322" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E322" t="s">
         <v>230</v>
@@ -9783,7 +9807,7 @@
         <v>43303</v>
       </c>
       <c r="D324" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E324" t="s">
         <v>230</v>
@@ -9806,7 +9830,7 @@
         <v>43304</v>
       </c>
       <c r="D325" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E325" t="s">
         <v>230</v>
@@ -9829,7 +9853,7 @@
         <v>43305</v>
       </c>
       <c r="D326" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E326" t="s">
         <v>230</v>
@@ -9852,7 +9876,7 @@
         <v>43305</v>
       </c>
       <c r="D327" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E327" t="s">
         <v>230</v>
@@ -9875,7 +9899,7 @@
         <v>43305</v>
       </c>
       <c r="D328" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E328" t="s">
         <v>230</v>
@@ -9884,7 +9908,7 @@
         <v>5</v>
       </c>
       <c r="H328" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="329" spans="1:8" x14ac:dyDescent="0.25">
@@ -9892,13 +9916,13 @@
         <v>3.85</v>
       </c>
       <c r="B329" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C329" s="2">
         <v>43306</v>
       </c>
       <c r="D329" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E329" t="s">
         <v>230</v>
@@ -9921,7 +9945,7 @@
         <v>43306</v>
       </c>
       <c r="D330" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E330" t="s">
         <v>230</v>
@@ -9944,7 +9968,7 @@
         <v>43307</v>
       </c>
       <c r="D331" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E331" t="s">
         <v>230</v>
@@ -9967,7 +9991,7 @@
         <v>43307</v>
       </c>
       <c r="D332" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E332" t="s">
         <v>230</v>
@@ -9984,13 +10008,13 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="B333" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C333" s="2">
         <v>43307</v>
       </c>
       <c r="D333" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E333" t="s">
         <v>230</v>
@@ -10007,13 +10031,13 @@
         <v>10</v>
       </c>
       <c r="B334" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C334" s="2">
         <v>43307</v>
       </c>
       <c r="D334" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E334" t="s">
         <v>230</v>
@@ -10030,7 +10054,7 @@
         <v>350</v>
       </c>
       <c r="B335" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C335" s="2">
         <v>43308</v>
@@ -10059,7 +10083,7 @@
         <v>43308</v>
       </c>
       <c r="D336" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E336" t="s">
         <v>230</v>
@@ -10082,7 +10106,7 @@
         <v>43310</v>
       </c>
       <c r="D337" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E337" t="s">
         <v>230</v>
@@ -10105,7 +10129,7 @@
         <v>43311</v>
       </c>
       <c r="D338" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E338" t="s">
         <v>230</v>
@@ -10145,13 +10169,13 @@
         <v>6</v>
       </c>
       <c r="B340" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C340" s="2">
         <v>43311</v>
       </c>
       <c r="D340" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E340" t="s">
         <v>230</v>
@@ -10174,7 +10198,7 @@
         <v>43311</v>
       </c>
       <c r="D341" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E341" t="s">
         <v>230</v>
@@ -10197,7 +10221,7 @@
         <v>43312</v>
       </c>
       <c r="D342" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E342" t="s">
         <v>230</v>
@@ -10220,7 +10244,7 @@
         <v>43312</v>
       </c>
       <c r="D343" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E343" t="s">
         <v>230</v>
@@ -10237,13 +10261,13 @@
         <v>43.22</v>
       </c>
       <c r="B344" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C344" s="2">
         <v>43312</v>
       </c>
       <c r="D344" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E344" t="s">
         <v>230</v>
@@ -10266,7 +10290,7 @@
         <v>43313</v>
       </c>
       <c r="D345" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E345" t="s">
         <v>230</v>
@@ -10312,7 +10336,7 @@
         <v>43313</v>
       </c>
       <c r="D347" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E347" t="s">
         <v>230</v>
@@ -10329,7 +10353,7 @@
         <v>20</v>
       </c>
       <c r="B348" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C348" s="2">
         <v>43314</v>
@@ -10352,13 +10376,13 @@
         <v>14.84</v>
       </c>
       <c r="B349" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C349" s="2">
         <v>43314</v>
       </c>
       <c r="D349" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E349" t="s">
         <v>230</v>
@@ -10381,7 +10405,7 @@
         <v>43315</v>
       </c>
       <c r="D350" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E350" t="s">
         <v>230</v>
@@ -10404,7 +10428,7 @@
         <v>43315</v>
       </c>
       <c r="D351" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E351" t="s">
         <v>230</v>
@@ -10427,7 +10451,7 @@
         <v>43316</v>
       </c>
       <c r="D352" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E352" t="s">
         <v>230</v>
@@ -10444,13 +10468,13 @@
         <v>29.4</v>
       </c>
       <c r="B353" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C353" s="2">
         <v>43317</v>
       </c>
       <c r="D353" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E353" t="s">
         <v>230</v>
@@ -10473,7 +10497,7 @@
         <v>43318</v>
       </c>
       <c r="D354" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E354" t="s">
         <v>230</v>
@@ -10496,7 +10520,7 @@
         <v>43320</v>
       </c>
       <c r="D355" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E355" t="s">
         <v>230</v>
@@ -10542,7 +10566,7 @@
         <v>43321</v>
       </c>
       <c r="D357" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E357" t="s">
         <v>230</v>
@@ -10565,7 +10589,7 @@
         <v>43321</v>
       </c>
       <c r="D358" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E358" t="s">
         <v>230</v>
@@ -10588,7 +10612,7 @@
         <v>43321</v>
       </c>
       <c r="D359" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E359" t="s">
         <v>230</v>
@@ -10605,13 +10629,13 @@
         <v>7</v>
       </c>
       <c r="B360" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C360" s="2">
         <v>43321</v>
       </c>
       <c r="D360" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E360" t="s">
         <v>230</v>
@@ -10634,7 +10658,7 @@
         <v>43322</v>
       </c>
       <c r="D361" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E361" t="s">
         <v>230</v>
@@ -10643,7 +10667,7 @@
         <v>4</v>
       </c>
       <c r="H361" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="362" spans="1:12" x14ac:dyDescent="0.25">
@@ -10651,13 +10675,13 @@
         <v>100</v>
       </c>
       <c r="B362" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C362" s="2">
         <v>43322</v>
       </c>
       <c r="D362" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E362" t="s">
         <v>230</v>
@@ -10680,7 +10704,7 @@
         <v>43322</v>
       </c>
       <c r="D363" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E363" t="s">
         <v>230</v>
@@ -10704,7 +10728,7 @@
         <v>43322</v>
       </c>
       <c r="D364" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E364" t="s">
         <v>230</v>
@@ -10725,13 +10749,13 @@
         <v>7</v>
       </c>
       <c r="B365" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C365" s="2">
         <v>43322</v>
       </c>
       <c r="D365" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E365" t="s">
         <v>230</v>
@@ -10748,13 +10772,13 @@
         <v>50</v>
       </c>
       <c r="B366" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C366" s="2">
         <v>43323</v>
       </c>
       <c r="D366" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E366" t="s">
         <v>230</v>
@@ -10763,7 +10787,7 @@
         <v>5</v>
       </c>
       <c r="H366" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="367" spans="1:12" x14ac:dyDescent="0.25">
@@ -10771,7 +10795,7 @@
         <v>10</v>
       </c>
       <c r="B367" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C367" s="2">
         <v>43324</v>
@@ -10786,7 +10810,7 @@
         <v>5</v>
       </c>
       <c r="H367" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="368" spans="1:12" x14ac:dyDescent="0.25">
@@ -10794,13 +10818,13 @@
         <v>10.8</v>
       </c>
       <c r="B368" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C368" s="2">
         <v>43326</v>
       </c>
       <c r="D368" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E368" t="s">
         <v>230</v>
@@ -10809,7 +10833,7 @@
         <v>5</v>
       </c>
       <c r="H368" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="369" spans="1:8" x14ac:dyDescent="0.25">
@@ -10823,7 +10847,7 @@
         <v>43326</v>
       </c>
       <c r="D369" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E369" t="s">
         <v>230</v>
@@ -10832,7 +10856,7 @@
         <v>5</v>
       </c>
       <c r="H369" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="370" spans="1:8" x14ac:dyDescent="0.25">
@@ -10846,7 +10870,7 @@
         <v>43326</v>
       </c>
       <c r="D370" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E370" t="s">
         <v>230</v>
@@ -10855,7 +10879,7 @@
         <v>5</v>
       </c>
       <c r="H370" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="371" spans="1:8" x14ac:dyDescent="0.25">
@@ -10869,7 +10893,7 @@
         <v>43327</v>
       </c>
       <c r="D371" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E371" t="s">
         <v>230</v>
@@ -10878,7 +10902,7 @@
         <v>5</v>
       </c>
       <c r="H371" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="372" spans="1:8" x14ac:dyDescent="0.25">
@@ -10886,13 +10910,13 @@
         <v>0.5</v>
       </c>
       <c r="B372" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C372" s="2">
         <v>43327</v>
       </c>
       <c r="D372" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E372" t="s">
         <v>230</v>
@@ -10901,7 +10925,7 @@
         <v>5</v>
       </c>
       <c r="H372" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="373" spans="1:8" x14ac:dyDescent="0.25">
@@ -10915,7 +10939,7 @@
         <v>43327</v>
       </c>
       <c r="D373" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E373" t="s">
         <v>230</v>
@@ -10924,7 +10948,7 @@
         <v>5</v>
       </c>
       <c r="H373" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="374" spans="1:8" x14ac:dyDescent="0.25">
@@ -10938,7 +10962,7 @@
         <v>43327</v>
       </c>
       <c r="D374" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E374" t="s">
         <v>230</v>
@@ -10947,7 +10971,7 @@
         <v>5</v>
       </c>
       <c r="H374" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="375" spans="1:8" x14ac:dyDescent="0.25">
@@ -10961,7 +10985,7 @@
         <v>43328</v>
       </c>
       <c r="D375" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E375" t="s">
         <v>230</v>
@@ -10970,7 +10994,7 @@
         <v>5</v>
       </c>
       <c r="H375" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="376" spans="1:8" x14ac:dyDescent="0.25">
@@ -10978,13 +11002,13 @@
         <v>3.5</v>
       </c>
       <c r="B376" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C376" s="2">
         <v>43328</v>
       </c>
       <c r="D376" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E376" t="s">
         <v>230</v>
@@ -10993,7 +11017,7 @@
         <v>5</v>
       </c>
       <c r="H376" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="377" spans="1:8" x14ac:dyDescent="0.25">
@@ -11007,7 +11031,7 @@
         <v>43328</v>
       </c>
       <c r="D377" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E377" t="s">
         <v>230</v>
@@ -11016,7 +11040,7 @@
         <v>5</v>
       </c>
       <c r="H377" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="378" spans="1:8" x14ac:dyDescent="0.25">
@@ -11030,7 +11054,7 @@
         <v>43329</v>
       </c>
       <c r="D378" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E378" t="s">
         <v>230</v>
@@ -11039,7 +11063,7 @@
         <v>5</v>
       </c>
       <c r="H378" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="379" spans="1:8" x14ac:dyDescent="0.25">
@@ -11053,7 +11077,7 @@
         <v>43329</v>
       </c>
       <c r="D379" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E379" t="s">
         <v>230</v>
@@ -11062,7 +11086,7 @@
         <v>5</v>
       </c>
       <c r="H379" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="380" spans="1:8" x14ac:dyDescent="0.25">
@@ -11076,7 +11100,7 @@
         <v>43329</v>
       </c>
       <c r="D380" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E380" t="s">
         <v>230</v>
@@ -11085,7 +11109,7 @@
         <v>5</v>
       </c>
       <c r="H380" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="381" spans="1:8" x14ac:dyDescent="0.25">
@@ -11099,7 +11123,7 @@
         <v>43329</v>
       </c>
       <c r="D381" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E381" t="s">
         <v>230</v>
@@ -11108,7 +11132,7 @@
         <v>5</v>
       </c>
       <c r="H381" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="382" spans="1:8" x14ac:dyDescent="0.25">
@@ -11116,13 +11140,13 @@
         <v>6.5</v>
       </c>
       <c r="B382" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C382" s="2">
         <v>43329</v>
       </c>
       <c r="D382" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E382" t="s">
         <v>230</v>
@@ -11131,7 +11155,7 @@
         <v>5</v>
       </c>
       <c r="H382" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="383" spans="1:8" x14ac:dyDescent="0.25">
@@ -11145,7 +11169,7 @@
         <v>43329</v>
       </c>
       <c r="D383" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E383" t="s">
         <v>230</v>
@@ -11154,7 +11178,7 @@
         <v>5</v>
       </c>
       <c r="H383" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="384" spans="1:8" x14ac:dyDescent="0.25">
@@ -11168,7 +11192,7 @@
         <v>43329</v>
       </c>
       <c r="D384" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E384" t="s">
         <v>230</v>
@@ -11177,7 +11201,7 @@
         <v>5</v>
       </c>
       <c r="H384" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="385" spans="1:8" x14ac:dyDescent="0.25">
@@ -11191,7 +11215,7 @@
         <v>43330</v>
       </c>
       <c r="D385" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E385" t="s">
         <v>230</v>
@@ -11200,7 +11224,7 @@
         <v>5</v>
       </c>
       <c r="H385" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="386" spans="1:8" x14ac:dyDescent="0.25">
@@ -11214,7 +11238,7 @@
         <v>43330</v>
       </c>
       <c r="D386" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E386" t="s">
         <v>230</v>
@@ -11223,7 +11247,7 @@
         <v>5</v>
       </c>
       <c r="H386" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="387" spans="1:8" x14ac:dyDescent="0.25">
@@ -11237,7 +11261,7 @@
         <v>43330</v>
       </c>
       <c r="D387" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E387" t="s">
         <v>230</v>
@@ -11246,7 +11270,7 @@
         <v>5</v>
       </c>
       <c r="H387" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="388" spans="1:8" x14ac:dyDescent="0.25">
@@ -11260,7 +11284,7 @@
         <v>43330</v>
       </c>
       <c r="D388" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E388" t="s">
         <v>230</v>
@@ -11269,7 +11293,7 @@
         <v>5</v>
       </c>
       <c r="H388" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="389" spans="1:8" x14ac:dyDescent="0.25">
@@ -11277,13 +11301,13 @@
         <v>1.5</v>
       </c>
       <c r="B389" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C389" s="2">
         <v>43330</v>
       </c>
       <c r="D389" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E389" t="s">
         <v>230</v>
@@ -11292,7 +11316,7 @@
         <v>5</v>
       </c>
       <c r="H389" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="390" spans="1:8" x14ac:dyDescent="0.25">
@@ -11306,7 +11330,7 @@
         <v>43331</v>
       </c>
       <c r="D390" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E390" t="s">
         <v>230</v>
@@ -11315,7 +11339,7 @@
         <v>5</v>
       </c>
       <c r="H390" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="391" spans="1:8" x14ac:dyDescent="0.25">
@@ -11329,7 +11353,7 @@
         <v>43331</v>
       </c>
       <c r="D391" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E391" t="s">
         <v>230</v>
@@ -11338,7 +11362,7 @@
         <v>5</v>
       </c>
       <c r="H391" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="392" spans="1:8" x14ac:dyDescent="0.25">
@@ -11352,7 +11376,7 @@
         <v>43331</v>
       </c>
       <c r="D392" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E392" t="s">
         <v>230</v>
@@ -11361,7 +11385,7 @@
         <v>5</v>
       </c>
       <c r="H392" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="393" spans="1:8" x14ac:dyDescent="0.25">
@@ -11369,7 +11393,7 @@
         <v>43</v>
       </c>
       <c r="B393" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C393" s="2">
         <v>43332</v>
@@ -11392,13 +11416,13 @@
         <v>69.900000000000006</v>
       </c>
       <c r="B394" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C394" s="2">
         <v>43332</v>
       </c>
       <c r="D394" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E394" t="s">
         <v>230</v>
@@ -11421,7 +11445,7 @@
         <v>43333</v>
       </c>
       <c r="D395" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E395" t="s">
         <v>230</v>
@@ -11430,7 +11454,7 @@
         <v>5</v>
       </c>
       <c r="H395" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="396" spans="1:8" x14ac:dyDescent="0.25">
@@ -11444,7 +11468,7 @@
         <v>43333</v>
       </c>
       <c r="D396" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E396" t="s">
         <v>230</v>
@@ -11453,7 +11477,7 @@
         <v>5</v>
       </c>
       <c r="H396" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="397" spans="1:8" x14ac:dyDescent="0.25">
@@ -11467,7 +11491,7 @@
         <v>43334</v>
       </c>
       <c r="D397" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E397" t="s">
         <v>230</v>
@@ -11490,7 +11514,7 @@
         <v>43334</v>
       </c>
       <c r="D398" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E398" t="s">
         <v>230</v>
@@ -11499,7 +11523,7 @@
         <v>4</v>
       </c>
       <c r="H398" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="399" spans="1:8" x14ac:dyDescent="0.25">
@@ -11513,7 +11537,7 @@
         <v>43335</v>
       </c>
       <c r="D399" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E399" t="s">
         <v>230</v>
@@ -11536,7 +11560,7 @@
         <v>43335</v>
       </c>
       <c r="D400" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E400" t="s">
         <v>230</v>
@@ -11559,7 +11583,7 @@
         <v>43337</v>
       </c>
       <c r="D401" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E401" t="s">
         <v>230</v>
@@ -11568,7 +11592,7 @@
         <v>5</v>
       </c>
       <c r="H401" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="402" spans="1:8" x14ac:dyDescent="0.25">
@@ -11582,7 +11606,7 @@
         <v>43338</v>
       </c>
       <c r="D402" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E402" t="s">
         <v>230</v>
@@ -11591,7 +11615,7 @@
         <v>5</v>
       </c>
       <c r="H402" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="403" spans="1:8" x14ac:dyDescent="0.25">
@@ -11605,7 +11629,7 @@
         <v>43338</v>
       </c>
       <c r="D403" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E403" t="s">
         <v>230</v>
@@ -11628,7 +11652,7 @@
         <v>43338</v>
       </c>
       <c r="D404" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E404" t="s">
         <v>230</v>
@@ -11651,7 +11675,7 @@
         <v>43338</v>
       </c>
       <c r="D405" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E405" t="s">
         <v>230</v>
@@ -11674,7 +11698,7 @@
         <v>43341</v>
       </c>
       <c r="D406" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E406" t="s">
         <v>230</v>
@@ -11691,13 +11715,13 @@
         <v>3</v>
       </c>
       <c r="B407" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C407" s="2">
         <v>43341</v>
       </c>
       <c r="D407" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E407" t="s">
         <v>230</v>
@@ -11720,7 +11744,7 @@
         <v>43342</v>
       </c>
       <c r="D408" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E408" t="s">
         <v>230</v>
@@ -11729,7 +11753,7 @@
         <v>5</v>
       </c>
       <c r="H408" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="409" spans="1:8" x14ac:dyDescent="0.25">
@@ -11743,7 +11767,7 @@
         <v>43342</v>
       </c>
       <c r="D409" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E409" t="s">
         <v>230</v>
@@ -11760,13 +11784,13 @@
         <v>4</v>
       </c>
       <c r="B410" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C410" s="2">
         <v>43343</v>
       </c>
       <c r="D410" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E410" t="s">
         <v>230</v>
@@ -11783,13 +11807,13 @@
         <v>8</v>
       </c>
       <c r="B411" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C411" s="2">
         <v>43345</v>
       </c>
       <c r="D411" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E411" t="s">
         <v>230</v>
@@ -11812,7 +11836,7 @@
         <v>43346</v>
       </c>
       <c r="D412" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E412" t="s">
         <v>230</v>
@@ -11835,7 +11859,7 @@
         <v>43347</v>
       </c>
       <c r="D413" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E413" t="s">
         <v>230</v>
@@ -11852,13 +11876,13 @@
         <v>44.41</v>
       </c>
       <c r="B414" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C414" s="2">
         <v>43347</v>
       </c>
       <c r="D414" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E414" t="s">
         <v>230</v>
@@ -11904,7 +11928,7 @@
         <v>43348</v>
       </c>
       <c r="D416" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E416" t="s">
         <v>230</v>
@@ -11927,7 +11951,7 @@
         <v>43348</v>
       </c>
       <c r="D417" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E417" t="s">
         <v>230</v>
@@ -11950,7 +11974,7 @@
         <v>43348</v>
       </c>
       <c r="D418" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E418" t="s">
         <v>230</v>
@@ -11967,7 +11991,7 @@
         <v>3.5</v>
       </c>
       <c r="B419" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C419" s="2">
         <v>43348</v>
@@ -11996,7 +12020,7 @@
         <v>43348</v>
       </c>
       <c r="D420" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E420" t="s">
         <v>230</v>
@@ -12019,7 +12043,7 @@
         <v>43348</v>
       </c>
       <c r="D421" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E421" t="s">
         <v>230</v>
@@ -12042,7 +12066,7 @@
         <v>43348</v>
       </c>
       <c r="D422" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E422" t="s">
         <v>230</v>
@@ -12059,13 +12083,13 @@
         <v>8</v>
       </c>
       <c r="B423" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C423" s="2">
         <v>43349</v>
       </c>
       <c r="D423" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E423" t="s">
         <v>230</v>
@@ -12082,22 +12106,22 @@
         <v>3.5</v>
       </c>
       <c r="B424" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C424" s="2">
         <v>43351</v>
       </c>
       <c r="D424" t="s">
+        <v>416</v>
+      </c>
+      <c r="E424" t="s">
+        <v>231</v>
+      </c>
+      <c r="F424">
+        <v>5</v>
+      </c>
+      <c r="H424" t="s">
         <v>417</v>
-      </c>
-      <c r="E424" t="s">
-        <v>231</v>
-      </c>
-      <c r="F424">
-        <v>5</v>
-      </c>
-      <c r="H424" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="425" spans="1:8" x14ac:dyDescent="0.25">
@@ -12105,13 +12129,13 @@
         <v>50</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C425" s="2">
         <v>43351</v>
       </c>
       <c r="D425" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E425" s="1" t="s">
         <v>231</v>
@@ -12121,7 +12145,7 @@
       </c>
       <c r="G425" s="1"/>
       <c r="H425" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="426" spans="1:8" x14ac:dyDescent="0.25">
@@ -12129,13 +12153,13 @@
         <v>10</v>
       </c>
       <c r="B426" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C426" s="2">
         <v>43352</v>
       </c>
       <c r="D426" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E426" t="s">
         <v>231</v>
@@ -12144,7 +12168,7 @@
         <v>5</v>
       </c>
       <c r="H426" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="427" spans="1:8" x14ac:dyDescent="0.25">
@@ -12158,7 +12182,7 @@
         <v>43353</v>
       </c>
       <c r="D427" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E427" t="s">
         <v>231</v>
@@ -12181,7 +12205,7 @@
         <v>43353</v>
       </c>
       <c r="D428" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E428" t="s">
         <v>231</v>
@@ -12190,7 +12214,7 @@
         <v>5</v>
       </c>
       <c r="H428" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="429" spans="1:8" x14ac:dyDescent="0.25">
@@ -12198,13 +12222,13 @@
         <v>3.5</v>
       </c>
       <c r="B429" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C429" s="2">
         <v>43354</v>
       </c>
       <c r="D429" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E429" t="s">
         <v>231</v>
@@ -12221,13 +12245,13 @@
         <v>9.25</v>
       </c>
       <c r="B430" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C430" s="2">
         <v>43354</v>
       </c>
       <c r="D430" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E430" t="s">
         <v>231</v>
@@ -12244,13 +12268,13 @@
         <v>8</v>
       </c>
       <c r="B431" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C431" s="2">
         <v>43354</v>
       </c>
       <c r="D431" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E431" t="s">
         <v>231</v>
@@ -12273,7 +12297,7 @@
         <v>43355</v>
       </c>
       <c r="D432" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E432" t="s">
         <v>231</v>
@@ -12296,7 +12320,7 @@
         <v>43356</v>
       </c>
       <c r="D433" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E433" t="s">
         <v>231</v>
@@ -12313,13 +12337,13 @@
         <v>2.8</v>
       </c>
       <c r="B434" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C434" s="2">
         <v>43357</v>
       </c>
       <c r="D434" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E434" t="s">
         <v>231</v>
@@ -12328,7 +12352,7 @@
         <v>5</v>
       </c>
       <c r="H434" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="435" spans="1:8" x14ac:dyDescent="0.25">
@@ -12336,13 +12360,13 @@
         <v>18.7</v>
       </c>
       <c r="B435" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C435" s="2">
         <v>43357</v>
       </c>
       <c r="D435" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E435" t="s">
         <v>231</v>
@@ -12359,13 +12383,13 @@
         <v>20</v>
       </c>
       <c r="B436" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C436" s="2">
         <v>43357</v>
       </c>
       <c r="D436" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E436" t="s">
         <v>231</v>
@@ -12382,13 +12406,13 @@
         <v>150</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C437" s="2">
         <v>43357</v>
       </c>
       <c r="D437" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E437" s="1" t="s">
         <v>231</v>
@@ -12476,7 +12500,7 @@
         <v>10</v>
       </c>
       <c r="B441" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C441" s="2">
         <v>43360</v>
@@ -12499,13 +12523,13 @@
         <v>59</v>
       </c>
       <c r="B442" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C442" s="2">
         <v>43360</v>
       </c>
       <c r="D442" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E442" t="s">
         <v>231</v>
@@ -12528,7 +12552,7 @@
         <v>43361</v>
       </c>
       <c r="D443" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E443" t="s">
         <v>231</v>
@@ -12551,7 +12575,7 @@
         <v>43362</v>
       </c>
       <c r="D444" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E444" t="s">
         <v>231</v>
@@ -12574,7 +12598,7 @@
         <v>43362</v>
       </c>
       <c r="D445" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E445" t="s">
         <v>231</v>
@@ -12597,7 +12621,7 @@
         <v>43362</v>
       </c>
       <c r="D446" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E446" t="s">
         <v>231</v>
@@ -12614,13 +12638,13 @@
         <v>30</v>
       </c>
       <c r="B447" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C447" s="2">
         <v>43363</v>
       </c>
       <c r="D447" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E447" t="s">
         <v>231</v>
@@ -12643,7 +12667,7 @@
         <v>43363</v>
       </c>
       <c r="D448" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E448" t="s">
         <v>231</v>
@@ -12666,7 +12690,7 @@
         <v>43363</v>
       </c>
       <c r="D449" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E449" t="s">
         <v>231</v>
@@ -12683,13 +12707,13 @@
         <v>4</v>
       </c>
       <c r="B450" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C450" s="2">
         <v>43363</v>
       </c>
       <c r="D450" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E450" t="s">
         <v>231</v>
@@ -12712,16 +12736,16 @@
         <v>43363</v>
       </c>
       <c r="D451" t="s">
+        <v>438</v>
+      </c>
+      <c r="E451" t="s">
+        <v>231</v>
+      </c>
+      <c r="F451">
+        <v>5</v>
+      </c>
+      <c r="H451" t="s">
         <v>439</v>
-      </c>
-      <c r="E451" t="s">
-        <v>231</v>
-      </c>
-      <c r="F451">
-        <v>5</v>
-      </c>
-      <c r="H451" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="452" spans="1:8" x14ac:dyDescent="0.25">
@@ -12729,13 +12753,13 @@
         <v>3.5</v>
       </c>
       <c r="B452" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C452" s="2">
         <v>43364</v>
       </c>
       <c r="D452" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E452" t="s">
         <v>231</v>
@@ -12758,7 +12782,7 @@
         <v>43364</v>
       </c>
       <c r="D453" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E453" t="s">
         <v>231</v>
@@ -12775,13 +12799,13 @@
         <v>180</v>
       </c>
       <c r="B454" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C454" s="2">
         <v>43364</v>
       </c>
       <c r="D454" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E454" t="s">
         <v>231</v>
@@ -12804,7 +12828,7 @@
         <v>43364</v>
       </c>
       <c r="D455" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E455" t="s">
         <v>231</v>
@@ -12821,22 +12845,22 @@
         <v>11</v>
       </c>
       <c r="B456" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C456" s="2">
         <v>43366</v>
       </c>
       <c r="D456" t="s">
+        <v>444</v>
+      </c>
+      <c r="E456" t="s">
+        <v>231</v>
+      </c>
+      <c r="F456">
+        <v>5</v>
+      </c>
+      <c r="H456" t="s">
         <v>445</v>
-      </c>
-      <c r="E456" t="s">
-        <v>231</v>
-      </c>
-      <c r="F456">
-        <v>5</v>
-      </c>
-      <c r="H456" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="457" spans="1:8" x14ac:dyDescent="0.25">
@@ -12850,7 +12874,7 @@
         <v>43366</v>
       </c>
       <c r="D457" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E457" t="s">
         <v>231</v>
@@ -12859,7 +12883,7 @@
         <v>5</v>
       </c>
       <c r="H457" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="458" spans="1:8" x14ac:dyDescent="0.25">
@@ -12873,7 +12897,7 @@
         <v>43366</v>
       </c>
       <c r="D458" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E458" t="s">
         <v>231</v>
@@ -12896,7 +12920,7 @@
         <v>43368</v>
       </c>
       <c r="D459" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E459" t="s">
         <v>231</v>
@@ -12942,7 +12966,7 @@
         <v>43369</v>
       </c>
       <c r="D461" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E461" t="s">
         <v>231</v>
@@ -12965,7 +12989,7 @@
         <v>43370</v>
       </c>
       <c r="D462" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E462" t="s">
         <v>231</v>
@@ -12988,7 +13012,7 @@
         <v>43370</v>
       </c>
       <c r="D463" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E463" t="s">
         <v>231</v>
@@ -13011,7 +13035,7 @@
         <v>43370</v>
       </c>
       <c r="D464" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E464" t="s">
         <v>231</v>
@@ -13034,7 +13058,7 @@
         <v>43371</v>
       </c>
       <c r="D465" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E465" t="s">
         <v>231</v>
@@ -13057,7 +13081,7 @@
         <v>43371</v>
       </c>
       <c r="D466" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E466" t="s">
         <v>231</v>
@@ -13080,7 +13104,7 @@
         <v>43373</v>
       </c>
       <c r="D467" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E467" t="s">
         <v>231</v>
@@ -13103,7 +13127,7 @@
         <v>43373</v>
       </c>
       <c r="D468" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E468" t="s">
         <v>231</v>
@@ -13120,13 +13144,13 @@
         <v>3</v>
       </c>
       <c r="B469" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C469" s="2">
         <v>43373</v>
       </c>
       <c r="D469" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E469" t="s">
         <v>231</v>
@@ -13143,13 +13167,13 @@
         <v>10</v>
       </c>
       <c r="B470" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C470" s="2">
         <v>43373</v>
       </c>
       <c r="D470" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E470" t="s">
         <v>231</v>
@@ -13172,7 +13196,7 @@
         <v>43373</v>
       </c>
       <c r="D471" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E471" t="s">
         <v>231</v>
@@ -13189,13 +13213,13 @@
         <v>362</v>
       </c>
       <c r="B472" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C472" s="2">
         <v>43374</v>
       </c>
       <c r="D472" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E472" t="s">
         <v>231</v>
@@ -13218,7 +13242,7 @@
         <v>43374</v>
       </c>
       <c r="D473" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E473" t="s">
         <v>231</v>
@@ -13241,7 +13265,7 @@
         <v>43375</v>
       </c>
       <c r="D474" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E474" t="s">
         <v>231</v>
@@ -13264,7 +13288,7 @@
         <v>43375</v>
       </c>
       <c r="D475" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E475" t="s">
         <v>231</v>
@@ -13287,7 +13311,7 @@
         <v>43376</v>
       </c>
       <c r="D476" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E476" t="s">
         <v>231</v>
@@ -13310,7 +13334,7 @@
         <v>43377</v>
       </c>
       <c r="D477" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E477" t="s">
         <v>231</v>
@@ -13327,13 +13351,13 @@
         <v>1</v>
       </c>
       <c r="B478" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C478" s="2">
         <v>43377</v>
       </c>
       <c r="D478" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E478" t="s">
         <v>231</v>
@@ -13356,7 +13380,7 @@
         <v>43377</v>
       </c>
       <c r="D479" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E479" t="s">
         <v>231</v>
@@ -13373,13 +13397,13 @@
         <v>33.799999999999997</v>
       </c>
       <c r="B480" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C480" s="2">
         <v>43377</v>
       </c>
       <c r="D480" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E480" t="s">
         <v>231</v>
@@ -13396,13 +13420,13 @@
         <v>8</v>
       </c>
       <c r="B481" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C481" s="2">
         <v>43377</v>
       </c>
       <c r="D481" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E481" t="s">
         <v>231</v>
@@ -13425,7 +13449,7 @@
         <v>43378</v>
       </c>
       <c r="D482" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E482" t="s">
         <v>231</v>
@@ -13434,7 +13458,7 @@
         <v>5</v>
       </c>
       <c r="H482" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="483" spans="1:8" x14ac:dyDescent="0.25">
@@ -13448,7 +13472,7 @@
         <v>43378</v>
       </c>
       <c r="D483" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E483" t="s">
         <v>231</v>
@@ -13457,7 +13481,7 @@
         <v>5</v>
       </c>
       <c r="H483" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="484" spans="1:8" x14ac:dyDescent="0.25">
@@ -13471,7 +13495,7 @@
         <v>43379</v>
       </c>
       <c r="D484" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E484" t="s">
         <v>232</v>
@@ -13480,7 +13504,7 @@
         <v>5</v>
       </c>
       <c r="H484" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="485" spans="1:8" x14ac:dyDescent="0.25">
@@ -13494,7 +13518,7 @@
         <v>43379</v>
       </c>
       <c r="D485" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E485" t="s">
         <v>232</v>
@@ -13503,7 +13527,7 @@
         <v>5</v>
       </c>
       <c r="H485" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="486" spans="1:8" x14ac:dyDescent="0.25">
@@ -13511,13 +13535,13 @@
         <v>15</v>
       </c>
       <c r="B486" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C486" s="2">
         <v>43380</v>
       </c>
       <c r="D486" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E486" t="s">
         <v>232</v>
@@ -13526,7 +13550,7 @@
         <v>5</v>
       </c>
       <c r="H486" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="487" spans="1:8" x14ac:dyDescent="0.25">
@@ -13534,13 +13558,13 @@
         <v>20</v>
       </c>
       <c r="B487" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C487" s="2">
         <v>43380</v>
       </c>
       <c r="D487" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E487" t="s">
         <v>232</v>
@@ -13549,7 +13573,7 @@
         <v>5</v>
       </c>
       <c r="H487" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="488" spans="1:8" x14ac:dyDescent="0.25">
@@ -13557,13 +13581,13 @@
         <v>3</v>
       </c>
       <c r="B488" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C488" s="2">
         <v>43380</v>
       </c>
       <c r="D488" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E488" t="s">
         <v>232</v>
@@ -13572,7 +13596,7 @@
         <v>5</v>
       </c>
       <c r="H488" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="489" spans="1:8" x14ac:dyDescent="0.25">
@@ -13586,7 +13610,7 @@
         <v>43380</v>
       </c>
       <c r="D489" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E489" t="s">
         <v>232</v>
@@ -13595,7 +13619,7 @@
         <v>5</v>
       </c>
       <c r="H489" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="490" spans="1:8" x14ac:dyDescent="0.25">
@@ -13609,7 +13633,7 @@
         <v>43381</v>
       </c>
       <c r="D490" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E490" t="s">
         <v>231</v>
@@ -13632,7 +13656,7 @@
         <v>43381</v>
       </c>
       <c r="D491" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E491" t="s">
         <v>231</v>
@@ -13655,7 +13679,7 @@
         <v>43381</v>
       </c>
       <c r="D492" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E492" t="s">
         <v>231</v>
@@ -13678,7 +13702,7 @@
         <v>43747</v>
       </c>
       <c r="D493" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E493" t="s">
         <v>231</v>
@@ -13695,13 +13719,13 @@
         <v>27.69</v>
       </c>
       <c r="B494" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C494" s="7">
         <v>43382</v>
       </c>
       <c r="D494" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E494" s="1" t="s">
         <v>231</v>
@@ -13719,13 +13743,13 @@
         <v>70</v>
       </c>
       <c r="B495" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C495" s="2">
         <v>43382</v>
       </c>
       <c r="D495" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E495" t="s">
         <v>231</v>
@@ -13748,7 +13772,7 @@
         <v>43383</v>
       </c>
       <c r="D496" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E496" s="1" t="s">
         <v>231</v>
@@ -13766,13 +13790,13 @@
         <v>3.2</v>
       </c>
       <c r="B497" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C497" s="2">
         <v>43383</v>
       </c>
       <c r="D497" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E497" t="s">
         <v>231</v>
@@ -13795,7 +13819,7 @@
         <v>43383</v>
       </c>
       <c r="D498" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E498" t="s">
         <v>231</v>
@@ -13812,13 +13836,13 @@
         <v>0.5</v>
       </c>
       <c r="B499" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C499" s="2">
         <v>43384</v>
       </c>
       <c r="D499" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E499" t="s">
         <v>231</v>
@@ -13835,13 +13859,13 @@
         <v>10</v>
       </c>
       <c r="B500" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C500" s="2">
         <v>43384</v>
       </c>
       <c r="D500" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E500" t="s">
         <v>231</v>
@@ -13864,7 +13888,7 @@
         <v>43384</v>
       </c>
       <c r="D501" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E501" t="s">
         <v>231</v>
@@ -13887,7 +13911,7 @@
         <v>43384</v>
       </c>
       <c r="D502" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E502" s="1" t="s">
         <v>231</v>
@@ -13911,7 +13935,7 @@
         <v>43385</v>
       </c>
       <c r="D503" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E503" t="s">
         <v>231</v>
@@ -13957,7 +13981,7 @@
         <v>43385</v>
       </c>
       <c r="D505" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E505" s="1" t="s">
         <v>231</v>
@@ -13981,7 +14005,7 @@
         <v>43387</v>
       </c>
       <c r="D506" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E506" s="1" t="s">
         <v>231</v>
@@ -13990,7 +14014,7 @@
         <v>5</v>
       </c>
       <c r="H506" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="507" spans="1:8" x14ac:dyDescent="0.25">
@@ -14004,7 +14028,7 @@
         <v>43387</v>
       </c>
       <c r="D507" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E507" s="1" t="s">
         <v>231</v>
@@ -14013,7 +14037,7 @@
         <v>5</v>
       </c>
       <c r="H507" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="508" spans="1:8" x14ac:dyDescent="0.25">
@@ -14027,7 +14051,7 @@
         <v>43387</v>
       </c>
       <c r="D508" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E508" s="1" t="s">
         <v>231</v>
@@ -14036,7 +14060,7 @@
         <v>5</v>
       </c>
       <c r="H508" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="509" spans="1:8" x14ac:dyDescent="0.25">
@@ -14050,7 +14074,7 @@
         <v>43387</v>
       </c>
       <c r="D509" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E509" s="1" t="s">
         <v>231</v>
@@ -14067,7 +14091,7 @@
         <v>3.5</v>
       </c>
       <c r="B510" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C510" s="2">
         <v>43388</v>
@@ -14096,7 +14120,7 @@
         <v>43388</v>
       </c>
       <c r="D511" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E511" s="1" t="s">
         <v>231</v>
@@ -14106,7 +14130,7 @@
       </c>
       <c r="G511" s="1"/>
       <c r="H511" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="512" spans="1:8" x14ac:dyDescent="0.25">
@@ -14120,7 +14144,7 @@
         <v>43388</v>
       </c>
       <c r="D512" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E512" t="s">
         <v>231</v>
@@ -14143,7 +14167,7 @@
         <v>43391</v>
       </c>
       <c r="D513" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E513" t="s">
         <v>231</v>
@@ -14166,7 +14190,7 @@
         <v>43391</v>
       </c>
       <c r="D514" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E514" t="s">
         <v>231</v>
@@ -14183,13 +14207,13 @@
         <v>15.93</v>
       </c>
       <c r="B515" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C515" s="2">
         <v>43391</v>
       </c>
       <c r="D515" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E515" t="s">
         <v>231</v>
@@ -14206,13 +14230,13 @@
         <v>5.98</v>
       </c>
       <c r="B516" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C516" s="2">
         <v>43391</v>
       </c>
       <c r="D516" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E516" t="s">
         <v>231</v>
@@ -14235,7 +14259,7 @@
         <v>43391</v>
       </c>
       <c r="D517" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E517" t="s">
         <v>231</v>
@@ -14258,7 +14282,7 @@
         <v>43392</v>
       </c>
       <c r="D518" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E518" t="s">
         <v>231</v>
@@ -14281,7 +14305,7 @@
         <v>43392</v>
       </c>
       <c r="D519" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E519" t="s">
         <v>231</v>
@@ -14304,7 +14328,7 @@
         <v>43394</v>
       </c>
       <c r="D520" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E520" t="s">
         <v>231</v>
@@ -14327,7 +14351,7 @@
         <v>43394</v>
       </c>
       <c r="D521" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E521" t="s">
         <v>231</v>
@@ -14336,7 +14360,7 @@
         <v>5</v>
       </c>
       <c r="H521" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="522" spans="1:8" x14ac:dyDescent="0.25">
@@ -14344,13 +14368,13 @@
         <v>2</v>
       </c>
       <c r="B522" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C522" s="2">
         <v>43394</v>
       </c>
       <c r="D522" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E522" t="s">
         <v>231</v>
@@ -14373,7 +14397,7 @@
         <v>43394</v>
       </c>
       <c r="D523" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E523" t="s">
         <v>231</v>
@@ -14396,7 +14420,7 @@
         <v>43395</v>
       </c>
       <c r="D524" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E524" s="1" t="s">
         <v>231</v>
@@ -14414,13 +14438,13 @@
         <v>78.180000000000007</v>
       </c>
       <c r="B525" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C525" s="2">
         <v>43396</v>
       </c>
       <c r="D525" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E525" t="s">
         <v>231</v>
@@ -14443,7 +14467,7 @@
         <v>43397</v>
       </c>
       <c r="D526" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E526" t="s">
         <v>231</v>
@@ -14466,7 +14490,7 @@
         <v>43397</v>
       </c>
       <c r="D527" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E527" t="s">
         <v>231</v>
@@ -14489,7 +14513,7 @@
         <v>43398</v>
       </c>
       <c r="D528" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E528" t="s">
         <v>231</v>
@@ -14512,7 +14536,7 @@
         <v>43399</v>
       </c>
       <c r="D529" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E529" t="s">
         <v>231</v>
@@ -14535,7 +14559,7 @@
         <v>43401</v>
       </c>
       <c r="D530" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E530" t="s">
         <v>231</v>
@@ -14544,7 +14568,7 @@
         <v>5</v>
       </c>
       <c r="H530" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="531" spans="1:8" x14ac:dyDescent="0.25">
@@ -14558,7 +14582,7 @@
         <v>43401</v>
       </c>
       <c r="D531" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E531" t="s">
         <v>231</v>
@@ -14581,7 +14605,7 @@
         <v>43401</v>
       </c>
       <c r="D532" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E532" t="s">
         <v>231</v>
@@ -14604,7 +14628,7 @@
         <v>43402</v>
       </c>
       <c r="D533" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E533" t="s">
         <v>231</v>
@@ -14627,7 +14651,7 @@
         <v>43403</v>
       </c>
       <c r="D534" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E534" t="s">
         <v>231</v>
@@ -14650,7 +14674,7 @@
         <v>43404</v>
       </c>
       <c r="D535" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E535" t="s">
         <v>231</v>
@@ -14673,7 +14697,7 @@
         <v>43404</v>
       </c>
       <c r="D536" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E536" t="s">
         <v>231</v>
@@ -14696,7 +14720,7 @@
         <v>43404</v>
       </c>
       <c r="D537" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E537" t="s">
         <v>231</v>
@@ -14705,7 +14729,7 @@
         <v>5</v>
       </c>
       <c r="H537" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="538" spans="1:8" x14ac:dyDescent="0.25">
@@ -14719,7 +14743,7 @@
         <v>43405</v>
       </c>
       <c r="D538" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E538" t="s">
         <v>231</v>
@@ -14736,13 +14760,13 @@
         <v>80</v>
       </c>
       <c r="B539" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C539" s="2">
         <v>43405</v>
       </c>
       <c r="D539" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E539" t="s">
         <v>231</v>
@@ -14759,13 +14783,13 @@
         <v>55</v>
       </c>
       <c r="B540" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C540" s="2">
         <v>43405</v>
       </c>
       <c r="D540" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E540" t="s">
         <v>231</v>
@@ -14782,7 +14806,7 @@
         <v>10</v>
       </c>
       <c r="B541" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C541" s="2">
         <v>43405</v>
@@ -14805,13 +14829,13 @@
         <v>1</v>
       </c>
       <c r="B542" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C542" s="2">
         <v>43405</v>
       </c>
       <c r="D542" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E542" t="s">
         <v>231</v>
@@ -14834,7 +14858,7 @@
         <v>43407</v>
       </c>
       <c r="D543" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E543" s="1" t="s">
         <v>231</v>
@@ -14858,7 +14882,7 @@
         <v>43407</v>
       </c>
       <c r="D544" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E544" s="1" t="s">
         <v>231</v>
@@ -14882,7 +14906,7 @@
         <v>43408</v>
       </c>
       <c r="D545" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E545" s="1" t="s">
         <v>231</v>
@@ -14892,7 +14916,7 @@
       </c>
       <c r="G545" s="1"/>
       <c r="H545" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="546" spans="1:8" x14ac:dyDescent="0.25">
@@ -14906,7 +14930,7 @@
         <v>43408</v>
       </c>
       <c r="D546" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E546" s="1" t="s">
         <v>231</v>
@@ -14916,7 +14940,7 @@
       </c>
       <c r="G546" s="1"/>
       <c r="H546" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="547" spans="1:8" x14ac:dyDescent="0.25">
@@ -14953,7 +14977,7 @@
         <v>43408</v>
       </c>
       <c r="D548" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E548" s="1" t="s">
         <v>231</v>
@@ -14976,7 +15000,7 @@
         <v>43409</v>
       </c>
       <c r="D549" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E549" t="s">
         <v>231</v>
@@ -14999,7 +15023,7 @@
         <v>43410</v>
       </c>
       <c r="D550" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E550" t="s">
         <v>231</v>
@@ -15016,13 +15040,13 @@
         <v>4.7300000000000004</v>
       </c>
       <c r="B551" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C551" s="7">
         <v>43410</v>
       </c>
       <c r="D551" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E551" t="s">
         <v>231</v>
@@ -15045,7 +15069,7 @@
         <v>43410</v>
       </c>
       <c r="D552" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E552" t="s">
         <v>231</v>
@@ -15068,7 +15092,7 @@
         <v>43410</v>
       </c>
       <c r="D553" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E553" t="s">
         <v>231</v>
@@ -15085,13 +15109,13 @@
         <v>120</v>
       </c>
       <c r="B554" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C554" s="2">
         <v>43410</v>
       </c>
       <c r="D554" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E554" t="s">
         <v>231</v>
@@ -15114,7 +15138,7 @@
         <v>43411</v>
       </c>
       <c r="D555" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E555" t="s">
         <v>231</v>
@@ -15131,13 +15155,13 @@
         <v>5</v>
       </c>
       <c r="B556" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C556" s="2">
         <v>43411</v>
       </c>
       <c r="D556" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E556" t="s">
         <v>231</v>
@@ -15160,7 +15184,7 @@
         <v>43412</v>
       </c>
       <c r="D557" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E557" t="s">
         <v>231</v>
@@ -15183,7 +15207,7 @@
         <v>43412</v>
       </c>
       <c r="D558" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E558" t="s">
         <v>231</v>
@@ -15206,7 +15230,7 @@
         <v>43413</v>
       </c>
       <c r="D559" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E559" t="s">
         <v>231</v>
@@ -15223,13 +15247,13 @@
         <v>1</v>
       </c>
       <c r="B560" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C560" s="2">
         <v>43413</v>
       </c>
       <c r="D560" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E560" t="s">
         <v>231</v>
@@ -15246,13 +15270,13 @@
         <v>1</v>
       </c>
       <c r="B561" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C561" s="2">
         <v>43416</v>
       </c>
       <c r="D561" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E561" t="s">
         <v>231</v>
@@ -15275,7 +15299,7 @@
         <v>43417</v>
       </c>
       <c r="D562" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E562" t="s">
         <v>231</v>
@@ -15298,7 +15322,7 @@
         <v>43418</v>
       </c>
       <c r="D563" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E563" t="s">
         <v>231</v>
@@ -15315,13 +15339,13 @@
         <v>49.98</v>
       </c>
       <c r="B564" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C564" s="2">
         <v>43418</v>
       </c>
       <c r="D564" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E564" t="s">
         <v>231</v>
@@ -15344,7 +15368,7 @@
         <v>43418</v>
       </c>
       <c r="D565" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E565" t="s">
         <v>231</v>
@@ -15367,7 +15391,7 @@
         <v>43419</v>
       </c>
       <c r="D566" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E566" t="s">
         <v>231</v>
@@ -15390,7 +15414,7 @@
         <v>43419</v>
       </c>
       <c r="D567" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E567" t="s">
         <v>231</v>
@@ -15413,7 +15437,7 @@
         <v>43420</v>
       </c>
       <c r="D568" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E568" t="s">
         <v>231</v>
@@ -15459,7 +15483,7 @@
         <v>43421</v>
       </c>
       <c r="D570" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E570" t="s">
         <v>231</v>
@@ -15482,7 +15506,7 @@
         <v>43421</v>
       </c>
       <c r="D571" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E571" t="s">
         <v>231</v>
@@ -15505,7 +15529,7 @@
         <v>43423</v>
       </c>
       <c r="D572" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E572" t="s">
         <v>231</v>
@@ -15514,7 +15538,7 @@
         <v>3</v>
       </c>
       <c r="H572" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="573" spans="1:8" x14ac:dyDescent="0.25">
@@ -15522,13 +15546,13 @@
         <v>1.2</v>
       </c>
       <c r="B573" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C573" s="2">
         <v>43423</v>
       </c>
       <c r="D573" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E573" t="s">
         <v>231</v>
@@ -15537,7 +15561,7 @@
         <v>3</v>
       </c>
       <c r="H573" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="574" spans="1:8" x14ac:dyDescent="0.25">
@@ -15551,7 +15575,7 @@
         <v>43423</v>
       </c>
       <c r="D574" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E574" t="s">
         <v>231</v>
@@ -15560,7 +15584,7 @@
         <v>3</v>
       </c>
       <c r="H574" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="575" spans="1:8" x14ac:dyDescent="0.25">
@@ -15574,7 +15598,7 @@
         <v>43424</v>
       </c>
       <c r="D575" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E575" t="s">
         <v>231</v>
@@ -15597,7 +15621,7 @@
         <v>43425</v>
       </c>
       <c r="D576" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E576" t="s">
         <v>231</v>
@@ -15620,7 +15644,7 @@
         <v>43425</v>
       </c>
       <c r="D577" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E577" t="s">
         <v>231</v>
@@ -15643,7 +15667,7 @@
         <v>43426</v>
       </c>
       <c r="D578" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E578" t="s">
         <v>231</v>
@@ -15666,7 +15690,7 @@
         <v>43427</v>
       </c>
       <c r="D579" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E579" t="s">
         <v>231</v>
@@ -15683,13 +15707,13 @@
         <v>2.9</v>
       </c>
       <c r="B580" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C580" s="2">
         <v>43427</v>
       </c>
       <c r="D580" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E580" t="s">
         <v>231</v>
@@ -15712,7 +15736,7 @@
         <v>43429</v>
       </c>
       <c r="D581" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E581" t="s">
         <v>231</v>
@@ -15735,7 +15759,7 @@
         <v>43429</v>
       </c>
       <c r="D582" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E582" t="s">
         <v>231</v>
@@ -15752,13 +15776,13 @@
         <v>2</v>
       </c>
       <c r="B583" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C583" s="2">
         <v>43429</v>
       </c>
       <c r="D583" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E583" t="s">
         <v>231</v>
@@ -15775,22 +15799,22 @@
         <v>10</v>
       </c>
       <c r="B584" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C584" s="2">
         <v>43429</v>
       </c>
       <c r="D584" t="s">
+        <v>571</v>
+      </c>
+      <c r="E584" t="s">
+        <v>231</v>
+      </c>
+      <c r="F584">
+        <v>5</v>
+      </c>
+      <c r="H584" t="s">
         <v>572</v>
-      </c>
-      <c r="E584" t="s">
-        <v>231</v>
-      </c>
-      <c r="F584">
-        <v>5</v>
-      </c>
-      <c r="H584" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="585" spans="1:8" x14ac:dyDescent="0.25">
@@ -15804,7 +15828,7 @@
         <v>43429</v>
       </c>
       <c r="D585" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E585" t="s">
         <v>231</v>
@@ -15813,7 +15837,7 @@
         <v>5</v>
       </c>
       <c r="H585" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="586" spans="1:8" x14ac:dyDescent="0.25">
@@ -15821,13 +15845,13 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="B586" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C586" s="2">
         <v>43429</v>
       </c>
       <c r="D586" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E586" t="s">
         <v>231</v>
@@ -15836,7 +15860,7 @@
         <v>5</v>
       </c>
       <c r="H586" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="587" spans="1:8" x14ac:dyDescent="0.25">
@@ -15844,13 +15868,13 @@
         <v>3</v>
       </c>
       <c r="B587" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C587" s="2">
         <v>43429</v>
       </c>
       <c r="D587" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E587" t="s">
         <v>231</v>
@@ -15859,7 +15883,7 @@
         <v>5</v>
       </c>
       <c r="H587" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="588" spans="1:8" x14ac:dyDescent="0.25">
@@ -15873,7 +15897,7 @@
         <v>43429</v>
       </c>
       <c r="D588" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E588" t="s">
         <v>231</v>
@@ -15882,7 +15906,7 @@
         <v>5</v>
       </c>
       <c r="H588" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="589" spans="1:8" x14ac:dyDescent="0.25">
@@ -15890,13 +15914,13 @@
         <v>3</v>
       </c>
       <c r="B589" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C589" s="2">
         <v>43429</v>
       </c>
       <c r="D589" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E589" t="s">
         <v>231</v>
@@ -15905,7 +15929,7 @@
         <v>5</v>
       </c>
       <c r="H589" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="590" spans="1:8" x14ac:dyDescent="0.25">
@@ -15913,13 +15937,13 @@
         <v>15</v>
       </c>
       <c r="B590" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C590" s="2">
         <v>43430</v>
       </c>
       <c r="D590" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E590" t="s">
         <v>231</v>
@@ -15928,7 +15952,7 @@
         <v>5</v>
       </c>
       <c r="H590" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="591" spans="1:8" x14ac:dyDescent="0.25">
@@ -15936,13 +15960,13 @@
         <v>5</v>
       </c>
       <c r="B591" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C591" s="2">
         <v>43430</v>
       </c>
       <c r="D591" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E591" t="s">
         <v>231</v>
@@ -15951,7 +15975,7 @@
         <v>5</v>
       </c>
       <c r="H591" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="592" spans="1:8" x14ac:dyDescent="0.25">
@@ -15965,7 +15989,7 @@
         <v>43430</v>
       </c>
       <c r="D592" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E592" t="s">
         <v>231</v>
@@ -15974,7 +15998,7 @@
         <v>5</v>
       </c>
       <c r="H592" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="593" spans="1:8" x14ac:dyDescent="0.25">
@@ -15982,13 +16006,13 @@
         <v>2.85</v>
       </c>
       <c r="B593" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C593" s="2">
         <v>43430</v>
       </c>
       <c r="D593" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E593" t="s">
         <v>231</v>
@@ -15997,7 +16021,7 @@
         <v>5</v>
       </c>
       <c r="H593" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="594" spans="1:8" x14ac:dyDescent="0.25">
@@ -16005,13 +16029,13 @@
         <v>3</v>
       </c>
       <c r="B594" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C594" s="2">
         <v>43430</v>
       </c>
       <c r="D594" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E594" t="s">
         <v>231</v>
@@ -16020,7 +16044,7 @@
         <v>4</v>
       </c>
       <c r="H594" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="595" spans="1:8" x14ac:dyDescent="0.25">
@@ -16034,7 +16058,7 @@
         <v>43430</v>
       </c>
       <c r="D595" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E595" t="s">
         <v>231</v>
@@ -16043,7 +16067,7 @@
         <v>5</v>
       </c>
       <c r="H595" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="596" spans="1:8" x14ac:dyDescent="0.25">
@@ -16051,13 +16075,13 @@
         <v>3</v>
       </c>
       <c r="B596" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C596" s="2">
         <v>43430</v>
       </c>
       <c r="D596" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E596" t="s">
         <v>231</v>
@@ -16066,7 +16090,7 @@
         <v>4</v>
       </c>
       <c r="H596" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="597" spans="1:8" x14ac:dyDescent="0.25">
@@ -16074,13 +16098,13 @@
         <v>3</v>
       </c>
       <c r="B597" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C597" s="2">
         <v>43430</v>
       </c>
       <c r="D597" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E597" t="s">
         <v>231</v>
@@ -16089,7 +16113,7 @@
         <v>4</v>
       </c>
       <c r="H597" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="598" spans="1:8" x14ac:dyDescent="0.25">
@@ -16097,13 +16121,13 @@
         <v>3</v>
       </c>
       <c r="B598" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C598" s="2">
         <v>43430</v>
       </c>
       <c r="D598" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E598" t="s">
         <v>231</v>
@@ -16112,7 +16136,7 @@
         <v>3</v>
       </c>
       <c r="H598" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="599" spans="1:8" x14ac:dyDescent="0.25">
@@ -16120,13 +16144,13 @@
         <v>4</v>
       </c>
       <c r="B599" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C599" s="2">
         <v>43431</v>
       </c>
       <c r="D599" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E599" t="s">
         <v>232</v>
@@ -16135,7 +16159,7 @@
         <v>4</v>
       </c>
       <c r="H599" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="600" spans="1:8" x14ac:dyDescent="0.25">
@@ -16149,7 +16173,7 @@
         <v>43431</v>
       </c>
       <c r="D600" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E600" t="s">
         <v>232</v>
@@ -16158,7 +16182,7 @@
         <v>4</v>
       </c>
       <c r="H600" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="601" spans="1:8" x14ac:dyDescent="0.25">
@@ -16166,13 +16190,13 @@
         <v>4</v>
       </c>
       <c r="B601" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C601" s="2">
         <v>43431</v>
       </c>
       <c r="D601" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E601" t="s">
         <v>232</v>
@@ -16181,7 +16205,7 @@
         <v>3</v>
       </c>
       <c r="H601" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="602" spans="1:8" x14ac:dyDescent="0.25">
@@ -16189,13 +16213,13 @@
         <v>3</v>
       </c>
       <c r="B602" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C602" s="2">
         <v>43431</v>
       </c>
       <c r="D602" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E602" t="s">
         <v>232</v>
@@ -16204,7 +16228,7 @@
         <v>5</v>
       </c>
       <c r="H602" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="603" spans="1:8" x14ac:dyDescent="0.25">
@@ -16212,13 +16236,13 @@
         <v>12</v>
       </c>
       <c r="B603" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C603" s="2">
         <v>43431</v>
       </c>
       <c r="D603" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E603" t="s">
         <v>232</v>
@@ -16227,7 +16251,7 @@
         <v>5</v>
       </c>
       <c r="H603" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="604" spans="1:8" x14ac:dyDescent="0.25">
@@ -16235,13 +16259,13 @@
         <v>3</v>
       </c>
       <c r="B604" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C604" s="2">
         <v>43431</v>
       </c>
       <c r="D604" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E604" t="s">
         <v>232</v>
@@ -16250,7 +16274,7 @@
         <v>5</v>
       </c>
       <c r="H604" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="605" spans="1:8" x14ac:dyDescent="0.25">
@@ -16264,7 +16288,7 @@
         <v>43431</v>
       </c>
       <c r="D605" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E605" t="s">
         <v>232</v>
@@ -16273,7 +16297,7 @@
         <v>5</v>
       </c>
       <c r="H605" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="606" spans="1:8" x14ac:dyDescent="0.25">
@@ -16287,7 +16311,7 @@
         <v>43431</v>
       </c>
       <c r="D606" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E606" t="s">
         <v>232</v>
@@ -16296,7 +16320,7 @@
         <v>5</v>
       </c>
       <c r="H606" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="607" spans="1:8" x14ac:dyDescent="0.25">
@@ -16304,13 +16328,13 @@
         <v>10</v>
       </c>
       <c r="B607" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C607" s="2">
         <v>43432</v>
       </c>
       <c r="D607" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E607" t="s">
         <v>232</v>
@@ -16319,7 +16343,7 @@
         <v>5</v>
       </c>
       <c r="H607" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="608" spans="1:8" x14ac:dyDescent="0.25">
@@ -16327,13 +16351,13 @@
         <v>19</v>
       </c>
       <c r="B608" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C608" s="2">
         <v>43432</v>
       </c>
       <c r="D608" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E608" t="s">
         <v>231</v>
@@ -16356,7 +16380,7 @@
         <v>43432</v>
       </c>
       <c r="D609" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E609" t="s">
         <v>231</v>
@@ -16379,7 +16403,7 @@
         <v>43432</v>
       </c>
       <c r="D610" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E610" t="s">
         <v>231</v>
@@ -16388,7 +16412,7 @@
         <v>4</v>
       </c>
       <c r="H610" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="611" spans="1:9" x14ac:dyDescent="0.25">
@@ -16402,7 +16426,7 @@
         <v>43432</v>
       </c>
       <c r="D611" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E611" t="s">
         <v>231</v>
@@ -16425,7 +16449,7 @@
         <v>43433</v>
       </c>
       <c r="D612" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E612" s="1" t="s">
         <v>231</v>
@@ -16450,7 +16474,7 @@
         <v>43433</v>
       </c>
       <c r="D613" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E613" s="1" t="s">
         <v>231</v>
@@ -16473,7 +16497,7 @@
         <v>43433</v>
       </c>
       <c r="D614" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E614" s="1" t="s">
         <v>231</v>
@@ -16496,7 +16520,7 @@
         <v>43435</v>
       </c>
       <c r="D615" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E615" s="1" t="s">
         <v>231</v>
@@ -16519,7 +16543,7 @@
         <v>43435</v>
       </c>
       <c r="D616" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E616" s="1" t="s">
         <v>231</v>
@@ -16536,13 +16560,13 @@
         <v>1</v>
       </c>
       <c r="B617" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C617" s="2">
         <v>43436</v>
       </c>
       <c r="D617" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E617" s="1" t="s">
         <v>231</v>
@@ -16565,7 +16589,7 @@
         <v>43436</v>
       </c>
       <c r="D618" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E618" s="1" t="s">
         <v>231</v>
@@ -16582,13 +16606,13 @@
         <v>15</v>
       </c>
       <c r="B619" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C619" s="2">
         <v>43437</v>
       </c>
       <c r="D619" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E619" t="s">
         <v>231</v>
@@ -16605,13 +16629,13 @@
         <v>100</v>
       </c>
       <c r="B620" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C620" s="2">
         <v>43437</v>
       </c>
       <c r="D620" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E620" t="s">
         <v>231</v>
@@ -16634,7 +16658,7 @@
         <v>43438</v>
       </c>
       <c r="D621" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E621" t="s">
         <v>231</v>
@@ -16643,7 +16667,7 @@
         <v>5</v>
       </c>
       <c r="H621" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="622" spans="1:9" x14ac:dyDescent="0.25">
@@ -16651,13 +16675,13 @@
         <v>80</v>
       </c>
       <c r="B622" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C622" s="2">
         <v>43439</v>
       </c>
       <c r="D622" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E622" t="s">
         <v>231</v>
@@ -16680,7 +16704,7 @@
         <v>43440</v>
       </c>
       <c r="D623" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E623" t="s">
         <v>231</v>
@@ -16703,7 +16727,7 @@
         <v>43440</v>
       </c>
       <c r="D624" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E624" t="s">
         <v>231</v>
@@ -16712,7 +16736,7 @@
         <v>5</v>
       </c>
       <c r="H624" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="625" spans="1:8" x14ac:dyDescent="0.25">
@@ -16720,7 +16744,7 @@
         <v>10</v>
       </c>
       <c r="B625" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C625" s="2">
         <v>43441</v>
@@ -16749,7 +16773,7 @@
         <v>43441</v>
       </c>
       <c r="D626" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E626" t="s">
         <v>231</v>
@@ -16766,13 +16790,13 @@
         <v>60</v>
       </c>
       <c r="B627" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C627" s="2">
         <v>43441</v>
       </c>
       <c r="D627" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E627" t="s">
         <v>231</v>
@@ -16818,7 +16842,7 @@
         <v>43443</v>
       </c>
       <c r="D629" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E629" t="s">
         <v>231</v>
@@ -16827,7 +16851,7 @@
         <v>5</v>
       </c>
       <c r="H629" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="630" spans="1:8" x14ac:dyDescent="0.25">
@@ -16841,7 +16865,7 @@
         <v>43444</v>
       </c>
       <c r="D630" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E630" t="s">
         <v>231</v>
@@ -16864,7 +16888,7 @@
         <v>43445</v>
       </c>
       <c r="D631" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E631" t="s">
         <v>231</v>
@@ -16910,7 +16934,7 @@
         <v>43446</v>
       </c>
       <c r="D633" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E633" t="s">
         <v>231</v>
@@ -16933,7 +16957,7 @@
         <v>43446</v>
       </c>
       <c r="D634" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E634" t="s">
         <v>231</v>
@@ -16956,7 +16980,7 @@
         <v>43446</v>
       </c>
       <c r="D635" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E635" t="s">
         <v>231</v>
@@ -16979,7 +17003,7 @@
         <v>43447</v>
       </c>
       <c r="D636" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E636" t="s">
         <v>231</v>
@@ -17002,7 +17026,7 @@
         <v>43447</v>
       </c>
       <c r="D637" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E637" t="s">
         <v>231</v>
@@ -17019,13 +17043,13 @@
         <v>2</v>
       </c>
       <c r="B638" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C638" s="2">
         <v>43447</v>
       </c>
       <c r="D638" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E638" t="s">
         <v>231</v>
@@ -17048,7 +17072,7 @@
         <v>43448</v>
       </c>
       <c r="D639" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E639" t="s">
         <v>231</v>
@@ -17058,6 +17082,213 @@
       </c>
       <c r="H639" t="s">
         <v>243</v>
+      </c>
+    </row>
+    <row r="640" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A640">
+        <v>5</v>
+      </c>
+      <c r="B640" t="s">
+        <v>217</v>
+      </c>
+      <c r="C640" s="2">
+        <v>43448</v>
+      </c>
+      <c r="D640" t="s">
+        <v>615</v>
+      </c>
+      <c r="E640" t="s">
+        <v>231</v>
+      </c>
+      <c r="F640">
+        <v>5</v>
+      </c>
+      <c r="H640" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="641" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A641">
+        <v>1.3</v>
+      </c>
+      <c r="B641" t="s">
+        <v>217</v>
+      </c>
+      <c r="C641" s="2">
+        <v>43448</v>
+      </c>
+      <c r="D641" t="s">
+        <v>616</v>
+      </c>
+      <c r="E641" t="s">
+        <v>231</v>
+      </c>
+      <c r="F641">
+        <v>5</v>
+      </c>
+      <c r="H641" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="642" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A642">
+        <v>1</v>
+      </c>
+      <c r="B642" t="s">
+        <v>217</v>
+      </c>
+      <c r="C642" s="2">
+        <v>43448</v>
+      </c>
+      <c r="D642" t="s">
+        <v>617</v>
+      </c>
+      <c r="E642" t="s">
+        <v>231</v>
+      </c>
+      <c r="F642">
+        <v>5</v>
+      </c>
+      <c r="H642" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="643" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A643">
+        <v>13.65</v>
+      </c>
+      <c r="B643" t="s">
+        <v>337</v>
+      </c>
+      <c r="C643" s="2">
+        <v>43448</v>
+      </c>
+      <c r="D643" t="s">
+        <v>618</v>
+      </c>
+      <c r="E643" t="s">
+        <v>231</v>
+      </c>
+      <c r="F643">
+        <v>5</v>
+      </c>
+      <c r="H643" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="644" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A644">
+        <v>7.4</v>
+      </c>
+      <c r="B644" t="s">
+        <v>217</v>
+      </c>
+      <c r="C644" s="2">
+        <v>43450</v>
+      </c>
+      <c r="D644" t="s">
+        <v>619</v>
+      </c>
+      <c r="E644" t="s">
+        <v>231</v>
+      </c>
+      <c r="F644">
+        <v>5</v>
+      </c>
+      <c r="H644" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="645" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A645">
+        <v>39.99</v>
+      </c>
+      <c r="B645" t="s">
+        <v>334</v>
+      </c>
+      <c r="C645" s="2">
+        <v>43450</v>
+      </c>
+      <c r="D645" t="s">
+        <v>620</v>
+      </c>
+      <c r="E645" t="s">
+        <v>231</v>
+      </c>
+      <c r="F645">
+        <v>5</v>
+      </c>
+      <c r="H645" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="646" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A646">
+        <v>9</v>
+      </c>
+      <c r="B646" t="s">
+        <v>335</v>
+      </c>
+      <c r="C646" s="2">
+        <v>43450</v>
+      </c>
+      <c r="D646" t="s">
+        <v>621</v>
+      </c>
+      <c r="E646" t="s">
+        <v>232</v>
+      </c>
+      <c r="F646">
+        <v>5</v>
+      </c>
+      <c r="H646" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="647" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A647">
+        <v>1</v>
+      </c>
+      <c r="B647" t="s">
+        <v>217</v>
+      </c>
+      <c r="C647" s="2">
+        <v>43451</v>
+      </c>
+      <c r="D647" t="s">
+        <v>447</v>
+      </c>
+      <c r="E647" t="s">
+        <v>232</v>
+      </c>
+      <c r="F647">
+        <v>5</v>
+      </c>
+      <c r="H647" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="648" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A648">
+        <v>6.9</v>
+      </c>
+      <c r="B648" t="s">
+        <v>217</v>
+      </c>
+      <c r="C648" s="2">
+        <v>43451</v>
+      </c>
+      <c r="D648" t="s">
+        <v>622</v>
+      </c>
+      <c r="E648" t="s">
+        <v>232</v>
+      </c>
+      <c r="F648">
+        <v>5</v>
+      </c>
+      <c r="H648" t="s">
+        <v>623</v>
       </c>
     </row>
   </sheetData>

--- a/DataBase/costs.xlsx
+++ b/DataBase/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2601" uniqueCount="624">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2605" uniqueCount="625">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1886,6 +1886,9 @@
   </si>
   <si>
     <t>Nea Smyrni</t>
+  </si>
+  <si>
+    <t>φασολάδα με πιπεριές και φέτα από green mani</t>
   </si>
 </sst>
 </file>
@@ -2029,7 +2032,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:I648" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:I649" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="9">
     <tableColumn id="1" name="amount" headerRowDxfId="9" totalsRowDxfId="8"/>
     <tableColumn id="11" name="type" totalsRowDxfId="7"/>
@@ -2332,10 +2335,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L648"/>
+  <dimension ref="A1:L649"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A619" workbookViewId="0">
-      <selection activeCell="H647" sqref="H647"/>
+      <selection activeCell="A650" sqref="A650"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17291,6 +17294,29 @@
         <v>623</v>
       </c>
     </row>
+    <row r="649" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A649">
+        <v>3.6</v>
+      </c>
+      <c r="B649" t="s">
+        <v>217</v>
+      </c>
+      <c r="C649" s="2">
+        <v>43451</v>
+      </c>
+      <c r="D649" t="s">
+        <v>624</v>
+      </c>
+      <c r="E649" t="s">
+        <v>232</v>
+      </c>
+      <c r="F649">
+        <v>5</v>
+      </c>
+      <c r="H649" t="s">
+        <v>243</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataBase/costs.xlsx
+++ b/DataBase/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2605" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2621" uniqueCount="629">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1889,6 +1889,18 @@
   </si>
   <si>
     <t>φασολάδα με πιπεριές και φέτα από green mani</t>
+  </si>
+  <si>
+    <t>2 σκουφιά, card holder και γάντια από Jumbo</t>
+  </si>
+  <si>
+    <t>ταξί από περιστέρι σπίτι</t>
+  </si>
+  <si>
+    <t>pop corn στην παράσταση "Οι έξαλλοι" στο Θέατρο Αθηνά</t>
+  </si>
+  <si>
+    <t>τυροκούλουρο, κουρού, κολοκυθόπιτα και φυσικό χυμό</t>
   </si>
 </sst>
 </file>
@@ -2032,7 +2044,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:I649" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:I653" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="9">
     <tableColumn id="1" name="amount" headerRowDxfId="9" totalsRowDxfId="8"/>
     <tableColumn id="11" name="type" totalsRowDxfId="7"/>
@@ -2335,10 +2347,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L649"/>
+  <dimension ref="A1:L653"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A619" workbookViewId="0">
-      <selection activeCell="A650" sqref="A650"/>
+    <sheetView tabSelected="1" topLeftCell="A631" workbookViewId="0">
+      <selection activeCell="B654" sqref="B654"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17317,6 +17329,98 @@
         <v>243</v>
       </c>
     </row>
+    <row r="650" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A650">
+        <v>7.96</v>
+      </c>
+      <c r="B650" t="s">
+        <v>334</v>
+      </c>
+      <c r="C650" s="2">
+        <v>43451</v>
+      </c>
+      <c r="D650" t="s">
+        <v>625</v>
+      </c>
+      <c r="E650" t="s">
+        <v>232</v>
+      </c>
+      <c r="F650">
+        <v>5</v>
+      </c>
+      <c r="H650" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="651" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A651">
+        <v>5</v>
+      </c>
+      <c r="B651" t="s">
+        <v>333</v>
+      </c>
+      <c r="C651" s="2">
+        <v>43451</v>
+      </c>
+      <c r="D651" t="s">
+        <v>626</v>
+      </c>
+      <c r="E651" t="s">
+        <v>232</v>
+      </c>
+      <c r="F651">
+        <v>5</v>
+      </c>
+      <c r="H651" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="652" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A652">
+        <v>2.5</v>
+      </c>
+      <c r="B652" t="s">
+        <v>217</v>
+      </c>
+      <c r="C652" s="2">
+        <v>43452</v>
+      </c>
+      <c r="D652" t="s">
+        <v>627</v>
+      </c>
+      <c r="E652" t="s">
+        <v>232</v>
+      </c>
+      <c r="F652">
+        <v>5</v>
+      </c>
+      <c r="H652" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="653" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A653">
+        <v>7.65</v>
+      </c>
+      <c r="B653" t="s">
+        <v>217</v>
+      </c>
+      <c r="C653" s="2">
+        <v>43453</v>
+      </c>
+      <c r="D653" t="s">
+        <v>628</v>
+      </c>
+      <c r="E653" t="s">
+        <v>232</v>
+      </c>
+      <c r="F653">
+        <v>5</v>
+      </c>
+      <c r="H653" t="s">
+        <v>243</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataBase/costs.xlsx
+++ b/DataBase/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2621" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2626" uniqueCount="631">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1901,6 +1901,12 @@
   </si>
   <si>
     <t>τυροκούλουρο, κουρού, κολοκυθόπιτα και φυσικό χυμό</t>
+  </si>
+  <si>
+    <t>κουλουράκια για το γραφείο (+ τσουρέκια για 2 άστεγους)</t>
+  </si>
+  <si>
+    <t>id</t>
   </si>
 </sst>
 </file>
@@ -2044,7 +2050,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:I653" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:I654" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="9">
     <tableColumn id="1" name="amount" headerRowDxfId="9" totalsRowDxfId="8"/>
     <tableColumn id="11" name="type" totalsRowDxfId="7"/>
@@ -2347,10 +2353,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L653"/>
+  <dimension ref="A1:L654"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A631" workbookViewId="0">
-      <selection activeCell="B654" sqref="B654"/>
+    <sheetView tabSelected="1" topLeftCell="A619" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I654"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2394,6 +2400,9 @@
       <c r="H1" t="s">
         <v>228</v>
       </c>
+      <c r="I1" t="s">
+        <v>630</v>
+      </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
@@ -2423,6 +2432,9 @@
       <c r="H2" t="s">
         <v>476</v>
       </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
@@ -2446,6 +2458,9 @@
       <c r="H3" t="s">
         <v>234</v>
       </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
       <c r="L3" s="3"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -2470,6 +2485,9 @@
       <c r="H4" t="s">
         <v>234</v>
       </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
@@ -2493,6 +2511,9 @@
       <c r="H5" t="s">
         <v>234</v>
       </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -2516,6 +2537,9 @@
       <c r="H6" t="s">
         <v>237</v>
       </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -2539,6 +2563,9 @@
       <c r="H7" t="s">
         <v>234</v>
       </c>
+      <c r="I7">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -2562,6 +2589,9 @@
       <c r="H8" t="s">
         <v>234</v>
       </c>
+      <c r="I8">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -2585,6 +2615,9 @@
       <c r="H9" t="s">
         <v>238</v>
       </c>
+      <c r="I9">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -2608,6 +2641,9 @@
       <c r="H10" t="s">
         <v>238</v>
       </c>
+      <c r="I10">
+        <v>9</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -2630,6 +2666,9 @@
       </c>
       <c r="H11" t="s">
         <v>241</v>
+      </c>
+      <c r="I11">
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -2654,6 +2693,9 @@
       <c r="H12" t="s">
         <v>241</v>
       </c>
+      <c r="I12">
+        <v>11</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
@@ -2677,6 +2719,9 @@
       <c r="H13" t="s">
         <v>239</v>
       </c>
+      <c r="I13">
+        <v>12</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
@@ -2700,6 +2745,9 @@
       <c r="H14" t="s">
         <v>241</v>
       </c>
+      <c r="I14">
+        <v>13</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
@@ -2723,6 +2771,9 @@
       <c r="H15" t="s">
         <v>241</v>
       </c>
+      <c r="I15">
+        <v>14</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
@@ -2746,8 +2797,11 @@
       <c r="H16" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>18</v>
       </c>
@@ -2769,8 +2823,11 @@
       <c r="H17" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>1.5</v>
       </c>
@@ -2792,8 +2849,11 @@
       <c r="H18" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>7.8</v>
       </c>
@@ -2815,8 +2875,11 @@
       <c r="H19" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>4.4400000000000004</v>
       </c>
@@ -2838,8 +2901,11 @@
       <c r="H20" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>1.5</v>
       </c>
@@ -2861,8 +2927,11 @@
       <c r="H21" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>8.84</v>
       </c>
@@ -2884,8 +2953,11 @@
       <c r="H22" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>4</v>
       </c>
@@ -2907,8 +2979,11 @@
       <c r="H23" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>10</v>
       </c>
@@ -2930,8 +3005,11 @@
       <c r="H24" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>1.8</v>
       </c>
@@ -2953,8 +3031,11 @@
       <c r="H25" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>11.8</v>
       </c>
@@ -2976,8 +3057,11 @@
       <c r="H26" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>40</v>
       </c>
@@ -2999,8 +3083,11 @@
       <c r="H27" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>2.9</v>
       </c>
@@ -3022,8 +3109,11 @@
       <c r="H28" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>4.3</v>
       </c>
@@ -3045,8 +3135,11 @@
       <c r="H29" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>3.35</v>
       </c>
@@ -3068,8 +3161,11 @@
       <c r="H30" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>5.2</v>
       </c>
@@ -3091,8 +3187,11 @@
       <c r="H31" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>15</v>
       </c>
@@ -3114,8 +3213,11 @@
       <c r="H32" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>3.9</v>
       </c>
@@ -3137,8 +3239,11 @@
       <c r="H33" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>63.45</v>
       </c>
@@ -3160,8 +3265,11 @@
       <c r="H34" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>49.9</v>
       </c>
@@ -3183,8 +3291,11 @@
       <c r="H35" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>140</v>
       </c>
@@ -3206,8 +3317,11 @@
       <c r="H36" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>1.8</v>
       </c>
@@ -3229,8 +3343,11 @@
       <c r="H37" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>13.02</v>
       </c>
@@ -3252,8 +3369,11 @@
       <c r="H38" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>4.7</v>
       </c>
@@ -3275,8 +3395,11 @@
       <c r="H39" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>15.96</v>
       </c>
@@ -3298,8 +3421,11 @@
       <c r="H40" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>9.8000000000000007</v>
       </c>
@@ -3321,8 +3447,11 @@
       <c r="H41" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>79.8</v>
       </c>
@@ -3344,8 +3473,11 @@
       <c r="H42" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>11.9</v>
       </c>
@@ -3367,8 +3499,11 @@
       <c r="H43" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>38.880000000000003</v>
       </c>
@@ -3390,8 +3525,11 @@
       <c r="H44" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>7.75</v>
       </c>
@@ -3413,8 +3551,11 @@
       <c r="H45" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>0.79</v>
       </c>
@@ -3436,8 +3577,11 @@
       <c r="H46" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I46">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>10</v>
       </c>
@@ -3459,8 +3603,11 @@
       <c r="H47" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I47">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -3481,6 +3628,9 @@
       </c>
       <c r="H48" t="s">
         <v>241</v>
+      </c>
+      <c r="I48">
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -3505,6 +3655,9 @@
       <c r="H49" t="s">
         <v>241</v>
       </c>
+      <c r="I49">
+        <v>48</v>
+      </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
@@ -3528,6 +3681,9 @@
       <c r="H50" t="s">
         <v>241</v>
       </c>
+      <c r="I50">
+        <v>49</v>
+      </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
@@ -3551,6 +3707,9 @@
       <c r="H51" t="s">
         <v>256</v>
       </c>
+      <c r="I51">
+        <v>50</v>
+      </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
@@ -3574,6 +3733,9 @@
       <c r="H52" t="s">
         <v>253</v>
       </c>
+      <c r="I52">
+        <v>51</v>
+      </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
@@ -3597,6 +3759,9 @@
       <c r="H53" t="s">
         <v>253</v>
       </c>
+      <c r="I53">
+        <v>52</v>
+      </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
@@ -3620,6 +3785,9 @@
       <c r="H54" t="s">
         <v>253</v>
       </c>
+      <c r="I54">
+        <v>53</v>
+      </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
@@ -3643,6 +3811,9 @@
       <c r="H55" t="s">
         <v>253</v>
       </c>
+      <c r="I55">
+        <v>54</v>
+      </c>
       <c r="K55" s="4"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -3667,6 +3838,9 @@
       <c r="H56" t="s">
         <v>253</v>
       </c>
+      <c r="I56">
+        <v>55</v>
+      </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
@@ -3690,6 +3864,9 @@
       <c r="H57" t="s">
         <v>253</v>
       </c>
+      <c r="I57">
+        <v>56</v>
+      </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -3713,6 +3890,9 @@
       <c r="H58" t="s">
         <v>253</v>
       </c>
+      <c r="I58">
+        <v>57</v>
+      </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -3736,6 +3916,9 @@
       <c r="H59" t="s">
         <v>258</v>
       </c>
+      <c r="I59">
+        <v>58</v>
+      </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
@@ -3759,6 +3942,9 @@
       <c r="H60" t="s">
         <v>253</v>
       </c>
+      <c r="I60">
+        <v>59</v>
+      </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
@@ -3782,6 +3968,9 @@
       <c r="H61" t="s">
         <v>253</v>
       </c>
+      <c r="I61">
+        <v>60</v>
+      </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
@@ -3805,6 +3994,9 @@
       <c r="H62" t="s">
         <v>253</v>
       </c>
+      <c r="I62">
+        <v>61</v>
+      </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
@@ -3828,6 +4020,9 @@
       <c r="H63" t="s">
         <v>253</v>
       </c>
+      <c r="I63">
+        <v>62</v>
+      </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
@@ -3851,6 +4046,9 @@
       <c r="H64" t="s">
         <v>253</v>
       </c>
+      <c r="I64">
+        <v>63</v>
+      </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
@@ -3874,6 +4072,9 @@
       <c r="H65" t="s">
         <v>253</v>
       </c>
+      <c r="I65">
+        <v>64</v>
+      </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
@@ -3897,6 +4098,9 @@
       <c r="H66" t="s">
         <v>253</v>
       </c>
+      <c r="I66">
+        <v>65</v>
+      </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
@@ -3920,6 +4124,9 @@
       <c r="H67" t="s">
         <v>260</v>
       </c>
+      <c r="I67">
+        <v>66</v>
+      </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
@@ -3943,6 +4150,9 @@
       <c r="H68" t="s">
         <v>260</v>
       </c>
+      <c r="I68">
+        <v>67</v>
+      </c>
       <c r="K68" s="4"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -3967,6 +4177,9 @@
       <c r="H69" t="s">
         <v>234</v>
       </c>
+      <c r="I69">
+        <v>68</v>
+      </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
@@ -3990,6 +4203,9 @@
       <c r="H70" t="s">
         <v>234</v>
       </c>
+      <c r="I70">
+        <v>69</v>
+      </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
@@ -4013,6 +4229,9 @@
       <c r="H71" t="s">
         <v>234</v>
       </c>
+      <c r="I71">
+        <v>70</v>
+      </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
@@ -4036,6 +4255,9 @@
       <c r="H72" t="s">
         <v>234</v>
       </c>
+      <c r="I72">
+        <v>71</v>
+      </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
@@ -4059,6 +4281,9 @@
       <c r="H73" t="s">
         <v>234</v>
       </c>
+      <c r="I73">
+        <v>72</v>
+      </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
@@ -4082,6 +4307,9 @@
       <c r="H74" t="s">
         <v>234</v>
       </c>
+      <c r="I74">
+        <v>73</v>
+      </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
@@ -4105,6 +4333,9 @@
       <c r="H75" t="s">
         <v>241</v>
       </c>
+      <c r="I75">
+        <v>74</v>
+      </c>
       <c r="K75" s="4"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
@@ -4129,6 +4360,9 @@
       <c r="H76" t="s">
         <v>239</v>
       </c>
+      <c r="I76">
+        <v>75</v>
+      </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
@@ -4152,6 +4386,9 @@
       <c r="H77" t="s">
         <v>241</v>
       </c>
+      <c r="I77">
+        <v>76</v>
+      </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
@@ -4175,6 +4412,9 @@
       <c r="H78" t="s">
         <v>238</v>
       </c>
+      <c r="I78">
+        <v>77</v>
+      </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
@@ -4198,6 +4438,9 @@
       <c r="H79" t="s">
         <v>241</v>
       </c>
+      <c r="I79">
+        <v>78</v>
+      </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
@@ -4221,8 +4464,11 @@
       <c r="H80" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I80">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <v>6.5</v>
       </c>
@@ -4244,8 +4490,11 @@
       <c r="H81" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I81">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>79.8</v>
       </c>
@@ -4267,8 +4516,11 @@
       <c r="H82" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I82">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>10</v>
       </c>
@@ -4290,8 +4542,11 @@
       <c r="H83" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I83">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>2.5</v>
       </c>
@@ -4313,8 +4568,11 @@
       <c r="H84" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I84">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <v>5</v>
       </c>
@@ -4336,8 +4594,11 @@
       <c r="H85" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I85">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <v>1.6</v>
       </c>
@@ -4359,8 +4620,11 @@
       <c r="H86" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I86">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <v>5.5</v>
       </c>
@@ -4382,8 +4646,11 @@
       <c r="H87" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I87">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>0.8</v>
       </c>
@@ -4405,8 +4672,11 @@
       <c r="H88" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I88">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <v>17</v>
       </c>
@@ -4428,8 +4698,11 @@
       <c r="H89" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I89">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <v>24.9</v>
       </c>
@@ -4451,8 +4724,11 @@
       <c r="H90" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I90">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <v>1.8</v>
       </c>
@@ -4474,8 +4750,11 @@
       <c r="H91" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I91">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <v>44.99</v>
       </c>
@@ -4497,8 +4776,11 @@
       <c r="H92" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I92">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <v>4</v>
       </c>
@@ -4520,8 +4802,11 @@
       <c r="H93" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I93">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <v>5</v>
       </c>
@@ -4543,8 +4828,11 @@
       <c r="H94" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I94">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
         <v>5</v>
       </c>
@@ -4566,8 +4854,11 @@
       <c r="H95" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I95">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -4589,8 +4880,11 @@
       <c r="H96" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I96">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
         <v>3</v>
       </c>
@@ -4612,8 +4906,11 @@
       <c r="H97" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I97">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <v>6</v>
       </c>
@@ -4635,8 +4932,11 @@
       <c r="H98" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I98">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
         <v>3.5</v>
       </c>
@@ -4658,8 +4958,11 @@
       <c r="H99" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I99">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
         <v>34.9</v>
       </c>
@@ -4681,8 +4984,11 @@
       <c r="H100" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I100">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
         <v>12</v>
       </c>
@@ -4704,8 +5010,11 @@
       <c r="H101" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I101">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
         <v>5</v>
       </c>
@@ -4727,8 +5036,11 @@
       <c r="H102" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I102">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
         <v>6.9</v>
       </c>
@@ -4750,8 +5062,11 @@
       <c r="H103" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I103">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
         <v>6.04</v>
       </c>
@@ -4773,8 +5088,11 @@
       <c r="H104" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I104">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
         <v>4.8</v>
       </c>
@@ -4796,8 +5114,11 @@
       <c r="H105" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I105">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
         <v>9.6999999999999993</v>
       </c>
@@ -4819,8 +5140,11 @@
       <c r="H106" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I106">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
         <v>5.5</v>
       </c>
@@ -4842,8 +5166,11 @@
       <c r="H107" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I107">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
         <v>7</v>
       </c>
@@ -4865,8 +5192,11 @@
       <c r="H108" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I108">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
         <v>1</v>
       </c>
@@ -4888,8 +5218,11 @@
       <c r="H109" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I109">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
         <v>4</v>
       </c>
@@ -4911,8 +5244,11 @@
       <c r="H110" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I110">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
         <v>4.0999999999999996</v>
       </c>
@@ -4934,8 +5270,11 @@
       <c r="H111" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I111">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
         <v>2.3199999999999998</v>
       </c>
@@ -4957,8 +5296,11 @@
       <c r="H112" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I112">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
         <v>8</v>
       </c>
@@ -4980,8 +5322,11 @@
       <c r="H113" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I113">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
         <v>12.5</v>
       </c>
@@ -5003,8 +5348,11 @@
       <c r="H114" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I114">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
         <v>0.7</v>
       </c>
@@ -5026,8 +5374,11 @@
       <c r="H115" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I115">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
         <v>6.3</v>
       </c>
@@ -5049,8 +5400,11 @@
       <c r="H116" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I116">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
         <v>8</v>
       </c>
@@ -5072,8 +5426,11 @@
       <c r="H117" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I117">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
         <v>5.0999999999999996</v>
       </c>
@@ -5095,8 +5452,11 @@
       <c r="H118" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I118">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
         <v>8</v>
       </c>
@@ -5118,8 +5478,11 @@
       <c r="H119" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I119">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
         <v>4.5</v>
       </c>
@@ -5141,8 +5504,11 @@
       <c r="H120" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I120">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="4">
         <v>2.5</v>
       </c>
@@ -5164,8 +5530,11 @@
       <c r="H121" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I121">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="4">
         <v>24.3</v>
       </c>
@@ -5187,8 +5556,11 @@
       <c r="H122" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I122">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="4">
         <v>2</v>
       </c>
@@ -5210,8 +5582,11 @@
       <c r="H123" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I123">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="4">
         <v>16</v>
       </c>
@@ -5233,8 +5608,11 @@
       <c r="H124" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I124">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
         <v>6</v>
       </c>
@@ -5256,8 +5634,11 @@
       <c r="H125" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I125">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="4">
         <v>5</v>
       </c>
@@ -5279,8 +5660,11 @@
       <c r="H126" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I126">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
         <v>6.52</v>
       </c>
@@ -5302,8 +5686,11 @@
       <c r="H127" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I127">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="4">
         <v>1.8</v>
       </c>
@@ -5325,8 +5712,11 @@
       <c r="H128" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I128">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="4">
         <v>1</v>
       </c>
@@ -5348,8 +5738,11 @@
       <c r="H129" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I129">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="4">
         <v>5</v>
       </c>
@@ -5371,8 +5764,11 @@
       <c r="H130" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I130">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="4">
         <v>43</v>
       </c>
@@ -5394,8 +5790,11 @@
       <c r="H131" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I131">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="4">
         <v>10</v>
       </c>
@@ -5417,8 +5816,11 @@
       <c r="H132" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I132">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="4">
         <v>2.97</v>
       </c>
@@ -5440,8 +5842,11 @@
       <c r="H133" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I133">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="4">
         <v>10</v>
       </c>
@@ -5463,8 +5868,11 @@
       <c r="H134" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I134">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
         <v>1.6</v>
       </c>
@@ -5486,8 +5894,11 @@
       <c r="H135" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I135">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="4">
         <v>1.5</v>
       </c>
@@ -5509,8 +5920,11 @@
       <c r="H136" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I136">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="4">
         <v>1.8</v>
       </c>
@@ -5532,8 +5946,11 @@
       <c r="H137" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I137">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="4">
         <v>7.3</v>
       </c>
@@ -5555,8 +5972,11 @@
       <c r="H138" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I138">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="4">
         <v>4</v>
       </c>
@@ -5578,8 +5998,11 @@
       <c r="H139" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I139">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="4">
         <v>2.1</v>
       </c>
@@ -5601,8 +6024,11 @@
       <c r="H140" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I140">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
         <v>4.2</v>
       </c>
@@ -5624,8 +6050,11 @@
       <c r="H141" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I141">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="4">
         <v>9</v>
       </c>
@@ -5647,8 +6076,11 @@
       <c r="H142" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I142">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="4">
         <v>1</v>
       </c>
@@ -5670,8 +6102,11 @@
       <c r="H143" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I143">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="4">
         <v>3.5</v>
       </c>
@@ -5693,8 +6128,11 @@
       <c r="H144" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I144">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="4">
         <v>5.0999999999999996</v>
       </c>
@@ -5716,8 +6154,11 @@
       <c r="H145" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I145">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="4">
         <v>3</v>
       </c>
@@ -5739,8 +6180,11 @@
       <c r="H146" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I146">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="4">
         <v>2</v>
       </c>
@@ -5762,8 +6206,11 @@
       <c r="H147" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I147">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="4">
         <v>150</v>
       </c>
@@ -5785,8 +6232,11 @@
       <c r="H148" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I148">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="4">
         <v>7</v>
       </c>
@@ -5808,8 +6258,11 @@
       <c r="H149" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I149">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="4">
         <v>5</v>
       </c>
@@ -5831,8 +6284,11 @@
       <c r="H150" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I150">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="4">
         <v>8</v>
       </c>
@@ -5854,8 +6310,11 @@
       <c r="H151" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I151">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="4">
         <v>3.5</v>
       </c>
@@ -5877,8 +6336,11 @@
       <c r="H152" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I152">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="4">
         <v>55</v>
       </c>
@@ -5900,8 +6362,11 @@
       <c r="H153" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I153">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="4">
         <v>0.6</v>
       </c>
@@ -5923,8 +6388,11 @@
       <c r="H154" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I154">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="4">
         <v>4</v>
       </c>
@@ -5946,8 +6414,11 @@
       <c r="H155" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I155">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="4">
         <v>39.9</v>
       </c>
@@ -5969,8 +6440,11 @@
       <c r="H156" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I156">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="4">
         <v>1.6</v>
       </c>
@@ -5992,8 +6466,11 @@
       <c r="H157" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I157">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="4">
         <v>80</v>
       </c>
@@ -6015,8 +6492,11 @@
       <c r="H158" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I158">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="4">
         <v>6.2</v>
       </c>
@@ -6038,8 +6518,11 @@
       <c r="H159" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I159">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="4">
         <v>15</v>
       </c>
@@ -6061,8 +6544,11 @@
       <c r="H160" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I160">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" s="4">
         <v>4.3</v>
       </c>
@@ -6084,8 +6570,11 @@
       <c r="H161" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I161">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="4">
         <v>9.6999999999999993</v>
       </c>
@@ -6107,8 +6596,11 @@
       <c r="H162" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I162">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" s="4">
         <v>2.4500000000000002</v>
       </c>
@@ -6130,8 +6622,11 @@
       <c r="H163" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I163">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="4">
         <v>1.96</v>
       </c>
@@ -6153,8 +6648,11 @@
       <c r="H164" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I164">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="4">
         <v>11.5</v>
       </c>
@@ -6176,8 +6674,11 @@
       <c r="H165" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I165">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" s="4">
         <v>2.7</v>
       </c>
@@ -6199,8 +6700,11 @@
       <c r="H166" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I166">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="4">
         <v>2.7</v>
       </c>
@@ -6222,8 +6726,11 @@
       <c r="H167" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I167">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" s="4">
         <v>7</v>
       </c>
@@ -6245,8 +6752,11 @@
       <c r="H168" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I168">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" s="4">
         <v>4.8</v>
       </c>
@@ -6268,8 +6778,11 @@
       <c r="H169" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I169">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="4">
         <v>4.4000000000000004</v>
       </c>
@@ -6291,8 +6804,11 @@
       <c r="H170" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I170">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" s="4">
         <v>3.8</v>
       </c>
@@ -6314,8 +6830,11 @@
       <c r="H171" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I171">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="4">
         <v>1.5</v>
       </c>
@@ -6337,8 +6856,11 @@
       <c r="H172" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I172">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" s="4">
         <v>11.5</v>
       </c>
@@ -6360,8 +6882,11 @@
       <c r="H173" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I173">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" s="4">
         <v>4.4000000000000004</v>
       </c>
@@ -6383,8 +6908,11 @@
       <c r="H174" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I174">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" s="4">
         <v>6.5</v>
       </c>
@@ -6406,8 +6934,11 @@
       <c r="H175" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I175">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" s="4">
         <v>6.5</v>
       </c>
@@ -6429,8 +6960,11 @@
       <c r="H176" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I176">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" s="4">
         <v>5</v>
       </c>
@@ -6452,8 +6986,11 @@
       <c r="H177" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I177">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" s="4">
         <v>6</v>
       </c>
@@ -6475,8 +7012,11 @@
       <c r="H178" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I178">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" s="4">
         <v>8</v>
       </c>
@@ -6498,8 +7038,11 @@
       <c r="H179" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I179">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" s="4">
         <v>3.2</v>
       </c>
@@ -6521,8 +7064,11 @@
       <c r="H180" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I180">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" s="4">
         <v>10</v>
       </c>
@@ -6544,8 +7090,11 @@
       <c r="H181" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I181">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" s="4">
         <v>3</v>
       </c>
@@ -6567,8 +7116,11 @@
       <c r="H182" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I182">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" s="4">
         <v>10</v>
       </c>
@@ -6590,8 +7142,11 @@
       <c r="H183" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I183">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" s="4">
         <v>3.5</v>
       </c>
@@ -6613,8 +7168,11 @@
       <c r="H184" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I184">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" s="4">
         <v>10</v>
       </c>
@@ -6636,8 +7194,11 @@
       <c r="H185" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I185">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" s="4">
         <v>8</v>
       </c>
@@ -6659,8 +7220,11 @@
       <c r="H186" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I186">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" s="4">
         <v>6.2</v>
       </c>
@@ -6682,8 +7246,11 @@
       <c r="H187" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I187">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" s="4">
         <v>2</v>
       </c>
@@ -6705,8 +7272,11 @@
       <c r="H188" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I188">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" s="4">
         <v>10</v>
       </c>
@@ -6728,8 +7298,11 @@
       <c r="H189" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I189">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" s="4">
         <v>22</v>
       </c>
@@ -6751,8 +7324,11 @@
       <c r="H190" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I190">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" s="4">
         <v>14</v>
       </c>
@@ -6774,8 +7350,11 @@
       <c r="H191" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I191">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" s="4">
         <v>14</v>
       </c>
@@ -6797,8 +7376,11 @@
       <c r="H192" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I192">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" s="4">
         <v>4.7</v>
       </c>
@@ -6820,8 +7402,11 @@
       <c r="H193" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I193">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" s="4">
         <v>69.900000000000006</v>
       </c>
@@ -6843,8 +7428,11 @@
       <c r="H194" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I194">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" s="4">
         <v>8.4</v>
       </c>
@@ -6866,8 +7454,11 @@
       <c r="H195" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I195">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" s="4">
         <v>5</v>
       </c>
@@ -6889,8 +7480,11 @@
       <c r="H196" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I196">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" s="4">
         <v>4.5</v>
       </c>
@@ -6912,8 +7506,11 @@
       <c r="H197" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I197">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" s="4">
         <v>6</v>
       </c>
@@ -6935,8 +7532,11 @@
       <c r="H198" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I198">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" s="4">
         <v>5.46</v>
       </c>
@@ -6958,8 +7558,11 @@
       <c r="H199" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I199">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" s="4">
         <v>78.849999999999994</v>
       </c>
@@ -6981,8 +7584,11 @@
       <c r="H200" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I200">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" s="4">
         <v>10</v>
       </c>
@@ -7004,8 +7610,11 @@
       <c r="H201" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I201">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" s="4">
         <v>10</v>
       </c>
@@ -7027,8 +7636,11 @@
       <c r="H202" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I202">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" s="4">
         <v>26</v>
       </c>
@@ -7050,8 +7662,11 @@
       <c r="H203" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I203">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" s="4">
         <v>2</v>
       </c>
@@ -7073,8 +7688,11 @@
       <c r="H204" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I204">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" s="4">
         <v>2.5</v>
       </c>
@@ -7096,8 +7714,11 @@
       <c r="H205" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I205">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" s="4">
         <v>5.9</v>
       </c>
@@ -7119,8 +7740,11 @@
       <c r="H206" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I206">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" s="4">
         <v>8.6</v>
       </c>
@@ -7142,8 +7766,11 @@
       <c r="H207" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I207">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" s="4">
         <v>2.7</v>
       </c>
@@ -7165,8 +7792,11 @@
       <c r="H208" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I208">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" s="4">
         <v>4.8</v>
       </c>
@@ -7188,8 +7818,11 @@
       <c r="H209" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I209">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" s="4">
         <v>2.8</v>
       </c>
@@ -7211,8 +7844,11 @@
       <c r="H210" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I210">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" s="4">
         <v>2</v>
       </c>
@@ -7234,8 +7870,11 @@
       <c r="H211" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I211">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" s="4">
         <v>5</v>
       </c>
@@ -7257,8 +7896,11 @@
       <c r="H212" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I212">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" s="4">
         <v>2.5</v>
       </c>
@@ -7280,8 +7922,11 @@
       <c r="H213" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I213">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" s="4">
         <v>3.5</v>
       </c>
@@ -7303,8 +7948,11 @@
       <c r="H214" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I214">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" s="4">
         <v>1.8</v>
       </c>
@@ -7326,8 +7974,11 @@
       <c r="H215" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I215">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" s="4">
         <v>4</v>
       </c>
@@ -7349,8 +8000,11 @@
       <c r="H216" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I216">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" s="4">
         <v>6</v>
       </c>
@@ -7372,8 +8026,11 @@
       <c r="H217" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I217">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" s="4">
         <v>1.8</v>
       </c>
@@ -7395,8 +8052,11 @@
       <c r="H218" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I218">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" s="4">
         <v>5</v>
       </c>
@@ -7418,8 +8078,11 @@
       <c r="H219" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I219">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" s="4">
         <v>5</v>
       </c>
@@ -7441,8 +8104,11 @@
       <c r="H220" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I220">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" s="4">
         <v>4.7</v>
       </c>
@@ -7464,8 +8130,11 @@
       <c r="H221" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I221">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" s="4">
         <v>5</v>
       </c>
@@ -7487,8 +8156,11 @@
       <c r="H222" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I222">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" s="4">
         <v>10</v>
       </c>
@@ -7510,8 +8182,11 @@
       <c r="H223" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I223">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" s="4">
         <v>1.5</v>
       </c>
@@ -7533,8 +8208,11 @@
       <c r="H224" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I224">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" s="4">
         <v>129</v>
       </c>
@@ -7556,8 +8234,11 @@
       <c r="H225" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I225">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" s="4">
         <v>7</v>
       </c>
@@ -7579,8 +8260,11 @@
       <c r="H226" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I226">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" s="4">
         <v>2.8</v>
       </c>
@@ -7602,8 +8286,11 @@
       <c r="H227" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I227">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" s="4">
         <v>1</v>
       </c>
@@ -7625,8 +8312,11 @@
       <c r="H228" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I228">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" s="4">
         <v>4</v>
       </c>
@@ -7648,8 +8338,11 @@
       <c r="H229" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I229">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" s="4">
         <v>50</v>
       </c>
@@ -7671,8 +8364,11 @@
       <c r="H230" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I230">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" s="4">
         <v>7.2</v>
       </c>
@@ -7694,8 +8390,11 @@
       <c r="H231" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I231">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" s="4">
         <v>1</v>
       </c>
@@ -7717,8 +8416,11 @@
       <c r="H232" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I232">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" s="4">
         <v>7</v>
       </c>
@@ -7740,8 +8442,11 @@
       <c r="H233" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I233">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" s="4">
         <v>1.1000000000000001</v>
       </c>
@@ -7763,8 +8468,11 @@
       <c r="H234" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I234">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" s="4">
         <v>7</v>
       </c>
@@ -7786,8 +8494,11 @@
       <c r="H235" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I235">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" s="4">
         <v>15</v>
       </c>
@@ -7809,8 +8520,11 @@
       <c r="H236" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I236">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" s="4">
         <v>3</v>
       </c>
@@ -7832,8 +8546,11 @@
       <c r="H237" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I237">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" s="4">
         <v>11.2</v>
       </c>
@@ -7855,8 +8572,11 @@
       <c r="H238" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I238">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" s="4">
         <v>2.1</v>
       </c>
@@ -7878,8 +8598,11 @@
       <c r="H239" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I239">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" s="4">
         <v>150</v>
       </c>
@@ -7901,8 +8624,11 @@
       <c r="H240" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I240">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" s="4">
         <v>12.7</v>
       </c>
@@ -7924,8 +8650,11 @@
       <c r="H241" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I241">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" s="4">
         <v>89.9</v>
       </c>
@@ -7947,8 +8676,11 @@
       <c r="H242" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I242">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" s="4">
         <v>4.4000000000000004</v>
       </c>
@@ -7970,8 +8702,11 @@
       <c r="H243" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I243">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" s="4">
         <v>4.2</v>
       </c>
@@ -7993,8 +8728,11 @@
       <c r="H244" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I244">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -8016,8 +8754,11 @@
       <c r="H245" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I245">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" s="4">
         <v>5</v>
       </c>
@@ -8039,8 +8780,11 @@
       <c r="H246" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I246">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" s="4">
         <v>5</v>
       </c>
@@ -8062,8 +8806,11 @@
       <c r="H247" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I247">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" s="4">
         <v>3.9</v>
       </c>
@@ -8085,8 +8832,11 @@
       <c r="H248" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I248">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" s="4">
         <v>0.5</v>
       </c>
@@ -8108,8 +8858,11 @@
       <c r="H249" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I249">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" s="4">
         <v>2.4</v>
       </c>
@@ -8131,8 +8884,11 @@
       <c r="H250" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I250">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" s="4">
         <v>2</v>
       </c>
@@ -8154,8 +8910,11 @@
       <c r="H251" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I251">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" s="4">
         <v>4.7</v>
       </c>
@@ -8177,8 +8936,11 @@
       <c r="H252" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I252">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" s="4">
         <v>5.3</v>
       </c>
@@ -8200,8 +8962,11 @@
       <c r="H253" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I253">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" s="4">
         <v>4.2</v>
       </c>
@@ -8223,8 +8988,11 @@
       <c r="H254" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I254">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" s="4">
         <v>5</v>
       </c>
@@ -8246,8 +9014,11 @@
       <c r="H255" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I255">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" s="4">
         <v>2.5</v>
       </c>
@@ -8269,8 +9040,11 @@
       <c r="H256" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I256">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" s="4">
         <v>3.3</v>
       </c>
@@ -8292,8 +9066,11 @@
       <c r="H257" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I257">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258" s="4">
         <v>5.6</v>
       </c>
@@ -8315,8 +9092,11 @@
       <c r="H258" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I258">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" s="4">
         <v>4</v>
       </c>
@@ -8338,8 +9118,11 @@
       <c r="H259" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I259">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260" s="4">
         <v>10.199999999999999</v>
       </c>
@@ -8361,8 +9144,11 @@
       <c r="H260" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I260">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261" s="4">
         <v>8</v>
       </c>
@@ -8384,8 +9170,11 @@
       <c r="H261" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I261">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262" s="4">
         <v>2.1</v>
       </c>
@@ -8407,8 +9196,11 @@
       <c r="H262" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I262">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263" s="4">
         <v>3.7</v>
       </c>
@@ -8430,8 +9222,11 @@
       <c r="H263" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I263">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264" s="4">
         <v>7</v>
       </c>
@@ -8453,8 +9248,11 @@
       <c r="H264" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I264">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265" s="4">
         <v>13.5</v>
       </c>
@@ -8476,8 +9274,11 @@
       <c r="H265" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I265">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266" s="4">
         <v>5</v>
       </c>
@@ -8499,8 +9300,11 @@
       <c r="H266" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I266">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" s="4">
         <v>20</v>
       </c>
@@ -8522,8 +9326,11 @@
       <c r="H267" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I267">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268" s="4">
         <v>6</v>
       </c>
@@ -8545,8 +9352,11 @@
       <c r="H268" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I268">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269" s="4">
         <v>0.5</v>
       </c>
@@ -8568,8 +9378,11 @@
       <c r="H269" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I269">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270" s="4">
         <v>5</v>
       </c>
@@ -8591,8 +9404,11 @@
       <c r="H270" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I270">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271" s="4">
         <v>11</v>
       </c>
@@ -8614,8 +9430,11 @@
       <c r="H271" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I271">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272" s="4">
         <v>8.8000000000000007</v>
       </c>
@@ -8637,8 +9456,11 @@
       <c r="H272" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I272">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273" s="4">
         <v>0.5</v>
       </c>
@@ -8660,8 +9482,11 @@
       <c r="H273" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I273">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274" s="4">
         <v>5</v>
       </c>
@@ -8683,8 +9508,11 @@
       <c r="H274" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I274">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" s="4">
         <v>10</v>
       </c>
@@ -8706,8 +9534,11 @@
       <c r="H275" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I275">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" s="4">
         <v>15</v>
       </c>
@@ -8729,8 +9560,11 @@
       <c r="H276" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I276">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" s="4">
         <v>10</v>
       </c>
@@ -8752,8 +9586,11 @@
       <c r="H277" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I277">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278" s="4">
         <v>11.9</v>
       </c>
@@ -8775,8 +9612,11 @@
       <c r="H278" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I278">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" s="4">
         <v>7</v>
       </c>
@@ -8798,8 +9638,11 @@
       <c r="H279" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I279">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280" s="4">
         <v>5.0999999999999996</v>
       </c>
@@ -8821,8 +9664,11 @@
       <c r="H280" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I280">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>1.9</v>
       </c>
@@ -8844,8 +9690,11 @@
       <c r="H281" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I281">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>119.9</v>
       </c>
@@ -8867,8 +9716,11 @@
       <c r="H282" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I282">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>6.3</v>
       </c>
@@ -8890,8 +9742,11 @@
       <c r="H283" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I283">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>3.5</v>
       </c>
@@ -8913,8 +9768,11 @@
       <c r="H284" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I284">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>1.5</v>
       </c>
@@ -8936,8 +9794,11 @@
       <c r="H285" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I285">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>1.9</v>
       </c>
@@ -8959,8 +9820,11 @@
       <c r="H286" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I286">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>4.5</v>
       </c>
@@ -8982,8 +9846,11 @@
       <c r="H287" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I287">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>6.4</v>
       </c>
@@ -9005,8 +9872,11 @@
       <c r="H288" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I288">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>1.9</v>
       </c>
@@ -9028,8 +9898,11 @@
       <c r="H289" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I289">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>10.6</v>
       </c>
@@ -9051,8 +9924,11 @@
       <c r="H290" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I290">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>4.5</v>
       </c>
@@ -9074,8 +9950,11 @@
       <c r="H291" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I291">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>22.2</v>
       </c>
@@ -9097,8 +9976,11 @@
       <c r="H292" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I292">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293" s="6">
         <v>25</v>
       </c>
@@ -9120,8 +10002,11 @@
       <c r="H293" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I293">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294" s="6">
         <v>3.5</v>
       </c>
@@ -9143,8 +10028,11 @@
       <c r="H294" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I294">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>4</v>
       </c>
@@ -9166,8 +10054,11 @@
       <c r="H295" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I295">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>2.2000000000000002</v>
       </c>
@@ -9189,8 +10080,11 @@
       <c r="H296" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I296">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>11.5</v>
       </c>
@@ -9212,8 +10106,11 @@
       <c r="H297" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I297">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>6.3</v>
       </c>
@@ -9235,8 +10132,11 @@
       <c r="H298" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I298">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>3.6</v>
       </c>
@@ -9258,8 +10158,11 @@
       <c r="H299" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I299">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>15</v>
       </c>
@@ -9281,8 +10184,11 @@
       <c r="H300" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I300">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>2</v>
       </c>
@@ -9304,8 +10210,11 @@
       <c r="H301" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I301">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>4.5</v>
       </c>
@@ -9327,8 +10236,11 @@
       <c r="H302" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I302">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>2.9</v>
       </c>
@@ -9350,8 +10262,11 @@
       <c r="H303" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I303">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>3.9</v>
       </c>
@@ -9373,8 +10288,11 @@
       <c r="H304" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I304">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>1.7</v>
       </c>
@@ -9396,8 +10314,11 @@
       <c r="H305" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I305">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>10</v>
       </c>
@@ -9419,8 +10340,11 @@
       <c r="H306" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I306">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>7.5</v>
       </c>
@@ -9442,8 +10366,11 @@
       <c r="H307" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I307">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>10.050000000000001</v>
       </c>
@@ -9465,8 +10392,11 @@
       <c r="H308" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I308">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>5</v>
       </c>
@@ -9488,8 +10418,11 @@
       <c r="H309" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I309">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>3</v>
       </c>
@@ -9511,8 +10444,11 @@
       <c r="H310" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I310">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>2</v>
       </c>
@@ -9534,8 +10470,11 @@
       <c r="H311" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I311">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>10.6</v>
       </c>
@@ -9557,8 +10496,11 @@
       <c r="H312" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I312">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>4</v>
       </c>
@@ -9580,8 +10522,11 @@
       <c r="H313" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I313">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>2</v>
       </c>
@@ -9603,8 +10548,11 @@
       <c r="H314" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I314">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>5.8</v>
       </c>
@@ -9626,8 +10574,11 @@
       <c r="H315" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I315">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>5</v>
       </c>
@@ -9649,8 +10600,11 @@
       <c r="H316" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I316">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>6.55</v>
       </c>
@@ -9672,8 +10626,11 @@
       <c r="H317" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I317">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>2.8</v>
       </c>
@@ -9695,8 +10652,11 @@
       <c r="H318" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I318">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>3.8</v>
       </c>
@@ -9718,8 +10678,11 @@
       <c r="H319" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I319">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>9</v>
       </c>
@@ -9741,8 +10704,11 @@
       <c r="H320" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I320">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>8</v>
       </c>
@@ -9764,8 +10730,11 @@
       <c r="H321" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I321">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>1.5</v>
       </c>
@@ -9787,8 +10756,11 @@
       <c r="H322" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I322">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>5</v>
       </c>
@@ -9810,8 +10782,11 @@
       <c r="H323" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I323">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>4.5999999999999996</v>
       </c>
@@ -9833,8 +10808,11 @@
       <c r="H324" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I324">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>0.5</v>
       </c>
@@ -9856,8 +10834,11 @@
       <c r="H325" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I325">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>2.95</v>
       </c>
@@ -9879,8 +10860,11 @@
       <c r="H326" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I326">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>3.8</v>
       </c>
@@ -9902,8 +10886,11 @@
       <c r="H327" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I327">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>10</v>
       </c>
@@ -9925,8 +10912,11 @@
       <c r="H328" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I328">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>3.85</v>
       </c>
@@ -9948,8 +10938,11 @@
       <c r="H329" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I329">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>1.2</v>
       </c>
@@ -9971,8 +10964,11 @@
       <c r="H330" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I330">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>2</v>
       </c>
@@ -9994,8 +10990,11 @@
       <c r="H331" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I331">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>8.5</v>
       </c>
@@ -10017,8 +11016,11 @@
       <c r="H332" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I332">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>4.9000000000000004</v>
       </c>
@@ -10040,8 +11042,11 @@
       <c r="H333" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I333">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>10</v>
       </c>
@@ -10063,8 +11068,11 @@
       <c r="H334" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I334">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>350</v>
       </c>
@@ -10086,8 +11094,11 @@
       <c r="H335" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I335">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>4.4000000000000004</v>
       </c>
@@ -10109,8 +11120,11 @@
       <c r="H336" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I336">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>3.2</v>
       </c>
@@ -10132,8 +11146,11 @@
       <c r="H337" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I337">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>3.8</v>
       </c>
@@ -10155,8 +11172,11 @@
       <c r="H338" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I338">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>0.9</v>
       </c>
@@ -10178,8 +11198,11 @@
       <c r="H339" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I339">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>6</v>
       </c>
@@ -10201,8 +11224,11 @@
       <c r="H340" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I340">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>3.8</v>
       </c>
@@ -10224,8 +11250,11 @@
       <c r="H341" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I341">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>2</v>
       </c>
@@ -10247,8 +11276,11 @@
       <c r="H342" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I342">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>5.5</v>
       </c>
@@ -10270,8 +11302,11 @@
       <c r="H343" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I343">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>43.22</v>
       </c>
@@ -10293,8 +11328,11 @@
       <c r="H344" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I344">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>2</v>
       </c>
@@ -10316,8 +11354,11 @@
       <c r="H345" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I345">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>7</v>
       </c>
@@ -10339,8 +11380,11 @@
       <c r="H346" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I346">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>1.61</v>
       </c>
@@ -10362,8 +11406,11 @@
       <c r="H347" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I347">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>20</v>
       </c>
@@ -10385,8 +11432,11 @@
       <c r="H348" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I348">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>14.84</v>
       </c>
@@ -10408,8 +11458,11 @@
       <c r="H349" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I349">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>5.6</v>
       </c>
@@ -10431,8 +11484,11 @@
       <c r="H350" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I350">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>6.8</v>
       </c>
@@ -10454,8 +11510,11 @@
       <c r="H351" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I351">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>7.7</v>
       </c>
@@ -10476,6 +11535,9 @@
       </c>
       <c r="H352" t="s">
         <v>234</v>
+      </c>
+      <c r="I352">
+        <v>351</v>
       </c>
     </row>
     <row r="353" spans="1:12" x14ac:dyDescent="0.25">
@@ -10500,6 +11562,9 @@
       <c r="H353" t="s">
         <v>234</v>
       </c>
+      <c r="I353">
+        <v>352</v>
+      </c>
     </row>
     <row r="354" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A354">
@@ -10523,6 +11588,9 @@
       <c r="H354" t="s">
         <v>252</v>
       </c>
+      <c r="I354">
+        <v>353</v>
+      </c>
     </row>
     <row r="355" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A355">
@@ -10546,6 +11614,9 @@
       <c r="H355" t="s">
         <v>252</v>
       </c>
+      <c r="I355">
+        <v>354</v>
+      </c>
     </row>
     <row r="356" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A356">
@@ -10569,6 +11640,9 @@
       <c r="H356" t="s">
         <v>243</v>
       </c>
+      <c r="I356">
+        <v>355</v>
+      </c>
     </row>
     <row r="357" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A357">
@@ -10592,6 +11666,9 @@
       <c r="H357" t="s">
         <v>243</v>
       </c>
+      <c r="I357">
+        <v>356</v>
+      </c>
     </row>
     <row r="358" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A358">
@@ -10615,6 +11692,9 @@
       <c r="H358" t="s">
         <v>243</v>
       </c>
+      <c r="I358">
+        <v>357</v>
+      </c>
     </row>
     <row r="359" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A359">
@@ -10638,6 +11718,9 @@
       <c r="H359" t="s">
         <v>249</v>
       </c>
+      <c r="I359">
+        <v>358</v>
+      </c>
     </row>
     <row r="360" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A360">
@@ -10661,6 +11744,9 @@
       <c r="H360" t="s">
         <v>249</v>
       </c>
+      <c r="I360">
+        <v>359</v>
+      </c>
     </row>
     <row r="361" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A361">
@@ -10684,6 +11770,9 @@
       <c r="H361" t="s">
         <v>300</v>
       </c>
+      <c r="I361">
+        <v>360</v>
+      </c>
     </row>
     <row r="362" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A362">
@@ -10707,6 +11796,9 @@
       <c r="H362" t="s">
         <v>234</v>
       </c>
+      <c r="I362">
+        <v>361</v>
+      </c>
     </row>
     <row r="363" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
@@ -10731,6 +11823,9 @@
       <c r="H363" s="1" t="s">
         <v>234</v>
       </c>
+      <c r="I363">
+        <v>362</v>
+      </c>
     </row>
     <row r="364" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A364" s="6">
@@ -10754,7 +11849,9 @@
       <c r="H364" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="I364" s="1"/>
+      <c r="I364">
+        <v>363</v>
+      </c>
       <c r="J364" s="1"/>
       <c r="K364" s="1"/>
       <c r="L364" s="1"/>
@@ -10781,6 +11878,9 @@
       <c r="H365" s="1" t="s">
         <v>234</v>
       </c>
+      <c r="I365">
+        <v>364</v>
+      </c>
     </row>
     <row r="366" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A366">
@@ -10804,6 +11904,9 @@
       <c r="H366" s="1" t="s">
         <v>394</v>
       </c>
+      <c r="I366">
+        <v>365</v>
+      </c>
     </row>
     <row r="367" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A367">
@@ -10827,6 +11930,9 @@
       <c r="H367" t="s">
         <v>394</v>
       </c>
+      <c r="I367">
+        <v>366</v>
+      </c>
     </row>
     <row r="368" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A368">
@@ -10850,8 +11956,11 @@
       <c r="H368" s="1" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I368">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>10.5</v>
       </c>
@@ -10873,8 +11982,11 @@
       <c r="H369" s="1" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I369">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>5.5</v>
       </c>
@@ -10896,8 +12008,11 @@
       <c r="H370" s="1" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I370">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>5</v>
       </c>
@@ -10919,8 +12034,11 @@
       <c r="H371" s="1" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I371">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>0.5</v>
       </c>
@@ -10942,8 +12060,11 @@
       <c r="H372" s="1" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I372">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>10.5</v>
       </c>
@@ -10965,8 +12086,11 @@
       <c r="H373" s="1" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I373">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>14</v>
       </c>
@@ -10988,8 +12112,11 @@
       <c r="H374" s="1" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I374">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>2</v>
       </c>
@@ -11011,8 +12138,11 @@
       <c r="H375" s="1" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I375">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>3.5</v>
       </c>
@@ -11034,8 +12164,11 @@
       <c r="H376" s="1" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I376">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>3.5</v>
       </c>
@@ -11057,8 +12190,11 @@
       <c r="H377" s="1" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I377">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>3.5</v>
       </c>
@@ -11080,8 +12216,11 @@
       <c r="H378" s="1" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I378">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>2</v>
       </c>
@@ -11103,8 +12242,11 @@
       <c r="H379" s="1" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I379">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>2</v>
       </c>
@@ -11126,8 +12268,11 @@
       <c r="H380" s="1" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I380">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>2.5</v>
       </c>
@@ -11149,8 +12294,11 @@
       <c r="H381" s="1" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I381">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>6.5</v>
       </c>
@@ -11172,8 +12320,11 @@
       <c r="H382" s="1" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I382">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>3.78</v>
       </c>
@@ -11195,8 +12346,11 @@
       <c r="H383" s="1" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I383">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="384" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>7</v>
       </c>
@@ -11218,8 +12372,11 @@
       <c r="H384" s="1" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I384">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="385" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>2.5</v>
       </c>
@@ -11241,8 +12398,11 @@
       <c r="H385" s="1" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I385">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="386" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>2</v>
       </c>
@@ -11264,8 +12424,11 @@
       <c r="H386" s="1" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I386">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="387" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>1</v>
       </c>
@@ -11287,8 +12450,11 @@
       <c r="H387" s="1" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I387">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="388" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>10.5</v>
       </c>
@@ -11310,8 +12476,11 @@
       <c r="H388" s="1" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I388">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="389" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>1.5</v>
       </c>
@@ -11333,8 +12502,11 @@
       <c r="H389" s="1" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I389">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="390" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>2.7</v>
       </c>
@@ -11356,8 +12528,11 @@
       <c r="H390" s="1" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I390">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="391" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>2</v>
       </c>
@@ -11379,8 +12554,11 @@
       <c r="H391" s="1" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I391">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="392" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>17.5</v>
       </c>
@@ -11402,8 +12580,11 @@
       <c r="H392" s="1" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I392">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="393" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>43</v>
       </c>
@@ -11425,8 +12606,11 @@
       <c r="H393" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I393">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="394" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>69.900000000000006</v>
       </c>
@@ -11448,8 +12632,11 @@
       <c r="H394" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I394">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="395" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>16</v>
       </c>
@@ -11471,8 +12658,11 @@
       <c r="H395" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I395">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="396" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>2.2000000000000002</v>
       </c>
@@ -11494,8 +12684,11 @@
       <c r="H396" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I396">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="397" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>1.72</v>
       </c>
@@ -11517,8 +12710,11 @@
       <c r="H397" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I397">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="398" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>6</v>
       </c>
@@ -11540,8 +12736,11 @@
       <c r="H398" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I398">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="399" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>1.8</v>
       </c>
@@ -11563,8 +12762,11 @@
       <c r="H399" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I399">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="400" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>4.5999999999999996</v>
       </c>
@@ -11586,8 +12788,11 @@
       <c r="H400" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I400">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="401" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>27</v>
       </c>
@@ -11609,8 +12814,11 @@
       <c r="H401" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I401">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="402" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>14</v>
       </c>
@@ -11632,8 +12840,11 @@
       <c r="H402" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I402">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="403" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>2.5</v>
       </c>
@@ -11655,8 +12866,11 @@
       <c r="H403" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I403">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="404" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>10</v>
       </c>
@@ -11678,8 +12892,11 @@
       <c r="H404" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I404">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="405" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>11</v>
       </c>
@@ -11701,8 +12918,11 @@
       <c r="H405" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I405">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="406" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>5.55</v>
       </c>
@@ -11724,8 +12944,11 @@
       <c r="H406" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I406">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="407" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>3</v>
       </c>
@@ -11747,8 +12970,11 @@
       <c r="H407" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I407">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="408" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>3.5</v>
       </c>
@@ -11770,8 +12996,11 @@
       <c r="H408" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I408">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="409" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>3.8</v>
       </c>
@@ -11793,8 +13022,11 @@
       <c r="H409" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I409">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="410" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>4</v>
       </c>
@@ -11816,8 +13048,11 @@
       <c r="H410" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I410">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="411" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>8</v>
       </c>
@@ -11839,8 +13074,11 @@
       <c r="H411" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I411">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="412" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>11.6</v>
       </c>
@@ -11862,8 +13100,11 @@
       <c r="H412" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I412">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="413" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>1.6</v>
       </c>
@@ -11885,8 +13126,11 @@
       <c r="H413" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I413">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="414" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>44.41</v>
       </c>
@@ -11908,8 +13152,11 @@
       <c r="H414" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I414">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="415" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>4.8</v>
       </c>
@@ -11931,8 +13178,11 @@
       <c r="H415" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I415">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="416" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>1.7</v>
       </c>
@@ -11954,8 +13204,11 @@
       <c r="H416" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I416">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="417" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>2.85</v>
       </c>
@@ -11977,8 +13230,11 @@
       <c r="H417" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I417">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="418" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>6.4</v>
       </c>
@@ -12000,8 +13256,11 @@
       <c r="H418" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I418">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="419" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>3.5</v>
       </c>
@@ -12023,8 +13282,11 @@
       <c r="H419" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I419">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="420" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>6.5</v>
       </c>
@@ -12046,8 +13308,11 @@
       <c r="H420" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I420">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="421" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>1.2</v>
       </c>
@@ -12069,8 +13334,11 @@
       <c r="H421" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I421">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="422" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>4.5999999999999996</v>
       </c>
@@ -12092,8 +13360,11 @@
       <c r="H422" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I422">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="423" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>8</v>
       </c>
@@ -12115,8 +13386,11 @@
       <c r="H423" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I423">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="424" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>3.5</v>
       </c>
@@ -12138,8 +13412,11 @@
       <c r="H424" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I424">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="425" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
         <v>50</v>
       </c>
@@ -12162,8 +13439,11 @@
       <c r="H425" s="1" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I425">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="426" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>10</v>
       </c>
@@ -12185,8 +13465,11 @@
       <c r="H426" s="1" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I426">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="427" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>2.9</v>
       </c>
@@ -12208,8 +13491,11 @@
       <c r="H427" s="1" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I427">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="428" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>15</v>
       </c>
@@ -12231,8 +13517,11 @@
       <c r="H428" s="1" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I428">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="429" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>3.5</v>
       </c>
@@ -12254,8 +13543,11 @@
       <c r="H429" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I429">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="430" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>9.25</v>
       </c>
@@ -12277,8 +13569,11 @@
       <c r="H430" s="1" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I430">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="431" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>8</v>
       </c>
@@ -12300,8 +13595,11 @@
       <c r="H431" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I431">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="432" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>4.0999999999999996</v>
       </c>
@@ -12323,8 +13621,11 @@
       <c r="H432" s="1" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I432">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="433" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>4.9000000000000004</v>
       </c>
@@ -12346,8 +13647,11 @@
       <c r="H433" s="1" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I433">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="434" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>2.8</v>
       </c>
@@ -12369,8 +13673,11 @@
       <c r="H434" s="1" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I434">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="435" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>18.7</v>
       </c>
@@ -12392,8 +13699,11 @@
       <c r="H435" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I435">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="436" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>20</v>
       </c>
@@ -12415,8 +13725,11 @@
       <c r="H436" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I436">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="437" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
         <v>150</v>
       </c>
@@ -12439,8 +13752,11 @@
       <c r="H437" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I437">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="438" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
         <v>10</v>
       </c>
@@ -12463,8 +13779,11 @@
       <c r="H438" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I438">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="439" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>2.1</v>
       </c>
@@ -12486,8 +13805,11 @@
       <c r="H439" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I439">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="440" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>5</v>
       </c>
@@ -12509,8 +13831,11 @@
       <c r="H440" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I440">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="441" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>10</v>
       </c>
@@ -12532,8 +13857,11 @@
       <c r="H441" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I441">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="442" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>59</v>
       </c>
@@ -12555,8 +13883,11 @@
       <c r="H442" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I442">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="443" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>4</v>
       </c>
@@ -12578,8 +13909,11 @@
       <c r="H443" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I443">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="444" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>4.17</v>
       </c>
@@ -12601,8 +13935,11 @@
       <c r="H444" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="445" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I444">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="445" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>4.2</v>
       </c>
@@ -12624,8 +13961,11 @@
       <c r="H445" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="446" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I445">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="446" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>4.4000000000000004</v>
       </c>
@@ -12647,8 +13987,11 @@
       <c r="H446" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I446">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="447" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>30</v>
       </c>
@@ -12670,8 +14013,11 @@
       <c r="H447" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="448" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I447">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="448" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>5</v>
       </c>
@@ -12693,8 +14039,11 @@
       <c r="H448" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I448">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="449" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>15.7</v>
       </c>
@@ -12716,8 +14065,11 @@
       <c r="H449" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I449">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="450" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>4</v>
       </c>
@@ -12739,8 +14091,11 @@
       <c r="H450" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I450">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="451" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>8</v>
       </c>
@@ -12762,8 +14117,11 @@
       <c r="H451" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I451">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="452" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>3.5</v>
       </c>
@@ -12785,8 +14143,11 @@
       <c r="H452" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I452">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="453" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>4.2</v>
       </c>
@@ -12808,8 +14169,11 @@
       <c r="H453" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I453">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="454" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>180</v>
       </c>
@@ -12831,8 +14195,11 @@
       <c r="H454" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I454">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="455" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>2.2999999999999998</v>
       </c>
@@ -12854,8 +14221,11 @@
       <c r="H455" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="456" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I455">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="456" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>11</v>
       </c>
@@ -12877,8 +14247,11 @@
       <c r="H456" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="457" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I456">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="457" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>2</v>
       </c>
@@ -12900,8 +14273,11 @@
       <c r="H457" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I457">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="458" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>3</v>
       </c>
@@ -12923,8 +14299,11 @@
       <c r="H458" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I458">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="459" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>6.4</v>
       </c>
@@ -12946,8 +14325,11 @@
       <c r="H459" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I459">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="460" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>3.2</v>
       </c>
@@ -12969,8 +14351,11 @@
       <c r="H460" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I460">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="461" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>1</v>
       </c>
@@ -12992,8 +14377,11 @@
       <c r="H461" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I461">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="462" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>4.2</v>
       </c>
@@ -13015,8 +14403,11 @@
       <c r="H462" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I462">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="463" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>14</v>
       </c>
@@ -13038,8 +14429,11 @@
       <c r="H463" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I463">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="464" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>2.9</v>
       </c>
@@ -13061,8 +14455,11 @@
       <c r="H464" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I464">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="465" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>4</v>
       </c>
@@ -13084,8 +14481,11 @@
       <c r="H465" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I465">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="466" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>1.8</v>
       </c>
@@ -13107,8 +14507,11 @@
       <c r="H466" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I466">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="467" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>18</v>
       </c>
@@ -13130,8 +14533,11 @@
       <c r="H467" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I467">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="468" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>2</v>
       </c>
@@ -13153,8 +14559,11 @@
       <c r="H468" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I468">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="469" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>3</v>
       </c>
@@ -13176,8 +14585,11 @@
       <c r="H469" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I469">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="470" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>10</v>
       </c>
@@ -13199,8 +14611,11 @@
       <c r="H470" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I470">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="471" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>8.3000000000000007</v>
       </c>
@@ -13222,8 +14637,11 @@
       <c r="H471" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I471">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="472" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>362</v>
       </c>
@@ -13245,8 +14663,11 @@
       <c r="H472" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I472">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="473" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>4.2</v>
       </c>
@@ -13268,8 +14689,11 @@
       <c r="H473" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I473">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="474" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>0.5</v>
       </c>
@@ -13291,8 +14715,11 @@
       <c r="H474" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I474">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="475" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>1.7</v>
       </c>
@@ -13314,8 +14741,11 @@
       <c r="H475" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="476" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I475">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="476" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>4.5999999999999996</v>
       </c>
@@ -13337,8 +14767,11 @@
       <c r="H476" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I476">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="477" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>4.7</v>
       </c>
@@ -13360,8 +14793,11 @@
       <c r="H477" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I477">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="478" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>1</v>
       </c>
@@ -13383,8 +14819,11 @@
       <c r="H478" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I478">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="479" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>5.6</v>
       </c>
@@ -13406,8 +14845,11 @@
       <c r="H479" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I479">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="480" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>33.799999999999997</v>
       </c>
@@ -13429,8 +14871,11 @@
       <c r="H480" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="481" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I480">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="481" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>8</v>
       </c>
@@ -13452,8 +14897,11 @@
       <c r="H481" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="482" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I481">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="482" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>5.2</v>
       </c>
@@ -13475,8 +14923,11 @@
       <c r="H482" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="483" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I482">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="483" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>5.4</v>
       </c>
@@ -13498,8 +14949,11 @@
       <c r="H483" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="484" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I483">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="484" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>40</v>
       </c>
@@ -13521,8 +14975,11 @@
       <c r="H484" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="485" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I484">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="485" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>10.8</v>
       </c>
@@ -13544,8 +15001,11 @@
       <c r="H485" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="486" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I485">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="486" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>15</v>
       </c>
@@ -13567,8 +15027,11 @@
       <c r="H486" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="487" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I486">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="487" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>20</v>
       </c>
@@ -13590,8 +15053,11 @@
       <c r="H487" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="488" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I487">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="488" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>3</v>
       </c>
@@ -13613,8 +15079,11 @@
       <c r="H488" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="489" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I488">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="489" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>3.5</v>
       </c>
@@ -13636,8 +15105,11 @@
       <c r="H489" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="490" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I489">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="490" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>2.2000000000000002</v>
       </c>
@@ -13659,8 +15131,11 @@
       <c r="H490" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="491" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I490">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="491" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>4.5</v>
       </c>
@@ -13682,8 +15157,11 @@
       <c r="H491" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="492" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I491">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="492" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A492">
         <v>4.2</v>
       </c>
@@ -13705,8 +15183,11 @@
       <c r="H492" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="493" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I492">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="493" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A493">
         <v>5</v>
       </c>
@@ -13728,8 +15209,11 @@
       <c r="H493" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="494" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I493">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="494" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A494" s="1">
         <v>27.69</v>
       </c>
@@ -13752,8 +15236,11 @@
       <c r="H494" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="495" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I494">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="495" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A495">
         <v>70</v>
       </c>
@@ -13775,8 +15262,11 @@
       <c r="H495" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="496" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I495">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="496" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A496" s="1">
         <v>2.2999999999999998</v>
       </c>
@@ -13799,8 +15289,11 @@
       <c r="H496" s="1" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I496">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="497" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A497">
         <v>3.2</v>
       </c>
@@ -13822,8 +15315,11 @@
       <c r="H497" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I497">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="498" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A498">
         <v>3.6</v>
       </c>
@@ -13845,8 +15341,11 @@
       <c r="H498" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="499" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I498">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="499" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>0.5</v>
       </c>
@@ -13868,8 +15367,11 @@
       <c r="H499" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="500" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I499">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="500" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>10</v>
       </c>
@@ -13891,8 +15393,11 @@
       <c r="H500" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="501" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I500">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="501" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>2</v>
       </c>
@@ -13914,8 +15419,11 @@
       <c r="H501" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="502" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I501">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="502" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A502" s="1">
         <v>1.9</v>
       </c>
@@ -13938,8 +15446,11 @@
       <c r="H502" s="1" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="503" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I502">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="503" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A503">
         <v>6.6</v>
       </c>
@@ -13961,8 +15472,11 @@
       <c r="H503" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="504" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I503">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="504" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A504">
         <v>1.8</v>
       </c>
@@ -13984,8 +15498,11 @@
       <c r="H504" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="505" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I504">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="505" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A505" s="1">
         <v>0.8</v>
       </c>
@@ -14008,8 +15525,11 @@
       <c r="H505" s="1" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="506" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I505">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="506" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A506">
         <v>4.2</v>
       </c>
@@ -14031,8 +15551,11 @@
       <c r="H506" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="507" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I506">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="507" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A507">
         <v>4</v>
       </c>
@@ -14054,8 +15577,11 @@
       <c r="H507" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="508" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I507">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="508" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A508">
         <v>1.2</v>
       </c>
@@ -14077,8 +15603,11 @@
       <c r="H508" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="509" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I508">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="509" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A509">
         <v>5</v>
       </c>
@@ -14100,8 +15629,11 @@
       <c r="H509" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="510" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I509">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="510" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A510">
         <v>3.5</v>
       </c>
@@ -14123,8 +15655,11 @@
       <c r="H510" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="511" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I510">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="511" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A511" s="1">
         <v>1.75</v>
       </c>
@@ -14147,8 +15682,11 @@
       <c r="H511" s="1" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="512" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I511">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="512" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A512">
         <v>4.2</v>
       </c>
@@ -14170,8 +15708,11 @@
       <c r="H512" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="513" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I512">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="513" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A513">
         <v>5.6</v>
       </c>
@@ -14193,8 +15734,11 @@
       <c r="H513" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="514" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I513">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="514" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A514">
         <v>3.6</v>
       </c>
@@ -14216,8 +15760,11 @@
       <c r="H514" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="515" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I514">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="515" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A515">
         <v>15.93</v>
       </c>
@@ -14239,8 +15786,11 @@
       <c r="H515" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="516" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I515">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="516" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A516">
         <v>5.98</v>
       </c>
@@ -14262,8 +15812,11 @@
       <c r="H516" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="517" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I516">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="517" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A517">
         <v>5</v>
       </c>
@@ -14285,8 +15838,11 @@
       <c r="H517" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="518" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I517">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="518" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A518">
         <v>4.2</v>
       </c>
@@ -14308,8 +15864,11 @@
       <c r="H518" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="519" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I518">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="519" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A519">
         <v>4.2</v>
       </c>
@@ -14331,8 +15890,11 @@
       <c r="H519" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="520" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I519">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="520" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A520">
         <v>4</v>
       </c>
@@ -14354,8 +15916,11 @@
       <c r="H520" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="521" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I520">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="521" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A521">
         <v>3</v>
       </c>
@@ -14377,8 +15942,11 @@
       <c r="H521" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="522" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I521">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="522" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A522">
         <v>2</v>
       </c>
@@ -14400,8 +15968,11 @@
       <c r="H522" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="523" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I522">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="523" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A523">
         <v>1</v>
       </c>
@@ -14423,8 +15994,11 @@
       <c r="H523" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="524" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I523">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="524" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A524" s="1">
         <v>4.0999999999999996</v>
       </c>
@@ -14447,8 +16021,11 @@
       <c r="H524" s="1" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="525" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I524">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="525" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A525">
         <v>78.180000000000007</v>
       </c>
@@ -14470,8 +16047,11 @@
       <c r="H525" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="526" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I525">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="526" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A526">
         <v>5.2</v>
       </c>
@@ -14493,8 +16073,11 @@
       <c r="H526" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="527" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I526">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="527" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A527">
         <v>1.2</v>
       </c>
@@ -14516,8 +16099,11 @@
       <c r="H527" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="528" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I527">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="528" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A528">
         <v>4.5</v>
       </c>
@@ -14539,8 +16125,11 @@
       <c r="H528" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="529" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I528">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="529" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A529">
         <v>3.4</v>
       </c>
@@ -14562,8 +16151,11 @@
       <c r="H529" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="530" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I529">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="530" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A530">
         <v>16</v>
       </c>
@@ -14585,8 +16177,11 @@
       <c r="H530" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="531" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I530">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="531" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A531">
         <v>2.5</v>
       </c>
@@ -14608,8 +16203,11 @@
       <c r="H531" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="532" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I531">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="532" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A532">
         <v>0.8</v>
       </c>
@@ -14631,8 +16229,11 @@
       <c r="H532" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="533" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I532">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="533" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A533">
         <v>2.8</v>
       </c>
@@ -14654,8 +16255,11 @@
       <c r="H533" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="534" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I533">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="534" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A534">
         <v>3.5</v>
       </c>
@@ -14677,8 +16281,11 @@
       <c r="H534" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="535" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I534">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="535" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A535">
         <v>3.6</v>
       </c>
@@ -14700,8 +16307,11 @@
       <c r="H535" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="536" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I535">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="536" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A536">
         <v>6.8</v>
       </c>
@@ -14723,8 +16333,11 @@
       <c r="H536" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="537" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I536">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="537" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A537">
         <v>5</v>
       </c>
@@ -14746,8 +16359,11 @@
       <c r="H537" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="538" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I537">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="538" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A538">
         <v>4.9000000000000004</v>
       </c>
@@ -14769,8 +16385,11 @@
       <c r="H538" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="539" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I538">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="539" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A539">
         <v>80</v>
       </c>
@@ -14792,8 +16411,11 @@
       <c r="H539" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="540" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I539">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="540" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A540">
         <v>55</v>
       </c>
@@ -14815,8 +16437,11 @@
       <c r="H540" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="541" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I540">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="541" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A541">
         <v>10</v>
       </c>
@@ -14838,8 +16463,11 @@
       <c r="H541" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="542" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I541">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="542" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A542">
         <v>1</v>
       </c>
@@ -14861,8 +16489,11 @@
       <c r="H542" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="543" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I542">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="543" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A543" s="1">
         <v>1.65</v>
       </c>
@@ -14885,8 +16516,11 @@
       <c r="H543" s="1" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="544" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I543">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="544" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A544" s="1">
         <v>4.5</v>
       </c>
@@ -14909,8 +16543,11 @@
       <c r="H544" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="545" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I544">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="545" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A545">
         <v>4.8</v>
       </c>
@@ -14933,8 +16570,11 @@
       <c r="H545" s="1" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="546" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I545">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="546" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A546" s="1">
         <v>9.5</v>
       </c>
@@ -14957,8 +16597,11 @@
       <c r="H546" s="1" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="547" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I546">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="547" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A547">
         <v>10</v>
       </c>
@@ -14980,8 +16623,11 @@
       <c r="H547" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="548" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I547">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="548" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A548">
         <v>4.8</v>
       </c>
@@ -15003,8 +16649,11 @@
       <c r="H548" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="549" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I548">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="549" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A549">
         <v>6.1</v>
       </c>
@@ -15026,8 +16675,11 @@
       <c r="H549" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="550" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I549">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="550" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A550">
         <v>4.8</v>
       </c>
@@ -15049,8 +16701,11 @@
       <c r="H550" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="551" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I550">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="551" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A551">
         <v>4.7300000000000004</v>
       </c>
@@ -15072,8 +16727,11 @@
       <c r="H551" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="552" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I551">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="552" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A552">
         <v>2.6</v>
       </c>
@@ -15095,8 +16753,11 @@
       <c r="H552" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="553" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I552">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="553" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A553">
         <v>3.7</v>
       </c>
@@ -15118,8 +16779,11 @@
       <c r="H553" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="554" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I553">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="554" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A554">
         <v>120</v>
       </c>
@@ -15141,8 +16805,11 @@
       <c r="H554" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="555" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I554">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="555" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A555">
         <v>6.8</v>
       </c>
@@ -15164,8 +16831,11 @@
       <c r="H555" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="556" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I555">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="556" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A556">
         <v>5</v>
       </c>
@@ -15187,8 +16857,11 @@
       <c r="H556" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="557" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I556">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="557" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A557">
         <v>3.8</v>
       </c>
@@ -15210,8 +16883,11 @@
       <c r="H557" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="558" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I557">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="558" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A558">
         <v>3.9</v>
       </c>
@@ -15233,8 +16909,11 @@
       <c r="H558" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="559" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I558">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="559" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A559">
         <v>2.7</v>
       </c>
@@ -15256,8 +16935,11 @@
       <c r="H559" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="560" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I559">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="560" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A560">
         <v>1</v>
       </c>
@@ -15279,8 +16961,11 @@
       <c r="H560" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="561" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I560">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="561" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A561">
         <v>1</v>
       </c>
@@ -15302,8 +16987,11 @@
       <c r="H561" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="562" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I561">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="562" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A562">
         <v>3.5</v>
       </c>
@@ -15325,8 +17013,11 @@
       <c r="H562" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="563" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I562">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="563" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A563">
         <v>7.1</v>
       </c>
@@ -15348,8 +17039,11 @@
       <c r="H563" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="564" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I563">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="564" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A564">
         <v>49.98</v>
       </c>
@@ -15371,8 +17065,11 @@
       <c r="H564" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="565" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I564">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="565" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A565">
         <v>4.74</v>
       </c>
@@ -15394,8 +17091,11 @@
       <c r="H565" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="566" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I565">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="566" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A566">
         <v>6.2</v>
       </c>
@@ -15417,8 +17117,11 @@
       <c r="H566" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="567" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I566">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="567" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A567">
         <v>3.17</v>
       </c>
@@ -15440,8 +17143,11 @@
       <c r="H567" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="568" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I567">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="568" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A568">
         <v>4.1500000000000004</v>
       </c>
@@ -15463,8 +17169,11 @@
       <c r="H568" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="569" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I568">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="569" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A569">
         <v>1.8</v>
       </c>
@@ -15486,8 +17195,11 @@
       <c r="H569" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="570" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I569">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="570" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A570">
         <v>7</v>
       </c>
@@ -15509,8 +17221,11 @@
       <c r="H570" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="571" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I570">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="571" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A571">
         <v>8</v>
       </c>
@@ -15532,8 +17247,11 @@
       <c r="H571" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="572" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I571">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="572" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A572">
         <v>2.2999999999999998</v>
       </c>
@@ -15555,8 +17273,11 @@
       <c r="H572" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="573" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I572">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="573" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A573">
         <v>1.2</v>
       </c>
@@ -15578,8 +17299,11 @@
       <c r="H573" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="574" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I573">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="574" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A574">
         <v>5.0999999999999996</v>
       </c>
@@ -15601,8 +17325,11 @@
       <c r="H574" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="575" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I574">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="575" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A575">
         <v>4</v>
       </c>
@@ -15624,8 +17351,11 @@
       <c r="H575" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="576" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I575">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="576" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A576">
         <v>4</v>
       </c>
@@ -15647,8 +17377,11 @@
       <c r="H576" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="577" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I576">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="577" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A577">
         <v>4.5999999999999996</v>
       </c>
@@ -15670,8 +17403,11 @@
       <c r="H577" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="578" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I577">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="578" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A578">
         <v>4.5999999999999996</v>
       </c>
@@ -15693,8 +17429,11 @@
       <c r="H578" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="579" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I578">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="579" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A579">
         <v>4.5999999999999996</v>
       </c>
@@ -15716,8 +17455,11 @@
       <c r="H579" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="580" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I579">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="580" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A580">
         <v>2.9</v>
       </c>
@@ -15739,8 +17481,11 @@
       <c r="H580" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="581" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I580">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="581" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A581">
         <v>11.6</v>
       </c>
@@ -15762,8 +17507,11 @@
       <c r="H581" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="582" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I581">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="582" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A582">
         <v>0.75</v>
       </c>
@@ -15785,8 +17533,11 @@
       <c r="H582" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="583" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I582">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="583" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A583">
         <v>2</v>
       </c>
@@ -15808,8 +17559,11 @@
       <c r="H583" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="584" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I583">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="584" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A584">
         <v>10</v>
       </c>
@@ -15831,8 +17585,11 @@
       <c r="H584" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="585" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I584">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="585" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A585">
         <v>3.3</v>
       </c>
@@ -15854,8 +17611,11 @@
       <c r="H585" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="586" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I585">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="586" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A586">
         <v>4.4000000000000004</v>
       </c>
@@ -15877,8 +17637,11 @@
       <c r="H586" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="587" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I586">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="587" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A587">
         <v>3</v>
       </c>
@@ -15900,8 +17663,11 @@
       <c r="H587" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="588" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I587">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="588" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A588">
         <v>8.6999999999999993</v>
       </c>
@@ -15923,8 +17689,11 @@
       <c r="H588" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="589" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I588">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="589" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A589">
         <v>3</v>
       </c>
@@ -15946,8 +17715,11 @@
       <c r="H589" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="590" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I589">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="590" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A590">
         <v>15</v>
       </c>
@@ -15969,8 +17741,11 @@
       <c r="H590" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="591" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I590">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="591" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A591">
         <v>5</v>
       </c>
@@ -15992,8 +17767,11 @@
       <c r="H591" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="592" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I591">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="592" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A592">
         <v>3.9</v>
       </c>
@@ -16015,8 +17793,11 @@
       <c r="H592" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="593" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I592">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="593" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A593">
         <v>2.85</v>
       </c>
@@ -16038,8 +17819,11 @@
       <c r="H593" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="594" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I593">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="594" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A594">
         <v>3</v>
       </c>
@@ -16061,8 +17845,11 @@
       <c r="H594" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="595" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I594">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="595" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A595">
         <v>4.4000000000000004</v>
       </c>
@@ -16084,8 +17871,11 @@
       <c r="H595" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="596" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I595">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="596" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A596">
         <v>3</v>
       </c>
@@ -16107,8 +17897,11 @@
       <c r="H596" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="597" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I596">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="597" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A597">
         <v>3</v>
       </c>
@@ -16130,8 +17923,11 @@
       <c r="H597" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="598" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I597">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="598" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A598">
         <v>3</v>
       </c>
@@ -16153,8 +17949,11 @@
       <c r="H598" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="599" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I598">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="599" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A599">
         <v>4</v>
       </c>
@@ -16176,8 +17975,11 @@
       <c r="H599" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="600" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I599">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="600" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A600">
         <v>5</v>
       </c>
@@ -16199,8 +18001,11 @@
       <c r="H600" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="601" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I600">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="601" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A601">
         <v>4</v>
       </c>
@@ -16222,8 +18027,11 @@
       <c r="H601" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="602" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I601">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="602" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A602">
         <v>3</v>
       </c>
@@ -16245,8 +18053,11 @@
       <c r="H602" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="603" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I602">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="603" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A603">
         <v>12</v>
       </c>
@@ -16268,8 +18079,11 @@
       <c r="H603" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="604" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I603">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="604" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A604">
         <v>3</v>
       </c>
@@ -16291,8 +18105,11 @@
       <c r="H604" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="605" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I604">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="605" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A605">
         <v>6</v>
       </c>
@@ -16314,8 +18131,11 @@
       <c r="H605" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="606" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I605">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="606" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A606">
         <v>5</v>
       </c>
@@ -16337,8 +18157,11 @@
       <c r="H606" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="607" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I606">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="607" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A607">
         <v>10</v>
       </c>
@@ -16360,8 +18183,11 @@
       <c r="H607" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="608" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I607">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="608" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A608">
         <v>19</v>
       </c>
@@ -16382,6 +18208,9 @@
       </c>
       <c r="H608" t="s">
         <v>248</v>
+      </c>
+      <c r="I608">
+        <v>607</v>
       </c>
     </row>
     <row r="609" spans="1:9" x14ac:dyDescent="0.25">
@@ -16406,6 +18235,9 @@
       <c r="H609" t="s">
         <v>248</v>
       </c>
+      <c r="I609">
+        <v>608</v>
+      </c>
     </row>
     <row r="610" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A610">
@@ -16429,6 +18261,9 @@
       <c r="H610" t="s">
         <v>387</v>
       </c>
+      <c r="I610">
+        <v>609</v>
+      </c>
     </row>
     <row r="611" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A611">
@@ -16452,6 +18287,9 @@
       <c r="H611" t="s">
         <v>243</v>
       </c>
+      <c r="I611">
+        <v>610</v>
+      </c>
     </row>
     <row r="612" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A612" s="1">
@@ -16476,7 +18314,9 @@
       <c r="H612" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="I612" s="1"/>
+      <c r="I612">
+        <v>611</v>
+      </c>
     </row>
     <row r="613" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A613">
@@ -16500,6 +18340,9 @@
       <c r="H613" t="s">
         <v>234</v>
       </c>
+      <c r="I613">
+        <v>612</v>
+      </c>
     </row>
     <row r="614" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A614">
@@ -16523,6 +18366,9 @@
       <c r="H614" t="s">
         <v>243</v>
       </c>
+      <c r="I614">
+        <v>613</v>
+      </c>
     </row>
     <row r="615" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A615">
@@ -16546,6 +18392,9 @@
       <c r="H615" t="s">
         <v>234</v>
       </c>
+      <c r="I615">
+        <v>614</v>
+      </c>
     </row>
     <row r="616" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A616">
@@ -16569,6 +18418,9 @@
       <c r="H616" t="s">
         <v>234</v>
       </c>
+      <c r="I616">
+        <v>615</v>
+      </c>
     </row>
     <row r="617" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A617">
@@ -16592,6 +18444,9 @@
       <c r="H617" t="s">
         <v>234</v>
       </c>
+      <c r="I617">
+        <v>616</v>
+      </c>
     </row>
     <row r="618" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A618">
@@ -16615,6 +18470,9 @@
       <c r="H618" t="s">
         <v>234</v>
       </c>
+      <c r="I618">
+        <v>617</v>
+      </c>
     </row>
     <row r="619" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A619">
@@ -16638,6 +18496,9 @@
       <c r="H619" t="s">
         <v>234</v>
       </c>
+      <c r="I619">
+        <v>618</v>
+      </c>
     </row>
     <row r="620" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A620">
@@ -16661,6 +18522,9 @@
       <c r="H620" t="s">
         <v>243</v>
       </c>
+      <c r="I620">
+        <v>619</v>
+      </c>
     </row>
     <row r="621" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A621">
@@ -16684,6 +18548,9 @@
       <c r="H621" t="s">
         <v>387</v>
       </c>
+      <c r="I621">
+        <v>620</v>
+      </c>
     </row>
     <row r="622" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A622">
@@ -16707,6 +18574,9 @@
       <c r="H622" t="s">
         <v>234</v>
       </c>
+      <c r="I622">
+        <v>621</v>
+      </c>
     </row>
     <row r="623" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A623">
@@ -16730,6 +18600,9 @@
       <c r="H623" t="s">
         <v>234</v>
       </c>
+      <c r="I623">
+        <v>622</v>
+      </c>
     </row>
     <row r="624" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A624">
@@ -16753,8 +18626,11 @@
       <c r="H624" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="625" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I624">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="625" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A625">
         <v>10</v>
       </c>
@@ -16776,8 +18652,11 @@
       <c r="H625" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="626" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I625">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="626" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A626">
         <v>3.5</v>
       </c>
@@ -16799,8 +18678,11 @@
       <c r="H626" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="627" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I626">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="627" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A627">
         <v>60</v>
       </c>
@@ -16822,8 +18704,11 @@
       <c r="H627" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="628" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I627">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="628" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A628">
         <v>10</v>
       </c>
@@ -16845,8 +18730,11 @@
       <c r="H628" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="629" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I628">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="629" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A629">
         <v>4.4000000000000004</v>
       </c>
@@ -16868,8 +18756,11 @@
       <c r="H629" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="630" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I629">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="630" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A630">
         <v>5</v>
       </c>
@@ -16891,8 +18782,11 @@
       <c r="H630" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="631" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I630">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="631" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A631">
         <v>3.6</v>
       </c>
@@ -16914,8 +18808,11 @@
       <c r="H631" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="632" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I631">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="632" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A632">
         <v>4.7</v>
       </c>
@@ -16937,8 +18834,11 @@
       <c r="H632" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="633" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I632">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="633" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A633">
         <v>4.7</v>
       </c>
@@ -16960,8 +18860,11 @@
       <c r="H633" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="634" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I633">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="634" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A634">
         <v>3.7</v>
       </c>
@@ -16983,8 +18886,11 @@
       <c r="H634" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="635" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I634">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="635" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A635">
         <v>10</v>
       </c>
@@ -17006,8 +18912,11 @@
       <c r="H635" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="636" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I635">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="636" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A636">
         <v>8.43</v>
       </c>
@@ -17029,8 +18938,11 @@
       <c r="H636" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="637" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I636">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="637" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A637">
         <v>7.6</v>
       </c>
@@ -17052,8 +18964,11 @@
       <c r="H637" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="638" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I637">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="638" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A638">
         <v>2</v>
       </c>
@@ -17075,8 +18990,11 @@
       <c r="H638" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="639" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I638">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="639" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A639">
         <v>4</v>
       </c>
@@ -17098,8 +19016,11 @@
       <c r="H639" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="640" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I639">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="640" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A640">
         <v>5</v>
       </c>
@@ -17121,8 +19042,11 @@
       <c r="H640" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="641" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I640">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="641" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A641">
         <v>1.3</v>
       </c>
@@ -17144,8 +19068,11 @@
       <c r="H641" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="642" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I641">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="642" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A642">
         <v>1</v>
       </c>
@@ -17167,8 +19094,11 @@
       <c r="H642" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="643" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I642">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="643" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A643">
         <v>13.65</v>
       </c>
@@ -17190,8 +19120,11 @@
       <c r="H643" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="644" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I643">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="644" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A644">
         <v>7.4</v>
       </c>
@@ -17213,8 +19146,11 @@
       <c r="H644" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="645" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I644">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="645" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A645">
         <v>39.99</v>
       </c>
@@ -17236,8 +19172,11 @@
       <c r="H645" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="646" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I645">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="646" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A646">
         <v>9</v>
       </c>
@@ -17259,8 +19198,11 @@
       <c r="H646" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="647" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I646">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="647" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A647">
         <v>1</v>
       </c>
@@ -17282,8 +19224,11 @@
       <c r="H647" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="648" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I647">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="648" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A648">
         <v>6.9</v>
       </c>
@@ -17305,8 +19250,11 @@
       <c r="H648" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="649" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I648">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="649" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A649">
         <v>3.6</v>
       </c>
@@ -17328,8 +19276,11 @@
       <c r="H649" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="650" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I649">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="650" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A650">
         <v>7.96</v>
       </c>
@@ -17351,8 +19302,11 @@
       <c r="H650" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="651" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I650">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="651" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A651">
         <v>5</v>
       </c>
@@ -17374,8 +19328,11 @@
       <c r="H651" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="652" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I651">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="652" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A652">
         <v>2.5</v>
       </c>
@@ -17397,8 +19354,11 @@
       <c r="H652" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="653" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I652">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="653" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A653">
         <v>7.65</v>
       </c>
@@ -17419,6 +19379,35 @@
       </c>
       <c r="H653" t="s">
         <v>243</v>
+      </c>
+      <c r="I653">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="654" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A654">
+        <v>4</v>
+      </c>
+      <c r="B654" t="s">
+        <v>217</v>
+      </c>
+      <c r="C654" s="2">
+        <v>43454</v>
+      </c>
+      <c r="D654" t="s">
+        <v>629</v>
+      </c>
+      <c r="E654" t="s">
+        <v>232</v>
+      </c>
+      <c r="F654">
+        <v>5</v>
+      </c>
+      <c r="H654" t="s">
+        <v>252</v>
+      </c>
+      <c r="I654">
+        <v>653</v>
       </c>
     </row>
   </sheetData>

--- a/DataBase/costs.xlsx
+++ b/DataBase/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2626" uniqueCount="631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2630" uniqueCount="631">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -2050,7 +2050,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:I654" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:I655" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="9">
     <tableColumn id="1" name="amount" headerRowDxfId="9" totalsRowDxfId="8"/>
     <tableColumn id="11" name="type" totalsRowDxfId="7"/>
@@ -2353,10 +2353,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L654"/>
+  <dimension ref="A1:L655"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A619" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I654"/>
+    <sheetView tabSelected="1" topLeftCell="A634" workbookViewId="0">
+      <selection activeCell="I657" sqref="I657"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19410,6 +19410,32 @@
         <v>653</v>
       </c>
     </row>
+    <row r="655" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A655">
+        <v>5.7</v>
+      </c>
+      <c r="B655" t="s">
+        <v>217</v>
+      </c>
+      <c r="C655" s="2">
+        <v>43454</v>
+      </c>
+      <c r="D655" t="s">
+        <v>327</v>
+      </c>
+      <c r="E655" t="s">
+        <v>232</v>
+      </c>
+      <c r="F655">
+        <v>5</v>
+      </c>
+      <c r="H655" t="s">
+        <v>243</v>
+      </c>
+      <c r="I655">
+        <v>654</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataBase/costs.xlsx
+++ b/DataBase/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2630" uniqueCount="631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2638" uniqueCount="633">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1907,6 +1907,12 @@
   </si>
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>κασερόπιτα από το Βενέτη</t>
+  </si>
+  <si>
+    <t>φυσικός χυμός με πρασόπιτα και τυροκούλουρο</t>
   </si>
 </sst>
 </file>
@@ -2050,7 +2056,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:I655" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:I658" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="9">
     <tableColumn id="1" name="amount" headerRowDxfId="9" totalsRowDxfId="8"/>
     <tableColumn id="11" name="type" totalsRowDxfId="7"/>
@@ -2353,10 +2359,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L655"/>
+  <dimension ref="A1:L657"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A634" workbookViewId="0">
-      <selection activeCell="I657" sqref="I657"/>
+      <selection activeCell="F662" sqref="F662"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19436,6 +19442,58 @@
         <v>654</v>
       </c>
     </row>
+    <row r="656" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A656">
+        <v>1.9</v>
+      </c>
+      <c r="B656" t="s">
+        <v>217</v>
+      </c>
+      <c r="C656" s="2">
+        <v>43454</v>
+      </c>
+      <c r="D656" t="s">
+        <v>631</v>
+      </c>
+      <c r="E656" t="s">
+        <v>232</v>
+      </c>
+      <c r="F656">
+        <v>4</v>
+      </c>
+      <c r="H656" t="s">
+        <v>234</v>
+      </c>
+      <c r="I656">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="657" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A657">
+        <v>5.9</v>
+      </c>
+      <c r="B657" t="s">
+        <v>217</v>
+      </c>
+      <c r="C657" s="2">
+        <v>43455</v>
+      </c>
+      <c r="D657" t="s">
+        <v>632</v>
+      </c>
+      <c r="E657" t="s">
+        <v>232</v>
+      </c>
+      <c r="F657">
+        <v>4</v>
+      </c>
+      <c r="H657" t="s">
+        <v>243</v>
+      </c>
+      <c r="I657">
+        <v>656</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataBase/costs.xlsx
+++ b/DataBase/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2638" uniqueCount="633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2639" uniqueCount="633">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -2361,8 +2361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L657"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A634" workbookViewId="0">
-      <selection activeCell="F662" sqref="F662"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2438,8 +2438,8 @@
       <c r="H2" t="s">
         <v>476</v>
       </c>
-      <c r="I2">
-        <v>1</v>
+      <c r="I2" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -2465,7 +2465,7 @@
         <v>234</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3" s="3"/>
     </row>
@@ -2492,7 +2492,7 @@
         <v>234</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -2518,7 +2518,7 @@
         <v>234</v>
       </c>
       <c r="I5">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -2544,7 +2544,7 @@
         <v>237</v>
       </c>
       <c r="I6">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -2570,7 +2570,7 @@
         <v>234</v>
       </c>
       <c r="I7">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -2596,7 +2596,7 @@
         <v>234</v>
       </c>
       <c r="I8">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -2622,7 +2622,7 @@
         <v>238</v>
       </c>
       <c r="I9">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -2648,7 +2648,7 @@
         <v>238</v>
       </c>
       <c r="I10">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -2674,7 +2674,7 @@
         <v>241</v>
       </c>
       <c r="I11">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -2700,7 +2700,7 @@
         <v>241</v>
       </c>
       <c r="I12">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -2726,7 +2726,7 @@
         <v>239</v>
       </c>
       <c r="I13">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -2752,7 +2752,7 @@
         <v>241</v>
       </c>
       <c r="I14">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -2778,7 +2778,7 @@
         <v>241</v>
       </c>
       <c r="I15">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -2804,7 +2804,7 @@
         <v>240</v>
       </c>
       <c r="I16">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -2830,7 +2830,7 @@
         <v>239</v>
       </c>
       <c r="I17">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -2856,7 +2856,7 @@
         <v>238</v>
       </c>
       <c r="I18">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -2882,7 +2882,7 @@
         <v>234</v>
       </c>
       <c r="I19">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -2908,7 +2908,7 @@
         <v>234</v>
       </c>
       <c r="I20">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -2934,7 +2934,7 @@
         <v>238</v>
       </c>
       <c r="I21">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -2960,7 +2960,7 @@
         <v>234</v>
       </c>
       <c r="I22">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -2986,7 +2986,7 @@
         <v>241</v>
       </c>
       <c r="I23">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -3012,7 +3012,7 @@
         <v>234</v>
       </c>
       <c r="I24">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -3038,7 +3038,7 @@
         <v>240</v>
       </c>
       <c r="I25">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -3064,7 +3064,7 @@
         <v>234</v>
       </c>
       <c r="I26">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -3090,7 +3090,7 @@
         <v>234</v>
       </c>
       <c r="I27">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -3116,7 +3116,7 @@
         <v>238</v>
       </c>
       <c r="I28">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -3142,7 +3142,7 @@
         <v>262</v>
       </c>
       <c r="I29">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -3168,7 +3168,7 @@
         <v>234</v>
       </c>
       <c r="I30">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -3194,7 +3194,7 @@
         <v>238</v>
       </c>
       <c r="I31">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -3220,7 +3220,7 @@
         <v>239</v>
       </c>
       <c r="I32">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -3246,7 +3246,7 @@
         <v>238</v>
       </c>
       <c r="I33">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -3272,7 +3272,7 @@
         <v>238</v>
       </c>
       <c r="I34">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -3298,7 +3298,7 @@
         <v>234</v>
       </c>
       <c r="I35">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -3324,7 +3324,7 @@
         <v>238</v>
       </c>
       <c r="I36">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -3350,7 +3350,7 @@
         <v>234</v>
       </c>
       <c r="I37">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -3376,7 +3376,7 @@
         <v>234</v>
       </c>
       <c r="I38">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -3402,7 +3402,7 @@
         <v>241</v>
       </c>
       <c r="I39">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -3428,7 +3428,7 @@
         <v>240</v>
       </c>
       <c r="I40">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -3454,7 +3454,7 @@
         <v>234</v>
       </c>
       <c r="I41">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -3480,7 +3480,7 @@
         <v>234</v>
       </c>
       <c r="I42">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -3506,7 +3506,7 @@
         <v>234</v>
       </c>
       <c r="I43">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -3532,7 +3532,7 @@
         <v>234</v>
       </c>
       <c r="I44">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -3558,7 +3558,7 @@
         <v>239</v>
       </c>
       <c r="I45">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -3584,7 +3584,7 @@
         <v>240</v>
       </c>
       <c r="I46">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -3610,7 +3610,7 @@
         <v>234</v>
       </c>
       <c r="I47">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -3636,7 +3636,7 @@
         <v>241</v>
       </c>
       <c r="I48">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -3662,7 +3662,7 @@
         <v>241</v>
       </c>
       <c r="I49">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -3688,7 +3688,7 @@
         <v>241</v>
       </c>
       <c r="I50">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -3714,7 +3714,7 @@
         <v>256</v>
       </c>
       <c r="I51">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -3740,7 +3740,7 @@
         <v>253</v>
       </c>
       <c r="I52">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -3766,7 +3766,7 @@
         <v>253</v>
       </c>
       <c r="I53">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -3792,7 +3792,7 @@
         <v>253</v>
       </c>
       <c r="I54">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -3818,7 +3818,7 @@
         <v>253</v>
       </c>
       <c r="I55">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K55" s="4"/>
     </row>
@@ -3845,7 +3845,7 @@
         <v>253</v>
       </c>
       <c r="I56">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -3871,7 +3871,7 @@
         <v>253</v>
       </c>
       <c r="I57">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -3897,7 +3897,7 @@
         <v>253</v>
       </c>
       <c r="I58">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -3923,7 +3923,7 @@
         <v>258</v>
       </c>
       <c r="I59">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -3949,7 +3949,7 @@
         <v>253</v>
       </c>
       <c r="I60">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -3975,7 +3975,7 @@
         <v>253</v>
       </c>
       <c r="I61">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -4001,7 +4001,7 @@
         <v>253</v>
       </c>
       <c r="I62">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -4027,7 +4027,7 @@
         <v>253</v>
       </c>
       <c r="I63">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -4053,7 +4053,7 @@
         <v>253</v>
       </c>
       <c r="I64">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -4079,7 +4079,7 @@
         <v>253</v>
       </c>
       <c r="I65">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -4105,7 +4105,7 @@
         <v>253</v>
       </c>
       <c r="I66">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -4131,7 +4131,7 @@
         <v>260</v>
       </c>
       <c r="I67">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -4157,7 +4157,7 @@
         <v>260</v>
       </c>
       <c r="I68">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K68" s="4"/>
     </row>
@@ -4184,7 +4184,7 @@
         <v>234</v>
       </c>
       <c r="I69">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -4210,7 +4210,7 @@
         <v>234</v>
       </c>
       <c r="I70">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -4236,7 +4236,7 @@
         <v>234</v>
       </c>
       <c r="I71">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -4262,7 +4262,7 @@
         <v>234</v>
       </c>
       <c r="I72">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -4288,7 +4288,7 @@
         <v>234</v>
       </c>
       <c r="I73">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
@@ -4314,7 +4314,7 @@
         <v>234</v>
       </c>
       <c r="I74">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -4340,7 +4340,7 @@
         <v>241</v>
       </c>
       <c r="I75">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K75" s="4"/>
     </row>
@@ -4367,7 +4367,7 @@
         <v>239</v>
       </c>
       <c r="I76">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -4393,7 +4393,7 @@
         <v>241</v>
       </c>
       <c r="I77">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
@@ -4419,7 +4419,7 @@
         <v>238</v>
       </c>
       <c r="I78">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
@@ -4445,7 +4445,7 @@
         <v>241</v>
       </c>
       <c r="I79">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
@@ -4471,7 +4471,7 @@
         <v>255</v>
       </c>
       <c r="I80">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
@@ -4497,7 +4497,7 @@
         <v>255</v>
       </c>
       <c r="I81">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
@@ -4523,7 +4523,7 @@
         <v>255</v>
       </c>
       <c r="I82">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -4549,7 +4549,7 @@
         <v>234</v>
       </c>
       <c r="I83">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -4575,7 +4575,7 @@
         <v>241</v>
       </c>
       <c r="I84">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -4601,7 +4601,7 @@
         <v>252</v>
       </c>
       <c r="I85">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
@@ -4627,7 +4627,7 @@
         <v>240</v>
       </c>
       <c r="I86">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
@@ -4653,7 +4653,7 @@
         <v>266</v>
       </c>
       <c r="I87">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
@@ -4679,7 +4679,7 @@
         <v>234</v>
       </c>
       <c r="I88">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
@@ -4705,7 +4705,7 @@
         <v>241</v>
       </c>
       <c r="I89">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -4731,7 +4731,7 @@
         <v>234</v>
       </c>
       <c r="I90">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
@@ -4757,7 +4757,7 @@
         <v>241</v>
       </c>
       <c r="I91">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
@@ -4783,7 +4783,7 @@
         <v>234</v>
       </c>
       <c r="I92">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
@@ -4809,7 +4809,7 @@
         <v>259</v>
       </c>
       <c r="I93">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
@@ -4835,7 +4835,7 @@
         <v>259</v>
       </c>
       <c r="I94">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
@@ -4861,7 +4861,7 @@
         <v>259</v>
       </c>
       <c r="I95">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
@@ -4887,7 +4887,7 @@
         <v>241</v>
       </c>
       <c r="I96">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
@@ -4913,7 +4913,7 @@
         <v>240</v>
       </c>
       <c r="I97">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
@@ -4939,7 +4939,7 @@
         <v>234</v>
       </c>
       <c r="I98">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
@@ -4965,7 +4965,7 @@
         <v>238</v>
       </c>
       <c r="I99">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
@@ -4991,7 +4991,7 @@
         <v>267</v>
       </c>
       <c r="I100">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
@@ -5017,7 +5017,7 @@
         <v>234</v>
       </c>
       <c r="I101">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
@@ -5043,7 +5043,7 @@
         <v>241</v>
       </c>
       <c r="I102">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
@@ -5069,7 +5069,7 @@
         <v>234</v>
       </c>
       <c r="I103">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
@@ -5095,7 +5095,7 @@
         <v>234</v>
       </c>
       <c r="I104">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
@@ -5121,7 +5121,7 @@
         <v>249</v>
       </c>
       <c r="I105">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
@@ -5147,7 +5147,7 @@
         <v>238</v>
       </c>
       <c r="I106">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
@@ -5173,7 +5173,7 @@
         <v>245</v>
       </c>
       <c r="I107">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
@@ -5199,7 +5199,7 @@
         <v>245</v>
       </c>
       <c r="I108">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
@@ -5225,7 +5225,7 @@
         <v>245</v>
       </c>
       <c r="I109">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
@@ -5251,7 +5251,7 @@
         <v>245</v>
       </c>
       <c r="I110">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
@@ -5277,7 +5277,7 @@
         <v>245</v>
       </c>
       <c r="I111">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
@@ -5303,7 +5303,7 @@
         <v>245</v>
       </c>
       <c r="I112">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
@@ -5329,7 +5329,7 @@
         <v>251</v>
       </c>
       <c r="I113">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
@@ -5355,7 +5355,7 @@
         <v>251</v>
       </c>
       <c r="I114">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
@@ -5381,7 +5381,7 @@
         <v>251</v>
       </c>
       <c r="I115">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
@@ -5407,7 +5407,7 @@
         <v>251</v>
       </c>
       <c r="I116">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
@@ -5433,7 +5433,7 @@
         <v>245</v>
       </c>
       <c r="I117">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
@@ -5459,7 +5459,7 @@
         <v>245</v>
       </c>
       <c r="I118">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
@@ -5485,7 +5485,7 @@
         <v>239</v>
       </c>
       <c r="I119">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
@@ -5511,7 +5511,7 @@
         <v>239</v>
       </c>
       <c r="I120">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
@@ -5537,7 +5537,7 @@
         <v>260</v>
       </c>
       <c r="I121">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
@@ -5563,7 +5563,7 @@
         <v>260</v>
       </c>
       <c r="I122">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
@@ -5589,7 +5589,7 @@
         <v>260</v>
       </c>
       <c r="I123">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
@@ -5615,7 +5615,7 @@
         <v>260</v>
       </c>
       <c r="I124">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
@@ -5641,7 +5641,7 @@
         <v>241</v>
       </c>
       <c r="I125">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
@@ -5667,7 +5667,7 @@
         <v>241</v>
       </c>
       <c r="I126">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
@@ -5693,7 +5693,7 @@
         <v>249</v>
       </c>
       <c r="I127">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
@@ -5719,7 +5719,7 @@
         <v>234</v>
       </c>
       <c r="I128">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
@@ -5745,7 +5745,7 @@
         <v>241</v>
       </c>
       <c r="I129">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
@@ -5771,7 +5771,7 @@
         <v>234</v>
       </c>
       <c r="I130">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
@@ -5797,7 +5797,7 @@
         <v>234</v>
       </c>
       <c r="I131">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
@@ -5823,7 +5823,7 @@
         <v>234</v>
       </c>
       <c r="I132">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
@@ -5849,7 +5849,7 @@
         <v>234</v>
       </c>
       <c r="I133">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
@@ -5875,7 +5875,7 @@
         <v>268</v>
       </c>
       <c r="I134">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
@@ -5901,7 +5901,7 @@
         <v>238</v>
       </c>
       <c r="I135">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
@@ -5927,7 +5927,7 @@
         <v>238</v>
       </c>
       <c r="I136">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
@@ -5953,7 +5953,7 @@
         <v>241</v>
       </c>
       <c r="I137">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
@@ -5979,7 +5979,7 @@
         <v>241</v>
       </c>
       <c r="I138">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
@@ -6005,7 +6005,7 @@
         <v>241</v>
       </c>
       <c r="I139">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
@@ -6031,7 +6031,7 @@
         <v>238</v>
       </c>
       <c r="I140">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
@@ -6057,7 +6057,7 @@
         <v>234</v>
       </c>
       <c r="I141">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
@@ -6083,7 +6083,7 @@
         <v>234</v>
       </c>
       <c r="I142">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
@@ -6109,7 +6109,7 @@
         <v>241</v>
       </c>
       <c r="I143">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
@@ -6135,7 +6135,7 @@
         <v>239</v>
       </c>
       <c r="I144">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
@@ -6161,7 +6161,7 @@
         <v>239</v>
       </c>
       <c r="I145">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
@@ -6187,7 +6187,7 @@
         <v>243</v>
       </c>
       <c r="I146">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
@@ -6213,7 +6213,7 @@
         <v>241</v>
       </c>
       <c r="I147">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
@@ -6239,7 +6239,7 @@
         <v>234</v>
       </c>
       <c r="I148">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
@@ -6265,7 +6265,7 @@
         <v>234</v>
       </c>
       <c r="I149">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
@@ -6291,7 +6291,7 @@
         <v>266</v>
       </c>
       <c r="I150">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
@@ -6317,7 +6317,7 @@
         <v>266</v>
       </c>
       <c r="I151">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
@@ -6343,7 +6343,7 @@
         <v>234</v>
       </c>
       <c r="I152">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
@@ -6369,7 +6369,7 @@
         <v>234</v>
       </c>
       <c r="I153">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
@@ -6395,7 +6395,7 @@
         <v>241</v>
       </c>
       <c r="I154">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
@@ -6421,7 +6421,7 @@
         <v>241</v>
       </c>
       <c r="I155">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
@@ -6447,7 +6447,7 @@
         <v>234</v>
       </c>
       <c r="I156">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
@@ -6473,7 +6473,7 @@
         <v>241</v>
       </c>
       <c r="I157">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
@@ -6499,7 +6499,7 @@
         <v>234</v>
       </c>
       <c r="I158">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
@@ -6525,7 +6525,7 @@
         <v>241</v>
       </c>
       <c r="I159">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
@@ -6551,7 +6551,7 @@
         <v>240</v>
       </c>
       <c r="I160">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
@@ -6577,7 +6577,7 @@
         <v>241</v>
       </c>
       <c r="I161">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
@@ -6603,7 +6603,7 @@
         <v>234</v>
       </c>
       <c r="I162">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
@@ -6629,7 +6629,7 @@
         <v>249</v>
       </c>
       <c r="I163">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
@@ -6655,7 +6655,7 @@
         <v>243</v>
       </c>
       <c r="I164">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
@@ -6681,7 +6681,7 @@
         <v>239</v>
       </c>
       <c r="I165">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
@@ -6707,7 +6707,7 @@
         <v>243</v>
       </c>
       <c r="I166">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
@@ -6733,7 +6733,7 @@
         <v>241</v>
       </c>
       <c r="I167">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
@@ -6759,7 +6759,7 @@
         <v>250</v>
       </c>
       <c r="I168">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
@@ -6785,7 +6785,7 @@
         <v>243</v>
       </c>
       <c r="I169">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
@@ -6811,7 +6811,7 @@
         <v>234</v>
       </c>
       <c r="I170">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
@@ -6837,7 +6837,7 @@
         <v>243</v>
       </c>
       <c r="I171">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
@@ -6863,7 +6863,7 @@
         <v>241</v>
       </c>
       <c r="I172">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
@@ -6889,7 +6889,7 @@
         <v>234</v>
       </c>
       <c r="I173">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
@@ -6915,7 +6915,7 @@
         <v>234</v>
       </c>
       <c r="I174">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
@@ -6941,7 +6941,7 @@
         <v>261</v>
       </c>
       <c r="I175">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
@@ -6967,7 +6967,7 @@
         <v>623</v>
       </c>
       <c r="I176">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
@@ -6993,7 +6993,7 @@
         <v>241</v>
       </c>
       <c r="I177">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
@@ -7019,7 +7019,7 @@
         <v>243</v>
       </c>
       <c r="I178">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
@@ -7045,7 +7045,7 @@
         <v>234</v>
       </c>
       <c r="I179">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
@@ -7071,7 +7071,7 @@
         <v>249</v>
       </c>
       <c r="I180">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
@@ -7097,7 +7097,7 @@
         <v>243</v>
       </c>
       <c r="I181">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
@@ -7123,7 +7123,7 @@
         <v>234</v>
       </c>
       <c r="I182">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
@@ -7149,7 +7149,7 @@
         <v>234</v>
       </c>
       <c r="I183">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
@@ -7175,7 +7175,7 @@
         <v>243</v>
       </c>
       <c r="I184">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
@@ -7201,7 +7201,7 @@
         <v>234</v>
       </c>
       <c r="I185">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
@@ -7227,7 +7227,7 @@
         <v>243</v>
       </c>
       <c r="I186">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
@@ -7253,7 +7253,7 @@
         <v>241</v>
       </c>
       <c r="I187">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
@@ -7279,7 +7279,7 @@
         <v>241</v>
       </c>
       <c r="I188">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
@@ -7305,7 +7305,7 @@
         <v>234</v>
       </c>
       <c r="I189">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.25">
@@ -7331,7 +7331,7 @@
         <v>234</v>
       </c>
       <c r="I190">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.25">
@@ -7357,7 +7357,7 @@
         <v>239</v>
       </c>
       <c r="I191">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.25">
@@ -7383,7 +7383,7 @@
         <v>234</v>
       </c>
       <c r="I192">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.25">
@@ -7409,7 +7409,7 @@
         <v>241</v>
       </c>
       <c r="I193">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
@@ -7435,7 +7435,7 @@
         <v>234</v>
       </c>
       <c r="I194">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.25">
@@ -7461,7 +7461,7 @@
         <v>234</v>
       </c>
       <c r="I195">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
@@ -7487,7 +7487,7 @@
         <v>243</v>
       </c>
       <c r="I196">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.25">
@@ -7513,7 +7513,7 @@
         <v>241</v>
       </c>
       <c r="I197">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
@@ -7539,7 +7539,7 @@
         <v>243</v>
       </c>
       <c r="I198">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
@@ -7565,7 +7565,7 @@
         <v>249</v>
       </c>
       <c r="I199">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
@@ -7591,7 +7591,7 @@
         <v>234</v>
       </c>
       <c r="I200">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
@@ -7617,7 +7617,7 @@
         <v>257</v>
       </c>
       <c r="I201">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
@@ -7643,7 +7643,7 @@
         <v>234</v>
       </c>
       <c r="I202">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
@@ -7669,7 +7669,7 @@
         <v>268</v>
       </c>
       <c r="I203">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
@@ -7695,7 +7695,7 @@
         <v>268</v>
       </c>
       <c r="I204">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
@@ -7721,7 +7721,7 @@
         <v>234</v>
       </c>
       <c r="I205">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
@@ -7747,7 +7747,7 @@
         <v>241</v>
       </c>
       <c r="I206">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
@@ -7773,7 +7773,7 @@
         <v>234</v>
       </c>
       <c r="I207">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.25">
@@ -7799,7 +7799,7 @@
         <v>243</v>
       </c>
       <c r="I208">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.25">
@@ -7825,7 +7825,7 @@
         <v>234</v>
       </c>
       <c r="I209">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.25">
@@ -7851,7 +7851,7 @@
         <v>249</v>
       </c>
       <c r="I210">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
@@ -7877,7 +7877,7 @@
         <v>234</v>
       </c>
       <c r="I211">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
@@ -7903,7 +7903,7 @@
         <v>243</v>
       </c>
       <c r="I212">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.25">
@@ -7929,7 +7929,7 @@
         <v>234</v>
       </c>
       <c r="I213">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
@@ -7955,7 +7955,7 @@
         <v>234</v>
       </c>
       <c r="I214">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.25">
@@ -7981,7 +7981,7 @@
         <v>241</v>
       </c>
       <c r="I215">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
@@ -8007,7 +8007,7 @@
         <v>243</v>
       </c>
       <c r="I216">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
@@ -8033,7 +8033,7 @@
         <v>243</v>
       </c>
       <c r="I217">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.25">
@@ -8059,7 +8059,7 @@
         <v>234</v>
       </c>
       <c r="I218">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
@@ -8085,7 +8085,7 @@
         <v>234</v>
       </c>
       <c r="I219">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
@@ -8111,7 +8111,7 @@
         <v>243</v>
       </c>
       <c r="I220">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.25">
@@ -8137,7 +8137,7 @@
         <v>243</v>
       </c>
       <c r="I221">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.25">
@@ -8163,7 +8163,7 @@
         <v>243</v>
       </c>
       <c r="I222">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.25">
@@ -8189,7 +8189,7 @@
         <v>234</v>
       </c>
       <c r="I223">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.25">
@@ -8215,7 +8215,7 @@
         <v>234</v>
       </c>
       <c r="I224">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.25">
@@ -8241,7 +8241,7 @@
         <v>243</v>
       </c>
       <c r="I225">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.25">
@@ -8267,7 +8267,7 @@
         <v>243</v>
       </c>
       <c r="I226">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.25">
@@ -8293,7 +8293,7 @@
         <v>234</v>
       </c>
       <c r="I227">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.25">
@@ -8319,7 +8319,7 @@
         <v>234</v>
       </c>
       <c r="I228">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
@@ -8345,7 +8345,7 @@
         <v>234</v>
       </c>
       <c r="I229">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.25">
@@ -8371,7 +8371,7 @@
         <v>234</v>
       </c>
       <c r="I230">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.25">
@@ -8397,7 +8397,7 @@
         <v>241</v>
       </c>
       <c r="I231">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.25">
@@ -8423,7 +8423,7 @@
         <v>241</v>
       </c>
       <c r="I232">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.25">
@@ -8449,7 +8449,7 @@
         <v>237</v>
       </c>
       <c r="I233">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.25">
@@ -8475,7 +8475,7 @@
         <v>234</v>
       </c>
       <c r="I234">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.25">
@@ -8501,7 +8501,7 @@
         <v>238</v>
       </c>
       <c r="I235">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.25">
@@ -8527,7 +8527,7 @@
         <v>238</v>
       </c>
       <c r="I236">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.25">
@@ -8553,7 +8553,7 @@
         <v>238</v>
       </c>
       <c r="I237">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.25">
@@ -8579,7 +8579,7 @@
         <v>234</v>
       </c>
       <c r="I238">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.25">
@@ -8605,7 +8605,7 @@
         <v>249</v>
       </c>
       <c r="I239">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.25">
@@ -8631,7 +8631,7 @@
         <v>234</v>
       </c>
       <c r="I240">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.25">
@@ -8657,7 +8657,7 @@
         <v>243</v>
       </c>
       <c r="I241">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.25">
@@ -8683,7 +8683,7 @@
         <v>234</v>
       </c>
       <c r="I242">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.25">
@@ -8709,7 +8709,7 @@
         <v>234</v>
       </c>
       <c r="I243">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.25">
@@ -8735,7 +8735,7 @@
         <v>243</v>
       </c>
       <c r="I244">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.25">
@@ -8761,7 +8761,7 @@
         <v>241</v>
       </c>
       <c r="I245">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.25">
@@ -8787,7 +8787,7 @@
         <v>243</v>
       </c>
       <c r="I246">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.25">
@@ -8813,7 +8813,7 @@
         <v>254</v>
       </c>
       <c r="I247">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.25">
@@ -8839,7 +8839,7 @@
         <v>243</v>
       </c>
       <c r="I248">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.25">
@@ -8865,7 +8865,7 @@
         <v>241</v>
       </c>
       <c r="I249">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.25">
@@ -8891,7 +8891,7 @@
         <v>243</v>
       </c>
       <c r="I250">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.25">
@@ -8917,7 +8917,7 @@
         <v>241</v>
       </c>
       <c r="I251">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.25">
@@ -8943,7 +8943,7 @@
         <v>243</v>
       </c>
       <c r="I252">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.25">
@@ -8969,7 +8969,7 @@
         <v>241</v>
       </c>
       <c r="I253">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.25">
@@ -8995,7 +8995,7 @@
         <v>241</v>
       </c>
       <c r="I254">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.25">
@@ -9021,7 +9021,7 @@
         <v>243</v>
       </c>
       <c r="I255">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.25">
@@ -9047,7 +9047,7 @@
         <v>249</v>
       </c>
       <c r="I256">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.25">
@@ -9073,7 +9073,7 @@
         <v>243</v>
       </c>
       <c r="I257">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.25">
@@ -9099,7 +9099,7 @@
         <v>239</v>
       </c>
       <c r="I258">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.25">
@@ -9125,7 +9125,7 @@
         <v>240</v>
       </c>
       <c r="I259">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.25">
@@ -9151,7 +9151,7 @@
         <v>239</v>
       </c>
       <c r="I260">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.25">
@@ -9177,7 +9177,7 @@
         <v>239</v>
       </c>
       <c r="I261">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.25">
@@ -9203,7 +9203,7 @@
         <v>234</v>
       </c>
       <c r="I262">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.25">
@@ -9229,7 +9229,7 @@
         <v>264</v>
       </c>
       <c r="I263">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.25">
@@ -9255,7 +9255,7 @@
         <v>264</v>
       </c>
       <c r="I264">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.25">
@@ -9281,7 +9281,7 @@
         <v>234</v>
       </c>
       <c r="I265">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.25">
@@ -9307,7 +9307,7 @@
         <v>243</v>
       </c>
       <c r="I266">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.25">
@@ -9333,7 +9333,7 @@
         <v>248</v>
       </c>
       <c r="I267">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.25">
@@ -9359,7 +9359,7 @@
         <v>247</v>
       </c>
       <c r="I268">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.25">
@@ -9385,7 +9385,7 @@
         <v>247</v>
       </c>
       <c r="I269">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.25">
@@ -9411,7 +9411,7 @@
         <v>247</v>
       </c>
       <c r="I270">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.25">
@@ -9437,7 +9437,7 @@
         <v>247</v>
       </c>
       <c r="I271">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.25">
@@ -9463,7 +9463,7 @@
         <v>247</v>
       </c>
       <c r="I272">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.25">
@@ -9489,7 +9489,7 @@
         <v>247</v>
       </c>
       <c r="I273">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.25">
@@ -9515,7 +9515,7 @@
         <v>248</v>
       </c>
       <c r="I274">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.25">
@@ -9541,7 +9541,7 @@
         <v>248</v>
       </c>
       <c r="I275">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.25">
@@ -9567,7 +9567,7 @@
         <v>239</v>
       </c>
       <c r="I276">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.25">
@@ -9593,7 +9593,7 @@
         <v>234</v>
       </c>
       <c r="I277">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.25">
@@ -9619,7 +9619,7 @@
         <v>234</v>
       </c>
       <c r="I278">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.25">
@@ -9645,7 +9645,7 @@
         <v>239</v>
       </c>
       <c r="I279">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.25">
@@ -9671,7 +9671,7 @@
         <v>239</v>
       </c>
       <c r="I280">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.25">
@@ -9697,7 +9697,7 @@
         <v>243</v>
       </c>
       <c r="I281">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.25">
@@ -9723,7 +9723,7 @@
         <v>255</v>
       </c>
       <c r="I282">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.25">
@@ -9749,7 +9749,7 @@
         <v>255</v>
       </c>
       <c r="I283">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.25">
@@ -9775,7 +9775,7 @@
         <v>255</v>
       </c>
       <c r="I284">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.25">
@@ -9801,7 +9801,7 @@
         <v>255</v>
       </c>
       <c r="I285">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.25">
@@ -9827,7 +9827,7 @@
         <v>243</v>
       </c>
       <c r="I286">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.25">
@@ -9853,7 +9853,7 @@
         <v>243</v>
       </c>
       <c r="I287">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.25">
@@ -9879,7 +9879,7 @@
         <v>243</v>
       </c>
       <c r="I288">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.25">
@@ -9905,7 +9905,7 @@
         <v>243</v>
       </c>
       <c r="I289">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.25">
@@ -9931,7 +9931,7 @@
         <v>245</v>
       </c>
       <c r="I290">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.25">
@@ -9957,7 +9957,7 @@
         <v>245</v>
       </c>
       <c r="I291">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.25">
@@ -9983,7 +9983,7 @@
         <v>245</v>
       </c>
       <c r="I292">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.25">
@@ -10009,7 +10009,7 @@
         <v>255</v>
       </c>
       <c r="I293">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.25">
@@ -10035,7 +10035,7 @@
         <v>255</v>
       </c>
       <c r="I294">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.25">
@@ -10061,7 +10061,7 @@
         <v>241</v>
       </c>
       <c r="I295">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.25">
@@ -10087,7 +10087,7 @@
         <v>241</v>
       </c>
       <c r="I296">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.25">
@@ -10113,7 +10113,7 @@
         <v>234</v>
       </c>
       <c r="I297">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.25">
@@ -10139,7 +10139,7 @@
         <v>234</v>
       </c>
       <c r="I298">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.25">
@@ -10165,7 +10165,7 @@
         <v>234</v>
       </c>
       <c r="I299">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.25">
@@ -10191,7 +10191,7 @@
         <v>234</v>
       </c>
       <c r="I300">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.25">
@@ -10217,7 +10217,7 @@
         <v>249</v>
       </c>
       <c r="I301">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.25">
@@ -10243,7 +10243,7 @@
         <v>243</v>
       </c>
       <c r="I302">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.25">
@@ -10269,7 +10269,7 @@
         <v>234</v>
       </c>
       <c r="I303">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.25">
@@ -10295,7 +10295,7 @@
         <v>243</v>
       </c>
       <c r="I304">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.25">
@@ -10321,7 +10321,7 @@
         <v>240</v>
       </c>
       <c r="I305">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.25">
@@ -10347,7 +10347,7 @@
         <v>234</v>
       </c>
       <c r="I306">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.25">
@@ -10373,7 +10373,7 @@
         <v>255</v>
       </c>
       <c r="I307">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.25">
@@ -10399,7 +10399,7 @@
         <v>255</v>
       </c>
       <c r="I308">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.25">
@@ -10425,7 +10425,7 @@
         <v>293</v>
       </c>
       <c r="I309">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.25">
@@ -10451,7 +10451,7 @@
         <v>293</v>
       </c>
       <c r="I310">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.25">
@@ -10477,7 +10477,7 @@
         <v>293</v>
       </c>
       <c r="I311">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.25">
@@ -10503,7 +10503,7 @@
         <v>293</v>
       </c>
       <c r="I312">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.25">
@@ -10529,7 +10529,7 @@
         <v>240</v>
       </c>
       <c r="I313">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.25">
@@ -10555,7 +10555,7 @@
         <v>243</v>
       </c>
       <c r="I314">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.25">
@@ -10581,7 +10581,7 @@
         <v>243</v>
       </c>
       <c r="I315">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.25">
@@ -10607,7 +10607,7 @@
         <v>300</v>
       </c>
       <c r="I316">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.25">
@@ -10633,7 +10633,7 @@
         <v>241</v>
       </c>
       <c r="I317">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.25">
@@ -10659,7 +10659,7 @@
         <v>252</v>
       </c>
       <c r="I318">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.25">
@@ -10685,7 +10685,7 @@
         <v>243</v>
       </c>
       <c r="I319">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.25">
@@ -10711,7 +10711,7 @@
         <v>241</v>
       </c>
       <c r="I320">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.25">
@@ -10737,7 +10737,7 @@
         <v>239</v>
       </c>
       <c r="I321">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.25">
@@ -10763,7 +10763,7 @@
         <v>234</v>
       </c>
       <c r="I322">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.25">
@@ -10789,7 +10789,7 @@
         <v>239</v>
       </c>
       <c r="I323">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.25">
@@ -10815,7 +10815,7 @@
         <v>234</v>
       </c>
       <c r="I324">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.25">
@@ -10841,7 +10841,7 @@
         <v>252</v>
       </c>
       <c r="I325">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.25">
@@ -10867,7 +10867,7 @@
         <v>243</v>
       </c>
       <c r="I326">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.25">
@@ -10893,7 +10893,7 @@
         <v>243</v>
       </c>
       <c r="I327">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.25">
@@ -10919,7 +10919,7 @@
         <v>264</v>
       </c>
       <c r="I328">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.25">
@@ -10945,7 +10945,7 @@
         <v>252</v>
       </c>
       <c r="I329">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.25">
@@ -10971,7 +10971,7 @@
         <v>252</v>
       </c>
       <c r="I330">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.25">
@@ -10997,7 +10997,7 @@
         <v>243</v>
       </c>
       <c r="I331">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.25">
@@ -11023,7 +11023,7 @@
         <v>243</v>
       </c>
       <c r="I332">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.25">
@@ -11049,7 +11049,7 @@
         <v>243</v>
       </c>
       <c r="I333">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.25">
@@ -11075,7 +11075,7 @@
         <v>243</v>
       </c>
       <c r="I334">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.25">
@@ -11101,7 +11101,7 @@
         <v>234</v>
       </c>
       <c r="I335">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.25">
@@ -11127,7 +11127,7 @@
         <v>253</v>
       </c>
       <c r="I336">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.25">
@@ -11153,7 +11153,7 @@
         <v>253</v>
       </c>
       <c r="I337">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.25">
@@ -11179,7 +11179,7 @@
         <v>253</v>
       </c>
       <c r="I338">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.25">
@@ -11205,7 +11205,7 @@
         <v>253</v>
       </c>
       <c r="I339">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.25">
@@ -11231,7 +11231,7 @@
         <v>234</v>
       </c>
       <c r="I340">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.25">
@@ -11257,7 +11257,7 @@
         <v>243</v>
       </c>
       <c r="I341">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.25">
@@ -11283,7 +11283,7 @@
         <v>243</v>
       </c>
       <c r="I342">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.25">
@@ -11309,7 +11309,7 @@
         <v>243</v>
       </c>
       <c r="I343">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.25">
@@ -11335,7 +11335,7 @@
         <v>243</v>
       </c>
       <c r="I344">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="345" spans="1:9" x14ac:dyDescent="0.25">
@@ -11361,7 +11361,7 @@
         <v>243</v>
       </c>
       <c r="I345">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.25">
@@ -11387,7 +11387,7 @@
         <v>243</v>
       </c>
       <c r="I346">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.25">
@@ -11413,7 +11413,7 @@
         <v>234</v>
       </c>
       <c r="I347">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="348" spans="1:9" x14ac:dyDescent="0.25">
@@ -11439,7 +11439,7 @@
         <v>234</v>
       </c>
       <c r="I348">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="349" spans="1:9" x14ac:dyDescent="0.25">
@@ -11465,7 +11465,7 @@
         <v>234</v>
       </c>
       <c r="I349">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="350" spans="1:9" x14ac:dyDescent="0.25">
@@ -11491,7 +11491,7 @@
         <v>243</v>
       </c>
       <c r="I350">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="351" spans="1:9" x14ac:dyDescent="0.25">
@@ -11517,7 +11517,7 @@
         <v>234</v>
       </c>
       <c r="I351">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="352" spans="1:9" x14ac:dyDescent="0.25">
@@ -11543,7 +11543,7 @@
         <v>234</v>
       </c>
       <c r="I352">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="353" spans="1:12" x14ac:dyDescent="0.25">
@@ -11569,7 +11569,7 @@
         <v>234</v>
       </c>
       <c r="I353">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="354" spans="1:12" x14ac:dyDescent="0.25">
@@ -11595,7 +11595,7 @@
         <v>252</v>
       </c>
       <c r="I354">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="355" spans="1:12" x14ac:dyDescent="0.25">
@@ -11621,7 +11621,7 @@
         <v>252</v>
       </c>
       <c r="I355">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="356" spans="1:12" x14ac:dyDescent="0.25">
@@ -11647,7 +11647,7 @@
         <v>243</v>
       </c>
       <c r="I356">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="357" spans="1:12" x14ac:dyDescent="0.25">
@@ -11673,7 +11673,7 @@
         <v>243</v>
       </c>
       <c r="I357">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="358" spans="1:12" x14ac:dyDescent="0.25">
@@ -11699,7 +11699,7 @@
         <v>243</v>
       </c>
       <c r="I358">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="359" spans="1:12" x14ac:dyDescent="0.25">
@@ -11725,7 +11725,7 @@
         <v>249</v>
       </c>
       <c r="I359">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="360" spans="1:12" x14ac:dyDescent="0.25">
@@ -11751,7 +11751,7 @@
         <v>249</v>
       </c>
       <c r="I360">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="361" spans="1:12" x14ac:dyDescent="0.25">
@@ -11777,7 +11777,7 @@
         <v>300</v>
       </c>
       <c r="I361">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="362" spans="1:12" x14ac:dyDescent="0.25">
@@ -11803,7 +11803,7 @@
         <v>234</v>
       </c>
       <c r="I362">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="363" spans="1:12" x14ac:dyDescent="0.25">
@@ -11830,7 +11830,7 @@
         <v>234</v>
       </c>
       <c r="I363">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="364" spans="1:12" x14ac:dyDescent="0.25">
@@ -11856,7 +11856,7 @@
         <v>234</v>
       </c>
       <c r="I364">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J364" s="1"/>
       <c r="K364" s="1"/>
@@ -11885,7 +11885,7 @@
         <v>234</v>
       </c>
       <c r="I365">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="366" spans="1:12" x14ac:dyDescent="0.25">
@@ -11911,7 +11911,7 @@
         <v>394</v>
       </c>
       <c r="I366">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="367" spans="1:12" x14ac:dyDescent="0.25">
@@ -11937,7 +11937,7 @@
         <v>394</v>
       </c>
       <c r="I367">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="368" spans="1:12" x14ac:dyDescent="0.25">
@@ -11963,7 +11963,7 @@
         <v>254</v>
       </c>
       <c r="I368">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="369" spans="1:9" x14ac:dyDescent="0.25">
@@ -11989,7 +11989,7 @@
         <v>254</v>
       </c>
       <c r="I369">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="370" spans="1:9" x14ac:dyDescent="0.25">
@@ -12015,7 +12015,7 @@
         <v>254</v>
       </c>
       <c r="I370">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="371" spans="1:9" x14ac:dyDescent="0.25">
@@ -12041,7 +12041,7 @@
         <v>254</v>
       </c>
       <c r="I371">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="372" spans="1:9" x14ac:dyDescent="0.25">
@@ -12067,7 +12067,7 @@
         <v>254</v>
       </c>
       <c r="I372">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="373" spans="1:9" x14ac:dyDescent="0.25">
@@ -12093,7 +12093,7 @@
         <v>254</v>
       </c>
       <c r="I373">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="374" spans="1:9" x14ac:dyDescent="0.25">
@@ -12119,7 +12119,7 @@
         <v>254</v>
       </c>
       <c r="I374">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="375" spans="1:9" x14ac:dyDescent="0.25">
@@ -12145,7 +12145,7 @@
         <v>254</v>
       </c>
       <c r="I375">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="376" spans="1:9" x14ac:dyDescent="0.25">
@@ -12171,7 +12171,7 @@
         <v>254</v>
       </c>
       <c r="I376">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="377" spans="1:9" x14ac:dyDescent="0.25">
@@ -12197,7 +12197,7 @@
         <v>254</v>
       </c>
       <c r="I377">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="378" spans="1:9" x14ac:dyDescent="0.25">
@@ -12223,7 +12223,7 @@
         <v>254</v>
       </c>
       <c r="I378">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="379" spans="1:9" x14ac:dyDescent="0.25">
@@ -12249,7 +12249,7 @@
         <v>254</v>
       </c>
       <c r="I379">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="380" spans="1:9" x14ac:dyDescent="0.25">
@@ -12275,7 +12275,7 @@
         <v>254</v>
       </c>
       <c r="I380">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="381" spans="1:9" x14ac:dyDescent="0.25">
@@ -12301,7 +12301,7 @@
         <v>254</v>
       </c>
       <c r="I381">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="382" spans="1:9" x14ac:dyDescent="0.25">
@@ -12327,7 +12327,7 @@
         <v>254</v>
       </c>
       <c r="I382">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="383" spans="1:9" x14ac:dyDescent="0.25">
@@ -12353,7 +12353,7 @@
         <v>254</v>
       </c>
       <c r="I383">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="384" spans="1:9" x14ac:dyDescent="0.25">
@@ -12379,7 +12379,7 @@
         <v>254</v>
       </c>
       <c r="I384">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="385" spans="1:9" x14ac:dyDescent="0.25">
@@ -12405,7 +12405,7 @@
         <v>254</v>
       </c>
       <c r="I385">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="386" spans="1:9" x14ac:dyDescent="0.25">
@@ -12431,7 +12431,7 @@
         <v>254</v>
       </c>
       <c r="I386">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="387" spans="1:9" x14ac:dyDescent="0.25">
@@ -12457,7 +12457,7 @@
         <v>254</v>
       </c>
       <c r="I387">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="388" spans="1:9" x14ac:dyDescent="0.25">
@@ -12483,7 +12483,7 @@
         <v>254</v>
       </c>
       <c r="I388">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="389" spans="1:9" x14ac:dyDescent="0.25">
@@ -12509,7 +12509,7 @@
         <v>254</v>
       </c>
       <c r="I389">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="390" spans="1:9" x14ac:dyDescent="0.25">
@@ -12535,7 +12535,7 @@
         <v>254</v>
       </c>
       <c r="I390">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="391" spans="1:9" x14ac:dyDescent="0.25">
@@ -12561,7 +12561,7 @@
         <v>254</v>
       </c>
       <c r="I391">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="392" spans="1:9" x14ac:dyDescent="0.25">
@@ -12587,7 +12587,7 @@
         <v>254</v>
       </c>
       <c r="I392">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="393" spans="1:9" x14ac:dyDescent="0.25">
@@ -12613,7 +12613,7 @@
         <v>234</v>
       </c>
       <c r="I393">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="394" spans="1:9" x14ac:dyDescent="0.25">
@@ -12639,7 +12639,7 @@
         <v>252</v>
       </c>
       <c r="I394">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="395" spans="1:9" x14ac:dyDescent="0.25">
@@ -12665,7 +12665,7 @@
         <v>387</v>
       </c>
       <c r="I395">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="396" spans="1:9" x14ac:dyDescent="0.25">
@@ -12691,7 +12691,7 @@
         <v>387</v>
       </c>
       <c r="I396">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="397" spans="1:9" x14ac:dyDescent="0.25">
@@ -12717,7 +12717,7 @@
         <v>243</v>
       </c>
       <c r="I397">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="398" spans="1:9" x14ac:dyDescent="0.25">
@@ -12743,7 +12743,7 @@
         <v>264</v>
       </c>
       <c r="I398">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="399" spans="1:9" x14ac:dyDescent="0.25">
@@ -12769,7 +12769,7 @@
         <v>243</v>
       </c>
       <c r="I399">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="400" spans="1:9" x14ac:dyDescent="0.25">
@@ -12795,7 +12795,7 @@
         <v>243</v>
       </c>
       <c r="I400">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="401" spans="1:9" x14ac:dyDescent="0.25">
@@ -12821,7 +12821,7 @@
         <v>396</v>
       </c>
       <c r="I401">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="402" spans="1:9" x14ac:dyDescent="0.25">
@@ -12847,7 +12847,7 @@
         <v>396</v>
       </c>
       <c r="I402">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="403" spans="1:9" x14ac:dyDescent="0.25">
@@ -12873,7 +12873,7 @@
         <v>234</v>
       </c>
       <c r="I403">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="404" spans="1:9" x14ac:dyDescent="0.25">
@@ -12899,7 +12899,7 @@
         <v>239</v>
       </c>
       <c r="I404">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="405" spans="1:9" x14ac:dyDescent="0.25">
@@ -12925,7 +12925,7 @@
         <v>234</v>
       </c>
       <c r="I405">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="406" spans="1:9" x14ac:dyDescent="0.25">
@@ -12951,7 +12951,7 @@
         <v>243</v>
       </c>
       <c r="I406">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="407" spans="1:9" x14ac:dyDescent="0.25">
@@ -12977,7 +12977,7 @@
         <v>243</v>
       </c>
       <c r="I407">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="408" spans="1:9" x14ac:dyDescent="0.25">
@@ -13003,7 +13003,7 @@
         <v>255</v>
       </c>
       <c r="I408">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="409" spans="1:9" x14ac:dyDescent="0.25">
@@ -13029,7 +13029,7 @@
         <v>252</v>
       </c>
       <c r="I409">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="410" spans="1:9" x14ac:dyDescent="0.25">
@@ -13055,7 +13055,7 @@
         <v>243</v>
       </c>
       <c r="I410">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="411" spans="1:9" x14ac:dyDescent="0.25">
@@ -13081,7 +13081,7 @@
         <v>241</v>
       </c>
       <c r="I411">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="412" spans="1:9" x14ac:dyDescent="0.25">
@@ -13107,7 +13107,7 @@
         <v>234</v>
       </c>
       <c r="I412">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="413" spans="1:9" x14ac:dyDescent="0.25">
@@ -13133,7 +13133,7 @@
         <v>252</v>
       </c>
       <c r="I413">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="414" spans="1:9" x14ac:dyDescent="0.25">
@@ -13159,7 +13159,7 @@
         <v>243</v>
       </c>
       <c r="I414">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="415" spans="1:9" x14ac:dyDescent="0.25">
@@ -13185,7 +13185,7 @@
         <v>243</v>
       </c>
       <c r="I415">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="416" spans="1:9" x14ac:dyDescent="0.25">
@@ -13211,7 +13211,7 @@
         <v>252</v>
       </c>
       <c r="I416">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="417" spans="1:9" x14ac:dyDescent="0.25">
@@ -13237,7 +13237,7 @@
         <v>243</v>
       </c>
       <c r="I417">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="418" spans="1:9" x14ac:dyDescent="0.25">
@@ -13263,7 +13263,7 @@
         <v>243</v>
       </c>
       <c r="I418">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="419" spans="1:9" x14ac:dyDescent="0.25">
@@ -13289,7 +13289,7 @@
         <v>234</v>
       </c>
       <c r="I419">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="420" spans="1:9" x14ac:dyDescent="0.25">
@@ -13315,7 +13315,7 @@
         <v>234</v>
       </c>
       <c r="I420">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="421" spans="1:9" x14ac:dyDescent="0.25">
@@ -13341,7 +13341,7 @@
         <v>234</v>
       </c>
       <c r="I421">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="422" spans="1:9" x14ac:dyDescent="0.25">
@@ -13367,7 +13367,7 @@
         <v>234</v>
       </c>
       <c r="I422">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="423" spans="1:9" x14ac:dyDescent="0.25">
@@ -13393,7 +13393,7 @@
         <v>243</v>
       </c>
       <c r="I423">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="424" spans="1:9" x14ac:dyDescent="0.25">
@@ -13419,7 +13419,7 @@
         <v>417</v>
       </c>
       <c r="I424">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="425" spans="1:9" x14ac:dyDescent="0.25">
@@ -13446,7 +13446,7 @@
         <v>417</v>
       </c>
       <c r="I425">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="426" spans="1:9" x14ac:dyDescent="0.25">
@@ -13472,7 +13472,7 @@
         <v>417</v>
       </c>
       <c r="I426">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="427" spans="1:9" x14ac:dyDescent="0.25">
@@ -13498,7 +13498,7 @@
         <v>238</v>
       </c>
       <c r="I427">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="428" spans="1:9" x14ac:dyDescent="0.25">
@@ -13524,7 +13524,7 @@
         <v>264</v>
       </c>
       <c r="I428">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="429" spans="1:9" x14ac:dyDescent="0.25">
@@ -13550,7 +13550,7 @@
         <v>234</v>
       </c>
       <c r="I429">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="430" spans="1:9" x14ac:dyDescent="0.25">
@@ -13576,7 +13576,7 @@
         <v>252</v>
       </c>
       <c r="I430">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="431" spans="1:9" x14ac:dyDescent="0.25">
@@ -13602,7 +13602,7 @@
         <v>234</v>
       </c>
       <c r="I431">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="432" spans="1:9" x14ac:dyDescent="0.25">
@@ -13628,7 +13628,7 @@
         <v>243</v>
       </c>
       <c r="I432">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="433" spans="1:9" x14ac:dyDescent="0.25">
@@ -13654,7 +13654,7 @@
         <v>243</v>
       </c>
       <c r="I433">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="434" spans="1:9" x14ac:dyDescent="0.25">
@@ -13680,7 +13680,7 @@
         <v>255</v>
       </c>
       <c r="I434">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="435" spans="1:9" x14ac:dyDescent="0.25">
@@ -13706,7 +13706,7 @@
         <v>234</v>
       </c>
       <c r="I435">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="436" spans="1:9" x14ac:dyDescent="0.25">
@@ -13732,7 +13732,7 @@
         <v>234</v>
       </c>
       <c r="I436">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="437" spans="1:9" x14ac:dyDescent="0.25">
@@ -13759,7 +13759,7 @@
         <v>234</v>
       </c>
       <c r="I437">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="438" spans="1:9" x14ac:dyDescent="0.25">
@@ -13786,7 +13786,7 @@
         <v>234</v>
       </c>
       <c r="I438">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="439" spans="1:9" x14ac:dyDescent="0.25">
@@ -13812,7 +13812,7 @@
         <v>243</v>
       </c>
       <c r="I439">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="440" spans="1:9" x14ac:dyDescent="0.25">
@@ -13838,7 +13838,7 @@
         <v>243</v>
       </c>
       <c r="I440">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="441" spans="1:9" x14ac:dyDescent="0.25">
@@ -13864,7 +13864,7 @@
         <v>234</v>
       </c>
       <c r="I441">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="442" spans="1:9" x14ac:dyDescent="0.25">
@@ -13890,7 +13890,7 @@
         <v>240</v>
       </c>
       <c r="I442">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="443" spans="1:9" x14ac:dyDescent="0.25">
@@ -13916,7 +13916,7 @@
         <v>234</v>
       </c>
       <c r="I443">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="444" spans="1:9" x14ac:dyDescent="0.25">
@@ -13942,7 +13942,7 @@
         <v>234</v>
       </c>
       <c r="I444">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="445" spans="1:9" x14ac:dyDescent="0.25">
@@ -13968,7 +13968,7 @@
         <v>252</v>
       </c>
       <c r="I445">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="446" spans="1:9" x14ac:dyDescent="0.25">
@@ -13994,7 +13994,7 @@
         <v>243</v>
       </c>
       <c r="I446">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="447" spans="1:9" x14ac:dyDescent="0.25">
@@ -14020,7 +14020,7 @@
         <v>234</v>
       </c>
       <c r="I447">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="448" spans="1:9" x14ac:dyDescent="0.25">
@@ -14046,7 +14046,7 @@
         <v>243</v>
       </c>
       <c r="I448">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="449" spans="1:9" x14ac:dyDescent="0.25">
@@ -14072,7 +14072,7 @@
         <v>239</v>
       </c>
       <c r="I449">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="450" spans="1:9" x14ac:dyDescent="0.25">
@@ -14098,7 +14098,7 @@
         <v>239</v>
       </c>
       <c r="I450">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="451" spans="1:9" x14ac:dyDescent="0.25">
@@ -14124,7 +14124,7 @@
         <v>439</v>
       </c>
       <c r="I451">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="452" spans="1:9" x14ac:dyDescent="0.25">
@@ -14150,7 +14150,7 @@
         <v>234</v>
       </c>
       <c r="I452">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="453" spans="1:9" x14ac:dyDescent="0.25">
@@ -14176,7 +14176,7 @@
         <v>243</v>
       </c>
       <c r="I453">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="454" spans="1:9" x14ac:dyDescent="0.25">
@@ -14202,7 +14202,7 @@
         <v>234</v>
       </c>
       <c r="I454">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="455" spans="1:9" x14ac:dyDescent="0.25">
@@ -14228,7 +14228,7 @@
         <v>234</v>
       </c>
       <c r="I455">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="456" spans="1:9" x14ac:dyDescent="0.25">
@@ -14254,7 +14254,7 @@
         <v>445</v>
       </c>
       <c r="I456">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="457" spans="1:9" x14ac:dyDescent="0.25">
@@ -14280,7 +14280,7 @@
         <v>445</v>
       </c>
       <c r="I457">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="458" spans="1:9" x14ac:dyDescent="0.25">
@@ -14306,7 +14306,7 @@
         <v>234</v>
       </c>
       <c r="I458">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="459" spans="1:9" x14ac:dyDescent="0.25">
@@ -14332,7 +14332,7 @@
         <v>243</v>
       </c>
       <c r="I459">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="460" spans="1:9" x14ac:dyDescent="0.25">
@@ -14358,7 +14358,7 @@
         <v>243</v>
       </c>
       <c r="I460">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="461" spans="1:9" x14ac:dyDescent="0.25">
@@ -14384,7 +14384,7 @@
         <v>234</v>
       </c>
       <c r="I461">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="462" spans="1:9" x14ac:dyDescent="0.25">
@@ -14410,7 +14410,7 @@
         <v>243</v>
       </c>
       <c r="I462">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="463" spans="1:9" x14ac:dyDescent="0.25">
@@ -14436,7 +14436,7 @@
         <v>239</v>
       </c>
       <c r="I463">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="464" spans="1:9" x14ac:dyDescent="0.25">
@@ -14462,7 +14462,7 @@
         <v>239</v>
       </c>
       <c r="I464">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="465" spans="1:9" x14ac:dyDescent="0.25">
@@ -14488,7 +14488,7 @@
         <v>243</v>
       </c>
       <c r="I465">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="466" spans="1:9" x14ac:dyDescent="0.25">
@@ -14514,7 +14514,7 @@
         <v>243</v>
       </c>
       <c r="I466">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="467" spans="1:9" x14ac:dyDescent="0.25">
@@ -14540,7 +14540,7 @@
         <v>234</v>
       </c>
       <c r="I467">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="468" spans="1:9" x14ac:dyDescent="0.25">
@@ -14566,7 +14566,7 @@
         <v>234</v>
       </c>
       <c r="I468">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="469" spans="1:9" x14ac:dyDescent="0.25">
@@ -14592,7 +14592,7 @@
         <v>234</v>
       </c>
       <c r="I469">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="470" spans="1:9" x14ac:dyDescent="0.25">
@@ -14618,7 +14618,7 @@
         <v>234</v>
       </c>
       <c r="I470">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="471" spans="1:9" x14ac:dyDescent="0.25">
@@ -14644,7 +14644,7 @@
         <v>234</v>
       </c>
       <c r="I471">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="472" spans="1:9" x14ac:dyDescent="0.25">
@@ -14670,7 +14670,7 @@
         <v>243</v>
       </c>
       <c r="I472">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="473" spans="1:9" x14ac:dyDescent="0.25">
@@ -14696,7 +14696,7 @@
         <v>252</v>
       </c>
       <c r="I473">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="474" spans="1:9" x14ac:dyDescent="0.25">
@@ -14722,7 +14722,7 @@
         <v>241</v>
       </c>
       <c r="I474">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="475" spans="1:9" x14ac:dyDescent="0.25">
@@ -14748,7 +14748,7 @@
         <v>241</v>
       </c>
       <c r="I475">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="476" spans="1:9" x14ac:dyDescent="0.25">
@@ -14774,7 +14774,7 @@
         <v>243</v>
       </c>
       <c r="I476">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="477" spans="1:9" x14ac:dyDescent="0.25">
@@ -14800,7 +14800,7 @@
         <v>243</v>
       </c>
       <c r="I477">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="478" spans="1:9" x14ac:dyDescent="0.25">
@@ -14826,7 +14826,7 @@
         <v>243</v>
       </c>
       <c r="I478">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="479" spans="1:9" x14ac:dyDescent="0.25">
@@ -14852,7 +14852,7 @@
         <v>243</v>
       </c>
       <c r="I479">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="480" spans="1:9" x14ac:dyDescent="0.25">
@@ -14878,7 +14878,7 @@
         <v>241</v>
       </c>
       <c r="I480">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="481" spans="1:9" x14ac:dyDescent="0.25">
@@ -14904,7 +14904,7 @@
         <v>234</v>
       </c>
       <c r="I481">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="482" spans="1:9" x14ac:dyDescent="0.25">
@@ -14930,7 +14930,7 @@
         <v>466</v>
       </c>
       <c r="I482">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="483" spans="1:9" x14ac:dyDescent="0.25">
@@ -14956,7 +14956,7 @@
         <v>466</v>
       </c>
       <c r="I483">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="484" spans="1:9" x14ac:dyDescent="0.25">
@@ -14982,7 +14982,7 @@
         <v>466</v>
       </c>
       <c r="I484">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="485" spans="1:9" x14ac:dyDescent="0.25">
@@ -15008,7 +15008,7 @@
         <v>466</v>
       </c>
       <c r="I485">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="486" spans="1:9" x14ac:dyDescent="0.25">
@@ -15034,7 +15034,7 @@
         <v>466</v>
       </c>
       <c r="I486">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="487" spans="1:9" x14ac:dyDescent="0.25">
@@ -15060,7 +15060,7 @@
         <v>466</v>
       </c>
       <c r="I487">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="488" spans="1:9" x14ac:dyDescent="0.25">
@@ -15086,7 +15086,7 @@
         <v>466</v>
       </c>
       <c r="I488">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="489" spans="1:9" x14ac:dyDescent="0.25">
@@ -15112,7 +15112,7 @@
         <v>466</v>
       </c>
       <c r="I489">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="490" spans="1:9" x14ac:dyDescent="0.25">
@@ -15138,7 +15138,7 @@
         <v>234</v>
       </c>
       <c r="I490">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="491" spans="1:9" x14ac:dyDescent="0.25">
@@ -15164,7 +15164,7 @@
         <v>234</v>
       </c>
       <c r="I491">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="492" spans="1:9" x14ac:dyDescent="0.25">
@@ -15190,7 +15190,7 @@
         <v>241</v>
       </c>
       <c r="I492">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="493" spans="1:9" x14ac:dyDescent="0.25">
@@ -15216,7 +15216,7 @@
         <v>243</v>
       </c>
       <c r="I493">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="494" spans="1:9" x14ac:dyDescent="0.25">
@@ -15243,7 +15243,7 @@
         <v>234</v>
       </c>
       <c r="I494">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="495" spans="1:9" x14ac:dyDescent="0.25">
@@ -15269,7 +15269,7 @@
         <v>234</v>
       </c>
       <c r="I495">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="496" spans="1:9" x14ac:dyDescent="0.25">
@@ -15296,7 +15296,7 @@
         <v>243</v>
       </c>
       <c r="I496">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="497" spans="1:9" x14ac:dyDescent="0.25">
@@ -15322,7 +15322,7 @@
         <v>243</v>
       </c>
       <c r="I497">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="498" spans="1:9" x14ac:dyDescent="0.25">
@@ -15348,7 +15348,7 @@
         <v>243</v>
       </c>
       <c r="I498">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="499" spans="1:9" x14ac:dyDescent="0.25">
@@ -15374,7 +15374,7 @@
         <v>249</v>
       </c>
       <c r="I499">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="500" spans="1:9" x14ac:dyDescent="0.25">
@@ -15400,7 +15400,7 @@
         <v>249</v>
       </c>
       <c r="I500">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="501" spans="1:9" x14ac:dyDescent="0.25">
@@ -15426,7 +15426,7 @@
         <v>249</v>
       </c>
       <c r="I501">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="502" spans="1:9" x14ac:dyDescent="0.25">
@@ -15453,7 +15453,7 @@
         <v>249</v>
       </c>
       <c r="I502">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="503" spans="1:9" x14ac:dyDescent="0.25">
@@ -15479,7 +15479,7 @@
         <v>243</v>
       </c>
       <c r="I503">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="504" spans="1:9" x14ac:dyDescent="0.25">
@@ -15505,7 +15505,7 @@
         <v>234</v>
       </c>
       <c r="I504">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="505" spans="1:9" x14ac:dyDescent="0.25">
@@ -15532,7 +15532,7 @@
         <v>252</v>
       </c>
       <c r="I505">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="506" spans="1:9" x14ac:dyDescent="0.25">
@@ -15558,7 +15558,7 @@
         <v>267</v>
       </c>
       <c r="I506">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="507" spans="1:9" x14ac:dyDescent="0.25">
@@ -15584,7 +15584,7 @@
         <v>267</v>
       </c>
       <c r="I507">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="508" spans="1:9" x14ac:dyDescent="0.25">
@@ -15610,7 +15610,7 @@
         <v>268</v>
       </c>
       <c r="I508">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="509" spans="1:9" x14ac:dyDescent="0.25">
@@ -15636,7 +15636,7 @@
         <v>239</v>
       </c>
       <c r="I509">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="510" spans="1:9" x14ac:dyDescent="0.25">
@@ -15662,7 +15662,7 @@
         <v>234</v>
       </c>
       <c r="I510">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="511" spans="1:9" x14ac:dyDescent="0.25">
@@ -15689,7 +15689,7 @@
         <v>262</v>
       </c>
       <c r="I511">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="512" spans="1:9" x14ac:dyDescent="0.25">
@@ -15715,7 +15715,7 @@
         <v>243</v>
       </c>
       <c r="I512">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="513" spans="1:9" x14ac:dyDescent="0.25">
@@ -15741,7 +15741,7 @@
         <v>243</v>
       </c>
       <c r="I513">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="514" spans="1:9" x14ac:dyDescent="0.25">
@@ -15767,7 +15767,7 @@
         <v>243</v>
       </c>
       <c r="I514">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="515" spans="1:9" x14ac:dyDescent="0.25">
@@ -15793,7 +15793,7 @@
         <v>240</v>
       </c>
       <c r="I515">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="516" spans="1:9" x14ac:dyDescent="0.25">
@@ -15819,7 +15819,7 @@
         <v>234</v>
       </c>
       <c r="I516">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="517" spans="1:9" x14ac:dyDescent="0.25">
@@ -15845,7 +15845,7 @@
         <v>234</v>
       </c>
       <c r="I517">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="518" spans="1:9" x14ac:dyDescent="0.25">
@@ -15871,7 +15871,7 @@
         <v>243</v>
       </c>
       <c r="I518">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="519" spans="1:9" x14ac:dyDescent="0.25">
@@ -15897,7 +15897,7 @@
         <v>243</v>
       </c>
       <c r="I519">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="520" spans="1:9" x14ac:dyDescent="0.25">
@@ -15923,7 +15923,7 @@
         <v>239</v>
       </c>
       <c r="I520">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="521" spans="1:9" x14ac:dyDescent="0.25">
@@ -15949,7 +15949,7 @@
         <v>501</v>
       </c>
       <c r="I521">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="522" spans="1:9" x14ac:dyDescent="0.25">
@@ -15975,7 +15975,7 @@
         <v>234</v>
       </c>
       <c r="I522">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="523" spans="1:9" x14ac:dyDescent="0.25">
@@ -16001,7 +16001,7 @@
         <v>234</v>
       </c>
       <c r="I523">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="524" spans="1:9" x14ac:dyDescent="0.25">
@@ -16028,7 +16028,7 @@
         <v>243</v>
       </c>
       <c r="I524">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="525" spans="1:9" x14ac:dyDescent="0.25">
@@ -16054,7 +16054,7 @@
         <v>234</v>
       </c>
       <c r="I525">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="526" spans="1:9" x14ac:dyDescent="0.25">
@@ -16080,7 +16080,7 @@
         <v>243</v>
       </c>
       <c r="I526">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="527" spans="1:9" x14ac:dyDescent="0.25">
@@ -16106,7 +16106,7 @@
         <v>234</v>
       </c>
       <c r="I527">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="528" spans="1:9" x14ac:dyDescent="0.25">
@@ -16132,7 +16132,7 @@
         <v>243</v>
       </c>
       <c r="I528">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="529" spans="1:9" x14ac:dyDescent="0.25">
@@ -16158,7 +16158,7 @@
         <v>243</v>
       </c>
       <c r="I529">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="530" spans="1:9" x14ac:dyDescent="0.25">
@@ -16184,7 +16184,7 @@
         <v>439</v>
       </c>
       <c r="I530">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="531" spans="1:9" x14ac:dyDescent="0.25">
@@ -16210,7 +16210,7 @@
         <v>241</v>
       </c>
       <c r="I531">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="532" spans="1:9" x14ac:dyDescent="0.25">
@@ -16236,7 +16236,7 @@
         <v>241</v>
       </c>
       <c r="I532">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="533" spans="1:9" x14ac:dyDescent="0.25">
@@ -16262,7 +16262,7 @@
         <v>243</v>
       </c>
       <c r="I533">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="534" spans="1:9" x14ac:dyDescent="0.25">
@@ -16288,7 +16288,7 @@
         <v>243</v>
       </c>
       <c r="I534">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="535" spans="1:9" x14ac:dyDescent="0.25">
@@ -16314,7 +16314,7 @@
         <v>243</v>
       </c>
       <c r="I535">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="536" spans="1:9" x14ac:dyDescent="0.25">
@@ -16340,7 +16340,7 @@
         <v>243</v>
       </c>
       <c r="I536">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="537" spans="1:9" x14ac:dyDescent="0.25">
@@ -16366,7 +16366,7 @@
         <v>264</v>
       </c>
       <c r="I537">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="538" spans="1:9" x14ac:dyDescent="0.25">
@@ -16392,7 +16392,7 @@
         <v>234</v>
       </c>
       <c r="I538">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="539" spans="1:9" x14ac:dyDescent="0.25">
@@ -16418,7 +16418,7 @@
         <v>234</v>
       </c>
       <c r="I539">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="540" spans="1:9" x14ac:dyDescent="0.25">
@@ -16444,7 +16444,7 @@
         <v>234</v>
       </c>
       <c r="I540">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="541" spans="1:9" x14ac:dyDescent="0.25">
@@ -16470,7 +16470,7 @@
         <v>243</v>
       </c>
       <c r="I541">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="542" spans="1:9" x14ac:dyDescent="0.25">
@@ -16496,7 +16496,7 @@
         <v>243</v>
       </c>
       <c r="I542">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="543" spans="1:9" x14ac:dyDescent="0.25">
@@ -16523,7 +16523,7 @@
         <v>241</v>
       </c>
       <c r="I543">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="544" spans="1:9" x14ac:dyDescent="0.25">
@@ -16550,7 +16550,7 @@
         <v>234</v>
       </c>
       <c r="I544">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="545" spans="1:9" x14ac:dyDescent="0.25">
@@ -16577,7 +16577,7 @@
         <v>268</v>
       </c>
       <c r="I545">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="546" spans="1:9" x14ac:dyDescent="0.25">
@@ -16604,7 +16604,7 @@
         <v>268</v>
       </c>
       <c r="I546">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="547" spans="1:9" x14ac:dyDescent="0.25">
@@ -16630,7 +16630,7 @@
         <v>234</v>
       </c>
       <c r="I547">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="548" spans="1:9" x14ac:dyDescent="0.25">
@@ -16656,7 +16656,7 @@
         <v>234</v>
       </c>
       <c r="I548">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="549" spans="1:9" x14ac:dyDescent="0.25">
@@ -16682,7 +16682,7 @@
         <v>243</v>
       </c>
       <c r="I549">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="550" spans="1:9" x14ac:dyDescent="0.25">
@@ -16708,7 +16708,7 @@
         <v>234</v>
       </c>
       <c r="I550">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="551" spans="1:9" x14ac:dyDescent="0.25">
@@ -16734,7 +16734,7 @@
         <v>252</v>
       </c>
       <c r="I551">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="552" spans="1:9" x14ac:dyDescent="0.25">
@@ -16760,7 +16760,7 @@
         <v>243</v>
       </c>
       <c r="I552">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="553" spans="1:9" x14ac:dyDescent="0.25">
@@ -16786,7 +16786,7 @@
         <v>243</v>
       </c>
       <c r="I553">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="554" spans="1:9" x14ac:dyDescent="0.25">
@@ -16812,7 +16812,7 @@
         <v>234</v>
       </c>
       <c r="I554">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="555" spans="1:9" x14ac:dyDescent="0.25">
@@ -16838,7 +16838,7 @@
         <v>243</v>
       </c>
       <c r="I555">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="556" spans="1:9" x14ac:dyDescent="0.25">
@@ -16864,7 +16864,7 @@
         <v>234</v>
       </c>
       <c r="I556">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="557" spans="1:9" x14ac:dyDescent="0.25">
@@ -16890,7 +16890,7 @@
         <v>252</v>
       </c>
       <c r="I557">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="558" spans="1:9" x14ac:dyDescent="0.25">
@@ -16916,7 +16916,7 @@
         <v>243</v>
       </c>
       <c r="I558">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="559" spans="1:9" x14ac:dyDescent="0.25">
@@ -16942,7 +16942,7 @@
         <v>243</v>
       </c>
       <c r="I559">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="560" spans="1:9" x14ac:dyDescent="0.25">
@@ -16968,7 +16968,7 @@
         <v>243</v>
       </c>
       <c r="I560">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="561" spans="1:9" x14ac:dyDescent="0.25">
@@ -16994,7 +16994,7 @@
         <v>243</v>
       </c>
       <c r="I561">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="562" spans="1:9" x14ac:dyDescent="0.25">
@@ -17020,7 +17020,7 @@
         <v>243</v>
       </c>
       <c r="I562">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="563" spans="1:9" x14ac:dyDescent="0.25">
@@ -17046,7 +17046,7 @@
         <v>243</v>
       </c>
       <c r="I563">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="564" spans="1:9" x14ac:dyDescent="0.25">
@@ -17072,7 +17072,7 @@
         <v>234</v>
       </c>
       <c r="I564">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="565" spans="1:9" x14ac:dyDescent="0.25">
@@ -17098,7 +17098,7 @@
         <v>234</v>
       </c>
       <c r="I565">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="566" spans="1:9" x14ac:dyDescent="0.25">
@@ -17124,7 +17124,7 @@
         <v>243</v>
       </c>
       <c r="I566">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="567" spans="1:9" x14ac:dyDescent="0.25">
@@ -17150,7 +17150,7 @@
         <v>243</v>
       </c>
       <c r="I567">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="568" spans="1:9" x14ac:dyDescent="0.25">
@@ -17176,7 +17176,7 @@
         <v>243</v>
       </c>
       <c r="I568">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="569" spans="1:9" x14ac:dyDescent="0.25">
@@ -17202,7 +17202,7 @@
         <v>249</v>
       </c>
       <c r="I569">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="570" spans="1:9" x14ac:dyDescent="0.25">
@@ -17228,7 +17228,7 @@
         <v>234</v>
       </c>
       <c r="I570">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="571" spans="1:9" x14ac:dyDescent="0.25">
@@ -17254,7 +17254,7 @@
         <v>234</v>
       </c>
       <c r="I571">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="572" spans="1:9" x14ac:dyDescent="0.25">
@@ -17280,7 +17280,7 @@
         <v>559</v>
       </c>
       <c r="I572">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="573" spans="1:9" x14ac:dyDescent="0.25">
@@ -17306,7 +17306,7 @@
         <v>559</v>
       </c>
       <c r="I573">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="574" spans="1:9" x14ac:dyDescent="0.25">
@@ -17332,7 +17332,7 @@
         <v>559</v>
       </c>
       <c r="I574">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="575" spans="1:9" x14ac:dyDescent="0.25">
@@ -17358,7 +17358,7 @@
         <v>234</v>
       </c>
       <c r="I575">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="576" spans="1:9" x14ac:dyDescent="0.25">
@@ -17384,7 +17384,7 @@
         <v>243</v>
       </c>
       <c r="I576">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="577" spans="1:9" x14ac:dyDescent="0.25">
@@ -17410,7 +17410,7 @@
         <v>243</v>
       </c>
       <c r="I577">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="578" spans="1:9" x14ac:dyDescent="0.25">
@@ -17436,7 +17436,7 @@
         <v>243</v>
       </c>
       <c r="I578">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="579" spans="1:9" x14ac:dyDescent="0.25">
@@ -17462,7 +17462,7 @@
         <v>243</v>
       </c>
       <c r="I579">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="580" spans="1:9" x14ac:dyDescent="0.25">
@@ -17488,7 +17488,7 @@
         <v>241</v>
       </c>
       <c r="I580">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="581" spans="1:9" x14ac:dyDescent="0.25">
@@ -17514,7 +17514,7 @@
         <v>248</v>
       </c>
       <c r="I581">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="582" spans="1:9" x14ac:dyDescent="0.25">
@@ -17540,7 +17540,7 @@
         <v>248</v>
       </c>
       <c r="I582">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="583" spans="1:9" x14ac:dyDescent="0.25">
@@ -17566,7 +17566,7 @@
         <v>248</v>
       </c>
       <c r="I583">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="584" spans="1:9" x14ac:dyDescent="0.25">
@@ -17592,7 +17592,7 @@
         <v>572</v>
       </c>
       <c r="I584">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="585" spans="1:9" x14ac:dyDescent="0.25">
@@ -17618,7 +17618,7 @@
         <v>572</v>
       </c>
       <c r="I585">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="586" spans="1:9" x14ac:dyDescent="0.25">
@@ -17644,7 +17644,7 @@
         <v>572</v>
       </c>
       <c r="I586">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="587" spans="1:9" x14ac:dyDescent="0.25">
@@ -17670,7 +17670,7 @@
         <v>572</v>
       </c>
       <c r="I587">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="588" spans="1:9" x14ac:dyDescent="0.25">
@@ -17696,7 +17696,7 @@
         <v>572</v>
       </c>
       <c r="I588">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="589" spans="1:9" x14ac:dyDescent="0.25">
@@ -17722,7 +17722,7 @@
         <v>572</v>
       </c>
       <c r="I589">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="590" spans="1:9" x14ac:dyDescent="0.25">
@@ -17748,7 +17748,7 @@
         <v>572</v>
       </c>
       <c r="I590">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="591" spans="1:9" x14ac:dyDescent="0.25">
@@ -17774,7 +17774,7 @@
         <v>572</v>
       </c>
       <c r="I591">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="592" spans="1:9" x14ac:dyDescent="0.25">
@@ -17800,7 +17800,7 @@
         <v>572</v>
       </c>
       <c r="I592">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="593" spans="1:9" x14ac:dyDescent="0.25">
@@ -17826,7 +17826,7 @@
         <v>572</v>
       </c>
       <c r="I593">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="594" spans="1:9" x14ac:dyDescent="0.25">
@@ -17852,7 +17852,7 @@
         <v>572</v>
       </c>
       <c r="I594">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="595" spans="1:9" x14ac:dyDescent="0.25">
@@ -17878,7 +17878,7 @@
         <v>572</v>
       </c>
       <c r="I595">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="596" spans="1:9" x14ac:dyDescent="0.25">
@@ -17904,7 +17904,7 @@
         <v>572</v>
       </c>
       <c r="I596">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="597" spans="1:9" x14ac:dyDescent="0.25">
@@ -17930,7 +17930,7 @@
         <v>572</v>
       </c>
       <c r="I597">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="598" spans="1:9" x14ac:dyDescent="0.25">
@@ -17956,7 +17956,7 @@
         <v>572</v>
       </c>
       <c r="I598">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="599" spans="1:9" x14ac:dyDescent="0.25">
@@ -17982,7 +17982,7 @@
         <v>572</v>
       </c>
       <c r="I599">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="600" spans="1:9" x14ac:dyDescent="0.25">
@@ -18008,7 +18008,7 @@
         <v>572</v>
       </c>
       <c r="I600">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="601" spans="1:9" x14ac:dyDescent="0.25">
@@ -18034,7 +18034,7 @@
         <v>572</v>
       </c>
       <c r="I601">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="602" spans="1:9" x14ac:dyDescent="0.25">
@@ -18060,7 +18060,7 @@
         <v>572</v>
       </c>
       <c r="I602">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="603" spans="1:9" x14ac:dyDescent="0.25">
@@ -18086,7 +18086,7 @@
         <v>572</v>
       </c>
       <c r="I603">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="604" spans="1:9" x14ac:dyDescent="0.25">
@@ -18112,7 +18112,7 @@
         <v>572</v>
       </c>
       <c r="I604">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="605" spans="1:9" x14ac:dyDescent="0.25">
@@ -18138,7 +18138,7 @@
         <v>572</v>
       </c>
       <c r="I605">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="606" spans="1:9" x14ac:dyDescent="0.25">
@@ -18164,7 +18164,7 @@
         <v>572</v>
       </c>
       <c r="I606">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="607" spans="1:9" x14ac:dyDescent="0.25">
@@ -18190,7 +18190,7 @@
         <v>572</v>
       </c>
       <c r="I607">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="608" spans="1:9" x14ac:dyDescent="0.25">
@@ -18216,7 +18216,7 @@
         <v>248</v>
       </c>
       <c r="I608">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="609" spans="1:9" x14ac:dyDescent="0.25">
@@ -18242,7 +18242,7 @@
         <v>248</v>
       </c>
       <c r="I609">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="610" spans="1:9" x14ac:dyDescent="0.25">
@@ -18268,7 +18268,7 @@
         <v>387</v>
       </c>
       <c r="I610">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="611" spans="1:9" x14ac:dyDescent="0.25">
@@ -18294,7 +18294,7 @@
         <v>243</v>
       </c>
       <c r="I611">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="612" spans="1:9" x14ac:dyDescent="0.25">
@@ -18321,7 +18321,7 @@
         <v>241</v>
       </c>
       <c r="I612">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="613" spans="1:9" x14ac:dyDescent="0.25">
@@ -18347,7 +18347,7 @@
         <v>234</v>
       </c>
       <c r="I613">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="614" spans="1:9" x14ac:dyDescent="0.25">
@@ -18373,7 +18373,7 @@
         <v>243</v>
       </c>
       <c r="I614">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="615" spans="1:9" x14ac:dyDescent="0.25">
@@ -18399,7 +18399,7 @@
         <v>234</v>
       </c>
       <c r="I615">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="616" spans="1:9" x14ac:dyDescent="0.25">
@@ -18425,7 +18425,7 @@
         <v>234</v>
       </c>
       <c r="I616">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="617" spans="1:9" x14ac:dyDescent="0.25">
@@ -18451,7 +18451,7 @@
         <v>234</v>
       </c>
       <c r="I617">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="618" spans="1:9" x14ac:dyDescent="0.25">
@@ -18477,7 +18477,7 @@
         <v>234</v>
       </c>
       <c r="I618">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="619" spans="1:9" x14ac:dyDescent="0.25">
@@ -18503,7 +18503,7 @@
         <v>234</v>
       </c>
       <c r="I619">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="620" spans="1:9" x14ac:dyDescent="0.25">
@@ -18529,7 +18529,7 @@
         <v>243</v>
       </c>
       <c r="I620">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="621" spans="1:9" x14ac:dyDescent="0.25">
@@ -18555,7 +18555,7 @@
         <v>387</v>
       </c>
       <c r="I621">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="622" spans="1:9" x14ac:dyDescent="0.25">
@@ -18581,7 +18581,7 @@
         <v>234</v>
       </c>
       <c r="I622">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="623" spans="1:9" x14ac:dyDescent="0.25">
@@ -18607,7 +18607,7 @@
         <v>234</v>
       </c>
       <c r="I623">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="624" spans="1:9" x14ac:dyDescent="0.25">
@@ -18633,7 +18633,7 @@
         <v>262</v>
       </c>
       <c r="I624">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="625" spans="1:9" x14ac:dyDescent="0.25">
@@ -18659,7 +18659,7 @@
         <v>234</v>
       </c>
       <c r="I625">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="626" spans="1:9" x14ac:dyDescent="0.25">
@@ -18685,7 +18685,7 @@
         <v>243</v>
       </c>
       <c r="I626">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="627" spans="1:9" x14ac:dyDescent="0.25">
@@ -18711,7 +18711,7 @@
         <v>234</v>
       </c>
       <c r="I627">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="628" spans="1:9" x14ac:dyDescent="0.25">
@@ -18737,7 +18737,7 @@
         <v>234</v>
       </c>
       <c r="I628">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="629" spans="1:9" x14ac:dyDescent="0.25">
@@ -18763,7 +18763,7 @@
         <v>501</v>
       </c>
       <c r="I629">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="630" spans="1:9" x14ac:dyDescent="0.25">
@@ -18789,7 +18789,7 @@
         <v>243</v>
       </c>
       <c r="I630">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="631" spans="1:9" x14ac:dyDescent="0.25">
@@ -18815,7 +18815,7 @@
         <v>243</v>
       </c>
       <c r="I631">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="632" spans="1:9" x14ac:dyDescent="0.25">
@@ -18841,7 +18841,7 @@
         <v>243</v>
       </c>
       <c r="I632">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="633" spans="1:9" x14ac:dyDescent="0.25">
@@ -18867,7 +18867,7 @@
         <v>243</v>
       </c>
       <c r="I633">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="634" spans="1:9" x14ac:dyDescent="0.25">
@@ -18893,7 +18893,7 @@
         <v>243</v>
       </c>
       <c r="I634">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="635" spans="1:9" x14ac:dyDescent="0.25">
@@ -18919,7 +18919,7 @@
         <v>234</v>
       </c>
       <c r="I635">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="636" spans="1:9" x14ac:dyDescent="0.25">
@@ -18945,7 +18945,7 @@
         <v>243</v>
       </c>
       <c r="I636">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="637" spans="1:9" x14ac:dyDescent="0.25">
@@ -18971,7 +18971,7 @@
         <v>252</v>
       </c>
       <c r="I637">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="638" spans="1:9" x14ac:dyDescent="0.25">
@@ -18997,7 +18997,7 @@
         <v>252</v>
       </c>
       <c r="I638">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="639" spans="1:9" x14ac:dyDescent="0.25">
@@ -19023,7 +19023,7 @@
         <v>243</v>
       </c>
       <c r="I639">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="640" spans="1:9" x14ac:dyDescent="0.25">
@@ -19049,7 +19049,7 @@
         <v>243</v>
       </c>
       <c r="I640">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="641" spans="1:9" x14ac:dyDescent="0.25">
@@ -19075,7 +19075,7 @@
         <v>241</v>
       </c>
       <c r="I641">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="642" spans="1:9" x14ac:dyDescent="0.25">
@@ -19101,7 +19101,7 @@
         <v>241</v>
       </c>
       <c r="I642">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="643" spans="1:9" x14ac:dyDescent="0.25">
@@ -19127,7 +19127,7 @@
         <v>234</v>
       </c>
       <c r="I643">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="644" spans="1:9" x14ac:dyDescent="0.25">
@@ -19153,7 +19153,7 @@
         <v>241</v>
       </c>
       <c r="I644">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="645" spans="1:9" x14ac:dyDescent="0.25">
@@ -19179,7 +19179,7 @@
         <v>240</v>
       </c>
       <c r="I645">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="646" spans="1:9" x14ac:dyDescent="0.25">
@@ -19205,7 +19205,7 @@
         <v>234</v>
       </c>
       <c r="I646">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="647" spans="1:9" x14ac:dyDescent="0.25">
@@ -19231,7 +19231,7 @@
         <v>623</v>
       </c>
       <c r="I647">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="648" spans="1:9" x14ac:dyDescent="0.25">
@@ -19257,7 +19257,7 @@
         <v>623</v>
       </c>
       <c r="I648">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="649" spans="1:9" x14ac:dyDescent="0.25">
@@ -19283,7 +19283,7 @@
         <v>243</v>
       </c>
       <c r="I649">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="650" spans="1:9" x14ac:dyDescent="0.25">
@@ -19309,7 +19309,7 @@
         <v>255</v>
       </c>
       <c r="I650">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="651" spans="1:9" x14ac:dyDescent="0.25">
@@ -19335,7 +19335,7 @@
         <v>234</v>
       </c>
       <c r="I651">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="652" spans="1:9" x14ac:dyDescent="0.25">
@@ -19361,7 +19361,7 @@
         <v>241</v>
       </c>
       <c r="I652">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="653" spans="1:9" x14ac:dyDescent="0.25">
@@ -19387,7 +19387,7 @@
         <v>243</v>
       </c>
       <c r="I653">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="654" spans="1:9" x14ac:dyDescent="0.25">
@@ -19413,7 +19413,7 @@
         <v>252</v>
       </c>
       <c r="I654">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="655" spans="1:9" x14ac:dyDescent="0.25">
@@ -19439,7 +19439,7 @@
         <v>243</v>
       </c>
       <c r="I655">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="656" spans="1:9" x14ac:dyDescent="0.25">
@@ -19465,7 +19465,7 @@
         <v>234</v>
       </c>
       <c r="I656">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="657" spans="1:9" x14ac:dyDescent="0.25">
@@ -19491,7 +19491,7 @@
         <v>243</v>
       </c>
       <c r="I657">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
   </sheetData>

--- a/DataBase/costs.xlsx
+++ b/DataBase/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2639" uniqueCount="633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2643" uniqueCount="633">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -2359,10 +2359,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L657"/>
+  <dimension ref="A1:L658"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="A643" workbookViewId="0">
+      <selection activeCell="I659" sqref="I659"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19494,6 +19494,32 @@
         <v>655</v>
       </c>
     </row>
+    <row r="658" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A658">
+        <v>5.6</v>
+      </c>
+      <c r="B658" t="s">
+        <v>217</v>
+      </c>
+      <c r="C658" s="2">
+        <v>43455</v>
+      </c>
+      <c r="D658" t="s">
+        <v>500</v>
+      </c>
+      <c r="E658" t="s">
+        <v>232</v>
+      </c>
+      <c r="F658">
+        <v>5</v>
+      </c>
+      <c r="H658" t="s">
+        <v>243</v>
+      </c>
+      <c r="I658">
+        <v>656</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataBase/costs.xlsx
+++ b/DataBase/costs.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="45" windowWidth="18975" windowHeight="11760"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2643" uniqueCount="633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2659" uniqueCount="637">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1913,17 +1913,29 @@
   </si>
   <si>
     <t>φυσικός χυμός με πρασόπιτα και τυροκούλουρο</t>
+  </si>
+  <si>
+    <t>τεκίλα (+ φακινού)</t>
+  </si>
+  <si>
+    <t>πουράκια από το περίπτερο</t>
+  </si>
+  <si>
+    <t>εισητήρια για χαντμπολ</t>
+  </si>
+  <si>
+    <t>καμερα sony a6000 (+ ακουστικά Γιάννη)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1964,7 +1976,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
     <dxf>
@@ -2056,7 +2068,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:I658" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:I662" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="9">
     <tableColumn id="1" name="amount" headerRowDxfId="9" totalsRowDxfId="8"/>
     <tableColumn id="11" name="type" totalsRowDxfId="7"/>
@@ -2073,7 +2085,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2115,7 +2127,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2147,10 +2159,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2182,7 +2193,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2358,14 +2368,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L658"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L662"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A643" workbookViewId="0">
-      <selection activeCell="I659" sqref="I659"/>
+      <selection activeCell="J651" sqref="J651"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.28515625" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
@@ -2381,7 +2391,7 @@
     <col min="12" max="12" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>227</v>
       </c>
@@ -2413,7 +2423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2" s="5" t="s">
         <v>476</v>
       </c>
@@ -2442,7 +2452,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3" s="4">
         <v>20</v>
       </c>
@@ -2469,7 +2479,7 @@
       </c>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4" s="4">
         <v>10</v>
       </c>
@@ -2495,7 +2505,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5" s="4">
         <v>100</v>
       </c>
@@ -2521,7 +2531,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="A6" s="4">
         <v>10</v>
       </c>
@@ -2547,7 +2557,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="A7" s="4">
         <v>50</v>
       </c>
@@ -2573,7 +2583,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="A8" s="4">
         <v>3.2</v>
       </c>
@@ -2599,7 +2609,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="A9" s="4">
         <v>1.3</v>
       </c>
@@ -2625,7 +2635,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="A10" s="4">
         <v>1.2</v>
       </c>
@@ -2651,7 +2661,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="A11" s="4">
         <v>5</v>
       </c>
@@ -2677,7 +2687,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12">
       <c r="A12" s="4">
         <v>4.5</v>
       </c>
@@ -2703,7 +2713,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12">
       <c r="A13" s="4">
         <v>4</v>
       </c>
@@ -2729,7 +2739,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12">
       <c r="A14" s="4">
         <v>10.6</v>
       </c>
@@ -2755,7 +2765,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12">
       <c r="A15" s="4">
         <v>1.8</v>
       </c>
@@ -2781,7 +2791,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12">
       <c r="A16" s="4">
         <v>5.15</v>
       </c>
@@ -2807,7 +2817,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="4">
         <v>18</v>
       </c>
@@ -2833,7 +2843,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="4">
         <v>1.5</v>
       </c>
@@ -2859,7 +2869,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" s="4">
         <v>7.8</v>
       </c>
@@ -2885,7 +2895,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" s="4">
         <v>4.4400000000000004</v>
       </c>
@@ -2911,7 +2921,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="4">
         <v>1.5</v>
       </c>
@@ -2937,7 +2947,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" s="4">
         <v>8.84</v>
       </c>
@@ -2963,7 +2973,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" s="4">
         <v>4</v>
       </c>
@@ -2989,7 +2999,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24" s="4">
         <v>10</v>
       </c>
@@ -3015,7 +3025,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25" s="4">
         <v>1.8</v>
       </c>
@@ -3041,7 +3051,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="A26" s="4">
         <v>11.8</v>
       </c>
@@ -3067,7 +3077,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="A27" s="4">
         <v>40</v>
       </c>
@@ -3093,7 +3103,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="A28" s="4">
         <v>2.9</v>
       </c>
@@ -3119,7 +3129,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="A29" s="4">
         <v>4.3</v>
       </c>
@@ -3145,7 +3155,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="A30" s="4">
         <v>3.35</v>
       </c>
@@ -3171,7 +3181,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="A31" s="4">
         <v>5.2</v>
       </c>
@@ -3197,7 +3207,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9">
       <c r="A32" s="4">
         <v>15</v>
       </c>
@@ -3223,7 +3233,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9">
       <c r="A33" s="4">
         <v>3.9</v>
       </c>
@@ -3249,7 +3259,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9">
       <c r="A34" s="4">
         <v>63.45</v>
       </c>
@@ -3275,7 +3285,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9">
       <c r="A35" s="4">
         <v>49.9</v>
       </c>
@@ -3301,7 +3311,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9">
       <c r="A36" s="4">
         <v>140</v>
       </c>
@@ -3327,7 +3337,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9">
       <c r="A37" s="4">
         <v>1.8</v>
       </c>
@@ -3353,7 +3363,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9">
       <c r="A38" s="4">
         <v>13.02</v>
       </c>
@@ -3379,7 +3389,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9">
       <c r="A39" s="4">
         <v>4.7</v>
       </c>
@@ -3405,7 +3415,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9">
       <c r="A40" s="4">
         <v>15.96</v>
       </c>
@@ -3431,7 +3441,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9">
       <c r="A41" s="4">
         <v>9.8000000000000007</v>
       </c>
@@ -3457,7 +3467,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9">
       <c r="A42" s="4">
         <v>79.8</v>
       </c>
@@ -3483,7 +3493,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9">
       <c r="A43" s="4">
         <v>11.9</v>
       </c>
@@ -3509,7 +3519,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9">
       <c r="A44" s="4">
         <v>38.880000000000003</v>
       </c>
@@ -3535,7 +3545,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9">
       <c r="A45" s="4">
         <v>7.75</v>
       </c>
@@ -3561,7 +3571,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9">
       <c r="A46" s="4">
         <v>0.79</v>
       </c>
@@ -3587,7 +3597,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9">
       <c r="A47" s="4">
         <v>10</v>
       </c>
@@ -3613,7 +3623,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9">
       <c r="A48" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -3639,7 +3649,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11">
       <c r="A49" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -3665,7 +3675,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11">
       <c r="A50" s="4">
         <v>1.8</v>
       </c>
@@ -3691,7 +3701,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11">
       <c r="A51" s="4">
         <v>24</v>
       </c>
@@ -3717,7 +3727,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11">
       <c r="A52" s="4">
         <v>24</v>
       </c>
@@ -3743,7 +3753,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11">
       <c r="A53" s="4">
         <v>1.8</v>
       </c>
@@ -3769,7 +3779,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11">
       <c r="A54" s="4">
         <v>3.5</v>
       </c>
@@ -3795,7 +3805,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11">
       <c r="A55" s="4">
         <v>5.6</v>
       </c>
@@ -3822,7 +3832,7 @@
       </c>
       <c r="K55" s="4"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11">
       <c r="A56" s="4">
         <v>1.5</v>
       </c>
@@ -3848,7 +3858,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11">
       <c r="A57" s="4">
         <v>3</v>
       </c>
@@ -3874,7 +3884,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11">
       <c r="A58" s="4">
         <v>5.4</v>
       </c>
@@ -3900,7 +3910,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11">
       <c r="A59" s="4">
         <v>8</v>
       </c>
@@ -3926,7 +3936,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11">
       <c r="A60" s="4">
         <v>5.4</v>
       </c>
@@ -3952,7 +3962,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11">
       <c r="A61" s="4">
         <v>0.6</v>
       </c>
@@ -3978,7 +3988,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11">
       <c r="A62" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -4004,7 +4014,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11">
       <c r="A63" s="4">
         <v>1.5</v>
       </c>
@@ -4030,7 +4040,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11">
       <c r="A64" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -4056,7 +4066,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11">
       <c r="A65" s="4">
         <v>1.2</v>
       </c>
@@ -4082,7 +4092,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11">
       <c r="A66" s="4">
         <v>5.0999999999999996</v>
       </c>
@@ -4108,7 +4118,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11">
       <c r="A67" s="4">
         <v>13.5</v>
       </c>
@@ -4134,7 +4144,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11">
       <c r="A68" s="4">
         <v>3.5</v>
       </c>
@@ -4161,7 +4171,7 @@
       </c>
       <c r="K68" s="4"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11">
       <c r="A69" s="4">
         <v>4.0999999999999996</v>
       </c>
@@ -4187,7 +4197,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11">
       <c r="A70" s="4">
         <v>90</v>
       </c>
@@ -4213,7 +4223,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11">
       <c r="A71" s="4">
         <v>65.5</v>
       </c>
@@ -4239,7 +4249,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11">
       <c r="A72" s="4">
         <v>4.5</v>
       </c>
@@ -4265,7 +4275,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11">
       <c r="A73" s="4">
         <v>10</v>
       </c>
@@ -4291,7 +4301,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11">
       <c r="A74" s="4">
         <v>18.8</v>
       </c>
@@ -4317,7 +4327,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11">
       <c r="A75" s="4">
         <v>1.8</v>
       </c>
@@ -4344,7 +4354,7 @@
       </c>
       <c r="K75" s="4"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11">
       <c r="A76" s="4">
         <v>5.5</v>
       </c>
@@ -4370,7 +4380,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11">
       <c r="A77" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -4396,7 +4406,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11">
       <c r="A78" s="4">
         <v>3</v>
       </c>
@@ -4422,7 +4432,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11">
       <c r="A79" s="4">
         <v>2</v>
       </c>
@@ -4448,7 +4458,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11">
       <c r="A80" s="4">
         <v>9.9</v>
       </c>
@@ -4474,7 +4484,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9">
       <c r="A81" s="4">
         <v>6.5</v>
       </c>
@@ -4500,7 +4510,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9">
       <c r="A82" s="4">
         <v>79.8</v>
       </c>
@@ -4526,7 +4536,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9">
       <c r="A83" s="4">
         <v>10</v>
       </c>
@@ -4552,7 +4562,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9">
       <c r="A84" s="4">
         <v>2.5</v>
       </c>
@@ -4578,7 +4588,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9">
       <c r="A85" s="4">
         <v>5</v>
       </c>
@@ -4604,7 +4614,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9">
       <c r="A86" s="4">
         <v>1.6</v>
       </c>
@@ -4630,7 +4640,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9">
       <c r="A87" s="4">
         <v>5.5</v>
       </c>
@@ -4656,7 +4666,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9">
       <c r="A88" s="4">
         <v>0.8</v>
       </c>
@@ -4682,7 +4692,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9">
       <c r="A89" s="4">
         <v>17</v>
       </c>
@@ -4708,7 +4718,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9">
       <c r="A90" s="4">
         <v>24.9</v>
       </c>
@@ -4734,7 +4744,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9">
       <c r="A91" s="4">
         <v>1.8</v>
       </c>
@@ -4760,7 +4770,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9">
       <c r="A92" s="4">
         <v>44.99</v>
       </c>
@@ -4786,7 +4796,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9">
       <c r="A93" s="4">
         <v>4</v>
       </c>
@@ -4812,7 +4822,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9">
       <c r="A94" s="4">
         <v>5</v>
       </c>
@@ -4838,7 +4848,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9">
       <c r="A95" s="4">
         <v>5</v>
       </c>
@@ -4864,7 +4874,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9">
       <c r="A96" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -4890,7 +4900,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9">
       <c r="A97" s="4">
         <v>3</v>
       </c>
@@ -4916,7 +4926,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9">
       <c r="A98" s="4">
         <v>6</v>
       </c>
@@ -4942,7 +4952,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9">
       <c r="A99" s="4">
         <v>3.5</v>
       </c>
@@ -4968,7 +4978,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9">
       <c r="A100" s="4">
         <v>34.9</v>
       </c>
@@ -4994,7 +5004,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9">
       <c r="A101" s="4">
         <v>12</v>
       </c>
@@ -5020,7 +5030,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9">
       <c r="A102" s="4">
         <v>5</v>
       </c>
@@ -5046,7 +5056,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9">
       <c r="A103" s="4">
         <v>6.9</v>
       </c>
@@ -5072,7 +5082,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9">
       <c r="A104" s="4">
         <v>6.04</v>
       </c>
@@ -5098,7 +5108,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9">
       <c r="A105" s="4">
         <v>4.8</v>
       </c>
@@ -5124,7 +5134,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9">
       <c r="A106" s="4">
         <v>9.6999999999999993</v>
       </c>
@@ -5150,7 +5160,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9">
       <c r="A107" s="4">
         <v>5.5</v>
       </c>
@@ -5176,7 +5186,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9">
       <c r="A108" s="4">
         <v>7</v>
       </c>
@@ -5202,7 +5212,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9">
       <c r="A109" s="4">
         <v>1</v>
       </c>
@@ -5228,7 +5238,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9">
       <c r="A110" s="4">
         <v>4</v>
       </c>
@@ -5254,7 +5264,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9">
       <c r="A111" s="4">
         <v>4.0999999999999996</v>
       </c>
@@ -5280,7 +5290,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9">
       <c r="A112" s="4">
         <v>2.3199999999999998</v>
       </c>
@@ -5306,7 +5316,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9">
       <c r="A113" s="4">
         <v>8</v>
       </c>
@@ -5332,7 +5342,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9">
       <c r="A114" s="4">
         <v>12.5</v>
       </c>
@@ -5358,7 +5368,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9">
       <c r="A115" s="4">
         <v>0.7</v>
       </c>
@@ -5384,7 +5394,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9">
       <c r="A116" s="4">
         <v>6.3</v>
       </c>
@@ -5410,7 +5420,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9">
       <c r="A117" s="4">
         <v>8</v>
       </c>
@@ -5436,7 +5446,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9">
       <c r="A118" s="4">
         <v>5.0999999999999996</v>
       </c>
@@ -5462,7 +5472,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9">
       <c r="A119" s="4">
         <v>8</v>
       </c>
@@ -5488,7 +5498,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9">
       <c r="A120" s="4">
         <v>4.5</v>
       </c>
@@ -5514,7 +5524,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9">
       <c r="A121" s="4">
         <v>2.5</v>
       </c>
@@ -5540,7 +5550,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9">
       <c r="A122" s="4">
         <v>24.3</v>
       </c>
@@ -5566,7 +5576,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9">
       <c r="A123" s="4">
         <v>2</v>
       </c>
@@ -5592,7 +5602,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9">
       <c r="A124" s="4">
         <v>16</v>
       </c>
@@ -5618,7 +5628,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9">
       <c r="A125" s="4">
         <v>6</v>
       </c>
@@ -5644,7 +5654,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9">
       <c r="A126" s="4">
         <v>5</v>
       </c>
@@ -5670,7 +5680,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9">
       <c r="A127" s="4">
         <v>6.52</v>
       </c>
@@ -5696,7 +5706,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9">
       <c r="A128" s="4">
         <v>1.8</v>
       </c>
@@ -5722,7 +5732,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9">
       <c r="A129" s="4">
         <v>1</v>
       </c>
@@ -5748,7 +5758,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9">
       <c r="A130" s="4">
         <v>5</v>
       </c>
@@ -5774,7 +5784,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9">
       <c r="A131" s="4">
         <v>43</v>
       </c>
@@ -5800,7 +5810,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9">
       <c r="A132" s="4">
         <v>10</v>
       </c>
@@ -5826,7 +5836,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9">
       <c r="A133" s="4">
         <v>2.97</v>
       </c>
@@ -5852,7 +5862,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9">
       <c r="A134" s="4">
         <v>10</v>
       </c>
@@ -5878,7 +5888,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9">
       <c r="A135" s="4">
         <v>1.6</v>
       </c>
@@ -5904,7 +5914,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9">
       <c r="A136" s="4">
         <v>1.5</v>
       </c>
@@ -5930,7 +5940,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9">
       <c r="A137" s="4">
         <v>1.8</v>
       </c>
@@ -5956,7 +5966,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9">
       <c r="A138" s="4">
         <v>7.3</v>
       </c>
@@ -5982,7 +5992,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9">
       <c r="A139" s="4">
         <v>4</v>
       </c>
@@ -6008,7 +6018,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9">
       <c r="A140" s="4">
         <v>2.1</v>
       </c>
@@ -6034,7 +6044,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9">
       <c r="A141" s="4">
         <v>4.2</v>
       </c>
@@ -6060,7 +6070,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9">
       <c r="A142" s="4">
         <v>9</v>
       </c>
@@ -6086,7 +6096,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9">
       <c r="A143" s="4">
         <v>1</v>
       </c>
@@ -6112,7 +6122,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9">
       <c r="A144" s="4">
         <v>3.5</v>
       </c>
@@ -6138,7 +6148,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9">
       <c r="A145" s="4">
         <v>5.0999999999999996</v>
       </c>
@@ -6164,7 +6174,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9">
       <c r="A146" s="4">
         <v>3</v>
       </c>
@@ -6190,7 +6200,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9">
       <c r="A147" s="4">
         <v>2</v>
       </c>
@@ -6216,7 +6226,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9">
       <c r="A148" s="4">
         <v>150</v>
       </c>
@@ -6242,7 +6252,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9">
       <c r="A149" s="4">
         <v>7</v>
       </c>
@@ -6268,7 +6278,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9">
       <c r="A150" s="4">
         <v>5</v>
       </c>
@@ -6294,7 +6304,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9">
       <c r="A151" s="4">
         <v>8</v>
       </c>
@@ -6320,7 +6330,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9">
       <c r="A152" s="4">
         <v>3.5</v>
       </c>
@@ -6346,7 +6356,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9">
       <c r="A153" s="4">
         <v>55</v>
       </c>
@@ -6372,7 +6382,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9">
       <c r="A154" s="4">
         <v>0.6</v>
       </c>
@@ -6398,7 +6408,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9">
       <c r="A155" s="4">
         <v>4</v>
       </c>
@@ -6424,7 +6434,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9">
       <c r="A156" s="4">
         <v>39.9</v>
       </c>
@@ -6450,7 +6460,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9">
       <c r="A157" s="4">
         <v>1.6</v>
       </c>
@@ -6476,7 +6486,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9">
       <c r="A158" s="4">
         <v>80</v>
       </c>
@@ -6502,7 +6512,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9">
       <c r="A159" s="4">
         <v>6.2</v>
       </c>
@@ -6528,7 +6538,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9">
       <c r="A160" s="4">
         <v>15</v>
       </c>
@@ -6554,7 +6564,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9">
       <c r="A161" s="4">
         <v>4.3</v>
       </c>
@@ -6580,7 +6590,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9">
       <c r="A162" s="4">
         <v>9.6999999999999993</v>
       </c>
@@ -6606,7 +6616,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9">
       <c r="A163" s="4">
         <v>2.4500000000000002</v>
       </c>
@@ -6632,7 +6642,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9">
       <c r="A164" s="4">
         <v>1.96</v>
       </c>
@@ -6658,7 +6668,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9">
       <c r="A165" s="4">
         <v>11.5</v>
       </c>
@@ -6684,7 +6694,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9">
       <c r="A166" s="4">
         <v>2.7</v>
       </c>
@@ -6710,7 +6720,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9">
       <c r="A167" s="4">
         <v>2.7</v>
       </c>
@@ -6736,7 +6746,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9">
       <c r="A168" s="4">
         <v>7</v>
       </c>
@@ -6762,7 +6772,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9">
       <c r="A169" s="4">
         <v>4.8</v>
       </c>
@@ -6788,7 +6798,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9">
       <c r="A170" s="4">
         <v>4.4000000000000004</v>
       </c>
@@ -6814,7 +6824,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9">
       <c r="A171" s="4">
         <v>3.8</v>
       </c>
@@ -6840,7 +6850,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9">
       <c r="A172" s="4">
         <v>1.5</v>
       </c>
@@ -6866,7 +6876,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9">
       <c r="A173" s="4">
         <v>11.5</v>
       </c>
@@ -6892,7 +6902,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9">
       <c r="A174" s="4">
         <v>4.4000000000000004</v>
       </c>
@@ -6918,7 +6928,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9">
       <c r="A175" s="4">
         <v>6.5</v>
       </c>
@@ -6944,7 +6954,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9">
       <c r="A176" s="4">
         <v>6.5</v>
       </c>
@@ -6970,7 +6980,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9">
       <c r="A177" s="4">
         <v>5</v>
       </c>
@@ -6996,7 +7006,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9">
       <c r="A178" s="4">
         <v>6</v>
       </c>
@@ -7022,7 +7032,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9">
       <c r="A179" s="4">
         <v>8</v>
       </c>
@@ -7048,7 +7058,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9">
       <c r="A180" s="4">
         <v>3.2</v>
       </c>
@@ -7074,7 +7084,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9">
       <c r="A181" s="4">
         <v>10</v>
       </c>
@@ -7100,7 +7110,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9">
       <c r="A182" s="4">
         <v>3</v>
       </c>
@@ -7126,7 +7136,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9">
       <c r="A183" s="4">
         <v>10</v>
       </c>
@@ -7152,7 +7162,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9">
       <c r="A184" s="4">
         <v>3.5</v>
       </c>
@@ -7178,7 +7188,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9">
       <c r="A185" s="4">
         <v>10</v>
       </c>
@@ -7204,7 +7214,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9">
       <c r="A186" s="4">
         <v>8</v>
       </c>
@@ -7230,7 +7240,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9">
       <c r="A187" s="4">
         <v>6.2</v>
       </c>
@@ -7256,7 +7266,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9">
       <c r="A188" s="4">
         <v>2</v>
       </c>
@@ -7282,7 +7292,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9">
       <c r="A189" s="4">
         <v>10</v>
       </c>
@@ -7308,7 +7318,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9">
       <c r="A190" s="4">
         <v>22</v>
       </c>
@@ -7334,7 +7344,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9">
       <c r="A191" s="4">
         <v>14</v>
       </c>
@@ -7360,7 +7370,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9">
       <c r="A192" s="4">
         <v>14</v>
       </c>
@@ -7386,7 +7396,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9">
       <c r="A193" s="4">
         <v>4.7</v>
       </c>
@@ -7412,7 +7422,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9">
       <c r="A194" s="4">
         <v>69.900000000000006</v>
       </c>
@@ -7438,7 +7448,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9">
       <c r="A195" s="4">
         <v>8.4</v>
       </c>
@@ -7464,7 +7474,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9">
       <c r="A196" s="4">
         <v>5</v>
       </c>
@@ -7490,7 +7500,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9">
       <c r="A197" s="4">
         <v>4.5</v>
       </c>
@@ -7516,7 +7526,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9">
       <c r="A198" s="4">
         <v>6</v>
       </c>
@@ -7542,7 +7552,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9">
       <c r="A199" s="4">
         <v>5.46</v>
       </c>
@@ -7568,7 +7578,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9">
       <c r="A200" s="4">
         <v>78.849999999999994</v>
       </c>
@@ -7594,7 +7604,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9">
       <c r="A201" s="4">
         <v>10</v>
       </c>
@@ -7620,7 +7630,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9">
       <c r="A202" s="4">
         <v>10</v>
       </c>
@@ -7646,7 +7656,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9">
       <c r="A203" s="4">
         <v>26</v>
       </c>
@@ -7672,7 +7682,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9">
       <c r="A204" s="4">
         <v>2</v>
       </c>
@@ -7698,7 +7708,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9">
       <c r="A205" s="4">
         <v>2.5</v>
       </c>
@@ -7724,7 +7734,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9">
       <c r="A206" s="4">
         <v>5.9</v>
       </c>
@@ -7750,7 +7760,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9">
       <c r="A207" s="4">
         <v>8.6</v>
       </c>
@@ -7776,7 +7786,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9">
       <c r="A208" s="4">
         <v>2.7</v>
       </c>
@@ -7802,7 +7812,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9">
       <c r="A209" s="4">
         <v>4.8</v>
       </c>
@@ -7828,7 +7838,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9">
       <c r="A210" s="4">
         <v>2.8</v>
       </c>
@@ -7854,7 +7864,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9">
       <c r="A211" s="4">
         <v>2</v>
       </c>
@@ -7880,7 +7890,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9">
       <c r="A212" s="4">
         <v>5</v>
       </c>
@@ -7906,7 +7916,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9">
       <c r="A213" s="4">
         <v>2.5</v>
       </c>
@@ -7932,7 +7942,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9">
       <c r="A214" s="4">
         <v>3.5</v>
       </c>
@@ -7958,7 +7968,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9">
       <c r="A215" s="4">
         <v>1.8</v>
       </c>
@@ -7984,7 +7994,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9">
       <c r="A216" s="4">
         <v>4</v>
       </c>
@@ -8010,7 +8020,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9">
       <c r="A217" s="4">
         <v>6</v>
       </c>
@@ -8036,7 +8046,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9">
       <c r="A218" s="4">
         <v>1.8</v>
       </c>
@@ -8062,7 +8072,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9">
       <c r="A219" s="4">
         <v>5</v>
       </c>
@@ -8088,7 +8098,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9">
       <c r="A220" s="4">
         <v>5</v>
       </c>
@@ -8114,7 +8124,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9">
       <c r="A221" s="4">
         <v>4.7</v>
       </c>
@@ -8140,7 +8150,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9">
       <c r="A222" s="4">
         <v>5</v>
       </c>
@@ -8166,7 +8176,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9">
       <c r="A223" s="4">
         <v>10</v>
       </c>
@@ -8192,7 +8202,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9">
       <c r="A224" s="4">
         <v>1.5</v>
       </c>
@@ -8218,7 +8228,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9">
       <c r="A225" s="4">
         <v>129</v>
       </c>
@@ -8244,7 +8254,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9">
       <c r="A226" s="4">
         <v>7</v>
       </c>
@@ -8270,7 +8280,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9">
       <c r="A227" s="4">
         <v>2.8</v>
       </c>
@@ -8296,7 +8306,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9">
       <c r="A228" s="4">
         <v>1</v>
       </c>
@@ -8322,7 +8332,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9">
       <c r="A229" s="4">
         <v>4</v>
       </c>
@@ -8348,7 +8358,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9">
       <c r="A230" s="4">
         <v>50</v>
       </c>
@@ -8374,7 +8384,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9">
       <c r="A231" s="4">
         <v>7.2</v>
       </c>
@@ -8400,7 +8410,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9">
       <c r="A232" s="4">
         <v>1</v>
       </c>
@@ -8426,7 +8436,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9">
       <c r="A233" s="4">
         <v>7</v>
       </c>
@@ -8452,7 +8462,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9">
       <c r="A234" s="4">
         <v>1.1000000000000001</v>
       </c>
@@ -8478,7 +8488,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9">
       <c r="A235" s="4">
         <v>7</v>
       </c>
@@ -8504,7 +8514,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9">
       <c r="A236" s="4">
         <v>15</v>
       </c>
@@ -8530,7 +8540,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9">
       <c r="A237" s="4">
         <v>3</v>
       </c>
@@ -8556,7 +8566,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9">
       <c r="A238" s="4">
         <v>11.2</v>
       </c>
@@ -8582,7 +8592,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9">
       <c r="A239" s="4">
         <v>2.1</v>
       </c>
@@ -8608,7 +8618,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9">
       <c r="A240" s="4">
         <v>150</v>
       </c>
@@ -8634,7 +8644,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9">
       <c r="A241" s="4">
         <v>12.7</v>
       </c>
@@ -8660,7 +8670,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9">
       <c r="A242" s="4">
         <v>89.9</v>
       </c>
@@ -8686,7 +8696,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9">
       <c r="A243" s="4">
         <v>4.4000000000000004</v>
       </c>
@@ -8712,7 +8722,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9">
       <c r="A244" s="4">
         <v>4.2</v>
       </c>
@@ -8738,7 +8748,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9">
       <c r="A245" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -8764,7 +8774,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9">
       <c r="A246" s="4">
         <v>5</v>
       </c>
@@ -8790,7 +8800,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9">
       <c r="A247" s="4">
         <v>5</v>
       </c>
@@ -8816,7 +8826,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9">
       <c r="A248" s="4">
         <v>3.9</v>
       </c>
@@ -8842,7 +8852,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9">
       <c r="A249" s="4">
         <v>0.5</v>
       </c>
@@ -8868,7 +8878,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9">
       <c r="A250" s="4">
         <v>2.4</v>
       </c>
@@ -8894,7 +8904,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9">
       <c r="A251" s="4">
         <v>2</v>
       </c>
@@ -8920,7 +8930,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9">
       <c r="A252" s="4">
         <v>4.7</v>
       </c>
@@ -8946,7 +8956,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9">
       <c r="A253" s="4">
         <v>5.3</v>
       </c>
@@ -8972,7 +8982,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9">
       <c r="A254" s="4">
         <v>4.2</v>
       </c>
@@ -8998,7 +9008,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9">
       <c r="A255" s="4">
         <v>5</v>
       </c>
@@ -9024,7 +9034,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9">
       <c r="A256" s="4">
         <v>2.5</v>
       </c>
@@ -9050,7 +9060,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9">
       <c r="A257" s="4">
         <v>3.3</v>
       </c>
@@ -9076,7 +9086,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9">
       <c r="A258" s="4">
         <v>5.6</v>
       </c>
@@ -9102,7 +9112,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9">
       <c r="A259" s="4">
         <v>4</v>
       </c>
@@ -9128,7 +9138,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9">
       <c r="A260" s="4">
         <v>10.199999999999999</v>
       </c>
@@ -9154,7 +9164,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9">
       <c r="A261" s="4">
         <v>8</v>
       </c>
@@ -9180,7 +9190,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9">
       <c r="A262" s="4">
         <v>2.1</v>
       </c>
@@ -9206,7 +9216,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9">
       <c r="A263" s="4">
         <v>3.7</v>
       </c>
@@ -9232,7 +9242,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9">
       <c r="A264" s="4">
         <v>7</v>
       </c>
@@ -9258,7 +9268,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9">
       <c r="A265" s="4">
         <v>13.5</v>
       </c>
@@ -9284,7 +9294,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9">
       <c r="A266" s="4">
         <v>5</v>
       </c>
@@ -9310,7 +9320,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9">
       <c r="A267" s="4">
         <v>20</v>
       </c>
@@ -9336,7 +9346,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9">
       <c r="A268" s="4">
         <v>6</v>
       </c>
@@ -9362,7 +9372,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9">
       <c r="A269" s="4">
         <v>0.5</v>
       </c>
@@ -9388,7 +9398,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9">
       <c r="A270" s="4">
         <v>5</v>
       </c>
@@ -9414,7 +9424,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9">
       <c r="A271" s="4">
         <v>11</v>
       </c>
@@ -9440,7 +9450,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9">
       <c r="A272" s="4">
         <v>8.8000000000000007</v>
       </c>
@@ -9466,7 +9476,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9">
       <c r="A273" s="4">
         <v>0.5</v>
       </c>
@@ -9492,7 +9502,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9">
       <c r="A274" s="4">
         <v>5</v>
       </c>
@@ -9518,7 +9528,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9">
       <c r="A275" s="4">
         <v>10</v>
       </c>
@@ -9544,7 +9554,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9">
       <c r="A276" s="4">
         <v>15</v>
       </c>
@@ -9570,7 +9580,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9">
       <c r="A277" s="4">
         <v>10</v>
       </c>
@@ -9596,7 +9606,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9">
       <c r="A278" s="4">
         <v>11.9</v>
       </c>
@@ -9622,7 +9632,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9">
       <c r="A279" s="4">
         <v>7</v>
       </c>
@@ -9648,7 +9658,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9">
       <c r="A280" s="4">
         <v>5.0999999999999996</v>
       </c>
@@ -9674,7 +9684,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9">
       <c r="A281">
         <v>1.9</v>
       </c>
@@ -9700,7 +9710,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9">
       <c r="A282">
         <v>119.9</v>
       </c>
@@ -9726,7 +9736,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9">
       <c r="A283">
         <v>6.3</v>
       </c>
@@ -9752,7 +9762,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9">
       <c r="A284">
         <v>3.5</v>
       </c>
@@ -9778,7 +9788,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9">
       <c r="A285">
         <v>1.5</v>
       </c>
@@ -9804,7 +9814,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9">
       <c r="A286">
         <v>1.9</v>
       </c>
@@ -9830,7 +9840,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9">
       <c r="A287">
         <v>4.5</v>
       </c>
@@ -9856,7 +9866,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:9">
       <c r="A288">
         <v>6.4</v>
       </c>
@@ -9882,7 +9892,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:9">
       <c r="A289">
         <v>1.9</v>
       </c>
@@ -9908,7 +9918,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:9">
       <c r="A290">
         <v>10.6</v>
       </c>
@@ -9934,7 +9944,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9">
       <c r="A291">
         <v>4.5</v>
       </c>
@@ -9960,7 +9970,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:9">
       <c r="A292">
         <v>22.2</v>
       </c>
@@ -9986,7 +9996,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:9">
       <c r="A293" s="6">
         <v>25</v>
       </c>
@@ -10012,7 +10022,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:9">
       <c r="A294" s="6">
         <v>3.5</v>
       </c>
@@ -10038,7 +10048,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:9">
       <c r="A295">
         <v>4</v>
       </c>
@@ -10064,7 +10074,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:9">
       <c r="A296">
         <v>2.2000000000000002</v>
       </c>
@@ -10090,7 +10100,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:9">
       <c r="A297">
         <v>11.5</v>
       </c>
@@ -10116,7 +10126,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:9">
       <c r="A298">
         <v>6.3</v>
       </c>
@@ -10142,7 +10152,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:9">
       <c r="A299">
         <v>3.6</v>
       </c>
@@ -10168,7 +10178,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:9">
       <c r="A300">
         <v>15</v>
       </c>
@@ -10194,7 +10204,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:9">
       <c r="A301">
         <v>2</v>
       </c>
@@ -10220,7 +10230,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:9">
       <c r="A302">
         <v>4.5</v>
       </c>
@@ -10246,7 +10256,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:9">
       <c r="A303">
         <v>2.9</v>
       </c>
@@ -10272,7 +10282,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:9">
       <c r="A304">
         <v>3.9</v>
       </c>
@@ -10298,7 +10308,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:9">
       <c r="A305">
         <v>1.7</v>
       </c>
@@ -10324,7 +10334,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:9">
       <c r="A306">
         <v>10</v>
       </c>
@@ -10350,7 +10360,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:9">
       <c r="A307">
         <v>7.5</v>
       </c>
@@ -10376,7 +10386,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:9">
       <c r="A308">
         <v>10.050000000000001</v>
       </c>
@@ -10402,7 +10412,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:9">
       <c r="A309">
         <v>5</v>
       </c>
@@ -10428,7 +10438,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:9">
       <c r="A310">
         <v>3</v>
       </c>
@@ -10454,7 +10464,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:9">
       <c r="A311">
         <v>2</v>
       </c>
@@ -10480,7 +10490,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:9">
       <c r="A312">
         <v>10.6</v>
       </c>
@@ -10506,7 +10516,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:9">
       <c r="A313">
         <v>4</v>
       </c>
@@ -10532,7 +10542,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:9">
       <c r="A314">
         <v>2</v>
       </c>
@@ -10558,7 +10568,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:9">
       <c r="A315">
         <v>5.8</v>
       </c>
@@ -10584,7 +10594,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:9">
       <c r="A316">
         <v>5</v>
       </c>
@@ -10610,7 +10620,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:9">
       <c r="A317">
         <v>6.55</v>
       </c>
@@ -10636,7 +10646,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:9">
       <c r="A318">
         <v>2.8</v>
       </c>
@@ -10662,7 +10672,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:9">
       <c r="A319">
         <v>3.8</v>
       </c>
@@ -10688,7 +10698,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:9">
       <c r="A320">
         <v>9</v>
       </c>
@@ -10714,7 +10724,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:9">
       <c r="A321">
         <v>8</v>
       </c>
@@ -10740,7 +10750,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:9">
       <c r="A322">
         <v>1.5</v>
       </c>
@@ -10766,7 +10776,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:9">
       <c r="A323">
         <v>5</v>
       </c>
@@ -10792,7 +10802,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:9">
       <c r="A324">
         <v>4.5999999999999996</v>
       </c>
@@ -10818,7 +10828,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:9">
       <c r="A325">
         <v>0.5</v>
       </c>
@@ -10844,7 +10854,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:9">
       <c r="A326">
         <v>2.95</v>
       </c>
@@ -10870,7 +10880,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:9">
       <c r="A327">
         <v>3.8</v>
       </c>
@@ -10896,7 +10906,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:9">
       <c r="A328">
         <v>10</v>
       </c>
@@ -10922,7 +10932,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:9">
       <c r="A329">
         <v>3.85</v>
       </c>
@@ -10948,7 +10958,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:9">
       <c r="A330">
         <v>1.2</v>
       </c>
@@ -10974,7 +10984,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:9">
       <c r="A331">
         <v>2</v>
       </c>
@@ -11000,7 +11010,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:9">
       <c r="A332">
         <v>8.5</v>
       </c>
@@ -11026,7 +11036,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:9">
       <c r="A333">
         <v>4.9000000000000004</v>
       </c>
@@ -11052,7 +11062,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:9">
       <c r="A334">
         <v>10</v>
       </c>
@@ -11078,7 +11088,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:9">
       <c r="A335">
         <v>350</v>
       </c>
@@ -11104,7 +11114,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:9">
       <c r="A336">
         <v>4.4000000000000004</v>
       </c>
@@ -11130,7 +11140,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:9">
       <c r="A337">
         <v>3.2</v>
       </c>
@@ -11156,7 +11166,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:9">
       <c r="A338">
         <v>3.8</v>
       </c>
@@ -11182,7 +11192,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:9">
       <c r="A339">
         <v>0.9</v>
       </c>
@@ -11208,7 +11218,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:9">
       <c r="A340">
         <v>6</v>
       </c>
@@ -11234,7 +11244,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:9">
       <c r="A341">
         <v>3.8</v>
       </c>
@@ -11260,7 +11270,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:9">
       <c r="A342">
         <v>2</v>
       </c>
@@ -11286,7 +11296,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:9">
       <c r="A343">
         <v>5.5</v>
       </c>
@@ -11312,7 +11322,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:9">
       <c r="A344">
         <v>43.22</v>
       </c>
@@ -11338,7 +11348,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:9">
       <c r="A345">
         <v>2</v>
       </c>
@@ -11364,7 +11374,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:9">
       <c r="A346">
         <v>7</v>
       </c>
@@ -11390,7 +11400,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:9">
       <c r="A347">
         <v>1.61</v>
       </c>
@@ -11416,7 +11426,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:9">
       <c r="A348">
         <v>20</v>
       </c>
@@ -11442,7 +11452,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:9">
       <c r="A349">
         <v>14.84</v>
       </c>
@@ -11468,7 +11478,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:9">
       <c r="A350">
         <v>5.6</v>
       </c>
@@ -11494,7 +11504,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:9">
       <c r="A351">
         <v>6.8</v>
       </c>
@@ -11520,7 +11530,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:9">
       <c r="A352">
         <v>7.7</v>
       </c>
@@ -11546,7 +11556,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="353" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:12">
       <c r="A353">
         <v>29.4</v>
       </c>
@@ -11572,7 +11582,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:12">
       <c r="A354">
         <v>0.5</v>
       </c>
@@ -11598,7 +11608,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:12">
       <c r="A355">
         <v>2.2000000000000002</v>
       </c>
@@ -11624,7 +11634,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:12">
       <c r="A356">
         <v>3.5</v>
       </c>
@@ -11650,7 +11660,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="357" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:12">
       <c r="A357">
         <v>4.4000000000000004</v>
       </c>
@@ -11676,7 +11686,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="358" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:12">
       <c r="A358">
         <v>5.7</v>
       </c>
@@ -11702,7 +11712,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="359" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:12">
       <c r="A359">
         <v>7.74</v>
       </c>
@@ -11728,7 +11738,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="360" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:12">
       <c r="A360">
         <v>7</v>
       </c>
@@ -11754,7 +11764,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="361" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:12">
       <c r="A361">
         <v>3.8</v>
       </c>
@@ -11780,7 +11790,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="362" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:12">
       <c r="A362">
         <v>100</v>
       </c>
@@ -11806,7 +11816,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="363" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:12">
       <c r="A363" s="1">
         <v>5</v>
       </c>
@@ -11833,7 +11843,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="364" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:12">
       <c r="A364" s="6">
         <v>2</v>
       </c>
@@ -11862,7 +11872,7 @@
       <c r="K364" s="1"/>
       <c r="L364" s="1"/>
     </row>
-    <row r="365" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:12">
       <c r="A365">
         <v>7</v>
       </c>
@@ -11888,7 +11898,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="366" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:12">
       <c r="A366">
         <v>50</v>
       </c>
@@ -11914,7 +11924,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="367" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:12">
       <c r="A367">
         <v>10</v>
       </c>
@@ -11940,7 +11950,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="368" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:12">
       <c r="A368">
         <v>10.8</v>
       </c>
@@ -11966,7 +11976,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:9">
       <c r="A369">
         <v>10.5</v>
       </c>
@@ -11992,7 +12002,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:9">
       <c r="A370">
         <v>5.5</v>
       </c>
@@ -12018,7 +12028,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:9">
       <c r="A371">
         <v>5</v>
       </c>
@@ -12044,7 +12054,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:9">
       <c r="A372">
         <v>0.5</v>
       </c>
@@ -12070,7 +12080,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:9">
       <c r="A373">
         <v>10.5</v>
       </c>
@@ -12096,7 +12106,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:9">
       <c r="A374">
         <v>14</v>
       </c>
@@ -12122,7 +12132,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:9">
       <c r="A375">
         <v>2</v>
       </c>
@@ -12148,7 +12158,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:9">
       <c r="A376">
         <v>3.5</v>
       </c>
@@ -12174,7 +12184,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:9">
       <c r="A377">
         <v>3.5</v>
       </c>
@@ -12200,7 +12210,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:9">
       <c r="A378">
         <v>3.5</v>
       </c>
@@ -12226,7 +12236,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:9">
       <c r="A379">
         <v>2</v>
       </c>
@@ -12252,7 +12262,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:9">
       <c r="A380">
         <v>2</v>
       </c>
@@ -12278,7 +12288,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:9">
       <c r="A381">
         <v>2.5</v>
       </c>
@@ -12304,7 +12314,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:9">
       <c r="A382">
         <v>6.5</v>
       </c>
@@ -12330,7 +12340,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:9">
       <c r="A383">
         <v>3.78</v>
       </c>
@@ -12356,7 +12366,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:9">
       <c r="A384">
         <v>7</v>
       </c>
@@ -12382,7 +12392,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:9">
       <c r="A385">
         <v>2.5</v>
       </c>
@@ -12408,7 +12418,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:9">
       <c r="A386">
         <v>2</v>
       </c>
@@ -12434,7 +12444,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:9">
       <c r="A387">
         <v>1</v>
       </c>
@@ -12460,7 +12470,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:9">
       <c r="A388">
         <v>10.5</v>
       </c>
@@ -12486,7 +12496,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:9">
       <c r="A389">
         <v>1.5</v>
       </c>
@@ -12512,7 +12522,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:9">
       <c r="A390">
         <v>2.7</v>
       </c>
@@ -12538,7 +12548,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:9">
       <c r="A391">
         <v>2</v>
       </c>
@@ -12564,7 +12574,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:9">
       <c r="A392">
         <v>17.5</v>
       </c>
@@ -12590,7 +12600,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:9">
       <c r="A393">
         <v>43</v>
       </c>
@@ -12616,7 +12626,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:9">
       <c r="A394">
         <v>69.900000000000006</v>
       </c>
@@ -12642,7 +12652,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:9">
       <c r="A395">
         <v>16</v>
       </c>
@@ -12668,7 +12678,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:9">
       <c r="A396">
         <v>2.2000000000000002</v>
       </c>
@@ -12694,7 +12704,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:9">
       <c r="A397">
         <v>1.72</v>
       </c>
@@ -12720,7 +12730,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:9">
       <c r="A398">
         <v>6</v>
       </c>
@@ -12746,7 +12756,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:9">
       <c r="A399">
         <v>1.8</v>
       </c>
@@ -12772,7 +12782,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:9">
       <c r="A400">
         <v>4.5999999999999996</v>
       </c>
@@ -12798,7 +12808,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:9">
       <c r="A401">
         <v>27</v>
       </c>
@@ -12824,7 +12834,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:9">
       <c r="A402">
         <v>14</v>
       </c>
@@ -12850,7 +12860,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:9">
       <c r="A403">
         <v>2.5</v>
       </c>
@@ -12876,7 +12886,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:9">
       <c r="A404">
         <v>10</v>
       </c>
@@ -12902,7 +12912,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:9">
       <c r="A405">
         <v>11</v>
       </c>
@@ -12928,7 +12938,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:9">
       <c r="A406">
         <v>5.55</v>
       </c>
@@ -12954,7 +12964,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:9">
       <c r="A407">
         <v>3</v>
       </c>
@@ -12980,7 +12990,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:9">
       <c r="A408">
         <v>3.5</v>
       </c>
@@ -13006,7 +13016,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:9">
       <c r="A409">
         <v>3.8</v>
       </c>
@@ -13032,7 +13042,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:9">
       <c r="A410">
         <v>4</v>
       </c>
@@ -13058,7 +13068,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:9">
       <c r="A411">
         <v>8</v>
       </c>
@@ -13084,7 +13094,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:9">
       <c r="A412">
         <v>11.6</v>
       </c>
@@ -13110,7 +13120,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:9">
       <c r="A413">
         <v>1.6</v>
       </c>
@@ -13136,7 +13146,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:9">
       <c r="A414">
         <v>44.41</v>
       </c>
@@ -13162,7 +13172,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:9">
       <c r="A415">
         <v>4.8</v>
       </c>
@@ -13188,7 +13198,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:9">
       <c r="A416">
         <v>1.7</v>
       </c>
@@ -13214,7 +13224,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:9">
       <c r="A417">
         <v>2.85</v>
       </c>
@@ -13240,7 +13250,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:9">
       <c r="A418">
         <v>6.4</v>
       </c>
@@ -13266,7 +13276,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:9">
       <c r="A419">
         <v>3.5</v>
       </c>
@@ -13292,7 +13302,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:9">
       <c r="A420">
         <v>6.5</v>
       </c>
@@ -13318,7 +13328,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:9">
       <c r="A421">
         <v>1.2</v>
       </c>
@@ -13344,7 +13354,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:9">
       <c r="A422">
         <v>4.5999999999999996</v>
       </c>
@@ -13370,7 +13380,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:9">
       <c r="A423">
         <v>8</v>
       </c>
@@ -13396,7 +13406,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:9">
       <c r="A424">
         <v>3.5</v>
       </c>
@@ -13422,7 +13432,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:9">
       <c r="A425" s="1">
         <v>50</v>
       </c>
@@ -13449,7 +13459,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:9">
       <c r="A426">
         <v>10</v>
       </c>
@@ -13475,7 +13485,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:9">
       <c r="A427">
         <v>2.9</v>
       </c>
@@ -13501,7 +13511,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:9">
       <c r="A428">
         <v>15</v>
       </c>
@@ -13527,7 +13537,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:9">
       <c r="A429">
         <v>3.5</v>
       </c>
@@ -13553,7 +13563,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:9">
       <c r="A430">
         <v>9.25</v>
       </c>
@@ -13579,7 +13589,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:9">
       <c r="A431">
         <v>8</v>
       </c>
@@ -13605,7 +13615,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="432" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:9">
       <c r="A432">
         <v>4.0999999999999996</v>
       </c>
@@ -13631,7 +13641,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:9">
       <c r="A433">
         <v>4.9000000000000004</v>
       </c>
@@ -13657,7 +13667,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="434" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:9">
       <c r="A434">
         <v>2.8</v>
       </c>
@@ -13683,7 +13693,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="435" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:9">
       <c r="A435">
         <v>18.7</v>
       </c>
@@ -13709,7 +13719,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="436" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:9">
       <c r="A436">
         <v>20</v>
       </c>
@@ -13735,7 +13745,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="437" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:9">
       <c r="A437" s="1">
         <v>150</v>
       </c>
@@ -13762,7 +13772,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="438" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:9">
       <c r="A438" s="1">
         <v>10</v>
       </c>
@@ -13789,7 +13799,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="439" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:9">
       <c r="A439">
         <v>2.1</v>
       </c>
@@ -13815,7 +13825,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="440" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:9">
       <c r="A440">
         <v>5</v>
       </c>
@@ -13841,7 +13851,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="441" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:9">
       <c r="A441">
         <v>10</v>
       </c>
@@ -13867,7 +13877,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="442" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:9">
       <c r="A442">
         <v>59</v>
       </c>
@@ -13893,7 +13903,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="443" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:9">
       <c r="A443">
         <v>4</v>
       </c>
@@ -13919,7 +13929,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="444" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:9">
       <c r="A444">
         <v>4.17</v>
       </c>
@@ -13945,7 +13955,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="445" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:9">
       <c r="A445">
         <v>4.2</v>
       </c>
@@ -13971,7 +13981,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="446" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:9">
       <c r="A446">
         <v>4.4000000000000004</v>
       </c>
@@ -13997,7 +14007,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="447" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:9">
       <c r="A447">
         <v>30</v>
       </c>
@@ -14023,7 +14033,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="448" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:9">
       <c r="A448">
         <v>5</v>
       </c>
@@ -14049,7 +14059,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="449" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:9">
       <c r="A449">
         <v>15.7</v>
       </c>
@@ -14075,7 +14085,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="450" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:9">
       <c r="A450">
         <v>4</v>
       </c>
@@ -14101,7 +14111,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="451" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:9">
       <c r="A451">
         <v>8</v>
       </c>
@@ -14127,7 +14137,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="452" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:9">
       <c r="A452">
         <v>3.5</v>
       </c>
@@ -14153,7 +14163,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:9">
       <c r="A453">
         <v>4.2</v>
       </c>
@@ -14179,7 +14189,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="454" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:9">
       <c r="A454">
         <v>180</v>
       </c>
@@ -14205,7 +14215,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:9">
       <c r="A455">
         <v>2.2999999999999998</v>
       </c>
@@ -14231,7 +14241,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:9">
       <c r="A456">
         <v>11</v>
       </c>
@@ -14257,7 +14267,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="457" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:9">
       <c r="A457">
         <v>2</v>
       </c>
@@ -14283,7 +14293,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="458" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:9">
       <c r="A458">
         <v>3</v>
       </c>
@@ -14309,7 +14319,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="459" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:9">
       <c r="A459">
         <v>6.4</v>
       </c>
@@ -14335,7 +14345,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="460" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:9">
       <c r="A460">
         <v>3.2</v>
       </c>
@@ -14361,7 +14371,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="461" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:9">
       <c r="A461">
         <v>1</v>
       </c>
@@ -14387,7 +14397,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="462" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:9">
       <c r="A462">
         <v>4.2</v>
       </c>
@@ -14413,7 +14423,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="463" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:9">
       <c r="A463">
         <v>14</v>
       </c>
@@ -14439,7 +14449,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="464" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:9">
       <c r="A464">
         <v>2.9</v>
       </c>
@@ -14465,7 +14475,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="465" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:9">
       <c r="A465">
         <v>4</v>
       </c>
@@ -14491,7 +14501,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="466" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:9">
       <c r="A466">
         <v>1.8</v>
       </c>
@@ -14517,7 +14527,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="467" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:9">
       <c r="A467">
         <v>18</v>
       </c>
@@ -14543,7 +14553,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="468" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:9">
       <c r="A468">
         <v>2</v>
       </c>
@@ -14569,7 +14579,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="469" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:9">
       <c r="A469">
         <v>3</v>
       </c>
@@ -14595,7 +14605,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="470" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:9">
       <c r="A470">
         <v>10</v>
       </c>
@@ -14621,7 +14631,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="471" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:9">
       <c r="A471">
         <v>8.3000000000000007</v>
       </c>
@@ -14647,7 +14657,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="472" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:9">
       <c r="A472">
         <v>362</v>
       </c>
@@ -14673,7 +14683,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="473" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:9">
       <c r="A473">
         <v>4.2</v>
       </c>
@@ -14699,7 +14709,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="474" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:9">
       <c r="A474">
         <v>0.5</v>
       </c>
@@ -14725,7 +14735,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="475" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:9">
       <c r="A475">
         <v>1.7</v>
       </c>
@@ -14751,7 +14761,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="476" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:9">
       <c r="A476">
         <v>4.5999999999999996</v>
       </c>
@@ -14777,7 +14787,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="477" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:9">
       <c r="A477">
         <v>4.7</v>
       </c>
@@ -14803,7 +14813,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="478" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:9">
       <c r="A478">
         <v>1</v>
       </c>
@@ -14829,7 +14839,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="479" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:9">
       <c r="A479">
         <v>5.6</v>
       </c>
@@ -14855,7 +14865,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="480" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:9">
       <c r="A480">
         <v>33.799999999999997</v>
       </c>
@@ -14881,7 +14891,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="481" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:9">
       <c r="A481">
         <v>8</v>
       </c>
@@ -14907,7 +14917,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="482" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:9">
       <c r="A482">
         <v>5.2</v>
       </c>
@@ -14933,7 +14943,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="483" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:9">
       <c r="A483">
         <v>5.4</v>
       </c>
@@ -14959,7 +14969,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="484" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:9">
       <c r="A484">
         <v>40</v>
       </c>
@@ -14985,7 +14995,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="485" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:9">
       <c r="A485">
         <v>10.8</v>
       </c>
@@ -15011,7 +15021,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="486" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:9">
       <c r="A486">
         <v>15</v>
       </c>
@@ -15037,7 +15047,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="487" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:9">
       <c r="A487">
         <v>20</v>
       </c>
@@ -15063,7 +15073,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="488" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:9">
       <c r="A488">
         <v>3</v>
       </c>
@@ -15089,7 +15099,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="489" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:9">
       <c r="A489">
         <v>3.5</v>
       </c>
@@ -15115,7 +15125,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="490" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:9">
       <c r="A490">
         <v>2.2000000000000002</v>
       </c>
@@ -15141,7 +15151,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="491" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:9">
       <c r="A491">
         <v>4.5</v>
       </c>
@@ -15167,7 +15177,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="492" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:9">
       <c r="A492">
         <v>4.2</v>
       </c>
@@ -15193,7 +15203,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="493" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:9">
       <c r="A493">
         <v>5</v>
       </c>
@@ -15219,7 +15229,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="494" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:9">
       <c r="A494" s="1">
         <v>27.69</v>
       </c>
@@ -15246,7 +15256,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="495" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:9">
       <c r="A495">
         <v>70</v>
       </c>
@@ -15272,7 +15282,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="496" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:9">
       <c r="A496" s="1">
         <v>2.2999999999999998</v>
       </c>
@@ -15299,7 +15309,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="497" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:9">
       <c r="A497">
         <v>3.2</v>
       </c>
@@ -15325,7 +15335,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="498" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:9">
       <c r="A498">
         <v>3.6</v>
       </c>
@@ -15351,7 +15361,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="499" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:9">
       <c r="A499">
         <v>0.5</v>
       </c>
@@ -15377,7 +15387,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="500" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:9">
       <c r="A500">
         <v>10</v>
       </c>
@@ -15403,7 +15413,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="501" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:9">
       <c r="A501">
         <v>2</v>
       </c>
@@ -15429,7 +15439,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="502" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:9">
       <c r="A502" s="1">
         <v>1.9</v>
       </c>
@@ -15456,7 +15466,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="503" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:9">
       <c r="A503">
         <v>6.6</v>
       </c>
@@ -15482,7 +15492,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="504" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:9">
       <c r="A504">
         <v>1.8</v>
       </c>
@@ -15508,7 +15518,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="505" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:9">
       <c r="A505" s="1">
         <v>0.8</v>
       </c>
@@ -15535,7 +15545,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="506" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:9">
       <c r="A506">
         <v>4.2</v>
       </c>
@@ -15561,7 +15571,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="507" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:9">
       <c r="A507">
         <v>4</v>
       </c>
@@ -15587,7 +15597,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="508" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:9">
       <c r="A508">
         <v>1.2</v>
       </c>
@@ -15613,7 +15623,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="509" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:9">
       <c r="A509">
         <v>5</v>
       </c>
@@ -15639,7 +15649,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="510" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:9">
       <c r="A510">
         <v>3.5</v>
       </c>
@@ -15665,7 +15675,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="511" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:9">
       <c r="A511" s="1">
         <v>1.75</v>
       </c>
@@ -15692,7 +15702,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="512" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:9">
       <c r="A512">
         <v>4.2</v>
       </c>
@@ -15718,7 +15728,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="513" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:9">
       <c r="A513">
         <v>5.6</v>
       </c>
@@ -15744,7 +15754,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="514" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:9">
       <c r="A514">
         <v>3.6</v>
       </c>
@@ -15770,7 +15780,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="515" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:9">
       <c r="A515">
         <v>15.93</v>
       </c>
@@ -15796,7 +15806,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="516" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:9">
       <c r="A516">
         <v>5.98</v>
       </c>
@@ -15822,7 +15832,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="517" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:9">
       <c r="A517">
         <v>5</v>
       </c>
@@ -15848,7 +15858,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="518" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:9">
       <c r="A518">
         <v>4.2</v>
       </c>
@@ -15874,7 +15884,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="519" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:9">
       <c r="A519">
         <v>4.2</v>
       </c>
@@ -15900,7 +15910,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="520" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:9">
       <c r="A520">
         <v>4</v>
       </c>
@@ -15926,7 +15936,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="521" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:9">
       <c r="A521">
         <v>3</v>
       </c>
@@ -15952,7 +15962,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="522" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:9">
       <c r="A522">
         <v>2</v>
       </c>
@@ -15978,7 +15988,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="523" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:9">
       <c r="A523">
         <v>1</v>
       </c>
@@ -16004,7 +16014,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="524" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:9">
       <c r="A524" s="1">
         <v>4.0999999999999996</v>
       </c>
@@ -16031,7 +16041,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="525" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:9">
       <c r="A525">
         <v>78.180000000000007</v>
       </c>
@@ -16057,7 +16067,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="526" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:9">
       <c r="A526">
         <v>5.2</v>
       </c>
@@ -16083,7 +16093,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="527" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:9">
       <c r="A527">
         <v>1.2</v>
       </c>
@@ -16109,7 +16119,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="528" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:9">
       <c r="A528">
         <v>4.5</v>
       </c>
@@ -16135,7 +16145,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="529" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:9">
       <c r="A529">
         <v>3.4</v>
       </c>
@@ -16161,7 +16171,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="530" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:9">
       <c r="A530">
         <v>16</v>
       </c>
@@ -16187,7 +16197,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="531" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:9">
       <c r="A531">
         <v>2.5</v>
       </c>
@@ -16213,7 +16223,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="532" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:9">
       <c r="A532">
         <v>0.8</v>
       </c>
@@ -16239,7 +16249,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="533" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:9">
       <c r="A533">
         <v>2.8</v>
       </c>
@@ -16265,7 +16275,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="534" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:9">
       <c r="A534">
         <v>3.5</v>
       </c>
@@ -16291,7 +16301,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="535" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:9">
       <c r="A535">
         <v>3.6</v>
       </c>
@@ -16317,7 +16327,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="536" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:9">
       <c r="A536">
         <v>6.8</v>
       </c>
@@ -16343,7 +16353,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="537" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:9">
       <c r="A537">
         <v>5</v>
       </c>
@@ -16369,7 +16379,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="538" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:9">
       <c r="A538">
         <v>4.9000000000000004</v>
       </c>
@@ -16395,7 +16405,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="539" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:9">
       <c r="A539">
         <v>80</v>
       </c>
@@ -16421,7 +16431,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="540" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:9">
       <c r="A540">
         <v>55</v>
       </c>
@@ -16447,7 +16457,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="541" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:9">
       <c r="A541">
         <v>10</v>
       </c>
@@ -16473,7 +16483,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="542" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:9">
       <c r="A542">
         <v>1</v>
       </c>
@@ -16499,7 +16509,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="543" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:9">
       <c r="A543" s="1">
         <v>1.65</v>
       </c>
@@ -16526,7 +16536,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="544" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:9">
       <c r="A544" s="1">
         <v>4.5</v>
       </c>
@@ -16553,7 +16563,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="545" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:9">
       <c r="A545">
         <v>4.8</v>
       </c>
@@ -16580,7 +16590,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="546" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:9">
       <c r="A546" s="1">
         <v>9.5</v>
       </c>
@@ -16607,7 +16617,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="547" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:9">
       <c r="A547">
         <v>10</v>
       </c>
@@ -16633,7 +16643,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="548" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:9">
       <c r="A548">
         <v>4.8</v>
       </c>
@@ -16659,7 +16669,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="549" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:9">
       <c r="A549">
         <v>6.1</v>
       </c>
@@ -16685,7 +16695,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="550" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:9">
       <c r="A550">
         <v>4.8</v>
       </c>
@@ -16711,7 +16721,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="551" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:9">
       <c r="A551">
         <v>4.7300000000000004</v>
       </c>
@@ -16737,7 +16747,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="552" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:9">
       <c r="A552">
         <v>2.6</v>
       </c>
@@ -16763,7 +16773,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="553" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:9">
       <c r="A553">
         <v>3.7</v>
       </c>
@@ -16789,7 +16799,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="554" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:9">
       <c r="A554">
         <v>120</v>
       </c>
@@ -16815,7 +16825,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="555" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:9">
       <c r="A555">
         <v>6.8</v>
       </c>
@@ -16841,7 +16851,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="556" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:9">
       <c r="A556">
         <v>5</v>
       </c>
@@ -16867,7 +16877,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="557" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:9">
       <c r="A557">
         <v>3.8</v>
       </c>
@@ -16893,7 +16903,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="558" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:9">
       <c r="A558">
         <v>3.9</v>
       </c>
@@ -16919,7 +16929,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="559" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:9">
       <c r="A559">
         <v>2.7</v>
       </c>
@@ -16945,7 +16955,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="560" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:9">
       <c r="A560">
         <v>1</v>
       </c>
@@ -16971,7 +16981,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="561" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:9">
       <c r="A561">
         <v>1</v>
       </c>
@@ -16997,7 +17007,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="562" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:9">
       <c r="A562">
         <v>3.5</v>
       </c>
@@ -17023,7 +17033,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="563" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:9">
       <c r="A563">
         <v>7.1</v>
       </c>
@@ -17049,7 +17059,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="564" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:9">
       <c r="A564">
         <v>49.98</v>
       </c>
@@ -17075,7 +17085,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="565" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:9">
       <c r="A565">
         <v>4.74</v>
       </c>
@@ -17101,7 +17111,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="566" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:9">
       <c r="A566">
         <v>6.2</v>
       </c>
@@ -17127,7 +17137,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="567" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:9">
       <c r="A567">
         <v>3.17</v>
       </c>
@@ -17153,7 +17163,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="568" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:9">
       <c r="A568">
         <v>4.1500000000000004</v>
       </c>
@@ -17179,7 +17189,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="569" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:9">
       <c r="A569">
         <v>1.8</v>
       </c>
@@ -17205,7 +17215,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="570" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:9">
       <c r="A570">
         <v>7</v>
       </c>
@@ -17231,7 +17241,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="571" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:9">
       <c r="A571">
         <v>8</v>
       </c>
@@ -17257,7 +17267,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="572" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:9">
       <c r="A572">
         <v>2.2999999999999998</v>
       </c>
@@ -17283,7 +17293,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="573" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:9">
       <c r="A573">
         <v>1.2</v>
       </c>
@@ -17309,7 +17319,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="574" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:9">
       <c r="A574">
         <v>5.0999999999999996</v>
       </c>
@@ -17335,7 +17345,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="575" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:9">
       <c r="A575">
         <v>4</v>
       </c>
@@ -17361,7 +17371,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="576" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:9">
       <c r="A576">
         <v>4</v>
       </c>
@@ -17387,7 +17397,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="577" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:9">
       <c r="A577">
         <v>4.5999999999999996</v>
       </c>
@@ -17413,7 +17423,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="578" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:9">
       <c r="A578">
         <v>4.5999999999999996</v>
       </c>
@@ -17439,7 +17449,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="579" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:9">
       <c r="A579">
         <v>4.5999999999999996</v>
       </c>
@@ -17465,7 +17475,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="580" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:9">
       <c r="A580">
         <v>2.9</v>
       </c>
@@ -17491,7 +17501,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="581" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:9">
       <c r="A581">
         <v>11.6</v>
       </c>
@@ -17517,7 +17527,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="582" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:9">
       <c r="A582">
         <v>0.75</v>
       </c>
@@ -17543,7 +17553,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="583" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:9">
       <c r="A583">
         <v>2</v>
       </c>
@@ -17569,7 +17579,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="584" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:9">
       <c r="A584">
         <v>10</v>
       </c>
@@ -17595,7 +17605,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="585" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:9">
       <c r="A585">
         <v>3.3</v>
       </c>
@@ -17621,7 +17631,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="586" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:9">
       <c r="A586">
         <v>4.4000000000000004</v>
       </c>
@@ -17647,7 +17657,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="587" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:9">
       <c r="A587">
         <v>3</v>
       </c>
@@ -17673,7 +17683,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="588" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:9">
       <c r="A588">
         <v>8.6999999999999993</v>
       </c>
@@ -17699,7 +17709,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="589" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:9">
       <c r="A589">
         <v>3</v>
       </c>
@@ -17725,7 +17735,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="590" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:9">
       <c r="A590">
         <v>15</v>
       </c>
@@ -17751,7 +17761,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="591" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:9">
       <c r="A591">
         <v>5</v>
       </c>
@@ -17777,7 +17787,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="592" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:9">
       <c r="A592">
         <v>3.9</v>
       </c>
@@ -17803,7 +17813,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="593" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:9">
       <c r="A593">
         <v>2.85</v>
       </c>
@@ -17829,7 +17839,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="594" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:9">
       <c r="A594">
         <v>3</v>
       </c>
@@ -17855,7 +17865,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="595" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:9">
       <c r="A595">
         <v>4.4000000000000004</v>
       </c>
@@ -17881,7 +17891,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="596" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:9">
       <c r="A596">
         <v>3</v>
       </c>
@@ -17907,7 +17917,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="597" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:9">
       <c r="A597">
         <v>3</v>
       </c>
@@ -17933,7 +17943,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="598" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:9">
       <c r="A598">
         <v>3</v>
       </c>
@@ -17959,7 +17969,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="599" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:9">
       <c r="A599">
         <v>4</v>
       </c>
@@ -17985,7 +17995,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="600" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:9">
       <c r="A600">
         <v>5</v>
       </c>
@@ -18011,7 +18021,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="601" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:9">
       <c r="A601">
         <v>4</v>
       </c>
@@ -18037,7 +18047,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="602" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:9">
       <c r="A602">
         <v>3</v>
       </c>
@@ -18063,7 +18073,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="603" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:9">
       <c r="A603">
         <v>12</v>
       </c>
@@ -18089,7 +18099,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="604" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:9">
       <c r="A604">
         <v>3</v>
       </c>
@@ -18115,7 +18125,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="605" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:9">
       <c r="A605">
         <v>6</v>
       </c>
@@ -18141,7 +18151,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="606" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:9">
       <c r="A606">
         <v>5</v>
       </c>
@@ -18167,7 +18177,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="607" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:9">
       <c r="A607">
         <v>10</v>
       </c>
@@ -18193,7 +18203,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="608" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:9">
       <c r="A608">
         <v>19</v>
       </c>
@@ -18219,7 +18229,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="609" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:9">
       <c r="A609">
         <v>5.55</v>
       </c>
@@ -18245,7 +18255,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="610" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:9">
       <c r="A610">
         <v>0.9</v>
       </c>
@@ -18271,7 +18281,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="611" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:9">
       <c r="A611">
         <v>10.7</v>
       </c>
@@ -18297,7 +18307,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="612" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:9">
       <c r="A612" s="1">
         <v>9</v>
       </c>
@@ -18324,7 +18334,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="613" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:9">
       <c r="A613">
         <v>1.2</v>
       </c>
@@ -18350,7 +18360,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="614" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:9">
       <c r="A614">
         <v>5.3</v>
       </c>
@@ -18376,7 +18386,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="615" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:9">
       <c r="A615">
         <v>11.5</v>
       </c>
@@ -18402,7 +18412,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="616" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:9">
       <c r="A616">
         <v>4</v>
       </c>
@@ -18428,7 +18438,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="617" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:9">
       <c r="A617">
         <v>1</v>
       </c>
@@ -18454,7 +18464,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="618" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:9">
       <c r="A618">
         <v>1.2</v>
       </c>
@@ -18480,7 +18490,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="619" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:9">
       <c r="A619">
         <v>15</v>
       </c>
@@ -18506,7 +18516,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="620" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:9">
       <c r="A620">
         <v>100</v>
       </c>
@@ -18532,7 +18542,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="621" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:9">
       <c r="A621">
         <v>52</v>
       </c>
@@ -18558,7 +18568,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="622" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:9">
       <c r="A622">
         <v>80</v>
       </c>
@@ -18584,7 +18594,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="623" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:9">
       <c r="A623">
         <v>9</v>
       </c>
@@ -18610,7 +18620,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="624" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:9">
       <c r="A624">
         <v>8</v>
       </c>
@@ -18636,7 +18646,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="625" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:9">
       <c r="A625">
         <v>10</v>
       </c>
@@ -18662,7 +18672,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="626" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:9">
       <c r="A626">
         <v>3.5</v>
       </c>
@@ -18688,7 +18698,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="627" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:9">
       <c r="A627">
         <v>60</v>
       </c>
@@ -18714,7 +18724,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="628" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:9">
       <c r="A628">
         <v>10</v>
       </c>
@@ -18740,7 +18750,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="629" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:9">
       <c r="A629">
         <v>4.4000000000000004</v>
       </c>
@@ -18766,7 +18776,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="630" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:9">
       <c r="A630">
         <v>5</v>
       </c>
@@ -18792,7 +18802,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="631" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:9">
       <c r="A631">
         <v>3.6</v>
       </c>
@@ -18818,7 +18828,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="632" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:9">
       <c r="A632">
         <v>4.7</v>
       </c>
@@ -18844,7 +18854,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="633" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:9">
       <c r="A633">
         <v>4.7</v>
       </c>
@@ -18870,7 +18880,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="634" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:9">
       <c r="A634">
         <v>3.7</v>
       </c>
@@ -18896,7 +18906,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="635" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:9">
       <c r="A635">
         <v>10</v>
       </c>
@@ -18922,7 +18932,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="636" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:9">
       <c r="A636">
         <v>8.43</v>
       </c>
@@ -18948,7 +18958,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="637" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:9">
       <c r="A637">
         <v>7.6</v>
       </c>
@@ -18974,7 +18984,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="638" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:9">
       <c r="A638">
         <v>2</v>
       </c>
@@ -19000,7 +19010,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="639" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:9">
       <c r="A639">
         <v>4</v>
       </c>
@@ -19026,7 +19036,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="640" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:9">
       <c r="A640">
         <v>5</v>
       </c>
@@ -19052,7 +19062,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="641" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:9">
       <c r="A641">
         <v>1.3</v>
       </c>
@@ -19078,7 +19088,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="642" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:9">
       <c r="A642">
         <v>1</v>
       </c>
@@ -19104,7 +19114,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="643" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:9">
       <c r="A643">
         <v>13.65</v>
       </c>
@@ -19130,7 +19140,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="644" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:9">
       <c r="A644">
         <v>7.4</v>
       </c>
@@ -19156,7 +19166,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="645" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:9">
       <c r="A645">
         <v>39.99</v>
       </c>
@@ -19182,7 +19192,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="646" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:9">
       <c r="A646">
         <v>9</v>
       </c>
@@ -19208,7 +19218,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="647" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:9">
       <c r="A647">
         <v>1</v>
       </c>
@@ -19234,7 +19244,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="648" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:9">
       <c r="A648">
         <v>6.9</v>
       </c>
@@ -19260,7 +19270,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="649" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:9">
       <c r="A649">
         <v>3.6</v>
       </c>
@@ -19286,7 +19296,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="650" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:9">
       <c r="A650">
         <v>7.96</v>
       </c>
@@ -19312,7 +19322,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="651" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:9">
       <c r="A651">
         <v>5</v>
       </c>
@@ -19338,7 +19348,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="652" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:9">
       <c r="A652">
         <v>2.5</v>
       </c>
@@ -19364,7 +19374,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="653" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:9">
       <c r="A653">
         <v>7.65</v>
       </c>
@@ -19390,7 +19400,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="654" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:9">
       <c r="A654">
         <v>4</v>
       </c>
@@ -19416,7 +19426,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="655" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:9">
       <c r="A655">
         <v>5.7</v>
       </c>
@@ -19442,7 +19452,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="656" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:9">
       <c r="A656">
         <v>1.9</v>
       </c>
@@ -19468,7 +19478,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="657" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:9">
       <c r="A657">
         <v>5.9</v>
       </c>
@@ -19494,7 +19504,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="658" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:9">
       <c r="A658">
         <v>5.6</v>
       </c>
@@ -19518,6 +19528,112 @@
       </c>
       <c r="I658">
         <v>656</v>
+      </c>
+    </row>
+    <row r="659" spans="1:9">
+      <c r="A659" s="1">
+        <v>14</v>
+      </c>
+      <c r="B659" t="s">
+        <v>217</v>
+      </c>
+      <c r="C659" s="2">
+        <v>43455</v>
+      </c>
+      <c r="D659" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="E659" t="s">
+        <v>232</v>
+      </c>
+      <c r="F659">
+        <v>5</v>
+      </c>
+      <c r="G659" s="1"/>
+      <c r="H659" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="I659">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="660" spans="1:9">
+      <c r="A660">
+        <v>4.5</v>
+      </c>
+      <c r="B660" t="s">
+        <v>217</v>
+      </c>
+      <c r="C660" s="2">
+        <v>43456</v>
+      </c>
+      <c r="D660" t="s">
+        <v>634</v>
+      </c>
+      <c r="E660" t="s">
+        <v>232</v>
+      </c>
+      <c r="F660">
+        <v>5</v>
+      </c>
+      <c r="H660" t="s">
+        <v>234</v>
+      </c>
+      <c r="I660">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="661" spans="1:9">
+      <c r="A661">
+        <v>5</v>
+      </c>
+      <c r="B661" t="s">
+        <v>337</v>
+      </c>
+      <c r="C661" s="2">
+        <v>43456</v>
+      </c>
+      <c r="D661" t="s">
+        <v>635</v>
+      </c>
+      <c r="E661" t="s">
+        <v>232</v>
+      </c>
+      <c r="F661">
+        <v>5</v>
+      </c>
+      <c r="H661" t="s">
+        <v>238</v>
+      </c>
+      <c r="I661">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="662" spans="1:9">
+      <c r="A662" s="1">
+        <v>699</v>
+      </c>
+      <c r="B662" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C662" s="7">
+        <v>43457</v>
+      </c>
+      <c r="D662" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="E662" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F662" s="1">
+        <v>4</v>
+      </c>
+      <c r="G662" s="1"/>
+      <c r="H662" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="I662">
+        <v>660</v>
       </c>
     </row>
   </sheetData>

--- a/DataBase/costs.xlsx
+++ b/DataBase/costs.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="45" windowWidth="18975" windowHeight="11760"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2659" uniqueCount="637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2667" uniqueCount="639">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1924,18 +1924,24 @@
     <t>εισητήρια για χαντμπολ</t>
   </si>
   <si>
-    <t>καμερα sony a6000 (+ ακουστικά Γιάννη)</t>
+    <t>καμερα sony a6000 με φακό 55-210mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+ ακουστικά Γιάννη)</t>
+  </si>
+  <si>
+    <t>σαλάτα χωριάτικη μισή μισή με Τσιρογιάννη</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1976,7 +1982,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
     <dxf>
@@ -2068,7 +2074,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:I662" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:I664" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="9">
     <tableColumn id="1" name="amount" headerRowDxfId="9" totalsRowDxfId="8"/>
     <tableColumn id="11" name="type" totalsRowDxfId="7"/>
@@ -2085,7 +2091,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2127,7 +2133,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2159,9 +2165,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2193,6 +2200,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2368,14 +2376,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L662"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L664"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A643" workbookViewId="0">
-      <selection activeCell="J651" sqref="J651"/>
+      <selection activeCell="F666" sqref="F666"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.28515625" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
@@ -2391,7 +2399,7 @@
     <col min="12" max="12" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>227</v>
       </c>
@@ -2423,7 +2431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>476</v>
       </c>
@@ -2452,7 +2460,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>20</v>
       </c>
@@ -2479,7 +2487,7 @@
       </c>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>10</v>
       </c>
@@ -2505,7 +2513,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>100</v>
       </c>
@@ -2531,7 +2539,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>10</v>
       </c>
@@ -2557,7 +2565,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>50</v>
       </c>
@@ -2583,7 +2591,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>3.2</v>
       </c>
@@ -2609,7 +2617,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>1.3</v>
       </c>
@@ -2635,7 +2643,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>1.2</v>
       </c>
@@ -2661,7 +2669,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>5</v>
       </c>
@@ -2687,7 +2695,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>4.5</v>
       </c>
@@ -2713,7 +2721,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>4</v>
       </c>
@@ -2739,7 +2747,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>10.6</v>
       </c>
@@ -2765,7 +2773,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>1.8</v>
       </c>
@@ -2791,7 +2799,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>5.15</v>
       </c>
@@ -2817,7 +2825,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>18</v>
       </c>
@@ -2843,7 +2851,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>1.5</v>
       </c>
@@ -2869,7 +2877,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>7.8</v>
       </c>
@@ -2895,7 +2903,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>4.4400000000000004</v>
       </c>
@@ -2921,7 +2929,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>1.5</v>
       </c>
@@ -2947,7 +2955,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>8.84</v>
       </c>
@@ -2973,7 +2981,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>4</v>
       </c>
@@ -2999,7 +3007,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>10</v>
       </c>
@@ -3025,7 +3033,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>1.8</v>
       </c>
@@ -3051,7 +3059,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>11.8</v>
       </c>
@@ -3077,7 +3085,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>40</v>
       </c>
@@ -3103,7 +3111,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>2.9</v>
       </c>
@@ -3129,7 +3137,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>4.3</v>
       </c>
@@ -3155,7 +3163,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>3.35</v>
       </c>
@@ -3181,7 +3189,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>5.2</v>
       </c>
@@ -3207,7 +3215,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>15</v>
       </c>
@@ -3233,7 +3241,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>3.9</v>
       </c>
@@ -3259,7 +3267,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>63.45</v>
       </c>
@@ -3285,7 +3293,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>49.9</v>
       </c>
@@ -3311,7 +3319,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>140</v>
       </c>
@@ -3337,7 +3345,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>1.8</v>
       </c>
@@ -3363,7 +3371,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>13.02</v>
       </c>
@@ -3389,7 +3397,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>4.7</v>
       </c>
@@ -3415,7 +3423,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>15.96</v>
       </c>
@@ -3441,7 +3449,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>9.8000000000000007</v>
       </c>
@@ -3467,7 +3475,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>79.8</v>
       </c>
@@ -3493,7 +3501,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>11.9</v>
       </c>
@@ -3519,7 +3527,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>38.880000000000003</v>
       </c>
@@ -3545,7 +3553,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>7.75</v>
       </c>
@@ -3571,7 +3579,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>0.79</v>
       </c>
@@ -3597,7 +3605,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>10</v>
       </c>
@@ -3623,7 +3631,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -3649,7 +3657,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -3675,7 +3683,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>1.8</v>
       </c>
@@ -3701,7 +3709,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>24</v>
       </c>
@@ -3727,7 +3735,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>24</v>
       </c>
@@ -3753,7 +3761,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>1.8</v>
       </c>
@@ -3779,7 +3787,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>3.5</v>
       </c>
@@ -3805,7 +3813,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>5.6</v>
       </c>
@@ -3832,7 +3840,7 @@
       </c>
       <c r="K55" s="4"/>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>1.5</v>
       </c>
@@ -3858,7 +3866,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>3</v>
       </c>
@@ -3884,7 +3892,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>5.4</v>
       </c>
@@ -3910,7 +3918,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>8</v>
       </c>
@@ -3936,7 +3944,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>5.4</v>
       </c>
@@ -3962,7 +3970,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>0.6</v>
       </c>
@@ -3988,7 +3996,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -4014,7 +4022,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>1.5</v>
       </c>
@@ -4040,7 +4048,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -4066,7 +4074,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>1.2</v>
       </c>
@@ -4092,7 +4100,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>5.0999999999999996</v>
       </c>
@@ -4118,7 +4126,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>13.5</v>
       </c>
@@ -4144,7 +4152,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>3.5</v>
       </c>
@@ -4171,7 +4179,7 @@
       </c>
       <c r="K68" s="4"/>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>4.0999999999999996</v>
       </c>
@@ -4197,7 +4205,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>90</v>
       </c>
@@ -4223,7 +4231,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>65.5</v>
       </c>
@@ -4249,7 +4257,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>4.5</v>
       </c>
@@ -4275,7 +4283,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>10</v>
       </c>
@@ -4301,7 +4309,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>18.8</v>
       </c>
@@ -4327,7 +4335,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>1.8</v>
       </c>
@@ -4354,7 +4362,7 @@
       </c>
       <c r="K75" s="4"/>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>5.5</v>
       </c>
@@ -4380,7 +4388,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -4406,7 +4414,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>3</v>
       </c>
@@ -4432,7 +4440,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>2</v>
       </c>
@@ -4458,7 +4466,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <v>9.9</v>
       </c>
@@ -4484,7 +4492,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <v>6.5</v>
       </c>
@@ -4510,7 +4518,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>79.8</v>
       </c>
@@ -4536,7 +4544,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>10</v>
       </c>
@@ -4562,7 +4570,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>2.5</v>
       </c>
@@ -4588,7 +4596,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <v>5</v>
       </c>
@@ -4614,7 +4622,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <v>1.6</v>
       </c>
@@ -4640,7 +4648,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <v>5.5</v>
       </c>
@@ -4666,7 +4674,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>0.8</v>
       </c>
@@ -4692,7 +4700,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <v>17</v>
       </c>
@@ -4718,7 +4726,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <v>24.9</v>
       </c>
@@ -4744,7 +4752,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <v>1.8</v>
       </c>
@@ -4770,7 +4778,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <v>44.99</v>
       </c>
@@ -4796,7 +4804,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <v>4</v>
       </c>
@@ -4822,7 +4830,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <v>5</v>
       </c>
@@ -4848,7 +4856,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
         <v>5</v>
       </c>
@@ -4874,7 +4882,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -4900,7 +4908,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
         <v>3</v>
       </c>
@@ -4926,7 +4934,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <v>6</v>
       </c>
@@ -4952,7 +4960,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
         <v>3.5</v>
       </c>
@@ -4978,7 +4986,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
         <v>34.9</v>
       </c>
@@ -5004,7 +5012,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
         <v>12</v>
       </c>
@@ -5030,7 +5038,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
         <v>5</v>
       </c>
@@ -5056,7 +5064,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
         <v>6.9</v>
       </c>
@@ -5082,7 +5090,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
         <v>6.04</v>
       </c>
@@ -5108,7 +5116,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
         <v>4.8</v>
       </c>
@@ -5134,7 +5142,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
         <v>9.6999999999999993</v>
       </c>
@@ -5160,7 +5168,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
         <v>5.5</v>
       </c>
@@ -5186,7 +5194,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="108" spans="1:9">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
         <v>7</v>
       </c>
@@ -5212,7 +5220,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="109" spans="1:9">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
         <v>1</v>
       </c>
@@ -5238,7 +5246,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="110" spans="1:9">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
         <v>4</v>
       </c>
@@ -5264,7 +5272,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="111" spans="1:9">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
         <v>4.0999999999999996</v>
       </c>
@@ -5290,7 +5298,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="112" spans="1:9">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
         <v>2.3199999999999998</v>
       </c>
@@ -5316,7 +5324,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="113" spans="1:9">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
         <v>8</v>
       </c>
@@ -5342,7 +5350,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="114" spans="1:9">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
         <v>12.5</v>
       </c>
@@ -5368,7 +5376,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="115" spans="1:9">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
         <v>0.7</v>
       </c>
@@ -5394,7 +5402,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="116" spans="1:9">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
         <v>6.3</v>
       </c>
@@ -5420,7 +5428,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="117" spans="1:9">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
         <v>8</v>
       </c>
@@ -5446,7 +5454,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="118" spans="1:9">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
         <v>5.0999999999999996</v>
       </c>
@@ -5472,7 +5480,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="119" spans="1:9">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
         <v>8</v>
       </c>
@@ -5498,7 +5506,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="120" spans="1:9">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
         <v>4.5</v>
       </c>
@@ -5524,7 +5532,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="121" spans="1:9">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="4">
         <v>2.5</v>
       </c>
@@ -5550,7 +5558,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="122" spans="1:9">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="4">
         <v>24.3</v>
       </c>
@@ -5576,7 +5584,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="123" spans="1:9">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="4">
         <v>2</v>
       </c>
@@ -5602,7 +5610,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="124" spans="1:9">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="4">
         <v>16</v>
       </c>
@@ -5628,7 +5636,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="125" spans="1:9">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
         <v>6</v>
       </c>
@@ -5654,7 +5662,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="126" spans="1:9">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="4">
         <v>5</v>
       </c>
@@ -5680,7 +5688,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="127" spans="1:9">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
         <v>6.52</v>
       </c>
@@ -5706,7 +5714,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="128" spans="1:9">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="4">
         <v>1.8</v>
       </c>
@@ -5732,7 +5740,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="129" spans="1:9">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="4">
         <v>1</v>
       </c>
@@ -5758,7 +5766,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="130" spans="1:9">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="4">
         <v>5</v>
       </c>
@@ -5784,7 +5792,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="131" spans="1:9">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="4">
         <v>43</v>
       </c>
@@ -5810,7 +5818,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="132" spans="1:9">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="4">
         <v>10</v>
       </c>
@@ -5836,7 +5844,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="133" spans="1:9">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="4">
         <v>2.97</v>
       </c>
@@ -5862,7 +5870,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="134" spans="1:9">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="4">
         <v>10</v>
       </c>
@@ -5888,7 +5896,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="135" spans="1:9">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
         <v>1.6</v>
       </c>
@@ -5914,7 +5922,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="136" spans="1:9">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="4">
         <v>1.5</v>
       </c>
@@ -5940,7 +5948,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="137" spans="1:9">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="4">
         <v>1.8</v>
       </c>
@@ -5966,7 +5974,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="138" spans="1:9">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="4">
         <v>7.3</v>
       </c>
@@ -5992,7 +6000,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="139" spans="1:9">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="4">
         <v>4</v>
       </c>
@@ -6018,7 +6026,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="140" spans="1:9">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="4">
         <v>2.1</v>
       </c>
@@ -6044,7 +6052,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="141" spans="1:9">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
         <v>4.2</v>
       </c>
@@ -6070,7 +6078,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="142" spans="1:9">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="4">
         <v>9</v>
       </c>
@@ -6096,7 +6104,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="143" spans="1:9">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="4">
         <v>1</v>
       </c>
@@ -6122,7 +6130,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="144" spans="1:9">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="4">
         <v>3.5</v>
       </c>
@@ -6148,7 +6156,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="145" spans="1:9">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="4">
         <v>5.0999999999999996</v>
       </c>
@@ -6174,7 +6182,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="146" spans="1:9">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="4">
         <v>3</v>
       </c>
@@ -6200,7 +6208,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="147" spans="1:9">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="4">
         <v>2</v>
       </c>
@@ -6226,7 +6234,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="148" spans="1:9">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="4">
         <v>150</v>
       </c>
@@ -6252,7 +6260,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="149" spans="1:9">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="4">
         <v>7</v>
       </c>
@@ -6278,7 +6286,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="150" spans="1:9">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="4">
         <v>5</v>
       </c>
@@ -6304,7 +6312,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="151" spans="1:9">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="4">
         <v>8</v>
       </c>
@@ -6330,7 +6338,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="152" spans="1:9">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="4">
         <v>3.5</v>
       </c>
@@ -6356,7 +6364,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="153" spans="1:9">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="4">
         <v>55</v>
       </c>
@@ -6382,7 +6390,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="154" spans="1:9">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="4">
         <v>0.6</v>
       </c>
@@ -6408,7 +6416,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="155" spans="1:9">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="4">
         <v>4</v>
       </c>
@@ -6434,7 +6442,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="156" spans="1:9">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="4">
         <v>39.9</v>
       </c>
@@ -6460,7 +6468,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="157" spans="1:9">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="4">
         <v>1.6</v>
       </c>
@@ -6486,7 +6494,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="158" spans="1:9">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="4">
         <v>80</v>
       </c>
@@ -6512,7 +6520,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="159" spans="1:9">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="4">
         <v>6.2</v>
       </c>
@@ -6538,7 +6546,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="160" spans="1:9">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="4">
         <v>15</v>
       </c>
@@ -6564,7 +6572,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="161" spans="1:9">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" s="4">
         <v>4.3</v>
       </c>
@@ -6590,7 +6598,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="162" spans="1:9">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="4">
         <v>9.6999999999999993</v>
       </c>
@@ -6616,7 +6624,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="163" spans="1:9">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" s="4">
         <v>2.4500000000000002</v>
       </c>
@@ -6642,7 +6650,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="164" spans="1:9">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="4">
         <v>1.96</v>
       </c>
@@ -6668,7 +6676,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="165" spans="1:9">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="4">
         <v>11.5</v>
       </c>
@@ -6694,7 +6702,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="166" spans="1:9">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" s="4">
         <v>2.7</v>
       </c>
@@ -6720,7 +6728,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="167" spans="1:9">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="4">
         <v>2.7</v>
       </c>
@@ -6746,7 +6754,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="168" spans="1:9">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" s="4">
         <v>7</v>
       </c>
@@ -6772,7 +6780,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="169" spans="1:9">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" s="4">
         <v>4.8</v>
       </c>
@@ -6798,7 +6806,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="170" spans="1:9">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="4">
         <v>4.4000000000000004</v>
       </c>
@@ -6824,7 +6832,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="171" spans="1:9">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" s="4">
         <v>3.8</v>
       </c>
@@ -6850,7 +6858,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="172" spans="1:9">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="4">
         <v>1.5</v>
       </c>
@@ -6876,7 +6884,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="173" spans="1:9">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" s="4">
         <v>11.5</v>
       </c>
@@ -6902,7 +6910,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="174" spans="1:9">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" s="4">
         <v>4.4000000000000004</v>
       </c>
@@ -6928,7 +6936,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="175" spans="1:9">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" s="4">
         <v>6.5</v>
       </c>
@@ -6954,7 +6962,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="176" spans="1:9">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" s="4">
         <v>6.5</v>
       </c>
@@ -6980,7 +6988,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="177" spans="1:9">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" s="4">
         <v>5</v>
       </c>
@@ -7006,7 +7014,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="178" spans="1:9">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" s="4">
         <v>6</v>
       </c>
@@ -7032,7 +7040,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="179" spans="1:9">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" s="4">
         <v>8</v>
       </c>
@@ -7058,7 +7066,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="180" spans="1:9">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" s="4">
         <v>3.2</v>
       </c>
@@ -7084,7 +7092,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="181" spans="1:9">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" s="4">
         <v>10</v>
       </c>
@@ -7110,7 +7118,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="182" spans="1:9">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" s="4">
         <v>3</v>
       </c>
@@ -7136,7 +7144,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="183" spans="1:9">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" s="4">
         <v>10</v>
       </c>
@@ -7162,7 +7170,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="184" spans="1:9">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" s="4">
         <v>3.5</v>
       </c>
@@ -7188,7 +7196,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="185" spans="1:9">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" s="4">
         <v>10</v>
       </c>
@@ -7214,7 +7222,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="186" spans="1:9">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" s="4">
         <v>8</v>
       </c>
@@ -7240,7 +7248,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="187" spans="1:9">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" s="4">
         <v>6.2</v>
       </c>
@@ -7266,7 +7274,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="188" spans="1:9">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" s="4">
         <v>2</v>
       </c>
@@ -7292,7 +7300,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="189" spans="1:9">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" s="4">
         <v>10</v>
       </c>
@@ -7318,7 +7326,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="190" spans="1:9">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" s="4">
         <v>22</v>
       </c>
@@ -7344,7 +7352,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="191" spans="1:9">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" s="4">
         <v>14</v>
       </c>
@@ -7370,7 +7378,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="192" spans="1:9">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" s="4">
         <v>14</v>
       </c>
@@ -7396,7 +7404,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="193" spans="1:9">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" s="4">
         <v>4.7</v>
       </c>
@@ -7422,7 +7430,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="194" spans="1:9">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" s="4">
         <v>69.900000000000006</v>
       </c>
@@ -7448,7 +7456,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="195" spans="1:9">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" s="4">
         <v>8.4</v>
       </c>
@@ -7474,7 +7482,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="196" spans="1:9">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" s="4">
         <v>5</v>
       </c>
@@ -7500,7 +7508,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="197" spans="1:9">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" s="4">
         <v>4.5</v>
       </c>
@@ -7526,7 +7534,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="198" spans="1:9">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" s="4">
         <v>6</v>
       </c>
@@ -7552,7 +7560,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="199" spans="1:9">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" s="4">
         <v>5.46</v>
       </c>
@@ -7578,7 +7586,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="200" spans="1:9">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" s="4">
         <v>78.849999999999994</v>
       </c>
@@ -7604,7 +7612,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="201" spans="1:9">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" s="4">
         <v>10</v>
       </c>
@@ -7630,7 +7638,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="202" spans="1:9">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" s="4">
         <v>10</v>
       </c>
@@ -7656,7 +7664,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="203" spans="1:9">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" s="4">
         <v>26</v>
       </c>
@@ -7682,7 +7690,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="204" spans="1:9">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" s="4">
         <v>2</v>
       </c>
@@ -7708,7 +7716,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="205" spans="1:9">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" s="4">
         <v>2.5</v>
       </c>
@@ -7734,7 +7742,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="206" spans="1:9">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" s="4">
         <v>5.9</v>
       </c>
@@ -7760,7 +7768,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="207" spans="1:9">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" s="4">
         <v>8.6</v>
       </c>
@@ -7786,7 +7794,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="208" spans="1:9">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" s="4">
         <v>2.7</v>
       </c>
@@ -7812,7 +7820,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="209" spans="1:9">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" s="4">
         <v>4.8</v>
       </c>
@@ -7838,7 +7846,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="210" spans="1:9">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" s="4">
         <v>2.8</v>
       </c>
@@ -7864,7 +7872,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="211" spans="1:9">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" s="4">
         <v>2</v>
       </c>
@@ -7890,7 +7898,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="212" spans="1:9">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" s="4">
         <v>5</v>
       </c>
@@ -7916,7 +7924,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="213" spans="1:9">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" s="4">
         <v>2.5</v>
       </c>
@@ -7942,7 +7950,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="214" spans="1:9">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" s="4">
         <v>3.5</v>
       </c>
@@ -7968,7 +7976,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="215" spans="1:9">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" s="4">
         <v>1.8</v>
       </c>
@@ -7994,7 +8002,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="216" spans="1:9">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" s="4">
         <v>4</v>
       </c>
@@ -8020,7 +8028,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="217" spans="1:9">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" s="4">
         <v>6</v>
       </c>
@@ -8046,7 +8054,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="218" spans="1:9">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" s="4">
         <v>1.8</v>
       </c>
@@ -8072,7 +8080,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="219" spans="1:9">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" s="4">
         <v>5</v>
       </c>
@@ -8098,7 +8106,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="220" spans="1:9">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" s="4">
         <v>5</v>
       </c>
@@ -8124,7 +8132,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="221" spans="1:9">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" s="4">
         <v>4.7</v>
       </c>
@@ -8150,7 +8158,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="222" spans="1:9">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" s="4">
         <v>5</v>
       </c>
@@ -8176,7 +8184,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="223" spans="1:9">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" s="4">
         <v>10</v>
       </c>
@@ -8202,7 +8210,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="224" spans="1:9">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" s="4">
         <v>1.5</v>
       </c>
@@ -8228,7 +8236,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="225" spans="1:9">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" s="4">
         <v>129</v>
       </c>
@@ -8254,7 +8262,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="226" spans="1:9">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" s="4">
         <v>7</v>
       </c>
@@ -8280,7 +8288,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="227" spans="1:9">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" s="4">
         <v>2.8</v>
       </c>
@@ -8306,7 +8314,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="228" spans="1:9">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" s="4">
         <v>1</v>
       </c>
@@ -8332,7 +8340,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="229" spans="1:9">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" s="4">
         <v>4</v>
       </c>
@@ -8358,7 +8366,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="230" spans="1:9">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" s="4">
         <v>50</v>
       </c>
@@ -8384,7 +8392,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="231" spans="1:9">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" s="4">
         <v>7.2</v>
       </c>
@@ -8410,7 +8418,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="232" spans="1:9">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" s="4">
         <v>1</v>
       </c>
@@ -8436,7 +8444,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="233" spans="1:9">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" s="4">
         <v>7</v>
       </c>
@@ -8462,7 +8470,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="234" spans="1:9">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" s="4">
         <v>1.1000000000000001</v>
       </c>
@@ -8488,7 +8496,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="235" spans="1:9">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" s="4">
         <v>7</v>
       </c>
@@ -8514,7 +8522,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="236" spans="1:9">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" s="4">
         <v>15</v>
       </c>
@@ -8540,7 +8548,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="237" spans="1:9">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" s="4">
         <v>3</v>
       </c>
@@ -8566,7 +8574,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="238" spans="1:9">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" s="4">
         <v>11.2</v>
       </c>
@@ -8592,7 +8600,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="239" spans="1:9">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" s="4">
         <v>2.1</v>
       </c>
@@ -8618,7 +8626,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="240" spans="1:9">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" s="4">
         <v>150</v>
       </c>
@@ -8644,7 +8652,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="241" spans="1:9">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" s="4">
         <v>12.7</v>
       </c>
@@ -8670,7 +8678,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="242" spans="1:9">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" s="4">
         <v>89.9</v>
       </c>
@@ -8696,7 +8704,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="243" spans="1:9">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" s="4">
         <v>4.4000000000000004</v>
       </c>
@@ -8722,7 +8730,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="244" spans="1:9">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" s="4">
         <v>4.2</v>
       </c>
@@ -8748,7 +8756,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="245" spans="1:9">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -8774,7 +8782,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="246" spans="1:9">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" s="4">
         <v>5</v>
       </c>
@@ -8800,7 +8808,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="247" spans="1:9">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" s="4">
         <v>5</v>
       </c>
@@ -8826,7 +8834,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="248" spans="1:9">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" s="4">
         <v>3.9</v>
       </c>
@@ -8852,7 +8860,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="249" spans="1:9">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" s="4">
         <v>0.5</v>
       </c>
@@ -8878,7 +8886,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="250" spans="1:9">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" s="4">
         <v>2.4</v>
       </c>
@@ -8904,7 +8912,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="251" spans="1:9">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" s="4">
         <v>2</v>
       </c>
@@ -8930,7 +8938,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="252" spans="1:9">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" s="4">
         <v>4.7</v>
       </c>
@@ -8956,7 +8964,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="253" spans="1:9">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" s="4">
         <v>5.3</v>
       </c>
@@ -8982,7 +8990,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="254" spans="1:9">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" s="4">
         <v>4.2</v>
       </c>
@@ -9008,7 +9016,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="255" spans="1:9">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" s="4">
         <v>5</v>
       </c>
@@ -9034,7 +9042,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="256" spans="1:9">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" s="4">
         <v>2.5</v>
       </c>
@@ -9060,7 +9068,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="257" spans="1:9">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" s="4">
         <v>3.3</v>
       </c>
@@ -9086,7 +9094,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="258" spans="1:9">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258" s="4">
         <v>5.6</v>
       </c>
@@ -9112,7 +9120,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="259" spans="1:9">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" s="4">
         <v>4</v>
       </c>
@@ -9138,7 +9146,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="260" spans="1:9">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260" s="4">
         <v>10.199999999999999</v>
       </c>
@@ -9164,7 +9172,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="261" spans="1:9">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261" s="4">
         <v>8</v>
       </c>
@@ -9190,7 +9198,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="262" spans="1:9">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262" s="4">
         <v>2.1</v>
       </c>
@@ -9216,7 +9224,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="263" spans="1:9">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263" s="4">
         <v>3.7</v>
       </c>
@@ -9242,7 +9250,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="264" spans="1:9">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264" s="4">
         <v>7</v>
       </c>
@@ -9268,7 +9276,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="265" spans="1:9">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265" s="4">
         <v>13.5</v>
       </c>
@@ -9294,7 +9302,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="266" spans="1:9">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266" s="4">
         <v>5</v>
       </c>
@@ -9320,7 +9328,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="267" spans="1:9">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" s="4">
         <v>20</v>
       </c>
@@ -9346,7 +9354,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="268" spans="1:9">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268" s="4">
         <v>6</v>
       </c>
@@ -9372,7 +9380,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="269" spans="1:9">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269" s="4">
         <v>0.5</v>
       </c>
@@ -9398,7 +9406,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="270" spans="1:9">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270" s="4">
         <v>5</v>
       </c>
@@ -9424,7 +9432,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="271" spans="1:9">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271" s="4">
         <v>11</v>
       </c>
@@ -9450,7 +9458,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="272" spans="1:9">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272" s="4">
         <v>8.8000000000000007</v>
       </c>
@@ -9476,7 +9484,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="273" spans="1:9">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273" s="4">
         <v>0.5</v>
       </c>
@@ -9502,7 +9510,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="274" spans="1:9">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274" s="4">
         <v>5</v>
       </c>
@@ -9528,7 +9536,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="275" spans="1:9">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" s="4">
         <v>10</v>
       </c>
@@ -9554,7 +9562,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="276" spans="1:9">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" s="4">
         <v>15</v>
       </c>
@@ -9580,7 +9588,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="277" spans="1:9">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" s="4">
         <v>10</v>
       </c>
@@ -9606,7 +9614,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="278" spans="1:9">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278" s="4">
         <v>11.9</v>
       </c>
@@ -9632,7 +9640,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="279" spans="1:9">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" s="4">
         <v>7</v>
       </c>
@@ -9658,7 +9666,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="280" spans="1:9">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280" s="4">
         <v>5.0999999999999996</v>
       </c>
@@ -9684,7 +9692,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="281" spans="1:9">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>1.9</v>
       </c>
@@ -9710,7 +9718,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="282" spans="1:9">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>119.9</v>
       </c>
@@ -9736,7 +9744,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="283" spans="1:9">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>6.3</v>
       </c>
@@ -9762,7 +9770,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="284" spans="1:9">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>3.5</v>
       </c>
@@ -9788,7 +9796,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="285" spans="1:9">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>1.5</v>
       </c>
@@ -9814,7 +9822,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="286" spans="1:9">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>1.9</v>
       </c>
@@ -9840,7 +9848,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="287" spans="1:9">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>4.5</v>
       </c>
@@ -9866,7 +9874,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="288" spans="1:9">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>6.4</v>
       </c>
@@ -9892,7 +9900,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="289" spans="1:9">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>1.9</v>
       </c>
@@ -9918,7 +9926,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="290" spans="1:9">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>10.6</v>
       </c>
@@ -9944,7 +9952,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="291" spans="1:9">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>4.5</v>
       </c>
@@ -9970,7 +9978,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="292" spans="1:9">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>22.2</v>
       </c>
@@ -9996,7 +10004,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="293" spans="1:9">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293" s="6">
         <v>25</v>
       </c>
@@ -10022,7 +10030,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="294" spans="1:9">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294" s="6">
         <v>3.5</v>
       </c>
@@ -10048,7 +10056,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="295" spans="1:9">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>4</v>
       </c>
@@ -10074,7 +10082,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="296" spans="1:9">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>2.2000000000000002</v>
       </c>
@@ -10100,7 +10108,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="297" spans="1:9">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>11.5</v>
       </c>
@@ -10126,7 +10134,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="298" spans="1:9">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>6.3</v>
       </c>
@@ -10152,7 +10160,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="299" spans="1:9">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>3.6</v>
       </c>
@@ -10178,7 +10186,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="300" spans="1:9">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>15</v>
       </c>
@@ -10204,7 +10212,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="301" spans="1:9">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>2</v>
       </c>
@@ -10230,7 +10238,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="302" spans="1:9">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>4.5</v>
       </c>
@@ -10256,7 +10264,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="303" spans="1:9">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>2.9</v>
       </c>
@@ -10282,7 +10290,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="304" spans="1:9">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>3.9</v>
       </c>
@@ -10308,7 +10316,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="305" spans="1:9">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>1.7</v>
       </c>
@@ -10334,7 +10342,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="306" spans="1:9">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>10</v>
       </c>
@@ -10360,7 +10368,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="307" spans="1:9">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>7.5</v>
       </c>
@@ -10386,7 +10394,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="308" spans="1:9">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>10.050000000000001</v>
       </c>
@@ -10412,7 +10420,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="309" spans="1:9">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>5</v>
       </c>
@@ -10438,7 +10446,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="310" spans="1:9">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>3</v>
       </c>
@@ -10464,7 +10472,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="311" spans="1:9">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>2</v>
       </c>
@@ -10490,7 +10498,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="312" spans="1:9">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>10.6</v>
       </c>
@@ -10516,7 +10524,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="313" spans="1:9">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>4</v>
       </c>
@@ -10542,7 +10550,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="314" spans="1:9">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>2</v>
       </c>
@@ -10568,7 +10576,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="315" spans="1:9">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>5.8</v>
       </c>
@@ -10594,7 +10602,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="316" spans="1:9">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>5</v>
       </c>
@@ -10620,7 +10628,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="317" spans="1:9">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>6.55</v>
       </c>
@@ -10646,7 +10654,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="318" spans="1:9">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>2.8</v>
       </c>
@@ -10672,7 +10680,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="319" spans="1:9">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>3.8</v>
       </c>
@@ -10698,7 +10706,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="320" spans="1:9">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>9</v>
       </c>
@@ -10724,7 +10732,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="321" spans="1:9">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>8</v>
       </c>
@@ -10750,7 +10758,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="322" spans="1:9">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>1.5</v>
       </c>
@@ -10776,7 +10784,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="323" spans="1:9">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>5</v>
       </c>
@@ -10802,7 +10810,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="324" spans="1:9">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>4.5999999999999996</v>
       </c>
@@ -10828,7 +10836,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="325" spans="1:9">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>0.5</v>
       </c>
@@ -10854,7 +10862,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="326" spans="1:9">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>2.95</v>
       </c>
@@ -10880,7 +10888,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="327" spans="1:9">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>3.8</v>
       </c>
@@ -10906,7 +10914,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="328" spans="1:9">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>10</v>
       </c>
@@ -10932,7 +10940,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="329" spans="1:9">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>3.85</v>
       </c>
@@ -10958,7 +10966,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="330" spans="1:9">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>1.2</v>
       </c>
@@ -10984,7 +10992,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="331" spans="1:9">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>2</v>
       </c>
@@ -11010,7 +11018,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="332" spans="1:9">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>8.5</v>
       </c>
@@ -11036,7 +11044,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="333" spans="1:9">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>4.9000000000000004</v>
       </c>
@@ -11062,7 +11070,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="334" spans="1:9">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>10</v>
       </c>
@@ -11088,7 +11096,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="335" spans="1:9">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>350</v>
       </c>
@@ -11114,7 +11122,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="336" spans="1:9">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>4.4000000000000004</v>
       </c>
@@ -11140,7 +11148,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="337" spans="1:9">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>3.2</v>
       </c>
@@ -11166,7 +11174,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="338" spans="1:9">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>3.8</v>
       </c>
@@ -11192,7 +11200,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="339" spans="1:9">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>0.9</v>
       </c>
@@ -11218,7 +11226,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="340" spans="1:9">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>6</v>
       </c>
@@ -11244,7 +11252,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="341" spans="1:9">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>3.8</v>
       </c>
@@ -11270,7 +11278,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="342" spans="1:9">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>2</v>
       </c>
@@ -11296,7 +11304,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="343" spans="1:9">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>5.5</v>
       </c>
@@ -11322,7 +11330,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="344" spans="1:9">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>43.22</v>
       </c>
@@ -11348,7 +11356,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="345" spans="1:9">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>2</v>
       </c>
@@ -11374,7 +11382,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="346" spans="1:9">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>7</v>
       </c>
@@ -11400,7 +11408,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="347" spans="1:9">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>1.61</v>
       </c>
@@ -11426,7 +11434,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="348" spans="1:9">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>20</v>
       </c>
@@ -11452,7 +11460,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="349" spans="1:9">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>14.84</v>
       </c>
@@ -11478,7 +11486,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="350" spans="1:9">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>5.6</v>
       </c>
@@ -11504,7 +11512,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="351" spans="1:9">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>6.8</v>
       </c>
@@ -11530,7 +11538,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="352" spans="1:9">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>7.7</v>
       </c>
@@ -11556,7 +11564,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="353" spans="1:12">
+    <row r="353" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>29.4</v>
       </c>
@@ -11582,7 +11590,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="354" spans="1:12">
+    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>0.5</v>
       </c>
@@ -11608,7 +11616,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="355" spans="1:12">
+    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>2.2000000000000002</v>
       </c>
@@ -11634,7 +11642,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="356" spans="1:12">
+    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>3.5</v>
       </c>
@@ -11660,7 +11668,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="357" spans="1:12">
+    <row r="357" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>4.4000000000000004</v>
       </c>
@@ -11686,7 +11694,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="358" spans="1:12">
+    <row r="358" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>5.7</v>
       </c>
@@ -11712,7 +11720,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="359" spans="1:12">
+    <row r="359" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>7.74</v>
       </c>
@@ -11738,7 +11746,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="360" spans="1:12">
+    <row r="360" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>7</v>
       </c>
@@ -11764,7 +11772,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="361" spans="1:12">
+    <row r="361" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>3.8</v>
       </c>
@@ -11790,7 +11798,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="362" spans="1:12">
+    <row r="362" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>100</v>
       </c>
@@ -11816,7 +11824,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="363" spans="1:12">
+    <row r="363" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>5</v>
       </c>
@@ -11843,7 +11851,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="364" spans="1:12">
+    <row r="364" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A364" s="6">
         <v>2</v>
       </c>
@@ -11872,7 +11880,7 @@
       <c r="K364" s="1"/>
       <c r="L364" s="1"/>
     </row>
-    <row r="365" spans="1:12">
+    <row r="365" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>7</v>
       </c>
@@ -11898,7 +11906,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="366" spans="1:12">
+    <row r="366" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>50</v>
       </c>
@@ -11924,7 +11932,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="367" spans="1:12">
+    <row r="367" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>10</v>
       </c>
@@ -11950,7 +11958,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="368" spans="1:12">
+    <row r="368" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>10.8</v>
       </c>
@@ -11976,7 +11984,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="369" spans="1:9">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>10.5</v>
       </c>
@@ -12002,7 +12010,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="370" spans="1:9">
+    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>5.5</v>
       </c>
@@ -12028,7 +12036,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="371" spans="1:9">
+    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>5</v>
       </c>
@@ -12054,7 +12062,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="372" spans="1:9">
+    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>0.5</v>
       </c>
@@ -12080,7 +12088,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="373" spans="1:9">
+    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>10.5</v>
       </c>
@@ -12106,7 +12114,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="374" spans="1:9">
+    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>14</v>
       </c>
@@ -12132,7 +12140,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="375" spans="1:9">
+    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>2</v>
       </c>
@@ -12158,7 +12166,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="376" spans="1:9">
+    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>3.5</v>
       </c>
@@ -12184,7 +12192,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="377" spans="1:9">
+    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>3.5</v>
       </c>
@@ -12210,7 +12218,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="378" spans="1:9">
+    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>3.5</v>
       </c>
@@ -12236,7 +12244,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="379" spans="1:9">
+    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>2</v>
       </c>
@@ -12262,7 +12270,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="380" spans="1:9">
+    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>2</v>
       </c>
@@ -12288,7 +12296,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="381" spans="1:9">
+    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>2.5</v>
       </c>
@@ -12314,7 +12322,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="382" spans="1:9">
+    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>6.5</v>
       </c>
@@ -12340,7 +12348,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="383" spans="1:9">
+    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>3.78</v>
       </c>
@@ -12366,7 +12374,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="384" spans="1:9">
+    <row r="384" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>7</v>
       </c>
@@ -12392,7 +12400,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="385" spans="1:9">
+    <row r="385" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>2.5</v>
       </c>
@@ -12418,7 +12426,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="386" spans="1:9">
+    <row r="386" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>2</v>
       </c>
@@ -12444,7 +12452,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="387" spans="1:9">
+    <row r="387" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>1</v>
       </c>
@@ -12470,7 +12478,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="388" spans="1:9">
+    <row r="388" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>10.5</v>
       </c>
@@ -12496,7 +12504,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="389" spans="1:9">
+    <row r="389" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>1.5</v>
       </c>
@@ -12522,7 +12530,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="390" spans="1:9">
+    <row r="390" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>2.7</v>
       </c>
@@ -12548,7 +12556,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="391" spans="1:9">
+    <row r="391" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>2</v>
       </c>
@@ -12574,7 +12582,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="392" spans="1:9">
+    <row r="392" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>17.5</v>
       </c>
@@ -12600,7 +12608,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="393" spans="1:9">
+    <row r="393" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>43</v>
       </c>
@@ -12626,7 +12634,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="394" spans="1:9">
+    <row r="394" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>69.900000000000006</v>
       </c>
@@ -12652,7 +12660,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="395" spans="1:9">
+    <row r="395" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>16</v>
       </c>
@@ -12678,7 +12686,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="396" spans="1:9">
+    <row r="396" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>2.2000000000000002</v>
       </c>
@@ -12704,7 +12712,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="397" spans="1:9">
+    <row r="397" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>1.72</v>
       </c>
@@ -12730,7 +12738,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="398" spans="1:9">
+    <row r="398" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>6</v>
       </c>
@@ -12756,7 +12764,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="399" spans="1:9">
+    <row r="399" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>1.8</v>
       </c>
@@ -12782,7 +12790,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="400" spans="1:9">
+    <row r="400" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>4.5999999999999996</v>
       </c>
@@ -12808,7 +12816,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="401" spans="1:9">
+    <row r="401" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>27</v>
       </c>
@@ -12834,7 +12842,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="402" spans="1:9">
+    <row r="402" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>14</v>
       </c>
@@ -12860,7 +12868,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="403" spans="1:9">
+    <row r="403" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>2.5</v>
       </c>
@@ -12886,7 +12894,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="404" spans="1:9">
+    <row r="404" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>10</v>
       </c>
@@ -12912,7 +12920,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="405" spans="1:9">
+    <row r="405" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>11</v>
       </c>
@@ -12938,7 +12946,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="406" spans="1:9">
+    <row r="406" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>5.55</v>
       </c>
@@ -12964,7 +12972,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="407" spans="1:9">
+    <row r="407" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>3</v>
       </c>
@@ -12990,7 +12998,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="408" spans="1:9">
+    <row r="408" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>3.5</v>
       </c>
@@ -13016,7 +13024,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="409" spans="1:9">
+    <row r="409" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>3.8</v>
       </c>
@@ -13042,7 +13050,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="410" spans="1:9">
+    <row r="410" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>4</v>
       </c>
@@ -13068,7 +13076,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="411" spans="1:9">
+    <row r="411" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>8</v>
       </c>
@@ -13094,7 +13102,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="412" spans="1:9">
+    <row r="412" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>11.6</v>
       </c>
@@ -13120,7 +13128,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="413" spans="1:9">
+    <row r="413" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>1.6</v>
       </c>
@@ -13146,7 +13154,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="414" spans="1:9">
+    <row r="414" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>44.41</v>
       </c>
@@ -13172,7 +13180,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="415" spans="1:9">
+    <row r="415" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>4.8</v>
       </c>
@@ -13198,7 +13206,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="416" spans="1:9">
+    <row r="416" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>1.7</v>
       </c>
@@ -13224,7 +13232,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="417" spans="1:9">
+    <row r="417" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>2.85</v>
       </c>
@@ -13250,7 +13258,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="418" spans="1:9">
+    <row r="418" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>6.4</v>
       </c>
@@ -13276,7 +13284,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="419" spans="1:9">
+    <row r="419" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>3.5</v>
       </c>
@@ -13302,7 +13310,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="420" spans="1:9">
+    <row r="420" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>6.5</v>
       </c>
@@ -13328,7 +13336,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="421" spans="1:9">
+    <row r="421" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>1.2</v>
       </c>
@@ -13354,7 +13362,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="422" spans="1:9">
+    <row r="422" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>4.5999999999999996</v>
       </c>
@@ -13380,7 +13388,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="423" spans="1:9">
+    <row r="423" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>8</v>
       </c>
@@ -13406,7 +13414,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="424" spans="1:9">
+    <row r="424" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>3.5</v>
       </c>
@@ -13432,7 +13440,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="425" spans="1:9">
+    <row r="425" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
         <v>50</v>
       </c>
@@ -13459,7 +13467,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="426" spans="1:9">
+    <row r="426" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>10</v>
       </c>
@@ -13485,7 +13493,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="427" spans="1:9">
+    <row r="427" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>2.9</v>
       </c>
@@ -13511,7 +13519,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="428" spans="1:9">
+    <row r="428" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>15</v>
       </c>
@@ -13537,7 +13545,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="429" spans="1:9">
+    <row r="429" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>3.5</v>
       </c>
@@ -13563,7 +13571,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="430" spans="1:9">
+    <row r="430" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>9.25</v>
       </c>
@@ -13589,7 +13597,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="431" spans="1:9">
+    <row r="431" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>8</v>
       </c>
@@ -13615,7 +13623,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="432" spans="1:9">
+    <row r="432" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>4.0999999999999996</v>
       </c>
@@ -13641,7 +13649,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="433" spans="1:9">
+    <row r="433" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>4.9000000000000004</v>
       </c>
@@ -13667,7 +13675,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="434" spans="1:9">
+    <row r="434" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>2.8</v>
       </c>
@@ -13693,7 +13701,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="435" spans="1:9">
+    <row r="435" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>18.7</v>
       </c>
@@ -13719,7 +13727,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="436" spans="1:9">
+    <row r="436" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>20</v>
       </c>
@@ -13745,7 +13753,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="437" spans="1:9">
+    <row r="437" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
         <v>150</v>
       </c>
@@ -13772,7 +13780,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="438" spans="1:9">
+    <row r="438" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
         <v>10</v>
       </c>
@@ -13799,7 +13807,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="439" spans="1:9">
+    <row r="439" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>2.1</v>
       </c>
@@ -13825,7 +13833,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="440" spans="1:9">
+    <row r="440" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>5</v>
       </c>
@@ -13851,7 +13859,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="441" spans="1:9">
+    <row r="441" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>10</v>
       </c>
@@ -13877,7 +13885,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="442" spans="1:9">
+    <row r="442" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>59</v>
       </c>
@@ -13903,7 +13911,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="443" spans="1:9">
+    <row r="443" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>4</v>
       </c>
@@ -13929,7 +13937,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="444" spans="1:9">
+    <row r="444" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>4.17</v>
       </c>
@@ -13955,7 +13963,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="445" spans="1:9">
+    <row r="445" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>4.2</v>
       </c>
@@ -13981,7 +13989,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="446" spans="1:9">
+    <row r="446" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>4.4000000000000004</v>
       </c>
@@ -14007,7 +14015,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="447" spans="1:9">
+    <row r="447" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>30</v>
       </c>
@@ -14033,7 +14041,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="448" spans="1:9">
+    <row r="448" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>5</v>
       </c>
@@ -14059,7 +14067,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="449" spans="1:9">
+    <row r="449" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>15.7</v>
       </c>
@@ -14085,7 +14093,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="450" spans="1:9">
+    <row r="450" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>4</v>
       </c>
@@ -14111,7 +14119,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="451" spans="1:9">
+    <row r="451" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>8</v>
       </c>
@@ -14137,7 +14145,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="452" spans="1:9">
+    <row r="452" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>3.5</v>
       </c>
@@ -14163,7 +14171,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="453" spans="1:9">
+    <row r="453" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>4.2</v>
       </c>
@@ -14189,7 +14197,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="454" spans="1:9">
+    <row r="454" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>180</v>
       </c>
@@ -14215,7 +14223,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="455" spans="1:9">
+    <row r="455" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>2.2999999999999998</v>
       </c>
@@ -14241,7 +14249,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="456" spans="1:9">
+    <row r="456" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>11</v>
       </c>
@@ -14267,7 +14275,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="457" spans="1:9">
+    <row r="457" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>2</v>
       </c>
@@ -14293,7 +14301,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="458" spans="1:9">
+    <row r="458" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>3</v>
       </c>
@@ -14319,7 +14327,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="459" spans="1:9">
+    <row r="459" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>6.4</v>
       </c>
@@ -14345,7 +14353,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="460" spans="1:9">
+    <row r="460" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>3.2</v>
       </c>
@@ -14371,7 +14379,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="461" spans="1:9">
+    <row r="461" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>1</v>
       </c>
@@ -14397,7 +14405,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="462" spans="1:9">
+    <row r="462" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>4.2</v>
       </c>
@@ -14423,7 +14431,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="463" spans="1:9">
+    <row r="463" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>14</v>
       </c>
@@ -14449,7 +14457,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="464" spans="1:9">
+    <row r="464" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>2.9</v>
       </c>
@@ -14475,7 +14483,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="465" spans="1:9">
+    <row r="465" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>4</v>
       </c>
@@ -14501,7 +14509,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="466" spans="1:9">
+    <row r="466" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>1.8</v>
       </c>
@@ -14527,7 +14535,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="467" spans="1:9">
+    <row r="467" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>18</v>
       </c>
@@ -14553,7 +14561,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="468" spans="1:9">
+    <row r="468" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>2</v>
       </c>
@@ -14579,7 +14587,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="469" spans="1:9">
+    <row r="469" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>3</v>
       </c>
@@ -14605,7 +14613,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="470" spans="1:9">
+    <row r="470" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>10</v>
       </c>
@@ -14631,7 +14639,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="471" spans="1:9">
+    <row r="471" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>8.3000000000000007</v>
       </c>
@@ -14657,7 +14665,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="472" spans="1:9">
+    <row r="472" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>362</v>
       </c>
@@ -14683,7 +14691,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="473" spans="1:9">
+    <row r="473" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>4.2</v>
       </c>
@@ -14709,7 +14717,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="474" spans="1:9">
+    <row r="474" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>0.5</v>
       </c>
@@ -14735,7 +14743,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="475" spans="1:9">
+    <row r="475" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>1.7</v>
       </c>
@@ -14761,7 +14769,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="476" spans="1:9">
+    <row r="476" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>4.5999999999999996</v>
       </c>
@@ -14787,7 +14795,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="477" spans="1:9">
+    <row r="477" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>4.7</v>
       </c>
@@ -14813,7 +14821,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="478" spans="1:9">
+    <row r="478" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>1</v>
       </c>
@@ -14839,7 +14847,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="479" spans="1:9">
+    <row r="479" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>5.6</v>
       </c>
@@ -14865,7 +14873,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="480" spans="1:9">
+    <row r="480" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>33.799999999999997</v>
       </c>
@@ -14891,7 +14899,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="481" spans="1:9">
+    <row r="481" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>8</v>
       </c>
@@ -14917,7 +14925,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="482" spans="1:9">
+    <row r="482" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>5.2</v>
       </c>
@@ -14943,7 +14951,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="483" spans="1:9">
+    <row r="483" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>5.4</v>
       </c>
@@ -14969,7 +14977,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="484" spans="1:9">
+    <row r="484" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>40</v>
       </c>
@@ -14995,7 +15003,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="485" spans="1:9">
+    <row r="485" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>10.8</v>
       </c>
@@ -15021,7 +15029,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="486" spans="1:9">
+    <row r="486" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>15</v>
       </c>
@@ -15047,7 +15055,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="487" spans="1:9">
+    <row r="487" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>20</v>
       </c>
@@ -15073,7 +15081,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="488" spans="1:9">
+    <row r="488" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>3</v>
       </c>
@@ -15099,7 +15107,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="489" spans="1:9">
+    <row r="489" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>3.5</v>
       </c>
@@ -15125,7 +15133,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="490" spans="1:9">
+    <row r="490" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>2.2000000000000002</v>
       </c>
@@ -15151,7 +15159,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="491" spans="1:9">
+    <row r="491" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>4.5</v>
       </c>
@@ -15177,7 +15185,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="492" spans="1:9">
+    <row r="492" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A492">
         <v>4.2</v>
       </c>
@@ -15203,7 +15211,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="493" spans="1:9">
+    <row r="493" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A493">
         <v>5</v>
       </c>
@@ -15229,7 +15237,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="494" spans="1:9">
+    <row r="494" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A494" s="1">
         <v>27.69</v>
       </c>
@@ -15256,7 +15264,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="495" spans="1:9">
+    <row r="495" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A495">
         <v>70</v>
       </c>
@@ -15282,7 +15290,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="496" spans="1:9">
+    <row r="496" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A496" s="1">
         <v>2.2999999999999998</v>
       </c>
@@ -15309,7 +15317,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="497" spans="1:9">
+    <row r="497" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A497">
         <v>3.2</v>
       </c>
@@ -15335,7 +15343,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="498" spans="1:9">
+    <row r="498" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A498">
         <v>3.6</v>
       </c>
@@ -15361,7 +15369,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="499" spans="1:9">
+    <row r="499" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>0.5</v>
       </c>
@@ -15387,7 +15395,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="500" spans="1:9">
+    <row r="500" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>10</v>
       </c>
@@ -15413,7 +15421,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="501" spans="1:9">
+    <row r="501" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>2</v>
       </c>
@@ -15439,7 +15447,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="502" spans="1:9">
+    <row r="502" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A502" s="1">
         <v>1.9</v>
       </c>
@@ -15466,7 +15474,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="503" spans="1:9">
+    <row r="503" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A503">
         <v>6.6</v>
       </c>
@@ -15492,7 +15500,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="504" spans="1:9">
+    <row r="504" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A504">
         <v>1.8</v>
       </c>
@@ -15518,7 +15526,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="505" spans="1:9">
+    <row r="505" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A505" s="1">
         <v>0.8</v>
       </c>
@@ -15545,7 +15553,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="506" spans="1:9">
+    <row r="506" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A506">
         <v>4.2</v>
       </c>
@@ -15571,7 +15579,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="507" spans="1:9">
+    <row r="507" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A507">
         <v>4</v>
       </c>
@@ -15597,7 +15605,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="508" spans="1:9">
+    <row r="508" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A508">
         <v>1.2</v>
       </c>
@@ -15623,7 +15631,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="509" spans="1:9">
+    <row r="509" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A509">
         <v>5</v>
       </c>
@@ -15649,7 +15657,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="510" spans="1:9">
+    <row r="510" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A510">
         <v>3.5</v>
       </c>
@@ -15675,7 +15683,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="511" spans="1:9">
+    <row r="511" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A511" s="1">
         <v>1.75</v>
       </c>
@@ -15702,7 +15710,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="512" spans="1:9">
+    <row r="512" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A512">
         <v>4.2</v>
       </c>
@@ -15728,7 +15736,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="513" spans="1:9">
+    <row r="513" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A513">
         <v>5.6</v>
       </c>
@@ -15754,7 +15762,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="514" spans="1:9">
+    <row r="514" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A514">
         <v>3.6</v>
       </c>
@@ -15780,7 +15788,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="515" spans="1:9">
+    <row r="515" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A515">
         <v>15.93</v>
       </c>
@@ -15806,7 +15814,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="516" spans="1:9">
+    <row r="516" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A516">
         <v>5.98</v>
       </c>
@@ -15832,7 +15840,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="517" spans="1:9">
+    <row r="517" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A517">
         <v>5</v>
       </c>
@@ -15858,7 +15866,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="518" spans="1:9">
+    <row r="518" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A518">
         <v>4.2</v>
       </c>
@@ -15884,7 +15892,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="519" spans="1:9">
+    <row r="519" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A519">
         <v>4.2</v>
       </c>
@@ -15910,7 +15918,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="520" spans="1:9">
+    <row r="520" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A520">
         <v>4</v>
       </c>
@@ -15936,7 +15944,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="521" spans="1:9">
+    <row r="521" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A521">
         <v>3</v>
       </c>
@@ -15962,7 +15970,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="522" spans="1:9">
+    <row r="522" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A522">
         <v>2</v>
       </c>
@@ -15988,7 +15996,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="523" spans="1:9">
+    <row r="523" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A523">
         <v>1</v>
       </c>
@@ -16014,7 +16022,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="524" spans="1:9">
+    <row r="524" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A524" s="1">
         <v>4.0999999999999996</v>
       </c>
@@ -16041,7 +16049,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="525" spans="1:9">
+    <row r="525" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A525">
         <v>78.180000000000007</v>
       </c>
@@ -16067,7 +16075,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="526" spans="1:9">
+    <row r="526" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A526">
         <v>5.2</v>
       </c>
@@ -16093,7 +16101,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="527" spans="1:9">
+    <row r="527" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A527">
         <v>1.2</v>
       </c>
@@ -16119,7 +16127,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="528" spans="1:9">
+    <row r="528" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A528">
         <v>4.5</v>
       </c>
@@ -16145,7 +16153,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="529" spans="1:9">
+    <row r="529" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A529">
         <v>3.4</v>
       </c>
@@ -16171,7 +16179,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="530" spans="1:9">
+    <row r="530" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A530">
         <v>16</v>
       </c>
@@ -16197,7 +16205,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="531" spans="1:9">
+    <row r="531" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A531">
         <v>2.5</v>
       </c>
@@ -16223,7 +16231,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="532" spans="1:9">
+    <row r="532" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A532">
         <v>0.8</v>
       </c>
@@ -16249,7 +16257,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="533" spans="1:9">
+    <row r="533" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A533">
         <v>2.8</v>
       </c>
@@ -16275,7 +16283,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="534" spans="1:9">
+    <row r="534" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A534">
         <v>3.5</v>
       </c>
@@ -16301,7 +16309,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="535" spans="1:9">
+    <row r="535" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A535">
         <v>3.6</v>
       </c>
@@ -16327,7 +16335,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="536" spans="1:9">
+    <row r="536" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A536">
         <v>6.8</v>
       </c>
@@ -16353,7 +16361,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="537" spans="1:9">
+    <row r="537" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A537">
         <v>5</v>
       </c>
@@ -16379,7 +16387,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="538" spans="1:9">
+    <row r="538" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A538">
         <v>4.9000000000000004</v>
       </c>
@@ -16405,7 +16413,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="539" spans="1:9">
+    <row r="539" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A539">
         <v>80</v>
       </c>
@@ -16431,7 +16439,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="540" spans="1:9">
+    <row r="540" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A540">
         <v>55</v>
       </c>
@@ -16457,7 +16465,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="541" spans="1:9">
+    <row r="541" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A541">
         <v>10</v>
       </c>
@@ -16483,7 +16491,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="542" spans="1:9">
+    <row r="542" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A542">
         <v>1</v>
       </c>
@@ -16509,7 +16517,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="543" spans="1:9">
+    <row r="543" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A543" s="1">
         <v>1.65</v>
       </c>
@@ -16536,7 +16544,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="544" spans="1:9">
+    <row r="544" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A544" s="1">
         <v>4.5</v>
       </c>
@@ -16563,7 +16571,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="545" spans="1:9">
+    <row r="545" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A545">
         <v>4.8</v>
       </c>
@@ -16590,7 +16598,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="546" spans="1:9">
+    <row r="546" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A546" s="1">
         <v>9.5</v>
       </c>
@@ -16617,7 +16625,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="547" spans="1:9">
+    <row r="547" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A547">
         <v>10</v>
       </c>
@@ -16643,7 +16651,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="548" spans="1:9">
+    <row r="548" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A548">
         <v>4.8</v>
       </c>
@@ -16669,7 +16677,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="549" spans="1:9">
+    <row r="549" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A549">
         <v>6.1</v>
       </c>
@@ -16695,7 +16703,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="550" spans="1:9">
+    <row r="550" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A550">
         <v>4.8</v>
       </c>
@@ -16721,7 +16729,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="551" spans="1:9">
+    <row r="551" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A551">
         <v>4.7300000000000004</v>
       </c>
@@ -16747,7 +16755,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="552" spans="1:9">
+    <row r="552" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A552">
         <v>2.6</v>
       </c>
@@ -16773,7 +16781,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="553" spans="1:9">
+    <row r="553" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A553">
         <v>3.7</v>
       </c>
@@ -16799,7 +16807,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="554" spans="1:9">
+    <row r="554" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A554">
         <v>120</v>
       </c>
@@ -16825,7 +16833,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="555" spans="1:9">
+    <row r="555" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A555">
         <v>6.8</v>
       </c>
@@ -16851,7 +16859,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="556" spans="1:9">
+    <row r="556" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A556">
         <v>5</v>
       </c>
@@ -16877,7 +16885,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="557" spans="1:9">
+    <row r="557" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A557">
         <v>3.8</v>
       </c>
@@ -16903,7 +16911,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="558" spans="1:9">
+    <row r="558" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A558">
         <v>3.9</v>
       </c>
@@ -16929,7 +16937,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="559" spans="1:9">
+    <row r="559" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A559">
         <v>2.7</v>
       </c>
@@ -16955,7 +16963,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="560" spans="1:9">
+    <row r="560" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A560">
         <v>1</v>
       </c>
@@ -16981,7 +16989,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="561" spans="1:9">
+    <row r="561" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A561">
         <v>1</v>
       </c>
@@ -17007,7 +17015,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="562" spans="1:9">
+    <row r="562" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A562">
         <v>3.5</v>
       </c>
@@ -17033,7 +17041,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="563" spans="1:9">
+    <row r="563" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A563">
         <v>7.1</v>
       </c>
@@ -17059,7 +17067,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="564" spans="1:9">
+    <row r="564" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A564">
         <v>49.98</v>
       </c>
@@ -17085,7 +17093,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="565" spans="1:9">
+    <row r="565" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A565">
         <v>4.74</v>
       </c>
@@ -17111,7 +17119,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="566" spans="1:9">
+    <row r="566" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A566">
         <v>6.2</v>
       </c>
@@ -17137,7 +17145,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="567" spans="1:9">
+    <row r="567" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A567">
         <v>3.17</v>
       </c>
@@ -17163,7 +17171,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="568" spans="1:9">
+    <row r="568" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A568">
         <v>4.1500000000000004</v>
       </c>
@@ -17189,7 +17197,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="569" spans="1:9">
+    <row r="569" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A569">
         <v>1.8</v>
       </c>
@@ -17215,7 +17223,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="570" spans="1:9">
+    <row r="570" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A570">
         <v>7</v>
       </c>
@@ -17241,7 +17249,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="571" spans="1:9">
+    <row r="571" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A571">
         <v>8</v>
       </c>
@@ -17267,7 +17275,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="572" spans="1:9">
+    <row r="572" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A572">
         <v>2.2999999999999998</v>
       </c>
@@ -17293,7 +17301,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="573" spans="1:9">
+    <row r="573" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A573">
         <v>1.2</v>
       </c>
@@ -17319,7 +17327,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="574" spans="1:9">
+    <row r="574" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A574">
         <v>5.0999999999999996</v>
       </c>
@@ -17345,7 +17353,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="575" spans="1:9">
+    <row r="575" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A575">
         <v>4</v>
       </c>
@@ -17371,7 +17379,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="576" spans="1:9">
+    <row r="576" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A576">
         <v>4</v>
       </c>
@@ -17397,7 +17405,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="577" spans="1:9">
+    <row r="577" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A577">
         <v>4.5999999999999996</v>
       </c>
@@ -17423,7 +17431,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="578" spans="1:9">
+    <row r="578" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A578">
         <v>4.5999999999999996</v>
       </c>
@@ -17449,7 +17457,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="579" spans="1:9">
+    <row r="579" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A579">
         <v>4.5999999999999996</v>
       </c>
@@ -17475,7 +17483,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="580" spans="1:9">
+    <row r="580" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A580">
         <v>2.9</v>
       </c>
@@ -17501,7 +17509,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="581" spans="1:9">
+    <row r="581" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A581">
         <v>11.6</v>
       </c>
@@ -17527,7 +17535,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="582" spans="1:9">
+    <row r="582" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A582">
         <v>0.75</v>
       </c>
@@ -17553,7 +17561,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="583" spans="1:9">
+    <row r="583" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A583">
         <v>2</v>
       </c>
@@ -17579,7 +17587,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="584" spans="1:9">
+    <row r="584" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A584">
         <v>10</v>
       </c>
@@ -17605,7 +17613,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="585" spans="1:9">
+    <row r="585" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A585">
         <v>3.3</v>
       </c>
@@ -17631,7 +17639,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="586" spans="1:9">
+    <row r="586" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A586">
         <v>4.4000000000000004</v>
       </c>
@@ -17657,7 +17665,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="587" spans="1:9">
+    <row r="587" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A587">
         <v>3</v>
       </c>
@@ -17683,7 +17691,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="588" spans="1:9">
+    <row r="588" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A588">
         <v>8.6999999999999993</v>
       </c>
@@ -17709,7 +17717,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="589" spans="1:9">
+    <row r="589" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A589">
         <v>3</v>
       </c>
@@ -17735,7 +17743,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="590" spans="1:9">
+    <row r="590" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A590">
         <v>15</v>
       </c>
@@ -17761,7 +17769,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="591" spans="1:9">
+    <row r="591" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A591">
         <v>5</v>
       </c>
@@ -17787,7 +17795,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="592" spans="1:9">
+    <row r="592" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A592">
         <v>3.9</v>
       </c>
@@ -17813,7 +17821,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="593" spans="1:9">
+    <row r="593" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A593">
         <v>2.85</v>
       </c>
@@ -17839,7 +17847,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="594" spans="1:9">
+    <row r="594" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A594">
         <v>3</v>
       </c>
@@ -17865,7 +17873,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="595" spans="1:9">
+    <row r="595" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A595">
         <v>4.4000000000000004</v>
       </c>
@@ -17891,7 +17899,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="596" spans="1:9">
+    <row r="596" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A596">
         <v>3</v>
       </c>
@@ -17917,7 +17925,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="597" spans="1:9">
+    <row r="597" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A597">
         <v>3</v>
       </c>
@@ -17943,7 +17951,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="598" spans="1:9">
+    <row r="598" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A598">
         <v>3</v>
       </c>
@@ -17969,7 +17977,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="599" spans="1:9">
+    <row r="599" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A599">
         <v>4</v>
       </c>
@@ -17995,7 +18003,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="600" spans="1:9">
+    <row r="600" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A600">
         <v>5</v>
       </c>
@@ -18021,7 +18029,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="601" spans="1:9">
+    <row r="601" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A601">
         <v>4</v>
       </c>
@@ -18047,7 +18055,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="602" spans="1:9">
+    <row r="602" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A602">
         <v>3</v>
       </c>
@@ -18073,7 +18081,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="603" spans="1:9">
+    <row r="603" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A603">
         <v>12</v>
       </c>
@@ -18099,7 +18107,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="604" spans="1:9">
+    <row r="604" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A604">
         <v>3</v>
       </c>
@@ -18125,7 +18133,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="605" spans="1:9">
+    <row r="605" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A605">
         <v>6</v>
       </c>
@@ -18151,7 +18159,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="606" spans="1:9">
+    <row r="606" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A606">
         <v>5</v>
       </c>
@@ -18177,7 +18185,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="607" spans="1:9">
+    <row r="607" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A607">
         <v>10</v>
       </c>
@@ -18203,7 +18211,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="608" spans="1:9">
+    <row r="608" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A608">
         <v>19</v>
       </c>
@@ -18229,7 +18237,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="609" spans="1:9">
+    <row r="609" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A609">
         <v>5.55</v>
       </c>
@@ -18255,7 +18263,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="610" spans="1:9">
+    <row r="610" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A610">
         <v>0.9</v>
       </c>
@@ -18281,7 +18289,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="611" spans="1:9">
+    <row r="611" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A611">
         <v>10.7</v>
       </c>
@@ -18307,7 +18315,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="612" spans="1:9">
+    <row r="612" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A612" s="1">
         <v>9</v>
       </c>
@@ -18334,7 +18342,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="613" spans="1:9">
+    <row r="613" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A613">
         <v>1.2</v>
       </c>
@@ -18360,7 +18368,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="614" spans="1:9">
+    <row r="614" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A614">
         <v>5.3</v>
       </c>
@@ -18386,7 +18394,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="615" spans="1:9">
+    <row r="615" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A615">
         <v>11.5</v>
       </c>
@@ -18412,7 +18420,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="616" spans="1:9">
+    <row r="616" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A616">
         <v>4</v>
       </c>
@@ -18438,7 +18446,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="617" spans="1:9">
+    <row r="617" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A617">
         <v>1</v>
       </c>
@@ -18464,7 +18472,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="618" spans="1:9">
+    <row r="618" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A618">
         <v>1.2</v>
       </c>
@@ -18490,7 +18498,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="619" spans="1:9">
+    <row r="619" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A619">
         <v>15</v>
       </c>
@@ -18516,7 +18524,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="620" spans="1:9">
+    <row r="620" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A620">
         <v>100</v>
       </c>
@@ -18542,7 +18550,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="621" spans="1:9">
+    <row r="621" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A621">
         <v>52</v>
       </c>
@@ -18568,7 +18576,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="622" spans="1:9">
+    <row r="622" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A622">
         <v>80</v>
       </c>
@@ -18594,7 +18602,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="623" spans="1:9">
+    <row r="623" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A623">
         <v>9</v>
       </c>
@@ -18620,7 +18628,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="624" spans="1:9">
+    <row r="624" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A624">
         <v>8</v>
       </c>
@@ -18646,7 +18654,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="625" spans="1:9">
+    <row r="625" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A625">
         <v>10</v>
       </c>
@@ -18672,7 +18680,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="626" spans="1:9">
+    <row r="626" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A626">
         <v>3.5</v>
       </c>
@@ -18698,7 +18706,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="627" spans="1:9">
+    <row r="627" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A627">
         <v>60</v>
       </c>
@@ -18724,7 +18732,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="628" spans="1:9">
+    <row r="628" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A628">
         <v>10</v>
       </c>
@@ -18750,7 +18758,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="629" spans="1:9">
+    <row r="629" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A629">
         <v>4.4000000000000004</v>
       </c>
@@ -18776,7 +18784,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="630" spans="1:9">
+    <row r="630" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A630">
         <v>5</v>
       </c>
@@ -18802,7 +18810,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="631" spans="1:9">
+    <row r="631" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A631">
         <v>3.6</v>
       </c>
@@ -18828,7 +18836,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="632" spans="1:9">
+    <row r="632" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A632">
         <v>4.7</v>
       </c>
@@ -18854,7 +18862,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="633" spans="1:9">
+    <row r="633" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A633">
         <v>4.7</v>
       </c>
@@ -18880,7 +18888,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="634" spans="1:9">
+    <row r="634" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A634">
         <v>3.7</v>
       </c>
@@ -18906,7 +18914,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="635" spans="1:9">
+    <row r="635" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A635">
         <v>10</v>
       </c>
@@ -18932,7 +18940,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="636" spans="1:9">
+    <row r="636" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A636">
         <v>8.43</v>
       </c>
@@ -18958,7 +18966,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="637" spans="1:9">
+    <row r="637" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A637">
         <v>7.6</v>
       </c>
@@ -18984,7 +18992,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="638" spans="1:9">
+    <row r="638" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A638">
         <v>2</v>
       </c>
@@ -19010,7 +19018,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="639" spans="1:9">
+    <row r="639" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A639">
         <v>4</v>
       </c>
@@ -19036,7 +19044,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="640" spans="1:9">
+    <row r="640" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A640">
         <v>5</v>
       </c>
@@ -19062,7 +19070,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="641" spans="1:9">
+    <row r="641" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A641">
         <v>1.3</v>
       </c>
@@ -19088,7 +19096,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="642" spans="1:9">
+    <row r="642" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A642">
         <v>1</v>
       </c>
@@ -19114,7 +19122,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="643" spans="1:9">
+    <row r="643" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A643">
         <v>13.65</v>
       </c>
@@ -19140,7 +19148,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="644" spans="1:9">
+    <row r="644" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A644">
         <v>7.4</v>
       </c>
@@ -19166,7 +19174,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="645" spans="1:9">
+    <row r="645" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A645">
         <v>39.99</v>
       </c>
@@ -19192,7 +19200,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="646" spans="1:9">
+    <row r="646" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A646">
         <v>9</v>
       </c>
@@ -19218,7 +19226,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="647" spans="1:9">
+    <row r="647" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A647">
         <v>1</v>
       </c>
@@ -19244,7 +19252,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="648" spans="1:9">
+    <row r="648" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A648">
         <v>6.9</v>
       </c>
@@ -19270,7 +19278,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="649" spans="1:9">
+    <row r="649" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A649">
         <v>3.6</v>
       </c>
@@ -19296,7 +19304,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="650" spans="1:9">
+    <row r="650" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A650">
         <v>7.96</v>
       </c>
@@ -19322,7 +19330,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="651" spans="1:9">
+    <row r="651" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A651">
         <v>5</v>
       </c>
@@ -19348,7 +19356,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="652" spans="1:9">
+    <row r="652" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A652">
         <v>2.5</v>
       </c>
@@ -19374,7 +19382,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="653" spans="1:9">
+    <row r="653" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A653">
         <v>7.65</v>
       </c>
@@ -19400,7 +19408,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="654" spans="1:9">
+    <row r="654" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A654">
         <v>4</v>
       </c>
@@ -19426,7 +19434,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="655" spans="1:9">
+    <row r="655" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A655">
         <v>5.7</v>
       </c>
@@ -19452,7 +19460,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="656" spans="1:9">
+    <row r="656" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A656">
         <v>1.9</v>
       </c>
@@ -19478,7 +19486,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="657" spans="1:9">
+    <row r="657" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A657">
         <v>5.9</v>
       </c>
@@ -19504,7 +19512,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="658" spans="1:9">
+    <row r="658" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A658">
         <v>5.6</v>
       </c>
@@ -19530,7 +19538,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="659" spans="1:9">
+    <row r="659" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A659" s="1">
         <v>14</v>
       </c>
@@ -19557,7 +19565,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="660" spans="1:9">
+    <row r="660" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A660">
         <v>4.5</v>
       </c>
@@ -19583,7 +19591,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="661" spans="1:9">
+    <row r="661" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A661">
         <v>5</v>
       </c>
@@ -19609,7 +19617,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="662" spans="1:9">
+    <row r="662" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A662" s="1">
         <v>699</v>
       </c>
@@ -19634,6 +19642,58 @@
       </c>
       <c r="I662">
         <v>660</v>
+      </c>
+    </row>
+    <row r="663" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A663">
+        <v>27</v>
+      </c>
+      <c r="B663" t="s">
+        <v>339</v>
+      </c>
+      <c r="C663" s="2">
+        <v>43457</v>
+      </c>
+      <c r="D663" t="s">
+        <v>637</v>
+      </c>
+      <c r="E663" t="s">
+        <v>232</v>
+      </c>
+      <c r="F663">
+        <v>4</v>
+      </c>
+      <c r="H663" t="s">
+        <v>234</v>
+      </c>
+      <c r="I663">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="664" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A664">
+        <v>1.85</v>
+      </c>
+      <c r="B664" t="s">
+        <v>217</v>
+      </c>
+      <c r="C664" s="2">
+        <v>43458</v>
+      </c>
+      <c r="D664" t="s">
+        <v>638</v>
+      </c>
+      <c r="E664" t="s">
+        <v>232</v>
+      </c>
+      <c r="F664">
+        <v>5</v>
+      </c>
+      <c r="H664" t="s">
+        <v>243</v>
+      </c>
+      <c r="I664">
+        <v>662</v>
       </c>
     </row>
   </sheetData>

--- a/DataBase/costs.xlsx
+++ b/DataBase/costs.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="45" windowWidth="18975" windowHeight="11760"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2667" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2671" uniqueCount="640">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1931,17 +1931,20 @@
   </si>
   <si>
     <t>σαλάτα χωριάτικη μισή μισή με Τσιρογιάννη</t>
+  </si>
+  <si>
+    <t>pop corn και λουξ στην παράσταση "Δείπνο ηλιθίων"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1982,7 +1985,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
     <dxf>
@@ -2074,7 +2077,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:I664" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:I665" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="9">
     <tableColumn id="1" name="amount" headerRowDxfId="9" totalsRowDxfId="8"/>
     <tableColumn id="11" name="type" totalsRowDxfId="7"/>
@@ -2091,7 +2094,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2133,7 +2136,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2165,10 +2168,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2200,7 +2202,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2376,14 +2377,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L664"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L665"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A643" workbookViewId="0">
-      <selection activeCell="F666" sqref="F666"/>
+    <sheetView tabSelected="1" topLeftCell="A655" workbookViewId="0">
+      <selection activeCell="D666" sqref="D666"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.28515625" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
@@ -2399,7 +2400,7 @@
     <col min="12" max="12" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>227</v>
       </c>
@@ -2431,7 +2432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2" s="5" t="s">
         <v>476</v>
       </c>
@@ -2460,7 +2461,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3" s="4">
         <v>20</v>
       </c>
@@ -2487,7 +2488,7 @@
       </c>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4" s="4">
         <v>10</v>
       </c>
@@ -2513,7 +2514,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5" s="4">
         <v>100</v>
       </c>
@@ -2539,7 +2540,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="A6" s="4">
         <v>10</v>
       </c>
@@ -2565,7 +2566,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="A7" s="4">
         <v>50</v>
       </c>
@@ -2591,7 +2592,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="A8" s="4">
         <v>3.2</v>
       </c>
@@ -2617,7 +2618,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="A9" s="4">
         <v>1.3</v>
       </c>
@@ -2643,7 +2644,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="A10" s="4">
         <v>1.2</v>
       </c>
@@ -2669,7 +2670,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="A11" s="4">
         <v>5</v>
       </c>
@@ -2695,7 +2696,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12">
       <c r="A12" s="4">
         <v>4.5</v>
       </c>
@@ -2721,7 +2722,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12">
       <c r="A13" s="4">
         <v>4</v>
       </c>
@@ -2747,7 +2748,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12">
       <c r="A14" s="4">
         <v>10.6</v>
       </c>
@@ -2773,7 +2774,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12">
       <c r="A15" s="4">
         <v>1.8</v>
       </c>
@@ -2799,7 +2800,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12">
       <c r="A16" s="4">
         <v>5.15</v>
       </c>
@@ -2825,7 +2826,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="4">
         <v>18</v>
       </c>
@@ -2851,7 +2852,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="4">
         <v>1.5</v>
       </c>
@@ -2877,7 +2878,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" s="4">
         <v>7.8</v>
       </c>
@@ -2903,7 +2904,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" s="4">
         <v>4.4400000000000004</v>
       </c>
@@ -2929,7 +2930,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="4">
         <v>1.5</v>
       </c>
@@ -2955,7 +2956,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" s="4">
         <v>8.84</v>
       </c>
@@ -2981,7 +2982,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" s="4">
         <v>4</v>
       </c>
@@ -3007,7 +3008,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24" s="4">
         <v>10</v>
       </c>
@@ -3033,7 +3034,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25" s="4">
         <v>1.8</v>
       </c>
@@ -3059,7 +3060,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="A26" s="4">
         <v>11.8</v>
       </c>
@@ -3085,7 +3086,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="A27" s="4">
         <v>40</v>
       </c>
@@ -3111,7 +3112,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="A28" s="4">
         <v>2.9</v>
       </c>
@@ -3137,7 +3138,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="A29" s="4">
         <v>4.3</v>
       </c>
@@ -3163,7 +3164,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="A30" s="4">
         <v>3.35</v>
       </c>
@@ -3189,7 +3190,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="A31" s="4">
         <v>5.2</v>
       </c>
@@ -3215,7 +3216,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9">
       <c r="A32" s="4">
         <v>15</v>
       </c>
@@ -3241,7 +3242,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9">
       <c r="A33" s="4">
         <v>3.9</v>
       </c>
@@ -3267,7 +3268,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9">
       <c r="A34" s="4">
         <v>63.45</v>
       </c>
@@ -3293,7 +3294,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9">
       <c r="A35" s="4">
         <v>49.9</v>
       </c>
@@ -3319,7 +3320,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9">
       <c r="A36" s="4">
         <v>140</v>
       </c>
@@ -3345,7 +3346,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9">
       <c r="A37" s="4">
         <v>1.8</v>
       </c>
@@ -3371,7 +3372,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9">
       <c r="A38" s="4">
         <v>13.02</v>
       </c>
@@ -3397,7 +3398,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9">
       <c r="A39" s="4">
         <v>4.7</v>
       </c>
@@ -3423,7 +3424,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9">
       <c r="A40" s="4">
         <v>15.96</v>
       </c>
@@ -3449,7 +3450,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9">
       <c r="A41" s="4">
         <v>9.8000000000000007</v>
       </c>
@@ -3475,7 +3476,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9">
       <c r="A42" s="4">
         <v>79.8</v>
       </c>
@@ -3501,7 +3502,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9">
       <c r="A43" s="4">
         <v>11.9</v>
       </c>
@@ -3527,7 +3528,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9">
       <c r="A44" s="4">
         <v>38.880000000000003</v>
       </c>
@@ -3553,7 +3554,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9">
       <c r="A45" s="4">
         <v>7.75</v>
       </c>
@@ -3579,7 +3580,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9">
       <c r="A46" s="4">
         <v>0.79</v>
       </c>
@@ -3605,7 +3606,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9">
       <c r="A47" s="4">
         <v>10</v>
       </c>
@@ -3631,7 +3632,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9">
       <c r="A48" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -3657,7 +3658,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11">
       <c r="A49" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -3683,7 +3684,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11">
       <c r="A50" s="4">
         <v>1.8</v>
       </c>
@@ -3709,7 +3710,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11">
       <c r="A51" s="4">
         <v>24</v>
       </c>
@@ -3735,7 +3736,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11">
       <c r="A52" s="4">
         <v>24</v>
       </c>
@@ -3761,7 +3762,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11">
       <c r="A53" s="4">
         <v>1.8</v>
       </c>
@@ -3787,7 +3788,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11">
       <c r="A54" s="4">
         <v>3.5</v>
       </c>
@@ -3813,7 +3814,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11">
       <c r="A55" s="4">
         <v>5.6</v>
       </c>
@@ -3840,7 +3841,7 @@
       </c>
       <c r="K55" s="4"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11">
       <c r="A56" s="4">
         <v>1.5</v>
       </c>
@@ -3866,7 +3867,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11">
       <c r="A57" s="4">
         <v>3</v>
       </c>
@@ -3892,7 +3893,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11">
       <c r="A58" s="4">
         <v>5.4</v>
       </c>
@@ -3918,7 +3919,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11">
       <c r="A59" s="4">
         <v>8</v>
       </c>
@@ -3944,7 +3945,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11">
       <c r="A60" s="4">
         <v>5.4</v>
       </c>
@@ -3970,7 +3971,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11">
       <c r="A61" s="4">
         <v>0.6</v>
       </c>
@@ -3996,7 +3997,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11">
       <c r="A62" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -4022,7 +4023,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11">
       <c r="A63" s="4">
         <v>1.5</v>
       </c>
@@ -4048,7 +4049,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11">
       <c r="A64" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -4074,7 +4075,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11">
       <c r="A65" s="4">
         <v>1.2</v>
       </c>
@@ -4100,7 +4101,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11">
       <c r="A66" s="4">
         <v>5.0999999999999996</v>
       </c>
@@ -4126,7 +4127,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11">
       <c r="A67" s="4">
         <v>13.5</v>
       </c>
@@ -4152,7 +4153,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11">
       <c r="A68" s="4">
         <v>3.5</v>
       </c>
@@ -4179,7 +4180,7 @@
       </c>
       <c r="K68" s="4"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11">
       <c r="A69" s="4">
         <v>4.0999999999999996</v>
       </c>
@@ -4205,7 +4206,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11">
       <c r="A70" s="4">
         <v>90</v>
       </c>
@@ -4231,7 +4232,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11">
       <c r="A71" s="4">
         <v>65.5</v>
       </c>
@@ -4257,7 +4258,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11">
       <c r="A72" s="4">
         <v>4.5</v>
       </c>
@@ -4283,7 +4284,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11">
       <c r="A73" s="4">
         <v>10</v>
       </c>
@@ -4309,7 +4310,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11">
       <c r="A74" s="4">
         <v>18.8</v>
       </c>
@@ -4335,7 +4336,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11">
       <c r="A75" s="4">
         <v>1.8</v>
       </c>
@@ -4362,7 +4363,7 @@
       </c>
       <c r="K75" s="4"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11">
       <c r="A76" s="4">
         <v>5.5</v>
       </c>
@@ -4388,7 +4389,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11">
       <c r="A77" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -4414,7 +4415,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11">
       <c r="A78" s="4">
         <v>3</v>
       </c>
@@ -4440,7 +4441,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11">
       <c r="A79" s="4">
         <v>2</v>
       </c>
@@ -4466,7 +4467,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11">
       <c r="A80" s="4">
         <v>9.9</v>
       </c>
@@ -4492,7 +4493,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9">
       <c r="A81" s="4">
         <v>6.5</v>
       </c>
@@ -4518,7 +4519,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9">
       <c r="A82" s="4">
         <v>79.8</v>
       </c>
@@ -4544,7 +4545,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9">
       <c r="A83" s="4">
         <v>10</v>
       </c>
@@ -4570,7 +4571,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9">
       <c r="A84" s="4">
         <v>2.5</v>
       </c>
@@ -4596,7 +4597,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9">
       <c r="A85" s="4">
         <v>5</v>
       </c>
@@ -4622,7 +4623,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9">
       <c r="A86" s="4">
         <v>1.6</v>
       </c>
@@ -4648,7 +4649,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9">
       <c r="A87" s="4">
         <v>5.5</v>
       </c>
@@ -4674,7 +4675,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9">
       <c r="A88" s="4">
         <v>0.8</v>
       </c>
@@ -4700,7 +4701,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9">
       <c r="A89" s="4">
         <v>17</v>
       </c>
@@ -4726,7 +4727,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9">
       <c r="A90" s="4">
         <v>24.9</v>
       </c>
@@ -4752,7 +4753,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9">
       <c r="A91" s="4">
         <v>1.8</v>
       </c>
@@ -4778,7 +4779,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9">
       <c r="A92" s="4">
         <v>44.99</v>
       </c>
@@ -4804,7 +4805,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9">
       <c r="A93" s="4">
         <v>4</v>
       </c>
@@ -4830,7 +4831,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9">
       <c r="A94" s="4">
         <v>5</v>
       </c>
@@ -4856,7 +4857,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9">
       <c r="A95" s="4">
         <v>5</v>
       </c>
@@ -4882,7 +4883,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9">
       <c r="A96" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -4908,7 +4909,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9">
       <c r="A97" s="4">
         <v>3</v>
       </c>
@@ -4934,7 +4935,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9">
       <c r="A98" s="4">
         <v>6</v>
       </c>
@@ -4960,7 +4961,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9">
       <c r="A99" s="4">
         <v>3.5</v>
       </c>
@@ -4986,7 +4987,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9">
       <c r="A100" s="4">
         <v>34.9</v>
       </c>
@@ -5012,7 +5013,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9">
       <c r="A101" s="4">
         <v>12</v>
       </c>
@@ -5038,7 +5039,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9">
       <c r="A102" s="4">
         <v>5</v>
       </c>
@@ -5064,7 +5065,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9">
       <c r="A103" s="4">
         <v>6.9</v>
       </c>
@@ -5090,7 +5091,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9">
       <c r="A104" s="4">
         <v>6.04</v>
       </c>
@@ -5116,7 +5117,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9">
       <c r="A105" s="4">
         <v>4.8</v>
       </c>
@@ -5142,7 +5143,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9">
       <c r="A106" s="4">
         <v>9.6999999999999993</v>
       </c>
@@ -5168,7 +5169,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9">
       <c r="A107" s="4">
         <v>5.5</v>
       </c>
@@ -5194,7 +5195,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9">
       <c r="A108" s="4">
         <v>7</v>
       </c>
@@ -5220,7 +5221,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9">
       <c r="A109" s="4">
         <v>1</v>
       </c>
@@ -5246,7 +5247,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9">
       <c r="A110" s="4">
         <v>4</v>
       </c>
@@ -5272,7 +5273,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9">
       <c r="A111" s="4">
         <v>4.0999999999999996</v>
       </c>
@@ -5298,7 +5299,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9">
       <c r="A112" s="4">
         <v>2.3199999999999998</v>
       </c>
@@ -5324,7 +5325,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9">
       <c r="A113" s="4">
         <v>8</v>
       </c>
@@ -5350,7 +5351,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9">
       <c r="A114" s="4">
         <v>12.5</v>
       </c>
@@ -5376,7 +5377,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9">
       <c r="A115" s="4">
         <v>0.7</v>
       </c>
@@ -5402,7 +5403,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9">
       <c r="A116" s="4">
         <v>6.3</v>
       </c>
@@ -5428,7 +5429,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9">
       <c r="A117" s="4">
         <v>8</v>
       </c>
@@ -5454,7 +5455,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9">
       <c r="A118" s="4">
         <v>5.0999999999999996</v>
       </c>
@@ -5480,7 +5481,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9">
       <c r="A119" s="4">
         <v>8</v>
       </c>
@@ -5506,7 +5507,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9">
       <c r="A120" s="4">
         <v>4.5</v>
       </c>
@@ -5532,7 +5533,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9">
       <c r="A121" s="4">
         <v>2.5</v>
       </c>
@@ -5558,7 +5559,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9">
       <c r="A122" s="4">
         <v>24.3</v>
       </c>
@@ -5584,7 +5585,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9">
       <c r="A123" s="4">
         <v>2</v>
       </c>
@@ -5610,7 +5611,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9">
       <c r="A124" s="4">
         <v>16</v>
       </c>
@@ -5636,7 +5637,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9">
       <c r="A125" s="4">
         <v>6</v>
       </c>
@@ -5662,7 +5663,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9">
       <c r="A126" s="4">
         <v>5</v>
       </c>
@@ -5688,7 +5689,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9">
       <c r="A127" s="4">
         <v>6.52</v>
       </c>
@@ -5714,7 +5715,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9">
       <c r="A128" s="4">
         <v>1.8</v>
       </c>
@@ -5740,7 +5741,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9">
       <c r="A129" s="4">
         <v>1</v>
       </c>
@@ -5766,7 +5767,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9">
       <c r="A130" s="4">
         <v>5</v>
       </c>
@@ -5792,7 +5793,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9">
       <c r="A131" s="4">
         <v>43</v>
       </c>
@@ -5818,7 +5819,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9">
       <c r="A132" s="4">
         <v>10</v>
       </c>
@@ -5844,7 +5845,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9">
       <c r="A133" s="4">
         <v>2.97</v>
       </c>
@@ -5870,7 +5871,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9">
       <c r="A134" s="4">
         <v>10</v>
       </c>
@@ -5896,7 +5897,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9">
       <c r="A135" s="4">
         <v>1.6</v>
       </c>
@@ -5922,7 +5923,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9">
       <c r="A136" s="4">
         <v>1.5</v>
       </c>
@@ -5948,7 +5949,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9">
       <c r="A137" s="4">
         <v>1.8</v>
       </c>
@@ -5974,7 +5975,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9">
       <c r="A138" s="4">
         <v>7.3</v>
       </c>
@@ -6000,7 +6001,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9">
       <c r="A139" s="4">
         <v>4</v>
       </c>
@@ -6026,7 +6027,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9">
       <c r="A140" s="4">
         <v>2.1</v>
       </c>
@@ -6052,7 +6053,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9">
       <c r="A141" s="4">
         <v>4.2</v>
       </c>
@@ -6078,7 +6079,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9">
       <c r="A142" s="4">
         <v>9</v>
       </c>
@@ -6104,7 +6105,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9">
       <c r="A143" s="4">
         <v>1</v>
       </c>
@@ -6130,7 +6131,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9">
       <c r="A144" s="4">
         <v>3.5</v>
       </c>
@@ -6156,7 +6157,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9">
       <c r="A145" s="4">
         <v>5.0999999999999996</v>
       </c>
@@ -6182,7 +6183,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9">
       <c r="A146" s="4">
         <v>3</v>
       </c>
@@ -6208,7 +6209,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9">
       <c r="A147" s="4">
         <v>2</v>
       </c>
@@ -6234,7 +6235,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9">
       <c r="A148" s="4">
         <v>150</v>
       </c>
@@ -6260,7 +6261,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9">
       <c r="A149" s="4">
         <v>7</v>
       </c>
@@ -6286,7 +6287,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9">
       <c r="A150" s="4">
         <v>5</v>
       </c>
@@ -6312,7 +6313,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9">
       <c r="A151" s="4">
         <v>8</v>
       </c>
@@ -6338,7 +6339,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9">
       <c r="A152" s="4">
         <v>3.5</v>
       </c>
@@ -6364,7 +6365,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9">
       <c r="A153" s="4">
         <v>55</v>
       </c>
@@ -6390,7 +6391,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9">
       <c r="A154" s="4">
         <v>0.6</v>
       </c>
@@ -6416,7 +6417,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9">
       <c r="A155" s="4">
         <v>4</v>
       </c>
@@ -6442,7 +6443,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9">
       <c r="A156" s="4">
         <v>39.9</v>
       </c>
@@ -6468,7 +6469,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9">
       <c r="A157" s="4">
         <v>1.6</v>
       </c>
@@ -6494,7 +6495,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9">
       <c r="A158" s="4">
         <v>80</v>
       </c>
@@ -6520,7 +6521,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9">
       <c r="A159" s="4">
         <v>6.2</v>
       </c>
@@ -6546,7 +6547,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9">
       <c r="A160" s="4">
         <v>15</v>
       </c>
@@ -6572,7 +6573,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9">
       <c r="A161" s="4">
         <v>4.3</v>
       </c>
@@ -6598,7 +6599,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9">
       <c r="A162" s="4">
         <v>9.6999999999999993</v>
       </c>
@@ -6624,7 +6625,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9">
       <c r="A163" s="4">
         <v>2.4500000000000002</v>
       </c>
@@ -6650,7 +6651,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9">
       <c r="A164" s="4">
         <v>1.96</v>
       </c>
@@ -6676,7 +6677,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9">
       <c r="A165" s="4">
         <v>11.5</v>
       </c>
@@ -6702,7 +6703,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9">
       <c r="A166" s="4">
         <v>2.7</v>
       </c>
@@ -6728,7 +6729,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9">
       <c r="A167" s="4">
         <v>2.7</v>
       </c>
@@ -6754,7 +6755,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9">
       <c r="A168" s="4">
         <v>7</v>
       </c>
@@ -6780,7 +6781,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9">
       <c r="A169" s="4">
         <v>4.8</v>
       </c>
@@ -6806,7 +6807,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9">
       <c r="A170" s="4">
         <v>4.4000000000000004</v>
       </c>
@@ -6832,7 +6833,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9">
       <c r="A171" s="4">
         <v>3.8</v>
       </c>
@@ -6858,7 +6859,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9">
       <c r="A172" s="4">
         <v>1.5</v>
       </c>
@@ -6884,7 +6885,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9">
       <c r="A173" s="4">
         <v>11.5</v>
       </c>
@@ -6910,7 +6911,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9">
       <c r="A174" s="4">
         <v>4.4000000000000004</v>
       </c>
@@ -6936,7 +6937,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9">
       <c r="A175" s="4">
         <v>6.5</v>
       </c>
@@ -6962,7 +6963,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9">
       <c r="A176" s="4">
         <v>6.5</v>
       </c>
@@ -6988,7 +6989,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9">
       <c r="A177" s="4">
         <v>5</v>
       </c>
@@ -7014,7 +7015,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9">
       <c r="A178" s="4">
         <v>6</v>
       </c>
@@ -7040,7 +7041,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9">
       <c r="A179" s="4">
         <v>8</v>
       </c>
@@ -7066,7 +7067,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9">
       <c r="A180" s="4">
         <v>3.2</v>
       </c>
@@ -7092,7 +7093,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9">
       <c r="A181" s="4">
         <v>10</v>
       </c>
@@ -7118,7 +7119,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9">
       <c r="A182" s="4">
         <v>3</v>
       </c>
@@ -7144,7 +7145,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9">
       <c r="A183" s="4">
         <v>10</v>
       </c>
@@ -7170,7 +7171,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9">
       <c r="A184" s="4">
         <v>3.5</v>
       </c>
@@ -7196,7 +7197,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9">
       <c r="A185" s="4">
         <v>10</v>
       </c>
@@ -7222,7 +7223,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9">
       <c r="A186" s="4">
         <v>8</v>
       </c>
@@ -7248,7 +7249,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9">
       <c r="A187" s="4">
         <v>6.2</v>
       </c>
@@ -7274,7 +7275,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9">
       <c r="A188" s="4">
         <v>2</v>
       </c>
@@ -7300,7 +7301,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9">
       <c r="A189" s="4">
         <v>10</v>
       </c>
@@ -7326,7 +7327,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9">
       <c r="A190" s="4">
         <v>22</v>
       </c>
@@ -7352,7 +7353,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9">
       <c r="A191" s="4">
         <v>14</v>
       </c>
@@ -7378,7 +7379,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9">
       <c r="A192" s="4">
         <v>14</v>
       </c>
@@ -7404,7 +7405,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9">
       <c r="A193" s="4">
         <v>4.7</v>
       </c>
@@ -7430,7 +7431,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9">
       <c r="A194" s="4">
         <v>69.900000000000006</v>
       </c>
@@ -7456,7 +7457,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9">
       <c r="A195" s="4">
         <v>8.4</v>
       </c>
@@ -7482,7 +7483,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9">
       <c r="A196" s="4">
         <v>5</v>
       </c>
@@ -7508,7 +7509,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9">
       <c r="A197" s="4">
         <v>4.5</v>
       </c>
@@ -7534,7 +7535,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9">
       <c r="A198" s="4">
         <v>6</v>
       </c>
@@ -7560,7 +7561,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9">
       <c r="A199" s="4">
         <v>5.46</v>
       </c>
@@ -7586,7 +7587,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9">
       <c r="A200" s="4">
         <v>78.849999999999994</v>
       </c>
@@ -7612,7 +7613,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9">
       <c r="A201" s="4">
         <v>10</v>
       </c>
@@ -7638,7 +7639,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9">
       <c r="A202" s="4">
         <v>10</v>
       </c>
@@ -7664,7 +7665,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9">
       <c r="A203" s="4">
         <v>26</v>
       </c>
@@ -7690,7 +7691,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9">
       <c r="A204" s="4">
         <v>2</v>
       </c>
@@ -7716,7 +7717,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9">
       <c r="A205" s="4">
         <v>2.5</v>
       </c>
@@ -7742,7 +7743,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9">
       <c r="A206" s="4">
         <v>5.9</v>
       </c>
@@ -7768,7 +7769,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9">
       <c r="A207" s="4">
         <v>8.6</v>
       </c>
@@ -7794,7 +7795,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9">
       <c r="A208" s="4">
         <v>2.7</v>
       </c>
@@ -7820,7 +7821,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9">
       <c r="A209" s="4">
         <v>4.8</v>
       </c>
@@ -7846,7 +7847,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9">
       <c r="A210" s="4">
         <v>2.8</v>
       </c>
@@ -7872,7 +7873,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9">
       <c r="A211" s="4">
         <v>2</v>
       </c>
@@ -7898,7 +7899,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9">
       <c r="A212" s="4">
         <v>5</v>
       </c>
@@ -7924,7 +7925,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9">
       <c r="A213" s="4">
         <v>2.5</v>
       </c>
@@ -7950,7 +7951,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9">
       <c r="A214" s="4">
         <v>3.5</v>
       </c>
@@ -7976,7 +7977,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9">
       <c r="A215" s="4">
         <v>1.8</v>
       </c>
@@ -8002,7 +8003,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9">
       <c r="A216" s="4">
         <v>4</v>
       </c>
@@ -8028,7 +8029,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9">
       <c r="A217" s="4">
         <v>6</v>
       </c>
@@ -8054,7 +8055,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9">
       <c r="A218" s="4">
         <v>1.8</v>
       </c>
@@ -8080,7 +8081,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9">
       <c r="A219" s="4">
         <v>5</v>
       </c>
@@ -8106,7 +8107,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9">
       <c r="A220" s="4">
         <v>5</v>
       </c>
@@ -8132,7 +8133,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9">
       <c r="A221" s="4">
         <v>4.7</v>
       </c>
@@ -8158,7 +8159,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9">
       <c r="A222" s="4">
         <v>5</v>
       </c>
@@ -8184,7 +8185,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9">
       <c r="A223" s="4">
         <v>10</v>
       </c>
@@ -8210,7 +8211,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9">
       <c r="A224" s="4">
         <v>1.5</v>
       </c>
@@ -8236,7 +8237,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9">
       <c r="A225" s="4">
         <v>129</v>
       </c>
@@ -8262,7 +8263,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9">
       <c r="A226" s="4">
         <v>7</v>
       </c>
@@ -8288,7 +8289,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9">
       <c r="A227" s="4">
         <v>2.8</v>
       </c>
@@ -8314,7 +8315,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9">
       <c r="A228" s="4">
         <v>1</v>
       </c>
@@ -8340,7 +8341,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9">
       <c r="A229" s="4">
         <v>4</v>
       </c>
@@ -8366,7 +8367,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9">
       <c r="A230" s="4">
         <v>50</v>
       </c>
@@ -8392,7 +8393,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9">
       <c r="A231" s="4">
         <v>7.2</v>
       </c>
@@ -8418,7 +8419,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9">
       <c r="A232" s="4">
         <v>1</v>
       </c>
@@ -8444,7 +8445,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9">
       <c r="A233" s="4">
         <v>7</v>
       </c>
@@ -8470,7 +8471,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9">
       <c r="A234" s="4">
         <v>1.1000000000000001</v>
       </c>
@@ -8496,7 +8497,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9">
       <c r="A235" s="4">
         <v>7</v>
       </c>
@@ -8522,7 +8523,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9">
       <c r="A236" s="4">
         <v>15</v>
       </c>
@@ -8548,7 +8549,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9">
       <c r="A237" s="4">
         <v>3</v>
       </c>
@@ -8574,7 +8575,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9">
       <c r="A238" s="4">
         <v>11.2</v>
       </c>
@@ -8600,7 +8601,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9">
       <c r="A239" s="4">
         <v>2.1</v>
       </c>
@@ -8626,7 +8627,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9">
       <c r="A240" s="4">
         <v>150</v>
       </c>
@@ -8652,7 +8653,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9">
       <c r="A241" s="4">
         <v>12.7</v>
       </c>
@@ -8678,7 +8679,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9">
       <c r="A242" s="4">
         <v>89.9</v>
       </c>
@@ -8704,7 +8705,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9">
       <c r="A243" s="4">
         <v>4.4000000000000004</v>
       </c>
@@ -8730,7 +8731,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9">
       <c r="A244" s="4">
         <v>4.2</v>
       </c>
@@ -8756,7 +8757,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9">
       <c r="A245" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -8782,7 +8783,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9">
       <c r="A246" s="4">
         <v>5</v>
       </c>
@@ -8808,7 +8809,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9">
       <c r="A247" s="4">
         <v>5</v>
       </c>
@@ -8834,7 +8835,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9">
       <c r="A248" s="4">
         <v>3.9</v>
       </c>
@@ -8860,7 +8861,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9">
       <c r="A249" s="4">
         <v>0.5</v>
       </c>
@@ -8886,7 +8887,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9">
       <c r="A250" s="4">
         <v>2.4</v>
       </c>
@@ -8912,7 +8913,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9">
       <c r="A251" s="4">
         <v>2</v>
       </c>
@@ -8938,7 +8939,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9">
       <c r="A252" s="4">
         <v>4.7</v>
       </c>
@@ -8964,7 +8965,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9">
       <c r="A253" s="4">
         <v>5.3</v>
       </c>
@@ -8990,7 +8991,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9">
       <c r="A254" s="4">
         <v>4.2</v>
       </c>
@@ -9016,7 +9017,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9">
       <c r="A255" s="4">
         <v>5</v>
       </c>
@@ -9042,7 +9043,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9">
       <c r="A256" s="4">
         <v>2.5</v>
       </c>
@@ -9068,7 +9069,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9">
       <c r="A257" s="4">
         <v>3.3</v>
       </c>
@@ -9094,7 +9095,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9">
       <c r="A258" s="4">
         <v>5.6</v>
       </c>
@@ -9120,7 +9121,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9">
       <c r="A259" s="4">
         <v>4</v>
       </c>
@@ -9146,7 +9147,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9">
       <c r="A260" s="4">
         <v>10.199999999999999</v>
       </c>
@@ -9172,7 +9173,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9">
       <c r="A261" s="4">
         <v>8</v>
       </c>
@@ -9198,7 +9199,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9">
       <c r="A262" s="4">
         <v>2.1</v>
       </c>
@@ -9224,7 +9225,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9">
       <c r="A263" s="4">
         <v>3.7</v>
       </c>
@@ -9250,7 +9251,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9">
       <c r="A264" s="4">
         <v>7</v>
       </c>
@@ -9276,7 +9277,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9">
       <c r="A265" s="4">
         <v>13.5</v>
       </c>
@@ -9302,7 +9303,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9">
       <c r="A266" s="4">
         <v>5</v>
       </c>
@@ -9328,7 +9329,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9">
       <c r="A267" s="4">
         <v>20</v>
       </c>
@@ -9354,7 +9355,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9">
       <c r="A268" s="4">
         <v>6</v>
       </c>
@@ -9380,7 +9381,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9">
       <c r="A269" s="4">
         <v>0.5</v>
       </c>
@@ -9406,7 +9407,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9">
       <c r="A270" s="4">
         <v>5</v>
       </c>
@@ -9432,7 +9433,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9">
       <c r="A271" s="4">
         <v>11</v>
       </c>
@@ -9458,7 +9459,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9">
       <c r="A272" s="4">
         <v>8.8000000000000007</v>
       </c>
@@ -9484,7 +9485,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9">
       <c r="A273" s="4">
         <v>0.5</v>
       </c>
@@ -9510,7 +9511,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9">
       <c r="A274" s="4">
         <v>5</v>
       </c>
@@ -9536,7 +9537,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9">
       <c r="A275" s="4">
         <v>10</v>
       </c>
@@ -9562,7 +9563,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9">
       <c r="A276" s="4">
         <v>15</v>
       </c>
@@ -9588,7 +9589,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9">
       <c r="A277" s="4">
         <v>10</v>
       </c>
@@ -9614,7 +9615,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9">
       <c r="A278" s="4">
         <v>11.9</v>
       </c>
@@ -9640,7 +9641,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9">
       <c r="A279" s="4">
         <v>7</v>
       </c>
@@ -9666,7 +9667,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9">
       <c r="A280" s="4">
         <v>5.0999999999999996</v>
       </c>
@@ -9692,7 +9693,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9">
       <c r="A281">
         <v>1.9</v>
       </c>
@@ -9718,7 +9719,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9">
       <c r="A282">
         <v>119.9</v>
       </c>
@@ -9744,7 +9745,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9">
       <c r="A283">
         <v>6.3</v>
       </c>
@@ -9770,7 +9771,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9">
       <c r="A284">
         <v>3.5</v>
       </c>
@@ -9796,7 +9797,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9">
       <c r="A285">
         <v>1.5</v>
       </c>
@@ -9822,7 +9823,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9">
       <c r="A286">
         <v>1.9</v>
       </c>
@@ -9848,7 +9849,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9">
       <c r="A287">
         <v>4.5</v>
       </c>
@@ -9874,7 +9875,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:9">
       <c r="A288">
         <v>6.4</v>
       </c>
@@ -9900,7 +9901,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:9">
       <c r="A289">
         <v>1.9</v>
       </c>
@@ -9926,7 +9927,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:9">
       <c r="A290">
         <v>10.6</v>
       </c>
@@ -9952,7 +9953,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9">
       <c r="A291">
         <v>4.5</v>
       </c>
@@ -9978,7 +9979,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:9">
       <c r="A292">
         <v>22.2</v>
       </c>
@@ -10004,7 +10005,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:9">
       <c r="A293" s="6">
         <v>25</v>
       </c>
@@ -10030,7 +10031,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:9">
       <c r="A294" s="6">
         <v>3.5</v>
       </c>
@@ -10056,7 +10057,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:9">
       <c r="A295">
         <v>4</v>
       </c>
@@ -10082,7 +10083,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:9">
       <c r="A296">
         <v>2.2000000000000002</v>
       </c>
@@ -10108,7 +10109,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:9">
       <c r="A297">
         <v>11.5</v>
       </c>
@@ -10134,7 +10135,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:9">
       <c r="A298">
         <v>6.3</v>
       </c>
@@ -10160,7 +10161,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:9">
       <c r="A299">
         <v>3.6</v>
       </c>
@@ -10186,7 +10187,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:9">
       <c r="A300">
         <v>15</v>
       </c>
@@ -10212,7 +10213,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:9">
       <c r="A301">
         <v>2</v>
       </c>
@@ -10238,7 +10239,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:9">
       <c r="A302">
         <v>4.5</v>
       </c>
@@ -10264,7 +10265,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:9">
       <c r="A303">
         <v>2.9</v>
       </c>
@@ -10290,7 +10291,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:9">
       <c r="A304">
         <v>3.9</v>
       </c>
@@ -10316,7 +10317,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:9">
       <c r="A305">
         <v>1.7</v>
       </c>
@@ -10342,7 +10343,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:9">
       <c r="A306">
         <v>10</v>
       </c>
@@ -10368,7 +10369,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:9">
       <c r="A307">
         <v>7.5</v>
       </c>
@@ -10394,7 +10395,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:9">
       <c r="A308">
         <v>10.050000000000001</v>
       </c>
@@ -10420,7 +10421,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:9">
       <c r="A309">
         <v>5</v>
       </c>
@@ -10446,7 +10447,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:9">
       <c r="A310">
         <v>3</v>
       </c>
@@ -10472,7 +10473,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:9">
       <c r="A311">
         <v>2</v>
       </c>
@@ -10498,7 +10499,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:9">
       <c r="A312">
         <v>10.6</v>
       </c>
@@ -10524,7 +10525,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:9">
       <c r="A313">
         <v>4</v>
       </c>
@@ -10550,7 +10551,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:9">
       <c r="A314">
         <v>2</v>
       </c>
@@ -10576,7 +10577,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:9">
       <c r="A315">
         <v>5.8</v>
       </c>
@@ -10602,7 +10603,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:9">
       <c r="A316">
         <v>5</v>
       </c>
@@ -10628,7 +10629,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:9">
       <c r="A317">
         <v>6.55</v>
       </c>
@@ -10654,7 +10655,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:9">
       <c r="A318">
         <v>2.8</v>
       </c>
@@ -10680,7 +10681,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:9">
       <c r="A319">
         <v>3.8</v>
       </c>
@@ -10706,7 +10707,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:9">
       <c r="A320">
         <v>9</v>
       </c>
@@ -10732,7 +10733,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:9">
       <c r="A321">
         <v>8</v>
       </c>
@@ -10758,7 +10759,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:9">
       <c r="A322">
         <v>1.5</v>
       </c>
@@ -10784,7 +10785,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:9">
       <c r="A323">
         <v>5</v>
       </c>
@@ -10810,7 +10811,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:9">
       <c r="A324">
         <v>4.5999999999999996</v>
       </c>
@@ -10836,7 +10837,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:9">
       <c r="A325">
         <v>0.5</v>
       </c>
@@ -10862,7 +10863,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:9">
       <c r="A326">
         <v>2.95</v>
       </c>
@@ -10888,7 +10889,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:9">
       <c r="A327">
         <v>3.8</v>
       </c>
@@ -10914,7 +10915,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:9">
       <c r="A328">
         <v>10</v>
       </c>
@@ -10940,7 +10941,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:9">
       <c r="A329">
         <v>3.85</v>
       </c>
@@ -10966,7 +10967,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:9">
       <c r="A330">
         <v>1.2</v>
       </c>
@@ -10992,7 +10993,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:9">
       <c r="A331">
         <v>2</v>
       </c>
@@ -11018,7 +11019,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:9">
       <c r="A332">
         <v>8.5</v>
       </c>
@@ -11044,7 +11045,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:9">
       <c r="A333">
         <v>4.9000000000000004</v>
       </c>
@@ -11070,7 +11071,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:9">
       <c r="A334">
         <v>10</v>
       </c>
@@ -11096,7 +11097,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:9">
       <c r="A335">
         <v>350</v>
       </c>
@@ -11122,7 +11123,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:9">
       <c r="A336">
         <v>4.4000000000000004</v>
       </c>
@@ -11148,7 +11149,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:9">
       <c r="A337">
         <v>3.2</v>
       </c>
@@ -11174,7 +11175,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:9">
       <c r="A338">
         <v>3.8</v>
       </c>
@@ -11200,7 +11201,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:9">
       <c r="A339">
         <v>0.9</v>
       </c>
@@ -11226,7 +11227,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:9">
       <c r="A340">
         <v>6</v>
       </c>
@@ -11252,7 +11253,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:9">
       <c r="A341">
         <v>3.8</v>
       </c>
@@ -11278,7 +11279,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:9">
       <c r="A342">
         <v>2</v>
       </c>
@@ -11304,7 +11305,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:9">
       <c r="A343">
         <v>5.5</v>
       </c>
@@ -11330,7 +11331,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:9">
       <c r="A344">
         <v>43.22</v>
       </c>
@@ -11356,7 +11357,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:9">
       <c r="A345">
         <v>2</v>
       </c>
@@ -11382,7 +11383,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:9">
       <c r="A346">
         <v>7</v>
       </c>
@@ -11408,7 +11409,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:9">
       <c r="A347">
         <v>1.61</v>
       </c>
@@ -11434,7 +11435,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:9">
       <c r="A348">
         <v>20</v>
       </c>
@@ -11460,7 +11461,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:9">
       <c r="A349">
         <v>14.84</v>
       </c>
@@ -11486,7 +11487,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:9">
       <c r="A350">
         <v>5.6</v>
       </c>
@@ -11512,7 +11513,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:9">
       <c r="A351">
         <v>6.8</v>
       </c>
@@ -11538,7 +11539,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:9">
       <c r="A352">
         <v>7.7</v>
       </c>
@@ -11564,7 +11565,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="353" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:12">
       <c r="A353">
         <v>29.4</v>
       </c>
@@ -11590,7 +11591,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:12">
       <c r="A354">
         <v>0.5</v>
       </c>
@@ -11616,7 +11617,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:12">
       <c r="A355">
         <v>2.2000000000000002</v>
       </c>
@@ -11642,7 +11643,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:12">
       <c r="A356">
         <v>3.5</v>
       </c>
@@ -11668,7 +11669,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="357" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:12">
       <c r="A357">
         <v>4.4000000000000004</v>
       </c>
@@ -11694,7 +11695,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="358" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:12">
       <c r="A358">
         <v>5.7</v>
       </c>
@@ -11720,7 +11721,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="359" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:12">
       <c r="A359">
         <v>7.74</v>
       </c>
@@ -11746,7 +11747,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="360" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:12">
       <c r="A360">
         <v>7</v>
       </c>
@@ -11772,7 +11773,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="361" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:12">
       <c r="A361">
         <v>3.8</v>
       </c>
@@ -11798,7 +11799,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="362" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:12">
       <c r="A362">
         <v>100</v>
       </c>
@@ -11824,7 +11825,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="363" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:12">
       <c r="A363" s="1">
         <v>5</v>
       </c>
@@ -11851,7 +11852,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="364" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:12">
       <c r="A364" s="6">
         <v>2</v>
       </c>
@@ -11880,7 +11881,7 @@
       <c r="K364" s="1"/>
       <c r="L364" s="1"/>
     </row>
-    <row r="365" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:12">
       <c r="A365">
         <v>7</v>
       </c>
@@ -11906,7 +11907,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="366" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:12">
       <c r="A366">
         <v>50</v>
       </c>
@@ -11932,7 +11933,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="367" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:12">
       <c r="A367">
         <v>10</v>
       </c>
@@ -11958,7 +11959,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="368" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:12">
       <c r="A368">
         <v>10.8</v>
       </c>
@@ -11984,7 +11985,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:9">
       <c r="A369">
         <v>10.5</v>
       </c>
@@ -12010,7 +12011,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:9">
       <c r="A370">
         <v>5.5</v>
       </c>
@@ -12036,7 +12037,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:9">
       <c r="A371">
         <v>5</v>
       </c>
@@ -12062,7 +12063,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:9">
       <c r="A372">
         <v>0.5</v>
       </c>
@@ -12088,7 +12089,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:9">
       <c r="A373">
         <v>10.5</v>
       </c>
@@ -12114,7 +12115,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:9">
       <c r="A374">
         <v>14</v>
       </c>
@@ -12140,7 +12141,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:9">
       <c r="A375">
         <v>2</v>
       </c>
@@ -12166,7 +12167,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:9">
       <c r="A376">
         <v>3.5</v>
       </c>
@@ -12192,7 +12193,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:9">
       <c r="A377">
         <v>3.5</v>
       </c>
@@ -12218,7 +12219,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:9">
       <c r="A378">
         <v>3.5</v>
       </c>
@@ -12244,7 +12245,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:9">
       <c r="A379">
         <v>2</v>
       </c>
@@ -12270,7 +12271,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:9">
       <c r="A380">
         <v>2</v>
       </c>
@@ -12296,7 +12297,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:9">
       <c r="A381">
         <v>2.5</v>
       </c>
@@ -12322,7 +12323,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:9">
       <c r="A382">
         <v>6.5</v>
       </c>
@@ -12348,7 +12349,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:9">
       <c r="A383">
         <v>3.78</v>
       </c>
@@ -12374,7 +12375,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:9">
       <c r="A384">
         <v>7</v>
       </c>
@@ -12400,7 +12401,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:9">
       <c r="A385">
         <v>2.5</v>
       </c>
@@ -12426,7 +12427,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:9">
       <c r="A386">
         <v>2</v>
       </c>
@@ -12452,7 +12453,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:9">
       <c r="A387">
         <v>1</v>
       </c>
@@ -12478,7 +12479,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:9">
       <c r="A388">
         <v>10.5</v>
       </c>
@@ -12504,7 +12505,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:9">
       <c r="A389">
         <v>1.5</v>
       </c>
@@ -12530,7 +12531,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:9">
       <c r="A390">
         <v>2.7</v>
       </c>
@@ -12556,7 +12557,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:9">
       <c r="A391">
         <v>2</v>
       </c>
@@ -12582,7 +12583,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:9">
       <c r="A392">
         <v>17.5</v>
       </c>
@@ -12608,7 +12609,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:9">
       <c r="A393">
         <v>43</v>
       </c>
@@ -12634,7 +12635,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:9">
       <c r="A394">
         <v>69.900000000000006</v>
       </c>
@@ -12660,7 +12661,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:9">
       <c r="A395">
         <v>16</v>
       </c>
@@ -12686,7 +12687,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:9">
       <c r="A396">
         <v>2.2000000000000002</v>
       </c>
@@ -12712,7 +12713,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:9">
       <c r="A397">
         <v>1.72</v>
       </c>
@@ -12738,7 +12739,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:9">
       <c r="A398">
         <v>6</v>
       </c>
@@ -12764,7 +12765,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:9">
       <c r="A399">
         <v>1.8</v>
       </c>
@@ -12790,7 +12791,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:9">
       <c r="A400">
         <v>4.5999999999999996</v>
       </c>
@@ -12816,7 +12817,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:9">
       <c r="A401">
         <v>27</v>
       </c>
@@ -12842,7 +12843,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:9">
       <c r="A402">
         <v>14</v>
       </c>
@@ -12868,7 +12869,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:9">
       <c r="A403">
         <v>2.5</v>
       </c>
@@ -12894,7 +12895,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:9">
       <c r="A404">
         <v>10</v>
       </c>
@@ -12920,7 +12921,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:9">
       <c r="A405">
         <v>11</v>
       </c>
@@ -12946,7 +12947,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:9">
       <c r="A406">
         <v>5.55</v>
       </c>
@@ -12972,7 +12973,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:9">
       <c r="A407">
         <v>3</v>
       </c>
@@ -12998,7 +12999,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:9">
       <c r="A408">
         <v>3.5</v>
       </c>
@@ -13024,7 +13025,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:9">
       <c r="A409">
         <v>3.8</v>
       </c>
@@ -13050,7 +13051,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:9">
       <c r="A410">
         <v>4</v>
       </c>
@@ -13076,7 +13077,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:9">
       <c r="A411">
         <v>8</v>
       </c>
@@ -13102,7 +13103,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:9">
       <c r="A412">
         <v>11.6</v>
       </c>
@@ -13128,7 +13129,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:9">
       <c r="A413">
         <v>1.6</v>
       </c>
@@ -13154,7 +13155,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:9">
       <c r="A414">
         <v>44.41</v>
       </c>
@@ -13180,7 +13181,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:9">
       <c r="A415">
         <v>4.8</v>
       </c>
@@ -13206,7 +13207,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:9">
       <c r="A416">
         <v>1.7</v>
       </c>
@@ -13232,7 +13233,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:9">
       <c r="A417">
         <v>2.85</v>
       </c>
@@ -13258,7 +13259,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:9">
       <c r="A418">
         <v>6.4</v>
       </c>
@@ -13284,7 +13285,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:9">
       <c r="A419">
         <v>3.5</v>
       </c>
@@ -13310,7 +13311,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:9">
       <c r="A420">
         <v>6.5</v>
       </c>
@@ -13336,7 +13337,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:9">
       <c r="A421">
         <v>1.2</v>
       </c>
@@ -13362,7 +13363,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:9">
       <c r="A422">
         <v>4.5999999999999996</v>
       </c>
@@ -13388,7 +13389,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:9">
       <c r="A423">
         <v>8</v>
       </c>
@@ -13414,7 +13415,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:9">
       <c r="A424">
         <v>3.5</v>
       </c>
@@ -13440,7 +13441,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:9">
       <c r="A425" s="1">
         <v>50</v>
       </c>
@@ -13467,7 +13468,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:9">
       <c r="A426">
         <v>10</v>
       </c>
@@ -13493,7 +13494,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:9">
       <c r="A427">
         <v>2.9</v>
       </c>
@@ -13519,7 +13520,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:9">
       <c r="A428">
         <v>15</v>
       </c>
@@ -13545,7 +13546,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:9">
       <c r="A429">
         <v>3.5</v>
       </c>
@@ -13571,7 +13572,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:9">
       <c r="A430">
         <v>9.25</v>
       </c>
@@ -13597,7 +13598,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:9">
       <c r="A431">
         <v>8</v>
       </c>
@@ -13623,7 +13624,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="432" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:9">
       <c r="A432">
         <v>4.0999999999999996</v>
       </c>
@@ -13649,7 +13650,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:9">
       <c r="A433">
         <v>4.9000000000000004</v>
       </c>
@@ -13675,7 +13676,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="434" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:9">
       <c r="A434">
         <v>2.8</v>
       </c>
@@ -13701,7 +13702,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="435" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:9">
       <c r="A435">
         <v>18.7</v>
       </c>
@@ -13727,7 +13728,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="436" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:9">
       <c r="A436">
         <v>20</v>
       </c>
@@ -13753,7 +13754,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="437" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:9">
       <c r="A437" s="1">
         <v>150</v>
       </c>
@@ -13780,7 +13781,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="438" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:9">
       <c r="A438" s="1">
         <v>10</v>
       </c>
@@ -13807,7 +13808,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="439" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:9">
       <c r="A439">
         <v>2.1</v>
       </c>
@@ -13833,7 +13834,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="440" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:9">
       <c r="A440">
         <v>5</v>
       </c>
@@ -13859,7 +13860,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="441" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:9">
       <c r="A441">
         <v>10</v>
       </c>
@@ -13885,7 +13886,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="442" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:9">
       <c r="A442">
         <v>59</v>
       </c>
@@ -13911,7 +13912,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="443" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:9">
       <c r="A443">
         <v>4</v>
       </c>
@@ -13937,7 +13938,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="444" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:9">
       <c r="A444">
         <v>4.17</v>
       </c>
@@ -13963,7 +13964,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="445" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:9">
       <c r="A445">
         <v>4.2</v>
       </c>
@@ -13989,7 +13990,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="446" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:9">
       <c r="A446">
         <v>4.4000000000000004</v>
       </c>
@@ -14015,7 +14016,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="447" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:9">
       <c r="A447">
         <v>30</v>
       </c>
@@ -14041,7 +14042,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="448" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:9">
       <c r="A448">
         <v>5</v>
       </c>
@@ -14067,7 +14068,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="449" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:9">
       <c r="A449">
         <v>15.7</v>
       </c>
@@ -14093,7 +14094,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="450" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:9">
       <c r="A450">
         <v>4</v>
       </c>
@@ -14119,7 +14120,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="451" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:9">
       <c r="A451">
         <v>8</v>
       </c>
@@ -14145,7 +14146,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="452" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:9">
       <c r="A452">
         <v>3.5</v>
       </c>
@@ -14171,7 +14172,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:9">
       <c r="A453">
         <v>4.2</v>
       </c>
@@ -14197,7 +14198,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="454" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:9">
       <c r="A454">
         <v>180</v>
       </c>
@@ -14223,7 +14224,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:9">
       <c r="A455">
         <v>2.2999999999999998</v>
       </c>
@@ -14249,7 +14250,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:9">
       <c r="A456">
         <v>11</v>
       </c>
@@ -14275,7 +14276,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="457" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:9">
       <c r="A457">
         <v>2</v>
       </c>
@@ -14301,7 +14302,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="458" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:9">
       <c r="A458">
         <v>3</v>
       </c>
@@ -14327,7 +14328,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="459" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:9">
       <c r="A459">
         <v>6.4</v>
       </c>
@@ -14353,7 +14354,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="460" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:9">
       <c r="A460">
         <v>3.2</v>
       </c>
@@ -14379,7 +14380,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="461" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:9">
       <c r="A461">
         <v>1</v>
       </c>
@@ -14405,7 +14406,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="462" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:9">
       <c r="A462">
         <v>4.2</v>
       </c>
@@ -14431,7 +14432,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="463" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:9">
       <c r="A463">
         <v>14</v>
       </c>
@@ -14457,7 +14458,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="464" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:9">
       <c r="A464">
         <v>2.9</v>
       </c>
@@ -14483,7 +14484,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="465" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:9">
       <c r="A465">
         <v>4</v>
       </c>
@@ -14509,7 +14510,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="466" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:9">
       <c r="A466">
         <v>1.8</v>
       </c>
@@ -14535,7 +14536,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="467" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:9">
       <c r="A467">
         <v>18</v>
       </c>
@@ -14561,7 +14562,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="468" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:9">
       <c r="A468">
         <v>2</v>
       </c>
@@ -14587,7 +14588,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="469" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:9">
       <c r="A469">
         <v>3</v>
       </c>
@@ -14613,7 +14614,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="470" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:9">
       <c r="A470">
         <v>10</v>
       </c>
@@ -14639,7 +14640,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="471" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:9">
       <c r="A471">
         <v>8.3000000000000007</v>
       </c>
@@ -14665,7 +14666,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="472" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:9">
       <c r="A472">
         <v>362</v>
       </c>
@@ -14691,7 +14692,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="473" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:9">
       <c r="A473">
         <v>4.2</v>
       </c>
@@ -14717,7 +14718,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="474" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:9">
       <c r="A474">
         <v>0.5</v>
       </c>
@@ -14743,7 +14744,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="475" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:9">
       <c r="A475">
         <v>1.7</v>
       </c>
@@ -14769,7 +14770,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="476" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:9">
       <c r="A476">
         <v>4.5999999999999996</v>
       </c>
@@ -14795,7 +14796,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="477" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:9">
       <c r="A477">
         <v>4.7</v>
       </c>
@@ -14821,7 +14822,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="478" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:9">
       <c r="A478">
         <v>1</v>
       </c>
@@ -14847,7 +14848,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="479" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:9">
       <c r="A479">
         <v>5.6</v>
       </c>
@@ -14873,7 +14874,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="480" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:9">
       <c r="A480">
         <v>33.799999999999997</v>
       </c>
@@ -14899,7 +14900,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="481" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:9">
       <c r="A481">
         <v>8</v>
       </c>
@@ -14925,7 +14926,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="482" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:9">
       <c r="A482">
         <v>5.2</v>
       </c>
@@ -14951,7 +14952,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="483" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:9">
       <c r="A483">
         <v>5.4</v>
       </c>
@@ -14977,7 +14978,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="484" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:9">
       <c r="A484">
         <v>40</v>
       </c>
@@ -15003,7 +15004,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="485" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:9">
       <c r="A485">
         <v>10.8</v>
       </c>
@@ -15029,7 +15030,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="486" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:9">
       <c r="A486">
         <v>15</v>
       </c>
@@ -15055,7 +15056,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="487" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:9">
       <c r="A487">
         <v>20</v>
       </c>
@@ -15081,7 +15082,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="488" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:9">
       <c r="A488">
         <v>3</v>
       </c>
@@ -15107,7 +15108,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="489" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:9">
       <c r="A489">
         <v>3.5</v>
       </c>
@@ -15133,7 +15134,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="490" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:9">
       <c r="A490">
         <v>2.2000000000000002</v>
       </c>
@@ -15159,7 +15160,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="491" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:9">
       <c r="A491">
         <v>4.5</v>
       </c>
@@ -15185,7 +15186,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="492" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:9">
       <c r="A492">
         <v>4.2</v>
       </c>
@@ -15211,7 +15212,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="493" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:9">
       <c r="A493">
         <v>5</v>
       </c>
@@ -15237,7 +15238,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="494" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:9">
       <c r="A494" s="1">
         <v>27.69</v>
       </c>
@@ -15264,7 +15265,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="495" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:9">
       <c r="A495">
         <v>70</v>
       </c>
@@ -15290,7 +15291,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="496" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:9">
       <c r="A496" s="1">
         <v>2.2999999999999998</v>
       </c>
@@ -15317,7 +15318,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="497" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:9">
       <c r="A497">
         <v>3.2</v>
       </c>
@@ -15343,7 +15344,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="498" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:9">
       <c r="A498">
         <v>3.6</v>
       </c>
@@ -15369,7 +15370,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="499" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:9">
       <c r="A499">
         <v>0.5</v>
       </c>
@@ -15395,7 +15396,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="500" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:9">
       <c r="A500">
         <v>10</v>
       </c>
@@ -15421,7 +15422,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="501" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:9">
       <c r="A501">
         <v>2</v>
       </c>
@@ -15447,7 +15448,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="502" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:9">
       <c r="A502" s="1">
         <v>1.9</v>
       </c>
@@ -15474,7 +15475,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="503" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:9">
       <c r="A503">
         <v>6.6</v>
       </c>
@@ -15500,7 +15501,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="504" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:9">
       <c r="A504">
         <v>1.8</v>
       </c>
@@ -15526,7 +15527,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="505" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:9">
       <c r="A505" s="1">
         <v>0.8</v>
       </c>
@@ -15553,7 +15554,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="506" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:9">
       <c r="A506">
         <v>4.2</v>
       </c>
@@ -15579,7 +15580,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="507" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:9">
       <c r="A507">
         <v>4</v>
       </c>
@@ -15605,7 +15606,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="508" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:9">
       <c r="A508">
         <v>1.2</v>
       </c>
@@ -15631,7 +15632,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="509" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:9">
       <c r="A509">
         <v>5</v>
       </c>
@@ -15657,7 +15658,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="510" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:9">
       <c r="A510">
         <v>3.5</v>
       </c>
@@ -15683,7 +15684,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="511" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:9">
       <c r="A511" s="1">
         <v>1.75</v>
       </c>
@@ -15710,7 +15711,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="512" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:9">
       <c r="A512">
         <v>4.2</v>
       </c>
@@ -15736,7 +15737,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="513" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:9">
       <c r="A513">
         <v>5.6</v>
       </c>
@@ -15762,7 +15763,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="514" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:9">
       <c r="A514">
         <v>3.6</v>
       </c>
@@ -15788,7 +15789,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="515" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:9">
       <c r="A515">
         <v>15.93</v>
       </c>
@@ -15814,7 +15815,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="516" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:9">
       <c r="A516">
         <v>5.98</v>
       </c>
@@ -15840,7 +15841,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="517" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:9">
       <c r="A517">
         <v>5</v>
       </c>
@@ -15866,7 +15867,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="518" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:9">
       <c r="A518">
         <v>4.2</v>
       </c>
@@ -15892,7 +15893,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="519" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:9">
       <c r="A519">
         <v>4.2</v>
       </c>
@@ -15918,7 +15919,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="520" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:9">
       <c r="A520">
         <v>4</v>
       </c>
@@ -15944,7 +15945,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="521" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:9">
       <c r="A521">
         <v>3</v>
       </c>
@@ -15970,7 +15971,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="522" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:9">
       <c r="A522">
         <v>2</v>
       </c>
@@ -15996,7 +15997,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="523" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:9">
       <c r="A523">
         <v>1</v>
       </c>
@@ -16022,7 +16023,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="524" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:9">
       <c r="A524" s="1">
         <v>4.0999999999999996</v>
       </c>
@@ -16049,7 +16050,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="525" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:9">
       <c r="A525">
         <v>78.180000000000007</v>
       </c>
@@ -16075,7 +16076,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="526" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:9">
       <c r="A526">
         <v>5.2</v>
       </c>
@@ -16101,7 +16102,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="527" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:9">
       <c r="A527">
         <v>1.2</v>
       </c>
@@ -16127,7 +16128,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="528" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:9">
       <c r="A528">
         <v>4.5</v>
       </c>
@@ -16153,7 +16154,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="529" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:9">
       <c r="A529">
         <v>3.4</v>
       </c>
@@ -16179,7 +16180,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="530" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:9">
       <c r="A530">
         <v>16</v>
       </c>
@@ -16205,7 +16206,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="531" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:9">
       <c r="A531">
         <v>2.5</v>
       </c>
@@ -16231,7 +16232,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="532" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:9">
       <c r="A532">
         <v>0.8</v>
       </c>
@@ -16257,7 +16258,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="533" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:9">
       <c r="A533">
         <v>2.8</v>
       </c>
@@ -16283,7 +16284,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="534" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:9">
       <c r="A534">
         <v>3.5</v>
       </c>
@@ -16309,7 +16310,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="535" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:9">
       <c r="A535">
         <v>3.6</v>
       </c>
@@ -16335,7 +16336,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="536" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:9">
       <c r="A536">
         <v>6.8</v>
       </c>
@@ -16361,7 +16362,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="537" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:9">
       <c r="A537">
         <v>5</v>
       </c>
@@ -16387,7 +16388,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="538" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:9">
       <c r="A538">
         <v>4.9000000000000004</v>
       </c>
@@ -16413,7 +16414,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="539" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:9">
       <c r="A539">
         <v>80</v>
       </c>
@@ -16439,7 +16440,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="540" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:9">
       <c r="A540">
         <v>55</v>
       </c>
@@ -16465,7 +16466,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="541" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:9">
       <c r="A541">
         <v>10</v>
       </c>
@@ -16491,7 +16492,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="542" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:9">
       <c r="A542">
         <v>1</v>
       </c>
@@ -16517,7 +16518,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="543" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:9">
       <c r="A543" s="1">
         <v>1.65</v>
       </c>
@@ -16544,7 +16545,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="544" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:9">
       <c r="A544" s="1">
         <v>4.5</v>
       </c>
@@ -16571,7 +16572,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="545" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:9">
       <c r="A545">
         <v>4.8</v>
       </c>
@@ -16598,7 +16599,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="546" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:9">
       <c r="A546" s="1">
         <v>9.5</v>
       </c>
@@ -16625,7 +16626,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="547" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:9">
       <c r="A547">
         <v>10</v>
       </c>
@@ -16651,7 +16652,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="548" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:9">
       <c r="A548">
         <v>4.8</v>
       </c>
@@ -16677,7 +16678,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="549" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:9">
       <c r="A549">
         <v>6.1</v>
       </c>
@@ -16703,7 +16704,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="550" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:9">
       <c r="A550">
         <v>4.8</v>
       </c>
@@ -16729,7 +16730,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="551" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:9">
       <c r="A551">
         <v>4.7300000000000004</v>
       </c>
@@ -16755,7 +16756,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="552" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:9">
       <c r="A552">
         <v>2.6</v>
       </c>
@@ -16781,7 +16782,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="553" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:9">
       <c r="A553">
         <v>3.7</v>
       </c>
@@ -16807,7 +16808,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="554" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:9">
       <c r="A554">
         <v>120</v>
       </c>
@@ -16833,7 +16834,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="555" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:9">
       <c r="A555">
         <v>6.8</v>
       </c>
@@ -16859,7 +16860,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="556" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:9">
       <c r="A556">
         <v>5</v>
       </c>
@@ -16885,7 +16886,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="557" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:9">
       <c r="A557">
         <v>3.8</v>
       </c>
@@ -16911,7 +16912,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="558" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:9">
       <c r="A558">
         <v>3.9</v>
       </c>
@@ -16937,7 +16938,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="559" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:9">
       <c r="A559">
         <v>2.7</v>
       </c>
@@ -16963,7 +16964,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="560" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:9">
       <c r="A560">
         <v>1</v>
       </c>
@@ -16989,7 +16990,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="561" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:9">
       <c r="A561">
         <v>1</v>
       </c>
@@ -17015,7 +17016,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="562" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:9">
       <c r="A562">
         <v>3.5</v>
       </c>
@@ -17041,7 +17042,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="563" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:9">
       <c r="A563">
         <v>7.1</v>
       </c>
@@ -17067,7 +17068,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="564" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:9">
       <c r="A564">
         <v>49.98</v>
       </c>
@@ -17093,7 +17094,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="565" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:9">
       <c r="A565">
         <v>4.74</v>
       </c>
@@ -17119,7 +17120,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="566" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:9">
       <c r="A566">
         <v>6.2</v>
       </c>
@@ -17145,7 +17146,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="567" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:9">
       <c r="A567">
         <v>3.17</v>
       </c>
@@ -17171,7 +17172,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="568" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:9">
       <c r="A568">
         <v>4.1500000000000004</v>
       </c>
@@ -17197,7 +17198,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="569" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:9">
       <c r="A569">
         <v>1.8</v>
       </c>
@@ -17223,7 +17224,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="570" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:9">
       <c r="A570">
         <v>7</v>
       </c>
@@ -17249,7 +17250,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="571" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:9">
       <c r="A571">
         <v>8</v>
       </c>
@@ -17275,7 +17276,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="572" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:9">
       <c r="A572">
         <v>2.2999999999999998</v>
       </c>
@@ -17301,7 +17302,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="573" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:9">
       <c r="A573">
         <v>1.2</v>
       </c>
@@ -17327,7 +17328,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="574" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:9">
       <c r="A574">
         <v>5.0999999999999996</v>
       </c>
@@ -17353,7 +17354,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="575" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:9">
       <c r="A575">
         <v>4</v>
       </c>
@@ -17379,7 +17380,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="576" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:9">
       <c r="A576">
         <v>4</v>
       </c>
@@ -17405,7 +17406,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="577" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:9">
       <c r="A577">
         <v>4.5999999999999996</v>
       </c>
@@ -17431,7 +17432,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="578" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:9">
       <c r="A578">
         <v>4.5999999999999996</v>
       </c>
@@ -17457,7 +17458,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="579" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:9">
       <c r="A579">
         <v>4.5999999999999996</v>
       </c>
@@ -17483,7 +17484,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="580" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:9">
       <c r="A580">
         <v>2.9</v>
       </c>
@@ -17509,7 +17510,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="581" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:9">
       <c r="A581">
         <v>11.6</v>
       </c>
@@ -17535,7 +17536,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="582" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:9">
       <c r="A582">
         <v>0.75</v>
       </c>
@@ -17561,7 +17562,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="583" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:9">
       <c r="A583">
         <v>2</v>
       </c>
@@ -17587,7 +17588,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="584" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:9">
       <c r="A584">
         <v>10</v>
       </c>
@@ -17613,7 +17614,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="585" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:9">
       <c r="A585">
         <v>3.3</v>
       </c>
@@ -17639,7 +17640,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="586" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:9">
       <c r="A586">
         <v>4.4000000000000004</v>
       </c>
@@ -17665,7 +17666,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="587" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:9">
       <c r="A587">
         <v>3</v>
       </c>
@@ -17691,7 +17692,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="588" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:9">
       <c r="A588">
         <v>8.6999999999999993</v>
       </c>
@@ -17717,7 +17718,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="589" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:9">
       <c r="A589">
         <v>3</v>
       </c>
@@ -17743,7 +17744,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="590" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:9">
       <c r="A590">
         <v>15</v>
       </c>
@@ -17769,7 +17770,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="591" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:9">
       <c r="A591">
         <v>5</v>
       </c>
@@ -17795,7 +17796,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="592" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:9">
       <c r="A592">
         <v>3.9</v>
       </c>
@@ -17821,7 +17822,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="593" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:9">
       <c r="A593">
         <v>2.85</v>
       </c>
@@ -17847,7 +17848,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="594" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:9">
       <c r="A594">
         <v>3</v>
       </c>
@@ -17873,7 +17874,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="595" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:9">
       <c r="A595">
         <v>4.4000000000000004</v>
       </c>
@@ -17899,7 +17900,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="596" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:9">
       <c r="A596">
         <v>3</v>
       </c>
@@ -17925,7 +17926,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="597" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:9">
       <c r="A597">
         <v>3</v>
       </c>
@@ -17951,7 +17952,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="598" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:9">
       <c r="A598">
         <v>3</v>
       </c>
@@ -17977,7 +17978,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="599" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:9">
       <c r="A599">
         <v>4</v>
       </c>
@@ -18003,7 +18004,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="600" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:9">
       <c r="A600">
         <v>5</v>
       </c>
@@ -18029,7 +18030,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="601" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:9">
       <c r="A601">
         <v>4</v>
       </c>
@@ -18055,7 +18056,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="602" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:9">
       <c r="A602">
         <v>3</v>
       </c>
@@ -18081,7 +18082,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="603" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:9">
       <c r="A603">
         <v>12</v>
       </c>
@@ -18107,7 +18108,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="604" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:9">
       <c r="A604">
         <v>3</v>
       </c>
@@ -18133,7 +18134,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="605" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:9">
       <c r="A605">
         <v>6</v>
       </c>
@@ -18159,7 +18160,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="606" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:9">
       <c r="A606">
         <v>5</v>
       </c>
@@ -18185,7 +18186,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="607" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:9">
       <c r="A607">
         <v>10</v>
       </c>
@@ -18211,7 +18212,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="608" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:9">
       <c r="A608">
         <v>19</v>
       </c>
@@ -18237,7 +18238,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="609" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:9">
       <c r="A609">
         <v>5.55</v>
       </c>
@@ -18263,7 +18264,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="610" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:9">
       <c r="A610">
         <v>0.9</v>
       </c>
@@ -18289,7 +18290,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="611" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:9">
       <c r="A611">
         <v>10.7</v>
       </c>
@@ -18315,7 +18316,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="612" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:9">
       <c r="A612" s="1">
         <v>9</v>
       </c>
@@ -18342,7 +18343,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="613" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:9">
       <c r="A613">
         <v>1.2</v>
       </c>
@@ -18368,7 +18369,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="614" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:9">
       <c r="A614">
         <v>5.3</v>
       </c>
@@ -18394,7 +18395,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="615" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:9">
       <c r="A615">
         <v>11.5</v>
       </c>
@@ -18420,7 +18421,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="616" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:9">
       <c r="A616">
         <v>4</v>
       </c>
@@ -18446,7 +18447,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="617" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:9">
       <c r="A617">
         <v>1</v>
       </c>
@@ -18472,7 +18473,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="618" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:9">
       <c r="A618">
         <v>1.2</v>
       </c>
@@ -18498,7 +18499,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="619" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:9">
       <c r="A619">
         <v>15</v>
       </c>
@@ -18524,7 +18525,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="620" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:9">
       <c r="A620">
         <v>100</v>
       </c>
@@ -18550,7 +18551,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="621" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:9">
       <c r="A621">
         <v>52</v>
       </c>
@@ -18576,7 +18577,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="622" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:9">
       <c r="A622">
         <v>80</v>
       </c>
@@ -18602,7 +18603,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="623" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:9">
       <c r="A623">
         <v>9</v>
       </c>
@@ -18628,7 +18629,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="624" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:9">
       <c r="A624">
         <v>8</v>
       </c>
@@ -18654,7 +18655,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="625" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:9">
       <c r="A625">
         <v>10</v>
       </c>
@@ -18680,7 +18681,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="626" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:9">
       <c r="A626">
         <v>3.5</v>
       </c>
@@ -18706,7 +18707,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="627" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:9">
       <c r="A627">
         <v>60</v>
       </c>
@@ -18732,7 +18733,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="628" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:9">
       <c r="A628">
         <v>10</v>
       </c>
@@ -18758,7 +18759,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="629" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:9">
       <c r="A629">
         <v>4.4000000000000004</v>
       </c>
@@ -18784,7 +18785,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="630" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:9">
       <c r="A630">
         <v>5</v>
       </c>
@@ -18810,7 +18811,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="631" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:9">
       <c r="A631">
         <v>3.6</v>
       </c>
@@ -18836,7 +18837,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="632" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:9">
       <c r="A632">
         <v>4.7</v>
       </c>
@@ -18862,7 +18863,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="633" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:9">
       <c r="A633">
         <v>4.7</v>
       </c>
@@ -18888,7 +18889,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="634" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:9">
       <c r="A634">
         <v>3.7</v>
       </c>
@@ -18914,7 +18915,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="635" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:9">
       <c r="A635">
         <v>10</v>
       </c>
@@ -18940,7 +18941,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="636" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:9">
       <c r="A636">
         <v>8.43</v>
       </c>
@@ -18966,7 +18967,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="637" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:9">
       <c r="A637">
         <v>7.6</v>
       </c>
@@ -18992,7 +18993,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="638" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:9">
       <c r="A638">
         <v>2</v>
       </c>
@@ -19018,7 +19019,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="639" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:9">
       <c r="A639">
         <v>4</v>
       </c>
@@ -19044,7 +19045,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="640" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:9">
       <c r="A640">
         <v>5</v>
       </c>
@@ -19070,7 +19071,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="641" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:9">
       <c r="A641">
         <v>1.3</v>
       </c>
@@ -19096,7 +19097,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="642" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:9">
       <c r="A642">
         <v>1</v>
       </c>
@@ -19122,7 +19123,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="643" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:9">
       <c r="A643">
         <v>13.65</v>
       </c>
@@ -19148,7 +19149,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="644" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:9">
       <c r="A644">
         <v>7.4</v>
       </c>
@@ -19174,7 +19175,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="645" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:9">
       <c r="A645">
         <v>39.99</v>
       </c>
@@ -19200,7 +19201,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="646" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:9">
       <c r="A646">
         <v>9</v>
       </c>
@@ -19226,7 +19227,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="647" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:9">
       <c r="A647">
         <v>1</v>
       </c>
@@ -19252,7 +19253,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="648" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:9">
       <c r="A648">
         <v>6.9</v>
       </c>
@@ -19278,7 +19279,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="649" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:9">
       <c r="A649">
         <v>3.6</v>
       </c>
@@ -19304,7 +19305,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="650" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:9">
       <c r="A650">
         <v>7.96</v>
       </c>
@@ -19330,7 +19331,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="651" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:9">
       <c r="A651">
         <v>5</v>
       </c>
@@ -19356,7 +19357,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="652" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:9">
       <c r="A652">
         <v>2.5</v>
       </c>
@@ -19382,7 +19383,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="653" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:9">
       <c r="A653">
         <v>7.65</v>
       </c>
@@ -19408,7 +19409,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="654" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:9">
       <c r="A654">
         <v>4</v>
       </c>
@@ -19434,7 +19435,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="655" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:9">
       <c r="A655">
         <v>5.7</v>
       </c>
@@ -19460,7 +19461,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="656" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:9">
       <c r="A656">
         <v>1.9</v>
       </c>
@@ -19486,7 +19487,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="657" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:9">
       <c r="A657">
         <v>5.9</v>
       </c>
@@ -19512,7 +19513,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="658" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:9">
       <c r="A658">
         <v>5.6</v>
       </c>
@@ -19538,7 +19539,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="659" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:9">
       <c r="A659" s="1">
         <v>14</v>
       </c>
@@ -19565,7 +19566,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="660" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:9">
       <c r="A660">
         <v>4.5</v>
       </c>
@@ -19591,7 +19592,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="661" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:9">
       <c r="A661">
         <v>5</v>
       </c>
@@ -19617,7 +19618,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="662" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:9">
       <c r="A662" s="1">
         <v>699</v>
       </c>
@@ -19644,7 +19645,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="663" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:9">
       <c r="A663">
         <v>27</v>
       </c>
@@ -19670,7 +19671,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="664" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:9">
       <c r="A664">
         <v>1.85</v>
       </c>
@@ -19694,6 +19695,33 @@
       </c>
       <c r="I664">
         <v>662</v>
+      </c>
+    </row>
+    <row r="665" spans="1:9">
+      <c r="A665" s="1">
+        <v>6</v>
+      </c>
+      <c r="B665" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C665" s="7">
+        <v>43459</v>
+      </c>
+      <c r="D665" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="E665" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F665" s="1">
+        <v>5</v>
+      </c>
+      <c r="G665" s="1"/>
+      <c r="H665" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="I665" s="1">
+        <v>663</v>
       </c>
     </row>
   </sheetData>

--- a/DataBase/costs.xlsx
+++ b/DataBase/costs.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="45" windowWidth="18975" windowHeight="11760"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2671" uniqueCount="640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2675" uniqueCount="641">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1934,17 +1934,20 @@
   </si>
   <si>
     <t>pop corn και λουξ στην παράσταση "Δείπνο ηλιθίων"</t>
+  </si>
+  <si>
+    <t>μπουγάτσες για κέρασμα στην Dataverse για την γιορτή μου</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1985,7 +1988,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
     <dxf>
@@ -2077,7 +2080,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:I665" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:I666" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="9">
     <tableColumn id="1" name="amount" headerRowDxfId="9" totalsRowDxfId="8"/>
     <tableColumn id="11" name="type" totalsRowDxfId="7"/>
@@ -2094,7 +2097,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2136,7 +2139,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2168,9 +2171,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2202,6 +2206,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2377,14 +2382,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L665"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L666"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A655" workbookViewId="0">
-      <selection activeCell="D666" sqref="D666"/>
+      <selection activeCell="A667" sqref="A667"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.28515625" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
@@ -2400,7 +2405,7 @@
     <col min="12" max="12" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>227</v>
       </c>
@@ -2432,7 +2437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>476</v>
       </c>
@@ -2461,7 +2466,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>20</v>
       </c>
@@ -2488,7 +2493,7 @@
       </c>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>10</v>
       </c>
@@ -2514,7 +2519,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>100</v>
       </c>
@@ -2540,7 +2545,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>10</v>
       </c>
@@ -2566,7 +2571,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>50</v>
       </c>
@@ -2592,7 +2597,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>3.2</v>
       </c>
@@ -2618,7 +2623,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>1.3</v>
       </c>
@@ -2644,7 +2649,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>1.2</v>
       </c>
@@ -2670,7 +2675,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>5</v>
       </c>
@@ -2696,7 +2701,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>4.5</v>
       </c>
@@ -2722,7 +2727,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>4</v>
       </c>
@@ -2748,7 +2753,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>10.6</v>
       </c>
@@ -2774,7 +2779,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>1.8</v>
       </c>
@@ -2800,7 +2805,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>5.15</v>
       </c>
@@ -2826,7 +2831,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>18</v>
       </c>
@@ -2852,7 +2857,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>1.5</v>
       </c>
@@ -2878,7 +2883,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>7.8</v>
       </c>
@@ -2904,7 +2909,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>4.4400000000000004</v>
       </c>
@@ -2930,7 +2935,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>1.5</v>
       </c>
@@ -2956,7 +2961,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>8.84</v>
       </c>
@@ -2982,7 +2987,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>4</v>
       </c>
@@ -3008,7 +3013,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>10</v>
       </c>
@@ -3034,7 +3039,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>1.8</v>
       </c>
@@ -3060,7 +3065,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>11.8</v>
       </c>
@@ -3086,7 +3091,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>40</v>
       </c>
@@ -3112,7 +3117,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>2.9</v>
       </c>
@@ -3138,7 +3143,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>4.3</v>
       </c>
@@ -3164,7 +3169,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>3.35</v>
       </c>
@@ -3190,7 +3195,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>5.2</v>
       </c>
@@ -3216,7 +3221,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>15</v>
       </c>
@@ -3242,7 +3247,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>3.9</v>
       </c>
@@ -3268,7 +3273,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>63.45</v>
       </c>
@@ -3294,7 +3299,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>49.9</v>
       </c>
@@ -3320,7 +3325,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>140</v>
       </c>
@@ -3346,7 +3351,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>1.8</v>
       </c>
@@ -3372,7 +3377,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>13.02</v>
       </c>
@@ -3398,7 +3403,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>4.7</v>
       </c>
@@ -3424,7 +3429,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>15.96</v>
       </c>
@@ -3450,7 +3455,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>9.8000000000000007</v>
       </c>
@@ -3476,7 +3481,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>79.8</v>
       </c>
@@ -3502,7 +3507,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>11.9</v>
       </c>
@@ -3528,7 +3533,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>38.880000000000003</v>
       </c>
@@ -3554,7 +3559,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>7.75</v>
       </c>
@@ -3580,7 +3585,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>0.79</v>
       </c>
@@ -3606,7 +3611,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>10</v>
       </c>
@@ -3632,7 +3637,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -3658,7 +3663,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -3684,7 +3689,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>1.8</v>
       </c>
@@ -3710,7 +3715,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>24</v>
       </c>
@@ -3736,7 +3741,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>24</v>
       </c>
@@ -3762,7 +3767,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>1.8</v>
       </c>
@@ -3788,7 +3793,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>3.5</v>
       </c>
@@ -3814,7 +3819,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>5.6</v>
       </c>
@@ -3841,7 +3846,7 @@
       </c>
       <c r="K55" s="4"/>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>1.5</v>
       </c>
@@ -3867,7 +3872,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>3</v>
       </c>
@@ -3893,7 +3898,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>5.4</v>
       </c>
@@ -3919,7 +3924,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>8</v>
       </c>
@@ -3945,7 +3950,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>5.4</v>
       </c>
@@ -3971,7 +3976,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>0.6</v>
       </c>
@@ -3997,7 +4002,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -4023,7 +4028,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>1.5</v>
       </c>
@@ -4049,7 +4054,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -4075,7 +4080,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>1.2</v>
       </c>
@@ -4101,7 +4106,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>5.0999999999999996</v>
       </c>
@@ -4127,7 +4132,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>13.5</v>
       </c>
@@ -4153,7 +4158,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>3.5</v>
       </c>
@@ -4180,7 +4185,7 @@
       </c>
       <c r="K68" s="4"/>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>4.0999999999999996</v>
       </c>
@@ -4206,7 +4211,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>90</v>
       </c>
@@ -4232,7 +4237,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>65.5</v>
       </c>
@@ -4258,7 +4263,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>4.5</v>
       </c>
@@ -4284,7 +4289,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>10</v>
       </c>
@@ -4310,7 +4315,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>18.8</v>
       </c>
@@ -4336,7 +4341,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>1.8</v>
       </c>
@@ -4363,7 +4368,7 @@
       </c>
       <c r="K75" s="4"/>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>5.5</v>
       </c>
@@ -4389,7 +4394,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -4415,7 +4420,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>3</v>
       </c>
@@ -4441,7 +4446,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>2</v>
       </c>
@@ -4467,7 +4472,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <v>9.9</v>
       </c>
@@ -4493,7 +4498,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <v>6.5</v>
       </c>
@@ -4519,7 +4524,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>79.8</v>
       </c>
@@ -4545,7 +4550,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>10</v>
       </c>
@@ -4571,7 +4576,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>2.5</v>
       </c>
@@ -4597,7 +4602,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <v>5</v>
       </c>
@@ -4623,7 +4628,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <v>1.6</v>
       </c>
@@ -4649,7 +4654,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <v>5.5</v>
       </c>
@@ -4675,7 +4680,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>0.8</v>
       </c>
@@ -4701,7 +4706,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <v>17</v>
       </c>
@@ -4727,7 +4732,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <v>24.9</v>
       </c>
@@ -4753,7 +4758,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <v>1.8</v>
       </c>
@@ -4779,7 +4784,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <v>44.99</v>
       </c>
@@ -4805,7 +4810,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <v>4</v>
       </c>
@@ -4831,7 +4836,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <v>5</v>
       </c>
@@ -4857,7 +4862,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
         <v>5</v>
       </c>
@@ -4883,7 +4888,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -4909,7 +4914,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
         <v>3</v>
       </c>
@@ -4935,7 +4940,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <v>6</v>
       </c>
@@ -4961,7 +4966,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
         <v>3.5</v>
       </c>
@@ -4987,7 +4992,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
         <v>34.9</v>
       </c>
@@ -5013,7 +5018,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
         <v>12</v>
       </c>
@@ -5039,7 +5044,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
         <v>5</v>
       </c>
@@ -5065,7 +5070,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
         <v>6.9</v>
       </c>
@@ -5091,7 +5096,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
         <v>6.04</v>
       </c>
@@ -5117,7 +5122,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
         <v>4.8</v>
       </c>
@@ -5143,7 +5148,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
         <v>9.6999999999999993</v>
       </c>
@@ -5169,7 +5174,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
         <v>5.5</v>
       </c>
@@ -5195,7 +5200,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="108" spans="1:9">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
         <v>7</v>
       </c>
@@ -5221,7 +5226,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="109" spans="1:9">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
         <v>1</v>
       </c>
@@ -5247,7 +5252,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="110" spans="1:9">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
         <v>4</v>
       </c>
@@ -5273,7 +5278,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="111" spans="1:9">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
         <v>4.0999999999999996</v>
       </c>
@@ -5299,7 +5304,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="112" spans="1:9">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
         <v>2.3199999999999998</v>
       </c>
@@ -5325,7 +5330,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="113" spans="1:9">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
         <v>8</v>
       </c>
@@ -5351,7 +5356,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="114" spans="1:9">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
         <v>12.5</v>
       </c>
@@ -5377,7 +5382,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="115" spans="1:9">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
         <v>0.7</v>
       </c>
@@ -5403,7 +5408,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="116" spans="1:9">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
         <v>6.3</v>
       </c>
@@ -5429,7 +5434,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="117" spans="1:9">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
         <v>8</v>
       </c>
@@ -5455,7 +5460,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="118" spans="1:9">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
         <v>5.0999999999999996</v>
       </c>
@@ -5481,7 +5486,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="119" spans="1:9">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
         <v>8</v>
       </c>
@@ -5507,7 +5512,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="120" spans="1:9">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
         <v>4.5</v>
       </c>
@@ -5533,7 +5538,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="121" spans="1:9">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="4">
         <v>2.5</v>
       </c>
@@ -5559,7 +5564,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="122" spans="1:9">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="4">
         <v>24.3</v>
       </c>
@@ -5585,7 +5590,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="123" spans="1:9">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="4">
         <v>2</v>
       </c>
@@ -5611,7 +5616,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="124" spans="1:9">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="4">
         <v>16</v>
       </c>
@@ -5637,7 +5642,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="125" spans="1:9">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
         <v>6</v>
       </c>
@@ -5663,7 +5668,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="126" spans="1:9">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="4">
         <v>5</v>
       </c>
@@ -5689,7 +5694,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="127" spans="1:9">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
         <v>6.52</v>
       </c>
@@ -5715,7 +5720,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="128" spans="1:9">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="4">
         <v>1.8</v>
       </c>
@@ -5741,7 +5746,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="129" spans="1:9">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="4">
         <v>1</v>
       </c>
@@ -5767,7 +5772,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="130" spans="1:9">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="4">
         <v>5</v>
       </c>
@@ -5793,7 +5798,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="131" spans="1:9">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="4">
         <v>43</v>
       </c>
@@ -5819,7 +5824,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="132" spans="1:9">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="4">
         <v>10</v>
       </c>
@@ -5845,7 +5850,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="133" spans="1:9">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="4">
         <v>2.97</v>
       </c>
@@ -5871,7 +5876,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="134" spans="1:9">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="4">
         <v>10</v>
       </c>
@@ -5897,7 +5902,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="135" spans="1:9">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
         <v>1.6</v>
       </c>
@@ -5923,7 +5928,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="136" spans="1:9">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="4">
         <v>1.5</v>
       </c>
@@ -5949,7 +5954,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="137" spans="1:9">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="4">
         <v>1.8</v>
       </c>
@@ -5975,7 +5980,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="138" spans="1:9">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="4">
         <v>7.3</v>
       </c>
@@ -6001,7 +6006,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="139" spans="1:9">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="4">
         <v>4</v>
       </c>
@@ -6027,7 +6032,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="140" spans="1:9">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="4">
         <v>2.1</v>
       </c>
@@ -6053,7 +6058,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="141" spans="1:9">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
         <v>4.2</v>
       </c>
@@ -6079,7 +6084,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="142" spans="1:9">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="4">
         <v>9</v>
       </c>
@@ -6105,7 +6110,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="143" spans="1:9">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="4">
         <v>1</v>
       </c>
@@ -6131,7 +6136,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="144" spans="1:9">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="4">
         <v>3.5</v>
       </c>
@@ -6157,7 +6162,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="145" spans="1:9">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="4">
         <v>5.0999999999999996</v>
       </c>
@@ -6183,7 +6188,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="146" spans="1:9">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="4">
         <v>3</v>
       </c>
@@ -6209,7 +6214,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="147" spans="1:9">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="4">
         <v>2</v>
       </c>
@@ -6235,7 +6240,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="148" spans="1:9">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="4">
         <v>150</v>
       </c>
@@ -6261,7 +6266,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="149" spans="1:9">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="4">
         <v>7</v>
       </c>
@@ -6287,7 +6292,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="150" spans="1:9">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="4">
         <v>5</v>
       </c>
@@ -6313,7 +6318,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="151" spans="1:9">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="4">
         <v>8</v>
       </c>
@@ -6339,7 +6344,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="152" spans="1:9">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="4">
         <v>3.5</v>
       </c>
@@ -6365,7 +6370,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="153" spans="1:9">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="4">
         <v>55</v>
       </c>
@@ -6391,7 +6396,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="154" spans="1:9">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="4">
         <v>0.6</v>
       </c>
@@ -6417,7 +6422,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="155" spans="1:9">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="4">
         <v>4</v>
       </c>
@@ -6443,7 +6448,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="156" spans="1:9">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="4">
         <v>39.9</v>
       </c>
@@ -6469,7 +6474,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="157" spans="1:9">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="4">
         <v>1.6</v>
       </c>
@@ -6495,7 +6500,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="158" spans="1:9">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="4">
         <v>80</v>
       </c>
@@ -6521,7 +6526,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="159" spans="1:9">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="4">
         <v>6.2</v>
       </c>
@@ -6547,7 +6552,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="160" spans="1:9">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="4">
         <v>15</v>
       </c>
@@ -6573,7 +6578,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="161" spans="1:9">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" s="4">
         <v>4.3</v>
       </c>
@@ -6599,7 +6604,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="162" spans="1:9">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="4">
         <v>9.6999999999999993</v>
       </c>
@@ -6625,7 +6630,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="163" spans="1:9">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" s="4">
         <v>2.4500000000000002</v>
       </c>
@@ -6651,7 +6656,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="164" spans="1:9">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="4">
         <v>1.96</v>
       </c>
@@ -6677,7 +6682,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="165" spans="1:9">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="4">
         <v>11.5</v>
       </c>
@@ -6703,7 +6708,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="166" spans="1:9">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" s="4">
         <v>2.7</v>
       </c>
@@ -6729,7 +6734,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="167" spans="1:9">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="4">
         <v>2.7</v>
       </c>
@@ -6755,7 +6760,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="168" spans="1:9">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" s="4">
         <v>7</v>
       </c>
@@ -6781,7 +6786,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="169" spans="1:9">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" s="4">
         <v>4.8</v>
       </c>
@@ -6807,7 +6812,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="170" spans="1:9">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="4">
         <v>4.4000000000000004</v>
       </c>
@@ -6833,7 +6838,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="171" spans="1:9">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" s="4">
         <v>3.8</v>
       </c>
@@ -6859,7 +6864,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="172" spans="1:9">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="4">
         <v>1.5</v>
       </c>
@@ -6885,7 +6890,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="173" spans="1:9">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" s="4">
         <v>11.5</v>
       </c>
@@ -6911,7 +6916,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="174" spans="1:9">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" s="4">
         <v>4.4000000000000004</v>
       </c>
@@ -6937,7 +6942,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="175" spans="1:9">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" s="4">
         <v>6.5</v>
       </c>
@@ -6963,7 +6968,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="176" spans="1:9">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" s="4">
         <v>6.5</v>
       </c>
@@ -6989,7 +6994,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="177" spans="1:9">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" s="4">
         <v>5</v>
       </c>
@@ -7015,7 +7020,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="178" spans="1:9">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" s="4">
         <v>6</v>
       </c>
@@ -7041,7 +7046,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="179" spans="1:9">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" s="4">
         <v>8</v>
       </c>
@@ -7067,7 +7072,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="180" spans="1:9">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" s="4">
         <v>3.2</v>
       </c>
@@ -7093,7 +7098,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="181" spans="1:9">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" s="4">
         <v>10</v>
       </c>
@@ -7119,7 +7124,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="182" spans="1:9">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" s="4">
         <v>3</v>
       </c>
@@ -7145,7 +7150,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="183" spans="1:9">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" s="4">
         <v>10</v>
       </c>
@@ -7171,7 +7176,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="184" spans="1:9">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" s="4">
         <v>3.5</v>
       </c>
@@ -7197,7 +7202,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="185" spans="1:9">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" s="4">
         <v>10</v>
       </c>
@@ -7223,7 +7228,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="186" spans="1:9">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" s="4">
         <v>8</v>
       </c>
@@ -7249,7 +7254,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="187" spans="1:9">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" s="4">
         <v>6.2</v>
       </c>
@@ -7275,7 +7280,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="188" spans="1:9">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" s="4">
         <v>2</v>
       </c>
@@ -7301,7 +7306,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="189" spans="1:9">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" s="4">
         <v>10</v>
       </c>
@@ -7327,7 +7332,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="190" spans="1:9">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" s="4">
         <v>22</v>
       </c>
@@ -7353,7 +7358,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="191" spans="1:9">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" s="4">
         <v>14</v>
       </c>
@@ -7379,7 +7384,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="192" spans="1:9">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" s="4">
         <v>14</v>
       </c>
@@ -7405,7 +7410,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="193" spans="1:9">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" s="4">
         <v>4.7</v>
       </c>
@@ -7431,7 +7436,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="194" spans="1:9">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" s="4">
         <v>69.900000000000006</v>
       </c>
@@ -7457,7 +7462,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="195" spans="1:9">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" s="4">
         <v>8.4</v>
       </c>
@@ -7483,7 +7488,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="196" spans="1:9">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" s="4">
         <v>5</v>
       </c>
@@ -7509,7 +7514,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="197" spans="1:9">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" s="4">
         <v>4.5</v>
       </c>
@@ -7535,7 +7540,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="198" spans="1:9">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" s="4">
         <v>6</v>
       </c>
@@ -7561,7 +7566,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="199" spans="1:9">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" s="4">
         <v>5.46</v>
       </c>
@@ -7587,7 +7592,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="200" spans="1:9">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" s="4">
         <v>78.849999999999994</v>
       </c>
@@ -7613,7 +7618,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="201" spans="1:9">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" s="4">
         <v>10</v>
       </c>
@@ -7639,7 +7644,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="202" spans="1:9">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" s="4">
         <v>10</v>
       </c>
@@ -7665,7 +7670,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="203" spans="1:9">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" s="4">
         <v>26</v>
       </c>
@@ -7691,7 +7696,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="204" spans="1:9">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" s="4">
         <v>2</v>
       </c>
@@ -7717,7 +7722,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="205" spans="1:9">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" s="4">
         <v>2.5</v>
       </c>
@@ -7743,7 +7748,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="206" spans="1:9">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" s="4">
         <v>5.9</v>
       </c>
@@ -7769,7 +7774,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="207" spans="1:9">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" s="4">
         <v>8.6</v>
       </c>
@@ -7795,7 +7800,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="208" spans="1:9">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" s="4">
         <v>2.7</v>
       </c>
@@ -7821,7 +7826,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="209" spans="1:9">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" s="4">
         <v>4.8</v>
       </c>
@@ -7847,7 +7852,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="210" spans="1:9">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" s="4">
         <v>2.8</v>
       </c>
@@ -7873,7 +7878,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="211" spans="1:9">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" s="4">
         <v>2</v>
       </c>
@@ -7899,7 +7904,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="212" spans="1:9">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" s="4">
         <v>5</v>
       </c>
@@ -7925,7 +7930,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="213" spans="1:9">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" s="4">
         <v>2.5</v>
       </c>
@@ -7951,7 +7956,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="214" spans="1:9">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" s="4">
         <v>3.5</v>
       </c>
@@ -7977,7 +7982,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="215" spans="1:9">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" s="4">
         <v>1.8</v>
       </c>
@@ -8003,7 +8008,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="216" spans="1:9">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" s="4">
         <v>4</v>
       </c>
@@ -8029,7 +8034,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="217" spans="1:9">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" s="4">
         <v>6</v>
       </c>
@@ -8055,7 +8060,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="218" spans="1:9">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" s="4">
         <v>1.8</v>
       </c>
@@ -8081,7 +8086,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="219" spans="1:9">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" s="4">
         <v>5</v>
       </c>
@@ -8107,7 +8112,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="220" spans="1:9">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" s="4">
         <v>5</v>
       </c>
@@ -8133,7 +8138,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="221" spans="1:9">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" s="4">
         <v>4.7</v>
       </c>
@@ -8159,7 +8164,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="222" spans="1:9">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" s="4">
         <v>5</v>
       </c>
@@ -8185,7 +8190,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="223" spans="1:9">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" s="4">
         <v>10</v>
       </c>
@@ -8211,7 +8216,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="224" spans="1:9">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" s="4">
         <v>1.5</v>
       </c>
@@ -8237,7 +8242,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="225" spans="1:9">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" s="4">
         <v>129</v>
       </c>
@@ -8263,7 +8268,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="226" spans="1:9">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" s="4">
         <v>7</v>
       </c>
@@ -8289,7 +8294,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="227" spans="1:9">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" s="4">
         <v>2.8</v>
       </c>
@@ -8315,7 +8320,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="228" spans="1:9">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" s="4">
         <v>1</v>
       </c>
@@ -8341,7 +8346,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="229" spans="1:9">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" s="4">
         <v>4</v>
       </c>
@@ -8367,7 +8372,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="230" spans="1:9">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" s="4">
         <v>50</v>
       </c>
@@ -8393,7 +8398,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="231" spans="1:9">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" s="4">
         <v>7.2</v>
       </c>
@@ -8419,7 +8424,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="232" spans="1:9">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" s="4">
         <v>1</v>
       </c>
@@ -8445,7 +8450,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="233" spans="1:9">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" s="4">
         <v>7</v>
       </c>
@@ -8471,7 +8476,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="234" spans="1:9">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" s="4">
         <v>1.1000000000000001</v>
       </c>
@@ -8497,7 +8502,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="235" spans="1:9">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" s="4">
         <v>7</v>
       </c>
@@ -8523,7 +8528,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="236" spans="1:9">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" s="4">
         <v>15</v>
       </c>
@@ -8549,7 +8554,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="237" spans="1:9">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" s="4">
         <v>3</v>
       </c>
@@ -8575,7 +8580,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="238" spans="1:9">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" s="4">
         <v>11.2</v>
       </c>
@@ -8601,7 +8606,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="239" spans="1:9">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" s="4">
         <v>2.1</v>
       </c>
@@ -8627,7 +8632,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="240" spans="1:9">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" s="4">
         <v>150</v>
       </c>
@@ -8653,7 +8658,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="241" spans="1:9">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" s="4">
         <v>12.7</v>
       </c>
@@ -8679,7 +8684,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="242" spans="1:9">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" s="4">
         <v>89.9</v>
       </c>
@@ -8705,7 +8710,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="243" spans="1:9">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" s="4">
         <v>4.4000000000000004</v>
       </c>
@@ -8731,7 +8736,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="244" spans="1:9">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" s="4">
         <v>4.2</v>
       </c>
@@ -8757,7 +8762,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="245" spans="1:9">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -8783,7 +8788,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="246" spans="1:9">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" s="4">
         <v>5</v>
       </c>
@@ -8809,7 +8814,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="247" spans="1:9">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" s="4">
         <v>5</v>
       </c>
@@ -8835,7 +8840,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="248" spans="1:9">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" s="4">
         <v>3.9</v>
       </c>
@@ -8861,7 +8866,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="249" spans="1:9">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" s="4">
         <v>0.5</v>
       </c>
@@ -8887,7 +8892,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="250" spans="1:9">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" s="4">
         <v>2.4</v>
       </c>
@@ -8913,7 +8918,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="251" spans="1:9">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" s="4">
         <v>2</v>
       </c>
@@ -8939,7 +8944,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="252" spans="1:9">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" s="4">
         <v>4.7</v>
       </c>
@@ -8965,7 +8970,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="253" spans="1:9">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" s="4">
         <v>5.3</v>
       </c>
@@ -8991,7 +8996,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="254" spans="1:9">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" s="4">
         <v>4.2</v>
       </c>
@@ -9017,7 +9022,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="255" spans="1:9">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" s="4">
         <v>5</v>
       </c>
@@ -9043,7 +9048,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="256" spans="1:9">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" s="4">
         <v>2.5</v>
       </c>
@@ -9069,7 +9074,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="257" spans="1:9">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" s="4">
         <v>3.3</v>
       </c>
@@ -9095,7 +9100,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="258" spans="1:9">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258" s="4">
         <v>5.6</v>
       </c>
@@ -9121,7 +9126,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="259" spans="1:9">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" s="4">
         <v>4</v>
       </c>
@@ -9147,7 +9152,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="260" spans="1:9">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260" s="4">
         <v>10.199999999999999</v>
       </c>
@@ -9173,7 +9178,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="261" spans="1:9">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261" s="4">
         <v>8</v>
       </c>
@@ -9199,7 +9204,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="262" spans="1:9">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262" s="4">
         <v>2.1</v>
       </c>
@@ -9225,7 +9230,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="263" spans="1:9">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263" s="4">
         <v>3.7</v>
       </c>
@@ -9251,7 +9256,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="264" spans="1:9">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264" s="4">
         <v>7</v>
       </c>
@@ -9277,7 +9282,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="265" spans="1:9">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265" s="4">
         <v>13.5</v>
       </c>
@@ -9303,7 +9308,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="266" spans="1:9">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266" s="4">
         <v>5</v>
       </c>
@@ -9329,7 +9334,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="267" spans="1:9">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" s="4">
         <v>20</v>
       </c>
@@ -9355,7 +9360,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="268" spans="1:9">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268" s="4">
         <v>6</v>
       </c>
@@ -9381,7 +9386,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="269" spans="1:9">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269" s="4">
         <v>0.5</v>
       </c>
@@ -9407,7 +9412,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="270" spans="1:9">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270" s="4">
         <v>5</v>
       </c>
@@ -9433,7 +9438,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="271" spans="1:9">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271" s="4">
         <v>11</v>
       </c>
@@ -9459,7 +9464,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="272" spans="1:9">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272" s="4">
         <v>8.8000000000000007</v>
       </c>
@@ -9485,7 +9490,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="273" spans="1:9">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273" s="4">
         <v>0.5</v>
       </c>
@@ -9511,7 +9516,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="274" spans="1:9">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274" s="4">
         <v>5</v>
       </c>
@@ -9537,7 +9542,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="275" spans="1:9">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" s="4">
         <v>10</v>
       </c>
@@ -9563,7 +9568,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="276" spans="1:9">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" s="4">
         <v>15</v>
       </c>
@@ -9589,7 +9594,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="277" spans="1:9">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" s="4">
         <v>10</v>
       </c>
@@ -9615,7 +9620,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="278" spans="1:9">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278" s="4">
         <v>11.9</v>
       </c>
@@ -9641,7 +9646,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="279" spans="1:9">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" s="4">
         <v>7</v>
       </c>
@@ -9667,7 +9672,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="280" spans="1:9">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280" s="4">
         <v>5.0999999999999996</v>
       </c>
@@ -9693,7 +9698,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="281" spans="1:9">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>1.9</v>
       </c>
@@ -9719,7 +9724,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="282" spans="1:9">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>119.9</v>
       </c>
@@ -9745,7 +9750,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="283" spans="1:9">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>6.3</v>
       </c>
@@ -9771,7 +9776,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="284" spans="1:9">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>3.5</v>
       </c>
@@ -9797,7 +9802,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="285" spans="1:9">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>1.5</v>
       </c>
@@ -9823,7 +9828,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="286" spans="1:9">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>1.9</v>
       </c>
@@ -9849,7 +9854,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="287" spans="1:9">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>4.5</v>
       </c>
@@ -9875,7 +9880,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="288" spans="1:9">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>6.4</v>
       </c>
@@ -9901,7 +9906,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="289" spans="1:9">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>1.9</v>
       </c>
@@ -9927,7 +9932,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="290" spans="1:9">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>10.6</v>
       </c>
@@ -9953,7 +9958,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="291" spans="1:9">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>4.5</v>
       </c>
@@ -9979,7 +9984,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="292" spans="1:9">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>22.2</v>
       </c>
@@ -10005,7 +10010,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="293" spans="1:9">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293" s="6">
         <v>25</v>
       </c>
@@ -10031,7 +10036,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="294" spans="1:9">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294" s="6">
         <v>3.5</v>
       </c>
@@ -10057,7 +10062,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="295" spans="1:9">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>4</v>
       </c>
@@ -10083,7 +10088,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="296" spans="1:9">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>2.2000000000000002</v>
       </c>
@@ -10109,7 +10114,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="297" spans="1:9">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>11.5</v>
       </c>
@@ -10135,7 +10140,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="298" spans="1:9">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>6.3</v>
       </c>
@@ -10161,7 +10166,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="299" spans="1:9">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>3.6</v>
       </c>
@@ -10187,7 +10192,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="300" spans="1:9">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>15</v>
       </c>
@@ -10213,7 +10218,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="301" spans="1:9">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>2</v>
       </c>
@@ -10239,7 +10244,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="302" spans="1:9">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>4.5</v>
       </c>
@@ -10265,7 +10270,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="303" spans="1:9">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>2.9</v>
       </c>
@@ -10291,7 +10296,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="304" spans="1:9">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>3.9</v>
       </c>
@@ -10317,7 +10322,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="305" spans="1:9">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>1.7</v>
       </c>
@@ -10343,7 +10348,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="306" spans="1:9">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>10</v>
       </c>
@@ -10369,7 +10374,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="307" spans="1:9">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>7.5</v>
       </c>
@@ -10395,7 +10400,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="308" spans="1:9">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>10.050000000000001</v>
       </c>
@@ -10421,7 +10426,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="309" spans="1:9">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>5</v>
       </c>
@@ -10447,7 +10452,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="310" spans="1:9">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>3</v>
       </c>
@@ -10473,7 +10478,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="311" spans="1:9">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>2</v>
       </c>
@@ -10499,7 +10504,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="312" spans="1:9">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>10.6</v>
       </c>
@@ -10525,7 +10530,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="313" spans="1:9">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>4</v>
       </c>
@@ -10551,7 +10556,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="314" spans="1:9">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>2</v>
       </c>
@@ -10577,7 +10582,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="315" spans="1:9">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>5.8</v>
       </c>
@@ -10603,7 +10608,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="316" spans="1:9">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>5</v>
       </c>
@@ -10629,7 +10634,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="317" spans="1:9">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>6.55</v>
       </c>
@@ -10655,7 +10660,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="318" spans="1:9">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>2.8</v>
       </c>
@@ -10681,7 +10686,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="319" spans="1:9">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>3.8</v>
       </c>
@@ -10707,7 +10712,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="320" spans="1:9">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>9</v>
       </c>
@@ -10733,7 +10738,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="321" spans="1:9">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>8</v>
       </c>
@@ -10759,7 +10764,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="322" spans="1:9">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>1.5</v>
       </c>
@@ -10785,7 +10790,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="323" spans="1:9">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>5</v>
       </c>
@@ -10811,7 +10816,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="324" spans="1:9">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>4.5999999999999996</v>
       </c>
@@ -10837,7 +10842,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="325" spans="1:9">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>0.5</v>
       </c>
@@ -10863,7 +10868,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="326" spans="1:9">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>2.95</v>
       </c>
@@ -10889,7 +10894,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="327" spans="1:9">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>3.8</v>
       </c>
@@ -10915,7 +10920,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="328" spans="1:9">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>10</v>
       </c>
@@ -10941,7 +10946,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="329" spans="1:9">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>3.85</v>
       </c>
@@ -10967,7 +10972,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="330" spans="1:9">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>1.2</v>
       </c>
@@ -10993,7 +10998,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="331" spans="1:9">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>2</v>
       </c>
@@ -11019,7 +11024,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="332" spans="1:9">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>8.5</v>
       </c>
@@ -11045,7 +11050,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="333" spans="1:9">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>4.9000000000000004</v>
       </c>
@@ -11071,7 +11076,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="334" spans="1:9">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>10</v>
       </c>
@@ -11097,7 +11102,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="335" spans="1:9">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>350</v>
       </c>
@@ -11123,7 +11128,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="336" spans="1:9">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>4.4000000000000004</v>
       </c>
@@ -11149,7 +11154,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="337" spans="1:9">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>3.2</v>
       </c>
@@ -11175,7 +11180,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="338" spans="1:9">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>3.8</v>
       </c>
@@ -11201,7 +11206,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="339" spans="1:9">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>0.9</v>
       </c>
@@ -11227,7 +11232,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="340" spans="1:9">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>6</v>
       </c>
@@ -11253,7 +11258,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="341" spans="1:9">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>3.8</v>
       </c>
@@ -11279,7 +11284,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="342" spans="1:9">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>2</v>
       </c>
@@ -11305,7 +11310,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="343" spans="1:9">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>5.5</v>
       </c>
@@ -11331,7 +11336,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="344" spans="1:9">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>43.22</v>
       </c>
@@ -11357,7 +11362,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="345" spans="1:9">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>2</v>
       </c>
@@ -11383,7 +11388,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="346" spans="1:9">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>7</v>
       </c>
@@ -11409,7 +11414,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="347" spans="1:9">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>1.61</v>
       </c>
@@ -11435,7 +11440,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="348" spans="1:9">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>20</v>
       </c>
@@ -11461,7 +11466,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="349" spans="1:9">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>14.84</v>
       </c>
@@ -11487,7 +11492,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="350" spans="1:9">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>5.6</v>
       </c>
@@ -11513,7 +11518,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="351" spans="1:9">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>6.8</v>
       </c>
@@ -11539,7 +11544,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="352" spans="1:9">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>7.7</v>
       </c>
@@ -11565,7 +11570,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="353" spans="1:12">
+    <row r="353" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>29.4</v>
       </c>
@@ -11591,7 +11596,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="354" spans="1:12">
+    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>0.5</v>
       </c>
@@ -11617,7 +11622,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="355" spans="1:12">
+    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>2.2000000000000002</v>
       </c>
@@ -11643,7 +11648,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="356" spans="1:12">
+    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>3.5</v>
       </c>
@@ -11669,7 +11674,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="357" spans="1:12">
+    <row r="357" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>4.4000000000000004</v>
       </c>
@@ -11695,7 +11700,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="358" spans="1:12">
+    <row r="358" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>5.7</v>
       </c>
@@ -11721,7 +11726,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="359" spans="1:12">
+    <row r="359" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>7.74</v>
       </c>
@@ -11747,7 +11752,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="360" spans="1:12">
+    <row r="360" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>7</v>
       </c>
@@ -11773,7 +11778,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="361" spans="1:12">
+    <row r="361" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>3.8</v>
       </c>
@@ -11799,7 +11804,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="362" spans="1:12">
+    <row r="362" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>100</v>
       </c>
@@ -11825,7 +11830,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="363" spans="1:12">
+    <row r="363" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>5</v>
       </c>
@@ -11852,7 +11857,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="364" spans="1:12">
+    <row r="364" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A364" s="6">
         <v>2</v>
       </c>
@@ -11881,7 +11886,7 @@
       <c r="K364" s="1"/>
       <c r="L364" s="1"/>
     </row>
-    <row r="365" spans="1:12">
+    <row r="365" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>7</v>
       </c>
@@ -11907,7 +11912,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="366" spans="1:12">
+    <row r="366" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>50</v>
       </c>
@@ -11933,7 +11938,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="367" spans="1:12">
+    <row r="367" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>10</v>
       </c>
@@ -11959,7 +11964,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="368" spans="1:12">
+    <row r="368" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>10.8</v>
       </c>
@@ -11985,7 +11990,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="369" spans="1:9">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>10.5</v>
       </c>
@@ -12011,7 +12016,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="370" spans="1:9">
+    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>5.5</v>
       </c>
@@ -12037,7 +12042,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="371" spans="1:9">
+    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>5</v>
       </c>
@@ -12063,7 +12068,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="372" spans="1:9">
+    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>0.5</v>
       </c>
@@ -12089,7 +12094,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="373" spans="1:9">
+    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>10.5</v>
       </c>
@@ -12115,7 +12120,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="374" spans="1:9">
+    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>14</v>
       </c>
@@ -12141,7 +12146,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="375" spans="1:9">
+    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>2</v>
       </c>
@@ -12167,7 +12172,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="376" spans="1:9">
+    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>3.5</v>
       </c>
@@ -12193,7 +12198,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="377" spans="1:9">
+    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>3.5</v>
       </c>
@@ -12219,7 +12224,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="378" spans="1:9">
+    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>3.5</v>
       </c>
@@ -12245,7 +12250,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="379" spans="1:9">
+    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>2</v>
       </c>
@@ -12271,7 +12276,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="380" spans="1:9">
+    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>2</v>
       </c>
@@ -12297,7 +12302,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="381" spans="1:9">
+    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>2.5</v>
       </c>
@@ -12323,7 +12328,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="382" spans="1:9">
+    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>6.5</v>
       </c>
@@ -12349,7 +12354,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="383" spans="1:9">
+    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>3.78</v>
       </c>
@@ -12375,7 +12380,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="384" spans="1:9">
+    <row r="384" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>7</v>
       </c>
@@ -12401,7 +12406,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="385" spans="1:9">
+    <row r="385" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>2.5</v>
       </c>
@@ -12427,7 +12432,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="386" spans="1:9">
+    <row r="386" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>2</v>
       </c>
@@ -12453,7 +12458,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="387" spans="1:9">
+    <row r="387" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>1</v>
       </c>
@@ -12479,7 +12484,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="388" spans="1:9">
+    <row r="388" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>10.5</v>
       </c>
@@ -12505,7 +12510,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="389" spans="1:9">
+    <row r="389" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>1.5</v>
       </c>
@@ -12531,7 +12536,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="390" spans="1:9">
+    <row r="390" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>2.7</v>
       </c>
@@ -12557,7 +12562,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="391" spans="1:9">
+    <row r="391" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>2</v>
       </c>
@@ -12583,7 +12588,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="392" spans="1:9">
+    <row r="392" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>17.5</v>
       </c>
@@ -12609,7 +12614,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="393" spans="1:9">
+    <row r="393" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>43</v>
       </c>
@@ -12635,7 +12640,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="394" spans="1:9">
+    <row r="394" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>69.900000000000006</v>
       </c>
@@ -12661,7 +12666,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="395" spans="1:9">
+    <row r="395" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>16</v>
       </c>
@@ -12687,7 +12692,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="396" spans="1:9">
+    <row r="396" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>2.2000000000000002</v>
       </c>
@@ -12713,7 +12718,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="397" spans="1:9">
+    <row r="397" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>1.72</v>
       </c>
@@ -12739,7 +12744,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="398" spans="1:9">
+    <row r="398" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>6</v>
       </c>
@@ -12765,7 +12770,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="399" spans="1:9">
+    <row r="399" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>1.8</v>
       </c>
@@ -12791,7 +12796,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="400" spans="1:9">
+    <row r="400" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>4.5999999999999996</v>
       </c>
@@ -12817,7 +12822,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="401" spans="1:9">
+    <row r="401" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>27</v>
       </c>
@@ -12843,7 +12848,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="402" spans="1:9">
+    <row r="402" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>14</v>
       </c>
@@ -12869,7 +12874,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="403" spans="1:9">
+    <row r="403" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>2.5</v>
       </c>
@@ -12895,7 +12900,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="404" spans="1:9">
+    <row r="404" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>10</v>
       </c>
@@ -12921,7 +12926,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="405" spans="1:9">
+    <row r="405" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>11</v>
       </c>
@@ -12947,7 +12952,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="406" spans="1:9">
+    <row r="406" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>5.55</v>
       </c>
@@ -12973,7 +12978,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="407" spans="1:9">
+    <row r="407" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>3</v>
       </c>
@@ -12999,7 +13004,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="408" spans="1:9">
+    <row r="408" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>3.5</v>
       </c>
@@ -13025,7 +13030,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="409" spans="1:9">
+    <row r="409" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>3.8</v>
       </c>
@@ -13051,7 +13056,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="410" spans="1:9">
+    <row r="410" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>4</v>
       </c>
@@ -13077,7 +13082,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="411" spans="1:9">
+    <row r="411" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>8</v>
       </c>
@@ -13103,7 +13108,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="412" spans="1:9">
+    <row r="412" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>11.6</v>
       </c>
@@ -13129,7 +13134,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="413" spans="1:9">
+    <row r="413" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>1.6</v>
       </c>
@@ -13155,7 +13160,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="414" spans="1:9">
+    <row r="414" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>44.41</v>
       </c>
@@ -13181,7 +13186,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="415" spans="1:9">
+    <row r="415" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>4.8</v>
       </c>
@@ -13207,7 +13212,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="416" spans="1:9">
+    <row r="416" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>1.7</v>
       </c>
@@ -13233,7 +13238,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="417" spans="1:9">
+    <row r="417" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>2.85</v>
       </c>
@@ -13259,7 +13264,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="418" spans="1:9">
+    <row r="418" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>6.4</v>
       </c>
@@ -13285,7 +13290,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="419" spans="1:9">
+    <row r="419" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>3.5</v>
       </c>
@@ -13311,7 +13316,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="420" spans="1:9">
+    <row r="420" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>6.5</v>
       </c>
@@ -13337,7 +13342,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="421" spans="1:9">
+    <row r="421" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>1.2</v>
       </c>
@@ -13363,7 +13368,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="422" spans="1:9">
+    <row r="422" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>4.5999999999999996</v>
       </c>
@@ -13389,7 +13394,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="423" spans="1:9">
+    <row r="423" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>8</v>
       </c>
@@ -13415,7 +13420,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="424" spans="1:9">
+    <row r="424" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>3.5</v>
       </c>
@@ -13441,7 +13446,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="425" spans="1:9">
+    <row r="425" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
         <v>50</v>
       </c>
@@ -13468,7 +13473,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="426" spans="1:9">
+    <row r="426" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>10</v>
       </c>
@@ -13494,7 +13499,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="427" spans="1:9">
+    <row r="427" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>2.9</v>
       </c>
@@ -13520,7 +13525,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="428" spans="1:9">
+    <row r="428" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>15</v>
       </c>
@@ -13546,7 +13551,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="429" spans="1:9">
+    <row r="429" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>3.5</v>
       </c>
@@ -13572,7 +13577,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="430" spans="1:9">
+    <row r="430" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>9.25</v>
       </c>
@@ -13598,7 +13603,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="431" spans="1:9">
+    <row r="431" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>8</v>
       </c>
@@ -13624,7 +13629,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="432" spans="1:9">
+    <row r="432" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>4.0999999999999996</v>
       </c>
@@ -13650,7 +13655,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="433" spans="1:9">
+    <row r="433" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>4.9000000000000004</v>
       </c>
@@ -13676,7 +13681,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="434" spans="1:9">
+    <row r="434" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>2.8</v>
       </c>
@@ -13702,7 +13707,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="435" spans="1:9">
+    <row r="435" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>18.7</v>
       </c>
@@ -13728,7 +13733,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="436" spans="1:9">
+    <row r="436" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>20</v>
       </c>
@@ -13754,7 +13759,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="437" spans="1:9">
+    <row r="437" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
         <v>150</v>
       </c>
@@ -13781,7 +13786,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="438" spans="1:9">
+    <row r="438" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
         <v>10</v>
       </c>
@@ -13808,7 +13813,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="439" spans="1:9">
+    <row r="439" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>2.1</v>
       </c>
@@ -13834,7 +13839,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="440" spans="1:9">
+    <row r="440" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>5</v>
       </c>
@@ -13860,7 +13865,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="441" spans="1:9">
+    <row r="441" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>10</v>
       </c>
@@ -13886,7 +13891,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="442" spans="1:9">
+    <row r="442" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>59</v>
       </c>
@@ -13912,7 +13917,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="443" spans="1:9">
+    <row r="443" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>4</v>
       </c>
@@ -13938,7 +13943,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="444" spans="1:9">
+    <row r="444" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>4.17</v>
       </c>
@@ -13964,7 +13969,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="445" spans="1:9">
+    <row r="445" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>4.2</v>
       </c>
@@ -13990,7 +13995,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="446" spans="1:9">
+    <row r="446" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>4.4000000000000004</v>
       </c>
@@ -14016,7 +14021,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="447" spans="1:9">
+    <row r="447" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>30</v>
       </c>
@@ -14042,7 +14047,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="448" spans="1:9">
+    <row r="448" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>5</v>
       </c>
@@ -14068,7 +14073,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="449" spans="1:9">
+    <row r="449" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>15.7</v>
       </c>
@@ -14094,7 +14099,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="450" spans="1:9">
+    <row r="450" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>4</v>
       </c>
@@ -14120,7 +14125,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="451" spans="1:9">
+    <row r="451" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>8</v>
       </c>
@@ -14146,7 +14151,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="452" spans="1:9">
+    <row r="452" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>3.5</v>
       </c>
@@ -14172,7 +14177,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="453" spans="1:9">
+    <row r="453" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>4.2</v>
       </c>
@@ -14198,7 +14203,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="454" spans="1:9">
+    <row r="454" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>180</v>
       </c>
@@ -14224,7 +14229,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="455" spans="1:9">
+    <row r="455" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>2.2999999999999998</v>
       </c>
@@ -14250,7 +14255,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="456" spans="1:9">
+    <row r="456" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>11</v>
       </c>
@@ -14276,7 +14281,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="457" spans="1:9">
+    <row r="457" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>2</v>
       </c>
@@ -14302,7 +14307,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="458" spans="1:9">
+    <row r="458" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>3</v>
       </c>
@@ -14328,7 +14333,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="459" spans="1:9">
+    <row r="459" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>6.4</v>
       </c>
@@ -14354,7 +14359,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="460" spans="1:9">
+    <row r="460" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>3.2</v>
       </c>
@@ -14380,7 +14385,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="461" spans="1:9">
+    <row r="461" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>1</v>
       </c>
@@ -14406,7 +14411,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="462" spans="1:9">
+    <row r="462" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>4.2</v>
       </c>
@@ -14432,7 +14437,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="463" spans="1:9">
+    <row r="463" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>14</v>
       </c>
@@ -14458,7 +14463,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="464" spans="1:9">
+    <row r="464" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>2.9</v>
       </c>
@@ -14484,7 +14489,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="465" spans="1:9">
+    <row r="465" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>4</v>
       </c>
@@ -14510,7 +14515,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="466" spans="1:9">
+    <row r="466" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>1.8</v>
       </c>
@@ -14536,7 +14541,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="467" spans="1:9">
+    <row r="467" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>18</v>
       </c>
@@ -14562,7 +14567,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="468" spans="1:9">
+    <row r="468" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>2</v>
       </c>
@@ -14588,7 +14593,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="469" spans="1:9">
+    <row r="469" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>3</v>
       </c>
@@ -14614,7 +14619,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="470" spans="1:9">
+    <row r="470" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>10</v>
       </c>
@@ -14640,7 +14645,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="471" spans="1:9">
+    <row r="471" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>8.3000000000000007</v>
       </c>
@@ -14666,7 +14671,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="472" spans="1:9">
+    <row r="472" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>362</v>
       </c>
@@ -14692,7 +14697,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="473" spans="1:9">
+    <row r="473" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>4.2</v>
       </c>
@@ -14718,7 +14723,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="474" spans="1:9">
+    <row r="474" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>0.5</v>
       </c>
@@ -14744,7 +14749,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="475" spans="1:9">
+    <row r="475" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>1.7</v>
       </c>
@@ -14770,7 +14775,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="476" spans="1:9">
+    <row r="476" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>4.5999999999999996</v>
       </c>
@@ -14796,7 +14801,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="477" spans="1:9">
+    <row r="477" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>4.7</v>
       </c>
@@ -14822,7 +14827,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="478" spans="1:9">
+    <row r="478" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>1</v>
       </c>
@@ -14848,7 +14853,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="479" spans="1:9">
+    <row r="479" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>5.6</v>
       </c>
@@ -14874,7 +14879,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="480" spans="1:9">
+    <row r="480" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>33.799999999999997</v>
       </c>
@@ -14900,7 +14905,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="481" spans="1:9">
+    <row r="481" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>8</v>
       </c>
@@ -14926,7 +14931,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="482" spans="1:9">
+    <row r="482" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>5.2</v>
       </c>
@@ -14952,7 +14957,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="483" spans="1:9">
+    <row r="483" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>5.4</v>
       </c>
@@ -14978,7 +14983,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="484" spans="1:9">
+    <row r="484" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>40</v>
       </c>
@@ -15004,7 +15009,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="485" spans="1:9">
+    <row r="485" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>10.8</v>
       </c>
@@ -15030,7 +15035,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="486" spans="1:9">
+    <row r="486" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>15</v>
       </c>
@@ -15056,7 +15061,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="487" spans="1:9">
+    <row r="487" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>20</v>
       </c>
@@ -15082,7 +15087,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="488" spans="1:9">
+    <row r="488" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>3</v>
       </c>
@@ -15108,7 +15113,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="489" spans="1:9">
+    <row r="489" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>3.5</v>
       </c>
@@ -15134,7 +15139,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="490" spans="1:9">
+    <row r="490" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>2.2000000000000002</v>
       </c>
@@ -15160,7 +15165,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="491" spans="1:9">
+    <row r="491" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>4.5</v>
       </c>
@@ -15186,7 +15191,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="492" spans="1:9">
+    <row r="492" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A492">
         <v>4.2</v>
       </c>
@@ -15212,7 +15217,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="493" spans="1:9">
+    <row r="493" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A493">
         <v>5</v>
       </c>
@@ -15238,7 +15243,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="494" spans="1:9">
+    <row r="494" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A494" s="1">
         <v>27.69</v>
       </c>
@@ -15265,7 +15270,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="495" spans="1:9">
+    <row r="495" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A495">
         <v>70</v>
       </c>
@@ -15291,7 +15296,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="496" spans="1:9">
+    <row r="496" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A496" s="1">
         <v>2.2999999999999998</v>
       </c>
@@ -15318,7 +15323,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="497" spans="1:9">
+    <row r="497" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A497">
         <v>3.2</v>
       </c>
@@ -15344,7 +15349,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="498" spans="1:9">
+    <row r="498" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A498">
         <v>3.6</v>
       </c>
@@ -15370,7 +15375,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="499" spans="1:9">
+    <row r="499" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>0.5</v>
       </c>
@@ -15396,7 +15401,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="500" spans="1:9">
+    <row r="500" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>10</v>
       </c>
@@ -15422,7 +15427,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="501" spans="1:9">
+    <row r="501" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>2</v>
       </c>
@@ -15448,7 +15453,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="502" spans="1:9">
+    <row r="502" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A502" s="1">
         <v>1.9</v>
       </c>
@@ -15475,7 +15480,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="503" spans="1:9">
+    <row r="503" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A503">
         <v>6.6</v>
       </c>
@@ -15501,7 +15506,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="504" spans="1:9">
+    <row r="504" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A504">
         <v>1.8</v>
       </c>
@@ -15527,7 +15532,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="505" spans="1:9">
+    <row r="505" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A505" s="1">
         <v>0.8</v>
       </c>
@@ -15554,7 +15559,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="506" spans="1:9">
+    <row r="506" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A506">
         <v>4.2</v>
       </c>
@@ -15580,7 +15585,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="507" spans="1:9">
+    <row r="507" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A507">
         <v>4</v>
       </c>
@@ -15606,7 +15611,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="508" spans="1:9">
+    <row r="508" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A508">
         <v>1.2</v>
       </c>
@@ -15632,7 +15637,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="509" spans="1:9">
+    <row r="509" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A509">
         <v>5</v>
       </c>
@@ -15658,7 +15663,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="510" spans="1:9">
+    <row r="510" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A510">
         <v>3.5</v>
       </c>
@@ -15684,7 +15689,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="511" spans="1:9">
+    <row r="511" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A511" s="1">
         <v>1.75</v>
       </c>
@@ -15711,7 +15716,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="512" spans="1:9">
+    <row r="512" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A512">
         <v>4.2</v>
       </c>
@@ -15737,7 +15742,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="513" spans="1:9">
+    <row r="513" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A513">
         <v>5.6</v>
       </c>
@@ -15763,7 +15768,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="514" spans="1:9">
+    <row r="514" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A514">
         <v>3.6</v>
       </c>
@@ -15789,7 +15794,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="515" spans="1:9">
+    <row r="515" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A515">
         <v>15.93</v>
       </c>
@@ -15815,7 +15820,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="516" spans="1:9">
+    <row r="516" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A516">
         <v>5.98</v>
       </c>
@@ -15841,7 +15846,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="517" spans="1:9">
+    <row r="517" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A517">
         <v>5</v>
       </c>
@@ -15867,7 +15872,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="518" spans="1:9">
+    <row r="518" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A518">
         <v>4.2</v>
       </c>
@@ -15893,7 +15898,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="519" spans="1:9">
+    <row r="519" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A519">
         <v>4.2</v>
       </c>
@@ -15919,7 +15924,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="520" spans="1:9">
+    <row r="520" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A520">
         <v>4</v>
       </c>
@@ -15945,7 +15950,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="521" spans="1:9">
+    <row r="521" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A521">
         <v>3</v>
       </c>
@@ -15971,7 +15976,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="522" spans="1:9">
+    <row r="522" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A522">
         <v>2</v>
       </c>
@@ -15997,7 +16002,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="523" spans="1:9">
+    <row r="523" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A523">
         <v>1</v>
       </c>
@@ -16023,7 +16028,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="524" spans="1:9">
+    <row r="524" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A524" s="1">
         <v>4.0999999999999996</v>
       </c>
@@ -16050,7 +16055,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="525" spans="1:9">
+    <row r="525" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A525">
         <v>78.180000000000007</v>
       </c>
@@ -16076,7 +16081,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="526" spans="1:9">
+    <row r="526" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A526">
         <v>5.2</v>
       </c>
@@ -16102,7 +16107,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="527" spans="1:9">
+    <row r="527" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A527">
         <v>1.2</v>
       </c>
@@ -16128,7 +16133,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="528" spans="1:9">
+    <row r="528" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A528">
         <v>4.5</v>
       </c>
@@ -16154,7 +16159,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="529" spans="1:9">
+    <row r="529" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A529">
         <v>3.4</v>
       </c>
@@ -16180,7 +16185,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="530" spans="1:9">
+    <row r="530" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A530">
         <v>16</v>
       </c>
@@ -16206,7 +16211,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="531" spans="1:9">
+    <row r="531" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A531">
         <v>2.5</v>
       </c>
@@ -16232,7 +16237,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="532" spans="1:9">
+    <row r="532" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A532">
         <v>0.8</v>
       </c>
@@ -16258,7 +16263,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="533" spans="1:9">
+    <row r="533" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A533">
         <v>2.8</v>
       </c>
@@ -16284,7 +16289,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="534" spans="1:9">
+    <row r="534" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A534">
         <v>3.5</v>
       </c>
@@ -16310,7 +16315,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="535" spans="1:9">
+    <row r="535" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A535">
         <v>3.6</v>
       </c>
@@ -16336,7 +16341,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="536" spans="1:9">
+    <row r="536" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A536">
         <v>6.8</v>
       </c>
@@ -16362,7 +16367,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="537" spans="1:9">
+    <row r="537" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A537">
         <v>5</v>
       </c>
@@ -16388,7 +16393,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="538" spans="1:9">
+    <row r="538" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A538">
         <v>4.9000000000000004</v>
       </c>
@@ -16414,7 +16419,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="539" spans="1:9">
+    <row r="539" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A539">
         <v>80</v>
       </c>
@@ -16440,7 +16445,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="540" spans="1:9">
+    <row r="540" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A540">
         <v>55</v>
       </c>
@@ -16466,7 +16471,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="541" spans="1:9">
+    <row r="541" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A541">
         <v>10</v>
       </c>
@@ -16492,7 +16497,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="542" spans="1:9">
+    <row r="542" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A542">
         <v>1</v>
       </c>
@@ -16518,7 +16523,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="543" spans="1:9">
+    <row r="543" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A543" s="1">
         <v>1.65</v>
       </c>
@@ -16545,7 +16550,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="544" spans="1:9">
+    <row r="544" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A544" s="1">
         <v>4.5</v>
       </c>
@@ -16572,7 +16577,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="545" spans="1:9">
+    <row r="545" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A545">
         <v>4.8</v>
       </c>
@@ -16599,7 +16604,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="546" spans="1:9">
+    <row r="546" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A546" s="1">
         <v>9.5</v>
       </c>
@@ -16626,7 +16631,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="547" spans="1:9">
+    <row r="547" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A547">
         <v>10</v>
       </c>
@@ -16652,7 +16657,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="548" spans="1:9">
+    <row r="548" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A548">
         <v>4.8</v>
       </c>
@@ -16678,7 +16683,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="549" spans="1:9">
+    <row r="549" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A549">
         <v>6.1</v>
       </c>
@@ -16704,7 +16709,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="550" spans="1:9">
+    <row r="550" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A550">
         <v>4.8</v>
       </c>
@@ -16730,7 +16735,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="551" spans="1:9">
+    <row r="551" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A551">
         <v>4.7300000000000004</v>
       </c>
@@ -16756,7 +16761,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="552" spans="1:9">
+    <row r="552" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A552">
         <v>2.6</v>
       </c>
@@ -16782,7 +16787,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="553" spans="1:9">
+    <row r="553" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A553">
         <v>3.7</v>
       </c>
@@ -16808,7 +16813,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="554" spans="1:9">
+    <row r="554" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A554">
         <v>120</v>
       </c>
@@ -16834,7 +16839,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="555" spans="1:9">
+    <row r="555" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A555">
         <v>6.8</v>
       </c>
@@ -16860,7 +16865,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="556" spans="1:9">
+    <row r="556" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A556">
         <v>5</v>
       </c>
@@ -16886,7 +16891,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="557" spans="1:9">
+    <row r="557" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A557">
         <v>3.8</v>
       </c>
@@ -16912,7 +16917,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="558" spans="1:9">
+    <row r="558" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A558">
         <v>3.9</v>
       </c>
@@ -16938,7 +16943,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="559" spans="1:9">
+    <row r="559" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A559">
         <v>2.7</v>
       </c>
@@ -16964,7 +16969,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="560" spans="1:9">
+    <row r="560" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A560">
         <v>1</v>
       </c>
@@ -16990,7 +16995,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="561" spans="1:9">
+    <row r="561" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A561">
         <v>1</v>
       </c>
@@ -17016,7 +17021,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="562" spans="1:9">
+    <row r="562" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A562">
         <v>3.5</v>
       </c>
@@ -17042,7 +17047,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="563" spans="1:9">
+    <row r="563" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A563">
         <v>7.1</v>
       </c>
@@ -17068,7 +17073,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="564" spans="1:9">
+    <row r="564" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A564">
         <v>49.98</v>
       </c>
@@ -17094,7 +17099,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="565" spans="1:9">
+    <row r="565" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A565">
         <v>4.74</v>
       </c>
@@ -17120,7 +17125,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="566" spans="1:9">
+    <row r="566" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A566">
         <v>6.2</v>
       </c>
@@ -17146,7 +17151,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="567" spans="1:9">
+    <row r="567" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A567">
         <v>3.17</v>
       </c>
@@ -17172,7 +17177,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="568" spans="1:9">
+    <row r="568" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A568">
         <v>4.1500000000000004</v>
       </c>
@@ -17198,7 +17203,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="569" spans="1:9">
+    <row r="569" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A569">
         <v>1.8</v>
       </c>
@@ -17224,7 +17229,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="570" spans="1:9">
+    <row r="570" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A570">
         <v>7</v>
       </c>
@@ -17250,7 +17255,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="571" spans="1:9">
+    <row r="571" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A571">
         <v>8</v>
       </c>
@@ -17276,7 +17281,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="572" spans="1:9">
+    <row r="572" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A572">
         <v>2.2999999999999998</v>
       </c>
@@ -17302,7 +17307,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="573" spans="1:9">
+    <row r="573" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A573">
         <v>1.2</v>
       </c>
@@ -17328,7 +17333,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="574" spans="1:9">
+    <row r="574" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A574">
         <v>5.0999999999999996</v>
       </c>
@@ -17354,7 +17359,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="575" spans="1:9">
+    <row r="575" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A575">
         <v>4</v>
       </c>
@@ -17380,7 +17385,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="576" spans="1:9">
+    <row r="576" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A576">
         <v>4</v>
       </c>
@@ -17406,7 +17411,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="577" spans="1:9">
+    <row r="577" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A577">
         <v>4.5999999999999996</v>
       </c>
@@ -17432,7 +17437,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="578" spans="1:9">
+    <row r="578" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A578">
         <v>4.5999999999999996</v>
       </c>
@@ -17458,7 +17463,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="579" spans="1:9">
+    <row r="579" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A579">
         <v>4.5999999999999996</v>
       </c>
@@ -17484,7 +17489,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="580" spans="1:9">
+    <row r="580" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A580">
         <v>2.9</v>
       </c>
@@ -17510,7 +17515,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="581" spans="1:9">
+    <row r="581" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A581">
         <v>11.6</v>
       </c>
@@ -17536,7 +17541,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="582" spans="1:9">
+    <row r="582" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A582">
         <v>0.75</v>
       </c>
@@ -17562,7 +17567,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="583" spans="1:9">
+    <row r="583" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A583">
         <v>2</v>
       </c>
@@ -17588,7 +17593,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="584" spans="1:9">
+    <row r="584" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A584">
         <v>10</v>
       </c>
@@ -17614,7 +17619,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="585" spans="1:9">
+    <row r="585" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A585">
         <v>3.3</v>
       </c>
@@ -17640,7 +17645,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="586" spans="1:9">
+    <row r="586" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A586">
         <v>4.4000000000000004</v>
       </c>
@@ -17666,7 +17671,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="587" spans="1:9">
+    <row r="587" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A587">
         <v>3</v>
       </c>
@@ -17692,7 +17697,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="588" spans="1:9">
+    <row r="588" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A588">
         <v>8.6999999999999993</v>
       </c>
@@ -17718,7 +17723,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="589" spans="1:9">
+    <row r="589" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A589">
         <v>3</v>
       </c>
@@ -17744,7 +17749,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="590" spans="1:9">
+    <row r="590" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A590">
         <v>15</v>
       </c>
@@ -17770,7 +17775,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="591" spans="1:9">
+    <row r="591" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A591">
         <v>5</v>
       </c>
@@ -17796,7 +17801,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="592" spans="1:9">
+    <row r="592" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A592">
         <v>3.9</v>
       </c>
@@ -17822,7 +17827,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="593" spans="1:9">
+    <row r="593" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A593">
         <v>2.85</v>
       </c>
@@ -17848,7 +17853,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="594" spans="1:9">
+    <row r="594" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A594">
         <v>3</v>
       </c>
@@ -17874,7 +17879,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="595" spans="1:9">
+    <row r="595" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A595">
         <v>4.4000000000000004</v>
       </c>
@@ -17900,7 +17905,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="596" spans="1:9">
+    <row r="596" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A596">
         <v>3</v>
       </c>
@@ -17926,7 +17931,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="597" spans="1:9">
+    <row r="597" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A597">
         <v>3</v>
       </c>
@@ -17952,7 +17957,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="598" spans="1:9">
+    <row r="598" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A598">
         <v>3</v>
       </c>
@@ -17978,7 +17983,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="599" spans="1:9">
+    <row r="599" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A599">
         <v>4</v>
       </c>
@@ -18004,7 +18009,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="600" spans="1:9">
+    <row r="600" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A600">
         <v>5</v>
       </c>
@@ -18030,7 +18035,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="601" spans="1:9">
+    <row r="601" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A601">
         <v>4</v>
       </c>
@@ -18056,7 +18061,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="602" spans="1:9">
+    <row r="602" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A602">
         <v>3</v>
       </c>
@@ -18082,7 +18087,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="603" spans="1:9">
+    <row r="603" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A603">
         <v>12</v>
       </c>
@@ -18108,7 +18113,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="604" spans="1:9">
+    <row r="604" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A604">
         <v>3</v>
       </c>
@@ -18134,7 +18139,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="605" spans="1:9">
+    <row r="605" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A605">
         <v>6</v>
       </c>
@@ -18160,7 +18165,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="606" spans="1:9">
+    <row r="606" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A606">
         <v>5</v>
       </c>
@@ -18186,7 +18191,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="607" spans="1:9">
+    <row r="607" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A607">
         <v>10</v>
       </c>
@@ -18212,7 +18217,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="608" spans="1:9">
+    <row r="608" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A608">
         <v>19</v>
       </c>
@@ -18238,7 +18243,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="609" spans="1:9">
+    <row r="609" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A609">
         <v>5.55</v>
       </c>
@@ -18264,7 +18269,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="610" spans="1:9">
+    <row r="610" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A610">
         <v>0.9</v>
       </c>
@@ -18290,7 +18295,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="611" spans="1:9">
+    <row r="611" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A611">
         <v>10.7</v>
       </c>
@@ -18316,7 +18321,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="612" spans="1:9">
+    <row r="612" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A612" s="1">
         <v>9</v>
       </c>
@@ -18343,7 +18348,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="613" spans="1:9">
+    <row r="613" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A613">
         <v>1.2</v>
       </c>
@@ -18369,7 +18374,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="614" spans="1:9">
+    <row r="614" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A614">
         <v>5.3</v>
       </c>
@@ -18395,7 +18400,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="615" spans="1:9">
+    <row r="615" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A615">
         <v>11.5</v>
       </c>
@@ -18421,7 +18426,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="616" spans="1:9">
+    <row r="616" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A616">
         <v>4</v>
       </c>
@@ -18447,7 +18452,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="617" spans="1:9">
+    <row r="617" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A617">
         <v>1</v>
       </c>
@@ -18473,7 +18478,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="618" spans="1:9">
+    <row r="618" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A618">
         <v>1.2</v>
       </c>
@@ -18499,7 +18504,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="619" spans="1:9">
+    <row r="619" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A619">
         <v>15</v>
       </c>
@@ -18525,7 +18530,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="620" spans="1:9">
+    <row r="620" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A620">
         <v>100</v>
       </c>
@@ -18551,7 +18556,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="621" spans="1:9">
+    <row r="621" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A621">
         <v>52</v>
       </c>
@@ -18577,7 +18582,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="622" spans="1:9">
+    <row r="622" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A622">
         <v>80</v>
       </c>
@@ -18603,7 +18608,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="623" spans="1:9">
+    <row r="623" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A623">
         <v>9</v>
       </c>
@@ -18629,7 +18634,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="624" spans="1:9">
+    <row r="624" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A624">
         <v>8</v>
       </c>
@@ -18655,7 +18660,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="625" spans="1:9">
+    <row r="625" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A625">
         <v>10</v>
       </c>
@@ -18681,7 +18686,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="626" spans="1:9">
+    <row r="626" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A626">
         <v>3.5</v>
       </c>
@@ -18707,7 +18712,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="627" spans="1:9">
+    <row r="627" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A627">
         <v>60</v>
       </c>
@@ -18733,7 +18738,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="628" spans="1:9">
+    <row r="628" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A628">
         <v>10</v>
       </c>
@@ -18759,7 +18764,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="629" spans="1:9">
+    <row r="629" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A629">
         <v>4.4000000000000004</v>
       </c>
@@ -18785,7 +18790,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="630" spans="1:9">
+    <row r="630" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A630">
         <v>5</v>
       </c>
@@ -18811,7 +18816,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="631" spans="1:9">
+    <row r="631" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A631">
         <v>3.6</v>
       </c>
@@ -18837,7 +18842,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="632" spans="1:9">
+    <row r="632" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A632">
         <v>4.7</v>
       </c>
@@ -18863,7 +18868,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="633" spans="1:9">
+    <row r="633" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A633">
         <v>4.7</v>
       </c>
@@ -18889,7 +18894,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="634" spans="1:9">
+    <row r="634" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A634">
         <v>3.7</v>
       </c>
@@ -18915,7 +18920,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="635" spans="1:9">
+    <row r="635" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A635">
         <v>10</v>
       </c>
@@ -18941,7 +18946,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="636" spans="1:9">
+    <row r="636" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A636">
         <v>8.43</v>
       </c>
@@ -18967,7 +18972,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="637" spans="1:9">
+    <row r="637" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A637">
         <v>7.6</v>
       </c>
@@ -18993,7 +18998,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="638" spans="1:9">
+    <row r="638" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A638">
         <v>2</v>
       </c>
@@ -19019,7 +19024,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="639" spans="1:9">
+    <row r="639" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A639">
         <v>4</v>
       </c>
@@ -19045,7 +19050,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="640" spans="1:9">
+    <row r="640" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A640">
         <v>5</v>
       </c>
@@ -19071,7 +19076,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="641" spans="1:9">
+    <row r="641" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A641">
         <v>1.3</v>
       </c>
@@ -19097,7 +19102,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="642" spans="1:9">
+    <row r="642" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A642">
         <v>1</v>
       </c>
@@ -19123,7 +19128,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="643" spans="1:9">
+    <row r="643" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A643">
         <v>13.65</v>
       </c>
@@ -19149,7 +19154,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="644" spans="1:9">
+    <row r="644" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A644">
         <v>7.4</v>
       </c>
@@ -19175,7 +19180,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="645" spans="1:9">
+    <row r="645" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A645">
         <v>39.99</v>
       </c>
@@ -19201,7 +19206,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="646" spans="1:9">
+    <row r="646" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A646">
         <v>9</v>
       </c>
@@ -19227,7 +19232,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="647" spans="1:9">
+    <row r="647" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A647">
         <v>1</v>
       </c>
@@ -19253,7 +19258,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="648" spans="1:9">
+    <row r="648" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A648">
         <v>6.9</v>
       </c>
@@ -19279,7 +19284,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="649" spans="1:9">
+    <row r="649" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A649">
         <v>3.6</v>
       </c>
@@ -19305,7 +19310,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="650" spans="1:9">
+    <row r="650" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A650">
         <v>7.96</v>
       </c>
@@ -19331,7 +19336,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="651" spans="1:9">
+    <row r="651" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A651">
         <v>5</v>
       </c>
@@ -19357,7 +19362,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="652" spans="1:9">
+    <row r="652" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A652">
         <v>2.5</v>
       </c>
@@ -19383,7 +19388,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="653" spans="1:9">
+    <row r="653" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A653">
         <v>7.65</v>
       </c>
@@ -19409,7 +19414,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="654" spans="1:9">
+    <row r="654" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A654">
         <v>4</v>
       </c>
@@ -19435,7 +19440,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="655" spans="1:9">
+    <row r="655" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A655">
         <v>5.7</v>
       </c>
@@ -19461,7 +19466,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="656" spans="1:9">
+    <row r="656" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A656">
         <v>1.9</v>
       </c>
@@ -19487,7 +19492,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="657" spans="1:9">
+    <row r="657" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A657">
         <v>5.9</v>
       </c>
@@ -19513,7 +19518,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="658" spans="1:9">
+    <row r="658" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A658">
         <v>5.6</v>
       </c>
@@ -19539,7 +19544,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="659" spans="1:9">
+    <row r="659" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A659" s="1">
         <v>14</v>
       </c>
@@ -19566,7 +19571,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="660" spans="1:9">
+    <row r="660" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A660">
         <v>4.5</v>
       </c>
@@ -19592,7 +19597,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="661" spans="1:9">
+    <row r="661" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A661">
         <v>5</v>
       </c>
@@ -19618,7 +19623,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="662" spans="1:9">
+    <row r="662" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A662" s="1">
         <v>699</v>
       </c>
@@ -19645,7 +19650,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="663" spans="1:9">
+    <row r="663" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A663">
         <v>27</v>
       </c>
@@ -19671,7 +19676,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="664" spans="1:9">
+    <row r="664" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A664">
         <v>1.85</v>
       </c>
@@ -19697,7 +19702,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="665" spans="1:9">
+    <row r="665" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A665" s="1">
         <v>6</v>
       </c>
@@ -19722,6 +19727,32 @@
       </c>
       <c r="I665" s="1">
         <v>663</v>
+      </c>
+    </row>
+    <row r="666" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A666">
+        <v>10.8</v>
+      </c>
+      <c r="B666" t="s">
+        <v>339</v>
+      </c>
+      <c r="C666" s="2">
+        <v>43461</v>
+      </c>
+      <c r="D666" t="s">
+        <v>640</v>
+      </c>
+      <c r="E666" t="s">
+        <v>232</v>
+      </c>
+      <c r="F666">
+        <v>5</v>
+      </c>
+      <c r="H666" t="s">
+        <v>243</v>
+      </c>
+      <c r="I666">
+        <v>664</v>
       </c>
     </row>
   </sheetData>

--- a/DataBase/costs.xlsx
+++ b/DataBase/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2675" uniqueCount="641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2679" uniqueCount="642">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1937,6 +1937,9 @@
   </si>
   <si>
     <t>μπουγάτσες για κέρασμα στην Dataverse για την γιορτή μου</t>
+  </si>
+  <si>
+    <t>μπουγάτσα με τυρί από το Hand café</t>
   </si>
 </sst>
 </file>
@@ -2080,7 +2083,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:I666" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:I667" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="9">
     <tableColumn id="1" name="amount" headerRowDxfId="9" totalsRowDxfId="8"/>
     <tableColumn id="11" name="type" totalsRowDxfId="7"/>
@@ -2383,10 +2386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L666"/>
+  <dimension ref="A1:L667"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A655" workbookViewId="0">
-      <selection activeCell="A667" sqref="A667"/>
+      <selection activeCell="A668" sqref="A668"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19755,6 +19758,32 @@
         <v>664</v>
       </c>
     </row>
+    <row r="667" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A667">
+        <v>1.7</v>
+      </c>
+      <c r="B667" t="s">
+        <v>217</v>
+      </c>
+      <c r="C667" s="2">
+        <v>43462</v>
+      </c>
+      <c r="D667" t="s">
+        <v>641</v>
+      </c>
+      <c r="E667" t="s">
+        <v>232</v>
+      </c>
+      <c r="F667">
+        <v>5</v>
+      </c>
+      <c r="H667" t="s">
+        <v>243</v>
+      </c>
+      <c r="I667">
+        <v>665</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataBase/costs.xlsx
+++ b/DataBase/costs.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="45" windowWidth="18975" windowHeight="11760"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2679" uniqueCount="642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2707" uniqueCount="648">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1940,17 +1940,35 @@
   </si>
   <si>
     <t>μπουγάτσα με τυρί από το Hand café</t>
+  </si>
+  <si>
+    <t>μικρόφωνο για τις βιντεάρες που κάνω</t>
+  </si>
+  <si>
+    <t>σουβλάκι στο Κρέας στην πυρά</t>
+  </si>
+  <si>
+    <t>μπουγάτσα από το Νέο Κόσμο</t>
+  </si>
+  <si>
+    <t>τσίχλα με μέντα</t>
+  </si>
+  <si>
+    <t>καπάκια για την κάμερα</t>
+  </si>
+  <si>
+    <t>ring flash και ένα μικρό τριποδάκι</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1991,7 +2009,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
     <dxf>
@@ -2083,7 +2101,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:I667" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:I674" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="9">
     <tableColumn id="1" name="amount" headerRowDxfId="9" totalsRowDxfId="8"/>
     <tableColumn id="11" name="type" totalsRowDxfId="7"/>
@@ -2100,7 +2118,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2142,7 +2160,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2174,10 +2192,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2209,7 +2226,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2385,14 +2401,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L667"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L674"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A655" workbookViewId="0">
-      <selection activeCell="A668" sqref="A668"/>
+      <selection activeCell="I675" sqref="I675"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.28515625" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
@@ -2408,7 +2424,7 @@
     <col min="12" max="12" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>227</v>
       </c>
@@ -2440,7 +2456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2" s="5" t="s">
         <v>476</v>
       </c>
@@ -2469,7 +2485,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3" s="4">
         <v>20</v>
       </c>
@@ -2496,7 +2512,7 @@
       </c>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4" s="4">
         <v>10</v>
       </c>
@@ -2522,7 +2538,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5" s="4">
         <v>100</v>
       </c>
@@ -2548,7 +2564,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="A6" s="4">
         <v>10</v>
       </c>
@@ -2574,7 +2590,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="A7" s="4">
         <v>50</v>
       </c>
@@ -2600,7 +2616,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="A8" s="4">
         <v>3.2</v>
       </c>
@@ -2626,7 +2642,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="A9" s="4">
         <v>1.3</v>
       </c>
@@ -2652,7 +2668,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="A10" s="4">
         <v>1.2</v>
       </c>
@@ -2678,7 +2694,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="A11" s="4">
         <v>5</v>
       </c>
@@ -2704,7 +2720,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12">
       <c r="A12" s="4">
         <v>4.5</v>
       </c>
@@ -2730,7 +2746,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12">
       <c r="A13" s="4">
         <v>4</v>
       </c>
@@ -2756,7 +2772,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12">
       <c r="A14" s="4">
         <v>10.6</v>
       </c>
@@ -2782,7 +2798,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12">
       <c r="A15" s="4">
         <v>1.8</v>
       </c>
@@ -2808,7 +2824,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12">
       <c r="A16" s="4">
         <v>5.15</v>
       </c>
@@ -2834,7 +2850,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="4">
         <v>18</v>
       </c>
@@ -2860,7 +2876,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="4">
         <v>1.5</v>
       </c>
@@ -2886,7 +2902,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" s="4">
         <v>7.8</v>
       </c>
@@ -2912,7 +2928,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" s="4">
         <v>4.4400000000000004</v>
       </c>
@@ -2938,7 +2954,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="4">
         <v>1.5</v>
       </c>
@@ -2964,7 +2980,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" s="4">
         <v>8.84</v>
       </c>
@@ -2990,7 +3006,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" s="4">
         <v>4</v>
       </c>
@@ -3016,7 +3032,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24" s="4">
         <v>10</v>
       </c>
@@ -3042,7 +3058,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25" s="4">
         <v>1.8</v>
       </c>
@@ -3068,7 +3084,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="A26" s="4">
         <v>11.8</v>
       </c>
@@ -3094,7 +3110,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="A27" s="4">
         <v>40</v>
       </c>
@@ -3120,7 +3136,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="A28" s="4">
         <v>2.9</v>
       </c>
@@ -3146,7 +3162,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="A29" s="4">
         <v>4.3</v>
       </c>
@@ -3172,7 +3188,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="A30" s="4">
         <v>3.35</v>
       </c>
@@ -3198,7 +3214,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="A31" s="4">
         <v>5.2</v>
       </c>
@@ -3224,7 +3240,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9">
       <c r="A32" s="4">
         <v>15</v>
       </c>
@@ -3250,7 +3266,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9">
       <c r="A33" s="4">
         <v>3.9</v>
       </c>
@@ -3276,7 +3292,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9">
       <c r="A34" s="4">
         <v>63.45</v>
       </c>
@@ -3302,7 +3318,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9">
       <c r="A35" s="4">
         <v>49.9</v>
       </c>
@@ -3328,7 +3344,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9">
       <c r="A36" s="4">
         <v>140</v>
       </c>
@@ -3354,7 +3370,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9">
       <c r="A37" s="4">
         <v>1.8</v>
       </c>
@@ -3380,7 +3396,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9">
       <c r="A38" s="4">
         <v>13.02</v>
       </c>
@@ -3406,7 +3422,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9">
       <c r="A39" s="4">
         <v>4.7</v>
       </c>
@@ -3432,7 +3448,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9">
       <c r="A40" s="4">
         <v>15.96</v>
       </c>
@@ -3458,7 +3474,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9">
       <c r="A41" s="4">
         <v>9.8000000000000007</v>
       </c>
@@ -3484,7 +3500,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9">
       <c r="A42" s="4">
         <v>79.8</v>
       </c>
@@ -3510,7 +3526,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9">
       <c r="A43" s="4">
         <v>11.9</v>
       </c>
@@ -3536,7 +3552,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9">
       <c r="A44" s="4">
         <v>38.880000000000003</v>
       </c>
@@ -3562,7 +3578,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9">
       <c r="A45" s="4">
         <v>7.75</v>
       </c>
@@ -3588,7 +3604,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9">
       <c r="A46" s="4">
         <v>0.79</v>
       </c>
@@ -3614,7 +3630,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9">
       <c r="A47" s="4">
         <v>10</v>
       </c>
@@ -3640,7 +3656,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9">
       <c r="A48" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -3666,7 +3682,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11">
       <c r="A49" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -3692,7 +3708,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11">
       <c r="A50" s="4">
         <v>1.8</v>
       </c>
@@ -3718,7 +3734,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11">
       <c r="A51" s="4">
         <v>24</v>
       </c>
@@ -3744,7 +3760,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11">
       <c r="A52" s="4">
         <v>24</v>
       </c>
@@ -3770,7 +3786,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11">
       <c r="A53" s="4">
         <v>1.8</v>
       </c>
@@ -3796,7 +3812,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11">
       <c r="A54" s="4">
         <v>3.5</v>
       </c>
@@ -3822,7 +3838,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11">
       <c r="A55" s="4">
         <v>5.6</v>
       </c>
@@ -3849,7 +3865,7 @@
       </c>
       <c r="K55" s="4"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11">
       <c r="A56" s="4">
         <v>1.5</v>
       </c>
@@ -3875,7 +3891,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11">
       <c r="A57" s="4">
         <v>3</v>
       </c>
@@ -3901,7 +3917,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11">
       <c r="A58" s="4">
         <v>5.4</v>
       </c>
@@ -3927,7 +3943,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11">
       <c r="A59" s="4">
         <v>8</v>
       </c>
@@ -3953,7 +3969,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11">
       <c r="A60" s="4">
         <v>5.4</v>
       </c>
@@ -3979,7 +3995,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11">
       <c r="A61" s="4">
         <v>0.6</v>
       </c>
@@ -4005,7 +4021,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11">
       <c r="A62" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -4031,7 +4047,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11">
       <c r="A63" s="4">
         <v>1.5</v>
       </c>
@@ -4057,7 +4073,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11">
       <c r="A64" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -4083,7 +4099,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11">
       <c r="A65" s="4">
         <v>1.2</v>
       </c>
@@ -4109,7 +4125,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11">
       <c r="A66" s="4">
         <v>5.0999999999999996</v>
       </c>
@@ -4135,7 +4151,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11">
       <c r="A67" s="4">
         <v>13.5</v>
       </c>
@@ -4161,7 +4177,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11">
       <c r="A68" s="4">
         <v>3.5</v>
       </c>
@@ -4188,7 +4204,7 @@
       </c>
       <c r="K68" s="4"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11">
       <c r="A69" s="4">
         <v>4.0999999999999996</v>
       </c>
@@ -4214,7 +4230,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11">
       <c r="A70" s="4">
         <v>90</v>
       </c>
@@ -4240,7 +4256,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11">
       <c r="A71" s="4">
         <v>65.5</v>
       </c>
@@ -4266,7 +4282,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11">
       <c r="A72" s="4">
         <v>4.5</v>
       </c>
@@ -4292,7 +4308,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11">
       <c r="A73" s="4">
         <v>10</v>
       </c>
@@ -4318,7 +4334,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11">
       <c r="A74" s="4">
         <v>18.8</v>
       </c>
@@ -4344,7 +4360,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11">
       <c r="A75" s="4">
         <v>1.8</v>
       </c>
@@ -4371,7 +4387,7 @@
       </c>
       <c r="K75" s="4"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11">
       <c r="A76" s="4">
         <v>5.5</v>
       </c>
@@ -4397,7 +4413,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11">
       <c r="A77" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -4423,7 +4439,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11">
       <c r="A78" s="4">
         <v>3</v>
       </c>
@@ -4449,7 +4465,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11">
       <c r="A79" s="4">
         <v>2</v>
       </c>
@@ -4475,7 +4491,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11">
       <c r="A80" s="4">
         <v>9.9</v>
       </c>
@@ -4501,7 +4517,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9">
       <c r="A81" s="4">
         <v>6.5</v>
       </c>
@@ -4527,7 +4543,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9">
       <c r="A82" s="4">
         <v>79.8</v>
       </c>
@@ -4553,7 +4569,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9">
       <c r="A83" s="4">
         <v>10</v>
       </c>
@@ -4579,7 +4595,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9">
       <c r="A84" s="4">
         <v>2.5</v>
       </c>
@@ -4605,7 +4621,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9">
       <c r="A85" s="4">
         <v>5</v>
       </c>
@@ -4631,7 +4647,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9">
       <c r="A86" s="4">
         <v>1.6</v>
       </c>
@@ -4657,7 +4673,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9">
       <c r="A87" s="4">
         <v>5.5</v>
       </c>
@@ -4683,7 +4699,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9">
       <c r="A88" s="4">
         <v>0.8</v>
       </c>
@@ -4709,7 +4725,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9">
       <c r="A89" s="4">
         <v>17</v>
       </c>
@@ -4735,7 +4751,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9">
       <c r="A90" s="4">
         <v>24.9</v>
       </c>
@@ -4761,7 +4777,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9">
       <c r="A91" s="4">
         <v>1.8</v>
       </c>
@@ -4787,7 +4803,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9">
       <c r="A92" s="4">
         <v>44.99</v>
       </c>
@@ -4813,7 +4829,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9">
       <c r="A93" s="4">
         <v>4</v>
       </c>
@@ -4839,7 +4855,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9">
       <c r="A94" s="4">
         <v>5</v>
       </c>
@@ -4865,7 +4881,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9">
       <c r="A95" s="4">
         <v>5</v>
       </c>
@@ -4891,7 +4907,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9">
       <c r="A96" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -4917,7 +4933,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9">
       <c r="A97" s="4">
         <v>3</v>
       </c>
@@ -4943,7 +4959,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9">
       <c r="A98" s="4">
         <v>6</v>
       </c>
@@ -4969,7 +4985,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9">
       <c r="A99" s="4">
         <v>3.5</v>
       </c>
@@ -4995,7 +5011,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9">
       <c r="A100" s="4">
         <v>34.9</v>
       </c>
@@ -5021,7 +5037,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9">
       <c r="A101" s="4">
         <v>12</v>
       </c>
@@ -5047,7 +5063,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9">
       <c r="A102" s="4">
         <v>5</v>
       </c>
@@ -5073,7 +5089,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9">
       <c r="A103" s="4">
         <v>6.9</v>
       </c>
@@ -5099,7 +5115,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9">
       <c r="A104" s="4">
         <v>6.04</v>
       </c>
@@ -5125,7 +5141,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9">
       <c r="A105" s="4">
         <v>4.8</v>
       </c>
@@ -5151,7 +5167,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9">
       <c r="A106" s="4">
         <v>9.6999999999999993</v>
       </c>
@@ -5177,7 +5193,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9">
       <c r="A107" s="4">
         <v>5.5</v>
       </c>
@@ -5203,7 +5219,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9">
       <c r="A108" s="4">
         <v>7</v>
       </c>
@@ -5229,7 +5245,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9">
       <c r="A109" s="4">
         <v>1</v>
       </c>
@@ -5255,7 +5271,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9">
       <c r="A110" s="4">
         <v>4</v>
       </c>
@@ -5281,7 +5297,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9">
       <c r="A111" s="4">
         <v>4.0999999999999996</v>
       </c>
@@ -5307,7 +5323,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9">
       <c r="A112" s="4">
         <v>2.3199999999999998</v>
       </c>
@@ -5333,7 +5349,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9">
       <c r="A113" s="4">
         <v>8</v>
       </c>
@@ -5359,7 +5375,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9">
       <c r="A114" s="4">
         <v>12.5</v>
       </c>
@@ -5385,7 +5401,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9">
       <c r="A115" s="4">
         <v>0.7</v>
       </c>
@@ -5411,7 +5427,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9">
       <c r="A116" s="4">
         <v>6.3</v>
       </c>
@@ -5437,7 +5453,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9">
       <c r="A117" s="4">
         <v>8</v>
       </c>
@@ -5463,7 +5479,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9">
       <c r="A118" s="4">
         <v>5.0999999999999996</v>
       </c>
@@ -5489,7 +5505,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9">
       <c r="A119" s="4">
         <v>8</v>
       </c>
@@ -5515,7 +5531,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9">
       <c r="A120" s="4">
         <v>4.5</v>
       </c>
@@ -5541,7 +5557,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9">
       <c r="A121" s="4">
         <v>2.5</v>
       </c>
@@ -5567,7 +5583,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9">
       <c r="A122" s="4">
         <v>24.3</v>
       </c>
@@ -5593,7 +5609,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9">
       <c r="A123" s="4">
         <v>2</v>
       </c>
@@ -5619,7 +5635,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9">
       <c r="A124" s="4">
         <v>16</v>
       </c>
@@ -5645,7 +5661,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9">
       <c r="A125" s="4">
         <v>6</v>
       </c>
@@ -5671,7 +5687,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9">
       <c r="A126" s="4">
         <v>5</v>
       </c>
@@ -5697,7 +5713,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9">
       <c r="A127" s="4">
         <v>6.52</v>
       </c>
@@ -5723,7 +5739,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9">
       <c r="A128" s="4">
         <v>1.8</v>
       </c>
@@ -5749,7 +5765,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9">
       <c r="A129" s="4">
         <v>1</v>
       </c>
@@ -5775,7 +5791,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9">
       <c r="A130" s="4">
         <v>5</v>
       </c>
@@ -5801,7 +5817,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9">
       <c r="A131" s="4">
         <v>43</v>
       </c>
@@ -5827,7 +5843,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9">
       <c r="A132" s="4">
         <v>10</v>
       </c>
@@ -5853,7 +5869,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9">
       <c r="A133" s="4">
         <v>2.97</v>
       </c>
@@ -5879,7 +5895,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9">
       <c r="A134" s="4">
         <v>10</v>
       </c>
@@ -5905,7 +5921,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9">
       <c r="A135" s="4">
         <v>1.6</v>
       </c>
@@ -5931,7 +5947,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9">
       <c r="A136" s="4">
         <v>1.5</v>
       </c>
@@ -5957,7 +5973,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9">
       <c r="A137" s="4">
         <v>1.8</v>
       </c>
@@ -5983,7 +5999,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9">
       <c r="A138" s="4">
         <v>7.3</v>
       </c>
@@ -6009,7 +6025,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9">
       <c r="A139" s="4">
         <v>4</v>
       </c>
@@ -6035,7 +6051,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9">
       <c r="A140" s="4">
         <v>2.1</v>
       </c>
@@ -6061,7 +6077,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9">
       <c r="A141" s="4">
         <v>4.2</v>
       </c>
@@ -6087,7 +6103,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9">
       <c r="A142" s="4">
         <v>9</v>
       </c>
@@ -6113,7 +6129,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9">
       <c r="A143" s="4">
         <v>1</v>
       </c>
@@ -6139,7 +6155,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9">
       <c r="A144" s="4">
         <v>3.5</v>
       </c>
@@ -6165,7 +6181,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9">
       <c r="A145" s="4">
         <v>5.0999999999999996</v>
       </c>
@@ -6191,7 +6207,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9">
       <c r="A146" s="4">
         <v>3</v>
       </c>
@@ -6217,7 +6233,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9">
       <c r="A147" s="4">
         <v>2</v>
       </c>
@@ -6243,7 +6259,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9">
       <c r="A148" s="4">
         <v>150</v>
       </c>
@@ -6269,7 +6285,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9">
       <c r="A149" s="4">
         <v>7</v>
       </c>
@@ -6295,7 +6311,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9">
       <c r="A150" s="4">
         <v>5</v>
       </c>
@@ -6321,7 +6337,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9">
       <c r="A151" s="4">
         <v>8</v>
       </c>
@@ -6347,7 +6363,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9">
       <c r="A152" s="4">
         <v>3.5</v>
       </c>
@@ -6373,7 +6389,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9">
       <c r="A153" s="4">
         <v>55</v>
       </c>
@@ -6399,7 +6415,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9">
       <c r="A154" s="4">
         <v>0.6</v>
       </c>
@@ -6425,7 +6441,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9">
       <c r="A155" s="4">
         <v>4</v>
       </c>
@@ -6451,7 +6467,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9">
       <c r="A156" s="4">
         <v>39.9</v>
       </c>
@@ -6477,7 +6493,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9">
       <c r="A157" s="4">
         <v>1.6</v>
       </c>
@@ -6503,7 +6519,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9">
       <c r="A158" s="4">
         <v>80</v>
       </c>
@@ -6529,7 +6545,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9">
       <c r="A159" s="4">
         <v>6.2</v>
       </c>
@@ -6555,7 +6571,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9">
       <c r="A160" s="4">
         <v>15</v>
       </c>
@@ -6581,7 +6597,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9">
       <c r="A161" s="4">
         <v>4.3</v>
       </c>
@@ -6607,7 +6623,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9">
       <c r="A162" s="4">
         <v>9.6999999999999993</v>
       </c>
@@ -6633,7 +6649,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9">
       <c r="A163" s="4">
         <v>2.4500000000000002</v>
       </c>
@@ -6659,7 +6675,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9">
       <c r="A164" s="4">
         <v>1.96</v>
       </c>
@@ -6685,7 +6701,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9">
       <c r="A165" s="4">
         <v>11.5</v>
       </c>
@@ -6711,7 +6727,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9">
       <c r="A166" s="4">
         <v>2.7</v>
       </c>
@@ -6737,7 +6753,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9">
       <c r="A167" s="4">
         <v>2.7</v>
       </c>
@@ -6763,7 +6779,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9">
       <c r="A168" s="4">
         <v>7</v>
       </c>
@@ -6789,7 +6805,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9">
       <c r="A169" s="4">
         <v>4.8</v>
       </c>
@@ -6815,7 +6831,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9">
       <c r="A170" s="4">
         <v>4.4000000000000004</v>
       </c>
@@ -6841,7 +6857,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9">
       <c r="A171" s="4">
         <v>3.8</v>
       </c>
@@ -6867,7 +6883,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9">
       <c r="A172" s="4">
         <v>1.5</v>
       </c>
@@ -6893,7 +6909,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9">
       <c r="A173" s="4">
         <v>11.5</v>
       </c>
@@ -6919,7 +6935,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9">
       <c r="A174" s="4">
         <v>4.4000000000000004</v>
       </c>
@@ -6945,7 +6961,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9">
       <c r="A175" s="4">
         <v>6.5</v>
       </c>
@@ -6971,7 +6987,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9">
       <c r="A176" s="4">
         <v>6.5</v>
       </c>
@@ -6997,7 +7013,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9">
       <c r="A177" s="4">
         <v>5</v>
       </c>
@@ -7023,7 +7039,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9">
       <c r="A178" s="4">
         <v>6</v>
       </c>
@@ -7049,7 +7065,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9">
       <c r="A179" s="4">
         <v>8</v>
       </c>
@@ -7075,7 +7091,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9">
       <c r="A180" s="4">
         <v>3.2</v>
       </c>
@@ -7101,7 +7117,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9">
       <c r="A181" s="4">
         <v>10</v>
       </c>
@@ -7127,7 +7143,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9">
       <c r="A182" s="4">
         <v>3</v>
       </c>
@@ -7153,7 +7169,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9">
       <c r="A183" s="4">
         <v>10</v>
       </c>
@@ -7179,7 +7195,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9">
       <c r="A184" s="4">
         <v>3.5</v>
       </c>
@@ -7205,7 +7221,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9">
       <c r="A185" s="4">
         <v>10</v>
       </c>
@@ -7231,7 +7247,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9">
       <c r="A186" s="4">
         <v>8</v>
       </c>
@@ -7257,7 +7273,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9">
       <c r="A187" s="4">
         <v>6.2</v>
       </c>
@@ -7283,7 +7299,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9">
       <c r="A188" s="4">
         <v>2</v>
       </c>
@@ -7309,7 +7325,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9">
       <c r="A189" s="4">
         <v>10</v>
       </c>
@@ -7335,7 +7351,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9">
       <c r="A190" s="4">
         <v>22</v>
       </c>
@@ -7361,7 +7377,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9">
       <c r="A191" s="4">
         <v>14</v>
       </c>
@@ -7387,7 +7403,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9">
       <c r="A192" s="4">
         <v>14</v>
       </c>
@@ -7413,7 +7429,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9">
       <c r="A193" s="4">
         <v>4.7</v>
       </c>
@@ -7439,7 +7455,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9">
       <c r="A194" s="4">
         <v>69.900000000000006</v>
       </c>
@@ -7465,7 +7481,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9">
       <c r="A195" s="4">
         <v>8.4</v>
       </c>
@@ -7491,7 +7507,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9">
       <c r="A196" s="4">
         <v>5</v>
       </c>
@@ -7517,7 +7533,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9">
       <c r="A197" s="4">
         <v>4.5</v>
       </c>
@@ -7543,7 +7559,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9">
       <c r="A198" s="4">
         <v>6</v>
       </c>
@@ -7569,7 +7585,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9">
       <c r="A199" s="4">
         <v>5.46</v>
       </c>
@@ -7595,7 +7611,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9">
       <c r="A200" s="4">
         <v>78.849999999999994</v>
       </c>
@@ -7621,7 +7637,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9">
       <c r="A201" s="4">
         <v>10</v>
       </c>
@@ -7647,7 +7663,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9">
       <c r="A202" s="4">
         <v>10</v>
       </c>
@@ -7673,7 +7689,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9">
       <c r="A203" s="4">
         <v>26</v>
       </c>
@@ -7699,7 +7715,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9">
       <c r="A204" s="4">
         <v>2</v>
       </c>
@@ -7725,7 +7741,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9">
       <c r="A205" s="4">
         <v>2.5</v>
       </c>
@@ -7751,7 +7767,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9">
       <c r="A206" s="4">
         <v>5.9</v>
       </c>
@@ -7777,7 +7793,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9">
       <c r="A207" s="4">
         <v>8.6</v>
       </c>
@@ -7803,7 +7819,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9">
       <c r="A208" s="4">
         <v>2.7</v>
       </c>
@@ -7829,7 +7845,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9">
       <c r="A209" s="4">
         <v>4.8</v>
       </c>
@@ -7855,7 +7871,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9">
       <c r="A210" s="4">
         <v>2.8</v>
       </c>
@@ -7881,7 +7897,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9">
       <c r="A211" s="4">
         <v>2</v>
       </c>
@@ -7907,7 +7923,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9">
       <c r="A212" s="4">
         <v>5</v>
       </c>
@@ -7933,7 +7949,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9">
       <c r="A213" s="4">
         <v>2.5</v>
       </c>
@@ -7959,7 +7975,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9">
       <c r="A214" s="4">
         <v>3.5</v>
       </c>
@@ -7985,7 +8001,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9">
       <c r="A215" s="4">
         <v>1.8</v>
       </c>
@@ -8011,7 +8027,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9">
       <c r="A216" s="4">
         <v>4</v>
       </c>
@@ -8037,7 +8053,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9">
       <c r="A217" s="4">
         <v>6</v>
       </c>
@@ -8063,7 +8079,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9">
       <c r="A218" s="4">
         <v>1.8</v>
       </c>
@@ -8089,7 +8105,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9">
       <c r="A219" s="4">
         <v>5</v>
       </c>
@@ -8115,7 +8131,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9">
       <c r="A220" s="4">
         <v>5</v>
       </c>
@@ -8141,7 +8157,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9">
       <c r="A221" s="4">
         <v>4.7</v>
       </c>
@@ -8167,7 +8183,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9">
       <c r="A222" s="4">
         <v>5</v>
       </c>
@@ -8193,7 +8209,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9">
       <c r="A223" s="4">
         <v>10</v>
       </c>
@@ -8219,7 +8235,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9">
       <c r="A224" s="4">
         <v>1.5</v>
       </c>
@@ -8245,7 +8261,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9">
       <c r="A225" s="4">
         <v>129</v>
       </c>
@@ -8271,7 +8287,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9">
       <c r="A226" s="4">
         <v>7</v>
       </c>
@@ -8297,7 +8313,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9">
       <c r="A227" s="4">
         <v>2.8</v>
       </c>
@@ -8323,7 +8339,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9">
       <c r="A228" s="4">
         <v>1</v>
       </c>
@@ -8349,7 +8365,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9">
       <c r="A229" s="4">
         <v>4</v>
       </c>
@@ -8375,7 +8391,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9">
       <c r="A230" s="4">
         <v>50</v>
       </c>
@@ -8401,7 +8417,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9">
       <c r="A231" s="4">
         <v>7.2</v>
       </c>
@@ -8427,7 +8443,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9">
       <c r="A232" s="4">
         <v>1</v>
       </c>
@@ -8453,7 +8469,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9">
       <c r="A233" s="4">
         <v>7</v>
       </c>
@@ -8479,7 +8495,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9">
       <c r="A234" s="4">
         <v>1.1000000000000001</v>
       </c>
@@ -8505,7 +8521,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9">
       <c r="A235" s="4">
         <v>7</v>
       </c>
@@ -8531,7 +8547,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9">
       <c r="A236" s="4">
         <v>15</v>
       </c>
@@ -8557,7 +8573,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9">
       <c r="A237" s="4">
         <v>3</v>
       </c>
@@ -8583,7 +8599,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9">
       <c r="A238" s="4">
         <v>11.2</v>
       </c>
@@ -8609,7 +8625,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9">
       <c r="A239" s="4">
         <v>2.1</v>
       </c>
@@ -8635,7 +8651,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9">
       <c r="A240" s="4">
         <v>150</v>
       </c>
@@ -8661,7 +8677,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9">
       <c r="A241" s="4">
         <v>12.7</v>
       </c>
@@ -8687,7 +8703,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9">
       <c r="A242" s="4">
         <v>89.9</v>
       </c>
@@ -8713,7 +8729,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9">
       <c r="A243" s="4">
         <v>4.4000000000000004</v>
       </c>
@@ -8739,7 +8755,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9">
       <c r="A244" s="4">
         <v>4.2</v>
       </c>
@@ -8765,7 +8781,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9">
       <c r="A245" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -8791,7 +8807,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9">
       <c r="A246" s="4">
         <v>5</v>
       </c>
@@ -8817,7 +8833,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9">
       <c r="A247" s="4">
         <v>5</v>
       </c>
@@ -8843,7 +8859,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9">
       <c r="A248" s="4">
         <v>3.9</v>
       </c>
@@ -8869,7 +8885,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9">
       <c r="A249" s="4">
         <v>0.5</v>
       </c>
@@ -8895,7 +8911,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9">
       <c r="A250" s="4">
         <v>2.4</v>
       </c>
@@ -8921,7 +8937,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9">
       <c r="A251" s="4">
         <v>2</v>
       </c>
@@ -8947,7 +8963,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9">
       <c r="A252" s="4">
         <v>4.7</v>
       </c>
@@ -8973,7 +8989,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9">
       <c r="A253" s="4">
         <v>5.3</v>
       </c>
@@ -8999,7 +9015,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9">
       <c r="A254" s="4">
         <v>4.2</v>
       </c>
@@ -9025,7 +9041,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9">
       <c r="A255" s="4">
         <v>5</v>
       </c>
@@ -9051,7 +9067,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9">
       <c r="A256" s="4">
         <v>2.5</v>
       </c>
@@ -9077,7 +9093,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9">
       <c r="A257" s="4">
         <v>3.3</v>
       </c>
@@ -9103,7 +9119,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9">
       <c r="A258" s="4">
         <v>5.6</v>
       </c>
@@ -9129,7 +9145,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9">
       <c r="A259" s="4">
         <v>4</v>
       </c>
@@ -9155,7 +9171,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9">
       <c r="A260" s="4">
         <v>10.199999999999999</v>
       </c>
@@ -9181,7 +9197,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9">
       <c r="A261" s="4">
         <v>8</v>
       </c>
@@ -9207,7 +9223,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9">
       <c r="A262" s="4">
         <v>2.1</v>
       </c>
@@ -9233,7 +9249,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9">
       <c r="A263" s="4">
         <v>3.7</v>
       </c>
@@ -9259,7 +9275,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9">
       <c r="A264" s="4">
         <v>7</v>
       </c>
@@ -9285,7 +9301,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9">
       <c r="A265" s="4">
         <v>13.5</v>
       </c>
@@ -9311,7 +9327,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="266" span